--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -78428,34 +78428,34 @@
     <row r="4589">
       <c r="A4589" t="inlineStr">
         <is>
-          <t>2025-08-10</t>
+          <t>2025-05-24</t>
         </is>
       </c>
       <c r="B4589" t="inlineStr">
         <is>
-          <t>1754784000</t>
+          <t>1748044800</t>
         </is>
       </c>
       <c r="C4589" t="inlineStr">
         <is>
-          <t>18651305.0086</t>
+          <t>12621325.6662</t>
         </is>
       </c>
     </row>
     <row r="4590">
       <c r="A4590" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="B4590" t="inlineStr">
         <is>
-          <t>1748044800</t>
+          <t>1754784000</t>
         </is>
       </c>
       <c r="C4590" t="inlineStr">
         <is>
-          <t>12621325.6662</t>
+          <t>18651305.0086</t>
         </is>
       </c>
     </row>
@@ -79873,51 +79873,51 @@
     <row r="4674">
       <c r="A4674" t="inlineStr">
         <is>
-          <t>2025-08-03</t>
+          <t>2012-01-05</t>
         </is>
       </c>
       <c r="B4674" t="inlineStr">
         <is>
-          <t>1754179200</t>
+          <t>1325721600</t>
         </is>
       </c>
       <c r="C4674" t="inlineStr">
         <is>
-          <t>19068613.3983</t>
+          <t>1166389.9498</t>
         </is>
       </c>
     </row>
     <row r="4675">
       <c r="A4675" t="inlineStr">
         <is>
-          <t>2012-01-05</t>
+          <t>2012-09-21</t>
         </is>
       </c>
       <c r="B4675" t="inlineStr">
         <is>
-          <t>1325721600</t>
+          <t>1348185600</t>
         </is>
       </c>
       <c r="C4675" t="inlineStr">
         <is>
-          <t>1166389.9498</t>
+          <t>2087568.2705</t>
         </is>
       </c>
     </row>
     <row r="4676">
       <c r="A4676" t="inlineStr">
         <is>
-          <t>2012-09-21</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="B4676" t="inlineStr">
         <is>
-          <t>1348185600</t>
+          <t>1754179200</t>
         </is>
       </c>
       <c r="C4676" t="inlineStr">
         <is>
-          <t>2087568.2705</t>
+          <t>19068613.3983</t>
         </is>
       </c>
     </row>
@@ -88220,51 +88220,51 @@
     <row r="5165">
       <c r="A5165" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2016-09-03</t>
         </is>
       </c>
       <c r="B5165" t="inlineStr">
         <is>
-          <t>1754956800</t>
+          <t>1472860800</t>
         </is>
       </c>
       <c r="C5165" t="inlineStr">
         <is>
-          <t>18413104.7757</t>
+          <t>5203377.9108</t>
         </is>
       </c>
     </row>
     <row r="5166">
       <c r="A5166" t="inlineStr">
         <is>
-          <t>2016-09-03</t>
+          <t>2014-10-22</t>
         </is>
       </c>
       <c r="B5166" t="inlineStr">
         <is>
-          <t>1472860800</t>
+          <t>1413936000</t>
         </is>
       </c>
       <c r="C5166" t="inlineStr">
         <is>
-          <t>5203377.9108</t>
+          <t>3035976.2861</t>
         </is>
       </c>
     </row>
     <row r="5167">
       <c r="A5167" t="inlineStr">
         <is>
-          <t>2014-10-22</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B5167" t="inlineStr">
         <is>
-          <t>1413936000</t>
+          <t>1754956800</t>
         </is>
       </c>
       <c r="C5167" t="inlineStr">
         <is>
-          <t>3035976.2861</t>
+          <t>18413104.7757</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5476"/>
+  <dimension ref="A1:C5477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76048,51 +76048,51 @@
     <row r="4449">
       <c r="A4449" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B4449" t="inlineStr">
         <is>
-          <t>1754611200</t>
+          <t>1744675200</t>
         </is>
       </c>
       <c r="C4449" t="inlineStr">
         <is>
-          <t>18720754.9508</t>
+          <t>12026603.2862</t>
         </is>
       </c>
     </row>
     <row r="4450">
       <c r="A4450" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="B4450" t="inlineStr">
         <is>
-          <t>1744675200</t>
+          <t>1749859200</t>
         </is>
       </c>
       <c r="C4450" t="inlineStr">
         <is>
-          <t>12026603.2862</t>
+          <t>12816462.7064</t>
         </is>
       </c>
     </row>
     <row r="4451">
       <c r="A4451" t="inlineStr">
         <is>
-          <t>2025-06-14</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="B4451" t="inlineStr">
         <is>
-          <t>1749859200</t>
+          <t>1754611200</t>
         </is>
       </c>
       <c r="C4451" t="inlineStr">
         <is>
-          <t>12816462.7064</t>
+          <t>18720754.9508</t>
         </is>
       </c>
     </row>
@@ -77493,136 +77493,136 @@
     <row r="4534">
       <c r="A4534" t="inlineStr">
         <is>
-          <t>2025-08-02</t>
+          <t>2013-12-21</t>
         </is>
       </c>
       <c r="B4534" t="inlineStr">
         <is>
-          <t>1754092800</t>
+          <t>1387584000</t>
         </is>
       </c>
       <c r="C4534" t="inlineStr">
         <is>
-          <t>19491754.3483</t>
+          <t>6728825.2808</t>
         </is>
       </c>
     </row>
     <row r="4535">
       <c r="A4535" t="inlineStr">
         <is>
-          <t>2013-12-21</t>
+          <t>2014-10-10</t>
         </is>
       </c>
       <c r="B4535" t="inlineStr">
         <is>
-          <t>1387584000</t>
+          <t>1412899200</t>
         </is>
       </c>
       <c r="C4535" t="inlineStr">
         <is>
-          <t>6728825.2808</t>
+          <t>2992765.3590</t>
         </is>
       </c>
     </row>
     <row r="4536">
       <c r="A4536" t="inlineStr">
         <is>
-          <t>2014-10-10</t>
+          <t>2016-05-19</t>
         </is>
       </c>
       <c r="B4536" t="inlineStr">
         <is>
-          <t>1412899200</t>
+          <t>1463616000</t>
         </is>
       </c>
       <c r="C4536" t="inlineStr">
         <is>
-          <t>2992765.3590</t>
+          <t>5588618.6973</t>
         </is>
       </c>
     </row>
     <row r="4537">
       <c r="A4537" t="inlineStr">
         <is>
-          <t>2016-05-19</t>
+          <t>2011-01-20</t>
         </is>
       </c>
       <c r="B4537" t="inlineStr">
         <is>
-          <t>1463616000</t>
+          <t>1295481600</t>
         </is>
       </c>
       <c r="C4537" t="inlineStr">
         <is>
-          <t>5588618.6973</t>
+          <t>279211.8682</t>
         </is>
       </c>
     </row>
     <row r="4538">
       <c r="A4538" t="inlineStr">
         <is>
-          <t>2011-01-20</t>
+          <t>2011-07-25</t>
         </is>
       </c>
       <c r="B4538" t="inlineStr">
         <is>
-          <t>1295481600</t>
+          <t>1311552000</t>
         </is>
       </c>
       <c r="C4538" t="inlineStr">
         <is>
-          <t>279211.8682</t>
+          <t>1790527.2546</t>
         </is>
       </c>
     </row>
     <row r="4539">
       <c r="A4539" t="inlineStr">
         <is>
-          <t>2011-07-25</t>
+          <t>2012-07-09</t>
         </is>
       </c>
       <c r="B4539" t="inlineStr">
         <is>
-          <t>1311552000</t>
+          <t>1341792000</t>
         </is>
       </c>
       <c r="C4539" t="inlineStr">
         <is>
-          <t>1790527.2546</t>
+          <t>1375759.8292</t>
         </is>
       </c>
     </row>
     <row r="4540">
       <c r="A4540" t="inlineStr">
         <is>
-          <t>2012-07-09</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B4540" t="inlineStr">
         <is>
-          <t>1341792000</t>
+          <t>1753315200</t>
         </is>
       </c>
       <c r="C4540" t="inlineStr">
         <is>
-          <t>1375759.8292</t>
+          <t>19364978.5408</t>
         </is>
       </c>
     </row>
     <row r="4541">
       <c r="A4541" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="B4541" t="inlineStr">
         <is>
-          <t>1753315200</t>
+          <t>1754092800</t>
         </is>
       </c>
       <c r="C4541" t="inlineStr">
         <is>
-          <t>19364978.5408</t>
+          <t>19491754.3483</t>
         </is>
       </c>
     </row>
@@ -83647,68 +83647,68 @@
     <row r="4896">
       <c r="A4896" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2015-04-27</t>
         </is>
       </c>
       <c r="B4896" t="inlineStr">
         <is>
-          <t>1754870400</t>
+          <t>1430092800</t>
         </is>
       </c>
       <c r="C4896" t="inlineStr">
         <is>
-          <t>18389579.9784</t>
+          <t>3258623.9982</t>
         </is>
       </c>
     </row>
     <row r="4897">
       <c r="A4897" t="inlineStr">
         <is>
-          <t>2015-04-27</t>
+          <t>2012-12-23</t>
         </is>
       </c>
       <c r="B4897" t="inlineStr">
         <is>
-          <t>1430092800</t>
+          <t>1356220800</t>
         </is>
       </c>
       <c r="C4897" t="inlineStr">
         <is>
-          <t>3258623.9982</t>
+          <t>1899621.6939</t>
         </is>
       </c>
     </row>
     <row r="4898">
       <c r="A4898" t="inlineStr">
         <is>
-          <t>2012-12-23</t>
+          <t>2013-04-26</t>
         </is>
       </c>
       <c r="B4898" t="inlineStr">
         <is>
-          <t>1356220800</t>
+          <t>1366934400</t>
         </is>
       </c>
       <c r="C4898" t="inlineStr">
         <is>
-          <t>1899621.6939</t>
+          <t>5662798.7562</t>
         </is>
       </c>
     </row>
     <row r="4899">
       <c r="A4899" t="inlineStr">
         <is>
-          <t>2013-04-26</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B4899" t="inlineStr">
         <is>
-          <t>1366934400</t>
+          <t>1754870400</t>
         </is>
       </c>
       <c r="C4899" t="inlineStr">
         <is>
-          <t>5662798.7562</t>
+          <t>18389579.9784</t>
         </is>
       </c>
     </row>
@@ -92062,1460 +92062,1477 @@
     <row r="5391">
       <c r="A5391" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B5391" t="inlineStr">
         <is>
-          <t>1513555200</t>
+          <t>1755043200</t>
         </is>
       </c>
       <c r="C5391" t="inlineStr">
         <is>
-          <t>17645156.9991</t>
+          <t>18209088.1140</t>
         </is>
       </c>
     </row>
     <row r="5392">
       <c r="A5392" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="B5392" t="inlineStr">
         <is>
-          <t>1620518400</t>
+          <t>1513555200</t>
         </is>
       </c>
       <c r="C5392" t="inlineStr">
         <is>
-          <t>13264526.5840</t>
+          <t>17645156.9991</t>
         </is>
       </c>
     </row>
     <row r="5393">
       <c r="A5393" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B5393" t="inlineStr">
         <is>
-          <t>1685318400</t>
+          <t>1620518400</t>
         </is>
       </c>
       <c r="C5393" t="inlineStr">
         <is>
-          <t>8486747.4331</t>
+          <t>13264526.5840</t>
         </is>
       </c>
     </row>
     <row r="5394">
       <c r="A5394" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B5394" t="inlineStr">
         <is>
-          <t>1421712000</t>
+          <t>1685318400</t>
         </is>
       </c>
       <c r="C5394" t="inlineStr">
         <is>
-          <t>4046018.4828</t>
+          <t>8486747.4331</t>
         </is>
       </c>
     </row>
     <row r="5395">
       <c r="A5395" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B5395" t="inlineStr">
         <is>
-          <t>1436400000</t>
+          <t>1421712000</t>
         </is>
       </c>
       <c r="C5395" t="inlineStr">
         <is>
-          <t>2718554.4658</t>
+          <t>4046018.4828</t>
         </is>
       </c>
     </row>
     <row r="5396">
       <c r="A5396" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="B5396" t="inlineStr">
         <is>
-          <t>1339977600</t>
+          <t>1436400000</t>
         </is>
       </c>
       <c r="C5396" t="inlineStr">
         <is>
-          <t>1367243.3895</t>
+          <t>2718554.4658</t>
         </is>
       </c>
     </row>
     <row r="5397">
       <c r="A5397" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2012-06-18</t>
         </is>
       </c>
       <c r="B5397" t="inlineStr">
         <is>
-          <t>1728259200</t>
+          <t>1339977600</t>
         </is>
       </c>
       <c r="C5397" t="inlineStr">
         <is>
-          <t>9114476.3120</t>
+          <t>1367243.3895</t>
         </is>
       </c>
     </row>
     <row r="5398">
       <c r="A5398" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B5398" t="inlineStr">
         <is>
-          <t>1733443200</t>
+          <t>1728259200</t>
         </is>
       </c>
       <c r="C5398" t="inlineStr">
         <is>
-          <t>15346852.8711</t>
+          <t>9114476.3120</t>
         </is>
       </c>
     </row>
     <row r="5399">
       <c r="A5399" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B5399" t="inlineStr">
         <is>
-          <t>1748304000</t>
+          <t>1733443200</t>
         </is>
       </c>
       <c r="C5399" t="inlineStr">
         <is>
-          <t>12870879.4774</t>
+          <t>15346852.8711</t>
         </is>
       </c>
     </row>
     <row r="5400">
       <c r="A5400" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5400" t="inlineStr">
         <is>
-          <t>1515196800</t>
+          <t>1748304000</t>
         </is>
       </c>
       <c r="C5400" t="inlineStr">
         <is>
-          <t>17780525.2450</t>
+          <t>12870879.4774</t>
         </is>
       </c>
     </row>
     <row r="5401">
       <c r="A5401" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B5401" t="inlineStr">
         <is>
-          <t>1621036800</t>
+          <t>1515196800</t>
         </is>
       </c>
       <c r="C5401" t="inlineStr">
         <is>
-          <t>13194431.7259</t>
+          <t>17780525.2450</t>
         </is>
       </c>
     </row>
     <row r="5402">
       <c r="A5402" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B5402" t="inlineStr">
         <is>
-          <t>1686182400</t>
+          <t>1621036800</t>
         </is>
       </c>
       <c r="C5402" t="inlineStr">
         <is>
-          <t>8346328.6345</t>
+          <t>13194431.7259</t>
         </is>
       </c>
     </row>
     <row r="5403">
       <c r="A5403" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="B5403" t="inlineStr">
         <is>
-          <t>1722124800</t>
+          <t>1686182400</t>
         </is>
       </c>
       <c r="C5403" t="inlineStr">
         <is>
-          <t>16236706.9256</t>
+          <t>8346328.6345</t>
         </is>
       </c>
     </row>
     <row r="5404">
       <c r="A5404" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B5404" t="inlineStr">
         <is>
-          <t>1724544000</t>
+          <t>1722124800</t>
         </is>
       </c>
       <c r="C5404" t="inlineStr">
         <is>
-          <t>16585261.5760</t>
+          <t>16236706.9256</t>
         </is>
       </c>
     </row>
     <row r="5405">
       <c r="A5405" t="inlineStr">
         <is>
-          <t>2015-02-10</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5405" t="inlineStr">
         <is>
-          <t>1423526400</t>
+          <t>1724544000</t>
         </is>
       </c>
       <c r="C5405" t="inlineStr">
         <is>
-          <t>4071380.9743</t>
+          <t>16585261.5760</t>
         </is>
       </c>
     </row>
     <row r="5406">
       <c r="A5406" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="B5406" t="inlineStr">
         <is>
-          <t>1437091200</t>
+          <t>1423526400</t>
         </is>
       </c>
       <c r="C5406" t="inlineStr">
         <is>
-          <t>2793932.2942</t>
+          <t>4071380.9743</t>
         </is>
       </c>
     </row>
     <row r="5407">
       <c r="A5407" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5407" t="inlineStr">
         <is>
-          <t>1340841600</t>
+          <t>1437091200</t>
         </is>
       </c>
       <c r="C5407" t="inlineStr">
         <is>
-          <t>1363857.9434</t>
+          <t>2793932.2942</t>
         </is>
       </c>
     </row>
     <row r="5408">
       <c r="A5408" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5408" t="inlineStr">
         <is>
-          <t>1739664000</t>
+          <t>1340841600</t>
         </is>
       </c>
       <c r="C5408" t="inlineStr">
         <is>
-          <t>18882222.0421</t>
+          <t>1363857.9434</t>
         </is>
       </c>
     </row>
     <row r="5409">
       <c r="A5409" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5409" t="inlineStr">
         <is>
-          <t>1730246400</t>
+          <t>1739664000</t>
         </is>
       </c>
       <c r="C5409" t="inlineStr">
         <is>
-          <t>9386582.3714</t>
+          <t>18882222.0421</t>
         </is>
       </c>
     </row>
     <row r="5410">
       <c r="A5410" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5410" t="inlineStr">
         <is>
-          <t>1516233600</t>
+          <t>1730246400</t>
         </is>
       </c>
       <c r="C5410" t="inlineStr">
         <is>
-          <t>17890389.8989</t>
+          <t>9386582.3714</t>
         </is>
       </c>
     </row>
     <row r="5411">
       <c r="A5411" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5411" t="inlineStr">
         <is>
-          <t>1623196800</t>
+          <t>1516233600</t>
         </is>
       </c>
       <c r="C5411" t="inlineStr">
         <is>
-          <t>12015164.2793</t>
+          <t>17890389.8989</t>
         </is>
       </c>
     </row>
     <row r="5412">
       <c r="A5412" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5412" t="inlineStr">
         <is>
-          <t>1687910400</t>
+          <t>1623196800</t>
         </is>
       </c>
       <c r="C5412" t="inlineStr">
         <is>
-          <t>7902657.1241</t>
+          <t>12015164.2793</t>
         </is>
       </c>
     </row>
     <row r="5413">
       <c r="A5413" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5413" t="inlineStr">
         <is>
-          <t>1726790400</t>
+          <t>1687910400</t>
         </is>
       </c>
       <c r="C5413" t="inlineStr">
         <is>
-          <t>10503343.6498</t>
+          <t>7902657.1241</t>
         </is>
       </c>
     </row>
     <row r="5414">
       <c r="A5414" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5414" t="inlineStr">
         <is>
-          <t>1424908800</t>
+          <t>1726790400</t>
         </is>
       </c>
       <c r="C5414" t="inlineStr">
         <is>
-          <t>3819509.2714</t>
+          <t>10503343.6498</t>
         </is>
       </c>
     </row>
     <row r="5415">
       <c r="A5415" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5415" t="inlineStr">
         <is>
-          <t>1437696000</t>
+          <t>1424908800</t>
         </is>
       </c>
       <c r="C5415" t="inlineStr">
         <is>
-          <t>2826416.0029</t>
+          <t>3819509.2714</t>
         </is>
       </c>
     </row>
     <row r="5416">
       <c r="A5416" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5416" t="inlineStr">
         <is>
-          <t>1342828800</t>
+          <t>1437696000</t>
         </is>
       </c>
       <c r="C5416" t="inlineStr">
         <is>
-          <t>1630324.6793</t>
+          <t>2826416.0029</t>
         </is>
       </c>
     </row>
     <row r="5417">
       <c r="A5417" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5417" t="inlineStr">
         <is>
-          <t>1745452800</t>
+          <t>1342828800</t>
         </is>
       </c>
       <c r="C5417" t="inlineStr">
         <is>
-          <t>10658742.5609</t>
+          <t>1630324.6793</t>
         </is>
       </c>
     </row>
     <row r="5418">
       <c r="A5418" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5418" t="inlineStr">
         <is>
-          <t>1737072000</t>
+          <t>1745452800</t>
         </is>
       </c>
       <c r="C5418" t="inlineStr">
         <is>
-          <t>18727823.6488</t>
+          <t>10658742.5609</t>
         </is>
       </c>
     </row>
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5419" t="inlineStr">
         <is>
-          <t>1517356800</t>
+          <t>1737072000</t>
         </is>
       </c>
       <c r="C5419" t="inlineStr">
         <is>
-          <t>17224052.5034</t>
+          <t>18727823.6488</t>
         </is>
       </c>
     </row>
     <row r="5420">
       <c r="A5420" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5420" t="inlineStr">
         <is>
-          <t>1625011200</t>
+          <t>1517356800</t>
         </is>
       </c>
       <c r="C5420" t="inlineStr">
         <is>
-          <t>10673931.3479</t>
+          <t>17224052.5034</t>
         </is>
       </c>
     </row>
     <row r="5421">
       <c r="A5421" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5421" t="inlineStr">
         <is>
-          <t>1427241600</t>
+          <t>1625011200</t>
         </is>
       </c>
       <c r="C5421" t="inlineStr">
         <is>
-          <t>3979751.1416</t>
+          <t>10673931.3479</t>
         </is>
       </c>
     </row>
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5422" t="inlineStr">
         <is>
-          <t>1444780800</t>
+          <t>1427241600</t>
         </is>
       </c>
       <c r="C5422" t="inlineStr">
         <is>
-          <t>3642872.2976</t>
+          <t>3979751.1416</t>
         </is>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5423" t="inlineStr">
         <is>
-          <t>1344297600</t>
+          <t>1444780800</t>
         </is>
       </c>
       <c r="C5423" t="inlineStr">
         <is>
-          <t>1613219.4409</t>
+          <t>3642872.2976</t>
         </is>
       </c>
     </row>
     <row r="5424">
       <c r="A5424" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5424" t="inlineStr">
         <is>
-          <t>1741824000</t>
+          <t>1344297600</t>
         </is>
       </c>
       <c r="C5424" t="inlineStr">
         <is>
-          <t>14696488.1218</t>
+          <t>1613219.4409</t>
         </is>
       </c>
     </row>
     <row r="5425">
       <c r="A5425" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5425" t="inlineStr">
         <is>
-          <t>1732492800</t>
+          <t>1741824000</t>
         </is>
       </c>
       <c r="C5425" t="inlineStr">
         <is>
-          <t>13074131.7807</t>
+          <t>14696488.1218</t>
         </is>
       </c>
     </row>
     <row r="5426">
       <c r="A5426" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5426" t="inlineStr">
         <is>
-          <t>1517961600</t>
+          <t>1732492800</t>
         </is>
       </c>
       <c r="C5426" t="inlineStr">
         <is>
-          <t>18108889.1189</t>
+          <t>13074131.7807</t>
         </is>
       </c>
     </row>
     <row r="5427">
       <c r="A5427" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5427" t="inlineStr">
         <is>
-          <t>1625184000</t>
+          <t>1517961600</t>
         </is>
       </c>
       <c r="C5427" t="inlineStr">
         <is>
-          <t>10600975.1625</t>
+          <t>18108889.1189</t>
         </is>
       </c>
     </row>
     <row r="5428">
       <c r="A5428" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5428" t="inlineStr">
         <is>
-          <t>1429056000</t>
+          <t>1625184000</t>
         </is>
       </c>
       <c r="C5428" t="inlineStr">
         <is>
-          <t>3489354.7332</t>
+          <t>10600975.1625</t>
         </is>
       </c>
     </row>
     <row r="5429">
       <c r="A5429" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5429" t="inlineStr">
         <is>
-          <t>1445299200</t>
+          <t>1429056000</t>
         </is>
       </c>
       <c r="C5429" t="inlineStr">
         <is>
-          <t>3660667.0819</t>
+          <t>3489354.7332</t>
         </is>
       </c>
     </row>
     <row r="5430">
       <c r="A5430" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5430" t="inlineStr">
         <is>
-          <t>1290988800</t>
+          <t>1445299200</t>
         </is>
       </c>
       <c r="C5430" t="inlineStr">
         <is>
-          <t>316907.1272</t>
+          <t>3660667.0819</t>
         </is>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5431" t="inlineStr">
         <is>
-          <t>1345680000</t>
+          <t>1290988800</t>
         </is>
       </c>
       <c r="C5431" t="inlineStr">
         <is>
-          <t>1760535.9983</t>
+          <t>316907.1272</t>
         </is>
       </c>
     </row>
     <row r="5432">
       <c r="A5432" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5432" t="inlineStr">
         <is>
-          <t>1738368000</t>
+          <t>1345680000</t>
         </is>
       </c>
       <c r="C5432" t="inlineStr">
         <is>
-          <t>19760413.2226</t>
+          <t>1760535.9983</t>
         </is>
       </c>
     </row>
     <row r="5433">
       <c r="A5433" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5433" t="inlineStr">
         <is>
-          <t>1518825600</t>
+          <t>1738368000</t>
         </is>
       </c>
       <c r="C5433" t="inlineStr">
         <is>
-          <t>15296257.1177</t>
+          <t>19760413.2226</t>
         </is>
       </c>
     </row>
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5434" t="inlineStr">
         <is>
-          <t>1627516800</t>
+          <t>1518825600</t>
         </is>
       </c>
       <c r="C5434" t="inlineStr">
         <is>
-          <t>10677343.1650</t>
+          <t>15296257.1177</t>
         </is>
       </c>
     </row>
     <row r="5435">
       <c r="A5435" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5435" t="inlineStr">
         <is>
-          <t>1748822400</t>
+          <t>1627516800</t>
         </is>
       </c>
       <c r="C5435" t="inlineStr">
         <is>
-          <t>12841467.3176</t>
+          <t>10677343.1650</t>
         </is>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5436" t="inlineStr">
         <is>
-          <t>1431734400</t>
+          <t>1748822400</t>
         </is>
       </c>
       <c r="C5436" t="inlineStr">
         <is>
-          <t>3205484.5268</t>
+          <t>12841467.3176</t>
         </is>
       </c>
     </row>
     <row r="5437">
       <c r="A5437" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5437" t="inlineStr">
         <is>
-          <t>1447891200</t>
+          <t>1431734400</t>
         </is>
       </c>
       <c r="C5437" t="inlineStr">
         <is>
-          <t>4648212.4580</t>
+          <t>3205484.5268</t>
         </is>
       </c>
     </row>
     <row r="5438">
       <c r="A5438" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5438" t="inlineStr">
         <is>
-          <t>1347062400</t>
+          <t>1447891200</t>
         </is>
       </c>
       <c r="C5438" t="inlineStr">
         <is>
-          <t>1873037.1423</t>
+          <t>4648212.4580</t>
         </is>
       </c>
     </row>
     <row r="5439">
       <c r="A5439" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5439" t="inlineStr">
         <is>
-          <t>1735516800</t>
+          <t>1347062400</t>
         </is>
       </c>
       <c r="C5439" t="inlineStr">
         <is>
-          <t>19272529.0343</t>
+          <t>1873037.1423</t>
         </is>
       </c>
     </row>
     <row r="5440">
       <c r="A5440" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5440" t="inlineStr">
         <is>
-          <t>1520553600</t>
+          <t>1735516800</t>
         </is>
       </c>
       <c r="C5440" t="inlineStr">
         <is>
-          <t>13193422.7830</t>
+          <t>19272529.0343</t>
         </is>
       </c>
     </row>
     <row r="5441">
       <c r="A5441" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5441" t="inlineStr">
         <is>
-          <t>1629763200</t>
+          <t>1520553600</t>
         </is>
       </c>
       <c r="C5441" t="inlineStr">
         <is>
-          <t>8610177.4927</t>
+          <t>13193422.7830</t>
         </is>
       </c>
     </row>
     <row r="5442">
       <c r="A5442" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5442" t="inlineStr">
         <is>
-          <t>1747699200</t>
+          <t>1629763200</t>
         </is>
       </c>
       <c r="C5442" t="inlineStr">
         <is>
-          <t>12225489.8670</t>
+          <t>8610177.4927</t>
         </is>
       </c>
     </row>
     <row r="5443">
       <c r="A5443" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5443" t="inlineStr">
         <is>
-          <t>1432771200</t>
+          <t>1747699200</t>
         </is>
       </c>
       <c r="C5443" t="inlineStr">
         <is>
-          <t>2985205.1422</t>
+          <t>12225489.8670</t>
         </is>
       </c>
     </row>
     <row r="5444">
       <c r="A5444" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5444" t="inlineStr">
         <is>
-          <t>1449619200</t>
+          <t>1432771200</t>
         </is>
       </c>
       <c r="C5444" t="inlineStr">
         <is>
-          <t>4603582.0606</t>
+          <t>2985205.1422</t>
         </is>
       </c>
     </row>
     <row r="5445">
       <c r="A5445" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5445" t="inlineStr">
         <is>
-          <t>1348444800</t>
+          <t>1449619200</t>
         </is>
       </c>
       <c r="C5445" t="inlineStr">
         <is>
-          <t>2093652.7436</t>
+          <t>4603582.0606</t>
         </is>
       </c>
     </row>
     <row r="5446">
       <c r="A5446" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5446" t="inlineStr">
         <is>
-          <t>1743897600</t>
+          <t>1348444800</t>
         </is>
       </c>
       <c r="C5446" t="inlineStr">
         <is>
-          <t>11477197.5250</t>
+          <t>2093652.7436</t>
         </is>
       </c>
     </row>
     <row r="5447">
       <c r="A5447" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5447" t="inlineStr">
         <is>
-          <t>1753747200</t>
+          <t>1743897600</t>
         </is>
       </c>
       <c r="C5447" t="inlineStr">
         <is>
-          <t>19496972.8358</t>
+          <t>11477197.5250</t>
         </is>
       </c>
     </row>
     <row r="5448">
       <c r="A5448" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5448" t="inlineStr">
         <is>
-          <t>1522195200</t>
+          <t>1753747200</t>
         </is>
       </c>
       <c r="C5448" t="inlineStr">
         <is>
-          <t>10566019.6634</t>
+          <t>19496972.8358</t>
         </is>
       </c>
     </row>
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5449" t="inlineStr">
         <is>
-          <t>1631923200</t>
+          <t>1522195200</t>
         </is>
       </c>
       <c r="C5449" t="inlineStr">
         <is>
-          <t>8609734.7588</t>
+          <t>10566019.6634</t>
         </is>
       </c>
     </row>
     <row r="5450">
       <c r="A5450" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5450" t="inlineStr">
         <is>
-          <t>1434067200</t>
+          <t>1631923200</t>
         </is>
       </c>
       <c r="C5450" t="inlineStr">
         <is>
-          <t>2392944.2562</t>
+          <t>8609734.7588</t>
         </is>
       </c>
     </row>
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5451" t="inlineStr">
         <is>
-          <t>1450396800</t>
+          <t>1434067200</t>
         </is>
       </c>
       <c r="C5451" t="inlineStr">
         <is>
-          <t>4964683.7732</t>
+          <t>2392944.2562</t>
         </is>
       </c>
     </row>
     <row r="5452">
       <c r="A5452" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5452" t="inlineStr">
         <is>
-          <t>1349827200</t>
+          <t>1450396800</t>
         </is>
       </c>
       <c r="C5452" t="inlineStr">
         <is>
-          <t>2162784.4641</t>
+          <t>4964683.7732</t>
         </is>
       </c>
     </row>
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5453" t="inlineStr">
         <is>
-          <t>1754524800</t>
+          <t>1349827200</t>
         </is>
       </c>
       <c r="C5453" t="inlineStr">
         <is>
-          <t>18616838.3879</t>
+          <t>2162784.4641</t>
         </is>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5454" t="inlineStr">
         <is>
-          <t>1524009600</t>
+          <t>1754524800</t>
         </is>
       </c>
       <c r="C5454" t="inlineStr">
         <is>
-          <t>8046257.5876</t>
+          <t>18616838.3879</t>
         </is>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5455" t="inlineStr">
         <is>
-          <t>1632268800</t>
+          <t>1524009600</t>
         </is>
       </c>
       <c r="C5455" t="inlineStr">
         <is>
-          <t>8443126.1507</t>
+          <t>8046257.5876</t>
         </is>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5456" t="inlineStr">
         <is>
-          <t>1702857600</t>
+          <t>1632268800</t>
         </is>
       </c>
       <c r="C5456" t="inlineStr">
         <is>
-          <t>8386250.0083</t>
+          <t>8443126.1507</t>
         </is>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5457" t="inlineStr">
         <is>
-          <t>1435968000</t>
+          <t>1702857600</t>
         </is>
       </c>
       <c r="C5457" t="inlineStr">
         <is>
-          <t>2565551.2358</t>
+          <t>8386250.0083</t>
         </is>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5458" t="inlineStr">
         <is>
-          <t>1461110400</t>
+          <t>1435968000</t>
         </is>
       </c>
       <c r="C5458" t="inlineStr">
         <is>
-          <t>6127123.1058</t>
+          <t>2565551.2358</t>
         </is>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5459" t="inlineStr">
         <is>
-          <t>1351296000</t>
+          <t>1461110400</t>
         </is>
       </c>
       <c r="C5459" t="inlineStr">
         <is>
-          <t>2157212.8239</t>
+          <t>6127123.1058</t>
         </is>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5460" t="inlineStr">
         <is>
-          <t>1732060800</t>
+          <t>1351296000</t>
         </is>
       </c>
       <c r="C5460" t="inlineStr">
         <is>
-          <t>11978202.4479</t>
+          <t>2157212.8239</t>
         </is>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5461" t="inlineStr">
         <is>
-          <t>1741219200</t>
+          <t>1732060800</t>
         </is>
       </c>
       <c r="C5461" t="inlineStr">
         <is>
-          <t>15303734.8886</t>
+          <t>11978202.4479</t>
         </is>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5462" t="inlineStr">
         <is>
-          <t>1525305600</t>
+          <t>1741219200</t>
         </is>
       </c>
       <c r="C5462" t="inlineStr">
         <is>
-          <t>8103908.6516</t>
+          <t>15303734.8886</t>
         </is>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5463" t="inlineStr">
         <is>
-          <t>1633996800</t>
+          <t>1525305600</t>
         </is>
       </c>
       <c r="C5463" t="inlineStr">
         <is>
-          <t>9382181.9608</t>
+          <t>8103908.6516</t>
         </is>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5464" t="inlineStr">
         <is>
-          <t>1710460800</t>
+          <t>1633996800</t>
         </is>
       </c>
       <c r="C5464" t="inlineStr">
         <is>
-          <t>16784620.2616</t>
+          <t>9382181.9608</t>
         </is>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5465" t="inlineStr">
         <is>
-          <t>1710547200</t>
+          <t>1710460800</t>
         </is>
       </c>
       <c r="C5465" t="inlineStr">
         <is>
-          <t>16833063.9514</t>
+          <t>16784620.2616</t>
         </is>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5466" t="inlineStr">
         <is>
-          <t>1710633600</t>
+          <t>1710547200</t>
         </is>
       </c>
       <c r="C5466" t="inlineStr">
         <is>
-          <t>17049245.7339</t>
+          <t>16833063.9514</t>
         </is>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5467" t="inlineStr">
         <is>
-          <t>1710720000</t>
+          <t>1710633600</t>
         </is>
       </c>
       <c r="C5467" t="inlineStr">
         <is>
-          <t>17115867.2816</t>
+          <t>17049245.7339</t>
         </is>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5468" t="inlineStr">
         <is>
-          <t>1710806400</t>
+          <t>1710720000</t>
         </is>
       </c>
       <c r="C5468" t="inlineStr">
         <is>
-          <t>17153769.2993</t>
+          <t>17115867.2816</t>
         </is>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5469" t="inlineStr">
         <is>
-          <t>1710892800</t>
+          <t>1710806400</t>
         </is>
       </c>
       <c r="C5469" t="inlineStr">
         <is>
-          <t>17225229.4364</t>
+          <t>17153769.2993</t>
         </is>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5470" t="inlineStr">
         <is>
-          <t>1710979200</t>
+          <t>1710892800</t>
         </is>
       </c>
       <c r="C5470" t="inlineStr">
         <is>
-          <t>17249482.2496</t>
+          <t>17225229.4364</t>
         </is>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5471" t="inlineStr">
         <is>
-          <t>1711065600</t>
+          <t>1710979200</t>
         </is>
       </c>
       <c r="C5471" t="inlineStr">
         <is>
-          <t>17569350.6561</t>
+          <t>17249482.2496</t>
         </is>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5472" t="inlineStr">
         <is>
-          <t>1438560000</t>
+          <t>1711065600</t>
         </is>
       </c>
       <c r="C5472" t="inlineStr">
         <is>
-          <t>2859270.3166</t>
+          <t>17569350.6561</t>
         </is>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5473" t="inlineStr">
         <is>
-          <t>1462320000</t>
+          <t>1438560000</t>
         </is>
       </c>
       <c r="C5473" t="inlineStr">
         <is>
-          <t>5532498.7813</t>
+          <t>2859270.3166</t>
         </is>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5474" t="inlineStr">
         <is>
-          <t>1352678400</t>
+          <t>1462320000</t>
         </is>
       </c>
       <c r="C5474" t="inlineStr">
         <is>
-          <t>2138609.9942</t>
+          <t>5532498.7813</t>
         </is>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5475" t="inlineStr">
         <is>
-          <t>1750464000</t>
+          <t>1352678400</t>
         </is>
       </c>
       <c r="C5475" t="inlineStr">
         <is>
-          <t>12895454.9231</t>
+          <t>2138609.9942</t>
         </is>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5476" t="inlineStr">
+        <is>
+          <t>1750464000</t>
+        </is>
+      </c>
+      <c r="C5476" t="inlineStr">
+        <is>
+          <t>12895454.9231</t>
+        </is>
+      </c>
+    </row>
+    <row r="5477">
+      <c r="A5477" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5476" t="inlineStr">
+      <c r="B5477" t="inlineStr">
         <is>
           <t>1747267200</t>
         </is>
       </c>
-      <c r="C5476" t="inlineStr">
+      <c r="C5477" t="inlineStr">
         <is>
           <t>11691372.3174</t>
         </is>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5481"/>
+  <dimension ref="A1:C5482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78472,7 +78472,7 @@
       </c>
       <c r="C4591" t="inlineStr">
         <is>
-          <t>18301700.5079</t>
+          <t>18302045.4635</t>
         </is>
       </c>
     </row>
@@ -78666,34 +78666,34 @@
     <row r="4603">
       <c r="A4603" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B4603" t="inlineStr">
         <is>
-          <t>1755216000</t>
+          <t>1733184000</t>
         </is>
       </c>
       <c r="C4603" t="inlineStr">
         <is>
-          <t>18376476.5964</t>
+          <t>14241963.7885</t>
         </is>
       </c>
     </row>
     <row r="4604">
       <c r="A4604" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B4604" t="inlineStr">
         <is>
-          <t>1733184000</t>
+          <t>1755216000</t>
         </is>
       </c>
       <c r="C4604" t="inlineStr">
         <is>
-          <t>14241963.7885</t>
+          <t>18371824.6069</t>
         </is>
       </c>
     </row>
@@ -78880,7 +78880,7 @@
       </c>
       <c r="C4615" t="inlineStr">
         <is>
-          <t>18919775.4823</t>
+          <t>18538635.4086</t>
         </is>
       </c>
     </row>
@@ -84089,51 +84089,51 @@
     <row r="4922">
       <c r="A4922" t="inlineStr">
         <is>
-          <t>2025-08-17</t>
+          <t>2013-01-11</t>
         </is>
       </c>
       <c r="B4922" t="inlineStr">
         <is>
-          <t>1755388800</t>
+          <t>1357862400</t>
         </is>
       </c>
       <c r="C4922" t="inlineStr">
         <is>
-          <t>18646754.9236</t>
+          <t>1846369.4531</t>
         </is>
       </c>
     </row>
     <row r="4923">
       <c r="A4923" t="inlineStr">
         <is>
-          <t>2013-01-11</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="B4923" t="inlineStr">
         <is>
-          <t>1357862400</t>
+          <t>1739491200</t>
         </is>
       </c>
       <c r="C4923" t="inlineStr">
         <is>
-          <t>1846369.4531</t>
+          <t>19066275.8366</t>
         </is>
       </c>
     </row>
     <row r="4924">
       <c r="A4924" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B4924" t="inlineStr">
         <is>
-          <t>1739491200</t>
+          <t>1755388800</t>
         </is>
       </c>
       <c r="C4924" t="inlineStr">
         <is>
-          <t>19066275.8366</t>
+          <t>18263584.9517</t>
         </is>
       </c>
     </row>
@@ -88645,4962 +88645,4979 @@
     <row r="5190">
       <c r="A5190" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B5190" t="inlineStr">
         <is>
-          <t>1739577600</t>
+          <t>1755475200</t>
         </is>
       </c>
       <c r="C5190" t="inlineStr">
         <is>
-          <t>19014663.4203</t>
+          <t>18481078.7621</t>
         </is>
       </c>
     </row>
     <row r="5191">
       <c r="A5191" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="B5191" t="inlineStr">
         <is>
-          <t>1730160000</t>
+          <t>1739577600</t>
         </is>
       </c>
       <c r="C5191" t="inlineStr">
         <is>
-          <t>9408798.9336</t>
+          <t>19014663.4203</t>
         </is>
       </c>
     </row>
     <row r="5192">
       <c r="A5192" t="inlineStr">
         <is>
-          <t>2019-09-19</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B5192" t="inlineStr">
         <is>
-          <t>1568851200</t>
+          <t>1730160000</t>
         </is>
       </c>
       <c r="C5192" t="inlineStr">
         <is>
-          <t>11427939.8920</t>
+          <t>9408798.9336</t>
         </is>
       </c>
     </row>
     <row r="5193">
       <c r="A5193" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
+          <t>2019-09-19</t>
         </is>
       </c>
       <c r="B5193" t="inlineStr">
         <is>
-          <t>1639180800</t>
+          <t>1568851200</t>
         </is>
       </c>
       <c r="C5193" t="inlineStr">
         <is>
-          <t>9957806.9175</t>
+          <t>11427939.8920</t>
         </is>
       </c>
     </row>
     <row r="5194">
       <c r="A5194" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="B5194" t="inlineStr">
         <is>
-          <t>1723161600</t>
+          <t>1639180800</t>
         </is>
       </c>
       <c r="C5194" t="inlineStr">
         <is>
-          <t>17239012.7897</t>
+          <t>9957806.9175</t>
         </is>
       </c>
     </row>
     <row r="5195">
       <c r="A5195" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B5195" t="inlineStr">
         <is>
-          <t>1724630400</t>
+          <t>1723161600</t>
         </is>
       </c>
       <c r="C5195" t="inlineStr">
         <is>
-          <t>11167233.1648</t>
+          <t>17239012.7897</t>
         </is>
       </c>
     </row>
     <row r="5196">
       <c r="A5196" t="inlineStr">
         <is>
-          <t>2016-12-09</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B5196" t="inlineStr">
         <is>
-          <t>1481241600</t>
+          <t>1724630400</t>
         </is>
       </c>
       <c r="C5196" t="inlineStr">
         <is>
-          <t>5405479.0249</t>
+          <t>11167233.1648</t>
         </is>
       </c>
     </row>
     <row r="5197">
       <c r="A5197" t="inlineStr">
         <is>
-          <t>2014-01-10</t>
+          <t>2016-12-09</t>
         </is>
       </c>
       <c r="B5197" t="inlineStr">
         <is>
-          <t>1389312000</t>
+          <t>1481241600</t>
         </is>
       </c>
       <c r="C5197" t="inlineStr">
         <is>
-          <t>6911767.6674</t>
+          <t>5405479.0249</t>
         </is>
       </c>
     </row>
     <row r="5198">
       <c r="A5198" t="inlineStr">
         <is>
-          <t>2014-11-18</t>
+          <t>2014-01-10</t>
         </is>
       </c>
       <c r="B5198" t="inlineStr">
         <is>
-          <t>1416268800</t>
+          <t>1389312000</t>
         </is>
       </c>
       <c r="C5198" t="inlineStr">
         <is>
-          <t>3039813.3317</t>
+          <t>6911767.6674</t>
         </is>
       </c>
     </row>
     <row r="5199">
       <c r="A5199" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2014-11-18</t>
         </is>
       </c>
       <c r="B5199" t="inlineStr">
         <is>
-          <t>1726704000</t>
+          <t>1416268800</t>
         </is>
       </c>
       <c r="C5199" t="inlineStr">
         <is>
-          <t>10958641.0727</t>
+          <t>3039813.3317</t>
         </is>
       </c>
     </row>
     <row r="5200">
       <c r="A5200" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B5200" t="inlineStr">
         <is>
-          <t>1745366400</t>
+          <t>1726704000</t>
         </is>
       </c>
       <c r="C5200" t="inlineStr">
         <is>
-          <t>10512254.9739</t>
+          <t>10958641.0727</t>
         </is>
       </c>
     </row>
     <row r="5201">
       <c r="A5201" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B5201" t="inlineStr">
         <is>
-          <t>1736985600</t>
+          <t>1745366400</t>
         </is>
       </c>
       <c r="C5201" t="inlineStr">
         <is>
-          <t>18684510.4627</t>
+          <t>10512254.9739</t>
         </is>
       </c>
     </row>
     <row r="5202">
       <c r="A5202" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B5202" t="inlineStr">
         <is>
-          <t>1570406400</t>
+          <t>1736985600</t>
         </is>
       </c>
       <c r="C5202" t="inlineStr">
         <is>
-          <t>9947791.2871</t>
+          <t>18684510.4627</t>
         </is>
       </c>
     </row>
     <row r="5203">
       <c r="A5203" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="B5203" t="inlineStr">
         <is>
-          <t>1643328000</t>
+          <t>1570406400</t>
         </is>
       </c>
       <c r="C5203" t="inlineStr">
         <is>
-          <t>8830961.8477</t>
+          <t>9947791.2871</t>
         </is>
       </c>
     </row>
     <row r="5204">
       <c r="A5204" t="inlineStr">
         <is>
-          <t>2014-01-19</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="B5204" t="inlineStr">
         <is>
-          <t>1390089600</t>
+          <t>1643328000</t>
         </is>
       </c>
       <c r="C5204" t="inlineStr">
         <is>
-          <t>6709581.3704</t>
+          <t>8830961.8477</t>
         </is>
       </c>
     </row>
     <row r="5205">
       <c r="A5205" t="inlineStr">
         <is>
-          <t>2016-12-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
       <c r="B5205" t="inlineStr">
         <is>
-          <t>1481673600</t>
+          <t>1390089600</t>
         </is>
       </c>
       <c r="C5205" t="inlineStr">
         <is>
-          <t>5441150.3139</t>
+          <t>6709581.3704</t>
         </is>
       </c>
     </row>
     <row r="5206">
       <c r="A5206" t="inlineStr">
         <is>
-          <t>2014-12-15</t>
+          <t>2016-12-14</t>
         </is>
       </c>
       <c r="B5206" t="inlineStr">
         <is>
-          <t>1418601600</t>
+          <t>1481673600</t>
         </is>
       </c>
       <c r="C5206" t="inlineStr">
         <is>
-          <t>3652983.0741</t>
+          <t>5441150.3139</t>
         </is>
       </c>
     </row>
     <row r="5207">
       <c r="A5207" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2014-12-15</t>
         </is>
       </c>
       <c r="B5207" t="inlineStr">
         <is>
-          <t>1741737600</t>
+          <t>1418601600</t>
         </is>
       </c>
       <c r="C5207" t="inlineStr">
         <is>
-          <t>14765108.1353</t>
+          <t>3652983.0741</t>
         </is>
       </c>
     </row>
     <row r="5208">
       <c r="A5208" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B5208" t="inlineStr">
         <is>
-          <t>1727049600</t>
+          <t>1741737600</t>
         </is>
       </c>
       <c r="C5208" t="inlineStr">
         <is>
-          <t>10407092.9998</t>
+          <t>14765108.1353</t>
         </is>
       </c>
     </row>
     <row r="5209">
       <c r="A5209" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B5209" t="inlineStr">
         <is>
-          <t>1732406400</t>
+          <t>1727049600</t>
         </is>
       </c>
       <c r="C5209" t="inlineStr">
         <is>
-          <t>12989124.1337</t>
+          <t>10407092.9998</t>
         </is>
       </c>
     </row>
     <row r="5210">
       <c r="A5210" t="inlineStr">
         <is>
-          <t>2019-10-25</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="B5210" t="inlineStr">
         <is>
-          <t>1571961600</t>
+          <t>1732406400</t>
         </is>
       </c>
       <c r="C5210" t="inlineStr">
         <is>
-          <t>10081112.0658</t>
+          <t>12989124.1337</t>
         </is>
       </c>
     </row>
     <row r="5211">
       <c r="A5211" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="B5211" t="inlineStr">
         <is>
-          <t>1644019200</t>
+          <t>1571961600</t>
         </is>
       </c>
       <c r="C5211" t="inlineStr">
         <is>
-          <t>9996728.2696</t>
+          <t>10081112.0658</t>
         </is>
       </c>
     </row>
     <row r="5212">
       <c r="A5212" t="inlineStr">
         <is>
-          <t>2014-01-20</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="B5212" t="inlineStr">
         <is>
-          <t>1390176000</t>
+          <t>1644019200</t>
         </is>
       </c>
       <c r="C5212" t="inlineStr">
         <is>
-          <t>6614252.8918</t>
+          <t>9996728.2696</t>
         </is>
       </c>
     </row>
     <row r="5213">
       <c r="A5213" t="inlineStr">
         <is>
-          <t>2016-12-30</t>
+          <t>2014-01-20</t>
         </is>
       </c>
       <c r="B5213" t="inlineStr">
         <is>
-          <t>1483056000</t>
+          <t>1390176000</t>
         </is>
       </c>
       <c r="C5213" t="inlineStr">
         <is>
-          <t>6503628.1641</t>
+          <t>6614252.8918</t>
         </is>
       </c>
     </row>
     <row r="5214">
       <c r="A5214" t="inlineStr">
         <is>
-          <t>2014-12-22</t>
+          <t>2016-12-30</t>
         </is>
       </c>
       <c r="B5214" t="inlineStr">
         <is>
-          <t>1419206400</t>
+          <t>1483056000</t>
         </is>
       </c>
       <c r="C5214" t="inlineStr">
         <is>
-          <t>3563708.1597</t>
+          <t>6503628.1641</t>
         </is>
       </c>
     </row>
     <row r="5215">
       <c r="A5215" t="inlineStr">
         <is>
-          <t>2010-09-21</t>
+          <t>2014-12-22</t>
         </is>
       </c>
       <c r="B5215" t="inlineStr">
         <is>
-          <t>1285027200</t>
+          <t>1419206400</t>
         </is>
       </c>
       <c r="C5215" t="inlineStr">
         <is>
-          <t>111207.9893</t>
+          <t>3563708.1597</t>
         </is>
       </c>
     </row>
     <row r="5216">
       <c r="A5216" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2010-09-21</t>
         </is>
       </c>
       <c r="B5216" t="inlineStr">
         <is>
-          <t>1738281600</t>
+          <t>1285027200</t>
         </is>
       </c>
       <c r="C5216" t="inlineStr">
         <is>
-          <t>19753403.7054</t>
+          <t>111207.9893</t>
         </is>
       </c>
     </row>
     <row r="5217">
       <c r="A5217" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B5217" t="inlineStr">
         <is>
-          <t>1576195200</t>
+          <t>1738281600</t>
         </is>
       </c>
       <c r="C5217" t="inlineStr">
         <is>
-          <t>8145349.4054</t>
+          <t>19753403.7054</t>
         </is>
       </c>
     </row>
     <row r="5218">
       <c r="A5218" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B5218" t="inlineStr">
         <is>
-          <t>1645660800</t>
+          <t>1576195200</t>
         </is>
       </c>
       <c r="C5218" t="inlineStr">
         <is>
-          <t>8685248.6498</t>
+          <t>8145349.4054</t>
         </is>
       </c>
     </row>
     <row r="5219">
       <c r="A5219" t="inlineStr">
         <is>
-          <t>2014-01-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="B5219" t="inlineStr">
         <is>
-          <t>1390435200</t>
+          <t>1645660800</t>
         </is>
       </c>
       <c r="C5219" t="inlineStr">
         <is>
-          <t>6168423.5776</t>
+          <t>8685248.6498</t>
         </is>
       </c>
     </row>
     <row r="5220">
       <c r="A5220" t="inlineStr">
         <is>
-          <t>2017-01-29</t>
+          <t>2014-01-23</t>
         </is>
       </c>
       <c r="B5220" t="inlineStr">
         <is>
-          <t>1485648000</t>
+          <t>1390435200</t>
         </is>
       </c>
       <c r="C5220" t="inlineStr">
         <is>
-          <t>7399149.5182</t>
+          <t>6168423.5776</t>
         </is>
       </c>
     </row>
     <row r="5221">
       <c r="A5221" t="inlineStr">
         <is>
-          <t>2014-12-28</t>
+          <t>2017-01-29</t>
         </is>
       </c>
       <c r="B5221" t="inlineStr">
         <is>
-          <t>1419724800</t>
+          <t>1485648000</t>
         </is>
       </c>
       <c r="C5221" t="inlineStr">
         <is>
-          <t>3660548.2962</t>
+          <t>7399149.5182</t>
         </is>
       </c>
     </row>
     <row r="5222">
       <c r="A5222" t="inlineStr">
         <is>
-          <t>2011-07-03</t>
+          <t>2014-12-28</t>
         </is>
       </c>
       <c r="B5222" t="inlineStr">
         <is>
-          <t>1309651200</t>
+          <t>1419724800</t>
         </is>
       </c>
       <c r="C5222" t="inlineStr">
         <is>
-          <t>1736677.8337</t>
+          <t>3660548.2962</t>
         </is>
       </c>
     </row>
     <row r="5223">
       <c r="A5223" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2011-07-03</t>
         </is>
       </c>
       <c r="B5223" t="inlineStr">
         <is>
-          <t>1735430400</t>
+          <t>1309651200</t>
         </is>
       </c>
       <c r="C5223" t="inlineStr">
         <is>
-          <t>18949481.5363</t>
+          <t>1736677.8337</t>
         </is>
       </c>
     </row>
     <row r="5224">
       <c r="A5224" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="B5224" t="inlineStr">
         <is>
-          <t>1748736000</t>
+          <t>1735430400</t>
         </is>
       </c>
       <c r="C5224" t="inlineStr">
         <is>
-          <t>12847069.8975</t>
+          <t>18949481.5363</t>
         </is>
       </c>
     </row>
     <row r="5225">
       <c r="A5225" t="inlineStr">
         <is>
-          <t>2019-12-29</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B5225" t="inlineStr">
         <is>
-          <t>1577577600</t>
+          <t>1748736000</t>
         </is>
       </c>
       <c r="C5225" t="inlineStr">
         <is>
-          <t>8042178.2842</t>
+          <t>12847069.8975</t>
         </is>
       </c>
     </row>
     <row r="5226">
       <c r="A5226" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2019-12-29</t>
         </is>
       </c>
       <c r="B5226" t="inlineStr">
         <is>
-          <t>1648857600</t>
+          <t>1577577600</t>
         </is>
       </c>
       <c r="C5226" t="inlineStr">
         <is>
-          <t>9941198.0919</t>
+          <t>8042178.2842</t>
         </is>
       </c>
     </row>
     <row r="5227">
       <c r="A5227" t="inlineStr">
         <is>
-          <t>2014-02-10</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="B5227" t="inlineStr">
         <is>
-          <t>1391990400</t>
+          <t>1648857600</t>
         </is>
       </c>
       <c r="C5227" t="inlineStr">
         <is>
-          <t>6482705.2171</t>
+          <t>9941198.0919</t>
         </is>
       </c>
     </row>
     <row r="5228">
       <c r="A5228" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2014-02-10</t>
         </is>
       </c>
       <c r="B5228" t="inlineStr">
         <is>
-          <t>1420329600</t>
+          <t>1391990400</t>
         </is>
       </c>
       <c r="C5228" t="inlineStr">
         <is>
-          <t>3639884.5520</t>
+          <t>6482705.2171</t>
         </is>
       </c>
     </row>
     <row r="5229">
       <c r="A5229" t="inlineStr">
         <is>
-          <t>2011-09-13</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="B5229" t="inlineStr">
         <is>
-          <t>1315872000</t>
+          <t>1420329600</t>
         </is>
       </c>
       <c r="C5229" t="inlineStr">
         <is>
-          <t>992731.4544</t>
+          <t>3639884.5520</t>
         </is>
       </c>
     </row>
     <row r="5230">
       <c r="A5230" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2011-09-13</t>
         </is>
       </c>
       <c r="B5230" t="inlineStr">
         <is>
-          <t>1747612800</t>
+          <t>1315872000</t>
         </is>
       </c>
       <c r="C5230" t="inlineStr">
         <is>
-          <t>12025387.7698</t>
+          <t>992731.4544</t>
         </is>
       </c>
     </row>
     <row r="5231">
       <c r="A5231" t="inlineStr">
         <is>
-          <t>2017-02-14</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B5231" t="inlineStr">
         <is>
-          <t>1487030400</t>
+          <t>1747612800</t>
         </is>
       </c>
       <c r="C5231" t="inlineStr">
         <is>
-          <t>7583332.7342</t>
+          <t>12025387.7698</t>
         </is>
       </c>
     </row>
     <row r="5232">
       <c r="A5232" t="inlineStr">
         <is>
-          <t>2017-04-03</t>
+          <t>2017-02-14</t>
         </is>
       </c>
       <c r="B5232" t="inlineStr">
         <is>
-          <t>1491177600</t>
+          <t>1487030400</t>
         </is>
       </c>
       <c r="C5232" t="inlineStr">
         <is>
-          <t>9243648.8026</t>
+          <t>7583332.7342</t>
         </is>
       </c>
     </row>
     <row r="5233">
       <c r="A5233" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2017-04-03</t>
         </is>
       </c>
       <c r="B5233" t="inlineStr">
         <is>
-          <t>1743811200</t>
+          <t>1491177600</t>
         </is>
       </c>
       <c r="C5233" t="inlineStr">
         <is>
-          <t>11517746.2112</t>
+          <t>9243648.8026</t>
         </is>
       </c>
     </row>
     <row r="5234">
       <c r="A5234" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B5234" t="inlineStr">
         <is>
-          <t>1753660800</t>
+          <t>1743811200</t>
         </is>
       </c>
       <c r="C5234" t="inlineStr">
         <is>
-          <t>19403702.9413</t>
+          <t>11517746.2112</t>
         </is>
       </c>
     </row>
     <row r="5235">
       <c r="A5235" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B5235" t="inlineStr">
         <is>
-          <t>1578960000</t>
+          <t>1753660800</t>
         </is>
       </c>
       <c r="C5235" t="inlineStr">
         <is>
-          <t>7135383.2163</t>
+          <t>19403702.9413</t>
         </is>
       </c>
     </row>
     <row r="5236">
       <c r="A5236" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="B5236" t="inlineStr">
         <is>
-          <t>1650326400</t>
+          <t>1578960000</t>
         </is>
       </c>
       <c r="C5236" t="inlineStr">
         <is>
-          <t>10037167.7998</t>
+          <t>7135383.2163</t>
         </is>
       </c>
     </row>
     <row r="5237">
       <c r="A5237" t="inlineStr">
         <is>
-          <t>2014-02-14</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="B5237" t="inlineStr">
         <is>
-          <t>1392336000</t>
+          <t>1650326400</t>
         </is>
       </c>
       <c r="C5237" t="inlineStr">
         <is>
-          <t>6165888.3900</t>
+          <t>10037167.7998</t>
         </is>
       </c>
     </row>
     <row r="5238">
       <c r="A5238" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2014-02-14</t>
         </is>
       </c>
       <c r="B5238" t="inlineStr">
         <is>
-          <t>1754438400</t>
+          <t>1392336000</t>
         </is>
       </c>
       <c r="C5238" t="inlineStr">
         <is>
-          <t>18605805.6470</t>
+          <t>6165888.3900</t>
         </is>
       </c>
     </row>
     <row r="5239">
       <c r="A5239" t="inlineStr">
         <is>
-          <t>2017-02-15</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B5239" t="inlineStr">
         <is>
-          <t>1487116800</t>
+          <t>1754438400</t>
         </is>
       </c>
       <c r="C5239" t="inlineStr">
         <is>
-          <t>7448825.4035</t>
+          <t>18605805.6470</t>
         </is>
       </c>
     </row>
     <row r="5240">
       <c r="A5240" t="inlineStr">
         <is>
-          <t>2015-01-18</t>
+          <t>2017-02-15</t>
         </is>
       </c>
       <c r="B5240" t="inlineStr">
         <is>
-          <t>1421539200</t>
+          <t>1487116800</t>
         </is>
       </c>
       <c r="C5240" t="inlineStr">
         <is>
-          <t>4062626.2040</t>
+          <t>7448825.4035</t>
         </is>
       </c>
     </row>
     <row r="5241">
       <c r="A5241" t="inlineStr">
         <is>
-          <t>2011-09-27</t>
+          <t>2015-01-18</t>
         </is>
       </c>
       <c r="B5241" t="inlineStr">
         <is>
-          <t>1317081600</t>
+          <t>1421539200</t>
         </is>
       </c>
       <c r="C5241" t="inlineStr">
         <is>
-          <t>744327.8851</t>
+          <t>4062626.2040</t>
         </is>
       </c>
     </row>
     <row r="5242">
       <c r="A5242" t="inlineStr">
         <is>
-          <t>2017-08-24</t>
+          <t>2011-09-27</t>
         </is>
       </c>
       <c r="B5242" t="inlineStr">
         <is>
-          <t>1503532800</t>
+          <t>1317081600</t>
         </is>
       </c>
       <c r="C5242" t="inlineStr">
         <is>
-          <t>19382954.7783</t>
+          <t>744327.8851</t>
         </is>
       </c>
     </row>
     <row r="5243">
       <c r="A5243" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2017-08-24</t>
         </is>
       </c>
       <c r="B5243" t="inlineStr">
         <is>
-          <t>1584489600</t>
+          <t>1503532800</t>
         </is>
       </c>
       <c r="C5243" t="inlineStr">
         <is>
-          <t>8319527.6415</t>
+          <t>19382954.7783</t>
         </is>
       </c>
     </row>
     <row r="5244">
       <c r="A5244" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B5244" t="inlineStr">
         <is>
-          <t>1650758400</t>
+          <t>1584489600</t>
         </is>
       </c>
       <c r="C5244" t="inlineStr">
         <is>
-          <t>10152904.5992</t>
+          <t>8319527.6415</t>
         </is>
       </c>
     </row>
     <row r="5245">
       <c r="A5245" t="inlineStr">
         <is>
-          <t>2014-02-26</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="B5245" t="inlineStr">
         <is>
-          <t>1393372800</t>
+          <t>1650758400</t>
         </is>
       </c>
       <c r="C5245" t="inlineStr">
         <is>
-          <t>4892785.6628</t>
+          <t>10152904.5992</t>
         </is>
       </c>
     </row>
     <row r="5246">
       <c r="A5246" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2014-02-26</t>
         </is>
       </c>
       <c r="B5246" t="inlineStr">
         <is>
-          <t>1741132800</t>
+          <t>1393372800</t>
         </is>
       </c>
       <c r="C5246" t="inlineStr">
         <is>
-          <t>15630701.4740</t>
+          <t>4892785.6628</t>
         </is>
       </c>
     </row>
     <row r="5247">
       <c r="A5247" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B5247" t="inlineStr">
         <is>
-          <t>1731974400</t>
+          <t>1741132800</t>
         </is>
       </c>
       <c r="C5247" t="inlineStr">
         <is>
-          <t>11711443.8005</t>
+          <t>15630701.4740</t>
         </is>
       </c>
     </row>
     <row r="5248">
       <c r="A5248" t="inlineStr">
         <is>
-          <t>2017-03-06</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B5248" t="inlineStr">
         <is>
-          <t>1488758400</t>
+          <t>1731974400</t>
         </is>
       </c>
       <c r="C5248" t="inlineStr">
         <is>
-          <t>7818647.0540</t>
+          <t>11711443.8005</t>
         </is>
       </c>
     </row>
     <row r="5249">
       <c r="A5249" t="inlineStr">
         <is>
-          <t>2015-01-26</t>
+          <t>2017-03-06</t>
         </is>
       </c>
       <c r="B5249" t="inlineStr">
         <is>
-          <t>1422230400</t>
+          <t>1488758400</t>
         </is>
       </c>
       <c r="C5249" t="inlineStr">
         <is>
-          <t>4227141.8829</t>
+          <t>7818647.0540</t>
         </is>
       </c>
     </row>
     <row r="5250">
       <c r="A5250" t="inlineStr">
         <is>
-          <t>2011-10-11</t>
+          <t>2015-01-26</t>
         </is>
       </c>
       <c r="B5250" t="inlineStr">
         <is>
-          <t>1318291200</t>
+          <t>1422230400</t>
         </is>
       </c>
       <c r="C5250" t="inlineStr">
         <is>
-          <t>733876.3340</t>
+          <t>4227141.8829</t>
         </is>
       </c>
     </row>
     <row r="5251">
       <c r="A5251" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2011-10-11</t>
         </is>
       </c>
       <c r="B5251" t="inlineStr">
         <is>
-          <t>1747180800</t>
+          <t>1318291200</t>
         </is>
       </c>
       <c r="C5251" t="inlineStr">
         <is>
-          <t>11437944.2746</t>
+          <t>733876.3340</t>
         </is>
       </c>
     </row>
     <row r="5252">
       <c r="A5252" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B5252" t="inlineStr">
         <is>
-          <t>1585958400</t>
+          <t>1747180800</t>
         </is>
       </c>
       <c r="C5252" t="inlineStr">
         <is>
-          <t>8278468.5754</t>
+          <t>11437944.2746</t>
         </is>
       </c>
     </row>
     <row r="5253">
       <c r="A5253" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B5253" t="inlineStr">
         <is>
-          <t>1652227200</t>
+          <t>1585958400</t>
         </is>
       </c>
       <c r="C5253" t="inlineStr">
         <is>
-          <t>8620307.1604</t>
+          <t>8278468.5754</t>
         </is>
       </c>
     </row>
     <row r="5254">
       <c r="A5254" t="inlineStr">
         <is>
-          <t>2014-03-15</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="B5254" t="inlineStr">
         <is>
-          <t>1394841600</t>
+          <t>1652227200</t>
         </is>
       </c>
       <c r="C5254" t="inlineStr">
         <is>
-          <t>6519122.4674</t>
+          <t>8620307.1604</t>
         </is>
       </c>
     </row>
     <row r="5255">
       <c r="A5255" t="inlineStr">
         <is>
-          <t>2017-03-12</t>
+          <t>2014-03-15</t>
         </is>
       </c>
       <c r="B5255" t="inlineStr">
         <is>
-          <t>1489276800</t>
+          <t>1394841600</t>
         </is>
       </c>
       <c r="C5255" t="inlineStr">
         <is>
-          <t>8015167.5409</t>
+          <t>6519122.4674</t>
         </is>
       </c>
     </row>
     <row r="5256">
       <c r="A5256" t="inlineStr">
         <is>
-          <t>2015-02-02</t>
+          <t>2017-03-12</t>
         </is>
       </c>
       <c r="B5256" t="inlineStr">
         <is>
-          <t>1422835200</t>
+          <t>1489276800</t>
         </is>
       </c>
       <c r="C5256" t="inlineStr">
         <is>
-          <t>4214903.0075</t>
+          <t>8015167.5409</t>
         </is>
       </c>
     </row>
     <row r="5257">
       <c r="A5257" t="inlineStr">
         <is>
-          <t>2011-10-28</t>
+          <t>2015-02-02</t>
         </is>
       </c>
       <c r="B5257" t="inlineStr">
         <is>
-          <t>1319760000</t>
+          <t>1422835200</t>
         </is>
       </c>
       <c r="C5257" t="inlineStr">
         <is>
-          <t>735721.4172</t>
+          <t>4214903.0075</t>
         </is>
       </c>
     </row>
     <row r="5258">
       <c r="A5258" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="B5258" t="inlineStr">
         <is>
-          <t>1734912000</t>
+          <t>1319760000</t>
         </is>
       </c>
       <c r="C5258" t="inlineStr">
         <is>
-          <t>18201448.8886</t>
+          <t>735721.4172</t>
         </is>
       </c>
     </row>
     <row r="5259">
       <c r="A5259" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B5259" t="inlineStr">
         <is>
-          <t>1750377600</t>
+          <t>1734912000</t>
         </is>
       </c>
       <c r="C5259" t="inlineStr">
         <is>
-          <t>12856671.6825</t>
+          <t>18201448.8886</t>
         </is>
       </c>
     </row>
     <row r="5260">
       <c r="A5260" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B5260" t="inlineStr">
         <is>
-          <t>1587772800</t>
+          <t>1750377600</t>
         </is>
       </c>
       <c r="C5260" t="inlineStr">
         <is>
-          <t>7919062.6316</t>
+          <t>12856671.6825</t>
         </is>
       </c>
     </row>
     <row r="5261">
       <c r="A5261" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B5261" t="inlineStr">
         <is>
-          <t>1653436800</t>
+          <t>1587772800</t>
         </is>
       </c>
       <c r="C5261" t="inlineStr">
         <is>
-          <t>9519524.5920</t>
+          <t>7919062.6316</t>
         </is>
       </c>
     </row>
     <row r="5262">
       <c r="A5262" t="inlineStr">
         <is>
-          <t>2014-03-18</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="B5262" t="inlineStr">
         <is>
-          <t>1395100800</t>
+          <t>1653436800</t>
         </is>
       </c>
       <c r="C5262" t="inlineStr">
         <is>
-          <t>6370558.7477</t>
+          <t>9519524.5920</t>
         </is>
       </c>
     </row>
     <row r="5263">
       <c r="A5263" t="inlineStr">
         <is>
-          <t>2017-03-21</t>
+          <t>2014-03-18</t>
         </is>
       </c>
       <c r="B5263" t="inlineStr">
         <is>
-          <t>1490054400</t>
+          <t>1395100800</t>
         </is>
       </c>
       <c r="C5263" t="inlineStr">
         <is>
-          <t>8412562.7490</t>
+          <t>6370558.7477</t>
         </is>
       </c>
     </row>
     <row r="5264">
       <c r="A5264" t="inlineStr">
         <is>
-          <t>2015-02-09</t>
+          <t>2017-03-21</t>
         </is>
       </c>
       <c r="B5264" t="inlineStr">
         <is>
-          <t>1423440000</t>
+          <t>1490054400</t>
         </is>
       </c>
       <c r="C5264" t="inlineStr">
         <is>
-          <t>4096290.6619</t>
+          <t>8412562.7490</t>
         </is>
       </c>
     </row>
     <row r="5265">
       <c r="A5265" t="inlineStr">
         <is>
-          <t>2011-10-31</t>
+          <t>2015-02-09</t>
         </is>
       </c>
       <c r="B5265" t="inlineStr">
         <is>
-          <t>1320019200</t>
+          <t>1423440000</t>
         </is>
       </c>
       <c r="C5265" t="inlineStr">
         <is>
-          <t>732160.3256</t>
+          <t>4096290.6619</t>
         </is>
       </c>
     </row>
     <row r="5266">
       <c r="A5266" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2011-10-31</t>
         </is>
       </c>
       <c r="B5266" t="inlineStr">
         <is>
-          <t>1588550400</t>
+          <t>1320019200</t>
         </is>
       </c>
       <c r="C5266" t="inlineStr">
         <is>
-          <t>7287456.1544</t>
+          <t>732160.3256</t>
         </is>
       </c>
     </row>
     <row r="5267">
       <c r="A5267" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B5267" t="inlineStr">
         <is>
-          <t>1657670400</t>
+          <t>1588550400</t>
         </is>
       </c>
       <c r="C5267" t="inlineStr">
         <is>
-          <t>9308642.5009</t>
+          <t>7287456.1544</t>
         </is>
       </c>
     </row>
     <row r="5268">
       <c r="A5268" t="inlineStr">
         <is>
-          <t>2014-04-06</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="B5268" t="inlineStr">
         <is>
-          <t>1396742400</t>
+          <t>1657670400</t>
         </is>
       </c>
       <c r="C5268" t="inlineStr">
         <is>
-          <t>5505621.8371</t>
+          <t>9308642.5009</t>
         </is>
       </c>
     </row>
     <row r="5269">
       <c r="A5269" t="inlineStr">
         <is>
-          <t>2017-04-09</t>
+          <t>2014-04-06</t>
         </is>
       </c>
       <c r="B5269" t="inlineStr">
         <is>
-          <t>1491696000</t>
+          <t>1396742400</t>
         </is>
       </c>
       <c r="C5269" t="inlineStr">
         <is>
-          <t>8810606.5510</t>
+          <t>5505621.8371</t>
         </is>
       </c>
     </row>
     <row r="5270">
       <c r="A5270" t="inlineStr">
         <is>
-          <t>2015-03-02</t>
+          <t>2017-04-09</t>
         </is>
       </c>
       <c r="B5270" t="inlineStr">
         <is>
-          <t>1425254400</t>
+          <t>1491696000</t>
         </is>
       </c>
       <c r="C5270" t="inlineStr">
         <is>
-          <t>3933274.2242</t>
+          <t>8810606.5510</t>
         </is>
       </c>
     </row>
     <row r="5271">
       <c r="A5271" t="inlineStr">
         <is>
-          <t>2011-11-14</t>
+          <t>2015-03-02</t>
         </is>
       </c>
       <c r="B5271" t="inlineStr">
         <is>
-          <t>1321228800</t>
+          <t>1425254400</t>
         </is>
       </c>
       <c r="C5271" t="inlineStr">
         <is>
-          <t>826121.5913</t>
+          <t>3933274.2242</t>
         </is>
       </c>
     </row>
     <row r="5272">
       <c r="A5272" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2011-11-14</t>
         </is>
       </c>
       <c r="B5272" t="inlineStr">
         <is>
-          <t>1731456000</t>
+          <t>1321228800</t>
         </is>
       </c>
       <c r="C5272" t="inlineStr">
         <is>
-          <t>10333719.0786</t>
+          <t>826121.5913</t>
         </is>
       </c>
     </row>
     <row r="5273">
       <c r="A5273" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B5273" t="inlineStr">
         <is>
-          <t>1589932800</t>
+          <t>1731456000</t>
         </is>
       </c>
       <c r="C5273" t="inlineStr">
         <is>
-          <t>6907432.2524</t>
+          <t>10333719.0786</t>
         </is>
       </c>
     </row>
     <row r="5274">
       <c r="A5274" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B5274" t="inlineStr">
         <is>
-          <t>1657843200</t>
+          <t>1589932800</t>
         </is>
       </c>
       <c r="C5274" t="inlineStr">
         <is>
-          <t>9481051.2577</t>
+          <t>6907432.2524</t>
         </is>
       </c>
     </row>
     <row r="5275">
       <c r="A5275" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="B5275" t="inlineStr">
         <is>
-          <t>1722643200</t>
+          <t>1657843200</t>
         </is>
       </c>
       <c r="C5275" t="inlineStr">
         <is>
-          <t>16829264.3364</t>
+          <t>9481051.2577</t>
         </is>
       </c>
     </row>
     <row r="5276">
       <c r="A5276" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B5276" t="inlineStr">
         <is>
-          <t>1726185600</t>
+          <t>1722643200</t>
         </is>
       </c>
       <c r="C5276" t="inlineStr">
         <is>
-          <t>10843259.3916</t>
+          <t>16829264.3364</t>
         </is>
       </c>
     </row>
     <row r="5277">
       <c r="A5277" t="inlineStr">
         <is>
-          <t>2014-04-27</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B5277" t="inlineStr">
         <is>
-          <t>1398556800</t>
+          <t>1726185600</t>
         </is>
       </c>
       <c r="C5277" t="inlineStr">
         <is>
-          <t>5438426.5060</t>
+          <t>10843259.3916</t>
         </is>
       </c>
     </row>
     <row r="5278">
       <c r="A5278" t="inlineStr">
         <is>
-          <t>2015-03-09</t>
+          <t>2014-04-27</t>
         </is>
       </c>
       <c r="B5278" t="inlineStr">
         <is>
-          <t>1425859200</t>
+          <t>1398556800</t>
         </is>
       </c>
       <c r="C5278" t="inlineStr">
         <is>
-          <t>3900348.0656</t>
+          <t>5438426.5060</t>
         </is>
       </c>
     </row>
     <row r="5279">
       <c r="A5279" t="inlineStr">
         <is>
-          <t>2011-11-16</t>
+          <t>2015-03-09</t>
         </is>
       </c>
       <c r="B5279" t="inlineStr">
         <is>
-          <t>1321401600</t>
+          <t>1425859200</t>
         </is>
       </c>
       <c r="C5279" t="inlineStr">
         <is>
-          <t>1048736.8031</t>
+          <t>3900348.0656</t>
         </is>
       </c>
     </row>
     <row r="5280">
       <c r="A5280" t="inlineStr">
         <is>
-          <t>2017-04-20</t>
+          <t>2011-11-16</t>
         </is>
       </c>
       <c r="B5280" t="inlineStr">
         <is>
-          <t>1492646400</t>
+          <t>1321401600</t>
         </is>
       </c>
       <c r="C5280" t="inlineStr">
         <is>
-          <t>8967425.5502</t>
+          <t>1048736.8031</t>
         </is>
       </c>
     </row>
     <row r="5281">
       <c r="A5281" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2017-04-20</t>
         </is>
       </c>
       <c r="B5281" t="inlineStr">
         <is>
-          <t>1749772800</t>
+          <t>1492646400</t>
         </is>
       </c>
       <c r="C5281" t="inlineStr">
         <is>
-          <t>12827728.9418</t>
+          <t>8967425.5502</t>
         </is>
       </c>
     </row>
     <row r="5282">
       <c r="A5282" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B5282" t="inlineStr">
         <is>
-          <t>1590624000</t>
+          <t>1749772800</t>
         </is>
       </c>
       <c r="C5282" t="inlineStr">
         <is>
-          <t>6721984.5538</t>
+          <t>12827728.9418</t>
         </is>
       </c>
     </row>
     <row r="5283">
       <c r="A5283" t="inlineStr">
         <is>
-          <t>2022-08-06</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="B5283" t="inlineStr">
         <is>
-          <t>1659744000</t>
+          <t>1590624000</t>
         </is>
       </c>
       <c r="C5283" t="inlineStr">
         <is>
-          <t>9532015.7162</t>
+          <t>6721984.5538</t>
         </is>
       </c>
     </row>
     <row r="5284">
       <c r="A5284" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="B5284" t="inlineStr">
         <is>
-          <t>1723852800</t>
+          <t>1659744000</t>
         </is>
       </c>
       <c r="C5284" t="inlineStr">
         <is>
-          <t>16884075.8380</t>
+          <t>9532015.7162</t>
         </is>
       </c>
     </row>
     <row r="5285">
       <c r="A5285" t="inlineStr">
         <is>
-          <t>2014-06-01</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B5285" t="inlineStr">
         <is>
-          <t>1401580800</t>
+          <t>1723852800</t>
         </is>
       </c>
       <c r="C5285" t="inlineStr">
         <is>
-          <t>4343530.1669</t>
+          <t>16884075.8380</t>
         </is>
       </c>
     </row>
     <row r="5286">
       <c r="A5286" t="inlineStr">
         <is>
-          <t>2015-03-22</t>
+          <t>2014-06-01</t>
         </is>
       </c>
       <c r="B5286" t="inlineStr">
         <is>
-          <t>1426982400</t>
+          <t>1401580800</t>
         </is>
       </c>
       <c r="C5286" t="inlineStr">
         <is>
-          <t>4135797.4574</t>
+          <t>4343530.1669</t>
         </is>
       </c>
     </row>
     <row r="5287">
       <c r="A5287" t="inlineStr">
         <is>
-          <t>2017-04-30</t>
+          <t>2015-03-22</t>
         </is>
       </c>
       <c r="B5287" t="inlineStr">
         <is>
-          <t>1493510400</t>
+          <t>1426982400</t>
         </is>
       </c>
       <c r="C5287" t="inlineStr">
         <is>
-          <t>8922467.2173</t>
+          <t>4135797.4574</t>
         </is>
       </c>
     </row>
     <row r="5288">
       <c r="A5288" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2017-04-30</t>
         </is>
       </c>
       <c r="B5288" t="inlineStr">
         <is>
-          <t>1321660800</t>
+          <t>1493510400</t>
         </is>
       </c>
       <c r="C5288" t="inlineStr">
         <is>
-          <t>1086764.6527</t>
+          <t>8922467.2173</t>
         </is>
       </c>
     </row>
     <row r="5289">
       <c r="A5289" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2011-11-19</t>
         </is>
       </c>
       <c r="B5289" t="inlineStr">
         <is>
-          <t>1732838400</t>
+          <t>1321660800</t>
         </is>
       </c>
       <c r="C5289" t="inlineStr">
         <is>
-          <t>13592327.9337</t>
+          <t>1086764.6527</t>
         </is>
       </c>
     </row>
     <row r="5290">
       <c r="A5290" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B5290" t="inlineStr">
         <is>
-          <t>1736553600</t>
+          <t>1732838400</t>
         </is>
       </c>
       <c r="C5290" t="inlineStr">
         <is>
-          <t>18930025.1097</t>
+          <t>13592327.9337</t>
         </is>
       </c>
     </row>
     <row r="5291">
       <c r="A5291" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="B5291" t="inlineStr">
         <is>
-          <t>1550361600</t>
+          <t>1736553600</t>
         </is>
       </c>
       <c r="C5291" t="inlineStr">
         <is>
-          <t>15295963.9346</t>
+          <t>18930025.1097</t>
         </is>
       </c>
     </row>
     <row r="5292">
       <c r="A5292" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="B5292" t="inlineStr">
         <is>
-          <t>1593907200</t>
+          <t>1550361600</t>
         </is>
       </c>
       <c r="C5292" t="inlineStr">
         <is>
-          <t>5802826.2253</t>
+          <t>15295963.9346</t>
         </is>
       </c>
     </row>
     <row r="5293">
       <c r="A5293" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="B5293" t="inlineStr">
         <is>
-          <t>1660262400</t>
+          <t>1593907200</t>
         </is>
       </c>
       <c r="C5293" t="inlineStr">
         <is>
-          <t>8363509.0200</t>
+          <t>5802826.2253</t>
         </is>
       </c>
     </row>
     <row r="5294">
       <c r="A5294" t="inlineStr">
         <is>
-          <t>2014-06-28</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="B5294" t="inlineStr">
         <is>
-          <t>1403913600</t>
+          <t>1660262400</t>
         </is>
       </c>
       <c r="C5294" t="inlineStr">
         <is>
-          <t>2686947.8402</t>
+          <t>8363509.0200</t>
         </is>
       </c>
     </row>
     <row r="5295">
       <c r="A5295" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2014-06-28</t>
         </is>
       </c>
       <c r="B5295" t="inlineStr">
         <is>
-          <t>1746748800</t>
+          <t>1403913600</t>
         </is>
       </c>
       <c r="C5295" t="inlineStr">
         <is>
-          <t>11641354.9304</t>
+          <t>2686947.8402</t>
         </is>
       </c>
     </row>
     <row r="5296">
       <c r="A5296" t="inlineStr">
         <is>
-          <t>2017-05-17</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B5296" t="inlineStr">
         <is>
-          <t>1494979200</t>
+          <t>1746748800</t>
         </is>
       </c>
       <c r="C5296" t="inlineStr">
         <is>
-          <t>10300409.5879</t>
+          <t>11641354.9304</t>
         </is>
       </c>
     </row>
     <row r="5297">
       <c r="A5297" t="inlineStr">
         <is>
-          <t>2015-03-29</t>
+          <t>2017-05-17</t>
         </is>
       </c>
       <c r="B5297" t="inlineStr">
         <is>
-          <t>1427587200</t>
+          <t>1494979200</t>
         </is>
       </c>
       <c r="C5297" t="inlineStr">
         <is>
-          <t>3988633.5914</t>
+          <t>10300409.5879</t>
         </is>
       </c>
     </row>
     <row r="5298">
       <c r="A5298" t="inlineStr">
         <is>
-          <t>2011-12-03</t>
+          <t>2015-03-29</t>
         </is>
       </c>
       <c r="B5298" t="inlineStr">
         <is>
-          <t>1322870400</t>
+          <t>1427587200</t>
         </is>
       </c>
       <c r="C5298" t="inlineStr">
         <is>
-          <t>1095387.9247</t>
+          <t>3988633.5914</t>
         </is>
       </c>
     </row>
     <row r="5299">
       <c r="A5299" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2011-12-03</t>
         </is>
       </c>
       <c r="B5299" t="inlineStr">
         <is>
-          <t>1740182400</t>
+          <t>1322870400</t>
         </is>
       </c>
       <c r="C5299" t="inlineStr">
         <is>
-          <t>17359924.2781</t>
+          <t>1095387.9247</t>
         </is>
       </c>
     </row>
     <row r="5300">
       <c r="A5300" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="B5300" t="inlineStr">
         <is>
-          <t>1740700800</t>
+          <t>1740182400</t>
         </is>
       </c>
       <c r="C5300" t="inlineStr">
         <is>
-          <t>16833334.9499</t>
+          <t>17359924.2781</t>
         </is>
       </c>
     </row>
     <row r="5301">
       <c r="A5301" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B5301" t="inlineStr">
         <is>
-          <t>1729296000</t>
+          <t>1740700800</t>
         </is>
       </c>
       <c r="C5301" t="inlineStr">
         <is>
-          <t>10236215.3893</t>
+          <t>16833334.9499</t>
         </is>
       </c>
     </row>
     <row r="5302">
       <c r="A5302" t="inlineStr">
         <is>
-          <t>2017-06-01</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B5302" t="inlineStr">
         <is>
-          <t>1496275200</t>
+          <t>1729296000</t>
         </is>
       </c>
       <c r="C5302" t="inlineStr">
         <is>
-          <t>11531744.1120</t>
+          <t>10236215.3893</t>
         </is>
       </c>
     </row>
     <row r="5303">
       <c r="A5303" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2017-06-01</t>
         </is>
       </c>
       <c r="B5303" t="inlineStr">
         <is>
-          <t>1595289600</t>
+          <t>1496275200</t>
         </is>
       </c>
       <c r="C5303" t="inlineStr">
         <is>
-          <t>6065155.9830</t>
+          <t>11531744.1120</t>
         </is>
       </c>
     </row>
     <row r="5304">
       <c r="A5304" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="B5304" t="inlineStr">
         <is>
-          <t>1660953600</t>
+          <t>1595289600</t>
         </is>
       </c>
       <c r="C5304" t="inlineStr">
         <is>
-          <t>8049967.7143</t>
+          <t>6065155.9830</t>
         </is>
       </c>
     </row>
     <row r="5305">
       <c r="A5305" t="inlineStr">
         <is>
-          <t>2024-07-13</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="B5305" t="inlineStr">
         <is>
-          <t>1720828800</t>
+          <t>1660953600</t>
         </is>
       </c>
       <c r="C5305" t="inlineStr">
         <is>
-          <t>15731904.3753</t>
+          <t>8049967.7143</t>
         </is>
       </c>
     </row>
     <row r="5306">
       <c r="A5306" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="B5306" t="inlineStr">
         <is>
-          <t>1405468800</t>
+          <t>1720828800</t>
         </is>
       </c>
       <c r="C5306" t="inlineStr">
         <is>
-          <t>2436383.0155</t>
+          <t>15731904.3753</t>
         </is>
       </c>
     </row>
     <row r="5307">
       <c r="A5307" t="inlineStr">
         <is>
-          <t>2015-04-06</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="B5307" t="inlineStr">
         <is>
-          <t>1428278400</t>
+          <t>1405468800</t>
         </is>
       </c>
       <c r="C5307" t="inlineStr">
         <is>
-          <t>3694404.6739</t>
+          <t>2436383.0155</t>
         </is>
       </c>
     </row>
     <row r="5308">
       <c r="A5308" t="inlineStr">
         <is>
-          <t>2011-12-17</t>
+          <t>2015-04-06</t>
         </is>
       </c>
       <c r="B5308" t="inlineStr">
         <is>
-          <t>1324080000</t>
+          <t>1428278400</t>
         </is>
       </c>
       <c r="C5308" t="inlineStr">
         <is>
-          <t>1066127.1723</t>
+          <t>3694404.6739</t>
         </is>
       </c>
     </row>
     <row r="5309">
       <c r="A5309" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2011-12-17</t>
         </is>
       </c>
       <c r="B5309" t="inlineStr">
         <is>
-          <t>1753228800</t>
+          <t>1324080000</t>
         </is>
       </c>
       <c r="C5309" t="inlineStr">
         <is>
-          <t>19357870.4437</t>
+          <t>1066127.1723</t>
         </is>
       </c>
     </row>
     <row r="5310">
       <c r="A5310" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B5310" t="inlineStr">
         <is>
-          <t>1731196800</t>
+          <t>1753228800</t>
         </is>
       </c>
       <c r="C5310" t="inlineStr">
         <is>
-          <t>9506750.1084</t>
+          <t>19357870.4437</t>
         </is>
       </c>
     </row>
     <row r="5311">
       <c r="A5311" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="B5311" t="inlineStr">
         <is>
-          <t>1728777600</t>
+          <t>1731196800</t>
         </is>
       </c>
       <c r="C5311" t="inlineStr">
         <is>
-          <t>10121188.8983</t>
+          <t>9506750.1084</t>
         </is>
       </c>
     </row>
     <row r="5312">
       <c r="A5312" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B5312" t="inlineStr">
         <is>
-          <t>1744934400</t>
+          <t>1728777600</t>
         </is>
       </c>
       <c r="C5312" t="inlineStr">
         <is>
-          <t>11873870.8075</t>
+          <t>10121188.8983</t>
         </is>
       </c>
     </row>
     <row r="5313">
       <c r="A5313" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B5313" t="inlineStr">
         <is>
-          <t>1734480000</t>
+          <t>1744934400</t>
         </is>
       </c>
       <c r="C5313" t="inlineStr">
         <is>
-          <t>16905626.8157</t>
+          <t>11873870.8075</t>
         </is>
       </c>
     </row>
     <row r="5314">
       <c r="A5314" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B5314" t="inlineStr">
         <is>
-          <t>1746230400</t>
+          <t>1734480000</t>
         </is>
       </c>
       <c r="C5314" t="inlineStr">
         <is>
-          <t>11511228.8738</t>
+          <t>16905626.8157</t>
         </is>
       </c>
     </row>
     <row r="5315">
       <c r="A5315" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-05-03</t>
         </is>
       </c>
       <c r="B5315" t="inlineStr">
         <is>
-          <t>1752710400</t>
+          <t>1746230400</t>
         </is>
       </c>
       <c r="C5315" t="inlineStr">
         <is>
-          <t>18829096.5983</t>
+          <t>11511228.8738</t>
         </is>
       </c>
     </row>
     <row r="5316">
       <c r="A5316" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B5316" t="inlineStr">
         <is>
-          <t>1498608000</t>
+          <t>1752710400</t>
         </is>
       </c>
       <c r="C5316" t="inlineStr">
         <is>
-          <t>11905850.2140</t>
+          <t>18829096.5983</t>
         </is>
       </c>
     </row>
     <row r="5317">
       <c r="A5317" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="B5317" t="inlineStr">
         <is>
-          <t>1597968000</t>
+          <t>1498608000</t>
         </is>
       </c>
       <c r="C5317" t="inlineStr">
         <is>
-          <t>6820551.8167</t>
+          <t>11905850.2140</t>
         </is>
       </c>
     </row>
     <row r="5318">
       <c r="A5318" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="B5318" t="inlineStr">
         <is>
-          <t>1663459200</t>
+          <t>1597968000</t>
         </is>
       </c>
       <c r="C5318" t="inlineStr">
         <is>
-          <t>6358468.8792</t>
+          <t>6820551.8167</t>
         </is>
       </c>
     </row>
     <row r="5319">
       <c r="A5319" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="B5319" t="inlineStr">
         <is>
-          <t>1719792000</t>
+          <t>1663459200</t>
         </is>
       </c>
       <c r="C5319" t="inlineStr">
         <is>
-          <t>14873483.7806</t>
+          <t>6358468.8792</t>
         </is>
       </c>
     </row>
     <row r="5320">
       <c r="A5320" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B5320" t="inlineStr">
         <is>
-          <t>1744416000</t>
+          <t>1719792000</t>
         </is>
       </c>
       <c r="C5320" t="inlineStr">
         <is>
-          <t>11867652.5317</t>
+          <t>14873483.7806</t>
         </is>
       </c>
     </row>
     <row r="5321">
       <c r="A5321" t="inlineStr">
         <is>
-          <t>2014-08-06</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B5321" t="inlineStr">
         <is>
-          <t>1407283200</t>
+          <t>1744416000</t>
         </is>
       </c>
       <c r="C5321" t="inlineStr">
         <is>
-          <t>2826869.7134</t>
+          <t>11867652.5317</t>
         </is>
       </c>
     </row>
     <row r="5322">
       <c r="A5322" t="inlineStr">
         <is>
-          <t>2015-04-12</t>
+          <t>2014-08-06</t>
         </is>
       </c>
       <c r="B5322" t="inlineStr">
         <is>
-          <t>1428796800</t>
+          <t>1407283200</t>
         </is>
       </c>
       <c r="C5322" t="inlineStr">
         <is>
-          <t>3600337.8970</t>
+          <t>2826869.7134</t>
         </is>
       </c>
     </row>
     <row r="5323">
       <c r="A5323" t="inlineStr">
         <is>
-          <t>2012-01-03</t>
+          <t>2015-04-12</t>
         </is>
       </c>
       <c r="B5323" t="inlineStr">
         <is>
-          <t>1325548800</t>
+          <t>1428796800</t>
         </is>
       </c>
       <c r="C5323" t="inlineStr">
         <is>
-          <t>1178238.7914</t>
+          <t>3600337.8970</t>
         </is>
       </c>
     </row>
     <row r="5324">
       <c r="A5324" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2012-01-03</t>
         </is>
       </c>
       <c r="B5324" t="inlineStr">
         <is>
-          <t>1742860800</t>
+          <t>1325548800</t>
         </is>
       </c>
       <c r="C5324" t="inlineStr">
         <is>
-          <t>12210206.2890</t>
+          <t>1178238.7914</t>
         </is>
       </c>
     </row>
     <row r="5325">
       <c r="A5325" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B5325" t="inlineStr">
         <is>
-          <t>1752192000</t>
+          <t>1742860800</t>
         </is>
       </c>
       <c r="C5325" t="inlineStr">
         <is>
-          <t>18211536.3175</t>
+          <t>12210206.2890</t>
         </is>
       </c>
     </row>
     <row r="5326">
       <c r="A5326" t="inlineStr">
         <is>
-          <t>2017-08-15</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B5326" t="inlineStr">
         <is>
-          <t>1502755200</t>
+          <t>1752192000</t>
         </is>
       </c>
       <c r="C5326" t="inlineStr">
         <is>
-          <t>19566598.7697</t>
+          <t>18211536.3175</t>
         </is>
       </c>
     </row>
     <row r="5327">
       <c r="A5327" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2017-08-15</t>
         </is>
       </c>
       <c r="B5327" t="inlineStr">
         <is>
-          <t>1598918400</t>
+          <t>1502755200</t>
         </is>
       </c>
       <c r="C5327" t="inlineStr">
         <is>
-          <t>6837460.0498</t>
+          <t>19566598.7697</t>
         </is>
       </c>
     </row>
     <row r="5328">
       <c r="A5328" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="B5328" t="inlineStr">
         <is>
-          <t>1668643200</t>
+          <t>1598918400</t>
         </is>
       </c>
       <c r="C5328" t="inlineStr">
         <is>
-          <t>8536718.2262</t>
+          <t>6837460.0498</t>
         </is>
       </c>
     </row>
     <row r="5329">
       <c r="A5329" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B5329" t="inlineStr">
         <is>
-          <t>1736035200</t>
+          <t>1668643200</t>
         </is>
       </c>
       <c r="C5329" t="inlineStr">
         <is>
-          <t>19772264.6521</t>
+          <t>8536718.2262</t>
         </is>
       </c>
     </row>
     <row r="5330">
       <c r="A5330" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="B5330" t="inlineStr">
         <is>
-          <t>1733961600</t>
+          <t>1736035200</t>
         </is>
       </c>
       <c r="C5330" t="inlineStr">
         <is>
-          <t>16050259.5120</t>
+          <t>19772264.6521</t>
         </is>
       </c>
     </row>
     <row r="5331">
       <c r="A5331" t="inlineStr">
         <is>
-          <t>2014-08-18</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B5331" t="inlineStr">
         <is>
-          <t>1408320000</t>
+          <t>1733961600</t>
         </is>
       </c>
       <c r="C5331" t="inlineStr">
         <is>
-          <t>2925697.3327</t>
+          <t>16050259.5120</t>
         </is>
       </c>
     </row>
     <row r="5332">
       <c r="A5332" t="inlineStr">
         <is>
-          <t>2015-04-19</t>
+          <t>2014-08-18</t>
         </is>
       </c>
       <c r="B5332" t="inlineStr">
         <is>
-          <t>1429401600</t>
+          <t>1408320000</t>
         </is>
       </c>
       <c r="C5332" t="inlineStr">
         <is>
-          <t>3445407.1027</t>
+          <t>2925697.3327</t>
         </is>
       </c>
     </row>
     <row r="5333">
       <c r="A5333" t="inlineStr">
         <is>
-          <t>2012-01-20</t>
+          <t>2015-04-19</t>
         </is>
       </c>
       <c r="B5333" t="inlineStr">
         <is>
-          <t>1327017600</t>
+          <t>1429401600</t>
         </is>
       </c>
       <c r="C5333" t="inlineStr">
         <is>
-          <t>1244736.7848</t>
+          <t>3445407.1027</t>
         </is>
       </c>
     </row>
     <row r="5334">
       <c r="A5334" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2012-01-20</t>
         </is>
       </c>
       <c r="B5334" t="inlineStr">
         <is>
-          <t>1742342400</t>
+          <t>1327017600</t>
         </is>
       </c>
       <c r="C5334" t="inlineStr">
         <is>
-          <t>13510242.6543</t>
+          <t>1244736.7848</t>
         </is>
       </c>
     </row>
     <row r="5335">
       <c r="A5335" t="inlineStr">
         <is>
-          <t>2017-08-28</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B5335" t="inlineStr">
         <is>
-          <t>1503878400</t>
+          <t>1742342400</t>
         </is>
       </c>
       <c r="C5335" t="inlineStr">
         <is>
-          <t>19422838.7203</t>
+          <t>13510242.6543</t>
         </is>
       </c>
     </row>
     <row r="5336">
       <c r="A5336" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2017-08-28</t>
         </is>
       </c>
       <c r="B5336" t="inlineStr">
         <is>
-          <t>1605052800</t>
+          <t>1503878400</t>
         </is>
       </c>
       <c r="C5336" t="inlineStr">
         <is>
-          <t>11104807.4036</t>
+          <t>19422838.7203</t>
         </is>
       </c>
     </row>
     <row r="5337">
       <c r="A5337" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="B5337" t="inlineStr">
         <is>
-          <t>1669161600</t>
+          <t>1605052800</t>
         </is>
       </c>
       <c r="C5337" t="inlineStr">
         <is>
-          <t>10451472.4564</t>
+          <t>11104807.4036</t>
         </is>
       </c>
     </row>
     <row r="5338">
       <c r="A5338" t="inlineStr">
         <is>
-          <t>2014-09-13</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B5338" t="inlineStr">
         <is>
-          <t>1410566400</t>
+          <t>1669161600</t>
         </is>
       </c>
       <c r="C5338" t="inlineStr">
         <is>
-          <t>2524791.7790</t>
+          <t>10451472.4564</t>
         </is>
       </c>
     </row>
     <row r="5339">
       <c r="A5339" t="inlineStr">
         <is>
-          <t>2015-04-25</t>
+          <t>2014-09-13</t>
         </is>
       </c>
       <c r="B5339" t="inlineStr">
         <is>
-          <t>1429920000</t>
+          <t>1410566400</t>
         </is>
       </c>
       <c r="C5339" t="inlineStr">
         <is>
-          <t>3352942.1639</t>
+          <t>2524791.7790</t>
         </is>
       </c>
     </row>
     <row r="5340">
       <c r="A5340" t="inlineStr">
         <is>
-          <t>2012-01-21</t>
+          <t>2015-04-25</t>
         </is>
       </c>
       <c r="B5340" t="inlineStr">
         <is>
-          <t>1327104000</t>
+          <t>1429920000</t>
         </is>
       </c>
       <c r="C5340" t="inlineStr">
         <is>
-          <t>1246443.9051</t>
+          <t>3352942.1639</t>
         </is>
       </c>
     </row>
     <row r="5341">
       <c r="A5341" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2012-01-21</t>
         </is>
       </c>
       <c r="B5341" t="inlineStr">
         <is>
-          <t>1738800000</t>
+          <t>1327104000</t>
         </is>
       </c>
       <c r="C5341" t="inlineStr">
         <is>
-          <t>20351324.1358</t>
+          <t>1246443.9051</t>
         </is>
       </c>
     </row>
     <row r="5342">
       <c r="A5342" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B5342" t="inlineStr">
         <is>
-          <t>1751500800</t>
+          <t>1738800000</t>
         </is>
       </c>
       <c r="C5342" t="inlineStr">
         <is>
-          <t>13491078.9035</t>
+          <t>20351324.1358</t>
         </is>
       </c>
     </row>
     <row r="5343">
       <c r="A5343" t="inlineStr">
         <is>
-          <t>2017-09-08</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B5343" t="inlineStr">
         <is>
-          <t>1504828800</t>
+          <t>1751500800</t>
         </is>
       </c>
       <c r="C5343" t="inlineStr">
         <is>
-          <t>19486335.7876</t>
+          <t>13491078.9035</t>
         </is>
       </c>
     </row>
     <row r="5344">
       <c r="A5344" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2017-09-08</t>
         </is>
       </c>
       <c r="B5344" t="inlineStr">
         <is>
-          <t>1606780800</t>
+          <t>1504828800</t>
         </is>
       </c>
       <c r="C5344" t="inlineStr">
         <is>
-          <t>13156711.4846</t>
+          <t>19486335.7876</t>
         </is>
       </c>
     </row>
     <row r="5345">
       <c r="A5345" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B5345" t="inlineStr">
         <is>
-          <t>1671321600</t>
+          <t>1606780800</t>
         </is>
       </c>
       <c r="C5345" t="inlineStr">
         <is>
-          <t>10510937.9566</t>
+          <t>13156711.4846</t>
         </is>
       </c>
     </row>
     <row r="5346">
       <c r="A5346" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="B5346" t="inlineStr">
         <is>
-          <t>1721520000</t>
+          <t>1671321600</t>
         </is>
       </c>
       <c r="C5346" t="inlineStr">
         <is>
-          <t>15716836.0442</t>
+          <t>10510937.9566</t>
         </is>
       </c>
     </row>
     <row r="5347">
       <c r="A5347" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-07-21</t>
         </is>
       </c>
       <c r="B5347" t="inlineStr">
         <is>
-          <t>1737763200</t>
+          <t>1721520000</t>
         </is>
       </c>
       <c r="C5347" t="inlineStr">
         <is>
-          <t>19939698.0572</t>
+          <t>15716836.0442</t>
         </is>
       </c>
     </row>
     <row r="5348">
       <c r="A5348" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B5348" t="inlineStr">
         <is>
-          <t>1412208000</t>
+          <t>1737763200</t>
         </is>
       </c>
       <c r="C5348" t="inlineStr">
         <is>
-          <t>2628371.3340</t>
+          <t>19939698.0572</t>
         </is>
       </c>
     </row>
     <row r="5349">
       <c r="A5349" t="inlineStr">
         <is>
-          <t>2015-05-20</t>
+          <t>2014-10-02</t>
         </is>
       </c>
       <c r="B5349" t="inlineStr">
         <is>
-          <t>1432080000</t>
+          <t>1412208000</t>
         </is>
       </c>
       <c r="C5349" t="inlineStr">
         <is>
-          <t>3177021.1420</t>
+          <t>2628371.3340</t>
         </is>
       </c>
     </row>
     <row r="5350">
       <c r="A5350" t="inlineStr">
         <is>
-          <t>2012-01-26</t>
+          <t>2015-05-20</t>
         </is>
       </c>
       <c r="B5350" t="inlineStr">
         <is>
-          <t>1327536000</t>
+          <t>1432080000</t>
         </is>
       </c>
       <c r="C5350" t="inlineStr">
         <is>
-          <t>1264128.5572</t>
+          <t>3177021.1420</t>
         </is>
       </c>
     </row>
     <row r="5351">
       <c r="A5351" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2012-01-26</t>
         </is>
       </c>
       <c r="B5351" t="inlineStr">
         <is>
-          <t>1727481600</t>
+          <t>1327536000</t>
         </is>
       </c>
       <c r="C5351" t="inlineStr">
         <is>
-          <t>10152643.8623</t>
+          <t>1264128.5572</t>
         </is>
       </c>
     </row>
     <row r="5352">
       <c r="A5352" t="inlineStr">
         <is>
-          <t>2017-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="B5352" t="inlineStr">
         <is>
-          <t>1506124800</t>
+          <t>1727481600</t>
         </is>
       </c>
       <c r="C5352" t="inlineStr">
         <is>
-          <t>18137220.3522</t>
+          <t>10152643.8623</t>
         </is>
       </c>
     </row>
     <row r="5353">
       <c r="A5353" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2017-09-23</t>
         </is>
       </c>
       <c r="B5353" t="inlineStr">
         <is>
-          <t>1609718400</t>
+          <t>1506124800</t>
         </is>
       </c>
       <c r="C5353" t="inlineStr">
         <is>
-          <t>18779023.1070</t>
+          <t>18137220.3522</t>
         </is>
       </c>
     </row>
     <row r="5354">
       <c r="A5354" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="B5354" t="inlineStr">
         <is>
-          <t>1671667200</t>
+          <t>1609718400</t>
         </is>
       </c>
       <c r="C5354" t="inlineStr">
         <is>
-          <t>10615483.2308</t>
+          <t>18779023.1070</t>
         </is>
       </c>
     </row>
     <row r="5355">
       <c r="A5355" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="B5355" t="inlineStr">
         <is>
-          <t>1719446400</t>
+          <t>1671667200</t>
         </is>
       </c>
       <c r="C5355" t="inlineStr">
         <is>
-          <t>15795124.8606</t>
+          <t>10615483.2308</t>
         </is>
       </c>
     </row>
     <row r="5356">
       <c r="A5356" t="inlineStr">
         <is>
-          <t>2014-10-23</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B5356" t="inlineStr">
         <is>
-          <t>1414022400</t>
+          <t>1719446400</t>
         </is>
       </c>
       <c r="C5356" t="inlineStr">
         <is>
-          <t>3053937.5559</t>
+          <t>15795124.8606</t>
         </is>
       </c>
     </row>
     <row r="5357">
       <c r="A5357" t="inlineStr">
         <is>
-          <t>2015-05-27</t>
+          <t>2014-10-23</t>
         </is>
       </c>
       <c r="B5357" t="inlineStr">
         <is>
-          <t>1432684800</t>
+          <t>1414022400</t>
         </is>
       </c>
       <c r="C5357" t="inlineStr">
         <is>
-          <t>2974495.0060</t>
+          <t>3053937.5559</t>
         </is>
       </c>
     </row>
     <row r="5358">
       <c r="A5358" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2015-05-27</t>
         </is>
       </c>
       <c r="B5358" t="inlineStr">
         <is>
-          <t>1333238400</t>
+          <t>1432684800</t>
         </is>
       </c>
       <c r="C5358" t="inlineStr">
         <is>
-          <t>1068036.9510</t>
+          <t>2974495.0060</t>
         </is>
       </c>
     </row>
     <row r="5359">
       <c r="A5359" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="B5359" t="inlineStr">
         <is>
-          <t>1749340800</t>
+          <t>1333238400</t>
         </is>
       </c>
       <c r="C5359" t="inlineStr">
         <is>
-          <t>12796519.8857</t>
+          <t>1068036.9510</t>
         </is>
       </c>
     </row>
     <row r="5360">
       <c r="A5360" t="inlineStr">
         <is>
-          <t>2017-10-09</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B5360" t="inlineStr">
         <is>
-          <t>1507507200</t>
+          <t>1749340800</t>
         </is>
       </c>
       <c r="C5360" t="inlineStr">
         <is>
-          <t>19407598.4460</t>
+          <t>12796519.8857</t>
         </is>
       </c>
     </row>
     <row r="5361">
       <c r="A5361" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2017-10-09</t>
         </is>
       </c>
       <c r="B5361" t="inlineStr">
         <is>
-          <t>1610668800</t>
+          <t>1507507200</t>
         </is>
       </c>
       <c r="C5361" t="inlineStr">
         <is>
-          <t>20455744.6689</t>
+          <t>19407598.4460</t>
         </is>
       </c>
     </row>
     <row r="5362">
       <c r="A5362" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="B5362" t="inlineStr">
         <is>
-          <t>1673049600</t>
+          <t>1610668800</t>
         </is>
       </c>
       <c r="C5362" t="inlineStr">
         <is>
-          <t>11376341.2381</t>
+          <t>20455744.6689</t>
         </is>
       </c>
     </row>
     <row r="5363">
       <c r="A5363" t="inlineStr">
         <is>
-          <t>2014-11-01</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="B5363" t="inlineStr">
         <is>
-          <t>1414800000</t>
+          <t>1673049600</t>
         </is>
       </c>
       <c r="C5363" t="inlineStr">
         <is>
-          <t>3044004.8345</t>
+          <t>11376341.2381</t>
         </is>
       </c>
     </row>
     <row r="5364">
       <c r="A5364" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2014-11-01</t>
         </is>
       </c>
       <c r="B5364" t="inlineStr">
         <is>
-          <t>1433289600</t>
+          <t>1414800000</t>
         </is>
       </c>
       <c r="C5364" t="inlineStr">
         <is>
-          <t>2765454.5639</t>
+          <t>3044004.8345</t>
         </is>
       </c>
     </row>
     <row r="5365">
       <c r="A5365" t="inlineStr">
         <is>
-          <t>2012-04-02</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="B5365" t="inlineStr">
         <is>
-          <t>1333324800</t>
+          <t>1433289600</t>
         </is>
       </c>
       <c r="C5365" t="inlineStr">
         <is>
-          <t>1066217.3372</t>
+          <t>2765454.5639</t>
         </is>
       </c>
     </row>
     <row r="5366">
       <c r="A5366" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2012-04-02</t>
         </is>
       </c>
       <c r="B5366" t="inlineStr">
         <is>
-          <t>1750982400</t>
+          <t>1333324800</t>
         </is>
       </c>
       <c r="C5366" t="inlineStr">
         <is>
-          <t>13432763.2419</t>
+          <t>1066217.3372</t>
         </is>
       </c>
     </row>
     <row r="5367">
       <c r="A5367" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B5367" t="inlineStr">
         <is>
-          <t>1508976000</t>
+          <t>1750982400</t>
         </is>
       </c>
       <c r="C5367" t="inlineStr">
         <is>
-          <t>19306849.2764</t>
+          <t>13432763.2419</t>
         </is>
       </c>
     </row>
     <row r="5368">
       <c r="A5368" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="B5368" t="inlineStr">
         <is>
-          <t>1612224000</t>
+          <t>1508976000</t>
         </is>
       </c>
       <c r="C5368" t="inlineStr">
         <is>
-          <t>17904427.7007</t>
+          <t>19306849.2764</t>
         </is>
       </c>
     </row>
     <row r="5369">
       <c r="A5369" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="B5369" t="inlineStr">
         <is>
-          <t>1674950400</t>
+          <t>1612224000</t>
         </is>
       </c>
       <c r="C5369" t="inlineStr">
         <is>
-          <t>11260943.2696</t>
+          <t>17904427.7007</t>
         </is>
       </c>
     </row>
     <row r="5370">
       <c r="A5370" t="inlineStr">
         <is>
-          <t>2014-11-19</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="B5370" t="inlineStr">
         <is>
-          <t>1416355200</t>
+          <t>1674950400</t>
         </is>
       </c>
       <c r="C5370" t="inlineStr">
         <is>
-          <t>3019744.6111</t>
+          <t>11260943.2696</t>
         </is>
       </c>
     </row>
     <row r="5371">
       <c r="A5371" t="inlineStr">
         <is>
-          <t>2015-06-09</t>
+          <t>2014-11-19</t>
         </is>
       </c>
       <c r="B5371" t="inlineStr">
         <is>
-          <t>1433808000</t>
+          <t>1416355200</t>
         </is>
       </c>
       <c r="C5371" t="inlineStr">
         <is>
-          <t>2361717.8993</t>
+          <t>3019744.6111</t>
         </is>
       </c>
     </row>
     <row r="5372">
       <c r="A5372" t="inlineStr">
         <is>
-          <t>2012-04-18</t>
+          <t>2015-06-09</t>
         </is>
       </c>
       <c r="B5372" t="inlineStr">
         <is>
-          <t>1334707200</t>
+          <t>1433808000</t>
         </is>
       </c>
       <c r="C5372" t="inlineStr">
         <is>
-          <t>1080512.4949</t>
+          <t>2361717.8993</t>
         </is>
       </c>
     </row>
     <row r="5373">
       <c r="A5373" t="inlineStr">
         <is>
-          <t>2017-11-16</t>
+          <t>2012-04-18</t>
         </is>
       </c>
       <c r="B5373" t="inlineStr">
         <is>
-          <t>1510790400</t>
+          <t>1334707200</t>
         </is>
       </c>
       <c r="C5373" t="inlineStr">
         <is>
-          <t>15794441.3526</t>
+          <t>1080512.4949</t>
         </is>
       </c>
     </row>
     <row r="5374">
       <c r="A5374" t="inlineStr">
         <is>
-          <t>2021-02-12</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="B5374" t="inlineStr">
         <is>
-          <t>1613088000</t>
+          <t>1510790400</t>
         </is>
       </c>
       <c r="C5374" t="inlineStr">
         <is>
-          <t>18047843.2421</t>
+          <t>15794441.3526</t>
         </is>
       </c>
     </row>
     <row r="5375">
       <c r="A5375" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2021-02-12</t>
         </is>
       </c>
       <c r="B5375" t="inlineStr">
         <is>
-          <t>1681603200</t>
+          <t>1613088000</t>
         </is>
       </c>
       <c r="C5375" t="inlineStr">
         <is>
-          <t>7804497.8591</t>
+          <t>18047843.2421</t>
         </is>
       </c>
     </row>
     <row r="5376">
       <c r="A5376" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="B5376" t="inlineStr">
         <is>
-          <t>1729814400</t>
+          <t>1681603200</t>
         </is>
       </c>
       <c r="C5376" t="inlineStr">
         <is>
-          <t>9877779.3768</t>
+          <t>7804497.8591</t>
         </is>
       </c>
     </row>
     <row r="5377">
       <c r="A5377" t="inlineStr">
         <is>
-          <t>2014-12-05</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B5377" t="inlineStr">
         <is>
-          <t>1417737600</t>
+          <t>1729814400</t>
         </is>
       </c>
       <c r="C5377" t="inlineStr">
         <is>
-          <t>3374566.0196</t>
+          <t>9877779.3768</t>
         </is>
       </c>
     </row>
     <row r="5378">
       <c r="A5378" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2014-12-05</t>
         </is>
       </c>
       <c r="B5378" t="inlineStr">
         <is>
-          <t>1434412800</t>
+          <t>1417737600</t>
         </is>
       </c>
       <c r="C5378" t="inlineStr">
         <is>
-          <t>2394815.6334</t>
+          <t>3374566.0196</t>
         </is>
       </c>
     </row>
     <row r="5379">
       <c r="A5379" t="inlineStr">
         <is>
-          <t>2012-05-04</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="B5379" t="inlineStr">
         <is>
-          <t>1336089600</t>
+          <t>1434412800</t>
         </is>
       </c>
       <c r="C5379" t="inlineStr">
         <is>
-          <t>1211448.8197</t>
+          <t>2394815.6334</t>
         </is>
       </c>
     </row>
     <row r="5380">
       <c r="A5380" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2012-05-04</t>
         </is>
       </c>
       <c r="B5380" t="inlineStr">
         <is>
-          <t>1730937600</t>
+          <t>1336089600</t>
         </is>
       </c>
       <c r="C5380" t="inlineStr">
         <is>
-          <t>9388382.5763</t>
+          <t>1211448.8197</t>
         </is>
       </c>
     </row>
     <row r="5381">
       <c r="A5381" t="inlineStr">
         <is>
-          <t>2017-11-30</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B5381" t="inlineStr">
         <is>
-          <t>1512000000</t>
+          <t>1730937600</t>
         </is>
       </c>
       <c r="C5381" t="inlineStr">
         <is>
-          <t>15739620.0586</t>
+          <t>9388382.5763</t>
         </is>
       </c>
     </row>
     <row r="5382">
       <c r="A5382" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2017-11-30</t>
         </is>
       </c>
       <c r="B5382" t="inlineStr">
         <is>
-          <t>1615507200</t>
+          <t>1512000000</t>
         </is>
       </c>
       <c r="C5382" t="inlineStr">
         <is>
-          <t>17461848.2637</t>
+          <t>15739620.0586</t>
         </is>
       </c>
     </row>
     <row r="5383">
       <c r="A5383" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="B5383" t="inlineStr">
         <is>
-          <t>1682985600</t>
+          <t>1615507200</t>
         </is>
       </c>
       <c r="C5383" t="inlineStr">
         <is>
-          <t>7349744.4343</t>
+          <t>17461848.2637</t>
         </is>
       </c>
     </row>
     <row r="5384">
       <c r="A5384" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="B5384" t="inlineStr">
         <is>
-          <t>1720310400</t>
+          <t>1682985600</t>
         </is>
       </c>
       <c r="C5384" t="inlineStr">
         <is>
-          <t>15621689.1033</t>
+          <t>7349744.4343</t>
         </is>
       </c>
     </row>
     <row r="5385">
       <c r="A5385" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="B5385" t="inlineStr">
         <is>
-          <t>1725667200</t>
+          <t>1720310400</t>
         </is>
       </c>
       <c r="C5385" t="inlineStr">
         <is>
-          <t>11149234.0354</t>
+          <t>15621689.1033</t>
         </is>
       </c>
     </row>
     <row r="5386">
       <c r="A5386" t="inlineStr">
         <is>
-          <t>2014-12-24</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B5386" t="inlineStr">
         <is>
-          <t>1419379200</t>
+          <t>1725667200</t>
         </is>
       </c>
       <c r="C5386" t="inlineStr">
         <is>
-          <t>3749367.1402</t>
+          <t>11149234.0354</t>
         </is>
       </c>
     </row>
     <row r="5387">
       <c r="A5387" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2014-12-24</t>
         </is>
       </c>
       <c r="B5387" t="inlineStr">
         <is>
-          <t>1435017600</t>
+          <t>1419379200</t>
         </is>
       </c>
       <c r="C5387" t="inlineStr">
         <is>
-          <t>2573704.9834</t>
+          <t>3749367.1402</t>
         </is>
       </c>
     </row>
     <row r="5388">
       <c r="A5388" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="B5388" t="inlineStr">
         <is>
-          <t>1337558400</t>
+          <t>1435017600</t>
         </is>
       </c>
       <c r="C5388" t="inlineStr">
         <is>
-          <t>1258763.6888</t>
+          <t>2573704.9834</t>
         </is>
       </c>
     </row>
     <row r="5389">
       <c r="A5389" t="inlineStr">
         <is>
-          <t>2017-12-01</t>
+          <t>2012-05-21</t>
         </is>
       </c>
       <c r="B5389" t="inlineStr">
         <is>
-          <t>1512086400</t>
+          <t>1337558400</t>
         </is>
       </c>
       <c r="C5389" t="inlineStr">
         <is>
-          <t>15786676.0669</t>
+          <t>1258763.6888</t>
         </is>
       </c>
     </row>
     <row r="5390">
       <c r="A5390" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2017-12-01</t>
         </is>
       </c>
       <c r="B5390" t="inlineStr">
         <is>
-          <t>1617148800</t>
+          <t>1512086400</t>
         </is>
       </c>
       <c r="C5390" t="inlineStr">
         <is>
-          <t>15009732.4196</t>
+          <t>15786676.0669</t>
         </is>
       </c>
     </row>
     <row r="5391">
       <c r="A5391" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B5391" t="inlineStr">
         <is>
-          <t>1684195200</t>
+          <t>1617148800</t>
         </is>
       </c>
       <c r="C5391" t="inlineStr">
         <is>
-          <t>8127301.0463</t>
+          <t>15009732.4196</t>
         </is>
       </c>
     </row>
     <row r="5392">
       <c r="A5392" t="inlineStr">
         <is>
-          <t>2015-01-11</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="B5392" t="inlineStr">
         <is>
-          <t>1420934400</t>
+          <t>1684195200</t>
         </is>
       </c>
       <c r="C5392" t="inlineStr">
         <is>
-          <t>3848375.4398</t>
+          <t>8127301.0463</t>
         </is>
       </c>
     </row>
     <row r="5393">
       <c r="A5393" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-01-11</t>
         </is>
       </c>
       <c r="B5393" t="inlineStr">
         <is>
-          <t>1435708800</t>
+          <t>1420934400</t>
         </is>
       </c>
       <c r="C5393" t="inlineStr">
         <is>
-          <t>2511092.2613</t>
+          <t>3848375.4398</t>
         </is>
       </c>
     </row>
     <row r="5394">
       <c r="A5394" t="inlineStr">
         <is>
-          <t>2012-06-06</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="B5394" t="inlineStr">
         <is>
-          <t>1338940800</t>
+          <t>1435708800</t>
         </is>
       </c>
       <c r="C5394" t="inlineStr">
         <is>
-          <t>1365675.3410</t>
+          <t>2511092.2613</t>
         </is>
       </c>
     </row>
     <row r="5395">
       <c r="A5395" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2012-06-06</t>
         </is>
       </c>
       <c r="B5395" t="inlineStr">
         <is>
-          <t>1755043200</t>
+          <t>1338940800</t>
         </is>
       </c>
       <c r="C5395" t="inlineStr">
         <is>
-          <t>18209088.1140</t>
+          <t>1365675.3410</t>
         </is>
       </c>
     </row>
     <row r="5396">
       <c r="A5396" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B5396" t="inlineStr">
         <is>
-          <t>1513555200</t>
+          <t>1755043200</t>
         </is>
       </c>
       <c r="C5396" t="inlineStr">
         <is>
-          <t>17645156.9991</t>
+          <t>18209088.1140</t>
         </is>
       </c>
     </row>
     <row r="5397">
       <c r="A5397" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="B5397" t="inlineStr">
         <is>
-          <t>1620518400</t>
+          <t>1513555200</t>
         </is>
       </c>
       <c r="C5397" t="inlineStr">
         <is>
-          <t>13264526.5840</t>
+          <t>17645156.9991</t>
         </is>
       </c>
     </row>
     <row r="5398">
       <c r="A5398" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B5398" t="inlineStr">
         <is>
-          <t>1685318400</t>
+          <t>1620518400</t>
         </is>
       </c>
       <c r="C5398" t="inlineStr">
         <is>
-          <t>8486747.4331</t>
+          <t>13264526.5840</t>
         </is>
       </c>
     </row>
     <row r="5399">
       <c r="A5399" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B5399" t="inlineStr">
         <is>
-          <t>1421712000</t>
+          <t>1685318400</t>
         </is>
       </c>
       <c r="C5399" t="inlineStr">
         <is>
-          <t>4046018.4828</t>
+          <t>8486747.4331</t>
         </is>
       </c>
     </row>
     <row r="5400">
       <c r="A5400" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B5400" t="inlineStr">
         <is>
-          <t>1436400000</t>
+          <t>1421712000</t>
         </is>
       </c>
       <c r="C5400" t="inlineStr">
         <is>
-          <t>2718554.4658</t>
+          <t>4046018.4828</t>
         </is>
       </c>
     </row>
     <row r="5401">
       <c r="A5401" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="B5401" t="inlineStr">
         <is>
-          <t>1339977600</t>
+          <t>1436400000</t>
         </is>
       </c>
       <c r="C5401" t="inlineStr">
         <is>
-          <t>1367243.3895</t>
+          <t>2718554.4658</t>
         </is>
       </c>
     </row>
     <row r="5402">
       <c r="A5402" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2012-06-18</t>
         </is>
       </c>
       <c r="B5402" t="inlineStr">
         <is>
-          <t>1728259200</t>
+          <t>1339977600</t>
         </is>
       </c>
       <c r="C5402" t="inlineStr">
         <is>
-          <t>9114476.3120</t>
+          <t>1367243.3895</t>
         </is>
       </c>
     </row>
     <row r="5403">
       <c r="A5403" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B5403" t="inlineStr">
         <is>
-          <t>1733443200</t>
+          <t>1728259200</t>
         </is>
       </c>
       <c r="C5403" t="inlineStr">
         <is>
-          <t>15346852.8711</t>
+          <t>9114476.3120</t>
         </is>
       </c>
     </row>
     <row r="5404">
       <c r="A5404" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B5404" t="inlineStr">
         <is>
-          <t>1748304000</t>
+          <t>1733443200</t>
         </is>
       </c>
       <c r="C5404" t="inlineStr">
         <is>
-          <t>12870879.4774</t>
+          <t>15346852.8711</t>
         </is>
       </c>
     </row>
     <row r="5405">
       <c r="A5405" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5405" t="inlineStr">
         <is>
-          <t>1515196800</t>
+          <t>1748304000</t>
         </is>
       </c>
       <c r="C5405" t="inlineStr">
         <is>
-          <t>17780525.2450</t>
+          <t>12870879.4774</t>
         </is>
       </c>
     </row>
     <row r="5406">
       <c r="A5406" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B5406" t="inlineStr">
         <is>
-          <t>1621036800</t>
+          <t>1515196800</t>
         </is>
       </c>
       <c r="C5406" t="inlineStr">
         <is>
-          <t>13194431.7259</t>
+          <t>17780525.2450</t>
         </is>
       </c>
     </row>
     <row r="5407">
       <c r="A5407" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B5407" t="inlineStr">
         <is>
-          <t>1686182400</t>
+          <t>1621036800</t>
         </is>
       </c>
       <c r="C5407" t="inlineStr">
         <is>
-          <t>8346328.6345</t>
+          <t>13194431.7259</t>
         </is>
       </c>
     </row>
     <row r="5408">
       <c r="A5408" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="B5408" t="inlineStr">
         <is>
-          <t>1722124800</t>
+          <t>1686182400</t>
         </is>
       </c>
       <c r="C5408" t="inlineStr">
         <is>
-          <t>16236706.9256</t>
+          <t>8346328.6345</t>
         </is>
       </c>
     </row>
     <row r="5409">
       <c r="A5409" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B5409" t="inlineStr">
         <is>
-          <t>1724544000</t>
+          <t>1722124800</t>
         </is>
       </c>
       <c r="C5409" t="inlineStr">
         <is>
-          <t>16585261.5760</t>
+          <t>16236706.9256</t>
         </is>
       </c>
     </row>
     <row r="5410">
       <c r="A5410" t="inlineStr">
         <is>
-          <t>2015-02-10</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5410" t="inlineStr">
         <is>
-          <t>1423526400</t>
+          <t>1724544000</t>
         </is>
       </c>
       <c r="C5410" t="inlineStr">
         <is>
-          <t>4071380.9743</t>
+          <t>16585261.5760</t>
         </is>
       </c>
     </row>
     <row r="5411">
       <c r="A5411" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="B5411" t="inlineStr">
         <is>
-          <t>1437091200</t>
+          <t>1423526400</t>
         </is>
       </c>
       <c r="C5411" t="inlineStr">
         <is>
-          <t>2793932.2942</t>
+          <t>4071380.9743</t>
         </is>
       </c>
     </row>
     <row r="5412">
       <c r="A5412" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5412" t="inlineStr">
         <is>
-          <t>1340841600</t>
+          <t>1437091200</t>
         </is>
       </c>
       <c r="C5412" t="inlineStr">
         <is>
-          <t>1363857.9434</t>
+          <t>2793932.2942</t>
         </is>
       </c>
     </row>
     <row r="5413">
       <c r="A5413" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5413" t="inlineStr">
         <is>
-          <t>1739664000</t>
+          <t>1340841600</t>
         </is>
       </c>
       <c r="C5413" t="inlineStr">
         <is>
-          <t>18882222.0421</t>
+          <t>1363857.9434</t>
         </is>
       </c>
     </row>
     <row r="5414">
       <c r="A5414" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5414" t="inlineStr">
         <is>
-          <t>1730246400</t>
+          <t>1739664000</t>
         </is>
       </c>
       <c r="C5414" t="inlineStr">
         <is>
-          <t>9386582.3714</t>
+          <t>18882222.0421</t>
         </is>
       </c>
     </row>
     <row r="5415">
       <c r="A5415" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5415" t="inlineStr">
         <is>
-          <t>1516233600</t>
+          <t>1730246400</t>
         </is>
       </c>
       <c r="C5415" t="inlineStr">
         <is>
-          <t>17890389.8989</t>
+          <t>9386582.3714</t>
         </is>
       </c>
     </row>
     <row r="5416">
       <c r="A5416" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5416" t="inlineStr">
         <is>
-          <t>1623196800</t>
+          <t>1516233600</t>
         </is>
       </c>
       <c r="C5416" t="inlineStr">
         <is>
-          <t>12015164.2793</t>
+          <t>17890389.8989</t>
         </is>
       </c>
     </row>
     <row r="5417">
       <c r="A5417" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5417" t="inlineStr">
         <is>
-          <t>1687910400</t>
+          <t>1623196800</t>
         </is>
       </c>
       <c r="C5417" t="inlineStr">
         <is>
-          <t>7902657.1241</t>
+          <t>12015164.2793</t>
         </is>
       </c>
     </row>
     <row r="5418">
       <c r="A5418" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5418" t="inlineStr">
         <is>
-          <t>1726790400</t>
+          <t>1687910400</t>
         </is>
       </c>
       <c r="C5418" t="inlineStr">
         <is>
-          <t>10503343.6498</t>
+          <t>7902657.1241</t>
         </is>
       </c>
     </row>
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5419" t="inlineStr">
         <is>
-          <t>1424908800</t>
+          <t>1726790400</t>
         </is>
       </c>
       <c r="C5419" t="inlineStr">
         <is>
-          <t>3819509.2714</t>
+          <t>10503343.6498</t>
         </is>
       </c>
     </row>
     <row r="5420">
       <c r="A5420" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5420" t="inlineStr">
         <is>
-          <t>1437696000</t>
+          <t>1424908800</t>
         </is>
       </c>
       <c r="C5420" t="inlineStr">
         <is>
-          <t>2826416.0029</t>
+          <t>3819509.2714</t>
         </is>
       </c>
     </row>
     <row r="5421">
       <c r="A5421" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5421" t="inlineStr">
         <is>
-          <t>1342828800</t>
+          <t>1437696000</t>
         </is>
       </c>
       <c r="C5421" t="inlineStr">
         <is>
-          <t>1630324.6793</t>
+          <t>2826416.0029</t>
         </is>
       </c>
     </row>
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5422" t="inlineStr">
         <is>
-          <t>1745452800</t>
+          <t>1342828800</t>
         </is>
       </c>
       <c r="C5422" t="inlineStr">
         <is>
-          <t>10658742.5609</t>
+          <t>1630324.6793</t>
         </is>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5423" t="inlineStr">
         <is>
-          <t>1737072000</t>
+          <t>1745452800</t>
         </is>
       </c>
       <c r="C5423" t="inlineStr">
         <is>
-          <t>18727823.6488</t>
+          <t>10658742.5609</t>
         </is>
       </c>
     </row>
     <row r="5424">
       <c r="A5424" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5424" t="inlineStr">
         <is>
-          <t>1517356800</t>
+          <t>1737072000</t>
         </is>
       </c>
       <c r="C5424" t="inlineStr">
         <is>
-          <t>17224052.5034</t>
+          <t>18727823.6488</t>
         </is>
       </c>
     </row>
     <row r="5425">
       <c r="A5425" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5425" t="inlineStr">
         <is>
-          <t>1625011200</t>
+          <t>1517356800</t>
         </is>
       </c>
       <c r="C5425" t="inlineStr">
         <is>
-          <t>10673931.3479</t>
+          <t>17224052.5034</t>
         </is>
       </c>
     </row>
     <row r="5426">
       <c r="A5426" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5426" t="inlineStr">
         <is>
-          <t>1427241600</t>
+          <t>1625011200</t>
         </is>
       </c>
       <c r="C5426" t="inlineStr">
         <is>
-          <t>3979751.1416</t>
+          <t>10673931.3479</t>
         </is>
       </c>
     </row>
     <row r="5427">
       <c r="A5427" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5427" t="inlineStr">
         <is>
-          <t>1444780800</t>
+          <t>1427241600</t>
         </is>
       </c>
       <c r="C5427" t="inlineStr">
         <is>
-          <t>3642872.2976</t>
+          <t>3979751.1416</t>
         </is>
       </c>
     </row>
     <row r="5428">
       <c r="A5428" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5428" t="inlineStr">
         <is>
-          <t>1344297600</t>
+          <t>1444780800</t>
         </is>
       </c>
       <c r="C5428" t="inlineStr">
         <is>
-          <t>1613219.4409</t>
+          <t>3642872.2976</t>
         </is>
       </c>
     </row>
     <row r="5429">
       <c r="A5429" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5429" t="inlineStr">
         <is>
-          <t>1741824000</t>
+          <t>1344297600</t>
         </is>
       </c>
       <c r="C5429" t="inlineStr">
         <is>
-          <t>14696488.1218</t>
+          <t>1613219.4409</t>
         </is>
       </c>
     </row>
     <row r="5430">
       <c r="A5430" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5430" t="inlineStr">
         <is>
-          <t>1732492800</t>
+          <t>1741824000</t>
         </is>
       </c>
       <c r="C5430" t="inlineStr">
         <is>
-          <t>13074131.7807</t>
+          <t>14696488.1218</t>
         </is>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5431" t="inlineStr">
         <is>
-          <t>1517961600</t>
+          <t>1732492800</t>
         </is>
       </c>
       <c r="C5431" t="inlineStr">
         <is>
-          <t>18108889.1189</t>
+          <t>13074131.7807</t>
         </is>
       </c>
     </row>
     <row r="5432">
       <c r="A5432" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5432" t="inlineStr">
         <is>
-          <t>1625184000</t>
+          <t>1517961600</t>
         </is>
       </c>
       <c r="C5432" t="inlineStr">
         <is>
-          <t>10600975.1625</t>
+          <t>18108889.1189</t>
         </is>
       </c>
     </row>
     <row r="5433">
       <c r="A5433" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5433" t="inlineStr">
         <is>
-          <t>1429056000</t>
+          <t>1625184000</t>
         </is>
       </c>
       <c r="C5433" t="inlineStr">
         <is>
-          <t>3489354.7332</t>
+          <t>10600975.1625</t>
         </is>
       </c>
     </row>
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5434" t="inlineStr">
         <is>
-          <t>1445299200</t>
+          <t>1429056000</t>
         </is>
       </c>
       <c r="C5434" t="inlineStr">
         <is>
-          <t>3660667.0819</t>
+          <t>3489354.7332</t>
         </is>
       </c>
     </row>
     <row r="5435">
       <c r="A5435" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5435" t="inlineStr">
         <is>
-          <t>1290988800</t>
+          <t>1445299200</t>
         </is>
       </c>
       <c r="C5435" t="inlineStr">
         <is>
-          <t>316907.1272</t>
+          <t>3660667.0819</t>
         </is>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5436" t="inlineStr">
         <is>
-          <t>1345680000</t>
+          <t>1290988800</t>
         </is>
       </c>
       <c r="C5436" t="inlineStr">
         <is>
-          <t>1760535.9983</t>
+          <t>316907.1272</t>
         </is>
       </c>
     </row>
     <row r="5437">
       <c r="A5437" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5437" t="inlineStr">
         <is>
-          <t>1738368000</t>
+          <t>1345680000</t>
         </is>
       </c>
       <c r="C5437" t="inlineStr">
         <is>
-          <t>19760413.2226</t>
+          <t>1760535.9983</t>
         </is>
       </c>
     </row>
     <row r="5438">
       <c r="A5438" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5438" t="inlineStr">
         <is>
-          <t>1518825600</t>
+          <t>1738368000</t>
         </is>
       </c>
       <c r="C5438" t="inlineStr">
         <is>
-          <t>15296257.1177</t>
+          <t>19760413.2226</t>
         </is>
       </c>
     </row>
     <row r="5439">
       <c r="A5439" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5439" t="inlineStr">
         <is>
-          <t>1627516800</t>
+          <t>1518825600</t>
         </is>
       </c>
       <c r="C5439" t="inlineStr">
         <is>
-          <t>10677343.1650</t>
+          <t>15296257.1177</t>
         </is>
       </c>
     </row>
     <row r="5440">
       <c r="A5440" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5440" t="inlineStr">
         <is>
-          <t>1748822400</t>
+          <t>1627516800</t>
         </is>
       </c>
       <c r="C5440" t="inlineStr">
         <is>
-          <t>12841467.3176</t>
+          <t>10677343.1650</t>
         </is>
       </c>
     </row>
     <row r="5441">
       <c r="A5441" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5441" t="inlineStr">
         <is>
-          <t>1431734400</t>
+          <t>1748822400</t>
         </is>
       </c>
       <c r="C5441" t="inlineStr">
         <is>
-          <t>3205484.5268</t>
+          <t>12841467.3176</t>
         </is>
       </c>
     </row>
     <row r="5442">
       <c r="A5442" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5442" t="inlineStr">
         <is>
-          <t>1447891200</t>
+          <t>1431734400</t>
         </is>
       </c>
       <c r="C5442" t="inlineStr">
         <is>
-          <t>4648212.4580</t>
+          <t>3205484.5268</t>
         </is>
       </c>
     </row>
     <row r="5443">
       <c r="A5443" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5443" t="inlineStr">
         <is>
-          <t>1347062400</t>
+          <t>1447891200</t>
         </is>
       </c>
       <c r="C5443" t="inlineStr">
         <is>
-          <t>1873037.1423</t>
+          <t>4648212.4580</t>
         </is>
       </c>
     </row>
     <row r="5444">
       <c r="A5444" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5444" t="inlineStr">
         <is>
-          <t>1735516800</t>
+          <t>1347062400</t>
         </is>
       </c>
       <c r="C5444" t="inlineStr">
         <is>
-          <t>19272529.0343</t>
+          <t>1873037.1423</t>
         </is>
       </c>
     </row>
     <row r="5445">
       <c r="A5445" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5445" t="inlineStr">
         <is>
-          <t>1520553600</t>
+          <t>1735516800</t>
         </is>
       </c>
       <c r="C5445" t="inlineStr">
         <is>
-          <t>13193422.7830</t>
+          <t>19272529.0343</t>
         </is>
       </c>
     </row>
     <row r="5446">
       <c r="A5446" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5446" t="inlineStr">
         <is>
-          <t>1629763200</t>
+          <t>1520553600</t>
         </is>
       </c>
       <c r="C5446" t="inlineStr">
         <is>
-          <t>8610177.4927</t>
+          <t>13193422.7830</t>
         </is>
       </c>
     </row>
     <row r="5447">
       <c r="A5447" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5447" t="inlineStr">
         <is>
-          <t>1747699200</t>
+          <t>1629763200</t>
         </is>
       </c>
       <c r="C5447" t="inlineStr">
         <is>
-          <t>12225489.8670</t>
+          <t>8610177.4927</t>
         </is>
       </c>
     </row>
     <row r="5448">
       <c r="A5448" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5448" t="inlineStr">
         <is>
-          <t>1432771200</t>
+          <t>1747699200</t>
         </is>
       </c>
       <c r="C5448" t="inlineStr">
         <is>
-          <t>2985205.1422</t>
+          <t>12225489.8670</t>
         </is>
       </c>
     </row>
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5449" t="inlineStr">
         <is>
-          <t>1449619200</t>
+          <t>1432771200</t>
         </is>
       </c>
       <c r="C5449" t="inlineStr">
         <is>
-          <t>4603582.0606</t>
+          <t>2985205.1422</t>
         </is>
       </c>
     </row>
     <row r="5450">
       <c r="A5450" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5450" t="inlineStr">
         <is>
-          <t>1348444800</t>
+          <t>1449619200</t>
         </is>
       </c>
       <c r="C5450" t="inlineStr">
         <is>
-          <t>2093652.7436</t>
+          <t>4603582.0606</t>
         </is>
       </c>
     </row>
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5451" t="inlineStr">
         <is>
-          <t>1743897600</t>
+          <t>1348444800</t>
         </is>
       </c>
       <c r="C5451" t="inlineStr">
         <is>
-          <t>11477197.5250</t>
+          <t>2093652.7436</t>
         </is>
       </c>
     </row>
     <row r="5452">
       <c r="A5452" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5452" t="inlineStr">
         <is>
-          <t>1753747200</t>
+          <t>1743897600</t>
         </is>
       </c>
       <c r="C5452" t="inlineStr">
         <is>
-          <t>19496972.8358</t>
+          <t>11477197.5250</t>
         </is>
       </c>
     </row>
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5453" t="inlineStr">
         <is>
-          <t>1522195200</t>
+          <t>1753747200</t>
         </is>
       </c>
       <c r="C5453" t="inlineStr">
         <is>
-          <t>10566019.6634</t>
+          <t>19496972.8358</t>
         </is>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5454" t="inlineStr">
         <is>
-          <t>1631923200</t>
+          <t>1522195200</t>
         </is>
       </c>
       <c r="C5454" t="inlineStr">
         <is>
-          <t>8609734.7588</t>
+          <t>10566019.6634</t>
         </is>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5455" t="inlineStr">
         <is>
-          <t>1754524800</t>
+          <t>1631923200</t>
         </is>
       </c>
       <c r="C5455" t="inlineStr">
         <is>
-          <t>18616838.3879</t>
+          <t>8609734.7588</t>
         </is>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5456" t="inlineStr">
         <is>
-          <t>1434067200</t>
+          <t>1754524800</t>
         </is>
       </c>
       <c r="C5456" t="inlineStr">
         <is>
-          <t>2392944.2562</t>
+          <t>18616838.3879</t>
         </is>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5457" t="inlineStr">
         <is>
-          <t>1450396800</t>
+          <t>1434067200</t>
         </is>
       </c>
       <c r="C5457" t="inlineStr">
         <is>
-          <t>4964683.7732</t>
+          <t>2392944.2562</t>
         </is>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5458" t="inlineStr">
         <is>
-          <t>1349827200</t>
+          <t>1450396800</t>
         </is>
       </c>
       <c r="C5458" t="inlineStr">
         <is>
-          <t>2162784.4641</t>
+          <t>4964683.7732</t>
         </is>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5459" t="inlineStr">
         <is>
-          <t>1524009600</t>
+          <t>1349827200</t>
         </is>
       </c>
       <c r="C5459" t="inlineStr">
         <is>
-          <t>8046257.5876</t>
+          <t>2162784.4641</t>
         </is>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5460" t="inlineStr">
         <is>
-          <t>1632268800</t>
+          <t>1524009600</t>
         </is>
       </c>
       <c r="C5460" t="inlineStr">
         <is>
-          <t>8443126.1507</t>
+          <t>8046257.5876</t>
         </is>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5461" t="inlineStr">
         <is>
-          <t>1702857600</t>
+          <t>1632268800</t>
         </is>
       </c>
       <c r="C5461" t="inlineStr">
         <is>
-          <t>8386250.0083</t>
+          <t>8443126.1507</t>
         </is>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5462" t="inlineStr">
         <is>
-          <t>1435968000</t>
+          <t>1702857600</t>
         </is>
       </c>
       <c r="C5462" t="inlineStr">
         <is>
-          <t>2565551.2358</t>
+          <t>8386250.0083</t>
         </is>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5463" t="inlineStr">
         <is>
-          <t>1461110400</t>
+          <t>1435968000</t>
         </is>
       </c>
       <c r="C5463" t="inlineStr">
         <is>
-          <t>6127123.1058</t>
+          <t>2565551.2358</t>
         </is>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5464" t="inlineStr">
         <is>
-          <t>1351296000</t>
+          <t>1461110400</t>
         </is>
       </c>
       <c r="C5464" t="inlineStr">
         <is>
-          <t>2157212.8239</t>
+          <t>6127123.1058</t>
         </is>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5465" t="inlineStr">
         <is>
-          <t>1732060800</t>
+          <t>1351296000</t>
         </is>
       </c>
       <c r="C5465" t="inlineStr">
         <is>
-          <t>11978202.4479</t>
+          <t>2157212.8239</t>
         </is>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5466" t="inlineStr">
         <is>
-          <t>1741219200</t>
+          <t>1732060800</t>
         </is>
       </c>
       <c r="C5466" t="inlineStr">
         <is>
-          <t>15303734.8886</t>
+          <t>11978202.4479</t>
         </is>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5467" t="inlineStr">
         <is>
-          <t>1525305600</t>
+          <t>1741219200</t>
         </is>
       </c>
       <c r="C5467" t="inlineStr">
         <is>
-          <t>8103908.6516</t>
+          <t>15303734.8886</t>
         </is>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5468" t="inlineStr">
         <is>
-          <t>1633996800</t>
+          <t>1525305600</t>
         </is>
       </c>
       <c r="C5468" t="inlineStr">
         <is>
-          <t>9382181.9608</t>
+          <t>8103908.6516</t>
         </is>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5469" t="inlineStr">
         <is>
-          <t>1710460800</t>
+          <t>1633996800</t>
         </is>
       </c>
       <c r="C5469" t="inlineStr">
         <is>
-          <t>16784620.2616</t>
+          <t>9382181.9608</t>
         </is>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5470" t="inlineStr">
         <is>
-          <t>1710547200</t>
+          <t>1710460800</t>
         </is>
       </c>
       <c r="C5470" t="inlineStr">
         <is>
-          <t>16833063.9514</t>
+          <t>16784620.2616</t>
         </is>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5471" t="inlineStr">
         <is>
-          <t>1710633600</t>
+          <t>1710547200</t>
         </is>
       </c>
       <c r="C5471" t="inlineStr">
         <is>
-          <t>17049245.7339</t>
+          <t>16833063.9514</t>
         </is>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5472" t="inlineStr">
         <is>
-          <t>1710720000</t>
+          <t>1710633600</t>
         </is>
       </c>
       <c r="C5472" t="inlineStr">
         <is>
-          <t>17115867.2816</t>
+          <t>17049245.7339</t>
         </is>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5473" t="inlineStr">
         <is>
-          <t>1710806400</t>
+          <t>1710720000</t>
         </is>
       </c>
       <c r="C5473" t="inlineStr">
         <is>
-          <t>17153769.2993</t>
+          <t>17115867.2816</t>
         </is>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5474" t="inlineStr">
         <is>
-          <t>1710892800</t>
+          <t>1710806400</t>
         </is>
       </c>
       <c r="C5474" t="inlineStr">
         <is>
-          <t>17225229.4364</t>
+          <t>17153769.2993</t>
         </is>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5475" t="inlineStr">
         <is>
-          <t>1710979200</t>
+          <t>1710892800</t>
         </is>
       </c>
       <c r="C5475" t="inlineStr">
         <is>
-          <t>17249482.2496</t>
+          <t>17225229.4364</t>
         </is>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5476" t="inlineStr">
         <is>
-          <t>1711065600</t>
+          <t>1710979200</t>
         </is>
       </c>
       <c r="C5476" t="inlineStr">
         <is>
-          <t>17569350.6561</t>
+          <t>17249482.2496</t>
         </is>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5477" t="inlineStr">
         <is>
-          <t>1438560000</t>
+          <t>1711065600</t>
         </is>
       </c>
       <c r="C5477" t="inlineStr">
         <is>
-          <t>2859270.3166</t>
+          <t>17569350.6561</t>
         </is>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5478" t="inlineStr">
         <is>
-          <t>1462320000</t>
+          <t>1438560000</t>
         </is>
       </c>
       <c r="C5478" t="inlineStr">
         <is>
-          <t>5532498.7813</t>
+          <t>2859270.3166</t>
         </is>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5479" t="inlineStr">
         <is>
-          <t>1352678400</t>
+          <t>1462320000</t>
         </is>
       </c>
       <c r="C5479" t="inlineStr">
         <is>
-          <t>2138609.9942</t>
+          <t>5532498.7813</t>
         </is>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5480" t="inlineStr">
         <is>
-          <t>1750464000</t>
+          <t>1352678400</t>
         </is>
       </c>
       <c r="C5480" t="inlineStr">
         <is>
-          <t>12895454.9231</t>
+          <t>2138609.9942</t>
         </is>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5481" t="inlineStr">
+        <is>
+          <t>1750464000</t>
+        </is>
+      </c>
+      <c r="C5481" t="inlineStr">
+        <is>
+          <t>12895454.9231</t>
+        </is>
+      </c>
+    </row>
+    <row r="5482">
+      <c r="A5482" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5481" t="inlineStr">
+      <c r="B5482" t="inlineStr">
         <is>
           <t>1747267200</t>
         </is>
       </c>
-      <c r="C5481" t="inlineStr">
+      <c r="C5482" t="inlineStr">
         <is>
           <t>11691372.3174</t>
         </is>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5482"/>
+  <dimension ref="A1:C5483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78156,34 +78156,34 @@
     <row r="4573">
       <c r="A4573" t="inlineStr">
         <is>
-          <t>2025-08-09</t>
+          <t>2016-07-22</t>
         </is>
       </c>
       <c r="B4573" t="inlineStr">
         <is>
-          <t>1754697600</t>
+          <t>1469145600</t>
         </is>
       </c>
       <c r="C4573" t="inlineStr">
         <is>
-          <t>18704073.3612</t>
+          <t>5946147.8366</t>
         </is>
       </c>
     </row>
     <row r="4574">
       <c r="A4574" t="inlineStr">
         <is>
-          <t>2016-07-22</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="B4574" t="inlineStr">
         <is>
-          <t>1469145600</t>
+          <t>1754697600</t>
         </is>
       </c>
       <c r="C4574" t="inlineStr">
         <is>
-          <t>5946147.8366</t>
+          <t>18704073.3612</t>
         </is>
       </c>
     </row>
@@ -78343,136 +78343,136 @@
     <row r="4584">
       <c r="A4584" t="inlineStr">
         <is>
-          <t>2016-08-07</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="B4584" t="inlineStr">
         <is>
-          <t>1470528000</t>
+          <t>1754784000</t>
         </is>
       </c>
       <c r="C4584" t="inlineStr">
         <is>
-          <t>5929437.5223</t>
+          <t>18651305.0086</t>
         </is>
       </c>
     </row>
     <row r="4585">
       <c r="A4585" t="inlineStr">
         <is>
-          <t>2014-03-12</t>
+          <t>2016-08-07</t>
         </is>
       </c>
       <c r="B4585" t="inlineStr">
         <is>
-          <t>1394582400</t>
+          <t>1470528000</t>
         </is>
       </c>
       <c r="C4585" t="inlineStr">
         <is>
-          <t>6572911.6455</t>
+          <t>5929437.5223</t>
         </is>
       </c>
     </row>
     <row r="4586">
       <c r="A4586" t="inlineStr">
         <is>
-          <t>2011-09-09</t>
+          <t>2014-03-12</t>
         </is>
       </c>
       <c r="B4586" t="inlineStr">
         <is>
-          <t>1315526400</t>
+          <t>1394582400</t>
         </is>
       </c>
       <c r="C4586" t="inlineStr">
         <is>
-          <t>1270795.1451</t>
+          <t>6572911.6455</t>
         </is>
       </c>
     </row>
     <row r="4587">
       <c r="A4587" t="inlineStr">
         <is>
-          <t>2012-06-16</t>
+          <t>2011-09-09</t>
         </is>
       </c>
       <c r="B4587" t="inlineStr">
         <is>
-          <t>1339804800</t>
+          <t>1315526400</t>
         </is>
       </c>
       <c r="C4587" t="inlineStr">
         <is>
-          <t>1362295.1027</t>
+          <t>1270795.1451</t>
         </is>
       </c>
     </row>
     <row r="4588">
       <c r="A4588" t="inlineStr">
         <is>
-          <t>2012-08-04</t>
+          <t>2012-06-16</t>
         </is>
       </c>
       <c r="B4588" t="inlineStr">
         <is>
-          <t>1344038400</t>
+          <t>1339804800</t>
         </is>
       </c>
       <c r="C4588" t="inlineStr">
         <is>
-          <t>1595639.5922</t>
+          <t>1362295.1027</t>
         </is>
       </c>
     </row>
     <row r="4589">
       <c r="A4589" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2012-08-04</t>
         </is>
       </c>
       <c r="B4589" t="inlineStr">
         <is>
-          <t>1748044800</t>
+          <t>1344038400</t>
         </is>
       </c>
       <c r="C4589" t="inlineStr">
         <is>
-          <t>12621325.6662</t>
+          <t>1595639.5922</t>
         </is>
       </c>
     </row>
     <row r="4590">
       <c r="A4590" t="inlineStr">
         <is>
-          <t>2025-08-10</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="B4590" t="inlineStr">
         <is>
-          <t>1754784000</t>
+          <t>1755129600</t>
         </is>
       </c>
       <c r="C4590" t="inlineStr">
         <is>
-          <t>18651305.0086</t>
+          <t>18302045.4635</t>
         </is>
       </c>
     </row>
     <row r="4591">
       <c r="A4591" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-05-24</t>
         </is>
       </c>
       <c r="B4591" t="inlineStr">
         <is>
-          <t>1755129600</t>
+          <t>1748044800</t>
         </is>
       </c>
       <c r="C4591" t="inlineStr">
         <is>
-          <t>18302045.4635</t>
+          <t>12621325.6662</t>
         </is>
       </c>
     </row>
@@ -78683,34 +78683,34 @@
     <row r="4604">
       <c r="A4604" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B4604" t="inlineStr">
         <is>
-          <t>1755216000</t>
+          <t>1745020800</t>
         </is>
       </c>
       <c r="C4604" t="inlineStr">
         <is>
-          <t>18371824.6069</t>
+          <t>11790940.2876</t>
         </is>
       </c>
     </row>
     <row r="4605">
       <c r="A4605" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B4605" t="inlineStr">
         <is>
-          <t>1745020800</t>
+          <t>1755216000</t>
         </is>
       </c>
       <c r="C4605" t="inlineStr">
         <is>
-          <t>11790940.2876</t>
+          <t>18371824.6069</t>
         </is>
       </c>
     </row>
@@ -78870,68 +78870,68 @@
     <row r="4615">
       <c r="A4615" t="inlineStr">
         <is>
-          <t>2025-08-16</t>
+          <t>2011-11-11</t>
         </is>
       </c>
       <c r="B4615" t="inlineStr">
         <is>
-          <t>1755302400</t>
+          <t>1320969600</t>
         </is>
       </c>
       <c r="C4615" t="inlineStr">
         <is>
-          <t>18538635.4086</t>
+          <t>799280.1290</t>
         </is>
       </c>
     </row>
     <row r="4616">
       <c r="A4616" t="inlineStr">
         <is>
-          <t>2011-11-11</t>
+          <t>2012-08-17</t>
         </is>
       </c>
       <c r="B4616" t="inlineStr">
         <is>
-          <t>1320969600</t>
+          <t>1345161600</t>
         </is>
       </c>
       <c r="C4616" t="inlineStr">
         <is>
-          <t>799280.1290</t>
+          <t>1608520.4437</t>
         </is>
       </c>
     </row>
     <row r="4617">
       <c r="A4617" t="inlineStr">
         <is>
-          <t>2012-08-17</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="B4617" t="inlineStr">
         <is>
-          <t>1345161600</t>
+          <t>1739404800</t>
         </is>
       </c>
       <c r="C4617" t="inlineStr">
         <is>
-          <t>1608520.4437</t>
+          <t>19083050.4755</t>
         </is>
       </c>
     </row>
     <row r="4618">
       <c r="A4618" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="B4618" t="inlineStr">
         <is>
-          <t>1739404800</t>
+          <t>1755302400</t>
         </is>
       </c>
       <c r="C4618" t="inlineStr">
         <is>
-          <t>19083050.4755</t>
+          <t>18538635.4086</t>
         </is>
       </c>
     </row>
@@ -92453,1171 +92453,1188 @@
     <row r="5414">
       <c r="A5414" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5414" t="inlineStr">
         <is>
-          <t>1739664000</t>
+          <t>1755561600</t>
         </is>
       </c>
       <c r="C5414" t="inlineStr">
         <is>
-          <t>18882222.0421</t>
+          <t>17972114.7182</t>
         </is>
       </c>
     </row>
     <row r="5415">
       <c r="A5415" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5415" t="inlineStr">
         <is>
-          <t>1730246400</t>
+          <t>1739664000</t>
         </is>
       </c>
       <c r="C5415" t="inlineStr">
         <is>
-          <t>9386582.3714</t>
+          <t>18882222.0421</t>
         </is>
       </c>
     </row>
     <row r="5416">
       <c r="A5416" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5416" t="inlineStr">
         <is>
-          <t>1516233600</t>
+          <t>1730246400</t>
         </is>
       </c>
       <c r="C5416" t="inlineStr">
         <is>
-          <t>17890389.8989</t>
+          <t>9386582.3714</t>
         </is>
       </c>
     </row>
     <row r="5417">
       <c r="A5417" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5417" t="inlineStr">
         <is>
-          <t>1623196800</t>
+          <t>1516233600</t>
         </is>
       </c>
       <c r="C5417" t="inlineStr">
         <is>
-          <t>12015164.2793</t>
+          <t>17890389.8989</t>
         </is>
       </c>
     </row>
     <row r="5418">
       <c r="A5418" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5418" t="inlineStr">
         <is>
-          <t>1687910400</t>
+          <t>1623196800</t>
         </is>
       </c>
       <c r="C5418" t="inlineStr">
         <is>
-          <t>7902657.1241</t>
+          <t>12015164.2793</t>
         </is>
       </c>
     </row>
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5419" t="inlineStr">
         <is>
-          <t>1726790400</t>
+          <t>1687910400</t>
         </is>
       </c>
       <c r="C5419" t="inlineStr">
         <is>
-          <t>10503343.6498</t>
+          <t>7902657.1241</t>
         </is>
       </c>
     </row>
     <row r="5420">
       <c r="A5420" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5420" t="inlineStr">
         <is>
-          <t>1424908800</t>
+          <t>1726790400</t>
         </is>
       </c>
       <c r="C5420" t="inlineStr">
         <is>
-          <t>3819509.2714</t>
+          <t>10503343.6498</t>
         </is>
       </c>
     </row>
     <row r="5421">
       <c r="A5421" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5421" t="inlineStr">
         <is>
-          <t>1437696000</t>
+          <t>1424908800</t>
         </is>
       </c>
       <c r="C5421" t="inlineStr">
         <is>
-          <t>2826416.0029</t>
+          <t>3819509.2714</t>
         </is>
       </c>
     </row>
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5422" t="inlineStr">
         <is>
-          <t>1342828800</t>
+          <t>1437696000</t>
         </is>
       </c>
       <c r="C5422" t="inlineStr">
         <is>
-          <t>1630324.6793</t>
+          <t>2826416.0029</t>
         </is>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5423" t="inlineStr">
         <is>
-          <t>1745452800</t>
+          <t>1342828800</t>
         </is>
       </c>
       <c r="C5423" t="inlineStr">
         <is>
-          <t>10658742.5609</t>
+          <t>1630324.6793</t>
         </is>
       </c>
     </row>
     <row r="5424">
       <c r="A5424" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5424" t="inlineStr">
         <is>
-          <t>1737072000</t>
+          <t>1745452800</t>
         </is>
       </c>
       <c r="C5424" t="inlineStr">
         <is>
-          <t>18727823.6488</t>
+          <t>10658742.5609</t>
         </is>
       </c>
     </row>
     <row r="5425">
       <c r="A5425" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5425" t="inlineStr">
         <is>
-          <t>1517356800</t>
+          <t>1737072000</t>
         </is>
       </c>
       <c r="C5425" t="inlineStr">
         <is>
-          <t>17224052.5034</t>
+          <t>18727823.6488</t>
         </is>
       </c>
     </row>
     <row r="5426">
       <c r="A5426" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5426" t="inlineStr">
         <is>
-          <t>1625011200</t>
+          <t>1517356800</t>
         </is>
       </c>
       <c r="C5426" t="inlineStr">
         <is>
-          <t>10673931.3479</t>
+          <t>17224052.5034</t>
         </is>
       </c>
     </row>
     <row r="5427">
       <c r="A5427" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5427" t="inlineStr">
         <is>
-          <t>1427241600</t>
+          <t>1625011200</t>
         </is>
       </c>
       <c r="C5427" t="inlineStr">
         <is>
-          <t>3979751.1416</t>
+          <t>10673931.3479</t>
         </is>
       </c>
     </row>
     <row r="5428">
       <c r="A5428" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5428" t="inlineStr">
         <is>
-          <t>1444780800</t>
+          <t>1427241600</t>
         </is>
       </c>
       <c r="C5428" t="inlineStr">
         <is>
-          <t>3642872.2976</t>
+          <t>3979751.1416</t>
         </is>
       </c>
     </row>
     <row r="5429">
       <c r="A5429" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5429" t="inlineStr">
         <is>
-          <t>1344297600</t>
+          <t>1444780800</t>
         </is>
       </c>
       <c r="C5429" t="inlineStr">
         <is>
-          <t>1613219.4409</t>
+          <t>3642872.2976</t>
         </is>
       </c>
     </row>
     <row r="5430">
       <c r="A5430" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5430" t="inlineStr">
         <is>
-          <t>1741824000</t>
+          <t>1344297600</t>
         </is>
       </c>
       <c r="C5430" t="inlineStr">
         <is>
-          <t>14696488.1218</t>
+          <t>1613219.4409</t>
         </is>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5431" t="inlineStr">
         <is>
-          <t>1732492800</t>
+          <t>1741824000</t>
         </is>
       </c>
       <c r="C5431" t="inlineStr">
         <is>
-          <t>13074131.7807</t>
+          <t>14696488.1218</t>
         </is>
       </c>
     </row>
     <row r="5432">
       <c r="A5432" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5432" t="inlineStr">
         <is>
-          <t>1517961600</t>
+          <t>1732492800</t>
         </is>
       </c>
       <c r="C5432" t="inlineStr">
         <is>
-          <t>18108889.1189</t>
+          <t>13074131.7807</t>
         </is>
       </c>
     </row>
     <row r="5433">
       <c r="A5433" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5433" t="inlineStr">
         <is>
-          <t>1625184000</t>
+          <t>1517961600</t>
         </is>
       </c>
       <c r="C5433" t="inlineStr">
         <is>
-          <t>10600975.1625</t>
+          <t>18108889.1189</t>
         </is>
       </c>
     </row>
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5434" t="inlineStr">
         <is>
-          <t>1429056000</t>
+          <t>1625184000</t>
         </is>
       </c>
       <c r="C5434" t="inlineStr">
         <is>
-          <t>3489354.7332</t>
+          <t>10600975.1625</t>
         </is>
       </c>
     </row>
     <row r="5435">
       <c r="A5435" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5435" t="inlineStr">
         <is>
-          <t>1445299200</t>
+          <t>1429056000</t>
         </is>
       </c>
       <c r="C5435" t="inlineStr">
         <is>
-          <t>3660667.0819</t>
+          <t>3489354.7332</t>
         </is>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5436" t="inlineStr">
         <is>
-          <t>1290988800</t>
+          <t>1445299200</t>
         </is>
       </c>
       <c r="C5436" t="inlineStr">
         <is>
-          <t>316907.1272</t>
+          <t>3660667.0819</t>
         </is>
       </c>
     </row>
     <row r="5437">
       <c r="A5437" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5437" t="inlineStr">
         <is>
-          <t>1345680000</t>
+          <t>1290988800</t>
         </is>
       </c>
       <c r="C5437" t="inlineStr">
         <is>
-          <t>1760535.9983</t>
+          <t>316907.1272</t>
         </is>
       </c>
     </row>
     <row r="5438">
       <c r="A5438" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5438" t="inlineStr">
         <is>
-          <t>1738368000</t>
+          <t>1345680000</t>
         </is>
       </c>
       <c r="C5438" t="inlineStr">
         <is>
-          <t>19760413.2226</t>
+          <t>1760535.9983</t>
         </is>
       </c>
     </row>
     <row r="5439">
       <c r="A5439" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5439" t="inlineStr">
         <is>
-          <t>1518825600</t>
+          <t>1738368000</t>
         </is>
       </c>
       <c r="C5439" t="inlineStr">
         <is>
-          <t>15296257.1177</t>
+          <t>19760413.2226</t>
         </is>
       </c>
     </row>
     <row r="5440">
       <c r="A5440" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5440" t="inlineStr">
         <is>
-          <t>1627516800</t>
+          <t>1518825600</t>
         </is>
       </c>
       <c r="C5440" t="inlineStr">
         <is>
-          <t>10677343.1650</t>
+          <t>15296257.1177</t>
         </is>
       </c>
     </row>
     <row r="5441">
       <c r="A5441" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5441" t="inlineStr">
         <is>
-          <t>1748822400</t>
+          <t>1627516800</t>
         </is>
       </c>
       <c r="C5441" t="inlineStr">
         <is>
-          <t>12841467.3176</t>
+          <t>10677343.1650</t>
         </is>
       </c>
     </row>
     <row r="5442">
       <c r="A5442" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5442" t="inlineStr">
         <is>
-          <t>1431734400</t>
+          <t>1748822400</t>
         </is>
       </c>
       <c r="C5442" t="inlineStr">
         <is>
-          <t>3205484.5268</t>
+          <t>12841467.3176</t>
         </is>
       </c>
     </row>
     <row r="5443">
       <c r="A5443" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5443" t="inlineStr">
         <is>
-          <t>1447891200</t>
+          <t>1431734400</t>
         </is>
       </c>
       <c r="C5443" t="inlineStr">
         <is>
-          <t>4648212.4580</t>
+          <t>3205484.5268</t>
         </is>
       </c>
     </row>
     <row r="5444">
       <c r="A5444" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5444" t="inlineStr">
         <is>
-          <t>1347062400</t>
+          <t>1447891200</t>
         </is>
       </c>
       <c r="C5444" t="inlineStr">
         <is>
-          <t>1873037.1423</t>
+          <t>4648212.4580</t>
         </is>
       </c>
     </row>
     <row r="5445">
       <c r="A5445" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5445" t="inlineStr">
         <is>
-          <t>1735516800</t>
+          <t>1347062400</t>
         </is>
       </c>
       <c r="C5445" t="inlineStr">
         <is>
-          <t>19272529.0343</t>
+          <t>1873037.1423</t>
         </is>
       </c>
     </row>
     <row r="5446">
       <c r="A5446" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5446" t="inlineStr">
         <is>
-          <t>1520553600</t>
+          <t>1735516800</t>
         </is>
       </c>
       <c r="C5446" t="inlineStr">
         <is>
-          <t>13193422.7830</t>
+          <t>19272529.0343</t>
         </is>
       </c>
     </row>
     <row r="5447">
       <c r="A5447" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5447" t="inlineStr">
         <is>
-          <t>1629763200</t>
+          <t>1520553600</t>
         </is>
       </c>
       <c r="C5447" t="inlineStr">
         <is>
-          <t>8610177.4927</t>
+          <t>13193422.7830</t>
         </is>
       </c>
     </row>
     <row r="5448">
       <c r="A5448" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5448" t="inlineStr">
         <is>
-          <t>1747699200</t>
+          <t>1629763200</t>
         </is>
       </c>
       <c r="C5448" t="inlineStr">
         <is>
-          <t>12225489.8670</t>
+          <t>8610177.4927</t>
         </is>
       </c>
     </row>
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5449" t="inlineStr">
         <is>
-          <t>1432771200</t>
+          <t>1747699200</t>
         </is>
       </c>
       <c r="C5449" t="inlineStr">
         <is>
-          <t>2985205.1422</t>
+          <t>12225489.8670</t>
         </is>
       </c>
     </row>
     <row r="5450">
       <c r="A5450" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5450" t="inlineStr">
         <is>
-          <t>1449619200</t>
+          <t>1432771200</t>
         </is>
       </c>
       <c r="C5450" t="inlineStr">
         <is>
-          <t>4603582.0606</t>
+          <t>2985205.1422</t>
         </is>
       </c>
     </row>
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5451" t="inlineStr">
         <is>
-          <t>1348444800</t>
+          <t>1449619200</t>
         </is>
       </c>
       <c r="C5451" t="inlineStr">
         <is>
-          <t>2093652.7436</t>
+          <t>4603582.0606</t>
         </is>
       </c>
     </row>
     <row r="5452">
       <c r="A5452" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5452" t="inlineStr">
         <is>
-          <t>1743897600</t>
+          <t>1348444800</t>
         </is>
       </c>
       <c r="C5452" t="inlineStr">
         <is>
-          <t>11477197.5250</t>
+          <t>2093652.7436</t>
         </is>
       </c>
     </row>
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5453" t="inlineStr">
         <is>
-          <t>1753747200</t>
+          <t>1743897600</t>
         </is>
       </c>
       <c r="C5453" t="inlineStr">
         <is>
-          <t>19496972.8358</t>
+          <t>11477197.5250</t>
         </is>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5454" t="inlineStr">
         <is>
-          <t>1522195200</t>
+          <t>1753747200</t>
         </is>
       </c>
       <c r="C5454" t="inlineStr">
         <is>
-          <t>10566019.6634</t>
+          <t>19496972.8358</t>
         </is>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5455" t="inlineStr">
         <is>
-          <t>1631923200</t>
+          <t>1522195200</t>
         </is>
       </c>
       <c r="C5455" t="inlineStr">
         <is>
-          <t>8609734.7588</t>
+          <t>10566019.6634</t>
         </is>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5456" t="inlineStr">
         <is>
-          <t>1754524800</t>
+          <t>1631923200</t>
         </is>
       </c>
       <c r="C5456" t="inlineStr">
         <is>
-          <t>18616838.3879</t>
+          <t>8609734.7588</t>
         </is>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5457" t="inlineStr">
         <is>
-          <t>1434067200</t>
+          <t>1754524800</t>
         </is>
       </c>
       <c r="C5457" t="inlineStr">
         <is>
-          <t>2392944.2562</t>
+          <t>18616838.3879</t>
         </is>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5458" t="inlineStr">
         <is>
-          <t>1450396800</t>
+          <t>1434067200</t>
         </is>
       </c>
       <c r="C5458" t="inlineStr">
         <is>
-          <t>4964683.7732</t>
+          <t>2392944.2562</t>
         </is>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5459" t="inlineStr">
         <is>
-          <t>1349827200</t>
+          <t>1450396800</t>
         </is>
       </c>
       <c r="C5459" t="inlineStr">
         <is>
-          <t>2162784.4641</t>
+          <t>4964683.7732</t>
         </is>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5460" t="inlineStr">
         <is>
-          <t>1524009600</t>
+          <t>1349827200</t>
         </is>
       </c>
       <c r="C5460" t="inlineStr">
         <is>
-          <t>8046257.5876</t>
+          <t>2162784.4641</t>
         </is>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5461" t="inlineStr">
         <is>
-          <t>1632268800</t>
+          <t>1524009600</t>
         </is>
       </c>
       <c r="C5461" t="inlineStr">
         <is>
-          <t>8443126.1507</t>
+          <t>8046257.5876</t>
         </is>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5462" t="inlineStr">
         <is>
-          <t>1702857600</t>
+          <t>1632268800</t>
         </is>
       </c>
       <c r="C5462" t="inlineStr">
         <is>
-          <t>8386250.0083</t>
+          <t>8443126.1507</t>
         </is>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5463" t="inlineStr">
         <is>
-          <t>1435968000</t>
+          <t>1702857600</t>
         </is>
       </c>
       <c r="C5463" t="inlineStr">
         <is>
-          <t>2565551.2358</t>
+          <t>8386250.0083</t>
         </is>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5464" t="inlineStr">
         <is>
-          <t>1461110400</t>
+          <t>1435968000</t>
         </is>
       </c>
       <c r="C5464" t="inlineStr">
         <is>
-          <t>6127123.1058</t>
+          <t>2565551.2358</t>
         </is>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5465" t="inlineStr">
         <is>
-          <t>1351296000</t>
+          <t>1461110400</t>
         </is>
       </c>
       <c r="C5465" t="inlineStr">
         <is>
-          <t>2157212.8239</t>
+          <t>6127123.1058</t>
         </is>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5466" t="inlineStr">
         <is>
-          <t>1732060800</t>
+          <t>1351296000</t>
         </is>
       </c>
       <c r="C5466" t="inlineStr">
         <is>
-          <t>11978202.4479</t>
+          <t>2157212.8239</t>
         </is>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5467" t="inlineStr">
         <is>
-          <t>1741219200</t>
+          <t>1732060800</t>
         </is>
       </c>
       <c r="C5467" t="inlineStr">
         <is>
-          <t>15303734.8886</t>
+          <t>11978202.4479</t>
         </is>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5468" t="inlineStr">
         <is>
-          <t>1525305600</t>
+          <t>1741219200</t>
         </is>
       </c>
       <c r="C5468" t="inlineStr">
         <is>
-          <t>8103908.6516</t>
+          <t>15303734.8886</t>
         </is>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5469" t="inlineStr">
         <is>
-          <t>1633996800</t>
+          <t>1525305600</t>
         </is>
       </c>
       <c r="C5469" t="inlineStr">
         <is>
-          <t>9382181.9608</t>
+          <t>8103908.6516</t>
         </is>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5470" t="inlineStr">
         <is>
-          <t>1710460800</t>
+          <t>1633996800</t>
         </is>
       </c>
       <c r="C5470" t="inlineStr">
         <is>
-          <t>16784620.2616</t>
+          <t>9382181.9608</t>
         </is>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5471" t="inlineStr">
         <is>
-          <t>1710547200</t>
+          <t>1710460800</t>
         </is>
       </c>
       <c r="C5471" t="inlineStr">
         <is>
-          <t>16833063.9514</t>
+          <t>16784620.2616</t>
         </is>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5472" t="inlineStr">
         <is>
-          <t>1710633600</t>
+          <t>1710547200</t>
         </is>
       </c>
       <c r="C5472" t="inlineStr">
         <is>
-          <t>17049245.7339</t>
+          <t>16833063.9514</t>
         </is>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5473" t="inlineStr">
         <is>
-          <t>1710720000</t>
+          <t>1710633600</t>
         </is>
       </c>
       <c r="C5473" t="inlineStr">
         <is>
-          <t>17115867.2816</t>
+          <t>17049245.7339</t>
         </is>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5474" t="inlineStr">
         <is>
-          <t>1710806400</t>
+          <t>1710720000</t>
         </is>
       </c>
       <c r="C5474" t="inlineStr">
         <is>
-          <t>17153769.2993</t>
+          <t>17115867.2816</t>
         </is>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5475" t="inlineStr">
         <is>
-          <t>1710892800</t>
+          <t>1710806400</t>
         </is>
       </c>
       <c r="C5475" t="inlineStr">
         <is>
-          <t>17225229.4364</t>
+          <t>17153769.2993</t>
         </is>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5476" t="inlineStr">
         <is>
-          <t>1710979200</t>
+          <t>1710892800</t>
         </is>
       </c>
       <c r="C5476" t="inlineStr">
         <is>
-          <t>17249482.2496</t>
+          <t>17225229.4364</t>
         </is>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5477" t="inlineStr">
         <is>
-          <t>1711065600</t>
+          <t>1710979200</t>
         </is>
       </c>
       <c r="C5477" t="inlineStr">
         <is>
-          <t>17569350.6561</t>
+          <t>17249482.2496</t>
         </is>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5478" t="inlineStr">
         <is>
-          <t>1438560000</t>
+          <t>1711065600</t>
         </is>
       </c>
       <c r="C5478" t="inlineStr">
         <is>
-          <t>2859270.3166</t>
+          <t>17569350.6561</t>
         </is>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5479" t="inlineStr">
         <is>
-          <t>1462320000</t>
+          <t>1438560000</t>
         </is>
       </c>
       <c r="C5479" t="inlineStr">
         <is>
-          <t>5532498.7813</t>
+          <t>2859270.3166</t>
         </is>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5480" t="inlineStr">
         <is>
-          <t>1352678400</t>
+          <t>1462320000</t>
         </is>
       </c>
       <c r="C5480" t="inlineStr">
         <is>
-          <t>2138609.9942</t>
+          <t>5532498.7813</t>
         </is>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5481" t="inlineStr">
         <is>
-          <t>1750464000</t>
+          <t>1352678400</t>
         </is>
       </c>
       <c r="C5481" t="inlineStr">
         <is>
-          <t>12895454.9231</t>
+          <t>2138609.9942</t>
         </is>
       </c>
     </row>
     <row r="5482">
       <c r="A5482" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5482" t="inlineStr">
+        <is>
+          <t>1750464000</t>
+        </is>
+      </c>
+      <c r="C5482" t="inlineStr">
+        <is>
+          <t>12895454.9231</t>
+        </is>
+      </c>
+    </row>
+    <row r="5483">
+      <c r="A5483" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5482" t="inlineStr">
+      <c r="B5483" t="inlineStr">
         <is>
           <t>1747267200</t>
         </is>
       </c>
-      <c r="C5482" t="inlineStr">
+      <c r="C5483" t="inlineStr">
         <is>
           <t>11691372.3174</t>
         </is>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5522"/>
+  <dimension ref="A1:B5523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46456,51 +46456,51 @@
     <row r="4603">
       <c r="A4603" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
       <c r="B4603" t="n">
-        <v>18302045.464</v>
+        <v>6572911.646</v>
       </c>
     </row>
     <row r="4604">
       <c r="A4604" t="inlineStr">
         <is>
-          <t>2014-03-12</t>
+          <t>2011-09-09</t>
         </is>
       </c>
       <c r="B4604" t="n">
-        <v>6572911.646</v>
+        <v>1270795.145</v>
       </c>
     </row>
     <row r="4605">
       <c r="A4605" t="inlineStr">
         <is>
-          <t>2011-09-09</t>
+          <t>2012-06-16</t>
         </is>
       </c>
       <c r="B4605" t="n">
-        <v>1270795.145</v>
+        <v>1362295.103</v>
       </c>
     </row>
     <row r="4606">
       <c r="A4606" t="inlineStr">
         <is>
-          <t>2012-06-16</t>
+          <t>2012-08-04</t>
         </is>
       </c>
       <c r="B4606" t="n">
-        <v>1362295.103</v>
+        <v>1595639.592</v>
       </c>
     </row>
     <row r="4607">
       <c r="A4607" t="inlineStr">
         <is>
-          <t>2012-08-04</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="B4607" t="n">
-        <v>1595639.592</v>
+        <v>18302045.464</v>
       </c>
     </row>
     <row r="4608">
@@ -46646,21 +46646,21 @@
     <row r="4622">
       <c r="A4622" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B4622" t="n">
-        <v>18371824.607</v>
+        <v>14241963.788</v>
       </c>
     </row>
     <row r="4623">
       <c r="A4623" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B4623" t="n">
-        <v>14241963.788</v>
+        <v>18371824.607</v>
       </c>
     </row>
     <row r="4624">
@@ -48556,1341 +48556,1341 @@
     <row r="4813">
       <c r="A4813" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B4813" t="n">
-        <v>12057555.671</v>
+        <v>18601572.678</v>
       </c>
     </row>
     <row r="4814">
       <c r="A4814" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B4814" t="n">
-        <v>11393282.759</v>
+        <v>12057555.671</v>
       </c>
     </row>
     <row r="4815">
       <c r="A4815" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B4815" t="n">
-        <v>18263481.818</v>
+        <v>11393282.759</v>
       </c>
     </row>
     <row r="4816">
       <c r="A4816" t="inlineStr">
         <is>
-          <t>2017-06-22</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B4816" t="n">
-        <v>12272100.738</v>
+        <v>18263481.818</v>
       </c>
     </row>
     <row r="4817">
       <c r="A4817" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2017-06-22</t>
         </is>
       </c>
       <c r="B4817" t="n">
-        <v>6940094.184</v>
+        <v>12272100.738</v>
       </c>
     </row>
     <row r="4818">
       <c r="A4818" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="B4818" t="n">
-        <v>7978148.013</v>
+        <v>6940094.184</v>
       </c>
     </row>
     <row r="4819">
       <c r="A4819" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2023-07-13</t>
         </is>
       </c>
       <c r="B4819" t="n">
-        <v>10334944.759</v>
+        <v>7978148.013</v>
       </c>
     </row>
     <row r="4820">
       <c r="A4820" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="B4820" t="n">
-        <v>11743400.645</v>
+        <v>10334944.759</v>
       </c>
     </row>
     <row r="4821">
       <c r="A4821" t="inlineStr">
         <is>
-          <t>2014-12-21</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B4821" t="n">
-        <v>3568148.31</v>
+        <v>11743400.645</v>
       </c>
     </row>
     <row r="4822">
       <c r="A4822" t="inlineStr">
         <is>
-          <t>2012-07-12</t>
+          <t>2014-12-21</t>
         </is>
       </c>
       <c r="B4822" t="n">
-        <v>1445168.381</v>
+        <v>3568148.31</v>
       </c>
     </row>
     <row r="4823">
       <c r="A4823" t="inlineStr">
         <is>
-          <t>2012-11-28</t>
+          <t>2012-07-12</t>
         </is>
       </c>
       <c r="B4823" t="n">
-        <v>1915604.786</v>
+        <v>1445168.381</v>
       </c>
     </row>
     <row r="4824">
       <c r="A4824" t="inlineStr">
         <is>
-          <t>2013-05-17</t>
+          <t>2012-11-28</t>
         </is>
       </c>
       <c r="B4824" t="n">
-        <v>5084157.35</v>
+        <v>1915604.786</v>
       </c>
     </row>
     <row r="4825">
       <c r="A4825" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2013-05-17</t>
         </is>
       </c>
       <c r="B4825" t="n">
-        <v>12602780.311</v>
+        <v>5084157.35</v>
       </c>
     </row>
     <row r="4826">
       <c r="A4826" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="B4826" t="n">
-        <v>18009208.082</v>
+        <v>12602780.311</v>
       </c>
     </row>
     <row r="4827">
       <c r="A4827" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B4827" t="n">
-        <v>13706271.631</v>
+        <v>18009208.082</v>
       </c>
     </row>
     <row r="4828">
       <c r="A4828" t="inlineStr">
         <is>
-          <t>2017-07-10</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B4828" t="n">
-        <v>12163382.696</v>
+        <v>13706271.631</v>
       </c>
     </row>
     <row r="4829">
       <c r="A4829" t="inlineStr">
         <is>
-          <t>2020-06-05</t>
+          <t>2017-07-10</t>
         </is>
       </c>
       <c r="B4829" t="n">
-        <v>6717066.848</v>
+        <v>12163382.696</v>
       </c>
     </row>
     <row r="4830">
       <c r="A4830" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2020-06-05</t>
         </is>
       </c>
       <c r="B4830" t="n">
-        <v>8025625.18</v>
+        <v>6717066.848</v>
       </c>
     </row>
     <row r="4831">
       <c r="A4831" t="inlineStr">
         <is>
-          <t>2024-01-07</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="B4831" t="n">
-        <v>10260081.547</v>
+        <v>8025625.18</v>
       </c>
     </row>
     <row r="4832">
       <c r="A4832" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-01-07</t>
         </is>
       </c>
       <c r="B4832" t="n">
-        <v>15054523.106</v>
+        <v>10260081.547</v>
       </c>
     </row>
     <row r="4833">
       <c r="A4833" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="B4833" t="n">
-        <v>19778813.536</v>
+        <v>15054523.106</v>
       </c>
     </row>
     <row r="4834">
       <c r="A4834" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="B4834" t="n">
-        <v>15807832.072</v>
+        <v>19778813.536</v>
       </c>
     </row>
     <row r="4835">
       <c r="A4835" t="inlineStr">
         <is>
-          <t>2015-01-07</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="B4835" t="n">
-        <v>3769144.092</v>
+        <v>15807832.072</v>
       </c>
     </row>
     <row r="4836">
       <c r="A4836" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2015-01-07</t>
         </is>
       </c>
       <c r="B4836" t="n">
-        <v>14153820.75</v>
+        <v>3769144.092</v>
       </c>
     </row>
     <row r="4837">
       <c r="A4837" t="inlineStr">
         <is>
-          <t>2012-08-01</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B4837" t="n">
-        <v>1583802.107</v>
+        <v>14153820.75</v>
       </c>
     </row>
     <row r="4838">
       <c r="A4838" t="inlineStr">
         <is>
-          <t>2012-12-04</t>
+          <t>2012-08-01</t>
         </is>
       </c>
       <c r="B4838" t="n">
-        <v>1957072.203</v>
+        <v>1583802.107</v>
       </c>
     </row>
     <row r="4839">
       <c r="A4839" t="inlineStr">
         <is>
-          <t>2013-05-03</t>
+          <t>2012-12-04</t>
         </is>
       </c>
       <c r="B4839" t="n">
-        <v>5379393.252</v>
+        <v>1957072.203</v>
       </c>
     </row>
     <row r="4840">
       <c r="A4840" t="inlineStr">
         <is>
-          <t>2013-05-19</t>
+          <t>2013-05-03</t>
         </is>
       </c>
       <c r="B4840" t="n">
-        <v>5064998.563</v>
+        <v>5379393.252</v>
       </c>
     </row>
     <row r="4841">
       <c r="A4841" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2013-05-19</t>
         </is>
       </c>
       <c r="B4841" t="n">
-        <v>13373154.572</v>
+        <v>5064998.563</v>
       </c>
     </row>
     <row r="4842">
       <c r="A4842" t="inlineStr">
         <is>
-          <t>2017-08-17</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="B4842" t="n">
-        <v>19610114.074</v>
+        <v>13373154.572</v>
       </c>
     </row>
     <row r="4843">
       <c r="A4843" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2017-08-17</t>
         </is>
       </c>
       <c r="B4843" t="n">
-        <v>5653018.264</v>
+        <v>19610114.074</v>
       </c>
     </row>
     <row r="4844">
       <c r="A4844" t="inlineStr">
         <is>
-          <t>2022-01-12</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="B4844" t="n">
-        <v>9429782.348999999</v>
+        <v>5653018.264</v>
       </c>
     </row>
     <row r="4845">
       <c r="A4845" t="inlineStr">
         <is>
-          <t>2023-07-31</t>
+          <t>2022-01-12</t>
         </is>
       </c>
       <c r="B4845" t="n">
-        <v>8847168.232000001</v>
+        <v>9429782.348999999</v>
       </c>
     </row>
     <row r="4846">
       <c r="A4846" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="B4846" t="n">
-        <v>12254468.78</v>
+        <v>8847168.232000001</v>
       </c>
     </row>
     <row r="4847">
       <c r="A4847" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="B4847" t="n">
-        <v>11222124.303</v>
+        <v>12254468.78</v>
       </c>
     </row>
     <row r="4848">
       <c r="A4848" t="inlineStr">
         <is>
-          <t>2015-01-10</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="B4848" t="n">
-        <v>3837422.392</v>
+        <v>11222124.303</v>
       </c>
     </row>
     <row r="4849">
       <c r="A4849" t="inlineStr">
         <is>
-          <t>2012-08-20</t>
+          <t>2015-01-10</t>
         </is>
       </c>
       <c r="B4849" t="n">
-        <v>1727157.694</v>
+        <v>3837422.392</v>
       </c>
     </row>
     <row r="4850">
       <c r="A4850" t="inlineStr">
         <is>
-          <t>2012-12-11</t>
+          <t>2012-08-20</t>
         </is>
       </c>
       <c r="B4850" t="n">
-        <v>1939190.261</v>
+        <v>1727157.694</v>
       </c>
     </row>
     <row r="4851">
       <c r="A4851" t="inlineStr">
         <is>
-          <t>2017-08-27</t>
+          <t>2012-12-11</t>
         </is>
       </c>
       <c r="B4851" t="n">
-        <v>19440418.088</v>
+        <v>1939190.261</v>
       </c>
     </row>
     <row r="4852">
       <c r="A4852" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2017-08-27</t>
         </is>
       </c>
       <c r="B4852" t="n">
-        <v>5853548.802</v>
+        <v>19440418.088</v>
       </c>
     </row>
     <row r="4853">
       <c r="A4853" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="B4853" t="n">
-        <v>8404561.468</v>
+        <v>5853548.802</v>
       </c>
     </row>
     <row r="4854">
       <c r="A4854" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="B4854" t="n">
-        <v>13043079.95</v>
+        <v>8404561.468</v>
       </c>
     </row>
     <row r="4855">
       <c r="A4855" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="B4855" t="n">
-        <v>15732205.442</v>
+        <v>13043079.95</v>
       </c>
     </row>
     <row r="4856">
       <c r="A4856" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="B4856" t="n">
-        <v>10079264.693</v>
+        <v>15732205.442</v>
       </c>
     </row>
     <row r="4857">
       <c r="A4857" t="inlineStr">
         <is>
-          <t>2013-11-30</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B4857" t="n">
-        <v>5487103.992</v>
+        <v>10079264.693</v>
       </c>
     </row>
     <row r="4858">
       <c r="A4858" t="inlineStr">
         <is>
-          <t>2015-02-03</t>
+          <t>2013-11-30</t>
         </is>
       </c>
       <c r="B4858" t="n">
-        <v>4216822.155</v>
+        <v>5487103.992</v>
       </c>
     </row>
     <row r="4859">
       <c r="A4859" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2015-02-03</t>
         </is>
       </c>
       <c r="B4859" t="n">
-        <v>20059418.345</v>
+        <v>4216822.155</v>
       </c>
     </row>
     <row r="4860">
       <c r="A4860" t="inlineStr">
         <is>
-          <t>2012-09-05</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B4860" t="n">
-        <v>1858681.499</v>
+        <v>20059418.345</v>
       </c>
     </row>
     <row r="4861">
       <c r="A4861" t="inlineStr">
         <is>
-          <t>2012-12-17</t>
+          <t>2012-09-05</t>
         </is>
       </c>
       <c r="B4861" t="n">
-        <v>1937667.056</v>
+        <v>1858681.499</v>
       </c>
     </row>
     <row r="4862">
       <c r="A4862" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2012-12-17</t>
         </is>
       </c>
       <c r="B4862" t="n">
-        <v>19888945.755</v>
+        <v>1937667.056</v>
       </c>
     </row>
     <row r="4863">
       <c r="A4863" t="inlineStr">
         <is>
-          <t>2017-09-12</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="B4863" t="n">
-        <v>18286897.272</v>
+        <v>19888945.755</v>
       </c>
     </row>
     <row r="4864">
       <c r="A4864" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>2017-09-12</t>
         </is>
       </c>
       <c r="B4864" t="n">
-        <v>6098695.482</v>
+        <v>18286897.272</v>
       </c>
     </row>
     <row r="4865">
       <c r="A4865" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="B4865" t="n">
-        <v>7982545.503</v>
+        <v>6098695.482</v>
       </c>
     </row>
     <row r="4866">
       <c r="A4866" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="B4866" t="n">
-        <v>16254770.186</v>
+        <v>7982545.503</v>
       </c>
     </row>
     <row r="4867">
       <c r="A4867" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="B4867" t="n">
-        <v>15736124.913</v>
+        <v>16254770.186</v>
       </c>
     </row>
     <row r="4868">
       <c r="A4868" t="inlineStr">
         <is>
-          <t>2015-02-13</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="B4868" t="n">
-        <v>4046633.271</v>
+        <v>15736124.913</v>
       </c>
     </row>
     <row r="4869">
       <c r="A4869" t="inlineStr">
         <is>
-          <t>2016-04-18</t>
+          <t>2015-02-13</t>
         </is>
       </c>
       <c r="B4869" t="n">
-        <v>6144643.58</v>
+        <v>4046633.271</v>
       </c>
     </row>
     <row r="4870">
       <c r="A4870" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2016-04-18</t>
         </is>
       </c>
       <c r="B4870" t="n">
-        <v>12991619.239</v>
+        <v>6144643.58</v>
       </c>
     </row>
     <row r="4871">
       <c r="A4871" t="inlineStr">
         <is>
-          <t>2011-05-02</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B4871" t="n">
-        <v>547275.5110000001</v>
+        <v>12991619.239</v>
       </c>
     </row>
     <row r="4872">
       <c r="A4872" t="inlineStr">
         <is>
-          <t>2012-09-10</t>
+          <t>2011-05-02</t>
         </is>
       </c>
       <c r="B4872" t="n">
-        <v>1976750.746</v>
+        <v>547275.5110000001</v>
       </c>
     </row>
     <row r="4873">
       <c r="A4873" t="inlineStr">
         <is>
-          <t>2012-12-24</t>
+          <t>2012-09-10</t>
         </is>
       </c>
       <c r="B4873" t="n">
-        <v>1884935.165</v>
+        <v>1976750.746</v>
       </c>
     </row>
     <row r="4874">
       <c r="A4874" t="inlineStr">
         <is>
-          <t>2017-09-29</t>
+          <t>2012-12-24</t>
         </is>
       </c>
       <c r="B4874" t="n">
-        <v>18839685.673</v>
+        <v>1884935.165</v>
       </c>
     </row>
     <row r="4875">
       <c r="A4875" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2017-09-29</t>
         </is>
       </c>
       <c r="B4875" t="n">
-        <v>6512862.956</v>
+        <v>18839685.673</v>
       </c>
     </row>
     <row r="4876">
       <c r="A4876" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="B4876" t="n">
-        <v>10040744.36</v>
+        <v>6512862.956</v>
       </c>
     </row>
     <row r="4877">
       <c r="A4877" t="inlineStr">
         <is>
-          <t>2023-03-16</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="B4877" t="n">
-        <v>7199162.719</v>
+        <v>10040744.36</v>
       </c>
     </row>
     <row r="4878">
       <c r="A4878" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-03-16</t>
         </is>
       </c>
       <c r="B4878" t="n">
-        <v>7795415.295</v>
+        <v>7199162.719</v>
       </c>
     </row>
     <row r="4879">
       <c r="A4879" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="B4879" t="n">
-        <v>16404541.597</v>
+        <v>7795415.295</v>
       </c>
     </row>
     <row r="4880">
       <c r="A4880" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="B4880" t="n">
-        <v>13180955.134</v>
+        <v>16404541.597</v>
       </c>
     </row>
     <row r="4881">
       <c r="A4881" t="inlineStr">
         <is>
-          <t>2015-02-27</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B4881" t="n">
-        <v>3825679.24</v>
+        <v>13180955.134</v>
       </c>
     </row>
     <row r="4882">
       <c r="A4882" t="inlineStr">
         <is>
-          <t>2012-09-29</t>
+          <t>2015-02-27</t>
         </is>
       </c>
       <c r="B4882" t="n">
-        <v>2184625.519</v>
+        <v>3825679.24</v>
       </c>
     </row>
     <row r="4883">
       <c r="A4883" t="inlineStr">
         <is>
-          <t>2012-12-30</t>
+          <t>2012-09-29</t>
         </is>
       </c>
       <c r="B4883" t="n">
-        <v>1815709.108</v>
+        <v>2184625.519</v>
       </c>
     </row>
     <row r="4884">
       <c r="A4884" t="inlineStr">
         <is>
-          <t>2017-09-30</t>
+          <t>2012-12-30</t>
         </is>
       </c>
       <c r="B4884" t="n">
-        <v>18888154.264</v>
+        <v>1815709.108</v>
       </c>
     </row>
     <row r="4885">
       <c r="A4885" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2017-09-30</t>
         </is>
       </c>
       <c r="B4885" t="n">
-        <v>6624368.808</v>
+        <v>18888154.264</v>
       </c>
     </row>
     <row r="4886">
       <c r="A4886" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="B4886" t="n">
-        <v>7370614.503</v>
+        <v>6624368.808</v>
       </c>
     </row>
     <row r="4887">
       <c r="A4887" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="B4887" t="n">
-        <v>19840596.87</v>
+        <v>7370614.503</v>
       </c>
     </row>
     <row r="4888">
       <c r="A4888" t="inlineStr">
         <is>
-          <t>2013-06-04</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="B4888" t="n">
-        <v>4578468.342</v>
+        <v>19840596.87</v>
       </c>
     </row>
     <row r="4889">
       <c r="A4889" t="inlineStr">
         <is>
-          <t>2015-03-16</t>
+          <t>2013-06-04</t>
         </is>
       </c>
       <c r="B4889" t="n">
-        <v>4139429.838</v>
+        <v>4578468.342</v>
       </c>
     </row>
     <row r="4890">
       <c r="A4890" t="inlineStr">
         <is>
-          <t>2012-10-17</t>
+          <t>2015-03-16</t>
         </is>
       </c>
       <c r="B4890" t="n">
-        <v>2082000.236</v>
+        <v>4139429.838</v>
       </c>
     </row>
     <row r="4891">
       <c r="A4891" t="inlineStr">
         <is>
-          <t>2013-02-11</t>
+          <t>2012-10-17</t>
         </is>
       </c>
       <c r="B4891" t="n">
-        <v>2516299.136</v>
+        <v>2082000.236</v>
       </c>
     </row>
     <row r="4892">
       <c r="A4892" t="inlineStr">
         <is>
-          <t>2017-11-09</t>
+          <t>2013-02-11</t>
         </is>
       </c>
       <c r="B4892" t="n">
-        <v>13803591.086</v>
+        <v>2516299.136</v>
       </c>
     </row>
     <row r="4893">
       <c r="A4893" t="inlineStr">
         <is>
-          <t>2020-08-19</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="B4893" t="n">
-        <v>6747877.276</v>
+        <v>13803591.086</v>
       </c>
     </row>
     <row r="4894">
       <c r="A4894" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2020-08-19</t>
         </is>
       </c>
       <c r="B4894" t="n">
-        <v>6847142.251</v>
+        <v>6747877.276</v>
       </c>
     </row>
     <row r="4895">
       <c r="A4895" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="B4895" t="n">
-        <v>19817395.793</v>
+        <v>6847142.251</v>
       </c>
     </row>
     <row r="4896">
       <c r="A4896" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="B4896" t="n">
-        <v>18020855.515</v>
+        <v>19817395.793</v>
       </c>
     </row>
     <row r="4897">
       <c r="A4897" t="inlineStr">
         <is>
-          <t>2015-03-23</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B4897" t="n">
-        <v>4132329.348</v>
+        <v>18020855.515</v>
       </c>
     </row>
     <row r="4898">
       <c r="A4898" t="inlineStr">
         <is>
-          <t>2016-04-10</t>
+          <t>2015-03-23</t>
         </is>
       </c>
       <c r="B4898" t="n">
-        <v>6289683.85</v>
+        <v>4132329.348</v>
       </c>
     </row>
     <row r="4899">
       <c r="A4899" t="inlineStr">
         <is>
-          <t>2012-11-08</t>
+          <t>2016-04-10</t>
         </is>
       </c>
       <c r="B4899" t="n">
-        <v>2123397.986</v>
+        <v>6289683.85</v>
       </c>
     </row>
     <row r="4900">
       <c r="A4900" t="inlineStr">
         <is>
-          <t>2013-03-01</t>
+          <t>2012-11-08</t>
         </is>
       </c>
       <c r="B4900" t="n">
-        <v>3147145.888</v>
+        <v>2123397.986</v>
       </c>
     </row>
     <row r="4901">
       <c r="A4901" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2013-03-01</t>
         </is>
       </c>
       <c r="B4901" t="n">
-        <v>20400661.749</v>
+        <v>3147145.888</v>
       </c>
     </row>
     <row r="4902">
       <c r="A4902" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="B4902" t="n">
-        <v>9875068.106000001</v>
+        <v>20400661.749</v>
       </c>
     </row>
     <row r="4903">
       <c r="A4903" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="B4903" t="n">
-        <v>9193966.23</v>
+        <v>9875068.106000001</v>
       </c>
     </row>
     <row r="4904">
       <c r="A4904" t="inlineStr">
         <is>
-          <t>2017-11-26</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="B4904" t="n">
-        <v>15781629.68</v>
+        <v>9193966.23</v>
       </c>
     </row>
     <row r="4905">
       <c r="A4905" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
+          <t>2017-11-26</t>
         </is>
       </c>
       <c r="B4905" t="n">
-        <v>6876141.449</v>
+        <v>15781629.68</v>
       </c>
     </row>
     <row r="4906">
       <c r="A4906" t="inlineStr">
         <is>
-          <t>2021-11-21</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="B4906" t="n">
-        <v>9263341.755000001</v>
+        <v>6876141.449</v>
       </c>
     </row>
     <row r="4907">
       <c r="A4907" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2021-11-21</t>
         </is>
       </c>
       <c r="B4907" t="n">
-        <v>6352507.324</v>
+        <v>9263341.755000001</v>
       </c>
     </row>
     <row r="4908">
       <c r="A4908" t="inlineStr">
         <is>
-          <t>2024-04-21</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="B4908" t="n">
-        <v>18534074.954</v>
+        <v>6352507.324</v>
       </c>
     </row>
     <row r="4909">
       <c r="A4909" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-04-21</t>
         </is>
       </c>
       <c r="B4909" t="n">
-        <v>15459847.995</v>
+        <v>18534074.954</v>
       </c>
     </row>
     <row r="4910">
       <c r="A4910" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="B4910" t="n">
-        <v>11123186.066</v>
+        <v>15459847.995</v>
       </c>
     </row>
     <row r="4911">
       <c r="A4911" t="inlineStr">
         <is>
-          <t>2015-04-10</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B4911" t="n">
-        <v>3645607.576</v>
+        <v>11123186.066</v>
       </c>
     </row>
     <row r="4912">
       <c r="A4912" t="inlineStr">
         <is>
-          <t>2012-12-05</t>
+          <t>2015-04-10</t>
         </is>
       </c>
       <c r="B4912" t="n">
-        <v>1962454.249</v>
+        <v>3645607.576</v>
       </c>
     </row>
     <row r="4913">
       <c r="A4913" t="inlineStr">
         <is>
-          <t>2013-03-13</t>
+          <t>2012-12-05</t>
         </is>
       </c>
       <c r="B4913" t="n">
-        <v>3305281.64</v>
+        <v>1962454.249</v>
       </c>
     </row>
     <row r="4914">
       <c r="A4914" t="inlineStr">
         <is>
-          <t>2017-12-15</t>
+          <t>2013-03-13</t>
         </is>
       </c>
       <c r="B4914" t="n">
-        <v>17248776.207</v>
+        <v>3305281.64</v>
       </c>
     </row>
     <row r="4915">
       <c r="A4915" t="inlineStr">
         <is>
-          <t>2020-09-02</t>
+          <t>2017-12-15</t>
         </is>
       </c>
       <c r="B4915" t="n">
-        <v>6889646.764</v>
+        <v>17248776.207</v>
       </c>
     </row>
     <row r="4916">
       <c r="A4916" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="B4916" t="n">
-        <v>8157662.803</v>
+        <v>6889646.764</v>
       </c>
     </row>
     <row r="4917">
       <c r="A4917" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="B4917" t="n">
-        <v>9027679.793</v>
+        <v>8157662.803</v>
       </c>
     </row>
     <row r="4918">
       <c r="A4918" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="B4918" t="n">
-        <v>6008052.168</v>
+        <v>9027679.793</v>
       </c>
     </row>
     <row r="4919">
       <c r="A4919" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-09-28</t>
         </is>
       </c>
       <c r="B4919" t="n">
-        <v>10466814.972</v>
+        <v>6008052.168</v>
       </c>
     </row>
     <row r="4920">
       <c r="A4920" t="inlineStr">
         <is>
-          <t>2023-02-11</t>
+          <t>2022-12-09</t>
         </is>
       </c>
       <c r="B4920" t="n">
-        <v>9512207.699999999</v>
+        <v>10466814.972</v>
       </c>
     </row>
     <row r="4921">
       <c r="A4921" t="inlineStr">
         <is>
-          <t>2023-03-12</t>
+          <t>2023-02-11</t>
         </is>
       </c>
       <c r="B4921" t="n">
-        <v>7103905.636</v>
+        <v>9512207.699999999</v>
       </c>
     </row>
     <row r="4922">
       <c r="A4922" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-03-12</t>
         </is>
       </c>
       <c r="B4922" t="n">
-        <v>8134887.795</v>
+        <v>7103905.636</v>
       </c>
     </row>
     <row r="4923">
       <c r="A4923" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="B4923" t="n">
-        <v>6605806.716</v>
+        <v>8134887.795</v>
       </c>
     </row>
     <row r="4924">
       <c r="A4924" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B4924" t="n">
-        <v>17208008.89</v>
+        <v>6605806.716</v>
       </c>
     </row>
     <row r="4925">
       <c r="A4925" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="B4925" t="n">
-        <v>18389579.978</v>
+        <v>17208008.89</v>
       </c>
     </row>
     <row r="4926">
       <c r="A4926" t="inlineStr">
         <is>
-          <t>2015-04-27</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B4926" t="n">
-        <v>3258623.998</v>
+        <v>18389579.978</v>
       </c>
     </row>
     <row r="4927">
       <c r="A4927" t="inlineStr">
         <is>
-          <t>2012-12-23</t>
+          <t>2015-04-27</t>
         </is>
       </c>
       <c r="B4927" t="n">
-        <v>1899621.694</v>
+        <v>3258623.998</v>
       </c>
     </row>
     <row r="4928">
       <c r="A4928" t="inlineStr">
         <is>
-          <t>2013-04-26</t>
+          <t>2012-12-23</t>
         </is>
       </c>
       <c r="B4928" t="n">
-        <v>5662798.756</v>
+        <v>1899621.694</v>
       </c>
     </row>
     <row r="4929">
       <c r="A4929" t="inlineStr">
         <is>
-          <t>2017-12-28</t>
+          <t>2013-04-26</t>
         </is>
       </c>
       <c r="B4929" t="n">
-        <v>17615180.51</v>
+        <v>5662798.756</v>
       </c>
     </row>
     <row r="4930">
       <c r="A4930" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>2017-12-28</t>
         </is>
       </c>
       <c r="B4930" t="n">
-        <v>7140009.28</v>
+        <v>17615180.51</v>
       </c>
     </row>
     <row r="4931">
       <c r="A4931" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="B4931" t="n">
-        <v>6311486.07</v>
+        <v>7140009.28</v>
       </c>
     </row>
     <row r="4932">
       <c r="A4932" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2023-10-26</t>
         </is>
       </c>
       <c r="B4932" t="n">
-        <v>21647135.032</v>
+        <v>6311486.07</v>
       </c>
     </row>
     <row r="4933">
       <c r="A4933" t="inlineStr">
         <is>
-          <t>2013-07-21</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="B4933" t="n">
-        <v>2401238.474</v>
+        <v>21647135.032</v>
       </c>
     </row>
     <row r="4934">
       <c r="A4934" t="inlineStr">
         <is>
-          <t>2015-05-01</t>
+          <t>2013-07-21</t>
         </is>
       </c>
       <c r="B4934" t="n">
-        <v>3248006.045</v>
+        <v>2401238.474</v>
       </c>
     </row>
     <row r="4935">
       <c r="A4935" t="inlineStr">
         <is>
-          <t>2013-01-02</t>
+          <t>2015-05-01</t>
         </is>
       </c>
       <c r="B4935" t="n">
-        <v>1827277.216</v>
+        <v>3248006.045</v>
       </c>
     </row>
     <row r="4936">
       <c r="A4936" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2013-01-02</t>
         </is>
       </c>
       <c r="B4936" t="n">
-        <v>9270561.718</v>
+        <v>1827277.216</v>
       </c>
     </row>
     <row r="4937">
       <c r="A4937" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="B4937" t="n">
-        <v>12633844.31</v>
+        <v>9270561.718</v>
       </c>
     </row>
     <row r="4938">
       <c r="A4938" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="B4938" t="n">
-        <v>14392379.583</v>
+        <v>12633844.31</v>
       </c>
     </row>
     <row r="4939">
       <c r="A4939" t="inlineStr">
         <is>
-          <t>2018-01-02</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B4939" t="n">
-        <v>17982694.401</v>
+        <v>14392379.583</v>
       </c>
     </row>
     <row r="4940">
       <c r="A4940" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2018-01-02</t>
         </is>
       </c>
       <c r="B4940" t="n">
-        <v>7514888.09</v>
+        <v>17982694.401</v>
       </c>
     </row>
     <row r="4941">
       <c r="A4941" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="B4941" t="n">
-        <v>6817299.489</v>
+        <v>7514888.09</v>
       </c>
     </row>
     <row r="4942">
       <c r="A4942" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="B4942" t="n">
-        <v>17664296.466</v>
+        <v>6817299.489</v>
       </c>
     </row>
     <row r="4943">
       <c r="A4943" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="B4943" t="n">
-        <v>16241686.46</v>
+        <v>17664296.466</v>
       </c>
     </row>
     <row r="4944">
       <c r="A4944" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="B4944" t="n">
-        <v>16703777.294</v>
+        <v>16241686.46</v>
       </c>
     </row>
     <row r="4945">
       <c r="A4945" t="inlineStr">
         <is>
-          <t>2013-07-27</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="B4945" t="n">
-        <v>2230083.986</v>
+        <v>16703777.294</v>
       </c>
     </row>
     <row r="4946">
       <c r="A4946" t="inlineStr">
         <is>
-          <t>2025-08-17</t>
+          <t>2013-07-27</t>
         </is>
       </c>
       <c r="B4946" t="n">
-        <v>18263584.952</v>
+        <v>2230083.986</v>
       </c>
     </row>
     <row r="4947">
@@ -49916,5740 +49916,5750 @@
     <row r="4949">
       <c r="A4949" t="inlineStr">
         <is>
-          <t>2013-01-11</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B4949" t="n">
-        <v>1846369.453</v>
+        <v>18263584.952</v>
       </c>
     </row>
     <row r="4950">
       <c r="A4950" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2013-01-11</t>
         </is>
       </c>
       <c r="B4950" t="n">
-        <v>19066275.837</v>
+        <v>1846369.453</v>
       </c>
     </row>
     <row r="4951">
       <c r="A4951" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="B4951" t="n">
-        <v>9314345.433</v>
+        <v>19066275.837</v>
       </c>
     </row>
     <row r="4952">
       <c r="A4952" t="inlineStr">
         <is>
-          <t>2018-02-08</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="B4952" t="n">
-        <v>18158241.72</v>
+        <v>9314345.433</v>
       </c>
     </row>
     <row r="4953">
       <c r="A4953" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>2018-02-08</t>
         </is>
       </c>
       <c r="B4953" t="n">
-        <v>11360312.667</v>
+        <v>18158241.72</v>
       </c>
     </row>
     <row r="4954">
       <c r="A4954" t="inlineStr">
         <is>
-          <t>2023-11-14</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="B4954" t="n">
-        <v>7028591.115</v>
+        <v>11360312.667</v>
       </c>
     </row>
     <row r="4955">
       <c r="A4955" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="B4955" t="n">
-        <v>17197990.83</v>
+        <v>7028591.115</v>
       </c>
     </row>
     <row r="4956">
       <c r="A4956" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="B4956" t="n">
-        <v>17268706.198</v>
+        <v>17197990.83</v>
       </c>
     </row>
     <row r="4957">
       <c r="A4957" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="B4957" t="n">
-        <v>11414106.357</v>
+        <v>17268706.198</v>
       </c>
     </row>
     <row r="4958">
       <c r="A4958" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B4958" t="n">
-        <v>18706071.644</v>
+        <v>11414106.357</v>
       </c>
     </row>
     <row r="4959">
       <c r="A4959" t="inlineStr">
         <is>
-          <t>2013-08-03</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="B4959" t="n">
-        <v>2313884.342</v>
+        <v>18706071.644</v>
       </c>
     </row>
     <row r="4960">
       <c r="A4960" t="inlineStr">
         <is>
-          <t>2015-06-10</t>
+          <t>2013-08-03</t>
         </is>
       </c>
       <c r="B4960" t="n">
-        <v>2370221.996</v>
+        <v>2313884.342</v>
       </c>
     </row>
     <row r="4961">
       <c r="A4961" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2015-06-10</t>
         </is>
       </c>
       <c r="B4961" t="n">
-        <v>10942825.102</v>
+        <v>2370221.996</v>
       </c>
     </row>
     <row r="4962">
       <c r="A4962" t="inlineStr">
         <is>
-          <t>2013-01-26</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B4962" t="n">
-        <v>1899111.02</v>
+        <v>10942825.102</v>
       </c>
     </row>
     <row r="4963">
       <c r="A4963" t="inlineStr">
         <is>
-          <t>2018-04-02</t>
+          <t>2013-01-26</t>
         </is>
       </c>
       <c r="B4963" t="n">
-        <v>9893037.857000001</v>
+        <v>1899111.02</v>
       </c>
     </row>
     <row r="4964">
       <c r="A4964" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2018-04-02</t>
         </is>
       </c>
       <c r="B4964" t="n">
-        <v>12964564.24</v>
+        <v>9893037.857000001</v>
       </c>
     </row>
     <row r="4965">
       <c r="A4965" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2020-11-29</t>
         </is>
       </c>
       <c r="B4965" t="n">
-        <v>7255143.779</v>
+        <v>12964564.24</v>
       </c>
     </row>
     <row r="4966">
       <c r="A4966" t="inlineStr">
         <is>
-          <t>2013-08-09</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="B4966" t="n">
-        <v>2282151.25</v>
+        <v>7255143.779</v>
       </c>
     </row>
     <row r="4967">
       <c r="A4967" t="inlineStr">
         <is>
-          <t>2015-06-28</t>
+          <t>2013-08-09</t>
         </is>
       </c>
       <c r="B4967" t="n">
-        <v>2594483.55</v>
+        <v>2282151.25</v>
       </c>
     </row>
     <row r="4968">
       <c r="A4968" t="inlineStr">
         <is>
-          <t>2010-11-16</t>
+          <t>2015-06-28</t>
         </is>
       </c>
       <c r="B4968" t="n">
-        <v>304020.338</v>
+        <v>2594483.55</v>
       </c>
     </row>
     <row r="4969">
       <c r="A4969" t="inlineStr">
         <is>
-          <t>2013-02-12</t>
+          <t>2010-11-16</t>
         </is>
       </c>
       <c r="B4969" t="n">
-        <v>2529625.788</v>
+        <v>304020.338</v>
       </c>
     </row>
     <row r="4970">
       <c r="A4970" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2013-02-12</t>
         </is>
       </c>
       <c r="B4970" t="n">
-        <v>14737879.389</v>
+        <v>2529625.788</v>
       </c>
     </row>
     <row r="4971">
       <c r="A4971" t="inlineStr">
         <is>
-          <t>2024-11-23</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B4971" t="n">
-        <v>12933809.709</v>
+        <v>14737879.389</v>
       </c>
     </row>
     <row r="4972">
       <c r="A4972" t="inlineStr">
         <is>
-          <t>2018-04-07</t>
+          <t>2024-11-23</t>
         </is>
       </c>
       <c r="B4972" t="n">
-        <v>8715110.261</v>
+        <v>12933809.709</v>
       </c>
     </row>
     <row r="4973">
       <c r="A4973" t="inlineStr">
         <is>
-          <t>2020-12-14</t>
+          <t>2018-04-07</t>
         </is>
       </c>
       <c r="B4973" t="n">
-        <v>14568396.772</v>
+        <v>8715110.261</v>
       </c>
     </row>
     <row r="4974">
       <c r="A4974" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2020-12-14</t>
         </is>
       </c>
       <c r="B4974" t="n">
-        <v>7308221.44</v>
+        <v>14568396.772</v>
       </c>
     </row>
     <row r="4975">
       <c r="A4975" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="B4975" t="n">
-        <v>19746507.73</v>
+        <v>7308221.44</v>
       </c>
     </row>
     <row r="4976">
       <c r="A4976" t="inlineStr">
         <is>
-          <t>2013-08-18</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="B4976" t="n">
-        <v>2450459.11</v>
+        <v>19746507.73</v>
       </c>
     </row>
     <row r="4977">
       <c r="A4977" t="inlineStr">
         <is>
-          <t>2015-07-18</t>
+          <t>2013-08-18</t>
         </is>
       </c>
       <c r="B4977" t="n">
-        <v>2800364.069</v>
+        <v>2450459.11</v>
       </c>
     </row>
     <row r="4978">
       <c r="A4978" t="inlineStr">
         <is>
-          <t>2011-05-08</t>
+          <t>2015-07-18</t>
         </is>
       </c>
       <c r="B4978" t="n">
-        <v>590659.897</v>
+        <v>2800364.069</v>
       </c>
     </row>
     <row r="4979">
       <c r="A4979" t="inlineStr">
         <is>
-          <t>2013-02-15</t>
+          <t>2011-05-08</t>
         </is>
       </c>
       <c r="B4979" t="n">
-        <v>2669285.077</v>
+        <v>590659.897</v>
       </c>
     </row>
     <row r="4980">
       <c r="A4980" t="inlineStr">
         <is>
-          <t>2018-04-23</t>
+          <t>2013-02-15</t>
         </is>
       </c>
       <c r="B4980" t="n">
-        <v>8409681.130999999</v>
+        <v>2669285.077</v>
       </c>
     </row>
     <row r="4981">
       <c r="A4981" t="inlineStr">
         <is>
-          <t>2020-12-29</t>
+          <t>2018-04-23</t>
         </is>
       </c>
       <c r="B4981" t="n">
-        <v>17106922.198</v>
+        <v>8409681.130999999</v>
       </c>
     </row>
     <row r="4982">
       <c r="A4982" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2020-12-29</t>
         </is>
       </c>
       <c r="B4982" t="n">
-        <v>7876220.229</v>
+        <v>17106922.198</v>
       </c>
     </row>
     <row r="4983">
       <c r="A4983" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="B4983" t="n">
-        <v>11885242.465</v>
+        <v>7876220.229</v>
       </c>
     </row>
     <row r="4984">
       <c r="A4984" t="inlineStr">
         <is>
-          <t>2013-10-23</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="B4984" t="n">
-        <v>2986856.758</v>
+        <v>11885242.465</v>
       </c>
     </row>
     <row r="4985">
       <c r="A4985" t="inlineStr">
         <is>
-          <t>2015-08-01</t>
+          <t>2013-10-23</t>
         </is>
       </c>
       <c r="B4985" t="n">
-        <v>2872671.671</v>
+        <v>2986856.758</v>
       </c>
     </row>
     <row r="4986">
       <c r="A4986" t="inlineStr">
         <is>
-          <t>2011-05-23</t>
+          <t>2015-08-01</t>
         </is>
       </c>
       <c r="B4986" t="n">
-        <v>766330.206</v>
+        <v>2872671.671</v>
       </c>
     </row>
     <row r="4987">
       <c r="A4987" t="inlineStr">
         <is>
-          <t>2013-03-07</t>
+          <t>2011-05-23</t>
         </is>
       </c>
       <c r="B4987" t="n">
-        <v>3241428.994</v>
+        <v>766330.206</v>
       </c>
     </row>
     <row r="4988">
       <c r="A4988" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2013-03-07</t>
         </is>
       </c>
       <c r="B4988" t="n">
-        <v>12988051.483</v>
+        <v>3241428.994</v>
       </c>
     </row>
     <row r="4989">
       <c r="A4989" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="B4989" t="n">
-        <v>18760597.04</v>
+        <v>12988051.483</v>
       </c>
     </row>
     <row r="4990">
       <c r="A4990" t="inlineStr">
         <is>
-          <t>2018-05-10</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B4990" t="n">
-        <v>6510882.164</v>
+        <v>18760597.04</v>
       </c>
     </row>
     <row r="4991">
       <c r="A4991" t="inlineStr">
         <is>
-          <t>2021-01-12</t>
+          <t>2018-05-10</t>
         </is>
       </c>
       <c r="B4991" t="n">
-        <v>20145733.863</v>
+        <v>6510882.164</v>
       </c>
     </row>
     <row r="4992">
       <c r="A4992" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2021-01-12</t>
         </is>
       </c>
       <c r="B4992" t="n">
-        <v>8473097.453</v>
+        <v>20145733.863</v>
       </c>
     </row>
     <row r="4993">
       <c r="A4993" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="B4993" t="n">
-        <v>11371015.617</v>
+        <v>8473097.453</v>
       </c>
     </row>
     <row r="4994">
       <c r="A4994" t="inlineStr">
         <is>
-          <t>2014-01-16</t>
+          <t>2024-11-17</t>
         </is>
       </c>
       <c r="B4994" t="n">
-        <v>6970368.657</v>
+        <v>11371015.617</v>
       </c>
     </row>
     <row r="4995">
       <c r="A4995" t="inlineStr">
         <is>
-          <t>2015-08-11</t>
+          <t>2014-01-16</t>
         </is>
       </c>
       <c r="B4995" t="n">
-        <v>3218034.455</v>
+        <v>6970368.657</v>
       </c>
     </row>
     <row r="4996">
       <c r="A4996" t="inlineStr">
         <is>
-          <t>2011-07-06</t>
+          <t>2015-08-11</t>
         </is>
       </c>
       <c r="B4996" t="n">
-        <v>1754964.907</v>
+        <v>3218034.455</v>
       </c>
     </row>
     <row r="4997">
       <c r="A4997" t="inlineStr">
         <is>
-          <t>2013-03-23</t>
+          <t>2011-07-06</t>
         </is>
       </c>
       <c r="B4997" t="n">
-        <v>3589501.35</v>
+        <v>1754964.907</v>
       </c>
     </row>
     <row r="4998">
       <c r="A4998" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2013-03-23</t>
         </is>
       </c>
       <c r="B4998" t="n">
-        <v>18567759.562</v>
+        <v>3589501.35</v>
       </c>
     </row>
     <row r="4999">
       <c r="A4999" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B4999" t="n">
-        <v>11513696.526</v>
+        <v>18567759.562</v>
       </c>
     </row>
     <row r="5000">
       <c r="A5000" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B5000" t="n">
-        <v>19476737.258</v>
+        <v>11513696.526</v>
       </c>
     </row>
     <row r="5001">
       <c r="A5001" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="B5001" t="n">
-        <v>11785461.662</v>
+        <v>19476737.258</v>
       </c>
     </row>
     <row r="5002">
       <c r="A5002" t="inlineStr">
         <is>
-          <t>2018-05-30</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="B5002" t="n">
-        <v>6201090.208</v>
+        <v>11785461.662</v>
       </c>
     </row>
     <row r="5003">
       <c r="A5003" t="inlineStr">
         <is>
-          <t>2021-01-27</t>
+          <t>2018-05-30</t>
         </is>
       </c>
       <c r="B5003" t="n">
-        <v>19974036.715</v>
+        <v>6201090.208</v>
       </c>
     </row>
     <row r="5004">
       <c r="A5004" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2021-01-27</t>
         </is>
       </c>
       <c r="B5004" t="n">
-        <v>8551266.077</v>
+        <v>19974036.715</v>
       </c>
     </row>
     <row r="5005">
       <c r="A5005" t="inlineStr">
         <is>
-          <t>2014-01-28</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="B5005" t="n">
-        <v>6138215.498</v>
+        <v>8551266.077</v>
       </c>
     </row>
     <row r="5006">
       <c r="A5006" t="inlineStr">
         <is>
-          <t>2015-08-21</t>
+          <t>2014-01-28</t>
         </is>
       </c>
       <c r="B5006" t="n">
-        <v>3408662.316</v>
+        <v>6138215.498</v>
       </c>
     </row>
     <row r="5007">
       <c r="A5007" t="inlineStr">
         <is>
-          <t>2011-07-11</t>
+          <t>2015-08-21</t>
         </is>
       </c>
       <c r="B5007" t="n">
-        <v>1780474.358</v>
+        <v>3408662.316</v>
       </c>
     </row>
     <row r="5008">
       <c r="A5008" t="inlineStr">
         <is>
-          <t>2013-03-24</t>
+          <t>2011-07-11</t>
         </is>
       </c>
       <c r="B5008" t="n">
-        <v>3633372.759</v>
+        <v>1780474.358</v>
       </c>
     </row>
     <row r="5009">
       <c r="A5009" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2013-03-24</t>
         </is>
       </c>
       <c r="B5009" t="n">
-        <v>18785986.856</v>
+        <v>3633372.759</v>
       </c>
     </row>
     <row r="5010">
       <c r="A5010" t="inlineStr">
         <is>
-          <t>2018-06-09</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B5010" t="n">
-        <v>6011921.198</v>
+        <v>18785986.856</v>
       </c>
     </row>
     <row r="5011">
       <c r="A5011" t="inlineStr">
         <is>
-          <t>2021-02-14</t>
+          <t>2018-06-09</t>
         </is>
       </c>
       <c r="B5011" t="n">
-        <v>18025144.31</v>
+        <v>6011921.198</v>
       </c>
     </row>
     <row r="5012">
       <c r="A5012" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2021-02-14</t>
         </is>
       </c>
       <c r="B5012" t="n">
-        <v>9524420.506999999</v>
+        <v>18025144.31</v>
       </c>
     </row>
     <row r="5013">
       <c r="A5013" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2023-12-28</t>
         </is>
       </c>
       <c r="B5013" t="n">
-        <v>11482296.535</v>
+        <v>9524420.506999999</v>
       </c>
     </row>
     <row r="5014">
       <c r="A5014" t="inlineStr">
         <is>
-          <t>2014-02-04</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="B5014" t="n">
-        <v>5933884.516</v>
+        <v>11482296.535</v>
       </c>
     </row>
     <row r="5015">
       <c r="A5015" t="inlineStr">
         <is>
-          <t>2015-09-04</t>
+          <t>2014-02-04</t>
         </is>
       </c>
       <c r="B5015" t="n">
-        <v>3873267.812</v>
+        <v>5933884.516</v>
       </c>
     </row>
     <row r="5016">
       <c r="A5016" t="inlineStr">
         <is>
-          <t>2012-11-25</t>
+          <t>2015-09-04</t>
         </is>
       </c>
       <c r="B5016" t="n">
-        <v>1902645.522</v>
+        <v>3873267.812</v>
       </c>
     </row>
     <row r="5017">
       <c r="A5017" t="inlineStr">
         <is>
-          <t>2013-04-06</t>
+          <t>2012-11-25</t>
         </is>
       </c>
       <c r="B5017" t="n">
-        <v>4569312.896</v>
+        <v>1902645.522</v>
       </c>
     </row>
     <row r="5018">
       <c r="A5018" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
       <c r="B5018" t="n">
-        <v>11377694.684</v>
+        <v>4569312.896</v>
       </c>
     </row>
     <row r="5019">
       <c r="A5019" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B5019" t="n">
-        <v>16169923.625</v>
+        <v>11377694.684</v>
       </c>
     </row>
     <row r="5020">
       <c r="A5020" t="inlineStr">
         <is>
-          <t>2018-06-19</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B5020" t="n">
-        <v>5888257.764</v>
+        <v>16169923.625</v>
       </c>
     </row>
     <row r="5021">
       <c r="A5021" t="inlineStr">
         <is>
-          <t>2021-02-24</t>
+          <t>2018-06-19</t>
         </is>
       </c>
       <c r="B5021" t="n">
-        <v>17928661.951</v>
+        <v>5888257.764</v>
       </c>
     </row>
     <row r="5022">
       <c r="A5022" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2021-02-24</t>
         </is>
       </c>
       <c r="B5022" t="n">
-        <v>10359819.603</v>
+        <v>17928661.951</v>
       </c>
     </row>
     <row r="5023">
       <c r="A5023" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="B5023" t="n">
-        <v>17551353.824</v>
+        <v>10359819.603</v>
       </c>
     </row>
     <row r="5024">
       <c r="A5024" t="inlineStr">
         <is>
-          <t>2014-04-11</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B5024" t="n">
-        <v>5486391.567</v>
+        <v>17551353.824</v>
       </c>
     </row>
     <row r="5025">
       <c r="A5025" t="inlineStr">
         <is>
-          <t>2015-09-19</t>
+          <t>2014-04-11</t>
         </is>
       </c>
       <c r="B5025" t="n">
-        <v>3664786.161</v>
+        <v>5486391.567</v>
       </c>
     </row>
     <row r="5026">
       <c r="A5026" t="inlineStr">
         <is>
-          <t>2013-02-14</t>
+          <t>2015-09-19</t>
         </is>
       </c>
       <c r="B5026" t="n">
-        <v>2562212.317</v>
+        <v>3664786.161</v>
       </c>
     </row>
     <row r="5027">
       <c r="A5027" t="inlineStr">
         <is>
-          <t>2013-04-11</t>
+          <t>2013-02-14</t>
         </is>
       </c>
       <c r="B5027" t="n">
-        <v>5258477.274</v>
+        <v>2562212.317</v>
       </c>
     </row>
     <row r="5028">
       <c r="A5028" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2013-04-11</t>
         </is>
       </c>
       <c r="B5028" t="n">
-        <v>18496989.062</v>
+        <v>5258477.274</v>
       </c>
     </row>
     <row r="5029">
       <c r="A5029" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B5029" t="n">
-        <v>12884767.419</v>
+        <v>18496989.062</v>
       </c>
     </row>
     <row r="5030">
       <c r="A5030" t="inlineStr">
         <is>
-          <t>2018-07-06</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B5030" t="n">
-        <v>6085617.267</v>
+        <v>12884767.419</v>
       </c>
     </row>
     <row r="5031">
       <c r="A5031" t="inlineStr">
         <is>
-          <t>2021-03-11</t>
+          <t>2018-07-06</t>
         </is>
       </c>
       <c r="B5031" t="n">
-        <v>17506401.366</v>
+        <v>6085617.267</v>
       </c>
     </row>
     <row r="5032">
       <c r="A5032" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2021-03-11</t>
         </is>
       </c>
       <c r="B5032" t="n">
-        <v>6598014.235</v>
+        <v>17506401.366</v>
       </c>
     </row>
     <row r="5033">
       <c r="A5033" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="B5033" t="n">
-        <v>10277655.606</v>
+        <v>6598014.235</v>
       </c>
     </row>
     <row r="5034">
       <c r="A5034" t="inlineStr">
         <is>
-          <t>2014-04-19</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="B5034" t="n">
-        <v>5485487.586</v>
+        <v>10277655.606</v>
       </c>
     </row>
     <row r="5035">
       <c r="A5035" t="inlineStr">
         <is>
-          <t>2015-05-13</t>
+          <t>2014-04-19</t>
         </is>
       </c>
       <c r="B5035" t="n">
-        <v>3230141.766</v>
+        <v>5485487.586</v>
       </c>
     </row>
     <row r="5036">
       <c r="A5036" t="inlineStr">
         <is>
-          <t>2015-10-17</t>
+          <t>2015-05-13</t>
         </is>
       </c>
       <c r="B5036" t="n">
-        <v>3654408.41</v>
+        <v>3230141.766</v>
       </c>
     </row>
     <row r="5037">
       <c r="A5037" t="inlineStr">
         <is>
-          <t>2013-04-18</t>
+          <t>2015-10-17</t>
         </is>
       </c>
       <c r="B5037" t="n">
-        <v>5574917.223</v>
+        <v>3654408.41</v>
       </c>
     </row>
     <row r="5038">
       <c r="A5038" t="inlineStr">
         <is>
-          <t>2018-07-22</t>
+          <t>2013-04-18</t>
         </is>
       </c>
       <c r="B5038" t="n">
-        <v>5228255.855</v>
+        <v>5574917.223</v>
       </c>
     </row>
     <row r="5039">
       <c r="A5039" t="inlineStr">
         <is>
-          <t>2021-03-26</t>
+          <t>2018-07-22</t>
         </is>
       </c>
       <c r="B5039" t="n">
-        <v>16111714.082</v>
+        <v>5228255.855</v>
       </c>
     </row>
     <row r="5040">
       <c r="A5040" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2021-03-26</t>
         </is>
       </c>
       <c r="B5040" t="n">
-        <v>11670457.865</v>
+        <v>16111714.082</v>
       </c>
     </row>
     <row r="5041">
       <c r="A5041" t="inlineStr">
         <is>
-          <t>2014-04-25</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="B5041" t="n">
-        <v>5461830.872</v>
+        <v>11670457.865</v>
       </c>
     </row>
     <row r="5042">
       <c r="A5042" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2014-04-25</t>
         </is>
       </c>
       <c r="B5042" t="n">
-        <v>2729765.372</v>
+        <v>5461830.872</v>
       </c>
     </row>
     <row r="5043">
       <c r="A5043" t="inlineStr">
         <is>
-          <t>2015-11-23</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="B5043" t="n">
-        <v>4274264.644</v>
+        <v>2729765.372</v>
       </c>
     </row>
     <row r="5044">
       <c r="A5044" t="inlineStr">
         <is>
-          <t>2013-05-12</t>
+          <t>2015-11-23</t>
         </is>
       </c>
       <c r="B5044" t="n">
-        <v>5251259.328</v>
+        <v>4274264.644</v>
       </c>
     </row>
     <row r="5045">
       <c r="A5045" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2013-05-12</t>
         </is>
       </c>
       <c r="B5045" t="n">
-        <v>18983749.017</v>
+        <v>5251259.328</v>
       </c>
     </row>
     <row r="5046">
       <c r="A5046" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B5046" t="n">
-        <v>10054424.048</v>
+        <v>18983749.017</v>
       </c>
     </row>
     <row r="5047">
       <c r="A5047" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="B5047" t="n">
-        <v>6190194.949</v>
+        <v>10054424.048</v>
       </c>
     </row>
     <row r="5048">
       <c r="A5048" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="B5048" t="n">
-        <v>6153661.361</v>
+        <v>6190194.949</v>
       </c>
     </row>
     <row r="5049">
       <c r="A5049" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="B5049" t="n">
-        <v>10362802.579</v>
+        <v>6153661.361</v>
       </c>
     </row>
     <row r="5050">
       <c r="A5050" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2022-11-26</t>
         </is>
       </c>
       <c r="B5050" t="n">
-        <v>8173999.195</v>
+        <v>10362802.579</v>
       </c>
     </row>
     <row r="5051">
       <c r="A5051" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="B5051" t="n">
-        <v>8017070.673</v>
+        <v>8173999.195</v>
       </c>
     </row>
     <row r="5052">
       <c r="A5052" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="B5052" t="n">
-        <v>12216862.024</v>
+        <v>8017070.673</v>
       </c>
     </row>
     <row r="5053">
       <c r="A5053" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B5053" t="n">
-        <v>16777254.692</v>
+        <v>12216862.024</v>
       </c>
     </row>
     <row r="5054">
       <c r="A5054" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="B5054" t="n">
-        <v>10786270.903</v>
+        <v>16777254.692</v>
       </c>
     </row>
     <row r="5055">
       <c r="A5055" t="inlineStr">
         <is>
-          <t>2014-04-30</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B5055" t="n">
-        <v>5420067.424</v>
+        <v>10786270.903</v>
       </c>
     </row>
     <row r="5056">
       <c r="A5056" t="inlineStr">
         <is>
-          <t>2015-12-15</t>
+          <t>2014-04-30</t>
         </is>
       </c>
       <c r="B5056" t="n">
-        <v>4926141.739</v>
+        <v>5420067.424</v>
       </c>
     </row>
     <row r="5057">
       <c r="A5057" t="inlineStr">
         <is>
-          <t>2013-05-20</t>
+          <t>2015-12-15</t>
         </is>
       </c>
       <c r="B5057" t="n">
-        <v>5042140.665</v>
+        <v>4926141.739</v>
       </c>
     </row>
     <row r="5058">
       <c r="A5058" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2013-05-20</t>
         </is>
       </c>
       <c r="B5058" t="n">
-        <v>12620748.822</v>
+        <v>5042140.665</v>
       </c>
     </row>
     <row r="5059">
       <c r="A5059" t="inlineStr">
         <is>
-          <t>2017-05-15</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B5059" t="n">
-        <v>10092377.113</v>
+        <v>12620748.822</v>
       </c>
     </row>
     <row r="5060">
       <c r="A5060" t="inlineStr">
         <is>
-          <t>2018-09-13</t>
+          <t>2017-05-15</t>
         </is>
       </c>
       <c r="B5060" t="n">
-        <v>5716052.208</v>
+        <v>10092377.113</v>
       </c>
     </row>
     <row r="5061">
       <c r="A5061" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2018-09-13</t>
         </is>
       </c>
       <c r="B5061" t="n">
-        <v>12978042.967</v>
+        <v>5716052.208</v>
       </c>
     </row>
     <row r="5062">
       <c r="A5062" t="inlineStr">
         <is>
-          <t>2021-11-14</t>
+          <t>2021-04-13</t>
         </is>
       </c>
       <c r="B5062" t="n">
-        <v>8999892.903000001</v>
+        <v>12978042.967</v>
       </c>
     </row>
     <row r="5063">
       <c r="A5063" t="inlineStr">
         <is>
-          <t>2021-11-15</t>
+          <t>2021-11-14</t>
         </is>
       </c>
       <c r="B5063" t="n">
-        <v>9046092.041999999</v>
+        <v>8999892.903000001</v>
       </c>
     </row>
     <row r="5064">
       <c r="A5064" t="inlineStr">
         <is>
-          <t>2021-12-05</t>
+          <t>2021-11-15</t>
         </is>
       </c>
       <c r="B5064" t="n">
-        <v>9731141.630999999</v>
+        <v>9046092.041999999</v>
       </c>
     </row>
     <row r="5065">
       <c r="A5065" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2021-12-05</t>
         </is>
       </c>
       <c r="B5065" t="n">
-        <v>9907110.057</v>
+        <v>9731141.630999999</v>
       </c>
     </row>
     <row r="5066">
       <c r="A5066" t="inlineStr">
         <is>
-          <t>2022-01-04</t>
+          <t>2021-12-07</t>
         </is>
       </c>
       <c r="B5066" t="n">
-        <v>9609614.795</v>
+        <v>9907110.057</v>
       </c>
     </row>
     <row r="5067">
       <c r="A5067" t="inlineStr">
         <is>
-          <t>2022-01-06</t>
+          <t>2022-01-04</t>
         </is>
       </c>
       <c r="B5067" t="n">
-        <v>9657259.026000001</v>
+        <v>9609614.795</v>
       </c>
     </row>
     <row r="5068">
       <c r="A5068" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-01-06</t>
         </is>
       </c>
       <c r="B5068" t="n">
-        <v>9240975.41</v>
+        <v>9657259.026000001</v>
       </c>
     </row>
     <row r="5069">
       <c r="A5069" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="B5069" t="n">
-        <v>9269022.852</v>
+        <v>9240975.41</v>
       </c>
     </row>
     <row r="5070">
       <c r="A5070" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="B5070" t="n">
-        <v>10034636.877</v>
+        <v>9269022.852</v>
       </c>
     </row>
     <row r="5071">
       <c r="A5071" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="B5071" t="n">
-        <v>8218318.752</v>
+        <v>10034636.877</v>
       </c>
     </row>
     <row r="5072">
       <c r="A5072" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="B5072" t="n">
-        <v>9030081.539999999</v>
+        <v>8218318.752</v>
       </c>
     </row>
     <row r="5073">
       <c r="A5073" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="B5073" t="n">
-        <v>9212749.865</v>
+        <v>9030081.539999999</v>
       </c>
     </row>
     <row r="5074">
       <c r="A5074" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="B5074" t="n">
-        <v>9880601.411</v>
+        <v>9212749.865</v>
       </c>
     </row>
     <row r="5075">
       <c r="A5075" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="B5075" t="n">
-        <v>9874969.986</v>
+        <v>9880601.411</v>
       </c>
     </row>
     <row r="5076">
       <c r="A5076" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="B5076" t="n">
-        <v>10273334.73</v>
+        <v>9874969.986</v>
       </c>
     </row>
     <row r="5077">
       <c r="A5077" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B5077" t="n">
-        <v>10435634.731</v>
+        <v>10273334.73</v>
       </c>
     </row>
     <row r="5078">
       <c r="A5078" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B5078" t="n">
-        <v>10366318.076</v>
+        <v>10435634.731</v>
       </c>
     </row>
     <row r="5079">
       <c r="A5079" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="B5079" t="n">
-        <v>10213288.827</v>
+        <v>10366318.076</v>
       </c>
     </row>
     <row r="5080">
       <c r="A5080" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="B5080" t="n">
-        <v>9524273.433</v>
+        <v>10213288.827</v>
       </c>
     </row>
     <row r="5081">
       <c r="A5081" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="B5081" t="n">
-        <v>8112862.961</v>
+        <v>9524273.433</v>
       </c>
     </row>
     <row r="5082">
       <c r="A5082" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B5082" t="n">
-        <v>7953269.825</v>
+        <v>8112862.961</v>
       </c>
     </row>
     <row r="5083">
       <c r="A5083" t="inlineStr">
         <is>
-          <t>2023-03-29</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="B5083" t="n">
-        <v>7280535.923</v>
+        <v>7953269.825</v>
       </c>
     </row>
     <row r="5084">
       <c r="A5084" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-03-29</t>
         </is>
       </c>
       <c r="B5084" t="n">
-        <v>7702956.401</v>
+        <v>7280535.923</v>
       </c>
     </row>
     <row r="5085">
       <c r="A5085" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="B5085" t="n">
-        <v>7760533.554</v>
+        <v>7702956.401</v>
       </c>
     </row>
     <row r="5086">
       <c r="A5086" t="inlineStr">
         <is>
-          <t>2023-06-11</t>
+          <t>2023-04-19</t>
         </is>
       </c>
       <c r="B5086" t="n">
-        <v>8261999.766</v>
+        <v>7760533.554</v>
       </c>
     </row>
     <row r="5087">
       <c r="A5087" t="inlineStr">
         <is>
-          <t>2023-06-12</t>
+          <t>2023-06-11</t>
         </is>
       </c>
       <c r="B5087" t="n">
-        <v>8200427.591</v>
+        <v>8261999.766</v>
       </c>
     </row>
     <row r="5088">
       <c r="A5088" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-06-12</t>
         </is>
       </c>
       <c r="B5088" t="n">
-        <v>8214760.012</v>
+        <v>8200427.591</v>
       </c>
     </row>
     <row r="5089">
       <c r="A5089" t="inlineStr">
         <is>
-          <t>2018-10-06</t>
+          <t>2023-07-08</t>
         </is>
       </c>
       <c r="B5089" t="n">
-        <v>5589914.377</v>
+        <v>8214760.012</v>
       </c>
     </row>
     <row r="5090">
       <c r="A5090" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2018-10-06</t>
         </is>
       </c>
       <c r="B5090" t="n">
-        <v>13532358.233</v>
+        <v>5589914.377</v>
       </c>
     </row>
     <row r="5091">
       <c r="A5091" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2021-04-29</t>
         </is>
       </c>
       <c r="B5091" t="n">
-        <v>12614002.689</v>
+        <v>13532358.233</v>
       </c>
     </row>
     <row r="5092">
       <c r="A5092" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="B5092" t="n">
-        <v>16908871.181</v>
+        <v>12614002.689</v>
       </c>
     </row>
     <row r="5093">
       <c r="A5093" t="inlineStr">
         <is>
-          <t>2013-06-06</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B5093" t="n">
-        <v>4599987.198</v>
+        <v>16908871.181</v>
       </c>
     </row>
     <row r="5094">
       <c r="A5094" t="inlineStr">
         <is>
-          <t>2014-07-06</t>
+          <t>2013-06-06</t>
         </is>
       </c>
       <c r="B5094" t="n">
-        <v>2651817.344</v>
+        <v>4599987.198</v>
       </c>
     </row>
     <row r="5095">
       <c r="A5095" t="inlineStr">
         <is>
-          <t>2016-01-06</t>
+          <t>2014-07-06</t>
         </is>
       </c>
       <c r="B5095" t="n">
-        <v>4922546.397</v>
+        <v>2651817.344</v>
       </c>
     </row>
     <row r="5096">
       <c r="A5096" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2016-01-06</t>
         </is>
       </c>
       <c r="B5096" t="n">
-        <v>18944691.526</v>
+        <v>4922546.397</v>
       </c>
     </row>
     <row r="5097">
       <c r="A5097" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B5097" t="n">
-        <v>17508953.532</v>
+        <v>18944691.526</v>
       </c>
     </row>
     <row r="5098">
       <c r="A5098" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B5098" t="n">
-        <v>13539397.76</v>
+        <v>17508953.532</v>
       </c>
     </row>
     <row r="5099">
       <c r="A5099" t="inlineStr">
         <is>
-          <t>2018-10-22</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B5099" t="n">
-        <v>5898415.348</v>
+        <v>13539397.76</v>
       </c>
     </row>
     <row r="5100">
       <c r="A5100" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2018-10-22</t>
         </is>
       </c>
       <c r="B5100" t="n">
-        <v>13125869.478</v>
+        <v>5898415.348</v>
       </c>
     </row>
     <row r="5101">
       <c r="A5101" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="B5101" t="n">
-        <v>12536685.09</v>
+        <v>13125869.478</v>
       </c>
     </row>
     <row r="5102">
       <c r="A5102" t="inlineStr">
         <is>
-          <t>2013-06-10</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="B5102" t="n">
-        <v>4546996.485</v>
+        <v>12536685.09</v>
       </c>
     </row>
     <row r="5103">
       <c r="A5103" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2013-06-10</t>
         </is>
       </c>
       <c r="B5103" t="n">
-        <v>11463487.194</v>
+        <v>4546996.485</v>
       </c>
     </row>
     <row r="5104">
       <c r="A5104" t="inlineStr">
         <is>
-          <t>2014-07-12</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B5104" t="n">
-        <v>2584261.892</v>
+        <v>11463487.194</v>
       </c>
     </row>
     <row r="5105">
       <c r="A5105" t="inlineStr">
         <is>
-          <t>2016-02-04</t>
+          <t>2014-07-12</t>
         </is>
       </c>
       <c r="B5105" t="n">
-        <v>5485945.959</v>
+        <v>2584261.892</v>
       </c>
     </row>
     <row r="5106">
       <c r="A5106" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2016-02-04</t>
         </is>
       </c>
       <c r="B5106" t="n">
-        <v>17420607.699</v>
+        <v>5485945.959</v>
       </c>
     </row>
     <row r="5107">
       <c r="A5107" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="B5107" t="n">
-        <v>16742051.234</v>
+        <v>17420607.699</v>
       </c>
     </row>
     <row r="5108">
       <c r="A5108" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B5108" t="n">
-        <v>10154290.861</v>
+        <v>16742051.234</v>
       </c>
     </row>
     <row r="5109">
       <c r="A5109" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="B5109" t="n">
-        <v>5966396.144</v>
+        <v>10154290.861</v>
       </c>
     </row>
     <row r="5110">
       <c r="A5110" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="B5110" t="n">
-        <v>13060043.261</v>
+        <v>5966396.144</v>
       </c>
     </row>
     <row r="5111">
       <c r="A5111" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="B5111" t="n">
-        <v>13198740.126</v>
+        <v>13060043.261</v>
       </c>
     </row>
     <row r="5112">
       <c r="A5112" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="B5112" t="n">
-        <v>15762243.002</v>
+        <v>13198740.126</v>
       </c>
     </row>
     <row r="5113">
       <c r="A5113" t="inlineStr">
         <is>
-          <t>2013-06-27</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="B5113" t="n">
-        <v>4002308.164</v>
+        <v>15762243.002</v>
       </c>
     </row>
     <row r="5114">
       <c r="A5114" t="inlineStr">
         <is>
-          <t>2014-07-19</t>
+          <t>2013-06-27</t>
         </is>
       </c>
       <c r="B5114" t="n">
-        <v>2463584.735</v>
+        <v>4002308.164</v>
       </c>
     </row>
     <row r="5115">
       <c r="A5115" t="inlineStr">
         <is>
-          <t>2016-02-19</t>
+          <t>2014-07-19</t>
         </is>
       </c>
       <c r="B5115" t="n">
-        <v>5426730.361</v>
+        <v>2463584.735</v>
       </c>
     </row>
     <row r="5116">
       <c r="A5116" t="inlineStr">
         <is>
-          <t>2024-10-12</t>
+          <t>2016-02-19</t>
         </is>
       </c>
       <c r="B5116" t="n">
-        <v>10165678.695</v>
+        <v>5426730.361</v>
       </c>
     </row>
     <row r="5117">
       <c r="A5117" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2024-10-12</t>
         </is>
       </c>
       <c r="B5117" t="n">
-        <v>19324380.182</v>
+        <v>10165678.695</v>
       </c>
     </row>
     <row r="5118">
       <c r="A5118" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B5118" t="n">
-        <v>16662741.532</v>
+        <v>19324380.182</v>
       </c>
     </row>
     <row r="5119">
       <c r="A5119" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B5119" t="n">
-        <v>11982419.652</v>
+        <v>16662741.532</v>
       </c>
     </row>
     <row r="5120">
       <c r="A5120" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B5120" t="n">
-        <v>18518628.999</v>
+        <v>11982419.652</v>
       </c>
     </row>
     <row r="5121">
       <c r="A5121" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B5121" t="n">
-        <v>11533542.22</v>
+        <v>18518628.999</v>
       </c>
     </row>
     <row r="5122">
       <c r="A5122" t="inlineStr">
         <is>
-          <t>2018-11-29</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B5122" t="n">
-        <v>5868364.27</v>
+        <v>11533542.22</v>
       </c>
     </row>
     <row r="5123">
       <c r="A5123" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="B5123" t="n">
-        <v>12659047.396</v>
+        <v>5868364.27</v>
       </c>
     </row>
     <row r="5124">
       <c r="A5124" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2021-05-26</t>
         </is>
       </c>
       <c r="B5124" t="n">
-        <v>13742960</v>
+        <v>12659047.396</v>
       </c>
     </row>
     <row r="5125">
       <c r="A5125" t="inlineStr">
         <is>
-          <t>2013-06-28</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B5125" t="n">
-        <v>3944583.64</v>
+        <v>13742960</v>
       </c>
     </row>
     <row r="5126">
       <c r="A5126" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2013-06-28</t>
         </is>
       </c>
       <c r="B5126" t="n">
-        <v>11890718.505</v>
+        <v>3944583.64</v>
       </c>
     </row>
     <row r="5127">
       <c r="A5127" t="inlineStr">
         <is>
-          <t>2014-07-26</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B5127" t="n">
-        <v>2518919.825</v>
+        <v>11890718.505</v>
       </c>
     </row>
     <row r="5128">
       <c r="A5128" t="inlineStr">
         <is>
-          <t>2016-03-04</t>
+          <t>2014-07-26</t>
         </is>
       </c>
       <c r="B5128" t="n">
-        <v>5778833.318</v>
+        <v>2518919.825</v>
       </c>
     </row>
     <row r="5129">
       <c r="A5129" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2016-03-04</t>
         </is>
       </c>
       <c r="B5129" t="n">
-        <v>17921349.452</v>
+        <v>5778833.318</v>
       </c>
     </row>
     <row r="5130">
       <c r="A5130" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B5130" t="n">
-        <v>12190152.036</v>
+        <v>17921349.452</v>
       </c>
     </row>
     <row r="5131">
       <c r="A5131" t="inlineStr">
         <is>
-          <t>2019-01-13</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B5131" t="n">
-        <v>14122551.88</v>
+        <v>12190152.036</v>
       </c>
     </row>
     <row r="5132">
       <c r="A5132" t="inlineStr">
         <is>
-          <t>2021-06-14</t>
+          <t>2019-01-13</t>
         </is>
       </c>
       <c r="B5132" t="n">
-        <v>11639185.801</v>
+        <v>14122551.88</v>
       </c>
     </row>
     <row r="5133">
       <c r="A5133" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2021-06-14</t>
         </is>
       </c>
       <c r="B5133" t="n">
-        <v>15843658.658</v>
+        <v>11639185.801</v>
       </c>
     </row>
     <row r="5134">
       <c r="A5134" t="inlineStr">
         <is>
-          <t>2013-07-20</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="B5134" t="n">
-        <v>2418821.13</v>
+        <v>15843658.658</v>
       </c>
     </row>
     <row r="5135">
       <c r="A5135" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2013-07-20</t>
         </is>
       </c>
       <c r="B5135" t="n">
-        <v>19799814.996</v>
+        <v>2418821.13</v>
       </c>
     </row>
     <row r="5136">
       <c r="A5136" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B5136" t="n">
-        <v>16092268.729</v>
+        <v>19799814.996</v>
       </c>
     </row>
     <row r="5137">
       <c r="A5137" t="inlineStr">
         <is>
-          <t>2014-08-02</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="B5137" t="n">
-        <v>2629106.898</v>
+        <v>16092268.729</v>
       </c>
     </row>
     <row r="5138">
       <c r="A5138" t="inlineStr">
         <is>
-          <t>2016-03-18</t>
+          <t>2014-08-02</t>
         </is>
       </c>
       <c r="B5138" t="n">
-        <v>6029787.816</v>
+        <v>2629106.898</v>
       </c>
     </row>
     <row r="5139">
       <c r="A5139" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2016-03-18</t>
         </is>
       </c>
       <c r="B5139" t="n">
-        <v>13888250.184</v>
+        <v>6029787.816</v>
       </c>
     </row>
     <row r="5140">
       <c r="A5140" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B5140" t="n">
-        <v>13422882.236</v>
+        <v>13888250.184</v>
       </c>
     </row>
     <row r="5141">
       <c r="A5141" t="inlineStr">
         <is>
-          <t>2019-01-29</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B5141" t="n">
-        <v>15644638.336</v>
+        <v>13422882.236</v>
       </c>
     </row>
     <row r="5142">
       <c r="A5142" t="inlineStr">
         <is>
-          <t>2021-06-29</t>
+          <t>2019-01-29</t>
         </is>
       </c>
       <c r="B5142" t="n">
-        <v>10913626.968</v>
+        <v>15644638.336</v>
       </c>
     </row>
     <row r="5143">
       <c r="A5143" t="inlineStr">
         <is>
-          <t>2024-03-23</t>
+          <t>2021-06-29</t>
         </is>
       </c>
       <c r="B5143" t="n">
-        <v>19077349.963</v>
+        <v>10913626.968</v>
       </c>
     </row>
     <row r="5144">
       <c r="A5144" t="inlineStr">
         <is>
-          <t>2013-08-08</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="B5144" t="n">
-        <v>2304856.993</v>
+        <v>19077349.963</v>
       </c>
     </row>
     <row r="5145">
       <c r="A5145" t="inlineStr">
         <is>
-          <t>2014-08-08</t>
+          <t>2013-08-08</t>
         </is>
       </c>
       <c r="B5145" t="n">
-        <v>2848618.131</v>
+        <v>2304856.993</v>
       </c>
     </row>
     <row r="5146">
       <c r="A5146" t="inlineStr">
         <is>
-          <t>2016-04-16</t>
+          <t>2014-08-08</t>
         </is>
       </c>
       <c r="B5146" t="n">
-        <v>6185360.008</v>
+        <v>2848618.131</v>
       </c>
     </row>
     <row r="5147">
       <c r="A5147" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2016-04-16</t>
         </is>
       </c>
       <c r="B5147" t="n">
-        <v>13449347.64</v>
+        <v>6185360.008</v>
       </c>
     </row>
     <row r="5148">
       <c r="A5148" t="inlineStr">
         <is>
-          <t>2019-02-14</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B5148" t="n">
-        <v>15372460.768</v>
+        <v>13449347.64</v>
       </c>
     </row>
     <row r="5149">
       <c r="A5149" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2019-02-14</t>
         </is>
       </c>
       <c r="B5149" t="n">
-        <v>9416090.248</v>
+        <v>15372460.768</v>
       </c>
     </row>
     <row r="5150">
       <c r="A5150" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="B5150" t="n">
-        <v>19554838.811</v>
+        <v>9416090.248</v>
       </c>
     </row>
     <row r="5151">
       <c r="A5151" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-03-30</t>
         </is>
       </c>
       <c r="B5151" t="n">
-        <v>15736728.197</v>
+        <v>19554838.811</v>
       </c>
     </row>
     <row r="5152">
       <c r="A5152" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="B5152" t="n">
-        <v>18061928.338</v>
+        <v>15736728.197</v>
       </c>
     </row>
     <row r="5153">
       <c r="A5153" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B5153" t="n">
-        <v>18195056.999</v>
+        <v>18061928.338</v>
       </c>
     </row>
     <row r="5154">
       <c r="A5154" t="inlineStr">
         <is>
-          <t>2013-08-22</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B5154" t="n">
-        <v>2483113.932</v>
+        <v>18195056.999</v>
       </c>
     </row>
     <row r="5155">
       <c r="A5155" t="inlineStr">
         <is>
-          <t>2014-08-24</t>
+          <t>2013-08-22</t>
         </is>
       </c>
       <c r="B5155" t="n">
-        <v>2907894.968</v>
+        <v>2483113.932</v>
       </c>
     </row>
     <row r="5156">
       <c r="A5156" t="inlineStr">
         <is>
-          <t>2016-04-30</t>
+          <t>2014-08-24</t>
         </is>
       </c>
       <c r="B5156" t="n">
-        <v>5584076.258</v>
+        <v>2907894.968</v>
       </c>
     </row>
     <row r="5157">
       <c r="A5157" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2016-04-30</t>
         </is>
       </c>
       <c r="B5157" t="n">
-        <v>10139727.84</v>
+        <v>5584076.258</v>
       </c>
     </row>
     <row r="5158">
       <c r="A5158" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="B5158" t="n">
-        <v>20311437.78</v>
+        <v>10139727.84</v>
       </c>
     </row>
     <row r="5159">
       <c r="A5159" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="B5159" t="n">
-        <v>19921671.37</v>
+        <v>20311437.78</v>
       </c>
     </row>
     <row r="5160">
       <c r="A5160" t="inlineStr">
         <is>
-          <t>2019-03-08</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="B5160" t="n">
-        <v>7888479.131</v>
+        <v>19921671.37</v>
       </c>
     </row>
     <row r="5161">
       <c r="A5161" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2019-03-08</t>
         </is>
       </c>
       <c r="B5161" t="n">
-        <v>10017123.009</v>
+        <v>7888479.131</v>
       </c>
     </row>
     <row r="5162">
       <c r="A5162" t="inlineStr">
         <is>
-          <t>2024-04-06</t>
+          <t>2021-08-08</t>
         </is>
       </c>
       <c r="B5162" t="n">
-        <v>19912305.448</v>
+        <v>10017123.009</v>
       </c>
     </row>
     <row r="5163">
       <c r="A5163" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-04-06</t>
         </is>
       </c>
       <c r="B5163" t="n">
-        <v>15408192.117</v>
+        <v>19912305.448</v>
       </c>
     </row>
     <row r="5164">
       <c r="A5164" t="inlineStr">
         <is>
-          <t>2013-09-08</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="B5164" t="n">
-        <v>2309043.439</v>
+        <v>15408192.117</v>
       </c>
     </row>
     <row r="5165">
       <c r="A5165" t="inlineStr">
         <is>
-          <t>2014-08-30</t>
+          <t>2013-09-08</t>
         </is>
       </c>
       <c r="B5165" t="n">
-        <v>2814593.841</v>
+        <v>2309043.439</v>
       </c>
     </row>
     <row r="5166">
       <c r="A5166" t="inlineStr">
         <is>
-          <t>2016-05-11</t>
+          <t>2014-08-30</t>
         </is>
       </c>
       <c r="B5166" t="n">
-        <v>5531832.262</v>
+        <v>2814593.841</v>
       </c>
     </row>
     <row r="5167">
       <c r="A5167" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2016-05-11</t>
         </is>
       </c>
       <c r="B5167" t="n">
-        <v>13010963.419</v>
+        <v>5531832.262</v>
       </c>
     </row>
     <row r="5168">
       <c r="A5168" t="inlineStr">
         <is>
-          <t>2019-03-14</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="B5168" t="n">
-        <v>7713021.774</v>
+        <v>13010963.419</v>
       </c>
     </row>
     <row r="5169">
       <c r="A5169" t="inlineStr">
         <is>
-          <t>2021-08-13</t>
+          <t>2019-03-14</t>
         </is>
       </c>
       <c r="B5169" t="n">
-        <v>9574167.65</v>
+        <v>7713021.774</v>
       </c>
     </row>
     <row r="5170">
       <c r="A5170" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2021-08-13</t>
         </is>
       </c>
       <c r="B5170" t="n">
-        <v>17931313.804</v>
+        <v>9574167.65</v>
       </c>
     </row>
     <row r="5171">
       <c r="A5171" t="inlineStr">
         <is>
-          <t>2013-09-10</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="B5171" t="n">
-        <v>2350507.87</v>
+        <v>17931313.804</v>
       </c>
     </row>
     <row r="5172">
       <c r="A5172" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2013-09-10</t>
         </is>
       </c>
       <c r="B5172" t="n">
-        <v>13202621.428</v>
+        <v>2350507.87</v>
       </c>
     </row>
     <row r="5173">
       <c r="A5173" t="inlineStr">
         <is>
-          <t>2014-09-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B5173" t="n">
-        <v>2654246.128</v>
+        <v>13202621.428</v>
       </c>
     </row>
     <row r="5174">
       <c r="A5174" t="inlineStr">
         <is>
-          <t>2016-05-26</t>
+          <t>2014-09-24</t>
         </is>
       </c>
       <c r="B5174" t="n">
-        <v>5654997.006</v>
+        <v>2654246.128</v>
       </c>
     </row>
     <row r="5175">
       <c r="A5175" t="inlineStr">
         <is>
-          <t>2019-03-30</t>
+          <t>2016-05-26</t>
         </is>
       </c>
       <c r="B5175" t="n">
-        <v>7636682.731</v>
+        <v>5654997.006</v>
       </c>
     </row>
     <row r="5176">
       <c r="A5176" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2019-03-30</t>
         </is>
       </c>
       <c r="B5176" t="n">
-        <v>9115635.342</v>
+        <v>7636682.731</v>
       </c>
     </row>
     <row r="5177">
       <c r="A5177" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2021-08-18</t>
         </is>
       </c>
       <c r="B5177" t="n">
-        <v>17680988.152</v>
+        <v>9115635.342</v>
       </c>
     </row>
     <row r="5178">
       <c r="A5178" t="inlineStr">
         <is>
-          <t>2013-10-04</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="B5178" t="n">
-        <v>2315949.206</v>
+        <v>17680988.152</v>
       </c>
     </row>
     <row r="5179">
       <c r="A5179" t="inlineStr">
         <is>
-          <t>2016-07-20</t>
+          <t>2013-10-04</t>
         </is>
       </c>
       <c r="B5179" t="n">
-        <v>5964902.839</v>
+        <v>2315949.206</v>
       </c>
     </row>
     <row r="5180">
       <c r="A5180" t="inlineStr">
         <is>
-          <t>2014-09-30</t>
+          <t>2016-07-20</t>
         </is>
       </c>
       <c r="B5180" t="n">
-        <v>2625686.029</v>
+        <v>5964902.839</v>
       </c>
     </row>
     <row r="5181">
       <c r="A5181" t="inlineStr">
         <is>
-          <t>2019-04-15</t>
+          <t>2014-09-30</t>
         </is>
       </c>
       <c r="B5181" t="n">
-        <v>6167355.699</v>
+        <v>2625686.029</v>
       </c>
     </row>
     <row r="5182">
       <c r="A5182" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-04-15</t>
         </is>
       </c>
       <c r="B5182" t="n">
-        <v>8491040.936000001</v>
+        <v>6167355.699</v>
       </c>
     </row>
     <row r="5183">
       <c r="A5183" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="B5183" t="n">
-        <v>17316630.871</v>
+        <v>8491040.936000001</v>
       </c>
     </row>
     <row r="5184">
       <c r="A5184" t="inlineStr">
         <is>
-          <t>2013-10-22</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="B5184" t="n">
-        <v>2877443.953</v>
+        <v>17316630.871</v>
       </c>
     </row>
     <row r="5185">
       <c r="A5185" t="inlineStr">
         <is>
-          <t>2016-08-03</t>
+          <t>2013-10-22</t>
         </is>
       </c>
       <c r="B5185" t="n">
-        <v>5948319.051</v>
+        <v>2877443.953</v>
       </c>
     </row>
     <row r="5186">
       <c r="A5186" t="inlineStr">
         <is>
-          <t>2014-10-07</t>
+          <t>2016-08-03</t>
         </is>
       </c>
       <c r="B5186" t="n">
-        <v>2920545.529</v>
+        <v>5948319.051</v>
       </c>
     </row>
     <row r="5187">
       <c r="A5187" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2014-10-07</t>
         </is>
       </c>
       <c r="B5187" t="n">
-        <v>9876625.647</v>
+        <v>2920545.529</v>
       </c>
     </row>
     <row r="5188">
       <c r="A5188" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B5188" t="n">
-        <v>9348543.609999999</v>
+        <v>9876625.647</v>
       </c>
     </row>
     <row r="5189">
       <c r="A5189" t="inlineStr">
         <is>
-          <t>2019-04-30</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B5189" t="n">
-        <v>6286634.574</v>
+        <v>9348543.609999999</v>
       </c>
     </row>
     <row r="5190">
       <c r="A5190" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2019-04-30</t>
         </is>
       </c>
       <c r="B5190" t="n">
-        <v>8893796.503</v>
+        <v>6286634.574</v>
       </c>
     </row>
     <row r="5191">
       <c r="A5191" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2021-09-26</t>
         </is>
       </c>
       <c r="B5191" t="n">
-        <v>16658702.812</v>
+        <v>8893796.503</v>
       </c>
     </row>
     <row r="5192">
       <c r="A5192" t="inlineStr">
         <is>
-          <t>2024-07-06</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="B5192" t="n">
-        <v>15649596.102</v>
+        <v>16658702.812</v>
       </c>
     </row>
     <row r="5193">
       <c r="A5193" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-07-06</t>
         </is>
       </c>
       <c r="B5193" t="n">
-        <v>11176294.018</v>
+        <v>15649596.102</v>
       </c>
     </row>
     <row r="5194">
       <c r="A5194" t="inlineStr">
         <is>
-          <t>2013-10-25</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B5194" t="n">
-        <v>3355406.547</v>
+        <v>11176294.018</v>
       </c>
     </row>
     <row r="5195">
       <c r="A5195" t="inlineStr">
         <is>
-          <t>2014-10-14</t>
+          <t>2013-10-25</t>
         </is>
       </c>
       <c r="B5195" t="n">
-        <v>3051641.316</v>
+        <v>3355406.547</v>
       </c>
     </row>
     <row r="5196">
       <c r="A5196" t="inlineStr">
         <is>
-          <t>2016-08-18</t>
+          <t>2014-10-14</t>
         </is>
       </c>
       <c r="B5196" t="n">
-        <v>5520205.846</v>
+        <v>3051641.316</v>
       </c>
     </row>
     <row r="5197">
       <c r="A5197" t="inlineStr">
         <is>
-          <t>2019-05-09</t>
+          <t>2016-08-18</t>
         </is>
       </c>
       <c r="B5197" t="n">
-        <v>6645336.202</v>
+        <v>5520205.846</v>
       </c>
     </row>
     <row r="5198">
       <c r="A5198" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2019-05-09</t>
         </is>
       </c>
       <c r="B5198" t="n">
-        <v>8760085.365</v>
+        <v>6645336.202</v>
       </c>
     </row>
     <row r="5199">
       <c r="A5199" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="B5199" t="n">
-        <v>20506438.825</v>
+        <v>8760085.365</v>
       </c>
     </row>
     <row r="5200">
       <c r="A5200" t="inlineStr">
         <is>
-          <t>2013-11-17</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B5200" t="n">
-        <v>4107747.394</v>
+        <v>20506438.825</v>
       </c>
     </row>
     <row r="5201">
       <c r="A5201" t="inlineStr">
         <is>
-          <t>2016-09-03</t>
+          <t>2013-11-17</t>
         </is>
       </c>
       <c r="B5201" t="n">
-        <v>5203377.911</v>
+        <v>4107747.394</v>
       </c>
     </row>
     <row r="5202">
       <c r="A5202" t="inlineStr">
         <is>
-          <t>2014-10-22</t>
+          <t>2016-09-03</t>
         </is>
       </c>
       <c r="B5202" t="n">
-        <v>3035976.286</v>
+        <v>5203377.911</v>
       </c>
     </row>
     <row r="5203">
       <c r="A5203" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2014-10-22</t>
         </is>
       </c>
       <c r="B5203" t="n">
-        <v>18413104.776</v>
+        <v>3035976.286</v>
       </c>
     </row>
     <row r="5204">
       <c r="A5204" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B5204" t="n">
-        <v>7905786.007</v>
+        <v>18413104.776</v>
       </c>
     </row>
     <row r="5205">
       <c r="A5205" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="B5205" t="n">
-        <v>9073650.025</v>
+        <v>7905786.007</v>
       </c>
     </row>
     <row r="5206">
       <c r="A5206" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="B5206" t="n">
-        <v>19218055.445</v>
+        <v>9073650.025</v>
       </c>
     </row>
     <row r="5207">
       <c r="A5207" t="inlineStr">
         <is>
-          <t>2013-12-16</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B5207" t="n">
-        <v>5816249.876</v>
+        <v>19218055.445</v>
       </c>
     </row>
     <row r="5208">
       <c r="A5208" t="inlineStr">
         <is>
-          <t>2016-10-09</t>
+          <t>2013-12-16</t>
         </is>
       </c>
       <c r="B5208" t="n">
-        <v>4052991.609</v>
+        <v>5816249.876</v>
       </c>
     </row>
     <row r="5209">
       <c r="A5209" t="inlineStr">
         <is>
-          <t>2014-11-04</t>
+          <t>2016-10-09</t>
         </is>
       </c>
       <c r="B5209" t="n">
-        <v>2855446.32</v>
+        <v>4052991.609</v>
       </c>
     </row>
     <row r="5210">
       <c r="A5210" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2014-11-04</t>
         </is>
       </c>
       <c r="B5210" t="n">
-        <v>9252340.935000001</v>
+        <v>2855446.32</v>
       </c>
     </row>
     <row r="5211">
       <c r="A5211" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
       <c r="B5211" t="n">
-        <v>14880148.605</v>
+        <v>9252340.935000001</v>
       </c>
     </row>
     <row r="5212">
       <c r="A5212" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B5212" t="n">
-        <v>12724123.607</v>
+        <v>14880148.605</v>
       </c>
     </row>
     <row r="5213">
       <c r="A5213" t="inlineStr">
         <is>
-          <t>2019-08-21</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B5213" t="n">
-        <v>12393381.677</v>
+        <v>12724123.607</v>
       </c>
     </row>
     <row r="5214">
       <c r="A5214" t="inlineStr">
         <is>
-          <t>2021-12-01</t>
+          <t>2019-08-21</t>
         </is>
       </c>
       <c r="B5214" t="n">
-        <v>9613862.286</v>
+        <v>12393381.677</v>
       </c>
     </row>
     <row r="5215">
       <c r="A5215" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="B5215" t="n">
-        <v>18218036.776</v>
+        <v>9613862.286</v>
       </c>
     </row>
     <row r="5216">
       <c r="A5216" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B5216" t="n">
-        <v>16265749.775</v>
+        <v>18218036.776</v>
       </c>
     </row>
     <row r="5217">
       <c r="A5217" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2024-07-27</t>
         </is>
       </c>
       <c r="B5217" t="n">
-        <v>16670126.739</v>
+        <v>16265749.775</v>
       </c>
     </row>
     <row r="5218">
       <c r="A5218" t="inlineStr">
         <is>
-          <t>2013-12-26</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="B5218" t="n">
-        <v>6915819.538</v>
+        <v>16670126.739</v>
       </c>
     </row>
     <row r="5219">
       <c r="A5219" t="inlineStr">
         <is>
-          <t>2014-11-12</t>
+          <t>2013-12-26</t>
         </is>
       </c>
       <c r="B5219" t="n">
-        <v>3023467.834</v>
+        <v>6915819.538</v>
       </c>
     </row>
     <row r="5220">
       <c r="A5220" t="inlineStr">
         <is>
-          <t>2010-09-24</t>
+          <t>2014-11-12</t>
         </is>
       </c>
       <c r="B5220" t="n">
-        <v>112259.447</v>
+        <v>3023467.834</v>
       </c>
     </row>
     <row r="5221">
       <c r="A5221" t="inlineStr">
         <is>
-          <t>2016-10-23</t>
+          <t>2010-09-24</t>
         </is>
       </c>
       <c r="B5221" t="n">
-        <v>4402004.723</v>
+        <v>112259.447</v>
       </c>
     </row>
     <row r="5222">
       <c r="A5222" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B5222" t="n">
-        <v>19014663.42</v>
+        <v>18095870.058</v>
       </c>
     </row>
     <row r="5223">
       <c r="A5223" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2016-10-23</t>
         </is>
       </c>
       <c r="B5223" t="n">
-        <v>9408798.934</v>
+        <v>4402004.723</v>
       </c>
     </row>
     <row r="5224">
       <c r="A5224" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="B5224" t="n">
-        <v>18095870.058</v>
+        <v>19014663.42</v>
       </c>
     </row>
     <row r="5225">
       <c r="A5225" t="inlineStr">
         <is>
-          <t>2019-09-19</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B5225" t="n">
-        <v>11427939.892</v>
+        <v>9408798.934</v>
       </c>
     </row>
     <row r="5226">
       <c r="A5226" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
+          <t>2019-09-19</t>
         </is>
       </c>
       <c r="B5226" t="n">
-        <v>9957806.918</v>
+        <v>11427939.892</v>
       </c>
     </row>
     <row r="5227">
       <c r="A5227" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="B5227" t="n">
-        <v>17239012.79</v>
+        <v>9957806.918</v>
       </c>
     </row>
     <row r="5228">
       <c r="A5228" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B5228" t="n">
-        <v>11167233.165</v>
+        <v>17239012.79</v>
       </c>
     </row>
     <row r="5229">
       <c r="A5229" t="inlineStr">
         <is>
-          <t>2016-12-09</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B5229" t="n">
-        <v>5405479.025</v>
+        <v>11167233.165</v>
       </c>
     </row>
     <row r="5230">
       <c r="A5230" t="inlineStr">
         <is>
-          <t>2014-01-10</t>
+          <t>2016-12-09</t>
         </is>
       </c>
       <c r="B5230" t="n">
-        <v>6911767.667</v>
+        <v>5405479.025</v>
       </c>
     </row>
     <row r="5231">
       <c r="A5231" t="inlineStr">
         <is>
-          <t>2014-11-18</t>
+          <t>2014-01-10</t>
         </is>
       </c>
       <c r="B5231" t="n">
-        <v>3039813.332</v>
+        <v>6911767.667</v>
       </c>
     </row>
     <row r="5232">
       <c r="A5232" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2014-11-18</t>
         </is>
       </c>
       <c r="B5232" t="n">
-        <v>10958641.073</v>
+        <v>3039813.332</v>
       </c>
     </row>
     <row r="5233">
       <c r="A5233" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B5233" t="n">
-        <v>10512254.974</v>
+        <v>10958641.073</v>
       </c>
     </row>
     <row r="5234">
       <c r="A5234" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B5234" t="n">
-        <v>18752011.913</v>
+        <v>10512254.974</v>
       </c>
     </row>
     <row r="5235">
       <c r="A5235" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B5235" t="n">
-        <v>18684510.463</v>
+        <v>18752011.913</v>
       </c>
     </row>
     <row r="5236">
       <c r="A5236" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B5236" t="n">
-        <v>9947791.287</v>
+        <v>18684510.463</v>
       </c>
     </row>
     <row r="5237">
       <c r="A5237" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="B5237" t="n">
-        <v>8830961.847999999</v>
+        <v>9947791.287</v>
       </c>
     </row>
     <row r="5238">
       <c r="A5238" t="inlineStr">
         <is>
-          <t>2014-01-19</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="B5238" t="n">
-        <v>6709581.37</v>
+        <v>8830961.847999999</v>
       </c>
     </row>
     <row r="5239">
       <c r="A5239" t="inlineStr">
         <is>
-          <t>2016-12-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
       <c r="B5239" t="n">
-        <v>5441150.314</v>
+        <v>6709581.37</v>
       </c>
     </row>
     <row r="5240">
       <c r="A5240" t="inlineStr">
         <is>
-          <t>2014-12-15</t>
+          <t>2016-12-14</t>
         </is>
       </c>
       <c r="B5240" t="n">
-        <v>3652983.074</v>
+        <v>5441150.314</v>
       </c>
     </row>
     <row r="5241">
       <c r="A5241" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2014-12-15</t>
         </is>
       </c>
       <c r="B5241" t="n">
-        <v>14765108.135</v>
+        <v>3652983.074</v>
       </c>
     </row>
     <row r="5242">
       <c r="A5242" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B5242" t="n">
-        <v>10407093</v>
+        <v>14765108.135</v>
       </c>
     </row>
     <row r="5243">
       <c r="A5243" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B5243" t="n">
-        <v>12989124.134</v>
+        <v>10407093</v>
       </c>
     </row>
     <row r="5244">
       <c r="A5244" t="inlineStr">
         <is>
-          <t>2019-10-25</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="B5244" t="n">
-        <v>10081112.066</v>
+        <v>12989124.134</v>
       </c>
     </row>
     <row r="5245">
       <c r="A5245" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="B5245" t="n">
-        <v>9996728.27</v>
+        <v>10081112.066</v>
       </c>
     </row>
     <row r="5246">
       <c r="A5246" t="inlineStr">
         <is>
-          <t>2014-01-20</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="B5246" t="n">
-        <v>6614252.892</v>
+        <v>9996728.27</v>
       </c>
     </row>
     <row r="5247">
       <c r="A5247" t="inlineStr">
         <is>
-          <t>2016-12-30</t>
+          <t>2014-01-20</t>
         </is>
       </c>
       <c r="B5247" t="n">
-        <v>6503628.164</v>
+        <v>6614252.892</v>
       </c>
     </row>
     <row r="5248">
       <c r="A5248" t="inlineStr">
         <is>
-          <t>2014-12-22</t>
+          <t>2016-12-30</t>
         </is>
       </c>
       <c r="B5248" t="n">
-        <v>3563708.16</v>
+        <v>6503628.164</v>
       </c>
     </row>
     <row r="5249">
       <c r="A5249" t="inlineStr">
         <is>
-          <t>2010-09-21</t>
+          <t>2014-12-22</t>
         </is>
       </c>
       <c r="B5249" t="n">
-        <v>111207.989</v>
+        <v>3563708.16</v>
       </c>
     </row>
     <row r="5250">
       <c r="A5250" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2010-09-21</t>
         </is>
       </c>
       <c r="B5250" t="n">
-        <v>19753403.705</v>
+        <v>111207.989</v>
       </c>
     </row>
     <row r="5251">
       <c r="A5251" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B5251" t="n">
-        <v>8145349.405</v>
+        <v>19753403.705</v>
       </c>
     </row>
     <row r="5252">
       <c r="A5252" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B5252" t="n">
-        <v>8685248.65</v>
+        <v>8145349.405</v>
       </c>
     </row>
     <row r="5253">
       <c r="A5253" t="inlineStr">
         <is>
-          <t>2014-01-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="B5253" t="n">
-        <v>6168423.578</v>
+        <v>8685248.65</v>
       </c>
     </row>
     <row r="5254">
       <c r="A5254" t="inlineStr">
         <is>
-          <t>2017-01-29</t>
+          <t>2014-01-23</t>
         </is>
       </c>
       <c r="B5254" t="n">
-        <v>7399149.518</v>
+        <v>6168423.578</v>
       </c>
     </row>
     <row r="5255">
       <c r="A5255" t="inlineStr">
         <is>
-          <t>2014-12-28</t>
+          <t>2017-01-29</t>
         </is>
       </c>
       <c r="B5255" t="n">
-        <v>3660548.296</v>
+        <v>7399149.518</v>
       </c>
     </row>
     <row r="5256">
       <c r="A5256" t="inlineStr">
         <is>
-          <t>2011-07-03</t>
+          <t>2014-12-28</t>
         </is>
       </c>
       <c r="B5256" t="n">
-        <v>1736677.834</v>
+        <v>3660548.296</v>
       </c>
     </row>
     <row r="5257">
       <c r="A5257" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2011-07-03</t>
         </is>
       </c>
       <c r="B5257" t="n">
-        <v>18949481.536</v>
+        <v>1736677.834</v>
       </c>
     </row>
     <row r="5258">
       <c r="A5258" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="B5258" t="n">
-        <v>12847069.898</v>
+        <v>18949481.536</v>
       </c>
     </row>
     <row r="5259">
       <c r="A5259" t="inlineStr">
         <is>
-          <t>2019-12-29</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B5259" t="n">
-        <v>8042178.284</v>
+        <v>12847069.898</v>
       </c>
     </row>
     <row r="5260">
       <c r="A5260" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2019-12-29</t>
         </is>
       </c>
       <c r="B5260" t="n">
-        <v>9941198.092</v>
+        <v>8042178.284</v>
       </c>
     </row>
     <row r="5261">
       <c r="A5261" t="inlineStr">
         <is>
-          <t>2014-02-10</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="B5261" t="n">
-        <v>6482705.217</v>
+        <v>9941198.092</v>
       </c>
     </row>
     <row r="5262">
       <c r="A5262" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2014-02-10</t>
         </is>
       </c>
       <c r="B5262" t="n">
-        <v>3639884.552</v>
+        <v>6482705.217</v>
       </c>
     </row>
     <row r="5263">
       <c r="A5263" t="inlineStr">
         <is>
-          <t>2011-09-13</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="B5263" t="n">
-        <v>992731.454</v>
+        <v>3639884.552</v>
       </c>
     </row>
     <row r="5264">
       <c r="A5264" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2011-09-13</t>
         </is>
       </c>
       <c r="B5264" t="n">
-        <v>12025387.77</v>
+        <v>992731.454</v>
       </c>
     </row>
     <row r="5265">
       <c r="A5265" t="inlineStr">
         <is>
-          <t>2017-02-14</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B5265" t="n">
-        <v>7583332.734</v>
+        <v>12025387.77</v>
       </c>
     </row>
     <row r="5266">
       <c r="A5266" t="inlineStr">
         <is>
-          <t>2017-04-03</t>
+          <t>2017-02-14</t>
         </is>
       </c>
       <c r="B5266" t="n">
-        <v>9243648.802999999</v>
+        <v>7583332.734</v>
       </c>
     </row>
     <row r="5267">
       <c r="A5267" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2017-04-03</t>
         </is>
       </c>
       <c r="B5267" t="n">
-        <v>11517746.211</v>
+        <v>9243648.802999999</v>
       </c>
     </row>
     <row r="5268">
       <c r="A5268" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B5268" t="n">
-        <v>19403702.941</v>
+        <v>11517746.211</v>
       </c>
     </row>
     <row r="5269">
       <c r="A5269" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B5269" t="n">
-        <v>7135383.216</v>
+        <v>19403702.941</v>
       </c>
     </row>
     <row r="5270">
       <c r="A5270" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="B5270" t="n">
-        <v>10037167.8</v>
+        <v>7135383.216</v>
       </c>
     </row>
     <row r="5271">
       <c r="A5271" t="inlineStr">
         <is>
-          <t>2014-02-14</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="B5271" t="n">
-        <v>6165888.39</v>
+        <v>10037167.8</v>
       </c>
     </row>
     <row r="5272">
       <c r="A5272" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2014-02-14</t>
         </is>
       </c>
       <c r="B5272" t="n">
-        <v>18605805.647</v>
+        <v>6165888.39</v>
       </c>
     </row>
     <row r="5273">
       <c r="A5273" t="inlineStr">
         <is>
-          <t>2017-02-15</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B5273" t="n">
-        <v>7448825.404</v>
+        <v>18605805.647</v>
       </c>
     </row>
     <row r="5274">
       <c r="A5274" t="inlineStr">
         <is>
-          <t>2015-01-18</t>
+          <t>2017-02-15</t>
         </is>
       </c>
       <c r="B5274" t="n">
-        <v>4062626.204</v>
+        <v>7448825.404</v>
       </c>
     </row>
     <row r="5275">
       <c r="A5275" t="inlineStr">
         <is>
-          <t>2011-09-27</t>
+          <t>2015-01-18</t>
         </is>
       </c>
       <c r="B5275" t="n">
-        <v>744327.885</v>
+        <v>4062626.204</v>
       </c>
     </row>
     <row r="5276">
       <c r="A5276" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2011-09-27</t>
         </is>
       </c>
       <c r="B5276" t="n">
-        <v>18754649.599</v>
+        <v>744327.885</v>
       </c>
     </row>
     <row r="5277">
       <c r="A5277" t="inlineStr">
         <is>
-          <t>2017-08-24</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B5277" t="n">
-        <v>19382954.778</v>
+        <v>18754649.599</v>
       </c>
     </row>
     <row r="5278">
       <c r="A5278" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2017-08-24</t>
         </is>
       </c>
       <c r="B5278" t="n">
-        <v>8319527.642</v>
+        <v>19382954.778</v>
       </c>
     </row>
     <row r="5279">
       <c r="A5279" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B5279" t="n">
-        <v>10152904.599</v>
+        <v>8319527.642</v>
       </c>
     </row>
     <row r="5280">
       <c r="A5280" t="inlineStr">
         <is>
-          <t>2014-02-26</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="B5280" t="n">
-        <v>4892785.663</v>
+        <v>10152904.599</v>
       </c>
     </row>
     <row r="5281">
       <c r="A5281" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2014-02-26</t>
         </is>
       </c>
       <c r="B5281" t="n">
-        <v>15630701.474</v>
+        <v>4892785.663</v>
       </c>
     </row>
     <row r="5282">
       <c r="A5282" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B5282" t="n">
-        <v>11711443.8</v>
+        <v>15630701.474</v>
       </c>
     </row>
     <row r="5283">
       <c r="A5283" t="inlineStr">
         <is>
-          <t>2017-03-06</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B5283" t="n">
-        <v>7818647.054</v>
+        <v>11711443.8</v>
       </c>
     </row>
     <row r="5284">
       <c r="A5284" t="inlineStr">
         <is>
-          <t>2015-01-26</t>
+          <t>2017-03-06</t>
         </is>
       </c>
       <c r="B5284" t="n">
-        <v>4227141.883</v>
+        <v>7818647.054</v>
       </c>
     </row>
     <row r="5285">
       <c r="A5285" t="inlineStr">
         <is>
-          <t>2011-10-11</t>
+          <t>2015-01-26</t>
         </is>
       </c>
       <c r="B5285" t="n">
-        <v>733876.334</v>
+        <v>4227141.883</v>
       </c>
     </row>
     <row r="5286">
       <c r="A5286" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2011-10-11</t>
         </is>
       </c>
       <c r="B5286" t="n">
-        <v>11437944.275</v>
+        <v>733876.334</v>
       </c>
     </row>
     <row r="5287">
       <c r="A5287" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B5287" t="n">
-        <v>8278468.575</v>
+        <v>11437944.275</v>
       </c>
     </row>
     <row r="5288">
       <c r="A5288" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B5288" t="n">
-        <v>8620307.16</v>
+        <v>8278468.575</v>
       </c>
     </row>
     <row r="5289">
       <c r="A5289" t="inlineStr">
         <is>
-          <t>2014-03-15</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="B5289" t="n">
-        <v>6519122.467</v>
+        <v>8620307.16</v>
       </c>
     </row>
     <row r="5290">
       <c r="A5290" t="inlineStr">
         <is>
-          <t>2017-03-12</t>
+          <t>2014-03-15</t>
         </is>
       </c>
       <c r="B5290" t="n">
-        <v>8015167.541</v>
+        <v>6519122.467</v>
       </c>
     </row>
     <row r="5291">
       <c r="A5291" t="inlineStr">
         <is>
-          <t>2015-02-02</t>
+          <t>2017-03-12</t>
         </is>
       </c>
       <c r="B5291" t="n">
-        <v>4214903.008</v>
+        <v>8015167.541</v>
       </c>
     </row>
     <row r="5292">
       <c r="A5292" t="inlineStr">
         <is>
-          <t>2011-10-28</t>
+          <t>2015-02-02</t>
         </is>
       </c>
       <c r="B5292" t="n">
-        <v>735721.417</v>
+        <v>4214903.008</v>
       </c>
     </row>
     <row r="5293">
       <c r="A5293" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="B5293" t="n">
-        <v>18201448.889</v>
+        <v>735721.417</v>
       </c>
     </row>
     <row r="5294">
       <c r="A5294" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B5294" t="n">
-        <v>12856671.682</v>
+        <v>18201448.889</v>
       </c>
     </row>
     <row r="5295">
       <c r="A5295" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B5295" t="n">
-        <v>7919062.632</v>
+        <v>12856671.682</v>
       </c>
     </row>
     <row r="5296">
       <c r="A5296" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B5296" t="n">
-        <v>9519524.592</v>
+        <v>7919062.632</v>
       </c>
     </row>
     <row r="5297">
       <c r="A5297" t="inlineStr">
         <is>
-          <t>2014-03-18</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="B5297" t="n">
-        <v>6370558.748</v>
+        <v>9519524.592</v>
       </c>
     </row>
     <row r="5298">
       <c r="A5298" t="inlineStr">
         <is>
-          <t>2017-03-21</t>
+          <t>2014-03-18</t>
         </is>
       </c>
       <c r="B5298" t="n">
-        <v>8412562.749</v>
+        <v>6370558.748</v>
       </c>
     </row>
     <row r="5299">
       <c r="A5299" t="inlineStr">
         <is>
-          <t>2015-02-09</t>
+          <t>2017-03-21</t>
         </is>
       </c>
       <c r="B5299" t="n">
-        <v>4096290.662</v>
+        <v>8412562.749</v>
       </c>
     </row>
     <row r="5300">
       <c r="A5300" t="inlineStr">
         <is>
-          <t>2011-10-31</t>
+          <t>2015-02-09</t>
         </is>
       </c>
       <c r="B5300" t="n">
-        <v>732160.326</v>
+        <v>4096290.662</v>
       </c>
     </row>
     <row r="5301">
       <c r="A5301" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2011-10-31</t>
         </is>
       </c>
       <c r="B5301" t="n">
-        <v>7287456.154</v>
+        <v>732160.326</v>
       </c>
     </row>
     <row r="5302">
       <c r="A5302" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B5302" t="n">
-        <v>9308642.501</v>
+        <v>7287456.154</v>
       </c>
     </row>
     <row r="5303">
       <c r="A5303" t="inlineStr">
         <is>
-          <t>2014-04-06</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="B5303" t="n">
-        <v>5505621.837</v>
+        <v>9308642.501</v>
       </c>
     </row>
     <row r="5304">
       <c r="A5304" t="inlineStr">
         <is>
-          <t>2017-04-09</t>
+          <t>2014-04-06</t>
         </is>
       </c>
       <c r="B5304" t="n">
-        <v>8810606.551000001</v>
+        <v>5505621.837</v>
       </c>
     </row>
     <row r="5305">
       <c r="A5305" t="inlineStr">
         <is>
-          <t>2015-03-02</t>
+          <t>2017-04-09</t>
         </is>
       </c>
       <c r="B5305" t="n">
-        <v>3933274.224</v>
+        <v>8810606.551000001</v>
       </c>
     </row>
     <row r="5306">
       <c r="A5306" t="inlineStr">
         <is>
-          <t>2011-11-14</t>
+          <t>2015-03-02</t>
         </is>
       </c>
       <c r="B5306" t="n">
-        <v>826121.591</v>
+        <v>3933274.224</v>
       </c>
     </row>
     <row r="5307">
       <c r="A5307" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2011-11-14</t>
         </is>
       </c>
       <c r="B5307" t="n">
-        <v>10333719.079</v>
+        <v>826121.591</v>
       </c>
     </row>
     <row r="5308">
       <c r="A5308" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B5308" t="n">
-        <v>6907432.252</v>
+        <v>10333719.079</v>
       </c>
     </row>
     <row r="5309">
       <c r="A5309" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B5309" t="n">
-        <v>9481051.257999999</v>
+        <v>6907432.252</v>
       </c>
     </row>
     <row r="5310">
       <c r="A5310" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="B5310" t="n">
-        <v>16829264.336</v>
+        <v>9481051.257999999</v>
       </c>
     </row>
     <row r="5311">
       <c r="A5311" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B5311" t="n">
-        <v>10843259.392</v>
+        <v>16829264.336</v>
       </c>
     </row>
     <row r="5312">
       <c r="A5312" t="inlineStr">
         <is>
-          <t>2014-04-27</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B5312" t="n">
-        <v>5438426.506</v>
+        <v>10843259.392</v>
       </c>
     </row>
     <row r="5313">
       <c r="A5313" t="inlineStr">
         <is>
-          <t>2015-03-09</t>
+          <t>2014-04-27</t>
         </is>
       </c>
       <c r="B5313" t="n">
-        <v>3900348.066</v>
+        <v>5438426.506</v>
       </c>
     </row>
     <row r="5314">
       <c r="A5314" t="inlineStr">
         <is>
-          <t>2011-11-16</t>
+          <t>2015-03-09</t>
         </is>
       </c>
       <c r="B5314" t="n">
-        <v>1048736.803</v>
+        <v>3900348.066</v>
       </c>
     </row>
     <row r="5315">
       <c r="A5315" t="inlineStr">
         <is>
-          <t>2017-04-20</t>
+          <t>2011-11-16</t>
         </is>
       </c>
       <c r="B5315" t="n">
-        <v>8967425.550000001</v>
+        <v>1048736.803</v>
       </c>
     </row>
     <row r="5316">
       <c r="A5316" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2017-04-20</t>
         </is>
       </c>
       <c r="B5316" t="n">
-        <v>12827728.942</v>
+        <v>8967425.550000001</v>
       </c>
     </row>
     <row r="5317">
       <c r="A5317" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B5317" t="n">
-        <v>6721984.554</v>
+        <v>12827728.942</v>
       </c>
     </row>
     <row r="5318">
       <c r="A5318" t="inlineStr">
         <is>
-          <t>2022-08-06</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="B5318" t="n">
-        <v>9532015.716</v>
+        <v>6721984.554</v>
       </c>
     </row>
     <row r="5319">
       <c r="A5319" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="B5319" t="n">
-        <v>16884075.838</v>
+        <v>9532015.716</v>
       </c>
     </row>
     <row r="5320">
       <c r="A5320" t="inlineStr">
         <is>
-          <t>2014-06-01</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B5320" t="n">
-        <v>4343530.167</v>
+        <v>16884075.838</v>
       </c>
     </row>
     <row r="5321">
       <c r="A5321" t="inlineStr">
         <is>
-          <t>2015-03-22</t>
+          <t>2014-06-01</t>
         </is>
       </c>
       <c r="B5321" t="n">
-        <v>4135797.457</v>
+        <v>4343530.167</v>
       </c>
     </row>
     <row r="5322">
       <c r="A5322" t="inlineStr">
         <is>
-          <t>2017-04-30</t>
+          <t>2015-03-22</t>
         </is>
       </c>
       <c r="B5322" t="n">
-        <v>8922467.217</v>
+        <v>4135797.457</v>
       </c>
     </row>
     <row r="5323">
       <c r="A5323" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2017-04-30</t>
         </is>
       </c>
       <c r="B5323" t="n">
-        <v>1086764.653</v>
+        <v>8922467.217</v>
       </c>
     </row>
     <row r="5324">
       <c r="A5324" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2011-11-19</t>
         </is>
       </c>
       <c r="B5324" t="n">
-        <v>13592327.934</v>
+        <v>1086764.653</v>
       </c>
     </row>
     <row r="5325">
       <c r="A5325" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B5325" t="n">
-        <v>18930025.11</v>
+        <v>13592327.934</v>
       </c>
     </row>
     <row r="5326">
       <c r="A5326" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="B5326" t="n">
-        <v>17480511.655</v>
+        <v>18930025.11</v>
       </c>
     </row>
     <row r="5327">
       <c r="A5327" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B5327" t="n">
-        <v>15295963.935</v>
+        <v>17480511.655</v>
       </c>
     </row>
     <row r="5328">
       <c r="A5328" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="B5328" t="n">
-        <v>5802826.225</v>
+        <v>15295963.935</v>
       </c>
     </row>
     <row r="5329">
       <c r="A5329" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="B5329" t="n">
-        <v>8363509.02</v>
+        <v>5802826.225</v>
       </c>
     </row>
     <row r="5330">
       <c r="A5330" t="inlineStr">
         <is>
-          <t>2014-06-28</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="B5330" t="n">
-        <v>2686947.84</v>
+        <v>8363509.02</v>
       </c>
     </row>
     <row r="5331">
       <c r="A5331" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2014-06-28</t>
         </is>
       </c>
       <c r="B5331" t="n">
-        <v>11641354.93</v>
+        <v>2686947.84</v>
       </c>
     </row>
     <row r="5332">
       <c r="A5332" t="inlineStr">
         <is>
-          <t>2017-05-17</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B5332" t="n">
-        <v>10300409.588</v>
+        <v>11641354.93</v>
       </c>
     </row>
     <row r="5333">
       <c r="A5333" t="inlineStr">
         <is>
-          <t>2015-03-29</t>
+          <t>2017-05-17</t>
         </is>
       </c>
       <c r="B5333" t="n">
-        <v>3988633.591</v>
+        <v>10300409.588</v>
       </c>
     </row>
     <row r="5334">
       <c r="A5334" t="inlineStr">
         <is>
-          <t>2011-12-03</t>
+          <t>2015-03-29</t>
         </is>
       </c>
       <c r="B5334" t="n">
-        <v>1095387.925</v>
+        <v>3988633.591</v>
       </c>
     </row>
     <row r="5335">
       <c r="A5335" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2011-12-03</t>
         </is>
       </c>
       <c r="B5335" t="n">
-        <v>17359924.278</v>
+        <v>1095387.925</v>
       </c>
     </row>
     <row r="5336">
       <c r="A5336" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="B5336" t="n">
-        <v>16833334.95</v>
+        <v>17359924.278</v>
       </c>
     </row>
     <row r="5337">
       <c r="A5337" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B5337" t="n">
-        <v>10236215.389</v>
+        <v>16833334.95</v>
       </c>
     </row>
     <row r="5338">
       <c r="A5338" t="inlineStr">
         <is>
-          <t>2017-06-01</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B5338" t="n">
-        <v>11531744.112</v>
+        <v>10236215.389</v>
       </c>
     </row>
     <row r="5339">
       <c r="A5339" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2017-06-01</t>
         </is>
       </c>
       <c r="B5339" t="n">
-        <v>6065155.983</v>
+        <v>11531744.112</v>
       </c>
     </row>
     <row r="5340">
       <c r="A5340" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="B5340" t="n">
-        <v>8049967.714</v>
+        <v>6065155.983</v>
       </c>
     </row>
     <row r="5341">
       <c r="A5341" t="inlineStr">
         <is>
-          <t>2024-07-13</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="B5341" t="n">
-        <v>15731904.375</v>
+        <v>8049967.714</v>
       </c>
     </row>
     <row r="5342">
       <c r="A5342" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="B5342" t="n">
-        <v>2436383.016</v>
+        <v>15731904.375</v>
       </c>
     </row>
     <row r="5343">
       <c r="A5343" t="inlineStr">
         <is>
-          <t>2015-04-06</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="B5343" t="n">
-        <v>3694404.674</v>
+        <v>2436383.016</v>
       </c>
     </row>
     <row r="5344">
       <c r="A5344" t="inlineStr">
         <is>
-          <t>2011-12-17</t>
+          <t>2015-04-06</t>
         </is>
       </c>
       <c r="B5344" t="n">
-        <v>1066127.172</v>
+        <v>3694404.674</v>
       </c>
     </row>
     <row r="5345">
       <c r="A5345" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2011-12-17</t>
         </is>
       </c>
       <c r="B5345" t="n">
-        <v>19357870.444</v>
+        <v>1066127.172</v>
       </c>
     </row>
     <row r="5346">
       <c r="A5346" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B5346" t="n">
-        <v>9506750.107999999</v>
+        <v>19357870.444</v>
       </c>
     </row>
     <row r="5347">
       <c r="A5347" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="B5347" t="n">
-        <v>18249350.163</v>
+        <v>9506750.107999999</v>
       </c>
     </row>
     <row r="5348">
       <c r="A5348" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B5348" t="n">
-        <v>10121188.898</v>
+        <v>18249350.163</v>
       </c>
     </row>
     <row r="5349">
       <c r="A5349" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B5349" t="n">
-        <v>18172193.247</v>
+        <v>10121188.898</v>
       </c>
     </row>
     <row r="5350">
       <c r="A5350" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B5350" t="n">
-        <v>11873870.808</v>
+        <v>18172193.247</v>
       </c>
     </row>
     <row r="5351">
       <c r="A5351" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B5351" t="n">
-        <v>16905626.816</v>
+        <v>11873870.808</v>
       </c>
     </row>
     <row r="5352">
       <c r="A5352" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B5352" t="n">
-        <v>11511228.874</v>
+        <v>16905626.816</v>
       </c>
     </row>
     <row r="5353">
       <c r="A5353" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-05-03</t>
         </is>
       </c>
       <c r="B5353" t="n">
-        <v>18829096.598</v>
+        <v>11511228.874</v>
       </c>
     </row>
     <row r="5354">
       <c r="A5354" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B5354" t="n">
-        <v>11905850.214</v>
+        <v>18829096.598</v>
       </c>
     </row>
     <row r="5355">
       <c r="A5355" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="B5355" t="n">
-        <v>6820551.817</v>
+        <v>11905850.214</v>
       </c>
     </row>
     <row r="5356">
       <c r="A5356" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="B5356" t="n">
-        <v>6358468.879</v>
+        <v>6820551.817</v>
       </c>
     </row>
     <row r="5357">
       <c r="A5357" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="B5357" t="n">
-        <v>14873483.781</v>
+        <v>6358468.879</v>
       </c>
     </row>
     <row r="5358">
       <c r="A5358" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B5358" t="n">
-        <v>11867652.532</v>
+        <v>14873483.781</v>
       </c>
     </row>
     <row r="5359">
       <c r="A5359" t="inlineStr">
         <is>
-          <t>2014-08-06</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B5359" t="n">
-        <v>2826869.713</v>
+        <v>11867652.532</v>
       </c>
     </row>
     <row r="5360">
       <c r="A5360" t="inlineStr">
         <is>
-          <t>2015-04-12</t>
+          <t>2014-08-06</t>
         </is>
       </c>
       <c r="B5360" t="n">
-        <v>3600337.897</v>
+        <v>2826869.713</v>
       </c>
     </row>
     <row r="5361">
       <c r="A5361" t="inlineStr">
         <is>
-          <t>2012-01-03</t>
+          <t>2015-04-12</t>
         </is>
       </c>
       <c r="B5361" t="n">
-        <v>1178238.791</v>
+        <v>3600337.897</v>
       </c>
     </row>
     <row r="5362">
       <c r="A5362" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2012-01-03</t>
         </is>
       </c>
       <c r="B5362" t="n">
-        <v>12210206.289</v>
+        <v>1178238.791</v>
       </c>
     </row>
     <row r="5363">
       <c r="A5363" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B5363" t="n">
-        <v>18211536.318</v>
+        <v>12210206.289</v>
       </c>
     </row>
     <row r="5364">
       <c r="A5364" t="inlineStr">
         <is>
-          <t>2017-08-15</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B5364" t="n">
-        <v>19566598.77</v>
+        <v>18211536.318</v>
       </c>
     </row>
     <row r="5365">
       <c r="A5365" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2017-08-15</t>
         </is>
       </c>
       <c r="B5365" t="n">
-        <v>6837460.05</v>
+        <v>19566598.77</v>
       </c>
     </row>
     <row r="5366">
       <c r="A5366" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="B5366" t="n">
-        <v>8536718.226</v>
+        <v>6837460.05</v>
       </c>
     </row>
     <row r="5367">
       <c r="A5367" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B5367" t="n">
-        <v>19772264.652</v>
+        <v>8536718.226</v>
       </c>
     </row>
     <row r="5368">
       <c r="A5368" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="B5368" t="n">
-        <v>16050259.512</v>
+        <v>19772264.652</v>
       </c>
     </row>
     <row r="5369">
       <c r="A5369" t="inlineStr">
         <is>
-          <t>2014-08-18</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B5369" t="n">
-        <v>2925697.333</v>
+        <v>16050259.512</v>
       </c>
     </row>
     <row r="5370">
       <c r="A5370" t="inlineStr">
         <is>
-          <t>2015-04-19</t>
+          <t>2014-08-18</t>
         </is>
       </c>
       <c r="B5370" t="n">
-        <v>3445407.103</v>
+        <v>2925697.333</v>
       </c>
     </row>
     <row r="5371">
       <c r="A5371" t="inlineStr">
         <is>
-          <t>2012-01-20</t>
+          <t>2015-04-19</t>
         </is>
       </c>
       <c r="B5371" t="n">
-        <v>1244736.785</v>
+        <v>3445407.103</v>
       </c>
     </row>
     <row r="5372">
       <c r="A5372" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2012-01-20</t>
         </is>
       </c>
       <c r="B5372" t="n">
-        <v>13510242.654</v>
+        <v>1244736.785</v>
       </c>
     </row>
     <row r="5373">
       <c r="A5373" t="inlineStr">
         <is>
-          <t>2017-08-28</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B5373" t="n">
-        <v>19422838.72</v>
+        <v>13510242.654</v>
       </c>
     </row>
     <row r="5374">
       <c r="A5374" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2017-08-28</t>
         </is>
       </c>
       <c r="B5374" t="n">
-        <v>11104807.404</v>
+        <v>19422838.72</v>
       </c>
     </row>
     <row r="5375">
       <c r="A5375" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="B5375" t="n">
-        <v>10451472.456</v>
+        <v>11104807.404</v>
       </c>
     </row>
     <row r="5376">
       <c r="A5376" t="inlineStr">
         <is>
-          <t>2014-09-13</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B5376" t="n">
-        <v>2524791.779</v>
+        <v>10451472.456</v>
       </c>
     </row>
     <row r="5377">
       <c r="A5377" t="inlineStr">
         <is>
-          <t>2015-04-25</t>
+          <t>2014-09-13</t>
         </is>
       </c>
       <c r="B5377" t="n">
-        <v>3352942.164</v>
+        <v>2524791.779</v>
       </c>
     </row>
     <row r="5378">
       <c r="A5378" t="inlineStr">
         <is>
-          <t>2012-01-21</t>
+          <t>2015-04-25</t>
         </is>
       </c>
       <c r="B5378" t="n">
-        <v>1246443.905</v>
+        <v>3352942.164</v>
       </c>
     </row>
     <row r="5379">
       <c r="A5379" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2012-01-21</t>
         </is>
       </c>
       <c r="B5379" t="n">
-        <v>20351324.136</v>
+        <v>1246443.905</v>
       </c>
     </row>
     <row r="5380">
       <c r="A5380" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B5380" t="n">
-        <v>13491078.904</v>
+        <v>20351324.136</v>
       </c>
     </row>
     <row r="5381">
       <c r="A5381" t="inlineStr">
         <is>
-          <t>2017-09-08</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B5381" t="n">
-        <v>19486335.788</v>
+        <v>13491078.904</v>
       </c>
     </row>
     <row r="5382">
       <c r="A5382" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2017-09-08</t>
         </is>
       </c>
       <c r="B5382" t="n">
-        <v>13156711.485</v>
+        <v>19486335.788</v>
       </c>
     </row>
     <row r="5383">
       <c r="A5383" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B5383" t="n">
-        <v>10510937.957</v>
+        <v>13156711.485</v>
       </c>
     </row>
     <row r="5384">
       <c r="A5384" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="B5384" t="n">
-        <v>15716836.044</v>
+        <v>10510937.957</v>
       </c>
     </row>
     <row r="5385">
       <c r="A5385" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-07-21</t>
         </is>
       </c>
       <c r="B5385" t="n">
-        <v>19939698.057</v>
+        <v>15716836.044</v>
       </c>
     </row>
     <row r="5386">
       <c r="A5386" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B5386" t="n">
-        <v>2628371.334</v>
+        <v>19939698.057</v>
       </c>
     </row>
     <row r="5387">
       <c r="A5387" t="inlineStr">
         <is>
-          <t>2015-05-20</t>
+          <t>2014-10-02</t>
         </is>
       </c>
       <c r="B5387" t="n">
-        <v>3177021.142</v>
+        <v>2628371.334</v>
       </c>
     </row>
     <row r="5388">
       <c r="A5388" t="inlineStr">
         <is>
-          <t>2012-01-26</t>
+          <t>2015-05-20</t>
         </is>
       </c>
       <c r="B5388" t="n">
-        <v>1264128.557</v>
+        <v>3177021.142</v>
       </c>
     </row>
     <row r="5389">
       <c r="A5389" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2012-01-26</t>
         </is>
       </c>
       <c r="B5389" t="n">
-        <v>10152643.862</v>
+        <v>1264128.557</v>
       </c>
     </row>
     <row r="5390">
       <c r="A5390" t="inlineStr">
         <is>
-          <t>2017-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="B5390" t="n">
-        <v>18137220.352</v>
+        <v>10152643.862</v>
       </c>
     </row>
     <row r="5391">
       <c r="A5391" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2017-09-23</t>
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>18779023.107</v>
+        <v>18137220.352</v>
       </c>
     </row>
     <row r="5392">
       <c r="A5392" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="B5392" t="n">
-        <v>10615483.231</v>
+        <v>18779023.107</v>
       </c>
     </row>
     <row r="5393">
       <c r="A5393" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="B5393" t="n">
-        <v>15795124.861</v>
+        <v>10615483.231</v>
       </c>
     </row>
     <row r="5394">
       <c r="A5394" t="inlineStr">
         <is>
-          <t>2014-10-23</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B5394" t="n">
-        <v>3053937.556</v>
+        <v>15795124.861</v>
       </c>
     </row>
     <row r="5395">
       <c r="A5395" t="inlineStr">
         <is>
-          <t>2015-05-27</t>
+          <t>2014-10-23</t>
         </is>
       </c>
       <c r="B5395" t="n">
-        <v>2974495.006</v>
+        <v>3053937.556</v>
       </c>
     </row>
     <row r="5396">
       <c r="A5396" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2015-05-27</t>
         </is>
       </c>
       <c r="B5396" t="n">
-        <v>1068036.951</v>
+        <v>2974495.006</v>
       </c>
     </row>
     <row r="5397">
       <c r="A5397" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="B5397" t="n">
-        <v>12796519.886</v>
+        <v>1068036.951</v>
       </c>
     </row>
     <row r="5398">
       <c r="A5398" t="inlineStr">
         <is>
-          <t>2017-10-09</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B5398" t="n">
-        <v>19407598.446</v>
+        <v>12796519.886</v>
       </c>
     </row>
     <row r="5399">
       <c r="A5399" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2017-10-09</t>
         </is>
       </c>
       <c r="B5399" t="n">
-        <v>20455744.669</v>
+        <v>19407598.446</v>
       </c>
     </row>
     <row r="5400">
       <c r="A5400" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="B5400" t="n">
-        <v>11376341.238</v>
+        <v>20455744.669</v>
       </c>
     </row>
     <row r="5401">
       <c r="A5401" t="inlineStr">
         <is>
-          <t>2014-11-01</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="B5401" t="n">
-        <v>3044004.834</v>
+        <v>11376341.238</v>
       </c>
     </row>
     <row r="5402">
       <c r="A5402" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2014-11-01</t>
         </is>
       </c>
       <c r="B5402" t="n">
-        <v>2765454.564</v>
+        <v>3044004.834</v>
       </c>
     </row>
     <row r="5403">
       <c r="A5403" t="inlineStr">
         <is>
-          <t>2012-04-02</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="B5403" t="n">
-        <v>1066217.337</v>
+        <v>2765454.564</v>
       </c>
     </row>
     <row r="5404">
       <c r="A5404" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2012-04-02</t>
         </is>
       </c>
       <c r="B5404" t="n">
-        <v>13432763.242</v>
+        <v>1066217.337</v>
       </c>
     </row>
     <row r="5405">
       <c r="A5405" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B5405" t="n">
-        <v>19306849.276</v>
+        <v>13432763.242</v>
       </c>
     </row>
     <row r="5406">
       <c r="A5406" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="B5406" t="n">
-        <v>17904427.701</v>
+        <v>19306849.276</v>
       </c>
     </row>
     <row r="5407">
       <c r="A5407" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="B5407" t="n">
-        <v>11260943.27</v>
+        <v>17904427.701</v>
       </c>
     </row>
     <row r="5408">
       <c r="A5408" t="inlineStr">
         <is>
-          <t>2014-11-19</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="B5408" t="n">
-        <v>3019744.611</v>
+        <v>11260943.27</v>
       </c>
     </row>
     <row r="5409">
       <c r="A5409" t="inlineStr">
         <is>
-          <t>2015-06-09</t>
+          <t>2014-11-19</t>
         </is>
       </c>
       <c r="B5409" t="n">
-        <v>2361717.899</v>
+        <v>3019744.611</v>
       </c>
     </row>
     <row r="5410">
       <c r="A5410" t="inlineStr">
         <is>
-          <t>2012-04-18</t>
+          <t>2015-06-09</t>
         </is>
       </c>
       <c r="B5410" t="n">
-        <v>1080512.495</v>
+        <v>2361717.899</v>
       </c>
     </row>
     <row r="5411">
       <c r="A5411" t="inlineStr">
         <is>
-          <t>2017-11-16</t>
+          <t>2012-04-18</t>
         </is>
       </c>
       <c r="B5411" t="n">
-        <v>15794441.353</v>
+        <v>1080512.495</v>
       </c>
     </row>
     <row r="5412">
       <c r="A5412" t="inlineStr">
         <is>
-          <t>2021-02-12</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="B5412" t="n">
-        <v>18047843.242</v>
+        <v>15794441.353</v>
       </c>
     </row>
     <row r="5413">
       <c r="A5413" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2021-02-12</t>
         </is>
       </c>
       <c r="B5413" t="n">
-        <v>7804497.859</v>
+        <v>18047843.242</v>
       </c>
     </row>
     <row r="5414">
       <c r="A5414" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="B5414" t="n">
-        <v>9877779.377</v>
+        <v>7804497.859</v>
       </c>
     </row>
     <row r="5415">
       <c r="A5415" t="inlineStr">
         <is>
-          <t>2014-12-05</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B5415" t="n">
-        <v>3374566.02</v>
+        <v>9877779.377</v>
       </c>
     </row>
     <row r="5416">
       <c r="A5416" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2014-12-05</t>
         </is>
       </c>
       <c r="B5416" t="n">
-        <v>2394815.633</v>
+        <v>3374566.02</v>
       </c>
     </row>
     <row r="5417">
       <c r="A5417" t="inlineStr">
         <is>
-          <t>2012-05-04</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="B5417" t="n">
-        <v>1211448.82</v>
+        <v>2394815.633</v>
       </c>
     </row>
     <row r="5418">
       <c r="A5418" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2012-05-04</t>
         </is>
       </c>
       <c r="B5418" t="n">
-        <v>9388382.575999999</v>
+        <v>1211448.82</v>
       </c>
     </row>
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2017-11-30</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B5419" t="n">
-        <v>15739620.059</v>
+        <v>9388382.575999999</v>
       </c>
     </row>
     <row r="5420">
       <c r="A5420" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2017-11-30</t>
         </is>
       </c>
       <c r="B5420" t="n">
-        <v>17461848.264</v>
+        <v>15739620.059</v>
       </c>
     </row>
     <row r="5421">
       <c r="A5421" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="B5421" t="n">
-        <v>7349744.434</v>
+        <v>17461848.264</v>
       </c>
     </row>
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="B5422" t="n">
-        <v>15621689.103</v>
+        <v>7349744.434</v>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="B5423" t="n">
-        <v>11149234.035</v>
+        <v>15621689.103</v>
       </c>
     </row>
     <row r="5424">
       <c r="A5424" t="inlineStr">
         <is>
-          <t>2014-12-24</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B5424" t="n">
-        <v>3749367.14</v>
+        <v>11149234.035</v>
       </c>
     </row>
     <row r="5425">
       <c r="A5425" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2014-12-24</t>
         </is>
       </c>
       <c r="B5425" t="n">
-        <v>18799096.649</v>
+        <v>3749367.14</v>
       </c>
     </row>
     <row r="5426">
       <c r="A5426" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B5426" t="n">
-        <v>2573704.983</v>
+        <v>18799096.649</v>
       </c>
     </row>
     <row r="5427">
       <c r="A5427" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="B5427" t="n">
-        <v>1258763.689</v>
+        <v>2573704.983</v>
       </c>
     </row>
     <row r="5428">
       <c r="A5428" t="inlineStr">
         <is>
-          <t>2017-12-01</t>
+          <t>2012-05-21</t>
         </is>
       </c>
       <c r="B5428" t="n">
-        <v>15786676.067</v>
+        <v>1258763.689</v>
       </c>
     </row>
     <row r="5429">
       <c r="A5429" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2017-12-01</t>
         </is>
       </c>
       <c r="B5429" t="n">
-        <v>15009732.42</v>
+        <v>15786676.067</v>
       </c>
     </row>
     <row r="5430">
       <c r="A5430" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B5430" t="n">
-        <v>8127301.046</v>
+        <v>15009732.42</v>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="inlineStr">
         <is>
-          <t>2015-01-11</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="B5431" t="n">
-        <v>3848375.44</v>
+        <v>8127301.046</v>
       </c>
     </row>
     <row r="5432">
       <c r="A5432" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-01-11</t>
         </is>
       </c>
       <c r="B5432" t="n">
-        <v>2511092.261</v>
+        <v>3848375.44</v>
       </c>
     </row>
     <row r="5433">
       <c r="A5433" t="inlineStr">
         <is>
-          <t>2012-06-06</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="B5433" t="n">
-        <v>1365675.341</v>
+        <v>2511092.261</v>
       </c>
     </row>
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2012-06-06</t>
         </is>
       </c>
       <c r="B5434" t="n">
-        <v>18209088.114</v>
+        <v>1365675.341</v>
       </c>
     </row>
     <row r="5435">
       <c r="A5435" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B5435" t="n">
-        <v>17645156.999</v>
+        <v>18209088.114</v>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="B5436" t="n">
-        <v>13264526.584</v>
+        <v>17645156.999</v>
       </c>
     </row>
     <row r="5437">
       <c r="A5437" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B5437" t="n">
-        <v>8486747.433</v>
+        <v>13264526.584</v>
       </c>
     </row>
     <row r="5438">
       <c r="A5438" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B5438" t="n">
-        <v>4046018.483</v>
+        <v>8486747.433</v>
       </c>
     </row>
     <row r="5439">
       <c r="A5439" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B5439" t="n">
-        <v>2718554.466</v>
+        <v>4046018.483</v>
       </c>
     </row>
     <row r="5440">
       <c r="A5440" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="B5440" t="n">
-        <v>1367243.39</v>
+        <v>2718554.466</v>
       </c>
     </row>
     <row r="5441">
       <c r="A5441" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2012-06-18</t>
         </is>
       </c>
       <c r="B5441" t="n">
-        <v>9114476.312000001</v>
+        <v>1367243.39</v>
       </c>
     </row>
     <row r="5442">
       <c r="A5442" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B5442" t="n">
-        <v>15346852.871</v>
+        <v>9114476.312000001</v>
       </c>
     </row>
     <row r="5443">
       <c r="A5443" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B5443" t="n">
-        <v>12870879.477</v>
+        <v>15346852.871</v>
       </c>
     </row>
     <row r="5444">
       <c r="A5444" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5444" t="n">
-        <v>17780525.245</v>
+        <v>12870879.477</v>
       </c>
     </row>
     <row r="5445">
       <c r="A5445" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B5445" t="n">
-        <v>13194431.726</v>
+        <v>17780525.245</v>
       </c>
     </row>
     <row r="5446">
       <c r="A5446" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B5446" t="n">
-        <v>8346328.634</v>
+        <v>13194431.726</v>
       </c>
     </row>
     <row r="5447">
       <c r="A5447" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="B5447" t="n">
-        <v>16236706.926</v>
+        <v>8346328.634</v>
       </c>
     </row>
     <row r="5448">
       <c r="A5448" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B5448" t="n">
-        <v>16585261.576</v>
+        <v>16236706.926</v>
       </c>
     </row>
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>2015-02-10</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5449" t="n">
-        <v>4071380.974</v>
+        <v>16585261.576</v>
       </c>
     </row>
     <row r="5450">
       <c r="A5450" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="B5450" t="n">
-        <v>2793932.294</v>
+        <v>4071380.974</v>
       </c>
     </row>
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5451" t="n">
-        <v>1363857.943</v>
+        <v>17968690.541</v>
       </c>
     </row>
     <row r="5452">
       <c r="A5452" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5452" t="n">
-        <v>18882222.042</v>
+        <v>2793932.294</v>
       </c>
     </row>
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>9386582.370999999</v>
+        <v>1363857.943</v>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>17968690.541</v>
+        <v>18882222.042</v>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>17890389.899</v>
+        <v>9386582.370999999</v>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>12015164.279</v>
+        <v>17890389.899</v>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5457" t="n">
-        <v>7902657.124</v>
+        <v>12015164.279</v>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>10503343.65</v>
+        <v>7902657.124</v>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>3819509.271</v>
+        <v>10503343.65</v>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>2826416.003</v>
+        <v>3819509.271</v>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>1630324.679</v>
+        <v>2826416.003</v>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>10658742.561</v>
+        <v>1630324.679</v>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>18727823.649</v>
+        <v>10658742.561</v>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>17224052.503</v>
+        <v>18727823.649</v>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>10673931.348</v>
+        <v>17224052.503</v>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>3979751.142</v>
+        <v>10673931.348</v>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5467" t="n">
-        <v>3642872.298</v>
+        <v>3979751.142</v>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5468" t="n">
-        <v>1613219.441</v>
+        <v>3642872.298</v>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5469" t="n">
-        <v>18746833.543</v>
+        <v>1613219.441</v>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>14696488.122</v>
+        <v>18746833.543</v>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>13074131.781</v>
+        <v>14696488.122</v>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>18108889.119</v>
+        <v>13074131.781</v>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>10600975.162</v>
+        <v>18108889.119</v>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>3489354.733</v>
+        <v>10600975.162</v>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>3660667.082</v>
+        <v>3489354.733</v>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>316907.127</v>
+        <v>3660667.082</v>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>1760535.998</v>
+        <v>316907.127</v>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>19760413.223</v>
+        <v>1760535.998</v>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>15296257.118</v>
+        <v>19760413.223</v>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>10677343.165</v>
+        <v>15296257.118</v>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>12841467.318</v>
+        <v>10677343.165</v>
       </c>
     </row>
     <row r="5482">
       <c r="A5482" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>3205484.527</v>
+        <v>12841467.318</v>
       </c>
     </row>
     <row r="5483">
       <c r="A5483" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5483" t="n">
-        <v>4648212.458</v>
+        <v>3205484.527</v>
       </c>
     </row>
     <row r="5484">
       <c r="A5484" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>1873037.142</v>
+        <v>4648212.458</v>
       </c>
     </row>
     <row r="5485">
       <c r="A5485" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>19272529.034</v>
+        <v>1873037.142</v>
       </c>
     </row>
     <row r="5486">
       <c r="A5486" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>13193422.783</v>
+        <v>19272529.034</v>
       </c>
     </row>
     <row r="5487">
       <c r="A5487" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>8610177.493000001</v>
+        <v>13193422.783</v>
       </c>
     </row>
     <row r="5488">
       <c r="A5488" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>12225489.867</v>
+        <v>8610177.493000001</v>
       </c>
     </row>
     <row r="5489">
       <c r="A5489" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>2985205.142</v>
+        <v>12225489.867</v>
       </c>
     </row>
     <row r="5490">
       <c r="A5490" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>4603582.061</v>
+        <v>2985205.142</v>
       </c>
     </row>
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>2093652.744</v>
+        <v>4603582.061</v>
       </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>11477197.525</v>
+        <v>2093652.744</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>19496972.836</v>
+        <v>11477197.525</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>10566019.663</v>
+        <v>19496972.836</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>8609734.759</v>
+        <v>10566019.663</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>18616838.388</v>
+        <v>8609734.759</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>2392944.256</v>
+        <v>18616838.388</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>4964683.773</v>
+        <v>2392944.256</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>2162784.464</v>
+        <v>4964683.773</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>8046257.588</v>
+        <v>2162784.464</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>8443126.151000001</v>
+        <v>8046257.588</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>8386250.008</v>
+        <v>8443126.151000001</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>2565551.236</v>
+        <v>8386250.008</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>6127123.106</v>
+        <v>2565551.236</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>2157212.824</v>
+        <v>6127123.106</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>11978202.448</v>
+        <v>2157212.824</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>15303734.889</v>
+        <v>11978202.448</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>8103908.652</v>
+        <v>15303734.889</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>9382181.960999999</v>
+        <v>8103908.652</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>16784620.262</v>
+        <v>9382181.960999999</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>16833063.951</v>
+        <v>16784620.262</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>17049245.734</v>
+        <v>16833063.951</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>17115867.282</v>
+        <v>17049245.734</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>17153769.299</v>
+        <v>17115867.282</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>17225229.436</v>
+        <v>17153769.299</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>17249482.25</v>
+        <v>17225229.436</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>17569350.656</v>
+        <v>17249482.25</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>2859270.317</v>
+        <v>17569350.656</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>5532498.781</v>
+        <v>2859270.317</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>2138609.994</v>
+        <v>5532498.781</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>12895454.923</v>
+        <v>2138609.994</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5522" t="n">
+        <v>12895454.923</v>
+      </c>
+    </row>
+    <row r="5523">
+      <c r="A5523" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5522" t="n">
+      <c r="B5523" t="n">
         <v>11691372.317</v>
       </c>
     </row>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5523"/>
+  <dimension ref="A1:B5524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46496,31 +46496,31 @@
     <row r="4607">
       <c r="A4607" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-05-24</t>
         </is>
       </c>
       <c r="B4607" t="n">
-        <v>18302045.464</v>
+        <v>12621325.666</v>
       </c>
     </row>
     <row r="4608">
       <c r="A4608" t="inlineStr">
         <is>
-          <t>2025-08-10</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="B4608" t="n">
-        <v>18651305.009</v>
+        <v>18302045.464</v>
       </c>
     </row>
     <row r="4609">
       <c r="A4609" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="B4609" t="n">
-        <v>12621325.666</v>
+        <v>18651305.009</v>
       </c>
     </row>
     <row r="4610">
@@ -50896,1761 +50896,1761 @@
     <row r="5047">
       <c r="A5047" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B5047" t="n">
-        <v>10054424.048</v>
+        <v>18523673.383</v>
       </c>
     </row>
     <row r="5048">
       <c r="A5048" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="B5048" t="n">
-        <v>6190194.949</v>
+        <v>10054424.048</v>
       </c>
     </row>
     <row r="5049">
       <c r="A5049" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="B5049" t="n">
-        <v>6153661.361</v>
+        <v>6190194.949</v>
       </c>
     </row>
     <row r="5050">
       <c r="A5050" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="B5050" t="n">
-        <v>10362802.579</v>
+        <v>6153661.361</v>
       </c>
     </row>
     <row r="5051">
       <c r="A5051" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2022-11-26</t>
         </is>
       </c>
       <c r="B5051" t="n">
-        <v>8173999.195</v>
+        <v>10362802.579</v>
       </c>
     </row>
     <row r="5052">
       <c r="A5052" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="B5052" t="n">
-        <v>8017070.673</v>
+        <v>8173999.195</v>
       </c>
     </row>
     <row r="5053">
       <c r="A5053" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="B5053" t="n">
-        <v>12216862.024</v>
+        <v>8017070.673</v>
       </c>
     </row>
     <row r="5054">
       <c r="A5054" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B5054" t="n">
-        <v>16777254.692</v>
+        <v>12216862.024</v>
       </c>
     </row>
     <row r="5055">
       <c r="A5055" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="B5055" t="n">
-        <v>10786270.903</v>
+        <v>16777254.692</v>
       </c>
     </row>
     <row r="5056">
       <c r="A5056" t="inlineStr">
         <is>
-          <t>2014-04-30</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B5056" t="n">
-        <v>5420067.424</v>
+        <v>10786270.903</v>
       </c>
     </row>
     <row r="5057">
       <c r="A5057" t="inlineStr">
         <is>
-          <t>2015-12-15</t>
+          <t>2014-04-30</t>
         </is>
       </c>
       <c r="B5057" t="n">
-        <v>4926141.739</v>
+        <v>5420067.424</v>
       </c>
     </row>
     <row r="5058">
       <c r="A5058" t="inlineStr">
         <is>
-          <t>2013-05-20</t>
+          <t>2015-12-15</t>
         </is>
       </c>
       <c r="B5058" t="n">
-        <v>5042140.665</v>
+        <v>4926141.739</v>
       </c>
     </row>
     <row r="5059">
       <c r="A5059" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2013-05-20</t>
         </is>
       </c>
       <c r="B5059" t="n">
-        <v>12620748.822</v>
+        <v>5042140.665</v>
       </c>
     </row>
     <row r="5060">
       <c r="A5060" t="inlineStr">
         <is>
-          <t>2017-05-15</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B5060" t="n">
-        <v>10092377.113</v>
+        <v>12620748.822</v>
       </c>
     </row>
     <row r="5061">
       <c r="A5061" t="inlineStr">
         <is>
-          <t>2018-09-13</t>
+          <t>2017-05-15</t>
         </is>
       </c>
       <c r="B5061" t="n">
-        <v>5716052.208</v>
+        <v>10092377.113</v>
       </c>
     </row>
     <row r="5062">
       <c r="A5062" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2018-09-13</t>
         </is>
       </c>
       <c r="B5062" t="n">
-        <v>12978042.967</v>
+        <v>5716052.208</v>
       </c>
     </row>
     <row r="5063">
       <c r="A5063" t="inlineStr">
         <is>
-          <t>2021-11-14</t>
+          <t>2021-04-13</t>
         </is>
       </c>
       <c r="B5063" t="n">
-        <v>8999892.903000001</v>
+        <v>12978042.967</v>
       </c>
     </row>
     <row r="5064">
       <c r="A5064" t="inlineStr">
         <is>
-          <t>2021-11-15</t>
+          <t>2021-11-14</t>
         </is>
       </c>
       <c r="B5064" t="n">
-        <v>9046092.041999999</v>
+        <v>8999892.903000001</v>
       </c>
     </row>
     <row r="5065">
       <c r="A5065" t="inlineStr">
         <is>
-          <t>2021-12-05</t>
+          <t>2021-11-15</t>
         </is>
       </c>
       <c r="B5065" t="n">
-        <v>9731141.630999999</v>
+        <v>9046092.041999999</v>
       </c>
     </row>
     <row r="5066">
       <c r="A5066" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2021-12-05</t>
         </is>
       </c>
       <c r="B5066" t="n">
-        <v>9907110.057</v>
+        <v>9731141.630999999</v>
       </c>
     </row>
     <row r="5067">
       <c r="A5067" t="inlineStr">
         <is>
-          <t>2022-01-04</t>
+          <t>2021-12-07</t>
         </is>
       </c>
       <c r="B5067" t="n">
-        <v>9609614.795</v>
+        <v>9907110.057</v>
       </c>
     </row>
     <row r="5068">
       <c r="A5068" t="inlineStr">
         <is>
-          <t>2022-01-06</t>
+          <t>2022-01-04</t>
         </is>
       </c>
       <c r="B5068" t="n">
-        <v>9657259.026000001</v>
+        <v>9609614.795</v>
       </c>
     </row>
     <row r="5069">
       <c r="A5069" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-01-06</t>
         </is>
       </c>
       <c r="B5069" t="n">
-        <v>9240975.41</v>
+        <v>9657259.026000001</v>
       </c>
     </row>
     <row r="5070">
       <c r="A5070" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="B5070" t="n">
-        <v>9269022.852</v>
+        <v>9240975.41</v>
       </c>
     </row>
     <row r="5071">
       <c r="A5071" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="B5071" t="n">
-        <v>10034636.877</v>
+        <v>9269022.852</v>
       </c>
     </row>
     <row r="5072">
       <c r="A5072" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="B5072" t="n">
-        <v>8218318.752</v>
+        <v>10034636.877</v>
       </c>
     </row>
     <row r="5073">
       <c r="A5073" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="B5073" t="n">
-        <v>9030081.539999999</v>
+        <v>8218318.752</v>
       </c>
     </row>
     <row r="5074">
       <c r="A5074" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="B5074" t="n">
-        <v>9212749.865</v>
+        <v>9030081.539999999</v>
       </c>
     </row>
     <row r="5075">
       <c r="A5075" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="B5075" t="n">
-        <v>9880601.411</v>
+        <v>9212749.865</v>
       </c>
     </row>
     <row r="5076">
       <c r="A5076" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="B5076" t="n">
-        <v>9874969.986</v>
+        <v>9880601.411</v>
       </c>
     </row>
     <row r="5077">
       <c r="A5077" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="B5077" t="n">
-        <v>10273334.73</v>
+        <v>9874969.986</v>
       </c>
     </row>
     <row r="5078">
       <c r="A5078" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B5078" t="n">
-        <v>10435634.731</v>
+        <v>10273334.73</v>
       </c>
     </row>
     <row r="5079">
       <c r="A5079" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B5079" t="n">
-        <v>10366318.076</v>
+        <v>10435634.731</v>
       </c>
     </row>
     <row r="5080">
       <c r="A5080" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="B5080" t="n">
-        <v>10213288.827</v>
+        <v>10366318.076</v>
       </c>
     </row>
     <row r="5081">
       <c r="A5081" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="B5081" t="n">
-        <v>9524273.433</v>
+        <v>10213288.827</v>
       </c>
     </row>
     <row r="5082">
       <c r="A5082" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="B5082" t="n">
-        <v>8112862.961</v>
+        <v>9524273.433</v>
       </c>
     </row>
     <row r="5083">
       <c r="A5083" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B5083" t="n">
-        <v>7953269.825</v>
+        <v>8112862.961</v>
       </c>
     </row>
     <row r="5084">
       <c r="A5084" t="inlineStr">
         <is>
-          <t>2023-03-29</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="B5084" t="n">
-        <v>7280535.923</v>
+        <v>7953269.825</v>
       </c>
     </row>
     <row r="5085">
       <c r="A5085" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-03-29</t>
         </is>
       </c>
       <c r="B5085" t="n">
-        <v>7702956.401</v>
+        <v>7280535.923</v>
       </c>
     </row>
     <row r="5086">
       <c r="A5086" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="B5086" t="n">
-        <v>7760533.554</v>
+        <v>7702956.401</v>
       </c>
     </row>
     <row r="5087">
       <c r="A5087" t="inlineStr">
         <is>
-          <t>2023-06-11</t>
+          <t>2023-04-19</t>
         </is>
       </c>
       <c r="B5087" t="n">
-        <v>8261999.766</v>
+        <v>7760533.554</v>
       </c>
     </row>
     <row r="5088">
       <c r="A5088" t="inlineStr">
         <is>
-          <t>2023-06-12</t>
+          <t>2023-06-11</t>
         </is>
       </c>
       <c r="B5088" t="n">
-        <v>8200427.591</v>
+        <v>8261999.766</v>
       </c>
     </row>
     <row r="5089">
       <c r="A5089" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-06-12</t>
         </is>
       </c>
       <c r="B5089" t="n">
-        <v>8214760.012</v>
+        <v>8200427.591</v>
       </c>
     </row>
     <row r="5090">
       <c r="A5090" t="inlineStr">
         <is>
-          <t>2018-10-06</t>
+          <t>2023-07-08</t>
         </is>
       </c>
       <c r="B5090" t="n">
-        <v>5589914.377</v>
+        <v>8214760.012</v>
       </c>
     </row>
     <row r="5091">
       <c r="A5091" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2018-10-06</t>
         </is>
       </c>
       <c r="B5091" t="n">
-        <v>13532358.233</v>
+        <v>5589914.377</v>
       </c>
     </row>
     <row r="5092">
       <c r="A5092" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2021-04-29</t>
         </is>
       </c>
       <c r="B5092" t="n">
-        <v>12614002.689</v>
+        <v>13532358.233</v>
       </c>
     </row>
     <row r="5093">
       <c r="A5093" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="B5093" t="n">
-        <v>16908871.181</v>
+        <v>12614002.689</v>
       </c>
     </row>
     <row r="5094">
       <c r="A5094" t="inlineStr">
         <is>
-          <t>2013-06-06</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B5094" t="n">
-        <v>4599987.198</v>
+        <v>16908871.181</v>
       </c>
     </row>
     <row r="5095">
       <c r="A5095" t="inlineStr">
         <is>
-          <t>2014-07-06</t>
+          <t>2013-06-06</t>
         </is>
       </c>
       <c r="B5095" t="n">
-        <v>2651817.344</v>
+        <v>4599987.198</v>
       </c>
     </row>
     <row r="5096">
       <c r="A5096" t="inlineStr">
         <is>
-          <t>2016-01-06</t>
+          <t>2014-07-06</t>
         </is>
       </c>
       <c r="B5096" t="n">
-        <v>4922546.397</v>
+        <v>2651817.344</v>
       </c>
     </row>
     <row r="5097">
       <c r="A5097" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2016-01-06</t>
         </is>
       </c>
       <c r="B5097" t="n">
-        <v>18944691.526</v>
+        <v>4922546.397</v>
       </c>
     </row>
     <row r="5098">
       <c r="A5098" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B5098" t="n">
-        <v>17508953.532</v>
+        <v>18944691.526</v>
       </c>
     </row>
     <row r="5099">
       <c r="A5099" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B5099" t="n">
-        <v>13539397.76</v>
+        <v>17508953.532</v>
       </c>
     </row>
     <row r="5100">
       <c r="A5100" t="inlineStr">
         <is>
-          <t>2018-10-22</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B5100" t="n">
-        <v>5898415.348</v>
+        <v>13539397.76</v>
       </c>
     </row>
     <row r="5101">
       <c r="A5101" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2018-10-22</t>
         </is>
       </c>
       <c r="B5101" t="n">
-        <v>13125869.478</v>
+        <v>5898415.348</v>
       </c>
     </row>
     <row r="5102">
       <c r="A5102" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="B5102" t="n">
-        <v>12536685.09</v>
+        <v>13125869.478</v>
       </c>
     </row>
     <row r="5103">
       <c r="A5103" t="inlineStr">
         <is>
-          <t>2013-06-10</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="B5103" t="n">
-        <v>4546996.485</v>
+        <v>12536685.09</v>
       </c>
     </row>
     <row r="5104">
       <c r="A5104" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2013-06-10</t>
         </is>
       </c>
       <c r="B5104" t="n">
-        <v>11463487.194</v>
+        <v>4546996.485</v>
       </c>
     </row>
     <row r="5105">
       <c r="A5105" t="inlineStr">
         <is>
-          <t>2014-07-12</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B5105" t="n">
-        <v>2584261.892</v>
+        <v>11463487.194</v>
       </c>
     </row>
     <row r="5106">
       <c r="A5106" t="inlineStr">
         <is>
-          <t>2016-02-04</t>
+          <t>2014-07-12</t>
         </is>
       </c>
       <c r="B5106" t="n">
-        <v>5485945.959</v>
+        <v>2584261.892</v>
       </c>
     </row>
     <row r="5107">
       <c r="A5107" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2016-02-04</t>
         </is>
       </c>
       <c r="B5107" t="n">
-        <v>17420607.699</v>
+        <v>5485945.959</v>
       </c>
     </row>
     <row r="5108">
       <c r="A5108" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="B5108" t="n">
-        <v>16742051.234</v>
+        <v>17420607.699</v>
       </c>
     </row>
     <row r="5109">
       <c r="A5109" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B5109" t="n">
-        <v>10154290.861</v>
+        <v>16742051.234</v>
       </c>
     </row>
     <row r="5110">
       <c r="A5110" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="B5110" t="n">
-        <v>5966396.144</v>
+        <v>10154290.861</v>
       </c>
     </row>
     <row r="5111">
       <c r="A5111" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="B5111" t="n">
-        <v>13060043.261</v>
+        <v>5966396.144</v>
       </c>
     </row>
     <row r="5112">
       <c r="A5112" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="B5112" t="n">
-        <v>13198740.126</v>
+        <v>13060043.261</v>
       </c>
     </row>
     <row r="5113">
       <c r="A5113" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="B5113" t="n">
-        <v>15762243.002</v>
+        <v>13198740.126</v>
       </c>
     </row>
     <row r="5114">
       <c r="A5114" t="inlineStr">
         <is>
-          <t>2013-06-27</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="B5114" t="n">
-        <v>4002308.164</v>
+        <v>15762243.002</v>
       </c>
     </row>
     <row r="5115">
       <c r="A5115" t="inlineStr">
         <is>
-          <t>2014-07-19</t>
+          <t>2013-06-27</t>
         </is>
       </c>
       <c r="B5115" t="n">
-        <v>2463584.735</v>
+        <v>4002308.164</v>
       </c>
     </row>
     <row r="5116">
       <c r="A5116" t="inlineStr">
         <is>
-          <t>2016-02-19</t>
+          <t>2014-07-19</t>
         </is>
       </c>
       <c r="B5116" t="n">
-        <v>5426730.361</v>
+        <v>2463584.735</v>
       </c>
     </row>
     <row r="5117">
       <c r="A5117" t="inlineStr">
         <is>
-          <t>2024-10-12</t>
+          <t>2016-02-19</t>
         </is>
       </c>
       <c r="B5117" t="n">
-        <v>10165678.695</v>
+        <v>5426730.361</v>
       </c>
     </row>
     <row r="5118">
       <c r="A5118" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2024-10-12</t>
         </is>
       </c>
       <c r="B5118" t="n">
-        <v>19324380.182</v>
+        <v>10165678.695</v>
       </c>
     </row>
     <row r="5119">
       <c r="A5119" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B5119" t="n">
-        <v>16662741.532</v>
+        <v>19324380.182</v>
       </c>
     </row>
     <row r="5120">
       <c r="A5120" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B5120" t="n">
-        <v>11982419.652</v>
+        <v>16662741.532</v>
       </c>
     </row>
     <row r="5121">
       <c r="A5121" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B5121" t="n">
-        <v>18518628.999</v>
+        <v>11982419.652</v>
       </c>
     </row>
     <row r="5122">
       <c r="A5122" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B5122" t="n">
-        <v>11533542.22</v>
+        <v>18518628.999</v>
       </c>
     </row>
     <row r="5123">
       <c r="A5123" t="inlineStr">
         <is>
-          <t>2018-11-29</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B5123" t="n">
-        <v>5868364.27</v>
+        <v>11533542.22</v>
       </c>
     </row>
     <row r="5124">
       <c r="A5124" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="B5124" t="n">
-        <v>12659047.396</v>
+        <v>5868364.27</v>
       </c>
     </row>
     <row r="5125">
       <c r="A5125" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2021-05-26</t>
         </is>
       </c>
       <c r="B5125" t="n">
-        <v>13742960</v>
+        <v>12659047.396</v>
       </c>
     </row>
     <row r="5126">
       <c r="A5126" t="inlineStr">
         <is>
-          <t>2013-06-28</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B5126" t="n">
-        <v>3944583.64</v>
+        <v>13742960</v>
       </c>
     </row>
     <row r="5127">
       <c r="A5127" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2013-06-28</t>
         </is>
       </c>
       <c r="B5127" t="n">
-        <v>11890718.505</v>
+        <v>3944583.64</v>
       </c>
     </row>
     <row r="5128">
       <c r="A5128" t="inlineStr">
         <is>
-          <t>2014-07-26</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B5128" t="n">
-        <v>2518919.825</v>
+        <v>11890718.505</v>
       </c>
     </row>
     <row r="5129">
       <c r="A5129" t="inlineStr">
         <is>
-          <t>2016-03-04</t>
+          <t>2014-07-26</t>
         </is>
       </c>
       <c r="B5129" t="n">
-        <v>5778833.318</v>
+        <v>2518919.825</v>
       </c>
     </row>
     <row r="5130">
       <c r="A5130" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2016-03-04</t>
         </is>
       </c>
       <c r="B5130" t="n">
-        <v>17921349.452</v>
+        <v>5778833.318</v>
       </c>
     </row>
     <row r="5131">
       <c r="A5131" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B5131" t="n">
-        <v>12190152.036</v>
+        <v>17921349.452</v>
       </c>
     </row>
     <row r="5132">
       <c r="A5132" t="inlineStr">
         <is>
-          <t>2019-01-13</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B5132" t="n">
-        <v>14122551.88</v>
+        <v>12190152.036</v>
       </c>
     </row>
     <row r="5133">
       <c r="A5133" t="inlineStr">
         <is>
-          <t>2021-06-14</t>
+          <t>2019-01-13</t>
         </is>
       </c>
       <c r="B5133" t="n">
-        <v>11639185.801</v>
+        <v>14122551.88</v>
       </c>
     </row>
     <row r="5134">
       <c r="A5134" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2021-06-14</t>
         </is>
       </c>
       <c r="B5134" t="n">
-        <v>15843658.658</v>
+        <v>11639185.801</v>
       </c>
     </row>
     <row r="5135">
       <c r="A5135" t="inlineStr">
         <is>
-          <t>2013-07-20</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="B5135" t="n">
-        <v>2418821.13</v>
+        <v>15843658.658</v>
       </c>
     </row>
     <row r="5136">
       <c r="A5136" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2013-07-20</t>
         </is>
       </c>
       <c r="B5136" t="n">
-        <v>19799814.996</v>
+        <v>2418821.13</v>
       </c>
     </row>
     <row r="5137">
       <c r="A5137" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B5137" t="n">
-        <v>16092268.729</v>
+        <v>19799814.996</v>
       </c>
     </row>
     <row r="5138">
       <c r="A5138" t="inlineStr">
         <is>
-          <t>2014-08-02</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="B5138" t="n">
-        <v>2629106.898</v>
+        <v>16092268.729</v>
       </c>
     </row>
     <row r="5139">
       <c r="A5139" t="inlineStr">
         <is>
-          <t>2016-03-18</t>
+          <t>2014-08-02</t>
         </is>
       </c>
       <c r="B5139" t="n">
-        <v>6029787.816</v>
+        <v>2629106.898</v>
       </c>
     </row>
     <row r="5140">
       <c r="A5140" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2016-03-18</t>
         </is>
       </c>
       <c r="B5140" t="n">
-        <v>13888250.184</v>
+        <v>6029787.816</v>
       </c>
     </row>
     <row r="5141">
       <c r="A5141" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B5141" t="n">
-        <v>13422882.236</v>
+        <v>13888250.184</v>
       </c>
     </row>
     <row r="5142">
       <c r="A5142" t="inlineStr">
         <is>
-          <t>2019-01-29</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B5142" t="n">
-        <v>15644638.336</v>
+        <v>13422882.236</v>
       </c>
     </row>
     <row r="5143">
       <c r="A5143" t="inlineStr">
         <is>
-          <t>2021-06-29</t>
+          <t>2019-01-29</t>
         </is>
       </c>
       <c r="B5143" t="n">
-        <v>10913626.968</v>
+        <v>15644638.336</v>
       </c>
     </row>
     <row r="5144">
       <c r="A5144" t="inlineStr">
         <is>
-          <t>2024-03-23</t>
+          <t>2021-06-29</t>
         </is>
       </c>
       <c r="B5144" t="n">
-        <v>19077349.963</v>
+        <v>10913626.968</v>
       </c>
     </row>
     <row r="5145">
       <c r="A5145" t="inlineStr">
         <is>
-          <t>2013-08-08</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="B5145" t="n">
-        <v>2304856.993</v>
+        <v>19077349.963</v>
       </c>
     </row>
     <row r="5146">
       <c r="A5146" t="inlineStr">
         <is>
-          <t>2014-08-08</t>
+          <t>2013-08-08</t>
         </is>
       </c>
       <c r="B5146" t="n">
-        <v>2848618.131</v>
+        <v>2304856.993</v>
       </c>
     </row>
     <row r="5147">
       <c r="A5147" t="inlineStr">
         <is>
-          <t>2016-04-16</t>
+          <t>2014-08-08</t>
         </is>
       </c>
       <c r="B5147" t="n">
-        <v>6185360.008</v>
+        <v>2848618.131</v>
       </c>
     </row>
     <row r="5148">
       <c r="A5148" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2016-04-16</t>
         </is>
       </c>
       <c r="B5148" t="n">
-        <v>13449347.64</v>
+        <v>6185360.008</v>
       </c>
     </row>
     <row r="5149">
       <c r="A5149" t="inlineStr">
         <is>
-          <t>2019-02-14</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B5149" t="n">
-        <v>15372460.768</v>
+        <v>13449347.64</v>
       </c>
     </row>
     <row r="5150">
       <c r="A5150" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2019-02-14</t>
         </is>
       </c>
       <c r="B5150" t="n">
-        <v>9416090.248</v>
+        <v>15372460.768</v>
       </c>
     </row>
     <row r="5151">
       <c r="A5151" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="B5151" t="n">
-        <v>19554838.811</v>
+        <v>9416090.248</v>
       </c>
     </row>
     <row r="5152">
       <c r="A5152" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-03-30</t>
         </is>
       </c>
       <c r="B5152" t="n">
-        <v>15736728.197</v>
+        <v>19554838.811</v>
       </c>
     </row>
     <row r="5153">
       <c r="A5153" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="B5153" t="n">
-        <v>18061928.338</v>
+        <v>15736728.197</v>
       </c>
     </row>
     <row r="5154">
       <c r="A5154" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B5154" t="n">
-        <v>18195056.999</v>
+        <v>18061928.338</v>
       </c>
     </row>
     <row r="5155">
       <c r="A5155" t="inlineStr">
         <is>
-          <t>2013-08-22</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B5155" t="n">
-        <v>2483113.932</v>
+        <v>18195056.999</v>
       </c>
     </row>
     <row r="5156">
       <c r="A5156" t="inlineStr">
         <is>
-          <t>2014-08-24</t>
+          <t>2013-08-22</t>
         </is>
       </c>
       <c r="B5156" t="n">
-        <v>2907894.968</v>
+        <v>2483113.932</v>
       </c>
     </row>
     <row r="5157">
       <c r="A5157" t="inlineStr">
         <is>
-          <t>2016-04-30</t>
+          <t>2014-08-24</t>
         </is>
       </c>
       <c r="B5157" t="n">
-        <v>5584076.258</v>
+        <v>2907894.968</v>
       </c>
     </row>
     <row r="5158">
       <c r="A5158" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2016-04-30</t>
         </is>
       </c>
       <c r="B5158" t="n">
-        <v>10139727.84</v>
+        <v>5584076.258</v>
       </c>
     </row>
     <row r="5159">
       <c r="A5159" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="B5159" t="n">
-        <v>20311437.78</v>
+        <v>10139727.84</v>
       </c>
     </row>
     <row r="5160">
       <c r="A5160" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="B5160" t="n">
-        <v>19921671.37</v>
+        <v>20311437.78</v>
       </c>
     </row>
     <row r="5161">
       <c r="A5161" t="inlineStr">
         <is>
-          <t>2019-03-08</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="B5161" t="n">
-        <v>7888479.131</v>
+        <v>19921671.37</v>
       </c>
     </row>
     <row r="5162">
       <c r="A5162" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2019-03-08</t>
         </is>
       </c>
       <c r="B5162" t="n">
-        <v>10017123.009</v>
+        <v>7888479.131</v>
       </c>
     </row>
     <row r="5163">
       <c r="A5163" t="inlineStr">
         <is>
-          <t>2024-04-06</t>
+          <t>2021-08-08</t>
         </is>
       </c>
       <c r="B5163" t="n">
-        <v>19912305.448</v>
+        <v>10017123.009</v>
       </c>
     </row>
     <row r="5164">
       <c r="A5164" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-04-06</t>
         </is>
       </c>
       <c r="B5164" t="n">
-        <v>15408192.117</v>
+        <v>19912305.448</v>
       </c>
     </row>
     <row r="5165">
       <c r="A5165" t="inlineStr">
         <is>
-          <t>2013-09-08</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="B5165" t="n">
-        <v>2309043.439</v>
+        <v>15408192.117</v>
       </c>
     </row>
     <row r="5166">
       <c r="A5166" t="inlineStr">
         <is>
-          <t>2014-08-30</t>
+          <t>2013-09-08</t>
         </is>
       </c>
       <c r="B5166" t="n">
-        <v>2814593.841</v>
+        <v>2309043.439</v>
       </c>
     </row>
     <row r="5167">
       <c r="A5167" t="inlineStr">
         <is>
-          <t>2016-05-11</t>
+          <t>2014-08-30</t>
         </is>
       </c>
       <c r="B5167" t="n">
-        <v>5531832.262</v>
+        <v>2814593.841</v>
       </c>
     </row>
     <row r="5168">
       <c r="A5168" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2016-05-11</t>
         </is>
       </c>
       <c r="B5168" t="n">
-        <v>13010963.419</v>
+        <v>5531832.262</v>
       </c>
     </row>
     <row r="5169">
       <c r="A5169" t="inlineStr">
         <is>
-          <t>2019-03-14</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="B5169" t="n">
-        <v>7713021.774</v>
+        <v>13010963.419</v>
       </c>
     </row>
     <row r="5170">
       <c r="A5170" t="inlineStr">
         <is>
-          <t>2021-08-13</t>
+          <t>2019-03-14</t>
         </is>
       </c>
       <c r="B5170" t="n">
-        <v>9574167.65</v>
+        <v>7713021.774</v>
       </c>
     </row>
     <row r="5171">
       <c r="A5171" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2021-08-13</t>
         </is>
       </c>
       <c r="B5171" t="n">
-        <v>17931313.804</v>
+        <v>9574167.65</v>
       </c>
     </row>
     <row r="5172">
       <c r="A5172" t="inlineStr">
         <is>
-          <t>2013-09-10</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="B5172" t="n">
-        <v>2350507.87</v>
+        <v>17931313.804</v>
       </c>
     </row>
     <row r="5173">
       <c r="A5173" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2013-09-10</t>
         </is>
       </c>
       <c r="B5173" t="n">
-        <v>13202621.428</v>
+        <v>2350507.87</v>
       </c>
     </row>
     <row r="5174">
       <c r="A5174" t="inlineStr">
         <is>
-          <t>2014-09-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B5174" t="n">
-        <v>2654246.128</v>
+        <v>13202621.428</v>
       </c>
     </row>
     <row r="5175">
       <c r="A5175" t="inlineStr">
         <is>
-          <t>2016-05-26</t>
+          <t>2014-09-24</t>
         </is>
       </c>
       <c r="B5175" t="n">
-        <v>5654997.006</v>
+        <v>2654246.128</v>
       </c>
     </row>
     <row r="5176">
       <c r="A5176" t="inlineStr">
         <is>
-          <t>2019-03-30</t>
+          <t>2016-05-26</t>
         </is>
       </c>
       <c r="B5176" t="n">
-        <v>7636682.731</v>
+        <v>5654997.006</v>
       </c>
     </row>
     <row r="5177">
       <c r="A5177" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2019-03-30</t>
         </is>
       </c>
       <c r="B5177" t="n">
-        <v>9115635.342</v>
+        <v>7636682.731</v>
       </c>
     </row>
     <row r="5178">
       <c r="A5178" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2021-08-18</t>
         </is>
       </c>
       <c r="B5178" t="n">
-        <v>17680988.152</v>
+        <v>9115635.342</v>
       </c>
     </row>
     <row r="5179">
       <c r="A5179" t="inlineStr">
         <is>
-          <t>2013-10-04</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="B5179" t="n">
-        <v>2315949.206</v>
+        <v>17680988.152</v>
       </c>
     </row>
     <row r="5180">
       <c r="A5180" t="inlineStr">
         <is>
-          <t>2016-07-20</t>
+          <t>2013-10-04</t>
         </is>
       </c>
       <c r="B5180" t="n">
-        <v>5964902.839</v>
+        <v>2315949.206</v>
       </c>
     </row>
     <row r="5181">
       <c r="A5181" t="inlineStr">
         <is>
-          <t>2014-09-30</t>
+          <t>2016-07-20</t>
         </is>
       </c>
       <c r="B5181" t="n">
-        <v>2625686.029</v>
+        <v>5964902.839</v>
       </c>
     </row>
     <row r="5182">
       <c r="A5182" t="inlineStr">
         <is>
-          <t>2019-04-15</t>
+          <t>2014-09-30</t>
         </is>
       </c>
       <c r="B5182" t="n">
-        <v>6167355.699</v>
+        <v>2625686.029</v>
       </c>
     </row>
     <row r="5183">
       <c r="A5183" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-04-15</t>
         </is>
       </c>
       <c r="B5183" t="n">
-        <v>8491040.936000001</v>
+        <v>6167355.699</v>
       </c>
     </row>
     <row r="5184">
       <c r="A5184" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="B5184" t="n">
-        <v>17316630.871</v>
+        <v>8491040.936000001</v>
       </c>
     </row>
     <row r="5185">
       <c r="A5185" t="inlineStr">
         <is>
-          <t>2013-10-22</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="B5185" t="n">
-        <v>2877443.953</v>
+        <v>17316630.871</v>
       </c>
     </row>
     <row r="5186">
       <c r="A5186" t="inlineStr">
         <is>
-          <t>2016-08-03</t>
+          <t>2013-10-22</t>
         </is>
       </c>
       <c r="B5186" t="n">
-        <v>5948319.051</v>
+        <v>2877443.953</v>
       </c>
     </row>
     <row r="5187">
       <c r="A5187" t="inlineStr">
         <is>
-          <t>2014-10-07</t>
+          <t>2016-08-03</t>
         </is>
       </c>
       <c r="B5187" t="n">
-        <v>2920545.529</v>
+        <v>5948319.051</v>
       </c>
     </row>
     <row r="5188">
       <c r="A5188" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2014-10-07</t>
         </is>
       </c>
       <c r="B5188" t="n">
-        <v>9876625.647</v>
+        <v>2920545.529</v>
       </c>
     </row>
     <row r="5189">
       <c r="A5189" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B5189" t="n">
-        <v>9348543.609999999</v>
+        <v>9876625.647</v>
       </c>
     </row>
     <row r="5190">
       <c r="A5190" t="inlineStr">
         <is>
-          <t>2019-04-30</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B5190" t="n">
-        <v>6286634.574</v>
+        <v>9348543.609999999</v>
       </c>
     </row>
     <row r="5191">
       <c r="A5191" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2019-04-30</t>
         </is>
       </c>
       <c r="B5191" t="n">
-        <v>8893796.503</v>
+        <v>6286634.574</v>
       </c>
     </row>
     <row r="5192">
       <c r="A5192" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2021-09-26</t>
         </is>
       </c>
       <c r="B5192" t="n">
-        <v>16658702.812</v>
+        <v>8893796.503</v>
       </c>
     </row>
     <row r="5193">
       <c r="A5193" t="inlineStr">
         <is>
-          <t>2024-07-06</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="B5193" t="n">
-        <v>15649596.102</v>
+        <v>16658702.812</v>
       </c>
     </row>
     <row r="5194">
       <c r="A5194" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-07-06</t>
         </is>
       </c>
       <c r="B5194" t="n">
-        <v>11176294.018</v>
+        <v>15649596.102</v>
       </c>
     </row>
     <row r="5195">
       <c r="A5195" t="inlineStr">
         <is>
-          <t>2013-10-25</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B5195" t="n">
-        <v>3355406.547</v>
+        <v>11176294.018</v>
       </c>
     </row>
     <row r="5196">
       <c r="A5196" t="inlineStr">
         <is>
-          <t>2014-10-14</t>
+          <t>2013-10-25</t>
         </is>
       </c>
       <c r="B5196" t="n">
-        <v>3051641.316</v>
+        <v>3355406.547</v>
       </c>
     </row>
     <row r="5197">
       <c r="A5197" t="inlineStr">
         <is>
-          <t>2016-08-18</t>
+          <t>2014-10-14</t>
         </is>
       </c>
       <c r="B5197" t="n">
-        <v>5520205.846</v>
+        <v>3051641.316</v>
       </c>
     </row>
     <row r="5198">
       <c r="A5198" t="inlineStr">
         <is>
-          <t>2019-05-09</t>
+          <t>2016-08-18</t>
         </is>
       </c>
       <c r="B5198" t="n">
-        <v>6645336.202</v>
+        <v>5520205.846</v>
       </c>
     </row>
     <row r="5199">
       <c r="A5199" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2019-05-09</t>
         </is>
       </c>
       <c r="B5199" t="n">
-        <v>8760085.365</v>
+        <v>6645336.202</v>
       </c>
     </row>
     <row r="5200">
       <c r="A5200" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="B5200" t="n">
-        <v>20506438.825</v>
+        <v>8760085.365</v>
       </c>
     </row>
     <row r="5201">
       <c r="A5201" t="inlineStr">
         <is>
-          <t>2013-11-17</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B5201" t="n">
-        <v>4107747.394</v>
+        <v>20506438.825</v>
       </c>
     </row>
     <row r="5202">
       <c r="A5202" t="inlineStr">
         <is>
-          <t>2016-09-03</t>
+          <t>2013-11-17</t>
         </is>
       </c>
       <c r="B5202" t="n">
-        <v>5203377.911</v>
+        <v>4107747.394</v>
       </c>
     </row>
     <row r="5203">
       <c r="A5203" t="inlineStr">
         <is>
-          <t>2014-10-22</t>
+          <t>2016-09-03</t>
         </is>
       </c>
       <c r="B5203" t="n">
-        <v>3035976.286</v>
+        <v>5203377.911</v>
       </c>
     </row>
     <row r="5204">
       <c r="A5204" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2014-10-22</t>
         </is>
       </c>
       <c r="B5204" t="n">
-        <v>18413104.776</v>
+        <v>3035976.286</v>
       </c>
     </row>
     <row r="5205">
       <c r="A5205" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B5205" t="n">
-        <v>7905786.007</v>
+        <v>18413104.776</v>
       </c>
     </row>
     <row r="5206">
       <c r="A5206" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="B5206" t="n">
-        <v>9073650.025</v>
+        <v>7905786.007</v>
       </c>
     </row>
     <row r="5207">
       <c r="A5207" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="B5207" t="n">
-        <v>19218055.445</v>
+        <v>9073650.025</v>
       </c>
     </row>
     <row r="5208">
       <c r="A5208" t="inlineStr">
         <is>
-          <t>2013-12-16</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B5208" t="n">
-        <v>5816249.876</v>
+        <v>19218055.445</v>
       </c>
     </row>
     <row r="5209">
       <c r="A5209" t="inlineStr">
         <is>
-          <t>2016-10-09</t>
+          <t>2013-12-16</t>
         </is>
       </c>
       <c r="B5209" t="n">
-        <v>4052991.609</v>
+        <v>5816249.876</v>
       </c>
     </row>
     <row r="5210">
       <c r="A5210" t="inlineStr">
         <is>
-          <t>2014-11-04</t>
+          <t>2016-10-09</t>
         </is>
       </c>
       <c r="B5210" t="n">
-        <v>2855446.32</v>
+        <v>4052991.609</v>
       </c>
     </row>
     <row r="5211">
       <c r="A5211" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2014-11-04</t>
         </is>
       </c>
       <c r="B5211" t="n">
-        <v>9252340.935000001</v>
+        <v>2855446.32</v>
       </c>
     </row>
     <row r="5212">
       <c r="A5212" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
       <c r="B5212" t="n">
-        <v>14880148.605</v>
+        <v>9252340.935000001</v>
       </c>
     </row>
     <row r="5213">
       <c r="A5213" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B5213" t="n">
-        <v>12724123.607</v>
+        <v>14880148.605</v>
       </c>
     </row>
     <row r="5214">
       <c r="A5214" t="inlineStr">
         <is>
-          <t>2019-08-21</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B5214" t="n">
-        <v>12393381.677</v>
+        <v>12724123.607</v>
       </c>
     </row>
     <row r="5215">
       <c r="A5215" t="inlineStr">
         <is>
-          <t>2021-12-01</t>
+          <t>2019-08-21</t>
         </is>
       </c>
       <c r="B5215" t="n">
-        <v>9613862.286</v>
+        <v>12393381.677</v>
       </c>
     </row>
     <row r="5216">
       <c r="A5216" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="B5216" t="n">
-        <v>18218036.776</v>
+        <v>9613862.286</v>
       </c>
     </row>
     <row r="5217">
       <c r="A5217" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B5217" t="n">
-        <v>16265749.775</v>
+        <v>18218036.776</v>
       </c>
     </row>
     <row r="5218">
       <c r="A5218" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2024-07-27</t>
         </is>
       </c>
       <c r="B5218" t="n">
-        <v>16670126.739</v>
+        <v>16265749.775</v>
       </c>
     </row>
     <row r="5219">
       <c r="A5219" t="inlineStr">
         <is>
-          <t>2013-12-26</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="B5219" t="n">
-        <v>6915819.538</v>
+        <v>16670126.739</v>
       </c>
     </row>
     <row r="5220">
       <c r="A5220" t="inlineStr">
         <is>
-          <t>2014-11-12</t>
+          <t>2013-12-26</t>
         </is>
       </c>
       <c r="B5220" t="n">
-        <v>3023467.834</v>
+        <v>6915819.538</v>
       </c>
     </row>
     <row r="5221">
       <c r="A5221" t="inlineStr">
         <is>
-          <t>2010-09-24</t>
+          <t>2014-11-12</t>
         </is>
       </c>
       <c r="B5221" t="n">
-        <v>112259.447</v>
+        <v>3023467.834</v>
       </c>
     </row>
     <row r="5222">
       <c r="A5222" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2010-09-24</t>
         </is>
       </c>
       <c r="B5222" t="n">
-        <v>18095870.058</v>
+        <v>112259.447</v>
       </c>
     </row>
     <row r="5223">
@@ -52666,3000 +52666,3010 @@
     <row r="5224">
       <c r="A5224" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B5224" t="n">
-        <v>19014663.42</v>
+        <v>18095870.058</v>
       </c>
     </row>
     <row r="5225">
       <c r="A5225" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="B5225" t="n">
-        <v>9408798.934</v>
+        <v>19014663.42</v>
       </c>
     </row>
     <row r="5226">
       <c r="A5226" t="inlineStr">
         <is>
-          <t>2019-09-19</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B5226" t="n">
-        <v>11427939.892</v>
+        <v>9408798.934</v>
       </c>
     </row>
     <row r="5227">
       <c r="A5227" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
+          <t>2019-09-19</t>
         </is>
       </c>
       <c r="B5227" t="n">
-        <v>9957806.918</v>
+        <v>11427939.892</v>
       </c>
     </row>
     <row r="5228">
       <c r="A5228" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="B5228" t="n">
-        <v>17239012.79</v>
+        <v>9957806.918</v>
       </c>
     </row>
     <row r="5229">
       <c r="A5229" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B5229" t="n">
-        <v>11167233.165</v>
+        <v>17239012.79</v>
       </c>
     </row>
     <row r="5230">
       <c r="A5230" t="inlineStr">
         <is>
-          <t>2016-12-09</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B5230" t="n">
-        <v>5405479.025</v>
+        <v>11167233.165</v>
       </c>
     </row>
     <row r="5231">
       <c r="A5231" t="inlineStr">
         <is>
-          <t>2014-01-10</t>
+          <t>2016-12-09</t>
         </is>
       </c>
       <c r="B5231" t="n">
-        <v>6911767.667</v>
+        <v>5405479.025</v>
       </c>
     </row>
     <row r="5232">
       <c r="A5232" t="inlineStr">
         <is>
-          <t>2014-11-18</t>
+          <t>2014-01-10</t>
         </is>
       </c>
       <c r="B5232" t="n">
-        <v>3039813.332</v>
+        <v>6911767.667</v>
       </c>
     </row>
     <row r="5233">
       <c r="A5233" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2014-11-18</t>
         </is>
       </c>
       <c r="B5233" t="n">
-        <v>10958641.073</v>
+        <v>3039813.332</v>
       </c>
     </row>
     <row r="5234">
       <c r="A5234" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B5234" t="n">
-        <v>10512254.974</v>
+        <v>10958641.073</v>
       </c>
     </row>
     <row r="5235">
       <c r="A5235" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B5235" t="n">
-        <v>18752011.913</v>
+        <v>10512254.974</v>
       </c>
     </row>
     <row r="5236">
       <c r="A5236" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B5236" t="n">
-        <v>18684510.463</v>
+        <v>18752011.913</v>
       </c>
     </row>
     <row r="5237">
       <c r="A5237" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B5237" t="n">
-        <v>9947791.287</v>
+        <v>18684510.463</v>
       </c>
     </row>
     <row r="5238">
       <c r="A5238" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="B5238" t="n">
-        <v>8830961.847999999</v>
+        <v>9947791.287</v>
       </c>
     </row>
     <row r="5239">
       <c r="A5239" t="inlineStr">
         <is>
-          <t>2014-01-19</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="B5239" t="n">
-        <v>6709581.37</v>
+        <v>8830961.847999999</v>
       </c>
     </row>
     <row r="5240">
       <c r="A5240" t="inlineStr">
         <is>
-          <t>2016-12-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
       <c r="B5240" t="n">
-        <v>5441150.314</v>
+        <v>6709581.37</v>
       </c>
     </row>
     <row r="5241">
       <c r="A5241" t="inlineStr">
         <is>
-          <t>2014-12-15</t>
+          <t>2016-12-14</t>
         </is>
       </c>
       <c r="B5241" t="n">
-        <v>3652983.074</v>
+        <v>5441150.314</v>
       </c>
     </row>
     <row r="5242">
       <c r="A5242" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2014-12-15</t>
         </is>
       </c>
       <c r="B5242" t="n">
-        <v>14765108.135</v>
+        <v>3652983.074</v>
       </c>
     </row>
     <row r="5243">
       <c r="A5243" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B5243" t="n">
-        <v>10407093</v>
+        <v>14765108.135</v>
       </c>
     </row>
     <row r="5244">
       <c r="A5244" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B5244" t="n">
-        <v>12989124.134</v>
+        <v>10407093</v>
       </c>
     </row>
     <row r="5245">
       <c r="A5245" t="inlineStr">
         <is>
-          <t>2019-10-25</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="B5245" t="n">
-        <v>10081112.066</v>
+        <v>12989124.134</v>
       </c>
     </row>
     <row r="5246">
       <c r="A5246" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="B5246" t="n">
-        <v>9996728.27</v>
+        <v>10081112.066</v>
       </c>
     </row>
     <row r="5247">
       <c r="A5247" t="inlineStr">
         <is>
-          <t>2014-01-20</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="B5247" t="n">
-        <v>6614252.892</v>
+        <v>9996728.27</v>
       </c>
     </row>
     <row r="5248">
       <c r="A5248" t="inlineStr">
         <is>
-          <t>2016-12-30</t>
+          <t>2014-01-20</t>
         </is>
       </c>
       <c r="B5248" t="n">
-        <v>6503628.164</v>
+        <v>6614252.892</v>
       </c>
     </row>
     <row r="5249">
       <c r="A5249" t="inlineStr">
         <is>
-          <t>2014-12-22</t>
+          <t>2016-12-30</t>
         </is>
       </c>
       <c r="B5249" t="n">
-        <v>3563708.16</v>
+        <v>6503628.164</v>
       </c>
     </row>
     <row r="5250">
       <c r="A5250" t="inlineStr">
         <is>
-          <t>2010-09-21</t>
+          <t>2014-12-22</t>
         </is>
       </c>
       <c r="B5250" t="n">
-        <v>111207.989</v>
+        <v>3563708.16</v>
       </c>
     </row>
     <row r="5251">
       <c r="A5251" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2010-09-21</t>
         </is>
       </c>
       <c r="B5251" t="n">
-        <v>19753403.705</v>
+        <v>111207.989</v>
       </c>
     </row>
     <row r="5252">
       <c r="A5252" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B5252" t="n">
-        <v>8145349.405</v>
+        <v>19753403.705</v>
       </c>
     </row>
     <row r="5253">
       <c r="A5253" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B5253" t="n">
-        <v>8685248.65</v>
+        <v>8145349.405</v>
       </c>
     </row>
     <row r="5254">
       <c r="A5254" t="inlineStr">
         <is>
-          <t>2014-01-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="B5254" t="n">
-        <v>6168423.578</v>
+        <v>8685248.65</v>
       </c>
     </row>
     <row r="5255">
       <c r="A5255" t="inlineStr">
         <is>
-          <t>2017-01-29</t>
+          <t>2014-01-23</t>
         </is>
       </c>
       <c r="B5255" t="n">
-        <v>7399149.518</v>
+        <v>6168423.578</v>
       </c>
     </row>
     <row r="5256">
       <c r="A5256" t="inlineStr">
         <is>
-          <t>2014-12-28</t>
+          <t>2017-01-29</t>
         </is>
       </c>
       <c r="B5256" t="n">
-        <v>3660548.296</v>
+        <v>7399149.518</v>
       </c>
     </row>
     <row r="5257">
       <c r="A5257" t="inlineStr">
         <is>
-          <t>2011-07-03</t>
+          <t>2014-12-28</t>
         </is>
       </c>
       <c r="B5257" t="n">
-        <v>1736677.834</v>
+        <v>3660548.296</v>
       </c>
     </row>
     <row r="5258">
       <c r="A5258" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2011-07-03</t>
         </is>
       </c>
       <c r="B5258" t="n">
-        <v>18949481.536</v>
+        <v>1736677.834</v>
       </c>
     </row>
     <row r="5259">
       <c r="A5259" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="B5259" t="n">
-        <v>12847069.898</v>
+        <v>18949481.536</v>
       </c>
     </row>
     <row r="5260">
       <c r="A5260" t="inlineStr">
         <is>
-          <t>2019-12-29</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B5260" t="n">
-        <v>8042178.284</v>
+        <v>12847069.898</v>
       </c>
     </row>
     <row r="5261">
       <c r="A5261" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2019-12-29</t>
         </is>
       </c>
       <c r="B5261" t="n">
-        <v>9941198.092</v>
+        <v>8042178.284</v>
       </c>
     </row>
     <row r="5262">
       <c r="A5262" t="inlineStr">
         <is>
-          <t>2014-02-10</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="B5262" t="n">
-        <v>6482705.217</v>
+        <v>9941198.092</v>
       </c>
     </row>
     <row r="5263">
       <c r="A5263" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2014-02-10</t>
         </is>
       </c>
       <c r="B5263" t="n">
-        <v>3639884.552</v>
+        <v>6482705.217</v>
       </c>
     </row>
     <row r="5264">
       <c r="A5264" t="inlineStr">
         <is>
-          <t>2011-09-13</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="B5264" t="n">
-        <v>992731.454</v>
+        <v>3639884.552</v>
       </c>
     </row>
     <row r="5265">
       <c r="A5265" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2011-09-13</t>
         </is>
       </c>
       <c r="B5265" t="n">
-        <v>12025387.77</v>
+        <v>992731.454</v>
       </c>
     </row>
     <row r="5266">
       <c r="A5266" t="inlineStr">
         <is>
-          <t>2017-02-14</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B5266" t="n">
-        <v>7583332.734</v>
+        <v>12025387.77</v>
       </c>
     </row>
     <row r="5267">
       <c r="A5267" t="inlineStr">
         <is>
-          <t>2017-04-03</t>
+          <t>2017-02-14</t>
         </is>
       </c>
       <c r="B5267" t="n">
-        <v>9243648.802999999</v>
+        <v>7583332.734</v>
       </c>
     </row>
     <row r="5268">
       <c r="A5268" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2017-04-03</t>
         </is>
       </c>
       <c r="B5268" t="n">
-        <v>11517746.211</v>
+        <v>9243648.802999999</v>
       </c>
     </row>
     <row r="5269">
       <c r="A5269" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B5269" t="n">
-        <v>19403702.941</v>
+        <v>11517746.211</v>
       </c>
     </row>
     <row r="5270">
       <c r="A5270" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B5270" t="n">
-        <v>7135383.216</v>
+        <v>19403702.941</v>
       </c>
     </row>
     <row r="5271">
       <c r="A5271" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="B5271" t="n">
-        <v>10037167.8</v>
+        <v>7135383.216</v>
       </c>
     </row>
     <row r="5272">
       <c r="A5272" t="inlineStr">
         <is>
-          <t>2014-02-14</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="B5272" t="n">
-        <v>6165888.39</v>
+        <v>10037167.8</v>
       </c>
     </row>
     <row r="5273">
       <c r="A5273" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2014-02-14</t>
         </is>
       </c>
       <c r="B5273" t="n">
-        <v>18605805.647</v>
+        <v>6165888.39</v>
       </c>
     </row>
     <row r="5274">
       <c r="A5274" t="inlineStr">
         <is>
-          <t>2017-02-15</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B5274" t="n">
-        <v>7448825.404</v>
+        <v>18605805.647</v>
       </c>
     </row>
     <row r="5275">
       <c r="A5275" t="inlineStr">
         <is>
-          <t>2015-01-18</t>
+          <t>2017-02-15</t>
         </is>
       </c>
       <c r="B5275" t="n">
-        <v>4062626.204</v>
+        <v>7448825.404</v>
       </c>
     </row>
     <row r="5276">
       <c r="A5276" t="inlineStr">
         <is>
-          <t>2011-09-27</t>
+          <t>2015-01-18</t>
         </is>
       </c>
       <c r="B5276" t="n">
-        <v>744327.885</v>
+        <v>4062626.204</v>
       </c>
     </row>
     <row r="5277">
       <c r="A5277" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2011-09-27</t>
         </is>
       </c>
       <c r="B5277" t="n">
-        <v>18754649.599</v>
+        <v>744327.885</v>
       </c>
     </row>
     <row r="5278">
       <c r="A5278" t="inlineStr">
         <is>
-          <t>2017-08-24</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B5278" t="n">
-        <v>19382954.778</v>
+        <v>18754649.599</v>
       </c>
     </row>
     <row r="5279">
       <c r="A5279" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2017-08-24</t>
         </is>
       </c>
       <c r="B5279" t="n">
-        <v>8319527.642</v>
+        <v>19382954.778</v>
       </c>
     </row>
     <row r="5280">
       <c r="A5280" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B5280" t="n">
-        <v>10152904.599</v>
+        <v>8319527.642</v>
       </c>
     </row>
     <row r="5281">
       <c r="A5281" t="inlineStr">
         <is>
-          <t>2014-02-26</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="B5281" t="n">
-        <v>4892785.663</v>
+        <v>10152904.599</v>
       </c>
     </row>
     <row r="5282">
       <c r="A5282" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2014-02-26</t>
         </is>
       </c>
       <c r="B5282" t="n">
-        <v>15630701.474</v>
+        <v>4892785.663</v>
       </c>
     </row>
     <row r="5283">
       <c r="A5283" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B5283" t="n">
-        <v>11711443.8</v>
+        <v>15630701.474</v>
       </c>
     </row>
     <row r="5284">
       <c r="A5284" t="inlineStr">
         <is>
-          <t>2017-03-06</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B5284" t="n">
-        <v>7818647.054</v>
+        <v>11711443.8</v>
       </c>
     </row>
     <row r="5285">
       <c r="A5285" t="inlineStr">
         <is>
-          <t>2015-01-26</t>
+          <t>2017-03-06</t>
         </is>
       </c>
       <c r="B5285" t="n">
-        <v>4227141.883</v>
+        <v>7818647.054</v>
       </c>
     </row>
     <row r="5286">
       <c r="A5286" t="inlineStr">
         <is>
-          <t>2011-10-11</t>
+          <t>2015-01-26</t>
         </is>
       </c>
       <c r="B5286" t="n">
-        <v>733876.334</v>
+        <v>4227141.883</v>
       </c>
     </row>
     <row r="5287">
       <c r="A5287" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2011-10-11</t>
         </is>
       </c>
       <c r="B5287" t="n">
-        <v>11437944.275</v>
+        <v>733876.334</v>
       </c>
     </row>
     <row r="5288">
       <c r="A5288" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B5288" t="n">
-        <v>8278468.575</v>
+        <v>11437944.275</v>
       </c>
     </row>
     <row r="5289">
       <c r="A5289" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B5289" t="n">
-        <v>8620307.16</v>
+        <v>8278468.575</v>
       </c>
     </row>
     <row r="5290">
       <c r="A5290" t="inlineStr">
         <is>
-          <t>2014-03-15</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="B5290" t="n">
-        <v>6519122.467</v>
+        <v>8620307.16</v>
       </c>
     </row>
     <row r="5291">
       <c r="A5291" t="inlineStr">
         <is>
-          <t>2017-03-12</t>
+          <t>2014-03-15</t>
         </is>
       </c>
       <c r="B5291" t="n">
-        <v>8015167.541</v>
+        <v>6519122.467</v>
       </c>
     </row>
     <row r="5292">
       <c r="A5292" t="inlineStr">
         <is>
-          <t>2015-02-02</t>
+          <t>2017-03-12</t>
         </is>
       </c>
       <c r="B5292" t="n">
-        <v>4214903.008</v>
+        <v>8015167.541</v>
       </c>
     </row>
     <row r="5293">
       <c r="A5293" t="inlineStr">
         <is>
-          <t>2011-10-28</t>
+          <t>2015-02-02</t>
         </is>
       </c>
       <c r="B5293" t="n">
-        <v>735721.417</v>
+        <v>4214903.008</v>
       </c>
     </row>
     <row r="5294">
       <c r="A5294" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="B5294" t="n">
-        <v>18201448.889</v>
+        <v>735721.417</v>
       </c>
     </row>
     <row r="5295">
       <c r="A5295" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B5295" t="n">
-        <v>12856671.682</v>
+        <v>18201448.889</v>
       </c>
     </row>
     <row r="5296">
       <c r="A5296" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B5296" t="n">
-        <v>7919062.632</v>
+        <v>12856671.682</v>
       </c>
     </row>
     <row r="5297">
       <c r="A5297" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B5297" t="n">
-        <v>9519524.592</v>
+        <v>7919062.632</v>
       </c>
     </row>
     <row r="5298">
       <c r="A5298" t="inlineStr">
         <is>
-          <t>2014-03-18</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="B5298" t="n">
-        <v>6370558.748</v>
+        <v>9519524.592</v>
       </c>
     </row>
     <row r="5299">
       <c r="A5299" t="inlineStr">
         <is>
-          <t>2017-03-21</t>
+          <t>2014-03-18</t>
         </is>
       </c>
       <c r="B5299" t="n">
-        <v>8412562.749</v>
+        <v>6370558.748</v>
       </c>
     </row>
     <row r="5300">
       <c r="A5300" t="inlineStr">
         <is>
-          <t>2015-02-09</t>
+          <t>2017-03-21</t>
         </is>
       </c>
       <c r="B5300" t="n">
-        <v>4096290.662</v>
+        <v>8412562.749</v>
       </c>
     </row>
     <row r="5301">
       <c r="A5301" t="inlineStr">
         <is>
-          <t>2011-10-31</t>
+          <t>2015-02-09</t>
         </is>
       </c>
       <c r="B5301" t="n">
-        <v>732160.326</v>
+        <v>4096290.662</v>
       </c>
     </row>
     <row r="5302">
       <c r="A5302" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2011-10-31</t>
         </is>
       </c>
       <c r="B5302" t="n">
-        <v>7287456.154</v>
+        <v>732160.326</v>
       </c>
     </row>
     <row r="5303">
       <c r="A5303" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B5303" t="n">
-        <v>9308642.501</v>
+        <v>7287456.154</v>
       </c>
     </row>
     <row r="5304">
       <c r="A5304" t="inlineStr">
         <is>
-          <t>2014-04-06</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="B5304" t="n">
-        <v>5505621.837</v>
+        <v>9308642.501</v>
       </c>
     </row>
     <row r="5305">
       <c r="A5305" t="inlineStr">
         <is>
-          <t>2017-04-09</t>
+          <t>2014-04-06</t>
         </is>
       </c>
       <c r="B5305" t="n">
-        <v>8810606.551000001</v>
+        <v>5505621.837</v>
       </c>
     </row>
     <row r="5306">
       <c r="A5306" t="inlineStr">
         <is>
-          <t>2015-03-02</t>
+          <t>2017-04-09</t>
         </is>
       </c>
       <c r="B5306" t="n">
-        <v>3933274.224</v>
+        <v>8810606.551000001</v>
       </c>
     </row>
     <row r="5307">
       <c r="A5307" t="inlineStr">
         <is>
-          <t>2011-11-14</t>
+          <t>2015-03-02</t>
         </is>
       </c>
       <c r="B5307" t="n">
-        <v>826121.591</v>
+        <v>3933274.224</v>
       </c>
     </row>
     <row r="5308">
       <c r="A5308" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2011-11-14</t>
         </is>
       </c>
       <c r="B5308" t="n">
-        <v>10333719.079</v>
+        <v>826121.591</v>
       </c>
     </row>
     <row r="5309">
       <c r="A5309" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B5309" t="n">
-        <v>6907432.252</v>
+        <v>10333719.079</v>
       </c>
     </row>
     <row r="5310">
       <c r="A5310" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B5310" t="n">
-        <v>9481051.257999999</v>
+        <v>6907432.252</v>
       </c>
     </row>
     <row r="5311">
       <c r="A5311" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="B5311" t="n">
-        <v>16829264.336</v>
+        <v>9481051.257999999</v>
       </c>
     </row>
     <row r="5312">
       <c r="A5312" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B5312" t="n">
-        <v>10843259.392</v>
+        <v>16829264.336</v>
       </c>
     </row>
     <row r="5313">
       <c r="A5313" t="inlineStr">
         <is>
-          <t>2014-04-27</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B5313" t="n">
-        <v>5438426.506</v>
+        <v>10843259.392</v>
       </c>
     </row>
     <row r="5314">
       <c r="A5314" t="inlineStr">
         <is>
-          <t>2015-03-09</t>
+          <t>2014-04-27</t>
         </is>
       </c>
       <c r="B5314" t="n">
-        <v>3900348.066</v>
+        <v>5438426.506</v>
       </c>
     </row>
     <row r="5315">
       <c r="A5315" t="inlineStr">
         <is>
-          <t>2011-11-16</t>
+          <t>2015-03-09</t>
         </is>
       </c>
       <c r="B5315" t="n">
-        <v>1048736.803</v>
+        <v>3900348.066</v>
       </c>
     </row>
     <row r="5316">
       <c r="A5316" t="inlineStr">
         <is>
-          <t>2017-04-20</t>
+          <t>2011-11-16</t>
         </is>
       </c>
       <c r="B5316" t="n">
-        <v>8967425.550000001</v>
+        <v>1048736.803</v>
       </c>
     </row>
     <row r="5317">
       <c r="A5317" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2017-04-20</t>
         </is>
       </c>
       <c r="B5317" t="n">
-        <v>12827728.942</v>
+        <v>8967425.550000001</v>
       </c>
     </row>
     <row r="5318">
       <c r="A5318" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B5318" t="n">
-        <v>6721984.554</v>
+        <v>12827728.942</v>
       </c>
     </row>
     <row r="5319">
       <c r="A5319" t="inlineStr">
         <is>
-          <t>2022-08-06</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="B5319" t="n">
-        <v>9532015.716</v>
+        <v>6721984.554</v>
       </c>
     </row>
     <row r="5320">
       <c r="A5320" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="B5320" t="n">
-        <v>16884075.838</v>
+        <v>9532015.716</v>
       </c>
     </row>
     <row r="5321">
       <c r="A5321" t="inlineStr">
         <is>
-          <t>2014-06-01</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B5321" t="n">
-        <v>4343530.167</v>
+        <v>16884075.838</v>
       </c>
     </row>
     <row r="5322">
       <c r="A5322" t="inlineStr">
         <is>
-          <t>2015-03-22</t>
+          <t>2014-06-01</t>
         </is>
       </c>
       <c r="B5322" t="n">
-        <v>4135797.457</v>
+        <v>4343530.167</v>
       </c>
     </row>
     <row r="5323">
       <c r="A5323" t="inlineStr">
         <is>
-          <t>2017-04-30</t>
+          <t>2015-03-22</t>
         </is>
       </c>
       <c r="B5323" t="n">
-        <v>8922467.217</v>
+        <v>4135797.457</v>
       </c>
     </row>
     <row r="5324">
       <c r="A5324" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2017-04-30</t>
         </is>
       </c>
       <c r="B5324" t="n">
-        <v>1086764.653</v>
+        <v>8922467.217</v>
       </c>
     </row>
     <row r="5325">
       <c r="A5325" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2011-11-19</t>
         </is>
       </c>
       <c r="B5325" t="n">
-        <v>13592327.934</v>
+        <v>1086764.653</v>
       </c>
     </row>
     <row r="5326">
       <c r="A5326" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B5326" t="n">
-        <v>18930025.11</v>
+        <v>13592327.934</v>
       </c>
     </row>
     <row r="5327">
       <c r="A5327" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="B5327" t="n">
-        <v>17480511.655</v>
+        <v>18930025.11</v>
       </c>
     </row>
     <row r="5328">
       <c r="A5328" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B5328" t="n">
-        <v>15295963.935</v>
+        <v>17480511.655</v>
       </c>
     </row>
     <row r="5329">
       <c r="A5329" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="B5329" t="n">
-        <v>5802826.225</v>
+        <v>15295963.935</v>
       </c>
     </row>
     <row r="5330">
       <c r="A5330" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="B5330" t="n">
-        <v>8363509.02</v>
+        <v>5802826.225</v>
       </c>
     </row>
     <row r="5331">
       <c r="A5331" t="inlineStr">
         <is>
-          <t>2014-06-28</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="B5331" t="n">
-        <v>2686947.84</v>
+        <v>8363509.02</v>
       </c>
     </row>
     <row r="5332">
       <c r="A5332" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2014-06-28</t>
         </is>
       </c>
       <c r="B5332" t="n">
-        <v>11641354.93</v>
+        <v>2686947.84</v>
       </c>
     </row>
     <row r="5333">
       <c r="A5333" t="inlineStr">
         <is>
-          <t>2017-05-17</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B5333" t="n">
-        <v>10300409.588</v>
+        <v>11641354.93</v>
       </c>
     </row>
     <row r="5334">
       <c r="A5334" t="inlineStr">
         <is>
-          <t>2015-03-29</t>
+          <t>2017-05-17</t>
         </is>
       </c>
       <c r="B5334" t="n">
-        <v>3988633.591</v>
+        <v>10300409.588</v>
       </c>
     </row>
     <row r="5335">
       <c r="A5335" t="inlineStr">
         <is>
-          <t>2011-12-03</t>
+          <t>2015-03-29</t>
         </is>
       </c>
       <c r="B5335" t="n">
-        <v>1095387.925</v>
+        <v>3988633.591</v>
       </c>
     </row>
     <row r="5336">
       <c r="A5336" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2011-12-03</t>
         </is>
       </c>
       <c r="B5336" t="n">
-        <v>17359924.278</v>
+        <v>1095387.925</v>
       </c>
     </row>
     <row r="5337">
       <c r="A5337" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="B5337" t="n">
-        <v>16833334.95</v>
+        <v>17359924.278</v>
       </c>
     </row>
     <row r="5338">
       <c r="A5338" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B5338" t="n">
-        <v>10236215.389</v>
+        <v>16833334.95</v>
       </c>
     </row>
     <row r="5339">
       <c r="A5339" t="inlineStr">
         <is>
-          <t>2017-06-01</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B5339" t="n">
-        <v>11531744.112</v>
+        <v>10236215.389</v>
       </c>
     </row>
     <row r="5340">
       <c r="A5340" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2017-06-01</t>
         </is>
       </c>
       <c r="B5340" t="n">
-        <v>6065155.983</v>
+        <v>11531744.112</v>
       </c>
     </row>
     <row r="5341">
       <c r="A5341" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="B5341" t="n">
-        <v>8049967.714</v>
+        <v>6065155.983</v>
       </c>
     </row>
     <row r="5342">
       <c r="A5342" t="inlineStr">
         <is>
-          <t>2024-07-13</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="B5342" t="n">
-        <v>15731904.375</v>
+        <v>8049967.714</v>
       </c>
     </row>
     <row r="5343">
       <c r="A5343" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="B5343" t="n">
-        <v>2436383.016</v>
+        <v>15731904.375</v>
       </c>
     </row>
     <row r="5344">
       <c r="A5344" t="inlineStr">
         <is>
-          <t>2015-04-06</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="B5344" t="n">
-        <v>3694404.674</v>
+        <v>2436383.016</v>
       </c>
     </row>
     <row r="5345">
       <c r="A5345" t="inlineStr">
         <is>
-          <t>2011-12-17</t>
+          <t>2015-04-06</t>
         </is>
       </c>
       <c r="B5345" t="n">
-        <v>1066127.172</v>
+        <v>3694404.674</v>
       </c>
     </row>
     <row r="5346">
       <c r="A5346" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2011-12-17</t>
         </is>
       </c>
       <c r="B5346" t="n">
-        <v>19357870.444</v>
+        <v>1066127.172</v>
       </c>
     </row>
     <row r="5347">
       <c r="A5347" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B5347" t="n">
-        <v>9506750.107999999</v>
+        <v>19357870.444</v>
       </c>
     </row>
     <row r="5348">
       <c r="A5348" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="B5348" t="n">
-        <v>18249350.163</v>
+        <v>9506750.107999999</v>
       </c>
     </row>
     <row r="5349">
       <c r="A5349" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B5349" t="n">
-        <v>10121188.898</v>
+        <v>18249350.163</v>
       </c>
     </row>
     <row r="5350">
       <c r="A5350" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B5350" t="n">
-        <v>18172193.247</v>
+        <v>10121188.898</v>
       </c>
     </row>
     <row r="5351">
       <c r="A5351" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B5351" t="n">
-        <v>11873870.808</v>
+        <v>18172193.247</v>
       </c>
     </row>
     <row r="5352">
       <c r="A5352" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B5352" t="n">
-        <v>16905626.816</v>
+        <v>11873870.808</v>
       </c>
     </row>
     <row r="5353">
       <c r="A5353" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B5353" t="n">
-        <v>11511228.874</v>
+        <v>16905626.816</v>
       </c>
     </row>
     <row r="5354">
       <c r="A5354" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-05-03</t>
         </is>
       </c>
       <c r="B5354" t="n">
-        <v>18829096.598</v>
+        <v>11511228.874</v>
       </c>
     </row>
     <row r="5355">
       <c r="A5355" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B5355" t="n">
-        <v>11905850.214</v>
+        <v>18829096.598</v>
       </c>
     </row>
     <row r="5356">
       <c r="A5356" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="B5356" t="n">
-        <v>6820551.817</v>
+        <v>11905850.214</v>
       </c>
     </row>
     <row r="5357">
       <c r="A5357" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="B5357" t="n">
-        <v>6358468.879</v>
+        <v>6820551.817</v>
       </c>
     </row>
     <row r="5358">
       <c r="A5358" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="B5358" t="n">
-        <v>14873483.781</v>
+        <v>6358468.879</v>
       </c>
     </row>
     <row r="5359">
       <c r="A5359" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B5359" t="n">
-        <v>11867652.532</v>
+        <v>14873483.781</v>
       </c>
     </row>
     <row r="5360">
       <c r="A5360" t="inlineStr">
         <is>
-          <t>2014-08-06</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B5360" t="n">
-        <v>2826869.713</v>
+        <v>11867652.532</v>
       </c>
     </row>
     <row r="5361">
       <c r="A5361" t="inlineStr">
         <is>
-          <t>2015-04-12</t>
+          <t>2014-08-06</t>
         </is>
       </c>
       <c r="B5361" t="n">
-        <v>3600337.897</v>
+        <v>2826869.713</v>
       </c>
     </row>
     <row r="5362">
       <c r="A5362" t="inlineStr">
         <is>
-          <t>2012-01-03</t>
+          <t>2015-04-12</t>
         </is>
       </c>
       <c r="B5362" t="n">
-        <v>1178238.791</v>
+        <v>3600337.897</v>
       </c>
     </row>
     <row r="5363">
       <c r="A5363" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2012-01-03</t>
         </is>
       </c>
       <c r="B5363" t="n">
-        <v>12210206.289</v>
+        <v>1178238.791</v>
       </c>
     </row>
     <row r="5364">
       <c r="A5364" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B5364" t="n">
-        <v>18211536.318</v>
+        <v>12210206.289</v>
       </c>
     </row>
     <row r="5365">
       <c r="A5365" t="inlineStr">
         <is>
-          <t>2017-08-15</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B5365" t="n">
-        <v>19566598.77</v>
+        <v>18211536.318</v>
       </c>
     </row>
     <row r="5366">
       <c r="A5366" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2017-08-15</t>
         </is>
       </c>
       <c r="B5366" t="n">
-        <v>6837460.05</v>
+        <v>19566598.77</v>
       </c>
     </row>
     <row r="5367">
       <c r="A5367" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="B5367" t="n">
-        <v>8536718.226</v>
+        <v>6837460.05</v>
       </c>
     </row>
     <row r="5368">
       <c r="A5368" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B5368" t="n">
-        <v>19772264.652</v>
+        <v>8536718.226</v>
       </c>
     </row>
     <row r="5369">
       <c r="A5369" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="B5369" t="n">
-        <v>16050259.512</v>
+        <v>19772264.652</v>
       </c>
     </row>
     <row r="5370">
       <c r="A5370" t="inlineStr">
         <is>
-          <t>2014-08-18</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B5370" t="n">
-        <v>2925697.333</v>
+        <v>16050259.512</v>
       </c>
     </row>
     <row r="5371">
       <c r="A5371" t="inlineStr">
         <is>
-          <t>2015-04-19</t>
+          <t>2014-08-18</t>
         </is>
       </c>
       <c r="B5371" t="n">
-        <v>3445407.103</v>
+        <v>2925697.333</v>
       </c>
     </row>
     <row r="5372">
       <c r="A5372" t="inlineStr">
         <is>
-          <t>2012-01-20</t>
+          <t>2015-04-19</t>
         </is>
       </c>
       <c r="B5372" t="n">
-        <v>1244736.785</v>
+        <v>3445407.103</v>
       </c>
     </row>
     <row r="5373">
       <c r="A5373" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2012-01-20</t>
         </is>
       </c>
       <c r="B5373" t="n">
-        <v>13510242.654</v>
+        <v>1244736.785</v>
       </c>
     </row>
     <row r="5374">
       <c r="A5374" t="inlineStr">
         <is>
-          <t>2017-08-28</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B5374" t="n">
-        <v>19422838.72</v>
+        <v>13510242.654</v>
       </c>
     </row>
     <row r="5375">
       <c r="A5375" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2017-08-28</t>
         </is>
       </c>
       <c r="B5375" t="n">
-        <v>11104807.404</v>
+        <v>19422838.72</v>
       </c>
     </row>
     <row r="5376">
       <c r="A5376" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="B5376" t="n">
-        <v>10451472.456</v>
+        <v>11104807.404</v>
       </c>
     </row>
     <row r="5377">
       <c r="A5377" t="inlineStr">
         <is>
-          <t>2014-09-13</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B5377" t="n">
-        <v>2524791.779</v>
+        <v>10451472.456</v>
       </c>
     </row>
     <row r="5378">
       <c r="A5378" t="inlineStr">
         <is>
-          <t>2015-04-25</t>
+          <t>2014-09-13</t>
         </is>
       </c>
       <c r="B5378" t="n">
-        <v>3352942.164</v>
+        <v>2524791.779</v>
       </c>
     </row>
     <row r="5379">
       <c r="A5379" t="inlineStr">
         <is>
-          <t>2012-01-21</t>
+          <t>2015-04-25</t>
         </is>
       </c>
       <c r="B5379" t="n">
-        <v>1246443.905</v>
+        <v>3352942.164</v>
       </c>
     </row>
     <row r="5380">
       <c r="A5380" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2012-01-21</t>
         </is>
       </c>
       <c r="B5380" t="n">
-        <v>20351324.136</v>
+        <v>1246443.905</v>
       </c>
     </row>
     <row r="5381">
       <c r="A5381" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B5381" t="n">
-        <v>13491078.904</v>
+        <v>20351324.136</v>
       </c>
     </row>
     <row r="5382">
       <c r="A5382" t="inlineStr">
         <is>
-          <t>2017-09-08</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B5382" t="n">
-        <v>19486335.788</v>
+        <v>13491078.904</v>
       </c>
     </row>
     <row r="5383">
       <c r="A5383" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2017-09-08</t>
         </is>
       </c>
       <c r="B5383" t="n">
-        <v>13156711.485</v>
+        <v>19486335.788</v>
       </c>
     </row>
     <row r="5384">
       <c r="A5384" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B5384" t="n">
-        <v>10510937.957</v>
+        <v>13156711.485</v>
       </c>
     </row>
     <row r="5385">
       <c r="A5385" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="B5385" t="n">
-        <v>15716836.044</v>
+        <v>10510937.957</v>
       </c>
     </row>
     <row r="5386">
       <c r="A5386" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-07-21</t>
         </is>
       </c>
       <c r="B5386" t="n">
-        <v>19939698.057</v>
+        <v>15716836.044</v>
       </c>
     </row>
     <row r="5387">
       <c r="A5387" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B5387" t="n">
-        <v>2628371.334</v>
+        <v>19939698.057</v>
       </c>
     </row>
     <row r="5388">
       <c r="A5388" t="inlineStr">
         <is>
-          <t>2015-05-20</t>
+          <t>2014-10-02</t>
         </is>
       </c>
       <c r="B5388" t="n">
-        <v>3177021.142</v>
+        <v>2628371.334</v>
       </c>
     </row>
     <row r="5389">
       <c r="A5389" t="inlineStr">
         <is>
-          <t>2012-01-26</t>
+          <t>2015-05-20</t>
         </is>
       </c>
       <c r="B5389" t="n">
-        <v>1264128.557</v>
+        <v>3177021.142</v>
       </c>
     </row>
     <row r="5390">
       <c r="A5390" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2012-01-26</t>
         </is>
       </c>
       <c r="B5390" t="n">
-        <v>10152643.862</v>
+        <v>1264128.557</v>
       </c>
     </row>
     <row r="5391">
       <c r="A5391" t="inlineStr">
         <is>
-          <t>2017-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>18137220.352</v>
+        <v>10152643.862</v>
       </c>
     </row>
     <row r="5392">
       <c r="A5392" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2017-09-23</t>
         </is>
       </c>
       <c r="B5392" t="n">
-        <v>18779023.107</v>
+        <v>18137220.352</v>
       </c>
     </row>
     <row r="5393">
       <c r="A5393" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="B5393" t="n">
-        <v>10615483.231</v>
+        <v>18779023.107</v>
       </c>
     </row>
     <row r="5394">
       <c r="A5394" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="B5394" t="n">
-        <v>15795124.861</v>
+        <v>10615483.231</v>
       </c>
     </row>
     <row r="5395">
       <c r="A5395" t="inlineStr">
         <is>
-          <t>2014-10-23</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B5395" t="n">
-        <v>3053937.556</v>
+        <v>15795124.861</v>
       </c>
     </row>
     <row r="5396">
       <c r="A5396" t="inlineStr">
         <is>
-          <t>2015-05-27</t>
+          <t>2014-10-23</t>
         </is>
       </c>
       <c r="B5396" t="n">
-        <v>2974495.006</v>
+        <v>3053937.556</v>
       </c>
     </row>
     <row r="5397">
       <c r="A5397" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2015-05-27</t>
         </is>
       </c>
       <c r="B5397" t="n">
-        <v>1068036.951</v>
+        <v>2974495.006</v>
       </c>
     </row>
     <row r="5398">
       <c r="A5398" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="B5398" t="n">
-        <v>12796519.886</v>
+        <v>1068036.951</v>
       </c>
     </row>
     <row r="5399">
       <c r="A5399" t="inlineStr">
         <is>
-          <t>2017-10-09</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B5399" t="n">
-        <v>19407598.446</v>
+        <v>12796519.886</v>
       </c>
     </row>
     <row r="5400">
       <c r="A5400" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2017-10-09</t>
         </is>
       </c>
       <c r="B5400" t="n">
-        <v>20455744.669</v>
+        <v>19407598.446</v>
       </c>
     </row>
     <row r="5401">
       <c r="A5401" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="B5401" t="n">
-        <v>11376341.238</v>
+        <v>20455744.669</v>
       </c>
     </row>
     <row r="5402">
       <c r="A5402" t="inlineStr">
         <is>
-          <t>2014-11-01</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="B5402" t="n">
-        <v>3044004.834</v>
+        <v>11376341.238</v>
       </c>
     </row>
     <row r="5403">
       <c r="A5403" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2014-11-01</t>
         </is>
       </c>
       <c r="B5403" t="n">
-        <v>2765454.564</v>
+        <v>3044004.834</v>
       </c>
     </row>
     <row r="5404">
       <c r="A5404" t="inlineStr">
         <is>
-          <t>2012-04-02</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="B5404" t="n">
-        <v>1066217.337</v>
+        <v>2765454.564</v>
       </c>
     </row>
     <row r="5405">
       <c r="A5405" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2012-04-02</t>
         </is>
       </c>
       <c r="B5405" t="n">
-        <v>13432763.242</v>
+        <v>1066217.337</v>
       </c>
     </row>
     <row r="5406">
       <c r="A5406" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B5406" t="n">
-        <v>19306849.276</v>
+        <v>13432763.242</v>
       </c>
     </row>
     <row r="5407">
       <c r="A5407" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="B5407" t="n">
-        <v>17904427.701</v>
+        <v>19306849.276</v>
       </c>
     </row>
     <row r="5408">
       <c r="A5408" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="B5408" t="n">
-        <v>11260943.27</v>
+        <v>17904427.701</v>
       </c>
     </row>
     <row r="5409">
       <c r="A5409" t="inlineStr">
         <is>
-          <t>2014-11-19</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="B5409" t="n">
-        <v>3019744.611</v>
+        <v>11260943.27</v>
       </c>
     </row>
     <row r="5410">
       <c r="A5410" t="inlineStr">
         <is>
-          <t>2015-06-09</t>
+          <t>2014-11-19</t>
         </is>
       </c>
       <c r="B5410" t="n">
-        <v>2361717.899</v>
+        <v>3019744.611</v>
       </c>
     </row>
     <row r="5411">
       <c r="A5411" t="inlineStr">
         <is>
-          <t>2012-04-18</t>
+          <t>2015-06-09</t>
         </is>
       </c>
       <c r="B5411" t="n">
-        <v>1080512.495</v>
+        <v>2361717.899</v>
       </c>
     </row>
     <row r="5412">
       <c r="A5412" t="inlineStr">
         <is>
-          <t>2017-11-16</t>
+          <t>2012-04-18</t>
         </is>
       </c>
       <c r="B5412" t="n">
-        <v>15794441.353</v>
+        <v>1080512.495</v>
       </c>
     </row>
     <row r="5413">
       <c r="A5413" t="inlineStr">
         <is>
-          <t>2021-02-12</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="B5413" t="n">
-        <v>18047843.242</v>
+        <v>15794441.353</v>
       </c>
     </row>
     <row r="5414">
       <c r="A5414" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2021-02-12</t>
         </is>
       </c>
       <c r="B5414" t="n">
-        <v>7804497.859</v>
+        <v>18047843.242</v>
       </c>
     </row>
     <row r="5415">
       <c r="A5415" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="B5415" t="n">
-        <v>9877779.377</v>
+        <v>7804497.859</v>
       </c>
     </row>
     <row r="5416">
       <c r="A5416" t="inlineStr">
         <is>
-          <t>2014-12-05</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B5416" t="n">
-        <v>3374566.02</v>
+        <v>9877779.377</v>
       </c>
     </row>
     <row r="5417">
       <c r="A5417" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2014-12-05</t>
         </is>
       </c>
       <c r="B5417" t="n">
-        <v>2394815.633</v>
+        <v>3374566.02</v>
       </c>
     </row>
     <row r="5418">
       <c r="A5418" t="inlineStr">
         <is>
-          <t>2012-05-04</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="B5418" t="n">
-        <v>1211448.82</v>
+        <v>2394815.633</v>
       </c>
     </row>
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2012-05-04</t>
         </is>
       </c>
       <c r="B5419" t="n">
-        <v>9388382.575999999</v>
+        <v>1211448.82</v>
       </c>
     </row>
     <row r="5420">
       <c r="A5420" t="inlineStr">
         <is>
-          <t>2017-11-30</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B5420" t="n">
-        <v>15739620.059</v>
+        <v>9388382.575999999</v>
       </c>
     </row>
     <row r="5421">
       <c r="A5421" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2017-11-30</t>
         </is>
       </c>
       <c r="B5421" t="n">
-        <v>17461848.264</v>
+        <v>15739620.059</v>
       </c>
     </row>
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="B5422" t="n">
-        <v>7349744.434</v>
+        <v>17461848.264</v>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="B5423" t="n">
-        <v>15621689.103</v>
+        <v>7349744.434</v>
       </c>
     </row>
     <row r="5424">
       <c r="A5424" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="B5424" t="n">
-        <v>11149234.035</v>
+        <v>15621689.103</v>
       </c>
     </row>
     <row r="5425">
       <c r="A5425" t="inlineStr">
         <is>
-          <t>2014-12-24</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B5425" t="n">
-        <v>3749367.14</v>
+        <v>11149234.035</v>
       </c>
     </row>
     <row r="5426">
       <c r="A5426" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2014-12-24</t>
         </is>
       </c>
       <c r="B5426" t="n">
-        <v>18799096.649</v>
+        <v>3749367.14</v>
       </c>
     </row>
     <row r="5427">
       <c r="A5427" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B5427" t="n">
-        <v>2573704.983</v>
+        <v>18799096.649</v>
       </c>
     </row>
     <row r="5428">
       <c r="A5428" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="B5428" t="n">
-        <v>1258763.689</v>
+        <v>2573704.983</v>
       </c>
     </row>
     <row r="5429">
       <c r="A5429" t="inlineStr">
         <is>
-          <t>2017-12-01</t>
+          <t>2012-05-21</t>
         </is>
       </c>
       <c r="B5429" t="n">
-        <v>15786676.067</v>
+        <v>1258763.689</v>
       </c>
     </row>
     <row r="5430">
       <c r="A5430" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2017-12-01</t>
         </is>
       </c>
       <c r="B5430" t="n">
-        <v>15009732.42</v>
+        <v>15786676.067</v>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B5431" t="n">
-        <v>8127301.046</v>
+        <v>15009732.42</v>
       </c>
     </row>
     <row r="5432">
       <c r="A5432" t="inlineStr">
         <is>
-          <t>2015-01-11</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="B5432" t="n">
-        <v>3848375.44</v>
+        <v>8127301.046</v>
       </c>
     </row>
     <row r="5433">
       <c r="A5433" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-01-11</t>
         </is>
       </c>
       <c r="B5433" t="n">
-        <v>2511092.261</v>
+        <v>3848375.44</v>
       </c>
     </row>
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>2012-06-06</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="B5434" t="n">
-        <v>1365675.341</v>
+        <v>2511092.261</v>
       </c>
     </row>
     <row r="5435">
       <c r="A5435" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2012-06-06</t>
         </is>
       </c>
       <c r="B5435" t="n">
-        <v>18209088.114</v>
+        <v>1365675.341</v>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B5436" t="n">
-        <v>17645156.999</v>
+        <v>18209088.114</v>
       </c>
     </row>
     <row r="5437">
       <c r="A5437" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="B5437" t="n">
-        <v>13264526.584</v>
+        <v>17645156.999</v>
       </c>
     </row>
     <row r="5438">
       <c r="A5438" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B5438" t="n">
-        <v>8486747.433</v>
+        <v>13264526.584</v>
       </c>
     </row>
     <row r="5439">
       <c r="A5439" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B5439" t="n">
-        <v>4046018.483</v>
+        <v>8486747.433</v>
       </c>
     </row>
     <row r="5440">
       <c r="A5440" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B5440" t="n">
-        <v>2718554.466</v>
+        <v>4046018.483</v>
       </c>
     </row>
     <row r="5441">
       <c r="A5441" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="B5441" t="n">
-        <v>1367243.39</v>
+        <v>2718554.466</v>
       </c>
     </row>
     <row r="5442">
       <c r="A5442" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2012-06-18</t>
         </is>
       </c>
       <c r="B5442" t="n">
-        <v>9114476.312000001</v>
+        <v>1367243.39</v>
       </c>
     </row>
     <row r="5443">
       <c r="A5443" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B5443" t="n">
-        <v>15346852.871</v>
+        <v>9114476.312000001</v>
       </c>
     </row>
     <row r="5444">
       <c r="A5444" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B5444" t="n">
-        <v>12870879.477</v>
+        <v>15346852.871</v>
       </c>
     </row>
     <row r="5445">
       <c r="A5445" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5445" t="n">
-        <v>17780525.245</v>
+        <v>12870879.477</v>
       </c>
     </row>
     <row r="5446">
       <c r="A5446" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B5446" t="n">
-        <v>13194431.726</v>
+        <v>17780525.245</v>
       </c>
     </row>
     <row r="5447">
       <c r="A5447" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B5447" t="n">
-        <v>8346328.634</v>
+        <v>13194431.726</v>
       </c>
     </row>
     <row r="5448">
       <c r="A5448" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="B5448" t="n">
-        <v>16236706.926</v>
+        <v>8346328.634</v>
       </c>
     </row>
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B5449" t="n">
-        <v>16585261.576</v>
+        <v>16236706.926</v>
       </c>
     </row>
     <row r="5450">
       <c r="A5450" t="inlineStr">
         <is>
-          <t>2015-02-10</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5450" t="n">
-        <v>4071380.974</v>
+        <v>16585261.576</v>
       </c>
     </row>
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="B5451" t="n">
-        <v>17968690.541</v>
+        <v>4071380.974</v>
       </c>
     </row>
     <row r="5452">
       <c r="A5452" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5452" t="n">
-        <v>2793932.294</v>
+        <v>17968690.541</v>
       </c>
     </row>
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>1363857.943</v>
+        <v>2793932.294</v>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>18882222.042</v>
+        <v>1363857.943</v>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>9386582.370999999</v>
+        <v>18882222.042</v>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>17890389.899</v>
+        <v>9386582.370999999</v>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5457" t="n">
-        <v>12015164.279</v>
+        <v>17890389.899</v>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>7902657.124</v>
+        <v>12015164.279</v>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>10503343.65</v>
+        <v>7902657.124</v>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>3819509.271</v>
+        <v>10503343.65</v>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>2826416.003</v>
+        <v>3819509.271</v>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>1630324.679</v>
+        <v>2826416.003</v>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>10658742.561</v>
+        <v>1630324.679</v>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>18727823.649</v>
+        <v>10658742.561</v>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>17224052.503</v>
+        <v>18727823.649</v>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>10673931.348</v>
+        <v>17224052.503</v>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5467" t="n">
-        <v>3979751.142</v>
+        <v>10673931.348</v>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5468" t="n">
-        <v>3642872.298</v>
+        <v>3979751.142</v>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5469" t="n">
-        <v>1613219.441</v>
+        <v>3642872.298</v>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>18746833.543</v>
+        <v>1613219.441</v>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>14696488.122</v>
+        <v>18746833.543</v>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>13074131.781</v>
+        <v>14696488.122</v>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>18108889.119</v>
+        <v>13074131.781</v>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>10600975.162</v>
+        <v>18108889.119</v>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>3489354.733</v>
+        <v>10600975.162</v>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>3660667.082</v>
+        <v>3489354.733</v>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>316907.127</v>
+        <v>3660667.082</v>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>1760535.998</v>
+        <v>316907.127</v>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>19760413.223</v>
+        <v>1760535.998</v>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>15296257.118</v>
+        <v>19760413.223</v>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>10677343.165</v>
+        <v>15296257.118</v>
       </c>
     </row>
     <row r="5482">
       <c r="A5482" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>12841467.318</v>
+        <v>10677343.165</v>
       </c>
     </row>
     <row r="5483">
       <c r="A5483" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5483" t="n">
-        <v>3205484.527</v>
+        <v>12841467.318</v>
       </c>
     </row>
     <row r="5484">
       <c r="A5484" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>4648212.458</v>
+        <v>3205484.527</v>
       </c>
     </row>
     <row r="5485">
       <c r="A5485" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>1873037.142</v>
+        <v>4648212.458</v>
       </c>
     </row>
     <row r="5486">
       <c r="A5486" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>19272529.034</v>
+        <v>1873037.142</v>
       </c>
     </row>
     <row r="5487">
       <c r="A5487" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>13193422.783</v>
+        <v>19272529.034</v>
       </c>
     </row>
     <row r="5488">
       <c r="A5488" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>8610177.493000001</v>
+        <v>13193422.783</v>
       </c>
     </row>
     <row r="5489">
       <c r="A5489" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>12225489.867</v>
+        <v>8610177.493000001</v>
       </c>
     </row>
     <row r="5490">
       <c r="A5490" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>2985205.142</v>
+        <v>12225489.867</v>
       </c>
     </row>
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>4603582.061</v>
+        <v>2985205.142</v>
       </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>2093652.744</v>
+        <v>4603582.061</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>11477197.525</v>
+        <v>2093652.744</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>19496972.836</v>
+        <v>11477197.525</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>10566019.663</v>
+        <v>19496972.836</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>8609734.759</v>
+        <v>10566019.663</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>18616838.388</v>
+        <v>8609734.759</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>2392944.256</v>
+        <v>18616838.388</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>4964683.773</v>
+        <v>2392944.256</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>2162784.464</v>
+        <v>4964683.773</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>8046257.588</v>
+        <v>2162784.464</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>8443126.151000001</v>
+        <v>8046257.588</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>8386250.008</v>
+        <v>8443126.151000001</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>2565551.236</v>
+        <v>8386250.008</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>6127123.106</v>
+        <v>2565551.236</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>2157212.824</v>
+        <v>6127123.106</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>11978202.448</v>
+        <v>2157212.824</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>15303734.889</v>
+        <v>11978202.448</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>8103908.652</v>
+        <v>15303734.889</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>9382181.960999999</v>
+        <v>8103908.652</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>16784620.262</v>
+        <v>9382181.960999999</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>16833063.951</v>
+        <v>16784620.262</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>17049245.734</v>
+        <v>16833063.951</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>17115867.282</v>
+        <v>17049245.734</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>17153769.299</v>
+        <v>17115867.282</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>17225229.436</v>
+        <v>17153769.299</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>17249482.25</v>
+        <v>17225229.436</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>17569350.656</v>
+        <v>17249482.25</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>2859270.317</v>
+        <v>17569350.656</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>5532498.781</v>
+        <v>2859270.317</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>2138609.994</v>
+        <v>5532498.781</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>12895454.923</v>
+        <v>2138609.994</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5523" t="n">
+        <v>12895454.923</v>
+      </c>
+    </row>
+    <row r="5524">
+      <c r="A5524" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5523" t="n">
+      <c r="B5524" t="n">
         <v>11691372.317</v>
       </c>
     </row>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5524"/>
+  <dimension ref="A1:B5525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49686,41 +49686,41 @@
     <row r="4926">
       <c r="A4926" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2015-04-27</t>
         </is>
       </c>
       <c r="B4926" t="n">
-        <v>18389579.978</v>
+        <v>3258623.998</v>
       </c>
     </row>
     <row r="4927">
       <c r="A4927" t="inlineStr">
         <is>
-          <t>2015-04-27</t>
+          <t>2012-12-23</t>
         </is>
       </c>
       <c r="B4927" t="n">
-        <v>3258623.998</v>
+        <v>1899621.694</v>
       </c>
     </row>
     <row r="4928">
       <c r="A4928" t="inlineStr">
         <is>
-          <t>2012-12-23</t>
+          <t>2013-04-26</t>
         </is>
       </c>
       <c r="B4928" t="n">
-        <v>1899621.694</v>
+        <v>5662798.756</v>
       </c>
     </row>
     <row r="4929">
       <c r="A4929" t="inlineStr">
         <is>
-          <t>2013-04-26</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B4929" t="n">
-        <v>5662798.756</v>
+        <v>18389579.978</v>
       </c>
     </row>
     <row r="4930">
@@ -52456,31 +52456,31 @@
     <row r="5203">
       <c r="A5203" t="inlineStr">
         <is>
-          <t>2016-09-03</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B5203" t="n">
-        <v>5203377.911</v>
+        <v>18413104.776</v>
       </c>
     </row>
     <row r="5204">
       <c r="A5204" t="inlineStr">
         <is>
-          <t>2014-10-22</t>
+          <t>2016-09-03</t>
         </is>
       </c>
       <c r="B5204" t="n">
-        <v>3035976.286</v>
+        <v>5203377.911</v>
       </c>
     </row>
     <row r="5205">
       <c r="A5205" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2014-10-22</t>
         </is>
       </c>
       <c r="B5205" t="n">
-        <v>18413104.776</v>
+        <v>3035976.286</v>
       </c>
     </row>
     <row r="5206">
@@ -53216,2460 +53216,2470 @@
     <row r="5279">
       <c r="A5279" t="inlineStr">
         <is>
-          <t>2017-08-24</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B5279" t="n">
-        <v>19382954.778</v>
+        <v>18648006.799</v>
       </c>
     </row>
     <row r="5280">
       <c r="A5280" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2017-08-24</t>
         </is>
       </c>
       <c r="B5280" t="n">
-        <v>8319527.642</v>
+        <v>19382954.778</v>
       </c>
     </row>
     <row r="5281">
       <c r="A5281" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B5281" t="n">
-        <v>10152904.599</v>
+        <v>8319527.642</v>
       </c>
     </row>
     <row r="5282">
       <c r="A5282" t="inlineStr">
         <is>
-          <t>2014-02-26</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="B5282" t="n">
-        <v>4892785.663</v>
+        <v>10152904.599</v>
       </c>
     </row>
     <row r="5283">
       <c r="A5283" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2014-02-26</t>
         </is>
       </c>
       <c r="B5283" t="n">
-        <v>15630701.474</v>
+        <v>4892785.663</v>
       </c>
     </row>
     <row r="5284">
       <c r="A5284" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B5284" t="n">
-        <v>11711443.8</v>
+        <v>15630701.474</v>
       </c>
     </row>
     <row r="5285">
       <c r="A5285" t="inlineStr">
         <is>
-          <t>2017-03-06</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B5285" t="n">
-        <v>7818647.054</v>
+        <v>11711443.8</v>
       </c>
     </row>
     <row r="5286">
       <c r="A5286" t="inlineStr">
         <is>
-          <t>2015-01-26</t>
+          <t>2017-03-06</t>
         </is>
       </c>
       <c r="B5286" t="n">
-        <v>4227141.883</v>
+        <v>7818647.054</v>
       </c>
     </row>
     <row r="5287">
       <c r="A5287" t="inlineStr">
         <is>
-          <t>2011-10-11</t>
+          <t>2015-01-26</t>
         </is>
       </c>
       <c r="B5287" t="n">
-        <v>733876.334</v>
+        <v>4227141.883</v>
       </c>
     </row>
     <row r="5288">
       <c r="A5288" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2011-10-11</t>
         </is>
       </c>
       <c r="B5288" t="n">
-        <v>11437944.275</v>
+        <v>733876.334</v>
       </c>
     </row>
     <row r="5289">
       <c r="A5289" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B5289" t="n">
-        <v>8278468.575</v>
+        <v>11437944.275</v>
       </c>
     </row>
     <row r="5290">
       <c r="A5290" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B5290" t="n">
-        <v>8620307.16</v>
+        <v>8278468.575</v>
       </c>
     </row>
     <row r="5291">
       <c r="A5291" t="inlineStr">
         <is>
-          <t>2014-03-15</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="B5291" t="n">
-        <v>6519122.467</v>
+        <v>8620307.16</v>
       </c>
     </row>
     <row r="5292">
       <c r="A5292" t="inlineStr">
         <is>
-          <t>2017-03-12</t>
+          <t>2014-03-15</t>
         </is>
       </c>
       <c r="B5292" t="n">
-        <v>8015167.541</v>
+        <v>6519122.467</v>
       </c>
     </row>
     <row r="5293">
       <c r="A5293" t="inlineStr">
         <is>
-          <t>2015-02-02</t>
+          <t>2017-03-12</t>
         </is>
       </c>
       <c r="B5293" t="n">
-        <v>4214903.008</v>
+        <v>8015167.541</v>
       </c>
     </row>
     <row r="5294">
       <c r="A5294" t="inlineStr">
         <is>
-          <t>2011-10-28</t>
+          <t>2015-02-02</t>
         </is>
       </c>
       <c r="B5294" t="n">
-        <v>735721.417</v>
+        <v>4214903.008</v>
       </c>
     </row>
     <row r="5295">
       <c r="A5295" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="B5295" t="n">
-        <v>18201448.889</v>
+        <v>735721.417</v>
       </c>
     </row>
     <row r="5296">
       <c r="A5296" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B5296" t="n">
-        <v>12856671.682</v>
+        <v>18201448.889</v>
       </c>
     </row>
     <row r="5297">
       <c r="A5297" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B5297" t="n">
-        <v>7919062.632</v>
+        <v>12856671.682</v>
       </c>
     </row>
     <row r="5298">
       <c r="A5298" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B5298" t="n">
-        <v>9519524.592</v>
+        <v>7919062.632</v>
       </c>
     </row>
     <row r="5299">
       <c r="A5299" t="inlineStr">
         <is>
-          <t>2014-03-18</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="B5299" t="n">
-        <v>6370558.748</v>
+        <v>9519524.592</v>
       </c>
     </row>
     <row r="5300">
       <c r="A5300" t="inlineStr">
         <is>
-          <t>2017-03-21</t>
+          <t>2014-03-18</t>
         </is>
       </c>
       <c r="B5300" t="n">
-        <v>8412562.749</v>
+        <v>6370558.748</v>
       </c>
     </row>
     <row r="5301">
       <c r="A5301" t="inlineStr">
         <is>
-          <t>2015-02-09</t>
+          <t>2017-03-21</t>
         </is>
       </c>
       <c r="B5301" t="n">
-        <v>4096290.662</v>
+        <v>8412562.749</v>
       </c>
     </row>
     <row r="5302">
       <c r="A5302" t="inlineStr">
         <is>
-          <t>2011-10-31</t>
+          <t>2015-02-09</t>
         </is>
       </c>
       <c r="B5302" t="n">
-        <v>732160.326</v>
+        <v>4096290.662</v>
       </c>
     </row>
     <row r="5303">
       <c r="A5303" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2011-10-31</t>
         </is>
       </c>
       <c r="B5303" t="n">
-        <v>7287456.154</v>
+        <v>732160.326</v>
       </c>
     </row>
     <row r="5304">
       <c r="A5304" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B5304" t="n">
-        <v>9308642.501</v>
+        <v>7287456.154</v>
       </c>
     </row>
     <row r="5305">
       <c r="A5305" t="inlineStr">
         <is>
-          <t>2014-04-06</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="B5305" t="n">
-        <v>5505621.837</v>
+        <v>9308642.501</v>
       </c>
     </row>
     <row r="5306">
       <c r="A5306" t="inlineStr">
         <is>
-          <t>2017-04-09</t>
+          <t>2014-04-06</t>
         </is>
       </c>
       <c r="B5306" t="n">
-        <v>8810606.551000001</v>
+        <v>5505621.837</v>
       </c>
     </row>
     <row r="5307">
       <c r="A5307" t="inlineStr">
         <is>
-          <t>2015-03-02</t>
+          <t>2017-04-09</t>
         </is>
       </c>
       <c r="B5307" t="n">
-        <v>3933274.224</v>
+        <v>8810606.551000001</v>
       </c>
     </row>
     <row r="5308">
       <c r="A5308" t="inlineStr">
         <is>
-          <t>2011-11-14</t>
+          <t>2015-03-02</t>
         </is>
       </c>
       <c r="B5308" t="n">
-        <v>826121.591</v>
+        <v>3933274.224</v>
       </c>
     </row>
     <row r="5309">
       <c r="A5309" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2011-11-14</t>
         </is>
       </c>
       <c r="B5309" t="n">
-        <v>10333719.079</v>
+        <v>826121.591</v>
       </c>
     </row>
     <row r="5310">
       <c r="A5310" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B5310" t="n">
-        <v>6907432.252</v>
+        <v>10333719.079</v>
       </c>
     </row>
     <row r="5311">
       <c r="A5311" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B5311" t="n">
-        <v>9481051.257999999</v>
+        <v>6907432.252</v>
       </c>
     </row>
     <row r="5312">
       <c r="A5312" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="B5312" t="n">
-        <v>16829264.336</v>
+        <v>9481051.257999999</v>
       </c>
     </row>
     <row r="5313">
       <c r="A5313" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B5313" t="n">
-        <v>10843259.392</v>
+        <v>16829264.336</v>
       </c>
     </row>
     <row r="5314">
       <c r="A5314" t="inlineStr">
         <is>
-          <t>2014-04-27</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B5314" t="n">
-        <v>5438426.506</v>
+        <v>10843259.392</v>
       </c>
     </row>
     <row r="5315">
       <c r="A5315" t="inlineStr">
         <is>
-          <t>2015-03-09</t>
+          <t>2014-04-27</t>
         </is>
       </c>
       <c r="B5315" t="n">
-        <v>3900348.066</v>
+        <v>5438426.506</v>
       </c>
     </row>
     <row r="5316">
       <c r="A5316" t="inlineStr">
         <is>
-          <t>2011-11-16</t>
+          <t>2015-03-09</t>
         </is>
       </c>
       <c r="B5316" t="n">
-        <v>1048736.803</v>
+        <v>3900348.066</v>
       </c>
     </row>
     <row r="5317">
       <c r="A5317" t="inlineStr">
         <is>
-          <t>2017-04-20</t>
+          <t>2011-11-16</t>
         </is>
       </c>
       <c r="B5317" t="n">
-        <v>8967425.550000001</v>
+        <v>1048736.803</v>
       </c>
     </row>
     <row r="5318">
       <c r="A5318" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2017-04-20</t>
         </is>
       </c>
       <c r="B5318" t="n">
-        <v>12827728.942</v>
+        <v>8967425.550000001</v>
       </c>
     </row>
     <row r="5319">
       <c r="A5319" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B5319" t="n">
-        <v>6721984.554</v>
+        <v>12827728.942</v>
       </c>
     </row>
     <row r="5320">
       <c r="A5320" t="inlineStr">
         <is>
-          <t>2022-08-06</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="B5320" t="n">
-        <v>9532015.716</v>
+        <v>6721984.554</v>
       </c>
     </row>
     <row r="5321">
       <c r="A5321" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="B5321" t="n">
-        <v>16884075.838</v>
+        <v>9532015.716</v>
       </c>
     </row>
     <row r="5322">
       <c r="A5322" t="inlineStr">
         <is>
-          <t>2014-06-01</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B5322" t="n">
-        <v>4343530.167</v>
+        <v>16884075.838</v>
       </c>
     </row>
     <row r="5323">
       <c r="A5323" t="inlineStr">
         <is>
-          <t>2015-03-22</t>
+          <t>2014-06-01</t>
         </is>
       </c>
       <c r="B5323" t="n">
-        <v>4135797.457</v>
+        <v>4343530.167</v>
       </c>
     </row>
     <row r="5324">
       <c r="A5324" t="inlineStr">
         <is>
-          <t>2017-04-30</t>
+          <t>2015-03-22</t>
         </is>
       </c>
       <c r="B5324" t="n">
-        <v>8922467.217</v>
+        <v>4135797.457</v>
       </c>
     </row>
     <row r="5325">
       <c r="A5325" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2017-04-30</t>
         </is>
       </c>
       <c r="B5325" t="n">
-        <v>1086764.653</v>
+        <v>8922467.217</v>
       </c>
     </row>
     <row r="5326">
       <c r="A5326" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2011-11-19</t>
         </is>
       </c>
       <c r="B5326" t="n">
-        <v>13592327.934</v>
+        <v>1086764.653</v>
       </c>
     </row>
     <row r="5327">
       <c r="A5327" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B5327" t="n">
-        <v>18930025.11</v>
+        <v>13592327.934</v>
       </c>
     </row>
     <row r="5328">
       <c r="A5328" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="B5328" t="n">
-        <v>17480511.655</v>
+        <v>18930025.11</v>
       </c>
     </row>
     <row r="5329">
       <c r="A5329" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B5329" t="n">
-        <v>15295963.935</v>
+        <v>17480511.655</v>
       </c>
     </row>
     <row r="5330">
       <c r="A5330" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="B5330" t="n">
-        <v>5802826.225</v>
+        <v>15295963.935</v>
       </c>
     </row>
     <row r="5331">
       <c r="A5331" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="B5331" t="n">
-        <v>8363509.02</v>
+        <v>5802826.225</v>
       </c>
     </row>
     <row r="5332">
       <c r="A5332" t="inlineStr">
         <is>
-          <t>2014-06-28</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="B5332" t="n">
-        <v>2686947.84</v>
+        <v>8363509.02</v>
       </c>
     </row>
     <row r="5333">
       <c r="A5333" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2014-06-28</t>
         </is>
       </c>
       <c r="B5333" t="n">
-        <v>11641354.93</v>
+        <v>2686947.84</v>
       </c>
     </row>
     <row r="5334">
       <c r="A5334" t="inlineStr">
         <is>
-          <t>2017-05-17</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B5334" t="n">
-        <v>10300409.588</v>
+        <v>11641354.93</v>
       </c>
     </row>
     <row r="5335">
       <c r="A5335" t="inlineStr">
         <is>
-          <t>2015-03-29</t>
+          <t>2017-05-17</t>
         </is>
       </c>
       <c r="B5335" t="n">
-        <v>3988633.591</v>
+        <v>10300409.588</v>
       </c>
     </row>
     <row r="5336">
       <c r="A5336" t="inlineStr">
         <is>
-          <t>2011-12-03</t>
+          <t>2015-03-29</t>
         </is>
       </c>
       <c r="B5336" t="n">
-        <v>1095387.925</v>
+        <v>3988633.591</v>
       </c>
     </row>
     <row r="5337">
       <c r="A5337" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2011-12-03</t>
         </is>
       </c>
       <c r="B5337" t="n">
-        <v>17359924.278</v>
+        <v>1095387.925</v>
       </c>
     </row>
     <row r="5338">
       <c r="A5338" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="B5338" t="n">
-        <v>16833334.95</v>
+        <v>17359924.278</v>
       </c>
     </row>
     <row r="5339">
       <c r="A5339" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B5339" t="n">
-        <v>10236215.389</v>
+        <v>16833334.95</v>
       </c>
     </row>
     <row r="5340">
       <c r="A5340" t="inlineStr">
         <is>
-          <t>2017-06-01</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B5340" t="n">
-        <v>11531744.112</v>
+        <v>10236215.389</v>
       </c>
     </row>
     <row r="5341">
       <c r="A5341" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2017-06-01</t>
         </is>
       </c>
       <c r="B5341" t="n">
-        <v>6065155.983</v>
+        <v>11531744.112</v>
       </c>
     </row>
     <row r="5342">
       <c r="A5342" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="B5342" t="n">
-        <v>8049967.714</v>
+        <v>6065155.983</v>
       </c>
     </row>
     <row r="5343">
       <c r="A5343" t="inlineStr">
         <is>
-          <t>2024-07-13</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="B5343" t="n">
-        <v>15731904.375</v>
+        <v>8049967.714</v>
       </c>
     </row>
     <row r="5344">
       <c r="A5344" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="B5344" t="n">
-        <v>2436383.016</v>
+        <v>15731904.375</v>
       </c>
     </row>
     <row r="5345">
       <c r="A5345" t="inlineStr">
         <is>
-          <t>2015-04-06</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="B5345" t="n">
-        <v>3694404.674</v>
+        <v>2436383.016</v>
       </c>
     </row>
     <row r="5346">
       <c r="A5346" t="inlineStr">
         <is>
-          <t>2011-12-17</t>
+          <t>2015-04-06</t>
         </is>
       </c>
       <c r="B5346" t="n">
-        <v>1066127.172</v>
+        <v>3694404.674</v>
       </c>
     </row>
     <row r="5347">
       <c r="A5347" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2011-12-17</t>
         </is>
       </c>
       <c r="B5347" t="n">
-        <v>19357870.444</v>
+        <v>1066127.172</v>
       </c>
     </row>
     <row r="5348">
       <c r="A5348" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B5348" t="n">
-        <v>9506750.107999999</v>
+        <v>19357870.444</v>
       </c>
     </row>
     <row r="5349">
       <c r="A5349" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="B5349" t="n">
-        <v>18249350.163</v>
+        <v>9506750.107999999</v>
       </c>
     </row>
     <row r="5350">
       <c r="A5350" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B5350" t="n">
-        <v>10121188.898</v>
+        <v>18249350.163</v>
       </c>
     </row>
     <row r="5351">
       <c r="A5351" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B5351" t="n">
-        <v>18172193.247</v>
+        <v>10121188.898</v>
       </c>
     </row>
     <row r="5352">
       <c r="A5352" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B5352" t="n">
-        <v>11873870.808</v>
+        <v>18172193.247</v>
       </c>
     </row>
     <row r="5353">
       <c r="A5353" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B5353" t="n">
-        <v>16905626.816</v>
+        <v>11873870.808</v>
       </c>
     </row>
     <row r="5354">
       <c r="A5354" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B5354" t="n">
-        <v>11511228.874</v>
+        <v>16905626.816</v>
       </c>
     </row>
     <row r="5355">
       <c r="A5355" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-05-03</t>
         </is>
       </c>
       <c r="B5355" t="n">
-        <v>18829096.598</v>
+        <v>11511228.874</v>
       </c>
     </row>
     <row r="5356">
       <c r="A5356" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B5356" t="n">
-        <v>11905850.214</v>
+        <v>18829096.598</v>
       </c>
     </row>
     <row r="5357">
       <c r="A5357" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="B5357" t="n">
-        <v>6820551.817</v>
+        <v>11905850.214</v>
       </c>
     </row>
     <row r="5358">
       <c r="A5358" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="B5358" t="n">
-        <v>6358468.879</v>
+        <v>6820551.817</v>
       </c>
     </row>
     <row r="5359">
       <c r="A5359" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="B5359" t="n">
-        <v>14873483.781</v>
+        <v>6358468.879</v>
       </c>
     </row>
     <row r="5360">
       <c r="A5360" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B5360" t="n">
-        <v>11867652.532</v>
+        <v>14873483.781</v>
       </c>
     </row>
     <row r="5361">
       <c r="A5361" t="inlineStr">
         <is>
-          <t>2014-08-06</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B5361" t="n">
-        <v>2826869.713</v>
+        <v>11867652.532</v>
       </c>
     </row>
     <row r="5362">
       <c r="A5362" t="inlineStr">
         <is>
-          <t>2015-04-12</t>
+          <t>2014-08-06</t>
         </is>
       </c>
       <c r="B5362" t="n">
-        <v>3600337.897</v>
+        <v>2826869.713</v>
       </c>
     </row>
     <row r="5363">
       <c r="A5363" t="inlineStr">
         <is>
-          <t>2012-01-03</t>
+          <t>2015-04-12</t>
         </is>
       </c>
       <c r="B5363" t="n">
-        <v>1178238.791</v>
+        <v>3600337.897</v>
       </c>
     </row>
     <row r="5364">
       <c r="A5364" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2012-01-03</t>
         </is>
       </c>
       <c r="B5364" t="n">
-        <v>12210206.289</v>
+        <v>1178238.791</v>
       </c>
     </row>
     <row r="5365">
       <c r="A5365" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B5365" t="n">
-        <v>18211536.318</v>
+        <v>12210206.289</v>
       </c>
     </row>
     <row r="5366">
       <c r="A5366" t="inlineStr">
         <is>
-          <t>2017-08-15</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B5366" t="n">
-        <v>19566598.77</v>
+        <v>18211536.318</v>
       </c>
     </row>
     <row r="5367">
       <c r="A5367" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2017-08-15</t>
         </is>
       </c>
       <c r="B5367" t="n">
-        <v>6837460.05</v>
+        <v>19566598.77</v>
       </c>
     </row>
     <row r="5368">
       <c r="A5368" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="B5368" t="n">
-        <v>8536718.226</v>
+        <v>6837460.05</v>
       </c>
     </row>
     <row r="5369">
       <c r="A5369" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B5369" t="n">
-        <v>19772264.652</v>
+        <v>8536718.226</v>
       </c>
     </row>
     <row r="5370">
       <c r="A5370" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="B5370" t="n">
-        <v>16050259.512</v>
+        <v>19772264.652</v>
       </c>
     </row>
     <row r="5371">
       <c r="A5371" t="inlineStr">
         <is>
-          <t>2014-08-18</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B5371" t="n">
-        <v>2925697.333</v>
+        <v>16050259.512</v>
       </c>
     </row>
     <row r="5372">
       <c r="A5372" t="inlineStr">
         <is>
-          <t>2015-04-19</t>
+          <t>2014-08-18</t>
         </is>
       </c>
       <c r="B5372" t="n">
-        <v>3445407.103</v>
+        <v>2925697.333</v>
       </c>
     </row>
     <row r="5373">
       <c r="A5373" t="inlineStr">
         <is>
-          <t>2012-01-20</t>
+          <t>2015-04-19</t>
         </is>
       </c>
       <c r="B5373" t="n">
-        <v>1244736.785</v>
+        <v>3445407.103</v>
       </c>
     </row>
     <row r="5374">
       <c r="A5374" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2012-01-20</t>
         </is>
       </c>
       <c r="B5374" t="n">
-        <v>13510242.654</v>
+        <v>1244736.785</v>
       </c>
     </row>
     <row r="5375">
       <c r="A5375" t="inlineStr">
         <is>
-          <t>2017-08-28</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B5375" t="n">
-        <v>19422838.72</v>
+        <v>13510242.654</v>
       </c>
     </row>
     <row r="5376">
       <c r="A5376" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2017-08-28</t>
         </is>
       </c>
       <c r="B5376" t="n">
-        <v>11104807.404</v>
+        <v>19422838.72</v>
       </c>
     </row>
     <row r="5377">
       <c r="A5377" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="B5377" t="n">
-        <v>10451472.456</v>
+        <v>11104807.404</v>
       </c>
     </row>
     <row r="5378">
       <c r="A5378" t="inlineStr">
         <is>
-          <t>2014-09-13</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B5378" t="n">
-        <v>2524791.779</v>
+        <v>10451472.456</v>
       </c>
     </row>
     <row r="5379">
       <c r="A5379" t="inlineStr">
         <is>
-          <t>2015-04-25</t>
+          <t>2014-09-13</t>
         </is>
       </c>
       <c r="B5379" t="n">
-        <v>3352942.164</v>
+        <v>2524791.779</v>
       </c>
     </row>
     <row r="5380">
       <c r="A5380" t="inlineStr">
         <is>
-          <t>2012-01-21</t>
+          <t>2015-04-25</t>
         </is>
       </c>
       <c r="B5380" t="n">
-        <v>1246443.905</v>
+        <v>3352942.164</v>
       </c>
     </row>
     <row r="5381">
       <c r="A5381" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2012-01-21</t>
         </is>
       </c>
       <c r="B5381" t="n">
-        <v>20351324.136</v>
+        <v>1246443.905</v>
       </c>
     </row>
     <row r="5382">
       <c r="A5382" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B5382" t="n">
-        <v>13491078.904</v>
+        <v>20351324.136</v>
       </c>
     </row>
     <row r="5383">
       <c r="A5383" t="inlineStr">
         <is>
-          <t>2017-09-08</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B5383" t="n">
-        <v>19486335.788</v>
+        <v>13491078.904</v>
       </c>
     </row>
     <row r="5384">
       <c r="A5384" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2017-09-08</t>
         </is>
       </c>
       <c r="B5384" t="n">
-        <v>13156711.485</v>
+        <v>19486335.788</v>
       </c>
     </row>
     <row r="5385">
       <c r="A5385" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B5385" t="n">
-        <v>10510937.957</v>
+        <v>13156711.485</v>
       </c>
     </row>
     <row r="5386">
       <c r="A5386" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="B5386" t="n">
-        <v>15716836.044</v>
+        <v>10510937.957</v>
       </c>
     </row>
     <row r="5387">
       <c r="A5387" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-07-21</t>
         </is>
       </c>
       <c r="B5387" t="n">
-        <v>19939698.057</v>
+        <v>15716836.044</v>
       </c>
     </row>
     <row r="5388">
       <c r="A5388" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B5388" t="n">
-        <v>2628371.334</v>
+        <v>19939698.057</v>
       </c>
     </row>
     <row r="5389">
       <c r="A5389" t="inlineStr">
         <is>
-          <t>2015-05-20</t>
+          <t>2014-10-02</t>
         </is>
       </c>
       <c r="B5389" t="n">
-        <v>3177021.142</v>
+        <v>2628371.334</v>
       </c>
     </row>
     <row r="5390">
       <c r="A5390" t="inlineStr">
         <is>
-          <t>2012-01-26</t>
+          <t>2015-05-20</t>
         </is>
       </c>
       <c r="B5390" t="n">
-        <v>1264128.557</v>
+        <v>3177021.142</v>
       </c>
     </row>
     <row r="5391">
       <c r="A5391" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2012-01-26</t>
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>10152643.862</v>
+        <v>1264128.557</v>
       </c>
     </row>
     <row r="5392">
       <c r="A5392" t="inlineStr">
         <is>
-          <t>2017-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="B5392" t="n">
-        <v>18137220.352</v>
+        <v>10152643.862</v>
       </c>
     </row>
     <row r="5393">
       <c r="A5393" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2017-09-23</t>
         </is>
       </c>
       <c r="B5393" t="n">
-        <v>18779023.107</v>
+        <v>18137220.352</v>
       </c>
     </row>
     <row r="5394">
       <c r="A5394" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="B5394" t="n">
-        <v>10615483.231</v>
+        <v>18779023.107</v>
       </c>
     </row>
     <row r="5395">
       <c r="A5395" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="B5395" t="n">
-        <v>15795124.861</v>
+        <v>10615483.231</v>
       </c>
     </row>
     <row r="5396">
       <c r="A5396" t="inlineStr">
         <is>
-          <t>2014-10-23</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B5396" t="n">
-        <v>3053937.556</v>
+        <v>15795124.861</v>
       </c>
     </row>
     <row r="5397">
       <c r="A5397" t="inlineStr">
         <is>
-          <t>2015-05-27</t>
+          <t>2014-10-23</t>
         </is>
       </c>
       <c r="B5397" t="n">
-        <v>2974495.006</v>
+        <v>3053937.556</v>
       </c>
     </row>
     <row r="5398">
       <c r="A5398" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2015-05-27</t>
         </is>
       </c>
       <c r="B5398" t="n">
-        <v>1068036.951</v>
+        <v>2974495.006</v>
       </c>
     </row>
     <row r="5399">
       <c r="A5399" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="B5399" t="n">
-        <v>12796519.886</v>
+        <v>1068036.951</v>
       </c>
     </row>
     <row r="5400">
       <c r="A5400" t="inlineStr">
         <is>
-          <t>2017-10-09</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B5400" t="n">
-        <v>19407598.446</v>
+        <v>12796519.886</v>
       </c>
     </row>
     <row r="5401">
       <c r="A5401" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2017-10-09</t>
         </is>
       </c>
       <c r="B5401" t="n">
-        <v>20455744.669</v>
+        <v>19407598.446</v>
       </c>
     </row>
     <row r="5402">
       <c r="A5402" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="B5402" t="n">
-        <v>11376341.238</v>
+        <v>20455744.669</v>
       </c>
     </row>
     <row r="5403">
       <c r="A5403" t="inlineStr">
         <is>
-          <t>2014-11-01</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="B5403" t="n">
-        <v>3044004.834</v>
+        <v>11376341.238</v>
       </c>
     </row>
     <row r="5404">
       <c r="A5404" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2014-11-01</t>
         </is>
       </c>
       <c r="B5404" t="n">
-        <v>2765454.564</v>
+        <v>3044004.834</v>
       </c>
     </row>
     <row r="5405">
       <c r="A5405" t="inlineStr">
         <is>
-          <t>2012-04-02</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="B5405" t="n">
-        <v>1066217.337</v>
+        <v>2765454.564</v>
       </c>
     </row>
     <row r="5406">
       <c r="A5406" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2012-04-02</t>
         </is>
       </c>
       <c r="B5406" t="n">
-        <v>13432763.242</v>
+        <v>1066217.337</v>
       </c>
     </row>
     <row r="5407">
       <c r="A5407" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B5407" t="n">
-        <v>19306849.276</v>
+        <v>13432763.242</v>
       </c>
     </row>
     <row r="5408">
       <c r="A5408" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="B5408" t="n">
-        <v>17904427.701</v>
+        <v>19306849.276</v>
       </c>
     </row>
     <row r="5409">
       <c r="A5409" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="B5409" t="n">
-        <v>11260943.27</v>
+        <v>17904427.701</v>
       </c>
     </row>
     <row r="5410">
       <c r="A5410" t="inlineStr">
         <is>
-          <t>2014-11-19</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="B5410" t="n">
-        <v>3019744.611</v>
+        <v>11260943.27</v>
       </c>
     </row>
     <row r="5411">
       <c r="A5411" t="inlineStr">
         <is>
-          <t>2015-06-09</t>
+          <t>2014-11-19</t>
         </is>
       </c>
       <c r="B5411" t="n">
-        <v>2361717.899</v>
+        <v>3019744.611</v>
       </c>
     </row>
     <row r="5412">
       <c r="A5412" t="inlineStr">
         <is>
-          <t>2012-04-18</t>
+          <t>2015-06-09</t>
         </is>
       </c>
       <c r="B5412" t="n">
-        <v>1080512.495</v>
+        <v>2361717.899</v>
       </c>
     </row>
     <row r="5413">
       <c r="A5413" t="inlineStr">
         <is>
-          <t>2017-11-16</t>
+          <t>2012-04-18</t>
         </is>
       </c>
       <c r="B5413" t="n">
-        <v>15794441.353</v>
+        <v>1080512.495</v>
       </c>
     </row>
     <row r="5414">
       <c r="A5414" t="inlineStr">
         <is>
-          <t>2021-02-12</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="B5414" t="n">
-        <v>18047843.242</v>
+        <v>15794441.353</v>
       </c>
     </row>
     <row r="5415">
       <c r="A5415" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2021-02-12</t>
         </is>
       </c>
       <c r="B5415" t="n">
-        <v>7804497.859</v>
+        <v>18047843.242</v>
       </c>
     </row>
     <row r="5416">
       <c r="A5416" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="B5416" t="n">
-        <v>9877779.377</v>
+        <v>7804497.859</v>
       </c>
     </row>
     <row r="5417">
       <c r="A5417" t="inlineStr">
         <is>
-          <t>2014-12-05</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B5417" t="n">
-        <v>3374566.02</v>
+        <v>9877779.377</v>
       </c>
     </row>
     <row r="5418">
       <c r="A5418" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2014-12-05</t>
         </is>
       </c>
       <c r="B5418" t="n">
-        <v>2394815.633</v>
+        <v>3374566.02</v>
       </c>
     </row>
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2012-05-04</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="B5419" t="n">
-        <v>1211448.82</v>
+        <v>2394815.633</v>
       </c>
     </row>
     <row r="5420">
       <c r="A5420" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2012-05-04</t>
         </is>
       </c>
       <c r="B5420" t="n">
-        <v>9388382.575999999</v>
+        <v>1211448.82</v>
       </c>
     </row>
     <row r="5421">
       <c r="A5421" t="inlineStr">
         <is>
-          <t>2017-11-30</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B5421" t="n">
-        <v>15739620.059</v>
+        <v>9388382.575999999</v>
       </c>
     </row>
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2017-11-30</t>
         </is>
       </c>
       <c r="B5422" t="n">
-        <v>17461848.264</v>
+        <v>15739620.059</v>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="B5423" t="n">
-        <v>7349744.434</v>
+        <v>17461848.264</v>
       </c>
     </row>
     <row r="5424">
       <c r="A5424" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="B5424" t="n">
-        <v>15621689.103</v>
+        <v>7349744.434</v>
       </c>
     </row>
     <row r="5425">
       <c r="A5425" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="B5425" t="n">
-        <v>11149234.035</v>
+        <v>15621689.103</v>
       </c>
     </row>
     <row r="5426">
       <c r="A5426" t="inlineStr">
         <is>
-          <t>2014-12-24</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B5426" t="n">
-        <v>3749367.14</v>
+        <v>11149234.035</v>
       </c>
     </row>
     <row r="5427">
       <c r="A5427" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2014-12-24</t>
         </is>
       </c>
       <c r="B5427" t="n">
-        <v>18799096.649</v>
+        <v>3749367.14</v>
       </c>
     </row>
     <row r="5428">
       <c r="A5428" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B5428" t="n">
-        <v>2573704.983</v>
+        <v>18799096.649</v>
       </c>
     </row>
     <row r="5429">
       <c r="A5429" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="B5429" t="n">
-        <v>1258763.689</v>
+        <v>2573704.983</v>
       </c>
     </row>
     <row r="5430">
       <c r="A5430" t="inlineStr">
         <is>
-          <t>2017-12-01</t>
+          <t>2012-05-21</t>
         </is>
       </c>
       <c r="B5430" t="n">
-        <v>15786676.067</v>
+        <v>1258763.689</v>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2017-12-01</t>
         </is>
       </c>
       <c r="B5431" t="n">
-        <v>15009732.42</v>
+        <v>15786676.067</v>
       </c>
     </row>
     <row r="5432">
       <c r="A5432" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B5432" t="n">
-        <v>8127301.046</v>
+        <v>15009732.42</v>
       </c>
     </row>
     <row r="5433">
       <c r="A5433" t="inlineStr">
         <is>
-          <t>2015-01-11</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="B5433" t="n">
-        <v>3848375.44</v>
+        <v>8127301.046</v>
       </c>
     </row>
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B5434" t="n">
-        <v>2511092.261</v>
+        <v>18209088.114</v>
       </c>
     </row>
     <row r="5435">
       <c r="A5435" t="inlineStr">
         <is>
-          <t>2012-06-06</t>
+          <t>2015-01-11</t>
         </is>
       </c>
       <c r="B5435" t="n">
-        <v>1365675.341</v>
+        <v>3848375.44</v>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="B5436" t="n">
-        <v>18209088.114</v>
+        <v>2511092.261</v>
       </c>
     </row>
     <row r="5437">
       <c r="A5437" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2012-06-06</t>
         </is>
       </c>
       <c r="B5437" t="n">
-        <v>17645156.999</v>
+        <v>1365675.341</v>
       </c>
     </row>
     <row r="5438">
       <c r="A5438" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="B5438" t="n">
-        <v>13264526.584</v>
+        <v>17645156.999</v>
       </c>
     </row>
     <row r="5439">
       <c r="A5439" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B5439" t="n">
-        <v>8486747.433</v>
+        <v>13264526.584</v>
       </c>
     </row>
     <row r="5440">
       <c r="A5440" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B5440" t="n">
-        <v>4046018.483</v>
+        <v>8486747.433</v>
       </c>
     </row>
     <row r="5441">
       <c r="A5441" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B5441" t="n">
-        <v>2718554.466</v>
+        <v>4046018.483</v>
       </c>
     </row>
     <row r="5442">
       <c r="A5442" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="B5442" t="n">
-        <v>1367243.39</v>
+        <v>2718554.466</v>
       </c>
     </row>
     <row r="5443">
       <c r="A5443" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2012-06-18</t>
         </is>
       </c>
       <c r="B5443" t="n">
-        <v>9114476.312000001</v>
+        <v>1367243.39</v>
       </c>
     </row>
     <row r="5444">
       <c r="A5444" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B5444" t="n">
-        <v>15346852.871</v>
+        <v>9114476.312000001</v>
       </c>
     </row>
     <row r="5445">
       <c r="A5445" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B5445" t="n">
-        <v>12870879.477</v>
+        <v>15346852.871</v>
       </c>
     </row>
     <row r="5446">
       <c r="A5446" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5446" t="n">
-        <v>17780525.245</v>
+        <v>12870879.477</v>
       </c>
     </row>
     <row r="5447">
       <c r="A5447" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B5447" t="n">
-        <v>13194431.726</v>
+        <v>17780525.245</v>
       </c>
     </row>
     <row r="5448">
       <c r="A5448" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B5448" t="n">
-        <v>8346328.634</v>
+        <v>13194431.726</v>
       </c>
     </row>
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="B5449" t="n">
-        <v>16236706.926</v>
+        <v>8346328.634</v>
       </c>
     </row>
     <row r="5450">
       <c r="A5450" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B5450" t="n">
-        <v>16585261.576</v>
+        <v>16236706.926</v>
       </c>
     </row>
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2015-02-10</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5451" t="n">
-        <v>4071380.974</v>
+        <v>16585261.576</v>
       </c>
     </row>
     <row r="5452">
       <c r="A5452" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="B5452" t="n">
-        <v>17968690.541</v>
+        <v>4071380.974</v>
       </c>
     </row>
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>2793932.294</v>
+        <v>17968690.541</v>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>1363857.943</v>
+        <v>2793932.294</v>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>18882222.042</v>
+        <v>1363857.943</v>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>9386582.370999999</v>
+        <v>18882222.042</v>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5457" t="n">
-        <v>17890389.899</v>
+        <v>9386582.370999999</v>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>12015164.279</v>
+        <v>17890389.899</v>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>7902657.124</v>
+        <v>12015164.279</v>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>10503343.65</v>
+        <v>7902657.124</v>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>3819509.271</v>
+        <v>10503343.65</v>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>2826416.003</v>
+        <v>3819509.271</v>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>1630324.679</v>
+        <v>2826416.003</v>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>10658742.561</v>
+        <v>1630324.679</v>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>18727823.649</v>
+        <v>10658742.561</v>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>17224052.503</v>
+        <v>18727823.649</v>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5467" t="n">
-        <v>10673931.348</v>
+        <v>17224052.503</v>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5468" t="n">
-        <v>3979751.142</v>
+        <v>10673931.348</v>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5469" t="n">
-        <v>3642872.298</v>
+        <v>3979751.142</v>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>1613219.441</v>
+        <v>3642872.298</v>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>18746833.543</v>
+        <v>1613219.441</v>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>14696488.122</v>
+        <v>18746833.543</v>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>13074131.781</v>
+        <v>14696488.122</v>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>18108889.119</v>
+        <v>13074131.781</v>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>10600975.162</v>
+        <v>18108889.119</v>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>3489354.733</v>
+        <v>10600975.162</v>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>3660667.082</v>
+        <v>3489354.733</v>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>316907.127</v>
+        <v>3660667.082</v>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>1760535.998</v>
+        <v>316907.127</v>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>19760413.223</v>
+        <v>1760535.998</v>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>15296257.118</v>
+        <v>19760413.223</v>
       </c>
     </row>
     <row r="5482">
       <c r="A5482" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>10677343.165</v>
+        <v>15296257.118</v>
       </c>
     </row>
     <row r="5483">
       <c r="A5483" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5483" t="n">
-        <v>12841467.318</v>
+        <v>10677343.165</v>
       </c>
     </row>
     <row r="5484">
       <c r="A5484" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>3205484.527</v>
+        <v>12841467.318</v>
       </c>
     </row>
     <row r="5485">
       <c r="A5485" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>4648212.458</v>
+        <v>3205484.527</v>
       </c>
     </row>
     <row r="5486">
       <c r="A5486" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>1873037.142</v>
+        <v>4648212.458</v>
       </c>
     </row>
     <row r="5487">
       <c r="A5487" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>19272529.034</v>
+        <v>1873037.142</v>
       </c>
     </row>
     <row r="5488">
       <c r="A5488" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>13193422.783</v>
+        <v>19272529.034</v>
       </c>
     </row>
     <row r="5489">
       <c r="A5489" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>8610177.493000001</v>
+        <v>13193422.783</v>
       </c>
     </row>
     <row r="5490">
       <c r="A5490" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>12225489.867</v>
+        <v>8610177.493000001</v>
       </c>
     </row>
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>2985205.142</v>
+        <v>12225489.867</v>
       </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>4603582.061</v>
+        <v>2985205.142</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>2093652.744</v>
+        <v>4603582.061</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>11477197.525</v>
+        <v>2093652.744</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>19496972.836</v>
+        <v>11477197.525</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>10566019.663</v>
+        <v>19496972.836</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>8609734.759</v>
+        <v>10566019.663</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>18616838.388</v>
+        <v>8609734.759</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>2392944.256</v>
+        <v>18616838.388</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>4964683.773</v>
+        <v>2392944.256</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>2162784.464</v>
+        <v>4964683.773</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>8046257.588</v>
+        <v>2162784.464</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>8443126.151000001</v>
+        <v>8046257.588</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>8386250.008</v>
+        <v>8443126.151000001</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>2565551.236</v>
+        <v>8386250.008</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>6127123.106</v>
+        <v>2565551.236</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>2157212.824</v>
+        <v>6127123.106</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>11978202.448</v>
+        <v>2157212.824</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>15303734.889</v>
+        <v>11978202.448</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>8103908.652</v>
+        <v>15303734.889</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>9382181.960999999</v>
+        <v>8103908.652</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>16784620.262</v>
+        <v>9382181.960999999</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>16833063.951</v>
+        <v>16784620.262</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>17049245.734</v>
+        <v>16833063.951</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>17115867.282</v>
+        <v>17049245.734</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>17153769.299</v>
+        <v>17115867.282</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>17225229.436</v>
+        <v>17153769.299</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>17249482.25</v>
+        <v>17225229.436</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>17569350.656</v>
+        <v>17249482.25</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>2859270.317</v>
+        <v>17569350.656</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>5532498.781</v>
+        <v>2859270.317</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>2138609.994</v>
+        <v>5532498.781</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5523" t="n">
-        <v>12895454.923</v>
+        <v>2138609.994</v>
       </c>
     </row>
     <row r="5524">
       <c r="A5524" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5524" t="n">
+        <v>12895454.923</v>
+      </c>
+    </row>
+    <row r="5525">
+      <c r="A5525" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5524" t="n">
+      <c r="B5525" t="n">
         <v>11691372.317</v>
       </c>
     </row>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5525"/>
+  <dimension ref="A1:B5526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46776,31 +46776,31 @@
     <row r="4635">
       <c r="A4635" t="inlineStr">
         <is>
-          <t>2025-08-16</t>
+          <t>2011-11-11</t>
         </is>
       </c>
       <c r="B4635" t="n">
-        <v>18538635.409</v>
+        <v>799280.129</v>
       </c>
     </row>
     <row r="4636">
       <c r="A4636" t="inlineStr">
         <is>
-          <t>2011-11-11</t>
+          <t>2012-08-17</t>
         </is>
       </c>
       <c r="B4636" t="n">
-        <v>799280.129</v>
+        <v>1608520.444</v>
       </c>
     </row>
     <row r="4637">
       <c r="A4637" t="inlineStr">
         <is>
-          <t>2012-08-17</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="B4637" t="n">
-        <v>1608520.444</v>
+        <v>18538635.409</v>
       </c>
     </row>
     <row r="4638">
@@ -49916,31 +49916,31 @@
     <row r="4949">
       <c r="A4949" t="inlineStr">
         <is>
-          <t>2025-08-17</t>
+          <t>2013-01-11</t>
         </is>
       </c>
       <c r="B4949" t="n">
-        <v>18263584.952</v>
+        <v>1846369.453</v>
       </c>
     </row>
     <row r="4950">
       <c r="A4950" t="inlineStr">
         <is>
-          <t>2013-01-11</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="B4950" t="n">
-        <v>1846369.453</v>
+        <v>19066275.837</v>
       </c>
     </row>
     <row r="4951">
       <c r="A4951" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B4951" t="n">
-        <v>19066275.837</v>
+        <v>18263584.952</v>
       </c>
     </row>
     <row r="4952">
@@ -52456,31 +52456,31 @@
     <row r="5203">
       <c r="A5203" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2016-09-03</t>
         </is>
       </c>
       <c r="B5203" t="n">
-        <v>18413104.776</v>
+        <v>5203377.911</v>
       </c>
     </row>
     <row r="5204">
       <c r="A5204" t="inlineStr">
         <is>
-          <t>2016-09-03</t>
+          <t>2014-10-22</t>
         </is>
       </c>
       <c r="B5204" t="n">
-        <v>5203377.911</v>
+        <v>3035976.286</v>
       </c>
     </row>
     <row r="5205">
       <c r="A5205" t="inlineStr">
         <is>
-          <t>2014-10-22</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B5205" t="n">
-        <v>3035976.286</v>
+        <v>18413104.776</v>
       </c>
     </row>
     <row r="5206">
@@ -54956,31 +54956,31 @@
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>17968690.541</v>
+        <v>2793932.294</v>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>2793932.294</v>
+        <v>1363857.943</v>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>1363857.943</v>
+        <v>17968690.541</v>
       </c>
     </row>
     <row r="5456">
@@ -55166,520 +55166,530 @@
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>13074131.781</v>
+        <v>18803774.412</v>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>18108889.119</v>
+        <v>13074131.781</v>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>10600975.162</v>
+        <v>18108889.119</v>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>3489354.733</v>
+        <v>10600975.162</v>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>3660667.082</v>
+        <v>3489354.733</v>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>316907.127</v>
+        <v>3660667.082</v>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>1760535.998</v>
+        <v>316907.127</v>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>19760413.223</v>
+        <v>1760535.998</v>
       </c>
     </row>
     <row r="5482">
       <c r="A5482" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>15296257.118</v>
+        <v>19760413.223</v>
       </c>
     </row>
     <row r="5483">
       <c r="A5483" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5483" t="n">
-        <v>10677343.165</v>
+        <v>15296257.118</v>
       </c>
     </row>
     <row r="5484">
       <c r="A5484" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>12841467.318</v>
+        <v>10677343.165</v>
       </c>
     </row>
     <row r="5485">
       <c r="A5485" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>3205484.527</v>
+        <v>12841467.318</v>
       </c>
     </row>
     <row r="5486">
       <c r="A5486" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>4648212.458</v>
+        <v>3205484.527</v>
       </c>
     </row>
     <row r="5487">
       <c r="A5487" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>1873037.142</v>
+        <v>4648212.458</v>
       </c>
     </row>
     <row r="5488">
       <c r="A5488" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>19272529.034</v>
+        <v>1873037.142</v>
       </c>
     </row>
     <row r="5489">
       <c r="A5489" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>13193422.783</v>
+        <v>19272529.034</v>
       </c>
     </row>
     <row r="5490">
       <c r="A5490" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>8610177.493000001</v>
+        <v>13193422.783</v>
       </c>
     </row>
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>12225489.867</v>
+        <v>8610177.493000001</v>
       </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>2985205.142</v>
+        <v>12225489.867</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>4603582.061</v>
+        <v>2985205.142</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>2093652.744</v>
+        <v>4603582.061</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>11477197.525</v>
+        <v>2093652.744</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>19496972.836</v>
+        <v>11477197.525</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>10566019.663</v>
+        <v>19496972.836</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>8609734.759</v>
+        <v>10566019.663</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>18616838.388</v>
+        <v>8609734.759</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>2392944.256</v>
+        <v>18616838.388</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>4964683.773</v>
+        <v>2392944.256</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>2162784.464</v>
+        <v>4964683.773</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>8046257.588</v>
+        <v>2162784.464</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>8443126.151000001</v>
+        <v>8046257.588</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>8386250.008</v>
+        <v>8443126.151000001</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>2565551.236</v>
+        <v>8386250.008</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>6127123.106</v>
+        <v>2565551.236</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>2157212.824</v>
+        <v>6127123.106</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>11978202.448</v>
+        <v>2157212.824</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>15303734.889</v>
+        <v>11978202.448</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>8103908.652</v>
+        <v>15303734.889</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>9382181.960999999</v>
+        <v>8103908.652</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>16784620.262</v>
+        <v>9382181.960999999</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>16833063.951</v>
+        <v>16784620.262</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>17049245.734</v>
+        <v>16833063.951</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>17115867.282</v>
+        <v>17049245.734</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>17153769.299</v>
+        <v>17115867.282</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>17225229.436</v>
+        <v>17153769.299</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>17249482.25</v>
+        <v>17225229.436</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>17569350.656</v>
+        <v>17249482.25</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>2859270.317</v>
+        <v>17569350.656</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>5532498.781</v>
+        <v>2859270.317</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5523" t="n">
-        <v>2138609.994</v>
+        <v>5532498.781</v>
       </c>
     </row>
     <row r="5524">
       <c r="A5524" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5524" t="n">
-        <v>12895454.923</v>
+        <v>2138609.994</v>
       </c>
     </row>
     <row r="5525">
       <c r="A5525" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5525" t="n">
+        <v>12895454.923</v>
+      </c>
+    </row>
+    <row r="5526">
+      <c r="A5526" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5525" t="n">
+      <c r="B5526" t="n">
         <v>11691372.317</v>
       </c>
     </row>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5528"/>
+  <dimension ref="A1:B5529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49726,21 +49726,21 @@
     <row r="4930">
       <c r="A4930" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B4930" t="n">
-        <v>18389579.978</v>
+        <v>14504226.874</v>
       </c>
     </row>
     <row r="4931">
       <c r="A4931" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B4931" t="n">
-        <v>14504226.874</v>
+        <v>18389579.978</v>
       </c>
     </row>
     <row r="4932">
@@ -49826,5890 +49826,5900 @@
     <row r="4940">
       <c r="A4940" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B4940" t="n">
-        <v>12633844.31</v>
+        <v>14713290.066</v>
       </c>
     </row>
     <row r="4941">
       <c r="A4941" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="B4941" t="n">
-        <v>14392379.583</v>
+        <v>12633844.31</v>
       </c>
     </row>
     <row r="4942">
       <c r="A4942" t="inlineStr">
         <is>
-          <t>2018-01-02</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B4942" t="n">
-        <v>17982694.401</v>
+        <v>14392379.583</v>
       </c>
     </row>
     <row r="4943">
       <c r="A4943" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2018-01-02</t>
         </is>
       </c>
       <c r="B4943" t="n">
-        <v>7514888.09</v>
+        <v>17982694.401</v>
       </c>
     </row>
     <row r="4944">
       <c r="A4944" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="B4944" t="n">
-        <v>6817299.489</v>
+        <v>7514888.09</v>
       </c>
     </row>
     <row r="4945">
       <c r="A4945" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="B4945" t="n">
-        <v>17664296.466</v>
+        <v>6817299.489</v>
       </c>
     </row>
     <row r="4946">
       <c r="A4946" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="B4946" t="n">
-        <v>16241686.46</v>
+        <v>17664296.466</v>
       </c>
     </row>
     <row r="4947">
       <c r="A4947" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="B4947" t="n">
-        <v>16703777.294</v>
+        <v>16241686.46</v>
       </c>
     </row>
     <row r="4948">
       <c r="A4948" t="inlineStr">
         <is>
-          <t>2013-07-27</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="B4948" t="n">
-        <v>2230083.986</v>
+        <v>16703777.294</v>
       </c>
     </row>
     <row r="4949">
       <c r="A4949" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2013-07-27</t>
         </is>
       </c>
       <c r="B4949" t="n">
-        <v>10134422.693</v>
+        <v>2230083.986</v>
       </c>
     </row>
     <row r="4950">
       <c r="A4950" t="inlineStr">
         <is>
-          <t>2015-05-17</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B4950" t="n">
-        <v>3198372.64</v>
+        <v>10134422.693</v>
       </c>
     </row>
     <row r="4951">
       <c r="A4951" t="inlineStr">
         <is>
-          <t>2013-01-11</t>
+          <t>2015-05-17</t>
         </is>
       </c>
       <c r="B4951" t="n">
-        <v>1846369.453</v>
+        <v>3198372.64</v>
       </c>
     </row>
     <row r="4952">
       <c r="A4952" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2013-01-11</t>
         </is>
       </c>
       <c r="B4952" t="n">
-        <v>19066275.837</v>
+        <v>1846369.453</v>
       </c>
     </row>
     <row r="4953">
       <c r="A4953" t="inlineStr">
         <is>
-          <t>2025-08-17</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="B4953" t="n">
-        <v>18263584.952</v>
+        <v>19066275.837</v>
       </c>
     </row>
     <row r="4954">
       <c r="A4954" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B4954" t="n">
-        <v>9314345.433</v>
+        <v>18263584.952</v>
       </c>
     </row>
     <row r="4955">
       <c r="A4955" t="inlineStr">
         <is>
-          <t>2018-02-08</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="B4955" t="n">
-        <v>18158241.72</v>
+        <v>9314345.433</v>
       </c>
     </row>
     <row r="4956">
       <c r="A4956" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>2018-02-08</t>
         </is>
       </c>
       <c r="B4956" t="n">
-        <v>11360312.667</v>
+        <v>18158241.72</v>
       </c>
     </row>
     <row r="4957">
       <c r="A4957" t="inlineStr">
         <is>
-          <t>2023-11-14</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="B4957" t="n">
-        <v>7028591.115</v>
+        <v>11360312.667</v>
       </c>
     </row>
     <row r="4958">
       <c r="A4958" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="B4958" t="n">
-        <v>17197990.83</v>
+        <v>7028591.115</v>
       </c>
     </row>
     <row r="4959">
       <c r="A4959" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="B4959" t="n">
-        <v>17268706.198</v>
+        <v>17197990.83</v>
       </c>
     </row>
     <row r="4960">
       <c r="A4960" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="B4960" t="n">
-        <v>11414106.357</v>
+        <v>17268706.198</v>
       </c>
     </row>
     <row r="4961">
       <c r="A4961" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B4961" t="n">
-        <v>18706071.644</v>
+        <v>11414106.357</v>
       </c>
     </row>
     <row r="4962">
       <c r="A4962" t="inlineStr">
         <is>
-          <t>2013-08-03</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="B4962" t="n">
-        <v>2313884.342</v>
+        <v>18706071.644</v>
       </c>
     </row>
     <row r="4963">
       <c r="A4963" t="inlineStr">
         <is>
-          <t>2015-06-10</t>
+          <t>2013-08-03</t>
         </is>
       </c>
       <c r="B4963" t="n">
-        <v>2370221.996</v>
+        <v>2313884.342</v>
       </c>
     </row>
     <row r="4964">
       <c r="A4964" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2015-06-10</t>
         </is>
       </c>
       <c r="B4964" t="n">
-        <v>10942825.102</v>
+        <v>2370221.996</v>
       </c>
     </row>
     <row r="4965">
       <c r="A4965" t="inlineStr">
         <is>
-          <t>2013-01-26</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B4965" t="n">
-        <v>1899111.02</v>
+        <v>10942825.102</v>
       </c>
     </row>
     <row r="4966">
       <c r="A4966" t="inlineStr">
         <is>
-          <t>2018-04-02</t>
+          <t>2013-01-26</t>
         </is>
       </c>
       <c r="B4966" t="n">
-        <v>9893037.857000001</v>
+        <v>1899111.02</v>
       </c>
     </row>
     <row r="4967">
       <c r="A4967" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2018-04-02</t>
         </is>
       </c>
       <c r="B4967" t="n">
-        <v>12964564.24</v>
+        <v>9893037.857000001</v>
       </c>
     </row>
     <row r="4968">
       <c r="A4968" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2020-11-29</t>
         </is>
       </c>
       <c r="B4968" t="n">
-        <v>7255143.779</v>
+        <v>12964564.24</v>
       </c>
     </row>
     <row r="4969">
       <c r="A4969" t="inlineStr">
         <is>
-          <t>2013-08-09</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="B4969" t="n">
-        <v>2282151.25</v>
+        <v>7255143.779</v>
       </c>
     </row>
     <row r="4970">
       <c r="A4970" t="inlineStr">
         <is>
-          <t>2015-06-28</t>
+          <t>2013-08-09</t>
         </is>
       </c>
       <c r="B4970" t="n">
-        <v>2594483.55</v>
+        <v>2282151.25</v>
       </c>
     </row>
     <row r="4971">
       <c r="A4971" t="inlineStr">
         <is>
-          <t>2010-11-16</t>
+          <t>2015-06-28</t>
         </is>
       </c>
       <c r="B4971" t="n">
-        <v>304020.338</v>
+        <v>2594483.55</v>
       </c>
     </row>
     <row r="4972">
       <c r="A4972" t="inlineStr">
         <is>
-          <t>2013-02-12</t>
+          <t>2010-11-16</t>
         </is>
       </c>
       <c r="B4972" t="n">
-        <v>2529625.788</v>
+        <v>304020.338</v>
       </c>
     </row>
     <row r="4973">
       <c r="A4973" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2013-02-12</t>
         </is>
       </c>
       <c r="B4973" t="n">
-        <v>14737879.389</v>
+        <v>2529625.788</v>
       </c>
     </row>
     <row r="4974">
       <c r="A4974" t="inlineStr">
         <is>
-          <t>2024-11-23</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B4974" t="n">
-        <v>12933809.709</v>
+        <v>14737879.389</v>
       </c>
     </row>
     <row r="4975">
       <c r="A4975" t="inlineStr">
         <is>
-          <t>2018-04-07</t>
+          <t>2024-11-23</t>
         </is>
       </c>
       <c r="B4975" t="n">
-        <v>8715110.261</v>
+        <v>12933809.709</v>
       </c>
     </row>
     <row r="4976">
       <c r="A4976" t="inlineStr">
         <is>
-          <t>2020-12-14</t>
+          <t>2018-04-07</t>
         </is>
       </c>
       <c r="B4976" t="n">
-        <v>14568396.772</v>
+        <v>8715110.261</v>
       </c>
     </row>
     <row r="4977">
       <c r="A4977" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2020-12-14</t>
         </is>
       </c>
       <c r="B4977" t="n">
-        <v>7308221.44</v>
+        <v>14568396.772</v>
       </c>
     </row>
     <row r="4978">
       <c r="A4978" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="B4978" t="n">
-        <v>19746507.73</v>
+        <v>7308221.44</v>
       </c>
     </row>
     <row r="4979">
       <c r="A4979" t="inlineStr">
         <is>
-          <t>2013-08-18</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="B4979" t="n">
-        <v>2450459.11</v>
+        <v>19746507.73</v>
       </c>
     </row>
     <row r="4980">
       <c r="A4980" t="inlineStr">
         <is>
-          <t>2015-07-18</t>
+          <t>2013-08-18</t>
         </is>
       </c>
       <c r="B4980" t="n">
-        <v>2800364.069</v>
+        <v>2450459.11</v>
       </c>
     </row>
     <row r="4981">
       <c r="A4981" t="inlineStr">
         <is>
-          <t>2011-05-08</t>
+          <t>2015-07-18</t>
         </is>
       </c>
       <c r="B4981" t="n">
-        <v>590659.897</v>
+        <v>2800364.069</v>
       </c>
     </row>
     <row r="4982">
       <c r="A4982" t="inlineStr">
         <is>
-          <t>2013-02-15</t>
+          <t>2011-05-08</t>
         </is>
       </c>
       <c r="B4982" t="n">
-        <v>2669285.077</v>
+        <v>590659.897</v>
       </c>
     </row>
     <row r="4983">
       <c r="A4983" t="inlineStr">
         <is>
-          <t>2018-04-23</t>
+          <t>2013-02-15</t>
         </is>
       </c>
       <c r="B4983" t="n">
-        <v>8409681.130999999</v>
+        <v>2669285.077</v>
       </c>
     </row>
     <row r="4984">
       <c r="A4984" t="inlineStr">
         <is>
-          <t>2020-12-29</t>
+          <t>2018-04-23</t>
         </is>
       </c>
       <c r="B4984" t="n">
-        <v>17106922.198</v>
+        <v>8409681.130999999</v>
       </c>
     </row>
     <row r="4985">
       <c r="A4985" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2020-12-29</t>
         </is>
       </c>
       <c r="B4985" t="n">
-        <v>7876220.229</v>
+        <v>17106922.198</v>
       </c>
     </row>
     <row r="4986">
       <c r="A4986" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="B4986" t="n">
-        <v>11885242.465</v>
+        <v>7876220.229</v>
       </c>
     </row>
     <row r="4987">
       <c r="A4987" t="inlineStr">
         <is>
-          <t>2013-10-23</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="B4987" t="n">
-        <v>2986856.758</v>
+        <v>11885242.465</v>
       </c>
     </row>
     <row r="4988">
       <c r="A4988" t="inlineStr">
         <is>
-          <t>2015-08-01</t>
+          <t>2013-10-23</t>
         </is>
       </c>
       <c r="B4988" t="n">
-        <v>2872671.671</v>
+        <v>2986856.758</v>
       </c>
     </row>
     <row r="4989">
       <c r="A4989" t="inlineStr">
         <is>
-          <t>2011-05-23</t>
+          <t>2015-08-01</t>
         </is>
       </c>
       <c r="B4989" t="n">
-        <v>766330.206</v>
+        <v>2872671.671</v>
       </c>
     </row>
     <row r="4990">
       <c r="A4990" t="inlineStr">
         <is>
-          <t>2013-03-07</t>
+          <t>2011-05-23</t>
         </is>
       </c>
       <c r="B4990" t="n">
-        <v>3241428.994</v>
+        <v>766330.206</v>
       </c>
     </row>
     <row r="4991">
       <c r="A4991" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2013-03-07</t>
         </is>
       </c>
       <c r="B4991" t="n">
-        <v>12988051.483</v>
+        <v>3241428.994</v>
       </c>
     </row>
     <row r="4992">
       <c r="A4992" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="B4992" t="n">
-        <v>18760597.04</v>
+        <v>12988051.483</v>
       </c>
     </row>
     <row r="4993">
       <c r="A4993" t="inlineStr">
         <is>
-          <t>2018-05-10</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B4993" t="n">
-        <v>6510882.164</v>
+        <v>18760597.04</v>
       </c>
     </row>
     <row r="4994">
       <c r="A4994" t="inlineStr">
         <is>
-          <t>2021-01-12</t>
+          <t>2018-05-10</t>
         </is>
       </c>
       <c r="B4994" t="n">
-        <v>20145733.863</v>
+        <v>6510882.164</v>
       </c>
     </row>
     <row r="4995">
       <c r="A4995" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2021-01-12</t>
         </is>
       </c>
       <c r="B4995" t="n">
-        <v>8473097.453</v>
+        <v>20145733.863</v>
       </c>
     </row>
     <row r="4996">
       <c r="A4996" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="B4996" t="n">
-        <v>11371015.617</v>
+        <v>8473097.453</v>
       </c>
     </row>
     <row r="4997">
       <c r="A4997" t="inlineStr">
         <is>
-          <t>2014-01-16</t>
+          <t>2024-11-17</t>
         </is>
       </c>
       <c r="B4997" t="n">
-        <v>6970368.657</v>
+        <v>11371015.617</v>
       </c>
     </row>
     <row r="4998">
       <c r="A4998" t="inlineStr">
         <is>
-          <t>2015-08-11</t>
+          <t>2014-01-16</t>
         </is>
       </c>
       <c r="B4998" t="n">
-        <v>3218034.455</v>
+        <v>6970368.657</v>
       </c>
     </row>
     <row r="4999">
       <c r="A4999" t="inlineStr">
         <is>
-          <t>2011-07-06</t>
+          <t>2015-08-11</t>
         </is>
       </c>
       <c r="B4999" t="n">
-        <v>1754964.907</v>
+        <v>3218034.455</v>
       </c>
     </row>
     <row r="5000">
       <c r="A5000" t="inlineStr">
         <is>
-          <t>2013-03-23</t>
+          <t>2011-07-06</t>
         </is>
       </c>
       <c r="B5000" t="n">
-        <v>3589501.35</v>
+        <v>1754964.907</v>
       </c>
     </row>
     <row r="5001">
       <c r="A5001" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2013-03-23</t>
         </is>
       </c>
       <c r="B5001" t="n">
-        <v>18567759.562</v>
+        <v>3589501.35</v>
       </c>
     </row>
     <row r="5002">
       <c r="A5002" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B5002" t="n">
-        <v>11513696.526</v>
+        <v>18567759.562</v>
       </c>
     </row>
     <row r="5003">
       <c r="A5003" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B5003" t="n">
-        <v>19476737.258</v>
+        <v>11513696.526</v>
       </c>
     </row>
     <row r="5004">
       <c r="A5004" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="B5004" t="n">
-        <v>11785461.662</v>
+        <v>19476737.258</v>
       </c>
     </row>
     <row r="5005">
       <c r="A5005" t="inlineStr">
         <is>
-          <t>2018-05-30</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="B5005" t="n">
-        <v>6201090.208</v>
+        <v>11785461.662</v>
       </c>
     </row>
     <row r="5006">
       <c r="A5006" t="inlineStr">
         <is>
-          <t>2021-01-27</t>
+          <t>2018-05-30</t>
         </is>
       </c>
       <c r="B5006" t="n">
-        <v>19974036.715</v>
+        <v>6201090.208</v>
       </c>
     </row>
     <row r="5007">
       <c r="A5007" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2021-01-27</t>
         </is>
       </c>
       <c r="B5007" t="n">
-        <v>8551266.077</v>
+        <v>19974036.715</v>
       </c>
     </row>
     <row r="5008">
       <c r="A5008" t="inlineStr">
         <is>
-          <t>2014-01-28</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="B5008" t="n">
-        <v>6138215.498</v>
+        <v>8551266.077</v>
       </c>
     </row>
     <row r="5009">
       <c r="A5009" t="inlineStr">
         <is>
-          <t>2015-08-21</t>
+          <t>2014-01-28</t>
         </is>
       </c>
       <c r="B5009" t="n">
-        <v>3408662.316</v>
+        <v>6138215.498</v>
       </c>
     </row>
     <row r="5010">
       <c r="A5010" t="inlineStr">
         <is>
-          <t>2011-07-11</t>
+          <t>2015-08-21</t>
         </is>
       </c>
       <c r="B5010" t="n">
-        <v>1780474.358</v>
+        <v>3408662.316</v>
       </c>
     </row>
     <row r="5011">
       <c r="A5011" t="inlineStr">
         <is>
-          <t>2013-03-24</t>
+          <t>2011-07-11</t>
         </is>
       </c>
       <c r="B5011" t="n">
-        <v>3633372.759</v>
+        <v>1780474.358</v>
       </c>
     </row>
     <row r="5012">
       <c r="A5012" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2013-03-24</t>
         </is>
       </c>
       <c r="B5012" t="n">
-        <v>18785986.856</v>
+        <v>3633372.759</v>
       </c>
     </row>
     <row r="5013">
       <c r="A5013" t="inlineStr">
         <is>
-          <t>2018-06-09</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B5013" t="n">
-        <v>6011921.198</v>
+        <v>18785986.856</v>
       </c>
     </row>
     <row r="5014">
       <c r="A5014" t="inlineStr">
         <is>
-          <t>2021-02-14</t>
+          <t>2018-06-09</t>
         </is>
       </c>
       <c r="B5014" t="n">
-        <v>18025144.31</v>
+        <v>6011921.198</v>
       </c>
     </row>
     <row r="5015">
       <c r="A5015" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2021-02-14</t>
         </is>
       </c>
       <c r="B5015" t="n">
-        <v>9524420.506999999</v>
+        <v>18025144.31</v>
       </c>
     </row>
     <row r="5016">
       <c r="A5016" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2023-12-28</t>
         </is>
       </c>
       <c r="B5016" t="n">
-        <v>11482296.535</v>
+        <v>9524420.506999999</v>
       </c>
     </row>
     <row r="5017">
       <c r="A5017" t="inlineStr">
         <is>
-          <t>2014-02-04</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="B5017" t="n">
-        <v>5933884.516</v>
+        <v>11482296.535</v>
       </c>
     </row>
     <row r="5018">
       <c r="A5018" t="inlineStr">
         <is>
-          <t>2015-09-04</t>
+          <t>2014-02-04</t>
         </is>
       </c>
       <c r="B5018" t="n">
-        <v>3873267.812</v>
+        <v>5933884.516</v>
       </c>
     </row>
     <row r="5019">
       <c r="A5019" t="inlineStr">
         <is>
-          <t>2012-11-25</t>
+          <t>2015-09-04</t>
         </is>
       </c>
       <c r="B5019" t="n">
-        <v>1902645.522</v>
+        <v>3873267.812</v>
       </c>
     </row>
     <row r="5020">
       <c r="A5020" t="inlineStr">
         <is>
-          <t>2013-04-06</t>
+          <t>2012-11-25</t>
         </is>
       </c>
       <c r="B5020" t="n">
-        <v>4569312.896</v>
+        <v>1902645.522</v>
       </c>
     </row>
     <row r="5021">
       <c r="A5021" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
       <c r="B5021" t="n">
-        <v>11377694.684</v>
+        <v>4569312.896</v>
       </c>
     </row>
     <row r="5022">
       <c r="A5022" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B5022" t="n">
-        <v>16169923.625</v>
+        <v>11377694.684</v>
       </c>
     </row>
     <row r="5023">
       <c r="A5023" t="inlineStr">
         <is>
-          <t>2018-06-19</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B5023" t="n">
-        <v>5888257.764</v>
+        <v>16169923.625</v>
       </c>
     </row>
     <row r="5024">
       <c r="A5024" t="inlineStr">
         <is>
-          <t>2021-02-24</t>
+          <t>2018-06-19</t>
         </is>
       </c>
       <c r="B5024" t="n">
-        <v>17928661.951</v>
+        <v>5888257.764</v>
       </c>
     </row>
     <row r="5025">
       <c r="A5025" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2021-02-24</t>
         </is>
       </c>
       <c r="B5025" t="n">
-        <v>10359819.603</v>
+        <v>17928661.951</v>
       </c>
     </row>
     <row r="5026">
       <c r="A5026" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="B5026" t="n">
-        <v>17551353.824</v>
+        <v>10359819.603</v>
       </c>
     </row>
     <row r="5027">
       <c r="A5027" t="inlineStr">
         <is>
-          <t>2014-04-11</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B5027" t="n">
-        <v>5486391.567</v>
+        <v>17551353.824</v>
       </c>
     </row>
     <row r="5028">
       <c r="A5028" t="inlineStr">
         <is>
-          <t>2015-09-19</t>
+          <t>2014-04-11</t>
         </is>
       </c>
       <c r="B5028" t="n">
-        <v>3664786.161</v>
+        <v>5486391.567</v>
       </c>
     </row>
     <row r="5029">
       <c r="A5029" t="inlineStr">
         <is>
-          <t>2013-02-14</t>
+          <t>2015-09-19</t>
         </is>
       </c>
       <c r="B5029" t="n">
-        <v>2562212.317</v>
+        <v>3664786.161</v>
       </c>
     </row>
     <row r="5030">
       <c r="A5030" t="inlineStr">
         <is>
-          <t>2013-04-11</t>
+          <t>2013-02-14</t>
         </is>
       </c>
       <c r="B5030" t="n">
-        <v>5258477.274</v>
+        <v>2562212.317</v>
       </c>
     </row>
     <row r="5031">
       <c r="A5031" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2013-04-11</t>
         </is>
       </c>
       <c r="B5031" t="n">
-        <v>18496989.062</v>
+        <v>5258477.274</v>
       </c>
     </row>
     <row r="5032">
       <c r="A5032" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B5032" t="n">
-        <v>12884767.419</v>
+        <v>18496989.062</v>
       </c>
     </row>
     <row r="5033">
       <c r="A5033" t="inlineStr">
         <is>
-          <t>2018-07-06</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B5033" t="n">
-        <v>6085617.267</v>
+        <v>12884767.419</v>
       </c>
     </row>
     <row r="5034">
       <c r="A5034" t="inlineStr">
         <is>
-          <t>2021-03-11</t>
+          <t>2018-07-06</t>
         </is>
       </c>
       <c r="B5034" t="n">
-        <v>17506401.366</v>
+        <v>6085617.267</v>
       </c>
     </row>
     <row r="5035">
       <c r="A5035" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2021-03-11</t>
         </is>
       </c>
       <c r="B5035" t="n">
-        <v>6598014.235</v>
+        <v>17506401.366</v>
       </c>
     </row>
     <row r="5036">
       <c r="A5036" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="B5036" t="n">
-        <v>10277655.606</v>
+        <v>6598014.235</v>
       </c>
     </row>
     <row r="5037">
       <c r="A5037" t="inlineStr">
         <is>
-          <t>2014-04-19</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="B5037" t="n">
-        <v>5485487.586</v>
+        <v>10277655.606</v>
       </c>
     </row>
     <row r="5038">
       <c r="A5038" t="inlineStr">
         <is>
-          <t>2015-05-13</t>
+          <t>2014-04-19</t>
         </is>
       </c>
       <c r="B5038" t="n">
-        <v>3230141.766</v>
+        <v>5485487.586</v>
       </c>
     </row>
     <row r="5039">
       <c r="A5039" t="inlineStr">
         <is>
-          <t>2015-10-17</t>
+          <t>2015-05-13</t>
         </is>
       </c>
       <c r="B5039" t="n">
-        <v>3654408.41</v>
+        <v>3230141.766</v>
       </c>
     </row>
     <row r="5040">
       <c r="A5040" t="inlineStr">
         <is>
-          <t>2013-04-18</t>
+          <t>2015-10-17</t>
         </is>
       </c>
       <c r="B5040" t="n">
-        <v>5574917.223</v>
+        <v>3654408.41</v>
       </c>
     </row>
     <row r="5041">
       <c r="A5041" t="inlineStr">
         <is>
-          <t>2018-07-22</t>
+          <t>2013-04-18</t>
         </is>
       </c>
       <c r="B5041" t="n">
-        <v>5228255.855</v>
+        <v>5574917.223</v>
       </c>
     </row>
     <row r="5042">
       <c r="A5042" t="inlineStr">
         <is>
-          <t>2021-03-26</t>
+          <t>2018-07-22</t>
         </is>
       </c>
       <c r="B5042" t="n">
-        <v>16111714.082</v>
+        <v>5228255.855</v>
       </c>
     </row>
     <row r="5043">
       <c r="A5043" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2021-03-26</t>
         </is>
       </c>
       <c r="B5043" t="n">
-        <v>11670457.865</v>
+        <v>16111714.082</v>
       </c>
     </row>
     <row r="5044">
       <c r="A5044" t="inlineStr">
         <is>
-          <t>2014-04-25</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="B5044" t="n">
-        <v>5461830.872</v>
+        <v>11670457.865</v>
       </c>
     </row>
     <row r="5045">
       <c r="A5045" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2014-04-25</t>
         </is>
       </c>
       <c r="B5045" t="n">
-        <v>2729765.372</v>
+        <v>5461830.872</v>
       </c>
     </row>
     <row r="5046">
       <c r="A5046" t="inlineStr">
         <is>
-          <t>2015-11-23</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="B5046" t="n">
-        <v>4274264.644</v>
+        <v>2729765.372</v>
       </c>
     </row>
     <row r="5047">
       <c r="A5047" t="inlineStr">
         <is>
-          <t>2013-05-12</t>
+          <t>2015-11-23</t>
         </is>
       </c>
       <c r="B5047" t="n">
-        <v>5251259.328</v>
+        <v>4274264.644</v>
       </c>
     </row>
     <row r="5048">
       <c r="A5048" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2013-05-12</t>
         </is>
       </c>
       <c r="B5048" t="n">
-        <v>18983749.017</v>
+        <v>5251259.328</v>
       </c>
     </row>
     <row r="5049">
       <c r="A5049" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B5049" t="n">
-        <v>18523673.383</v>
+        <v>18983749.017</v>
       </c>
     </row>
     <row r="5050">
       <c r="A5050" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B5050" t="n">
-        <v>10054424.048</v>
+        <v>18523673.383</v>
       </c>
     </row>
     <row r="5051">
       <c r="A5051" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="B5051" t="n">
-        <v>6190194.949</v>
+        <v>10054424.048</v>
       </c>
     </row>
     <row r="5052">
       <c r="A5052" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="B5052" t="n">
-        <v>6153661.361</v>
+        <v>6190194.949</v>
       </c>
     </row>
     <row r="5053">
       <c r="A5053" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="B5053" t="n">
-        <v>10362802.579</v>
+        <v>6153661.361</v>
       </c>
     </row>
     <row r="5054">
       <c r="A5054" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2022-11-26</t>
         </is>
       </c>
       <c r="B5054" t="n">
-        <v>8173999.195</v>
+        <v>10362802.579</v>
       </c>
     </row>
     <row r="5055">
       <c r="A5055" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="B5055" t="n">
-        <v>8017070.673</v>
+        <v>8173999.195</v>
       </c>
     </row>
     <row r="5056">
       <c r="A5056" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="B5056" t="n">
-        <v>12216862.024</v>
+        <v>8017070.673</v>
       </c>
     </row>
     <row r="5057">
       <c r="A5057" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B5057" t="n">
-        <v>16777254.692</v>
+        <v>12216862.024</v>
       </c>
     </row>
     <row r="5058">
       <c r="A5058" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="B5058" t="n">
-        <v>10786270.903</v>
+        <v>16777254.692</v>
       </c>
     </row>
     <row r="5059">
       <c r="A5059" t="inlineStr">
         <is>
-          <t>2014-04-30</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B5059" t="n">
-        <v>5420067.424</v>
+        <v>10786270.903</v>
       </c>
     </row>
     <row r="5060">
       <c r="A5060" t="inlineStr">
         <is>
-          <t>2015-12-15</t>
+          <t>2014-04-30</t>
         </is>
       </c>
       <c r="B5060" t="n">
-        <v>4926141.739</v>
+        <v>5420067.424</v>
       </c>
     </row>
     <row r="5061">
       <c r="A5061" t="inlineStr">
         <is>
-          <t>2013-05-20</t>
+          <t>2015-12-15</t>
         </is>
       </c>
       <c r="B5061" t="n">
-        <v>5042140.665</v>
+        <v>4926141.739</v>
       </c>
     </row>
     <row r="5062">
       <c r="A5062" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2013-05-20</t>
         </is>
       </c>
       <c r="B5062" t="n">
-        <v>12620748.822</v>
+        <v>5042140.665</v>
       </c>
     </row>
     <row r="5063">
       <c r="A5063" t="inlineStr">
         <is>
-          <t>2017-05-15</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B5063" t="n">
-        <v>10092377.113</v>
+        <v>12620748.822</v>
       </c>
     </row>
     <row r="5064">
       <c r="A5064" t="inlineStr">
         <is>
-          <t>2018-09-13</t>
+          <t>2017-05-15</t>
         </is>
       </c>
       <c r="B5064" t="n">
-        <v>5716052.208</v>
+        <v>10092377.113</v>
       </c>
     </row>
     <row r="5065">
       <c r="A5065" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2018-09-13</t>
         </is>
       </c>
       <c r="B5065" t="n">
-        <v>12978042.967</v>
+        <v>5716052.208</v>
       </c>
     </row>
     <row r="5066">
       <c r="A5066" t="inlineStr">
         <is>
-          <t>2021-11-14</t>
+          <t>2021-04-13</t>
         </is>
       </c>
       <c r="B5066" t="n">
-        <v>8999892.903000001</v>
+        <v>12978042.967</v>
       </c>
     </row>
     <row r="5067">
       <c r="A5067" t="inlineStr">
         <is>
-          <t>2021-11-15</t>
+          <t>2021-11-14</t>
         </is>
       </c>
       <c r="B5067" t="n">
-        <v>9046092.041999999</v>
+        <v>8999892.903000001</v>
       </c>
     </row>
     <row r="5068">
       <c r="A5068" t="inlineStr">
         <is>
-          <t>2021-12-05</t>
+          <t>2021-11-15</t>
         </is>
       </c>
       <c r="B5068" t="n">
-        <v>9731141.630999999</v>
+        <v>9046092.041999999</v>
       </c>
     </row>
     <row r="5069">
       <c r="A5069" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2021-12-05</t>
         </is>
       </c>
       <c r="B5069" t="n">
-        <v>9907110.057</v>
+        <v>9731141.630999999</v>
       </c>
     </row>
     <row r="5070">
       <c r="A5070" t="inlineStr">
         <is>
-          <t>2022-01-04</t>
+          <t>2021-12-07</t>
         </is>
       </c>
       <c r="B5070" t="n">
-        <v>9609614.795</v>
+        <v>9907110.057</v>
       </c>
     </row>
     <row r="5071">
       <c r="A5071" t="inlineStr">
         <is>
-          <t>2022-01-06</t>
+          <t>2022-01-04</t>
         </is>
       </c>
       <c r="B5071" t="n">
-        <v>9657259.026000001</v>
+        <v>9609614.795</v>
       </c>
     </row>
     <row r="5072">
       <c r="A5072" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-01-06</t>
         </is>
       </c>
       <c r="B5072" t="n">
-        <v>9240975.41</v>
+        <v>9657259.026000001</v>
       </c>
     </row>
     <row r="5073">
       <c r="A5073" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="B5073" t="n">
-        <v>9269022.852</v>
+        <v>9240975.41</v>
       </c>
     </row>
     <row r="5074">
       <c r="A5074" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="B5074" t="n">
-        <v>10034636.877</v>
+        <v>9269022.852</v>
       </c>
     </row>
     <row r="5075">
       <c r="A5075" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="B5075" t="n">
-        <v>8218318.752</v>
+        <v>10034636.877</v>
       </c>
     </row>
     <row r="5076">
       <c r="A5076" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="B5076" t="n">
-        <v>9030081.539999999</v>
+        <v>8218318.752</v>
       </c>
     </row>
     <row r="5077">
       <c r="A5077" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="B5077" t="n">
-        <v>9212749.865</v>
+        <v>9030081.539999999</v>
       </c>
     </row>
     <row r="5078">
       <c r="A5078" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="B5078" t="n">
-        <v>9880601.411</v>
+        <v>9212749.865</v>
       </c>
     </row>
     <row r="5079">
       <c r="A5079" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="B5079" t="n">
-        <v>9874969.986</v>
+        <v>9880601.411</v>
       </c>
     </row>
     <row r="5080">
       <c r="A5080" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="B5080" t="n">
-        <v>10273334.73</v>
+        <v>9874969.986</v>
       </c>
     </row>
     <row r="5081">
       <c r="A5081" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B5081" t="n">
-        <v>10435634.731</v>
+        <v>10273334.73</v>
       </c>
     </row>
     <row r="5082">
       <c r="A5082" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B5082" t="n">
-        <v>10366318.076</v>
+        <v>10435634.731</v>
       </c>
     </row>
     <row r="5083">
       <c r="A5083" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="B5083" t="n">
-        <v>10213288.827</v>
+        <v>10366318.076</v>
       </c>
     </row>
     <row r="5084">
       <c r="A5084" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="B5084" t="n">
-        <v>9524273.433</v>
+        <v>10213288.827</v>
       </c>
     </row>
     <row r="5085">
       <c r="A5085" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="B5085" t="n">
-        <v>8112862.961</v>
+        <v>9524273.433</v>
       </c>
     </row>
     <row r="5086">
       <c r="A5086" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B5086" t="n">
-        <v>7953269.825</v>
+        <v>8112862.961</v>
       </c>
     </row>
     <row r="5087">
       <c r="A5087" t="inlineStr">
         <is>
-          <t>2023-03-29</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="B5087" t="n">
-        <v>7280535.923</v>
+        <v>7953269.825</v>
       </c>
     </row>
     <row r="5088">
       <c r="A5088" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-03-29</t>
         </is>
       </c>
       <c r="B5088" t="n">
-        <v>7702956.401</v>
+        <v>7280535.923</v>
       </c>
     </row>
     <row r="5089">
       <c r="A5089" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="B5089" t="n">
-        <v>7760533.554</v>
+        <v>7702956.401</v>
       </c>
     </row>
     <row r="5090">
       <c r="A5090" t="inlineStr">
         <is>
-          <t>2023-06-11</t>
+          <t>2023-04-19</t>
         </is>
       </c>
       <c r="B5090" t="n">
-        <v>8261999.766</v>
+        <v>7760533.554</v>
       </c>
     </row>
     <row r="5091">
       <c r="A5091" t="inlineStr">
         <is>
-          <t>2023-06-12</t>
+          <t>2023-06-11</t>
         </is>
       </c>
       <c r="B5091" t="n">
-        <v>8200427.591</v>
+        <v>8261999.766</v>
       </c>
     </row>
     <row r="5092">
       <c r="A5092" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-06-12</t>
         </is>
       </c>
       <c r="B5092" t="n">
-        <v>8214760.012</v>
+        <v>8200427.591</v>
       </c>
     </row>
     <row r="5093">
       <c r="A5093" t="inlineStr">
         <is>
-          <t>2018-10-06</t>
+          <t>2023-07-08</t>
         </is>
       </c>
       <c r="B5093" t="n">
-        <v>5589914.377</v>
+        <v>8214760.012</v>
       </c>
     </row>
     <row r="5094">
       <c r="A5094" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2018-10-06</t>
         </is>
       </c>
       <c r="B5094" t="n">
-        <v>13532358.233</v>
+        <v>5589914.377</v>
       </c>
     </row>
     <row r="5095">
       <c r="A5095" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2021-04-29</t>
         </is>
       </c>
       <c r="B5095" t="n">
-        <v>12614002.689</v>
+        <v>13532358.233</v>
       </c>
     </row>
     <row r="5096">
       <c r="A5096" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="B5096" t="n">
-        <v>16908871.181</v>
+        <v>12614002.689</v>
       </c>
     </row>
     <row r="5097">
       <c r="A5097" t="inlineStr">
         <is>
-          <t>2013-06-06</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B5097" t="n">
-        <v>4599987.198</v>
+        <v>16908871.181</v>
       </c>
     </row>
     <row r="5098">
       <c r="A5098" t="inlineStr">
         <is>
-          <t>2014-07-06</t>
+          <t>2013-06-06</t>
         </is>
       </c>
       <c r="B5098" t="n">
-        <v>2651817.344</v>
+        <v>4599987.198</v>
       </c>
     </row>
     <row r="5099">
       <c r="A5099" t="inlineStr">
         <is>
-          <t>2016-01-06</t>
+          <t>2014-07-06</t>
         </is>
       </c>
       <c r="B5099" t="n">
-        <v>4922546.397</v>
+        <v>2651817.344</v>
       </c>
     </row>
     <row r="5100">
       <c r="A5100" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2016-01-06</t>
         </is>
       </c>
       <c r="B5100" t="n">
-        <v>18944691.526</v>
+        <v>4922546.397</v>
       </c>
     </row>
     <row r="5101">
       <c r="A5101" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B5101" t="n">
-        <v>17508953.532</v>
+        <v>18944691.526</v>
       </c>
     </row>
     <row r="5102">
       <c r="A5102" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B5102" t="n">
-        <v>13539397.76</v>
+        <v>17508953.532</v>
       </c>
     </row>
     <row r="5103">
       <c r="A5103" t="inlineStr">
         <is>
-          <t>2018-10-22</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B5103" t="n">
-        <v>5898415.348</v>
+        <v>13539397.76</v>
       </c>
     </row>
     <row r="5104">
       <c r="A5104" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2018-10-22</t>
         </is>
       </c>
       <c r="B5104" t="n">
-        <v>13125869.478</v>
+        <v>5898415.348</v>
       </c>
     </row>
     <row r="5105">
       <c r="A5105" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="B5105" t="n">
-        <v>12536685.09</v>
+        <v>13125869.478</v>
       </c>
     </row>
     <row r="5106">
       <c r="A5106" t="inlineStr">
         <is>
-          <t>2013-06-10</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="B5106" t="n">
-        <v>4546996.485</v>
+        <v>12536685.09</v>
       </c>
     </row>
     <row r="5107">
       <c r="A5107" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2013-06-10</t>
         </is>
       </c>
       <c r="B5107" t="n">
-        <v>11463487.194</v>
+        <v>4546996.485</v>
       </c>
     </row>
     <row r="5108">
       <c r="A5108" t="inlineStr">
         <is>
-          <t>2014-07-12</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B5108" t="n">
-        <v>2584261.892</v>
+        <v>11463487.194</v>
       </c>
     </row>
     <row r="5109">
       <c r="A5109" t="inlineStr">
         <is>
-          <t>2016-02-04</t>
+          <t>2014-07-12</t>
         </is>
       </c>
       <c r="B5109" t="n">
-        <v>5485945.959</v>
+        <v>2584261.892</v>
       </c>
     </row>
     <row r="5110">
       <c r="A5110" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2016-02-04</t>
         </is>
       </c>
       <c r="B5110" t="n">
-        <v>17420607.699</v>
+        <v>5485945.959</v>
       </c>
     </row>
     <row r="5111">
       <c r="A5111" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="B5111" t="n">
-        <v>16742051.234</v>
+        <v>17420607.699</v>
       </c>
     </row>
     <row r="5112">
       <c r="A5112" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B5112" t="n">
-        <v>10154290.861</v>
+        <v>16742051.234</v>
       </c>
     </row>
     <row r="5113">
       <c r="A5113" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="B5113" t="n">
-        <v>5966396.144</v>
+        <v>10154290.861</v>
       </c>
     </row>
     <row r="5114">
       <c r="A5114" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="B5114" t="n">
-        <v>13060043.261</v>
+        <v>5966396.144</v>
       </c>
     </row>
     <row r="5115">
       <c r="A5115" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="B5115" t="n">
-        <v>13198740.126</v>
+        <v>13060043.261</v>
       </c>
     </row>
     <row r="5116">
       <c r="A5116" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="B5116" t="n">
-        <v>15762243.002</v>
+        <v>13198740.126</v>
       </c>
     </row>
     <row r="5117">
       <c r="A5117" t="inlineStr">
         <is>
-          <t>2013-06-27</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="B5117" t="n">
-        <v>4002308.164</v>
+        <v>15762243.002</v>
       </c>
     </row>
     <row r="5118">
       <c r="A5118" t="inlineStr">
         <is>
-          <t>2014-07-19</t>
+          <t>2013-06-27</t>
         </is>
       </c>
       <c r="B5118" t="n">
-        <v>2463584.735</v>
+        <v>4002308.164</v>
       </c>
     </row>
     <row r="5119">
       <c r="A5119" t="inlineStr">
         <is>
-          <t>2016-02-19</t>
+          <t>2014-07-19</t>
         </is>
       </c>
       <c r="B5119" t="n">
-        <v>5426730.361</v>
+        <v>2463584.735</v>
       </c>
     </row>
     <row r="5120">
       <c r="A5120" t="inlineStr">
         <is>
-          <t>2024-10-12</t>
+          <t>2016-02-19</t>
         </is>
       </c>
       <c r="B5120" t="n">
-        <v>10165678.695</v>
+        <v>5426730.361</v>
       </c>
     </row>
     <row r="5121">
       <c r="A5121" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2024-10-12</t>
         </is>
       </c>
       <c r="B5121" t="n">
-        <v>19324380.182</v>
+        <v>10165678.695</v>
       </c>
     </row>
     <row r="5122">
       <c r="A5122" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B5122" t="n">
-        <v>16662741.532</v>
+        <v>19324380.182</v>
       </c>
     </row>
     <row r="5123">
       <c r="A5123" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B5123" t="n">
-        <v>11982419.652</v>
+        <v>16662741.532</v>
       </c>
     </row>
     <row r="5124">
       <c r="A5124" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B5124" t="n">
-        <v>18518628.999</v>
+        <v>11982419.652</v>
       </c>
     </row>
     <row r="5125">
       <c r="A5125" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B5125" t="n">
-        <v>11533542.22</v>
+        <v>18518628.999</v>
       </c>
     </row>
     <row r="5126">
       <c r="A5126" t="inlineStr">
         <is>
-          <t>2018-11-29</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B5126" t="n">
-        <v>5868364.27</v>
+        <v>11533542.22</v>
       </c>
     </row>
     <row r="5127">
       <c r="A5127" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="B5127" t="n">
-        <v>12659047.396</v>
+        <v>5868364.27</v>
       </c>
     </row>
     <row r="5128">
       <c r="A5128" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2021-05-26</t>
         </is>
       </c>
       <c r="B5128" t="n">
-        <v>13742960</v>
+        <v>12659047.396</v>
       </c>
     </row>
     <row r="5129">
       <c r="A5129" t="inlineStr">
         <is>
-          <t>2013-06-28</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B5129" t="n">
-        <v>3944583.64</v>
+        <v>13742960</v>
       </c>
     </row>
     <row r="5130">
       <c r="A5130" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2013-06-28</t>
         </is>
       </c>
       <c r="B5130" t="n">
-        <v>11890718.505</v>
+        <v>3944583.64</v>
       </c>
     </row>
     <row r="5131">
       <c r="A5131" t="inlineStr">
         <is>
-          <t>2014-07-26</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B5131" t="n">
-        <v>2518919.825</v>
+        <v>11890718.505</v>
       </c>
     </row>
     <row r="5132">
       <c r="A5132" t="inlineStr">
         <is>
-          <t>2016-03-04</t>
+          <t>2014-07-26</t>
         </is>
       </c>
       <c r="B5132" t="n">
-        <v>5778833.318</v>
+        <v>2518919.825</v>
       </c>
     </row>
     <row r="5133">
       <c r="A5133" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2016-03-04</t>
         </is>
       </c>
       <c r="B5133" t="n">
-        <v>17921349.452</v>
+        <v>5778833.318</v>
       </c>
     </row>
     <row r="5134">
       <c r="A5134" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B5134" t="n">
-        <v>12190152.036</v>
+        <v>17921349.452</v>
       </c>
     </row>
     <row r="5135">
       <c r="A5135" t="inlineStr">
         <is>
-          <t>2019-01-13</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B5135" t="n">
-        <v>14122551.88</v>
+        <v>12190152.036</v>
       </c>
     </row>
     <row r="5136">
       <c r="A5136" t="inlineStr">
         <is>
-          <t>2021-06-14</t>
+          <t>2019-01-13</t>
         </is>
       </c>
       <c r="B5136" t="n">
-        <v>11639185.801</v>
+        <v>14122551.88</v>
       </c>
     </row>
     <row r="5137">
       <c r="A5137" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2021-06-14</t>
         </is>
       </c>
       <c r="B5137" t="n">
-        <v>15843658.658</v>
+        <v>11639185.801</v>
       </c>
     </row>
     <row r="5138">
       <c r="A5138" t="inlineStr">
         <is>
-          <t>2013-07-20</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="B5138" t="n">
-        <v>2418821.13</v>
+        <v>15843658.658</v>
       </c>
     </row>
     <row r="5139">
       <c r="A5139" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2013-07-20</t>
         </is>
       </c>
       <c r="B5139" t="n">
-        <v>19799814.996</v>
+        <v>2418821.13</v>
       </c>
     </row>
     <row r="5140">
       <c r="A5140" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B5140" t="n">
-        <v>16092268.729</v>
+        <v>19799814.996</v>
       </c>
     </row>
     <row r="5141">
       <c r="A5141" t="inlineStr">
         <is>
-          <t>2014-08-02</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="B5141" t="n">
-        <v>2629106.898</v>
+        <v>16092268.729</v>
       </c>
     </row>
     <row r="5142">
       <c r="A5142" t="inlineStr">
         <is>
-          <t>2016-03-18</t>
+          <t>2014-08-02</t>
         </is>
       </c>
       <c r="B5142" t="n">
-        <v>6029787.816</v>
+        <v>2629106.898</v>
       </c>
     </row>
     <row r="5143">
       <c r="A5143" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2016-03-18</t>
         </is>
       </c>
       <c r="B5143" t="n">
-        <v>13888250.184</v>
+        <v>6029787.816</v>
       </c>
     </row>
     <row r="5144">
       <c r="A5144" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B5144" t="n">
-        <v>13422882.236</v>
+        <v>13888250.184</v>
       </c>
     </row>
     <row r="5145">
       <c r="A5145" t="inlineStr">
         <is>
-          <t>2019-01-29</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B5145" t="n">
-        <v>15644638.336</v>
+        <v>13422882.236</v>
       </c>
     </row>
     <row r="5146">
       <c r="A5146" t="inlineStr">
         <is>
-          <t>2021-06-29</t>
+          <t>2019-01-29</t>
         </is>
       </c>
       <c r="B5146" t="n">
-        <v>10913626.968</v>
+        <v>15644638.336</v>
       </c>
     </row>
     <row r="5147">
       <c r="A5147" t="inlineStr">
         <is>
-          <t>2024-03-23</t>
+          <t>2021-06-29</t>
         </is>
       </c>
       <c r="B5147" t="n">
-        <v>19077349.963</v>
+        <v>10913626.968</v>
       </c>
     </row>
     <row r="5148">
       <c r="A5148" t="inlineStr">
         <is>
-          <t>2013-08-08</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="B5148" t="n">
-        <v>2304856.993</v>
+        <v>19077349.963</v>
       </c>
     </row>
     <row r="5149">
       <c r="A5149" t="inlineStr">
         <is>
-          <t>2014-08-08</t>
+          <t>2013-08-08</t>
         </is>
       </c>
       <c r="B5149" t="n">
-        <v>2848618.131</v>
+        <v>2304856.993</v>
       </c>
     </row>
     <row r="5150">
       <c r="A5150" t="inlineStr">
         <is>
-          <t>2016-04-16</t>
+          <t>2014-08-08</t>
         </is>
       </c>
       <c r="B5150" t="n">
-        <v>6185360.008</v>
+        <v>2848618.131</v>
       </c>
     </row>
     <row r="5151">
       <c r="A5151" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2016-04-16</t>
         </is>
       </c>
       <c r="B5151" t="n">
-        <v>13449347.64</v>
+        <v>6185360.008</v>
       </c>
     </row>
     <row r="5152">
       <c r="A5152" t="inlineStr">
         <is>
-          <t>2019-02-14</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B5152" t="n">
-        <v>15372460.768</v>
+        <v>13449347.64</v>
       </c>
     </row>
     <row r="5153">
       <c r="A5153" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2019-02-14</t>
         </is>
       </c>
       <c r="B5153" t="n">
-        <v>9416090.248</v>
+        <v>15372460.768</v>
       </c>
     </row>
     <row r="5154">
       <c r="A5154" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="B5154" t="n">
-        <v>19554838.811</v>
+        <v>9416090.248</v>
       </c>
     </row>
     <row r="5155">
       <c r="A5155" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-03-30</t>
         </is>
       </c>
       <c r="B5155" t="n">
-        <v>15736728.197</v>
+        <v>19554838.811</v>
       </c>
     </row>
     <row r="5156">
       <c r="A5156" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="B5156" t="n">
-        <v>18061928.338</v>
+        <v>15736728.197</v>
       </c>
     </row>
     <row r="5157">
       <c r="A5157" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B5157" t="n">
-        <v>18195056.999</v>
+        <v>18061928.338</v>
       </c>
     </row>
     <row r="5158">
       <c r="A5158" t="inlineStr">
         <is>
-          <t>2013-08-22</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B5158" t="n">
-        <v>2483113.932</v>
+        <v>18195056.999</v>
       </c>
     </row>
     <row r="5159">
       <c r="A5159" t="inlineStr">
         <is>
-          <t>2014-08-24</t>
+          <t>2013-08-22</t>
         </is>
       </c>
       <c r="B5159" t="n">
-        <v>2907894.968</v>
+        <v>2483113.932</v>
       </c>
     </row>
     <row r="5160">
       <c r="A5160" t="inlineStr">
         <is>
-          <t>2016-04-30</t>
+          <t>2014-08-24</t>
         </is>
       </c>
       <c r="B5160" t="n">
-        <v>5584076.258</v>
+        <v>2907894.968</v>
       </c>
     </row>
     <row r="5161">
       <c r="A5161" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2016-04-30</t>
         </is>
       </c>
       <c r="B5161" t="n">
-        <v>10139727.84</v>
+        <v>5584076.258</v>
       </c>
     </row>
     <row r="5162">
       <c r="A5162" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="B5162" t="n">
-        <v>20311437.78</v>
+        <v>10139727.84</v>
       </c>
     </row>
     <row r="5163">
       <c r="A5163" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="B5163" t="n">
-        <v>19921671.37</v>
+        <v>20311437.78</v>
       </c>
     </row>
     <row r="5164">
       <c r="A5164" t="inlineStr">
         <is>
-          <t>2019-03-08</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="B5164" t="n">
-        <v>7888479.131</v>
+        <v>19921671.37</v>
       </c>
     </row>
     <row r="5165">
       <c r="A5165" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2019-03-08</t>
         </is>
       </c>
       <c r="B5165" t="n">
-        <v>10017123.009</v>
+        <v>7888479.131</v>
       </c>
     </row>
     <row r="5166">
       <c r="A5166" t="inlineStr">
         <is>
-          <t>2024-04-06</t>
+          <t>2021-08-08</t>
         </is>
       </c>
       <c r="B5166" t="n">
-        <v>19912305.448</v>
+        <v>10017123.009</v>
       </c>
     </row>
     <row r="5167">
       <c r="A5167" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-04-06</t>
         </is>
       </c>
       <c r="B5167" t="n">
-        <v>15408192.117</v>
+        <v>19912305.448</v>
       </c>
     </row>
     <row r="5168">
       <c r="A5168" t="inlineStr">
         <is>
-          <t>2013-09-08</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="B5168" t="n">
-        <v>2309043.439</v>
+        <v>15408192.117</v>
       </c>
     </row>
     <row r="5169">
       <c r="A5169" t="inlineStr">
         <is>
-          <t>2014-08-30</t>
+          <t>2013-09-08</t>
         </is>
       </c>
       <c r="B5169" t="n">
-        <v>2814593.841</v>
+        <v>2309043.439</v>
       </c>
     </row>
     <row r="5170">
       <c r="A5170" t="inlineStr">
         <is>
-          <t>2016-05-11</t>
+          <t>2014-08-30</t>
         </is>
       </c>
       <c r="B5170" t="n">
-        <v>5531832.262</v>
+        <v>2814593.841</v>
       </c>
     </row>
     <row r="5171">
       <c r="A5171" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2016-05-11</t>
         </is>
       </c>
       <c r="B5171" t="n">
-        <v>13010963.419</v>
+        <v>5531832.262</v>
       </c>
     </row>
     <row r="5172">
       <c r="A5172" t="inlineStr">
         <is>
-          <t>2019-03-14</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="B5172" t="n">
-        <v>7713021.774</v>
+        <v>13010963.419</v>
       </c>
     </row>
     <row r="5173">
       <c r="A5173" t="inlineStr">
         <is>
-          <t>2021-08-13</t>
+          <t>2019-03-14</t>
         </is>
       </c>
       <c r="B5173" t="n">
-        <v>9574167.65</v>
+        <v>7713021.774</v>
       </c>
     </row>
     <row r="5174">
       <c r="A5174" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2021-08-13</t>
         </is>
       </c>
       <c r="B5174" t="n">
-        <v>17931313.804</v>
+        <v>9574167.65</v>
       </c>
     </row>
     <row r="5175">
       <c r="A5175" t="inlineStr">
         <is>
-          <t>2013-09-10</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="B5175" t="n">
-        <v>2350507.87</v>
+        <v>17931313.804</v>
       </c>
     </row>
     <row r="5176">
       <c r="A5176" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2013-09-10</t>
         </is>
       </c>
       <c r="B5176" t="n">
-        <v>13202621.428</v>
+        <v>2350507.87</v>
       </c>
     </row>
     <row r="5177">
       <c r="A5177" t="inlineStr">
         <is>
-          <t>2014-09-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B5177" t="n">
-        <v>2654246.128</v>
+        <v>13202621.428</v>
       </c>
     </row>
     <row r="5178">
       <c r="A5178" t="inlineStr">
         <is>
-          <t>2016-05-26</t>
+          <t>2014-09-24</t>
         </is>
       </c>
       <c r="B5178" t="n">
-        <v>5654997.006</v>
+        <v>2654246.128</v>
       </c>
     </row>
     <row r="5179">
       <c r="A5179" t="inlineStr">
         <is>
-          <t>2019-03-30</t>
+          <t>2016-05-26</t>
         </is>
       </c>
       <c r="B5179" t="n">
-        <v>7636682.731</v>
+        <v>5654997.006</v>
       </c>
     </row>
     <row r="5180">
       <c r="A5180" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2019-03-30</t>
         </is>
       </c>
       <c r="B5180" t="n">
-        <v>9115635.342</v>
+        <v>7636682.731</v>
       </c>
     </row>
     <row r="5181">
       <c r="A5181" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2021-08-18</t>
         </is>
       </c>
       <c r="B5181" t="n">
-        <v>17680988.152</v>
+        <v>9115635.342</v>
       </c>
     </row>
     <row r="5182">
       <c r="A5182" t="inlineStr">
         <is>
-          <t>2013-10-04</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="B5182" t="n">
-        <v>2315949.206</v>
+        <v>17680988.152</v>
       </c>
     </row>
     <row r="5183">
       <c r="A5183" t="inlineStr">
         <is>
-          <t>2016-07-20</t>
+          <t>2013-10-04</t>
         </is>
       </c>
       <c r="B5183" t="n">
-        <v>5964902.839</v>
+        <v>2315949.206</v>
       </c>
     </row>
     <row r="5184">
       <c r="A5184" t="inlineStr">
         <is>
-          <t>2014-09-30</t>
+          <t>2016-07-20</t>
         </is>
       </c>
       <c r="B5184" t="n">
-        <v>2625686.029</v>
+        <v>5964902.839</v>
       </c>
     </row>
     <row r="5185">
       <c r="A5185" t="inlineStr">
         <is>
-          <t>2019-04-15</t>
+          <t>2014-09-30</t>
         </is>
       </c>
       <c r="B5185" t="n">
-        <v>6167355.699</v>
+        <v>2625686.029</v>
       </c>
     </row>
     <row r="5186">
       <c r="A5186" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-04-15</t>
         </is>
       </c>
       <c r="B5186" t="n">
-        <v>8491040.936000001</v>
+        <v>6167355.699</v>
       </c>
     </row>
     <row r="5187">
       <c r="A5187" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="B5187" t="n">
-        <v>17316630.871</v>
+        <v>8491040.936000001</v>
       </c>
     </row>
     <row r="5188">
       <c r="A5188" t="inlineStr">
         <is>
-          <t>2013-10-22</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="B5188" t="n">
-        <v>2877443.953</v>
+        <v>17316630.871</v>
       </c>
     </row>
     <row r="5189">
       <c r="A5189" t="inlineStr">
         <is>
-          <t>2016-08-03</t>
+          <t>2013-10-22</t>
         </is>
       </c>
       <c r="B5189" t="n">
-        <v>5948319.051</v>
+        <v>2877443.953</v>
       </c>
     </row>
     <row r="5190">
       <c r="A5190" t="inlineStr">
         <is>
-          <t>2014-10-07</t>
+          <t>2016-08-03</t>
         </is>
       </c>
       <c r="B5190" t="n">
-        <v>2920545.529</v>
+        <v>5948319.051</v>
       </c>
     </row>
     <row r="5191">
       <c r="A5191" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2014-10-07</t>
         </is>
       </c>
       <c r="B5191" t="n">
-        <v>9876625.647</v>
+        <v>2920545.529</v>
       </c>
     </row>
     <row r="5192">
       <c r="A5192" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B5192" t="n">
-        <v>9348543.609999999</v>
+        <v>9876625.647</v>
       </c>
     </row>
     <row r="5193">
       <c r="A5193" t="inlineStr">
         <is>
-          <t>2019-04-30</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B5193" t="n">
-        <v>6286634.574</v>
+        <v>9348543.609999999</v>
       </c>
     </row>
     <row r="5194">
       <c r="A5194" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2019-04-30</t>
         </is>
       </c>
       <c r="B5194" t="n">
-        <v>8893796.503</v>
+        <v>6286634.574</v>
       </c>
     </row>
     <row r="5195">
       <c r="A5195" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2021-09-26</t>
         </is>
       </c>
       <c r="B5195" t="n">
-        <v>16658702.812</v>
+        <v>8893796.503</v>
       </c>
     </row>
     <row r="5196">
       <c r="A5196" t="inlineStr">
         <is>
-          <t>2024-07-06</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="B5196" t="n">
-        <v>15649596.102</v>
+        <v>16658702.812</v>
       </c>
     </row>
     <row r="5197">
       <c r="A5197" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-07-06</t>
         </is>
       </c>
       <c r="B5197" t="n">
-        <v>11176294.018</v>
+        <v>15649596.102</v>
       </c>
     </row>
     <row r="5198">
       <c r="A5198" t="inlineStr">
         <is>
-          <t>2013-10-25</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B5198" t="n">
-        <v>3355406.547</v>
+        <v>11176294.018</v>
       </c>
     </row>
     <row r="5199">
       <c r="A5199" t="inlineStr">
         <is>
-          <t>2014-10-14</t>
+          <t>2013-10-25</t>
         </is>
       </c>
       <c r="B5199" t="n">
-        <v>3051641.316</v>
+        <v>3355406.547</v>
       </c>
     </row>
     <row r="5200">
       <c r="A5200" t="inlineStr">
         <is>
-          <t>2016-08-18</t>
+          <t>2014-10-14</t>
         </is>
       </c>
       <c r="B5200" t="n">
-        <v>5520205.846</v>
+        <v>3051641.316</v>
       </c>
     </row>
     <row r="5201">
       <c r="A5201" t="inlineStr">
         <is>
-          <t>2019-05-09</t>
+          <t>2016-08-18</t>
         </is>
       </c>
       <c r="B5201" t="n">
-        <v>6645336.202</v>
+        <v>5520205.846</v>
       </c>
     </row>
     <row r="5202">
       <c r="A5202" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2019-05-09</t>
         </is>
       </c>
       <c r="B5202" t="n">
-        <v>8760085.365</v>
+        <v>6645336.202</v>
       </c>
     </row>
     <row r="5203">
       <c r="A5203" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="B5203" t="n">
-        <v>20506438.825</v>
+        <v>8760085.365</v>
       </c>
     </row>
     <row r="5204">
       <c r="A5204" t="inlineStr">
         <is>
-          <t>2013-11-17</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B5204" t="n">
-        <v>4107747.394</v>
+        <v>20506438.825</v>
       </c>
     </row>
     <row r="5205">
       <c r="A5205" t="inlineStr">
         <is>
-          <t>2016-09-03</t>
+          <t>2013-11-17</t>
         </is>
       </c>
       <c r="B5205" t="n">
-        <v>5203377.911</v>
+        <v>4107747.394</v>
       </c>
     </row>
     <row r="5206">
       <c r="A5206" t="inlineStr">
         <is>
-          <t>2014-10-22</t>
+          <t>2016-09-03</t>
         </is>
       </c>
       <c r="B5206" t="n">
-        <v>3035976.286</v>
+        <v>5203377.911</v>
       </c>
     </row>
     <row r="5207">
       <c r="A5207" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2014-10-22</t>
         </is>
       </c>
       <c r="B5207" t="n">
-        <v>18413104.776</v>
+        <v>3035976.286</v>
       </c>
     </row>
     <row r="5208">
       <c r="A5208" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B5208" t="n">
-        <v>7905786.007</v>
+        <v>18413104.776</v>
       </c>
     </row>
     <row r="5209">
       <c r="A5209" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="B5209" t="n">
-        <v>9073650.025</v>
+        <v>7905786.007</v>
       </c>
     </row>
     <row r="5210">
       <c r="A5210" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="B5210" t="n">
-        <v>19218055.445</v>
+        <v>9073650.025</v>
       </c>
     </row>
     <row r="5211">
       <c r="A5211" t="inlineStr">
         <is>
-          <t>2013-12-16</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B5211" t="n">
-        <v>5816249.876</v>
+        <v>19218055.445</v>
       </c>
     </row>
     <row r="5212">
       <c r="A5212" t="inlineStr">
         <is>
-          <t>2016-10-09</t>
+          <t>2013-12-16</t>
         </is>
       </c>
       <c r="B5212" t="n">
-        <v>4052991.609</v>
+        <v>5816249.876</v>
       </c>
     </row>
     <row r="5213">
       <c r="A5213" t="inlineStr">
         <is>
-          <t>2014-11-04</t>
+          <t>2016-10-09</t>
         </is>
       </c>
       <c r="B5213" t="n">
-        <v>2855446.32</v>
+        <v>4052991.609</v>
       </c>
     </row>
     <row r="5214">
       <c r="A5214" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2014-11-04</t>
         </is>
       </c>
       <c r="B5214" t="n">
-        <v>9252340.935000001</v>
+        <v>2855446.32</v>
       </c>
     </row>
     <row r="5215">
       <c r="A5215" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
       <c r="B5215" t="n">
-        <v>14880148.605</v>
+        <v>9252340.935000001</v>
       </c>
     </row>
     <row r="5216">
       <c r="A5216" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B5216" t="n">
-        <v>12724123.607</v>
+        <v>14880148.605</v>
       </c>
     </row>
     <row r="5217">
       <c r="A5217" t="inlineStr">
         <is>
-          <t>2019-08-21</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B5217" t="n">
-        <v>12393381.677</v>
+        <v>12724123.607</v>
       </c>
     </row>
     <row r="5218">
       <c r="A5218" t="inlineStr">
         <is>
-          <t>2021-12-01</t>
+          <t>2019-08-21</t>
         </is>
       </c>
       <c r="B5218" t="n">
-        <v>9613862.286</v>
+        <v>12393381.677</v>
       </c>
     </row>
     <row r="5219">
       <c r="A5219" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="B5219" t="n">
-        <v>18218036.776</v>
+        <v>9613862.286</v>
       </c>
     </row>
     <row r="5220">
       <c r="A5220" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B5220" t="n">
-        <v>16265749.775</v>
+        <v>18218036.776</v>
       </c>
     </row>
     <row r="5221">
       <c r="A5221" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2024-07-27</t>
         </is>
       </c>
       <c r="B5221" t="n">
-        <v>16670126.739</v>
+        <v>16265749.775</v>
       </c>
     </row>
     <row r="5222">
       <c r="A5222" t="inlineStr">
         <is>
-          <t>2013-12-26</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="B5222" t="n">
-        <v>6915819.538</v>
+        <v>16670126.739</v>
       </c>
     </row>
     <row r="5223">
       <c r="A5223" t="inlineStr">
         <is>
-          <t>2014-11-12</t>
+          <t>2013-12-26</t>
         </is>
       </c>
       <c r="B5223" t="n">
-        <v>3023467.834</v>
+        <v>6915819.538</v>
       </c>
     </row>
     <row r="5224">
       <c r="A5224" t="inlineStr">
         <is>
-          <t>2010-09-24</t>
+          <t>2014-11-12</t>
         </is>
       </c>
       <c r="B5224" t="n">
-        <v>112259.447</v>
+        <v>3023467.834</v>
       </c>
     </row>
     <row r="5225">
       <c r="A5225" t="inlineStr">
         <is>
-          <t>2016-10-23</t>
+          <t>2010-09-24</t>
         </is>
       </c>
       <c r="B5225" t="n">
-        <v>4402004.723</v>
+        <v>112259.447</v>
       </c>
     </row>
     <row r="5226">
       <c r="A5226" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2016-10-23</t>
         </is>
       </c>
       <c r="B5226" t="n">
-        <v>18095870.058</v>
+        <v>4402004.723</v>
       </c>
     </row>
     <row r="5227">
       <c r="A5227" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B5227" t="n">
-        <v>19014663.42</v>
+        <v>18095870.058</v>
       </c>
     </row>
     <row r="5228">
       <c r="A5228" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="B5228" t="n">
-        <v>9408798.934</v>
+        <v>19014663.42</v>
       </c>
     </row>
     <row r="5229">
       <c r="A5229" t="inlineStr">
         <is>
-          <t>2019-09-19</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B5229" t="n">
-        <v>11427939.892</v>
+        <v>9408798.934</v>
       </c>
     </row>
     <row r="5230">
       <c r="A5230" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
+          <t>2019-09-19</t>
         </is>
       </c>
       <c r="B5230" t="n">
-        <v>9957806.918</v>
+        <v>11427939.892</v>
       </c>
     </row>
     <row r="5231">
       <c r="A5231" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="B5231" t="n">
-        <v>17239012.79</v>
+        <v>9957806.918</v>
       </c>
     </row>
     <row r="5232">
       <c r="A5232" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B5232" t="n">
-        <v>11167233.165</v>
+        <v>17239012.79</v>
       </c>
     </row>
     <row r="5233">
       <c r="A5233" t="inlineStr">
         <is>
-          <t>2016-12-09</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B5233" t="n">
-        <v>5405479.025</v>
+        <v>11167233.165</v>
       </c>
     </row>
     <row r="5234">
       <c r="A5234" t="inlineStr">
         <is>
-          <t>2014-01-10</t>
+          <t>2016-12-09</t>
         </is>
       </c>
       <c r="B5234" t="n">
-        <v>6911767.667</v>
+        <v>5405479.025</v>
       </c>
     </row>
     <row r="5235">
       <c r="A5235" t="inlineStr">
         <is>
-          <t>2014-11-18</t>
+          <t>2014-01-10</t>
         </is>
       </c>
       <c r="B5235" t="n">
-        <v>3039813.332</v>
+        <v>6911767.667</v>
       </c>
     </row>
     <row r="5236">
       <c r="A5236" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2014-11-18</t>
         </is>
       </c>
       <c r="B5236" t="n">
-        <v>10958641.073</v>
+        <v>3039813.332</v>
       </c>
     </row>
     <row r="5237">
       <c r="A5237" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B5237" t="n">
-        <v>10512254.974</v>
+        <v>10958641.073</v>
       </c>
     </row>
     <row r="5238">
       <c r="A5238" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B5238" t="n">
-        <v>18752011.913</v>
+        <v>10512254.974</v>
       </c>
     </row>
     <row r="5239">
       <c r="A5239" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B5239" t="n">
-        <v>18684510.463</v>
+        <v>18752011.913</v>
       </c>
     </row>
     <row r="5240">
       <c r="A5240" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B5240" t="n">
-        <v>9947791.287</v>
+        <v>18684510.463</v>
       </c>
     </row>
     <row r="5241">
       <c r="A5241" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="B5241" t="n">
-        <v>8830961.847999999</v>
+        <v>9947791.287</v>
       </c>
     </row>
     <row r="5242">
       <c r="A5242" t="inlineStr">
         <is>
-          <t>2014-01-19</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="B5242" t="n">
-        <v>6709581.37</v>
+        <v>8830961.847999999</v>
       </c>
     </row>
     <row r="5243">
       <c r="A5243" t="inlineStr">
         <is>
-          <t>2016-12-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
       <c r="B5243" t="n">
-        <v>5441150.314</v>
+        <v>6709581.37</v>
       </c>
     </row>
     <row r="5244">
       <c r="A5244" t="inlineStr">
         <is>
-          <t>2014-12-15</t>
+          <t>2016-12-14</t>
         </is>
       </c>
       <c r="B5244" t="n">
-        <v>3652983.074</v>
+        <v>5441150.314</v>
       </c>
     </row>
     <row r="5245">
       <c r="A5245" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2014-12-15</t>
         </is>
       </c>
       <c r="B5245" t="n">
-        <v>14765108.135</v>
+        <v>3652983.074</v>
       </c>
     </row>
     <row r="5246">
       <c r="A5246" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B5246" t="n">
-        <v>10407093</v>
+        <v>14765108.135</v>
       </c>
     </row>
     <row r="5247">
       <c r="A5247" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B5247" t="n">
-        <v>12989124.134</v>
+        <v>10407093</v>
       </c>
     </row>
     <row r="5248">
       <c r="A5248" t="inlineStr">
         <is>
-          <t>2019-10-25</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="B5248" t="n">
-        <v>10081112.066</v>
+        <v>12989124.134</v>
       </c>
     </row>
     <row r="5249">
       <c r="A5249" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="B5249" t="n">
-        <v>9996728.27</v>
+        <v>10081112.066</v>
       </c>
     </row>
     <row r="5250">
       <c r="A5250" t="inlineStr">
         <is>
-          <t>2014-01-20</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="B5250" t="n">
-        <v>6614252.892</v>
+        <v>9996728.27</v>
       </c>
     </row>
     <row r="5251">
       <c r="A5251" t="inlineStr">
         <is>
-          <t>2016-12-30</t>
+          <t>2014-01-20</t>
         </is>
       </c>
       <c r="B5251" t="n">
-        <v>6503628.164</v>
+        <v>6614252.892</v>
       </c>
     </row>
     <row r="5252">
       <c r="A5252" t="inlineStr">
         <is>
-          <t>2014-12-22</t>
+          <t>2016-12-30</t>
         </is>
       </c>
       <c r="B5252" t="n">
-        <v>3563708.16</v>
+        <v>6503628.164</v>
       </c>
     </row>
     <row r="5253">
       <c r="A5253" t="inlineStr">
         <is>
-          <t>2010-09-21</t>
+          <t>2014-12-22</t>
         </is>
       </c>
       <c r="B5253" t="n">
-        <v>111207.989</v>
+        <v>3563708.16</v>
       </c>
     </row>
     <row r="5254">
       <c r="A5254" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2010-09-21</t>
         </is>
       </c>
       <c r="B5254" t="n">
-        <v>19753403.705</v>
+        <v>111207.989</v>
       </c>
     </row>
     <row r="5255">
       <c r="A5255" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B5255" t="n">
-        <v>8145349.405</v>
+        <v>19753403.705</v>
       </c>
     </row>
     <row r="5256">
       <c r="A5256" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B5256" t="n">
-        <v>8685248.65</v>
+        <v>8145349.405</v>
       </c>
     </row>
     <row r="5257">
       <c r="A5257" t="inlineStr">
         <is>
-          <t>2014-01-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="B5257" t="n">
-        <v>6168423.578</v>
+        <v>8685248.65</v>
       </c>
     </row>
     <row r="5258">
       <c r="A5258" t="inlineStr">
         <is>
-          <t>2017-01-29</t>
+          <t>2014-01-23</t>
         </is>
       </c>
       <c r="B5258" t="n">
-        <v>7399149.518</v>
+        <v>6168423.578</v>
       </c>
     </row>
     <row r="5259">
       <c r="A5259" t="inlineStr">
         <is>
-          <t>2014-12-28</t>
+          <t>2017-01-29</t>
         </is>
       </c>
       <c r="B5259" t="n">
-        <v>3660548.296</v>
+        <v>7399149.518</v>
       </c>
     </row>
     <row r="5260">
       <c r="A5260" t="inlineStr">
         <is>
-          <t>2011-07-03</t>
+          <t>2014-12-28</t>
         </is>
       </c>
       <c r="B5260" t="n">
-        <v>1736677.834</v>
+        <v>3660548.296</v>
       </c>
     </row>
     <row r="5261">
       <c r="A5261" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2011-07-03</t>
         </is>
       </c>
       <c r="B5261" t="n">
-        <v>18949481.536</v>
+        <v>1736677.834</v>
       </c>
     </row>
     <row r="5262">
       <c r="A5262" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="B5262" t="n">
-        <v>12847069.898</v>
+        <v>18949481.536</v>
       </c>
     </row>
     <row r="5263">
       <c r="A5263" t="inlineStr">
         <is>
-          <t>2019-12-29</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B5263" t="n">
-        <v>8042178.284</v>
+        <v>12847069.898</v>
       </c>
     </row>
     <row r="5264">
       <c r="A5264" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2019-12-29</t>
         </is>
       </c>
       <c r="B5264" t="n">
-        <v>9941198.092</v>
+        <v>8042178.284</v>
       </c>
     </row>
     <row r="5265">
       <c r="A5265" t="inlineStr">
         <is>
-          <t>2014-02-10</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="B5265" t="n">
-        <v>6482705.217</v>
+        <v>9941198.092</v>
       </c>
     </row>
     <row r="5266">
       <c r="A5266" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2014-02-10</t>
         </is>
       </c>
       <c r="B5266" t="n">
-        <v>3639884.552</v>
+        <v>6482705.217</v>
       </c>
     </row>
     <row r="5267">
       <c r="A5267" t="inlineStr">
         <is>
-          <t>2011-09-13</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="B5267" t="n">
-        <v>992731.454</v>
+        <v>3639884.552</v>
       </c>
     </row>
     <row r="5268">
       <c r="A5268" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2011-09-13</t>
         </is>
       </c>
       <c r="B5268" t="n">
-        <v>12025387.77</v>
+        <v>992731.454</v>
       </c>
     </row>
     <row r="5269">
       <c r="A5269" t="inlineStr">
         <is>
-          <t>2017-02-14</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B5269" t="n">
-        <v>7583332.734</v>
+        <v>12025387.77</v>
       </c>
     </row>
     <row r="5270">
       <c r="A5270" t="inlineStr">
         <is>
-          <t>2017-04-03</t>
+          <t>2017-02-14</t>
         </is>
       </c>
       <c r="B5270" t="n">
-        <v>9243648.802999999</v>
+        <v>7583332.734</v>
       </c>
     </row>
     <row r="5271">
       <c r="A5271" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2017-04-03</t>
         </is>
       </c>
       <c r="B5271" t="n">
-        <v>11517746.211</v>
+        <v>9243648.802999999</v>
       </c>
     </row>
     <row r="5272">
       <c r="A5272" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B5272" t="n">
-        <v>19403702.941</v>
+        <v>11517746.211</v>
       </c>
     </row>
     <row r="5273">
       <c r="A5273" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B5273" t="n">
-        <v>7135383.216</v>
+        <v>19403702.941</v>
       </c>
     </row>
     <row r="5274">
       <c r="A5274" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="B5274" t="n">
-        <v>10037167.8</v>
+        <v>7135383.216</v>
       </c>
     </row>
     <row r="5275">
       <c r="A5275" t="inlineStr">
         <is>
-          <t>2014-02-14</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="B5275" t="n">
-        <v>6165888.39</v>
+        <v>10037167.8</v>
       </c>
     </row>
     <row r="5276">
       <c r="A5276" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2014-02-14</t>
         </is>
       </c>
       <c r="B5276" t="n">
-        <v>18605805.647</v>
+        <v>6165888.39</v>
       </c>
     </row>
     <row r="5277">
       <c r="A5277" t="inlineStr">
         <is>
-          <t>2017-02-15</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B5277" t="n">
-        <v>7448825.404</v>
+        <v>18605805.647</v>
       </c>
     </row>
     <row r="5278">
       <c r="A5278" t="inlineStr">
         <is>
-          <t>2015-01-18</t>
+          <t>2017-02-15</t>
         </is>
       </c>
       <c r="B5278" t="n">
-        <v>4062626.204</v>
+        <v>7448825.404</v>
       </c>
     </row>
     <row r="5279">
       <c r="A5279" t="inlineStr">
         <is>
-          <t>2011-09-27</t>
+          <t>2015-01-18</t>
         </is>
       </c>
       <c r="B5279" t="n">
-        <v>744327.885</v>
+        <v>4062626.204</v>
       </c>
     </row>
     <row r="5280">
       <c r="A5280" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2011-09-27</t>
         </is>
       </c>
       <c r="B5280" t="n">
-        <v>18754649.599</v>
+        <v>744327.885</v>
       </c>
     </row>
     <row r="5281">
       <c r="A5281" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B5281" t="n">
-        <v>18648006.799</v>
+        <v>18754649.599</v>
       </c>
     </row>
     <row r="5282">
       <c r="A5282" t="inlineStr">
         <is>
-          <t>2017-08-24</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B5282" t="n">
-        <v>19382954.778</v>
+        <v>18648006.799</v>
       </c>
     </row>
     <row r="5283">
       <c r="A5283" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2017-08-24</t>
         </is>
       </c>
       <c r="B5283" t="n">
-        <v>8319527.642</v>
+        <v>19382954.778</v>
       </c>
     </row>
     <row r="5284">
       <c r="A5284" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B5284" t="n">
-        <v>10152904.599</v>
+        <v>8319527.642</v>
       </c>
     </row>
     <row r="5285">
       <c r="A5285" t="inlineStr">
         <is>
-          <t>2014-02-26</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="B5285" t="n">
-        <v>4892785.663</v>
+        <v>10152904.599</v>
       </c>
     </row>
     <row r="5286">
       <c r="A5286" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2014-02-26</t>
         </is>
       </c>
       <c r="B5286" t="n">
-        <v>15630701.474</v>
+        <v>4892785.663</v>
       </c>
     </row>
     <row r="5287">
       <c r="A5287" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B5287" t="n">
-        <v>11711443.8</v>
+        <v>15630701.474</v>
       </c>
     </row>
     <row r="5288">
       <c r="A5288" t="inlineStr">
         <is>
-          <t>2017-03-06</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B5288" t="n">
-        <v>7818647.054</v>
+        <v>11711443.8</v>
       </c>
     </row>
     <row r="5289">
       <c r="A5289" t="inlineStr">
         <is>
-          <t>2015-01-26</t>
+          <t>2017-03-06</t>
         </is>
       </c>
       <c r="B5289" t="n">
-        <v>4227141.883</v>
+        <v>7818647.054</v>
       </c>
     </row>
     <row r="5290">
       <c r="A5290" t="inlineStr">
         <is>
-          <t>2011-10-11</t>
+          <t>2015-01-26</t>
         </is>
       </c>
       <c r="B5290" t="n">
-        <v>733876.334</v>
+        <v>4227141.883</v>
       </c>
     </row>
     <row r="5291">
       <c r="A5291" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2011-10-11</t>
         </is>
       </c>
       <c r="B5291" t="n">
-        <v>11437944.275</v>
+        <v>733876.334</v>
       </c>
     </row>
     <row r="5292">
       <c r="A5292" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B5292" t="n">
-        <v>8278468.575</v>
+        <v>11437944.275</v>
       </c>
     </row>
     <row r="5293">
       <c r="A5293" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B5293" t="n">
-        <v>8620307.16</v>
+        <v>8278468.575</v>
       </c>
     </row>
     <row r="5294">
       <c r="A5294" t="inlineStr">
         <is>
-          <t>2014-03-15</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="B5294" t="n">
-        <v>6519122.467</v>
+        <v>8620307.16</v>
       </c>
     </row>
     <row r="5295">
       <c r="A5295" t="inlineStr">
         <is>
-          <t>2017-03-12</t>
+          <t>2014-03-15</t>
         </is>
       </c>
       <c r="B5295" t="n">
-        <v>8015167.541</v>
+        <v>6519122.467</v>
       </c>
     </row>
     <row r="5296">
       <c r="A5296" t="inlineStr">
         <is>
-          <t>2015-02-02</t>
+          <t>2017-03-12</t>
         </is>
       </c>
       <c r="B5296" t="n">
-        <v>4214903.008</v>
+        <v>8015167.541</v>
       </c>
     </row>
     <row r="5297">
       <c r="A5297" t="inlineStr">
         <is>
-          <t>2011-10-28</t>
+          <t>2015-02-02</t>
         </is>
       </c>
       <c r="B5297" t="n">
-        <v>735721.417</v>
+        <v>4214903.008</v>
       </c>
     </row>
     <row r="5298">
       <c r="A5298" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="B5298" t="n">
-        <v>18201448.889</v>
+        <v>735721.417</v>
       </c>
     </row>
     <row r="5299">
       <c r="A5299" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B5299" t="n">
-        <v>12856671.682</v>
+        <v>18201448.889</v>
       </c>
     </row>
     <row r="5300">
       <c r="A5300" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B5300" t="n">
-        <v>7919062.632</v>
+        <v>12856671.682</v>
       </c>
     </row>
     <row r="5301">
       <c r="A5301" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B5301" t="n">
-        <v>9519524.592</v>
+        <v>7919062.632</v>
       </c>
     </row>
     <row r="5302">
       <c r="A5302" t="inlineStr">
         <is>
-          <t>2014-03-18</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="B5302" t="n">
-        <v>6370558.748</v>
+        <v>9519524.592</v>
       </c>
     </row>
     <row r="5303">
       <c r="A5303" t="inlineStr">
         <is>
-          <t>2017-03-21</t>
+          <t>2014-03-18</t>
         </is>
       </c>
       <c r="B5303" t="n">
-        <v>8412562.749</v>
+        <v>6370558.748</v>
       </c>
     </row>
     <row r="5304">
       <c r="A5304" t="inlineStr">
         <is>
-          <t>2015-02-09</t>
+          <t>2017-03-21</t>
         </is>
       </c>
       <c r="B5304" t="n">
-        <v>4096290.662</v>
+        <v>8412562.749</v>
       </c>
     </row>
     <row r="5305">
       <c r="A5305" t="inlineStr">
         <is>
-          <t>2011-10-31</t>
+          <t>2015-02-09</t>
         </is>
       </c>
       <c r="B5305" t="n">
-        <v>732160.326</v>
+        <v>4096290.662</v>
       </c>
     </row>
     <row r="5306">
       <c r="A5306" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2011-10-31</t>
         </is>
       </c>
       <c r="B5306" t="n">
-        <v>7287456.154</v>
+        <v>732160.326</v>
       </c>
     </row>
     <row r="5307">
       <c r="A5307" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B5307" t="n">
-        <v>9308642.501</v>
+        <v>7287456.154</v>
       </c>
     </row>
     <row r="5308">
       <c r="A5308" t="inlineStr">
         <is>
-          <t>2014-04-06</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="B5308" t="n">
-        <v>5505621.837</v>
+        <v>9308642.501</v>
       </c>
     </row>
     <row r="5309">
       <c r="A5309" t="inlineStr">
         <is>
-          <t>2017-04-09</t>
+          <t>2014-04-06</t>
         </is>
       </c>
       <c r="B5309" t="n">
-        <v>8810606.551000001</v>
+        <v>5505621.837</v>
       </c>
     </row>
     <row r="5310">
       <c r="A5310" t="inlineStr">
         <is>
-          <t>2015-03-02</t>
+          <t>2017-04-09</t>
         </is>
       </c>
       <c r="B5310" t="n">
-        <v>3933274.224</v>
+        <v>8810606.551000001</v>
       </c>
     </row>
     <row r="5311">
       <c r="A5311" t="inlineStr">
         <is>
-          <t>2011-11-14</t>
+          <t>2015-03-02</t>
         </is>
       </c>
       <c r="B5311" t="n">
-        <v>826121.591</v>
+        <v>3933274.224</v>
       </c>
     </row>
     <row r="5312">
       <c r="A5312" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2011-11-14</t>
         </is>
       </c>
       <c r="B5312" t="n">
-        <v>10333719.079</v>
+        <v>826121.591</v>
       </c>
     </row>
     <row r="5313">
       <c r="A5313" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B5313" t="n">
-        <v>6907432.252</v>
+        <v>10333719.079</v>
       </c>
     </row>
     <row r="5314">
       <c r="A5314" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B5314" t="n">
-        <v>9481051.257999999</v>
+        <v>6907432.252</v>
       </c>
     </row>
     <row r="5315">
       <c r="A5315" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="B5315" t="n">
-        <v>16829264.336</v>
+        <v>9481051.257999999</v>
       </c>
     </row>
     <row r="5316">
       <c r="A5316" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B5316" t="n">
-        <v>10843259.392</v>
+        <v>16829264.336</v>
       </c>
     </row>
     <row r="5317">
       <c r="A5317" t="inlineStr">
         <is>
-          <t>2014-04-27</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B5317" t="n">
-        <v>5438426.506</v>
+        <v>10843259.392</v>
       </c>
     </row>
     <row r="5318">
       <c r="A5318" t="inlineStr">
         <is>
-          <t>2015-03-09</t>
+          <t>2014-04-27</t>
         </is>
       </c>
       <c r="B5318" t="n">
-        <v>3900348.066</v>
+        <v>5438426.506</v>
       </c>
     </row>
     <row r="5319">
       <c r="A5319" t="inlineStr">
         <is>
-          <t>2011-11-16</t>
+          <t>2015-03-09</t>
         </is>
       </c>
       <c r="B5319" t="n">
-        <v>1048736.803</v>
+        <v>3900348.066</v>
       </c>
     </row>
     <row r="5320">
       <c r="A5320" t="inlineStr">
         <is>
-          <t>2017-04-20</t>
+          <t>2011-11-16</t>
         </is>
       </c>
       <c r="B5320" t="n">
-        <v>8967425.550000001</v>
+        <v>1048736.803</v>
       </c>
     </row>
     <row r="5321">
       <c r="A5321" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2017-04-20</t>
         </is>
       </c>
       <c r="B5321" t="n">
-        <v>12827728.942</v>
+        <v>8967425.550000001</v>
       </c>
     </row>
     <row r="5322">
       <c r="A5322" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B5322" t="n">
-        <v>6721984.554</v>
+        <v>12827728.942</v>
       </c>
     </row>
     <row r="5323">
       <c r="A5323" t="inlineStr">
         <is>
-          <t>2022-08-06</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="B5323" t="n">
-        <v>9532015.716</v>
+        <v>6721984.554</v>
       </c>
     </row>
     <row r="5324">
       <c r="A5324" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="B5324" t="n">
-        <v>16884075.838</v>
+        <v>9532015.716</v>
       </c>
     </row>
     <row r="5325">
       <c r="A5325" t="inlineStr">
         <is>
-          <t>2014-06-01</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B5325" t="n">
-        <v>4343530.167</v>
+        <v>16884075.838</v>
       </c>
     </row>
     <row r="5326">
       <c r="A5326" t="inlineStr">
         <is>
-          <t>2015-03-22</t>
+          <t>2014-06-01</t>
         </is>
       </c>
       <c r="B5326" t="n">
-        <v>4135797.457</v>
+        <v>4343530.167</v>
       </c>
     </row>
     <row r="5327">
       <c r="A5327" t="inlineStr">
         <is>
-          <t>2017-04-30</t>
+          <t>2015-03-22</t>
         </is>
       </c>
       <c r="B5327" t="n">
-        <v>8922467.217</v>
+        <v>4135797.457</v>
       </c>
     </row>
     <row r="5328">
       <c r="A5328" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2017-04-30</t>
         </is>
       </c>
       <c r="B5328" t="n">
-        <v>1086764.653</v>
+        <v>8922467.217</v>
       </c>
     </row>
     <row r="5329">
       <c r="A5329" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2011-11-19</t>
         </is>
       </c>
       <c r="B5329" t="n">
-        <v>13592327.934</v>
+        <v>1086764.653</v>
       </c>
     </row>
     <row r="5330">
       <c r="A5330" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B5330" t="n">
-        <v>18930025.11</v>
+        <v>13592327.934</v>
       </c>
     </row>
     <row r="5331">
       <c r="A5331" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="B5331" t="n">
-        <v>17480511.655</v>
+        <v>18930025.11</v>
       </c>
     </row>
     <row r="5332">
       <c r="A5332" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B5332" t="n">
-        <v>15295963.935</v>
+        <v>17480511.655</v>
       </c>
     </row>
     <row r="5333">
       <c r="A5333" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="B5333" t="n">
-        <v>5802826.225</v>
+        <v>15295963.935</v>
       </c>
     </row>
     <row r="5334">
       <c r="A5334" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="B5334" t="n">
-        <v>8363509.02</v>
+        <v>5802826.225</v>
       </c>
     </row>
     <row r="5335">
       <c r="A5335" t="inlineStr">
         <is>
-          <t>2014-06-28</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="B5335" t="n">
-        <v>2686947.84</v>
+        <v>8363509.02</v>
       </c>
     </row>
     <row r="5336">
       <c r="A5336" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2014-06-28</t>
         </is>
       </c>
       <c r="B5336" t="n">
-        <v>11641354.93</v>
+        <v>2686947.84</v>
       </c>
     </row>
     <row r="5337">
       <c r="A5337" t="inlineStr">
         <is>
-          <t>2017-05-17</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B5337" t="n">
-        <v>10300409.588</v>
+        <v>11641354.93</v>
       </c>
     </row>
     <row r="5338">
       <c r="A5338" t="inlineStr">
         <is>
-          <t>2015-03-29</t>
+          <t>2017-05-17</t>
         </is>
       </c>
       <c r="B5338" t="n">
-        <v>3988633.591</v>
+        <v>10300409.588</v>
       </c>
     </row>
     <row r="5339">
       <c r="A5339" t="inlineStr">
         <is>
-          <t>2011-12-03</t>
+          <t>2015-03-29</t>
         </is>
       </c>
       <c r="B5339" t="n">
-        <v>1095387.925</v>
+        <v>3988633.591</v>
       </c>
     </row>
     <row r="5340">
       <c r="A5340" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2011-12-03</t>
         </is>
       </c>
       <c r="B5340" t="n">
-        <v>17359924.278</v>
+        <v>1095387.925</v>
       </c>
     </row>
     <row r="5341">
       <c r="A5341" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="B5341" t="n">
-        <v>16833334.95</v>
+        <v>17359924.278</v>
       </c>
     </row>
     <row r="5342">
       <c r="A5342" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B5342" t="n">
-        <v>10236215.389</v>
+        <v>16833334.95</v>
       </c>
     </row>
     <row r="5343">
       <c r="A5343" t="inlineStr">
         <is>
-          <t>2017-06-01</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B5343" t="n">
-        <v>11531744.112</v>
+        <v>10236215.389</v>
       </c>
     </row>
     <row r="5344">
       <c r="A5344" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2017-06-01</t>
         </is>
       </c>
       <c r="B5344" t="n">
-        <v>6065155.983</v>
+        <v>11531744.112</v>
       </c>
     </row>
     <row r="5345">
       <c r="A5345" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="B5345" t="n">
-        <v>8049967.714</v>
+        <v>6065155.983</v>
       </c>
     </row>
     <row r="5346">
       <c r="A5346" t="inlineStr">
         <is>
-          <t>2024-07-13</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="B5346" t="n">
-        <v>15731904.375</v>
+        <v>8049967.714</v>
       </c>
     </row>
     <row r="5347">
       <c r="A5347" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="B5347" t="n">
-        <v>2436383.016</v>
+        <v>15731904.375</v>
       </c>
     </row>
     <row r="5348">
       <c r="A5348" t="inlineStr">
         <is>
-          <t>2015-04-06</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="B5348" t="n">
-        <v>3694404.674</v>
+        <v>2436383.016</v>
       </c>
     </row>
     <row r="5349">
       <c r="A5349" t="inlineStr">
         <is>
-          <t>2011-12-17</t>
+          <t>2015-04-06</t>
         </is>
       </c>
       <c r="B5349" t="n">
-        <v>1066127.172</v>
+        <v>3694404.674</v>
       </c>
     </row>
     <row r="5350">
       <c r="A5350" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2011-12-17</t>
         </is>
       </c>
       <c r="B5350" t="n">
-        <v>19357870.444</v>
+        <v>1066127.172</v>
       </c>
     </row>
     <row r="5351">
       <c r="A5351" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B5351" t="n">
-        <v>9506750.107999999</v>
+        <v>19357870.444</v>
       </c>
     </row>
     <row r="5352">
       <c r="A5352" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="B5352" t="n">
-        <v>18249350.163</v>
+        <v>9506750.107999999</v>
       </c>
     </row>
     <row r="5353">
       <c r="A5353" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B5353" t="n">
-        <v>10121188.898</v>
+        <v>18249350.163</v>
       </c>
     </row>
     <row r="5354">
       <c r="A5354" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B5354" t="n">
-        <v>18172193.247</v>
+        <v>10121188.898</v>
       </c>
     </row>
     <row r="5355">
       <c r="A5355" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B5355" t="n">
-        <v>11873870.808</v>
+        <v>18172193.247</v>
       </c>
     </row>
     <row r="5356">
       <c r="A5356" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B5356" t="n">
-        <v>16905626.816</v>
+        <v>11873870.808</v>
       </c>
     </row>
     <row r="5357">
       <c r="A5357" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B5357" t="n">
-        <v>11511228.874</v>
+        <v>16905626.816</v>
       </c>
     </row>
     <row r="5358">
       <c r="A5358" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-05-03</t>
         </is>
       </c>
       <c r="B5358" t="n">
-        <v>18829096.598</v>
+        <v>11511228.874</v>
       </c>
     </row>
     <row r="5359">
       <c r="A5359" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B5359" t="n">
-        <v>11905850.214</v>
+        <v>18829096.598</v>
       </c>
     </row>
     <row r="5360">
       <c r="A5360" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="B5360" t="n">
-        <v>6820551.817</v>
+        <v>11905850.214</v>
       </c>
     </row>
     <row r="5361">
       <c r="A5361" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="B5361" t="n">
-        <v>6358468.879</v>
+        <v>6820551.817</v>
       </c>
     </row>
     <row r="5362">
       <c r="A5362" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="B5362" t="n">
-        <v>14873483.781</v>
+        <v>6358468.879</v>
       </c>
     </row>
     <row r="5363">
       <c r="A5363" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B5363" t="n">
-        <v>11867652.532</v>
+        <v>14873483.781</v>
       </c>
     </row>
     <row r="5364">
       <c r="A5364" t="inlineStr">
         <is>
-          <t>2014-08-06</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B5364" t="n">
-        <v>2826869.713</v>
+        <v>11867652.532</v>
       </c>
     </row>
     <row r="5365">
       <c r="A5365" t="inlineStr">
         <is>
-          <t>2015-04-12</t>
+          <t>2014-08-06</t>
         </is>
       </c>
       <c r="B5365" t="n">
-        <v>3600337.897</v>
+        <v>2826869.713</v>
       </c>
     </row>
     <row r="5366">
       <c r="A5366" t="inlineStr">
         <is>
-          <t>2012-01-03</t>
+          <t>2015-04-12</t>
         </is>
       </c>
       <c r="B5366" t="n">
-        <v>1178238.791</v>
+        <v>3600337.897</v>
       </c>
     </row>
     <row r="5367">
       <c r="A5367" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2012-01-03</t>
         </is>
       </c>
       <c r="B5367" t="n">
-        <v>12210206.289</v>
+        <v>1178238.791</v>
       </c>
     </row>
     <row r="5368">
       <c r="A5368" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B5368" t="n">
-        <v>18211536.318</v>
+        <v>12210206.289</v>
       </c>
     </row>
     <row r="5369">
       <c r="A5369" t="inlineStr">
         <is>
-          <t>2017-08-15</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B5369" t="n">
-        <v>19566598.77</v>
+        <v>18211536.318</v>
       </c>
     </row>
     <row r="5370">
       <c r="A5370" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2017-08-15</t>
         </is>
       </c>
       <c r="B5370" t="n">
-        <v>6837460.05</v>
+        <v>19566598.77</v>
       </c>
     </row>
     <row r="5371">
       <c r="A5371" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="B5371" t="n">
-        <v>8536718.226</v>
+        <v>6837460.05</v>
       </c>
     </row>
     <row r="5372">
       <c r="A5372" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B5372" t="n">
-        <v>19772264.652</v>
+        <v>8536718.226</v>
       </c>
     </row>
     <row r="5373">
       <c r="A5373" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="B5373" t="n">
-        <v>16050259.512</v>
+        <v>19772264.652</v>
       </c>
     </row>
     <row r="5374">
       <c r="A5374" t="inlineStr">
         <is>
-          <t>2014-08-18</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B5374" t="n">
-        <v>2925697.333</v>
+        <v>16050259.512</v>
       </c>
     </row>
     <row r="5375">
       <c r="A5375" t="inlineStr">
         <is>
-          <t>2015-04-19</t>
+          <t>2014-08-18</t>
         </is>
       </c>
       <c r="B5375" t="n">
-        <v>3445407.103</v>
+        <v>2925697.333</v>
       </c>
     </row>
     <row r="5376">
       <c r="A5376" t="inlineStr">
         <is>
-          <t>2012-01-20</t>
+          <t>2015-04-19</t>
         </is>
       </c>
       <c r="B5376" t="n">
-        <v>1244736.785</v>
+        <v>3445407.103</v>
       </c>
     </row>
     <row r="5377">
       <c r="A5377" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2012-01-20</t>
         </is>
       </c>
       <c r="B5377" t="n">
-        <v>13510242.654</v>
+        <v>1244736.785</v>
       </c>
     </row>
     <row r="5378">
       <c r="A5378" t="inlineStr">
         <is>
-          <t>2017-08-28</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B5378" t="n">
-        <v>19422838.72</v>
+        <v>13510242.654</v>
       </c>
     </row>
     <row r="5379">
       <c r="A5379" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2017-08-28</t>
         </is>
       </c>
       <c r="B5379" t="n">
-        <v>11104807.404</v>
+        <v>19422838.72</v>
       </c>
     </row>
     <row r="5380">
       <c r="A5380" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="B5380" t="n">
-        <v>10451472.456</v>
+        <v>11104807.404</v>
       </c>
     </row>
     <row r="5381">
       <c r="A5381" t="inlineStr">
         <is>
-          <t>2014-09-13</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B5381" t="n">
-        <v>2524791.779</v>
+        <v>10451472.456</v>
       </c>
     </row>
     <row r="5382">
       <c r="A5382" t="inlineStr">
         <is>
-          <t>2015-04-25</t>
+          <t>2014-09-13</t>
         </is>
       </c>
       <c r="B5382" t="n">
-        <v>3352942.164</v>
+        <v>2524791.779</v>
       </c>
     </row>
     <row r="5383">
       <c r="A5383" t="inlineStr">
         <is>
-          <t>2012-01-21</t>
+          <t>2015-04-25</t>
         </is>
       </c>
       <c r="B5383" t="n">
-        <v>1246443.905</v>
+        <v>3352942.164</v>
       </c>
     </row>
     <row r="5384">
       <c r="A5384" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2012-01-21</t>
         </is>
       </c>
       <c r="B5384" t="n">
-        <v>20351324.136</v>
+        <v>1246443.905</v>
       </c>
     </row>
     <row r="5385">
       <c r="A5385" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B5385" t="n">
-        <v>13491078.904</v>
+        <v>20351324.136</v>
       </c>
     </row>
     <row r="5386">
       <c r="A5386" t="inlineStr">
         <is>
-          <t>2017-09-08</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B5386" t="n">
-        <v>19486335.788</v>
+        <v>13491078.904</v>
       </c>
     </row>
     <row r="5387">
       <c r="A5387" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2017-09-08</t>
         </is>
       </c>
       <c r="B5387" t="n">
-        <v>13156711.485</v>
+        <v>19486335.788</v>
       </c>
     </row>
     <row r="5388">
       <c r="A5388" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B5388" t="n">
-        <v>10510937.957</v>
+        <v>13156711.485</v>
       </c>
     </row>
     <row r="5389">
       <c r="A5389" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="B5389" t="n">
-        <v>15716836.044</v>
+        <v>10510937.957</v>
       </c>
     </row>
     <row r="5390">
       <c r="A5390" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-07-21</t>
         </is>
       </c>
       <c r="B5390" t="n">
-        <v>19939698.057</v>
+        <v>15716836.044</v>
       </c>
     </row>
     <row r="5391">
       <c r="A5391" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>2628371.334</v>
+        <v>19939698.057</v>
       </c>
     </row>
     <row r="5392">
       <c r="A5392" t="inlineStr">
         <is>
-          <t>2015-05-20</t>
+          <t>2014-10-02</t>
         </is>
       </c>
       <c r="B5392" t="n">
-        <v>3177021.142</v>
+        <v>2628371.334</v>
       </c>
     </row>
     <row r="5393">
       <c r="A5393" t="inlineStr">
         <is>
-          <t>2012-01-26</t>
+          <t>2015-05-20</t>
         </is>
       </c>
       <c r="B5393" t="n">
-        <v>1264128.557</v>
+        <v>3177021.142</v>
       </c>
     </row>
     <row r="5394">
       <c r="A5394" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2012-01-26</t>
         </is>
       </c>
       <c r="B5394" t="n">
-        <v>10152643.862</v>
+        <v>1264128.557</v>
       </c>
     </row>
     <row r="5395">
       <c r="A5395" t="inlineStr">
         <is>
-          <t>2017-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="B5395" t="n">
-        <v>18137220.352</v>
+        <v>10152643.862</v>
       </c>
     </row>
     <row r="5396">
       <c r="A5396" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2017-09-23</t>
         </is>
       </c>
       <c r="B5396" t="n">
-        <v>18779023.107</v>
+        <v>18137220.352</v>
       </c>
     </row>
     <row r="5397">
       <c r="A5397" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="B5397" t="n">
-        <v>10615483.231</v>
+        <v>18779023.107</v>
       </c>
     </row>
     <row r="5398">
       <c r="A5398" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="B5398" t="n">
-        <v>15795124.861</v>
+        <v>10615483.231</v>
       </c>
     </row>
     <row r="5399">
       <c r="A5399" t="inlineStr">
         <is>
-          <t>2014-10-23</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B5399" t="n">
-        <v>3053937.556</v>
+        <v>15795124.861</v>
       </c>
     </row>
     <row r="5400">
       <c r="A5400" t="inlineStr">
         <is>
-          <t>2015-05-27</t>
+          <t>2014-10-23</t>
         </is>
       </c>
       <c r="B5400" t="n">
-        <v>2974495.006</v>
+        <v>3053937.556</v>
       </c>
     </row>
     <row r="5401">
       <c r="A5401" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2015-05-27</t>
         </is>
       </c>
       <c r="B5401" t="n">
-        <v>1068036.951</v>
+        <v>2974495.006</v>
       </c>
     </row>
     <row r="5402">
       <c r="A5402" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="B5402" t="n">
-        <v>12796519.886</v>
+        <v>1068036.951</v>
       </c>
     </row>
     <row r="5403">
       <c r="A5403" t="inlineStr">
         <is>
-          <t>2017-10-09</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B5403" t="n">
-        <v>19407598.446</v>
+        <v>12796519.886</v>
       </c>
     </row>
     <row r="5404">
       <c r="A5404" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2017-10-09</t>
         </is>
       </c>
       <c r="B5404" t="n">
-        <v>20455744.669</v>
+        <v>19407598.446</v>
       </c>
     </row>
     <row r="5405">
       <c r="A5405" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="B5405" t="n">
-        <v>11376341.238</v>
+        <v>20455744.669</v>
       </c>
     </row>
     <row r="5406">
       <c r="A5406" t="inlineStr">
         <is>
-          <t>2014-11-01</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="B5406" t="n">
-        <v>3044004.834</v>
+        <v>11376341.238</v>
       </c>
     </row>
     <row r="5407">
       <c r="A5407" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2014-11-01</t>
         </is>
       </c>
       <c r="B5407" t="n">
-        <v>2765454.564</v>
+        <v>3044004.834</v>
       </c>
     </row>
     <row r="5408">
       <c r="A5408" t="inlineStr">
         <is>
-          <t>2012-04-02</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="B5408" t="n">
-        <v>1066217.337</v>
+        <v>2765454.564</v>
       </c>
     </row>
     <row r="5409">
       <c r="A5409" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2012-04-02</t>
         </is>
       </c>
       <c r="B5409" t="n">
-        <v>13432763.242</v>
+        <v>1066217.337</v>
       </c>
     </row>
     <row r="5410">
       <c r="A5410" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B5410" t="n">
-        <v>19306849.276</v>
+        <v>13432763.242</v>
       </c>
     </row>
     <row r="5411">
       <c r="A5411" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="B5411" t="n">
-        <v>17904427.701</v>
+        <v>19306849.276</v>
       </c>
     </row>
     <row r="5412">
       <c r="A5412" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="B5412" t="n">
-        <v>11260943.27</v>
+        <v>17904427.701</v>
       </c>
     </row>
     <row r="5413">
       <c r="A5413" t="inlineStr">
         <is>
-          <t>2014-11-19</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="B5413" t="n">
-        <v>3019744.611</v>
+        <v>11260943.27</v>
       </c>
     </row>
     <row r="5414">
       <c r="A5414" t="inlineStr">
         <is>
-          <t>2015-06-09</t>
+          <t>2014-11-19</t>
         </is>
       </c>
       <c r="B5414" t="n">
-        <v>2361717.899</v>
+        <v>3019744.611</v>
       </c>
     </row>
     <row r="5415">
       <c r="A5415" t="inlineStr">
         <is>
-          <t>2012-04-18</t>
+          <t>2015-06-09</t>
         </is>
       </c>
       <c r="B5415" t="n">
-        <v>1080512.495</v>
+        <v>2361717.899</v>
       </c>
     </row>
     <row r="5416">
       <c r="A5416" t="inlineStr">
         <is>
-          <t>2017-11-16</t>
+          <t>2012-04-18</t>
         </is>
       </c>
       <c r="B5416" t="n">
-        <v>15794441.353</v>
+        <v>1080512.495</v>
       </c>
     </row>
     <row r="5417">
       <c r="A5417" t="inlineStr">
         <is>
-          <t>2021-02-12</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="B5417" t="n">
-        <v>18047843.242</v>
+        <v>15794441.353</v>
       </c>
     </row>
     <row r="5418">
       <c r="A5418" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2021-02-12</t>
         </is>
       </c>
       <c r="B5418" t="n">
-        <v>7804497.859</v>
+        <v>18047843.242</v>
       </c>
     </row>
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="B5419" t="n">
-        <v>9877779.377</v>
+        <v>7804497.859</v>
       </c>
     </row>
     <row r="5420">
       <c r="A5420" t="inlineStr">
         <is>
-          <t>2014-12-05</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B5420" t="n">
-        <v>3374566.02</v>
+        <v>9877779.377</v>
       </c>
     </row>
     <row r="5421">
       <c r="A5421" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2014-12-05</t>
         </is>
       </c>
       <c r="B5421" t="n">
-        <v>2394815.633</v>
+        <v>3374566.02</v>
       </c>
     </row>
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2012-05-04</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="B5422" t="n">
-        <v>1211448.82</v>
+        <v>2394815.633</v>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2012-05-04</t>
         </is>
       </c>
       <c r="B5423" t="n">
-        <v>9388382.575999999</v>
+        <v>1211448.82</v>
       </c>
     </row>
     <row r="5424">
       <c r="A5424" t="inlineStr">
         <is>
-          <t>2017-11-30</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B5424" t="n">
-        <v>15739620.059</v>
+        <v>9388382.575999999</v>
       </c>
     </row>
     <row r="5425">
       <c r="A5425" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2017-11-30</t>
         </is>
       </c>
       <c r="B5425" t="n">
-        <v>17461848.264</v>
+        <v>15739620.059</v>
       </c>
     </row>
     <row r="5426">
       <c r="A5426" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="B5426" t="n">
-        <v>7349744.434</v>
+        <v>17461848.264</v>
       </c>
     </row>
     <row r="5427">
       <c r="A5427" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="B5427" t="n">
-        <v>15621689.103</v>
+        <v>7349744.434</v>
       </c>
     </row>
     <row r="5428">
       <c r="A5428" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="B5428" t="n">
-        <v>11149234.035</v>
+        <v>15621689.103</v>
       </c>
     </row>
     <row r="5429">
       <c r="A5429" t="inlineStr">
         <is>
-          <t>2014-12-24</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B5429" t="n">
-        <v>3749367.14</v>
+        <v>11149234.035</v>
       </c>
     </row>
     <row r="5430">
       <c r="A5430" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2014-12-24</t>
         </is>
       </c>
       <c r="B5430" t="n">
-        <v>18799096.649</v>
+        <v>3749367.14</v>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B5431" t="n">
-        <v>2573704.983</v>
+        <v>18799096.649</v>
       </c>
     </row>
     <row r="5432">
       <c r="A5432" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="B5432" t="n">
-        <v>1258763.689</v>
+        <v>2573704.983</v>
       </c>
     </row>
     <row r="5433">
       <c r="A5433" t="inlineStr">
         <is>
-          <t>2017-12-01</t>
+          <t>2012-05-21</t>
         </is>
       </c>
       <c r="B5433" t="n">
-        <v>15786676.067</v>
+        <v>1258763.689</v>
       </c>
     </row>
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2017-12-01</t>
         </is>
       </c>
       <c r="B5434" t="n">
-        <v>15009732.42</v>
+        <v>15786676.067</v>
       </c>
     </row>
     <row r="5435">
       <c r="A5435" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B5435" t="n">
-        <v>8127301.046</v>
+        <v>15009732.42</v>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2015-01-11</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="B5436" t="n">
-        <v>3848375.44</v>
+        <v>8127301.046</v>
       </c>
     </row>
     <row r="5437">
       <c r="A5437" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-01-11</t>
         </is>
       </c>
       <c r="B5437" t="n">
-        <v>2511092.261</v>
+        <v>3848375.44</v>
       </c>
     </row>
     <row r="5438">
       <c r="A5438" t="inlineStr">
         <is>
-          <t>2012-06-06</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="B5438" t="n">
-        <v>1365675.341</v>
+        <v>2511092.261</v>
       </c>
     </row>
     <row r="5439">
       <c r="A5439" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2012-06-06</t>
         </is>
       </c>
       <c r="B5439" t="n">
-        <v>18209088.114</v>
+        <v>1365675.341</v>
       </c>
     </row>
     <row r="5440">
       <c r="A5440" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B5440" t="n">
-        <v>17645156.999</v>
+        <v>18209088.114</v>
       </c>
     </row>
     <row r="5441">
       <c r="A5441" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="B5441" t="n">
-        <v>13264526.584</v>
+        <v>17645156.999</v>
       </c>
     </row>
     <row r="5442">
       <c r="A5442" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B5442" t="n">
-        <v>8486747.433</v>
+        <v>13264526.584</v>
       </c>
     </row>
     <row r="5443">
       <c r="A5443" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B5443" t="n">
-        <v>4046018.483</v>
+        <v>8486747.433</v>
       </c>
     </row>
     <row r="5444">
       <c r="A5444" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B5444" t="n">
-        <v>2718554.466</v>
+        <v>4046018.483</v>
       </c>
     </row>
     <row r="5445">
       <c r="A5445" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="B5445" t="n">
-        <v>1367243.39</v>
+        <v>2718554.466</v>
       </c>
     </row>
     <row r="5446">
       <c r="A5446" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2012-06-18</t>
         </is>
       </c>
       <c r="B5446" t="n">
-        <v>9114476.312000001</v>
+        <v>1367243.39</v>
       </c>
     </row>
     <row r="5447">
       <c r="A5447" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B5447" t="n">
-        <v>15346852.871</v>
+        <v>9114476.312000001</v>
       </c>
     </row>
     <row r="5448">
       <c r="A5448" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B5448" t="n">
-        <v>12870879.477</v>
+        <v>15346852.871</v>
       </c>
     </row>
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5449" t="n">
-        <v>17780525.245</v>
+        <v>12870879.477</v>
       </c>
     </row>
     <row r="5450">
       <c r="A5450" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B5450" t="n">
-        <v>13194431.726</v>
+        <v>17780525.245</v>
       </c>
     </row>
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B5451" t="n">
-        <v>8346328.634</v>
+        <v>13194431.726</v>
       </c>
     </row>
     <row r="5452">
       <c r="A5452" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="B5452" t="n">
-        <v>16236706.926</v>
+        <v>8346328.634</v>
       </c>
     </row>
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>16585261.576</v>
+        <v>16236706.926</v>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2015-02-10</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>4071380.974</v>
+        <v>16585261.576</v>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>2793932.294</v>
+        <v>4071380.974</v>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>1363857.943</v>
+        <v>2793932.294</v>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5457" t="n">
-        <v>18882222.042</v>
+        <v>1363857.943</v>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>17968690.541</v>
+        <v>18882222.042</v>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>9386582.370999999</v>
+        <v>17968690.541</v>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>17890389.899</v>
+        <v>9386582.370999999</v>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>12015164.279</v>
+        <v>17890389.899</v>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>7902657.124</v>
+        <v>12015164.279</v>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>10503343.65</v>
+        <v>7902657.124</v>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>3819509.271</v>
+        <v>10503343.65</v>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>2826416.003</v>
+        <v>3819509.271</v>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>1630324.679</v>
+        <v>2826416.003</v>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5467" t="n">
-        <v>10658742.561</v>
+        <v>1630324.679</v>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5468" t="n">
-        <v>18727823.649</v>
+        <v>10658742.561</v>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5469" t="n">
-        <v>17224052.503</v>
+        <v>18727823.649</v>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>10673931.348</v>
+        <v>17224052.503</v>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>3979751.142</v>
+        <v>10673931.348</v>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>3642872.298</v>
+        <v>3979751.142</v>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>1613219.441</v>
+        <v>3642872.298</v>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>18746833.543</v>
+        <v>1613219.441</v>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>14696488.122</v>
+        <v>18746833.543</v>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>18803774.412</v>
+        <v>14696488.122</v>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>13074131.781</v>
+        <v>18803774.412</v>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>18108889.119</v>
+        <v>13074131.781</v>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>10600975.162</v>
+        <v>18108889.119</v>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>3489354.733</v>
+        <v>10600975.162</v>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>3660667.082</v>
+        <v>3489354.733</v>
       </c>
     </row>
     <row r="5482">
       <c r="A5482" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>316907.127</v>
+        <v>3660667.082</v>
       </c>
     </row>
     <row r="5483">
       <c r="A5483" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5483" t="n">
-        <v>1760535.998</v>
+        <v>316907.127</v>
       </c>
     </row>
     <row r="5484">
       <c r="A5484" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>19760413.223</v>
+        <v>1760535.998</v>
       </c>
     </row>
     <row r="5485">
       <c r="A5485" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>15296257.118</v>
+        <v>19760413.223</v>
       </c>
     </row>
     <row r="5486">
       <c r="A5486" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>10677343.165</v>
+        <v>15296257.118</v>
       </c>
     </row>
     <row r="5487">
       <c r="A5487" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>12841467.318</v>
+        <v>10677343.165</v>
       </c>
     </row>
     <row r="5488">
       <c r="A5488" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>3205484.527</v>
+        <v>12841467.318</v>
       </c>
     </row>
     <row r="5489">
       <c r="A5489" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>4648212.458</v>
+        <v>3205484.527</v>
       </c>
     </row>
     <row r="5490">
       <c r="A5490" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>1873037.142</v>
+        <v>4648212.458</v>
       </c>
     </row>
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>19272529.034</v>
+        <v>1873037.142</v>
       </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>13193422.783</v>
+        <v>19272529.034</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>8610177.493000001</v>
+        <v>13193422.783</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>12225489.867</v>
+        <v>8610177.493000001</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>2985205.142</v>
+        <v>12225489.867</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>4603582.061</v>
+        <v>2985205.142</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>2093652.744</v>
+        <v>4603582.061</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>11477197.525</v>
+        <v>2093652.744</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>19496972.836</v>
+        <v>11477197.525</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>10566019.663</v>
+        <v>19496972.836</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>8609734.759</v>
+        <v>10566019.663</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>18616838.388</v>
+        <v>8609734.759</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>2392944.256</v>
+        <v>18616838.388</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>4964683.773</v>
+        <v>2392944.256</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>2162784.464</v>
+        <v>4964683.773</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>8046257.588</v>
+        <v>2162784.464</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>8443126.151000001</v>
+        <v>8046257.588</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>8386250.008</v>
+        <v>8443126.151000001</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>2565551.236</v>
+        <v>8386250.008</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>6127123.106</v>
+        <v>2565551.236</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>2157212.824</v>
+        <v>6127123.106</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>11978202.448</v>
+        <v>2157212.824</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>15303734.889</v>
+        <v>11978202.448</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>8103908.652</v>
+        <v>15303734.889</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>9382181.960999999</v>
+        <v>8103908.652</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>16784620.262</v>
+        <v>9382181.960999999</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>16833063.951</v>
+        <v>16784620.262</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>17049245.734</v>
+        <v>16833063.951</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>17115867.282</v>
+        <v>17049245.734</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>17153769.299</v>
+        <v>17115867.282</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>17225229.436</v>
+        <v>17153769.299</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>17249482.25</v>
+        <v>17225229.436</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5523" t="n">
-        <v>17569350.656</v>
+        <v>17249482.25</v>
       </c>
     </row>
     <row r="5524">
       <c r="A5524" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5524" t="n">
-        <v>2859270.317</v>
+        <v>17569350.656</v>
       </c>
     </row>
     <row r="5525">
       <c r="A5525" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5525" t="n">
-        <v>5532498.781</v>
+        <v>2859270.317</v>
       </c>
     </row>
     <row r="5526">
       <c r="A5526" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5526" t="n">
-        <v>2138609.994</v>
+        <v>5532498.781</v>
       </c>
     </row>
     <row r="5527">
       <c r="A5527" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5527" t="n">
-        <v>12895454.923</v>
+        <v>2138609.994</v>
       </c>
     </row>
     <row r="5528">
       <c r="A5528" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5528" t="n">
+        <v>12895454.923</v>
+      </c>
+    </row>
+    <row r="5529">
+      <c r="A5529" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5528" t="n">
+      <c r="B5529" t="n">
         <v>11691372.317</v>
       </c>
     </row>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5529"/>
+  <dimension ref="A1:B5530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46806,21 +46806,21 @@
     <row r="4638">
       <c r="A4638" t="inlineStr">
         <is>
-          <t>2025-08-16</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="B4638" t="n">
-        <v>18538635.409</v>
+        <v>11679256.547</v>
       </c>
     </row>
     <row r="4639">
       <c r="A4639" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="B4639" t="n">
-        <v>11679256.547</v>
+        <v>18538635.409</v>
       </c>
     </row>
     <row r="4640">
@@ -52286,421 +52286,421 @@
     <row r="5186">
       <c r="A5186" t="inlineStr">
         <is>
-          <t>2019-04-15</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B5186" t="n">
-        <v>6167355.699</v>
+        <v>14555529.314</v>
       </c>
     </row>
     <row r="5187">
       <c r="A5187" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-04-15</t>
         </is>
       </c>
       <c r="B5187" t="n">
-        <v>8491040.936000001</v>
+        <v>6167355.699</v>
       </c>
     </row>
     <row r="5188">
       <c r="A5188" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="B5188" t="n">
-        <v>17316630.871</v>
+        <v>8491040.936000001</v>
       </c>
     </row>
     <row r="5189">
       <c r="A5189" t="inlineStr">
         <is>
-          <t>2013-10-22</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="B5189" t="n">
-        <v>2877443.953</v>
+        <v>17316630.871</v>
       </c>
     </row>
     <row r="5190">
       <c r="A5190" t="inlineStr">
         <is>
-          <t>2016-08-03</t>
+          <t>2013-10-22</t>
         </is>
       </c>
       <c r="B5190" t="n">
-        <v>5948319.051</v>
+        <v>2877443.953</v>
       </c>
     </row>
     <row r="5191">
       <c r="A5191" t="inlineStr">
         <is>
-          <t>2014-10-07</t>
+          <t>2016-08-03</t>
         </is>
       </c>
       <c r="B5191" t="n">
-        <v>2920545.529</v>
+        <v>5948319.051</v>
       </c>
     </row>
     <row r="5192">
       <c r="A5192" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2014-10-07</t>
         </is>
       </c>
       <c r="B5192" t="n">
-        <v>9876625.647</v>
+        <v>2920545.529</v>
       </c>
     </row>
     <row r="5193">
       <c r="A5193" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B5193" t="n">
-        <v>9348543.609999999</v>
+        <v>9876625.647</v>
       </c>
     </row>
     <row r="5194">
       <c r="A5194" t="inlineStr">
         <is>
-          <t>2019-04-30</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B5194" t="n">
-        <v>6286634.574</v>
+        <v>9348543.609999999</v>
       </c>
     </row>
     <row r="5195">
       <c r="A5195" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2019-04-30</t>
         </is>
       </c>
       <c r="B5195" t="n">
-        <v>8893796.503</v>
+        <v>6286634.574</v>
       </c>
     </row>
     <row r="5196">
       <c r="A5196" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2021-09-26</t>
         </is>
       </c>
       <c r="B5196" t="n">
-        <v>16658702.812</v>
+        <v>8893796.503</v>
       </c>
     </row>
     <row r="5197">
       <c r="A5197" t="inlineStr">
         <is>
-          <t>2024-07-06</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="B5197" t="n">
-        <v>15649596.102</v>
+        <v>16658702.812</v>
       </c>
     </row>
     <row r="5198">
       <c r="A5198" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-07-06</t>
         </is>
       </c>
       <c r="B5198" t="n">
-        <v>11176294.018</v>
+        <v>15649596.102</v>
       </c>
     </row>
     <row r="5199">
       <c r="A5199" t="inlineStr">
         <is>
-          <t>2013-10-25</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B5199" t="n">
-        <v>3355406.547</v>
+        <v>11176294.018</v>
       </c>
     </row>
     <row r="5200">
       <c r="A5200" t="inlineStr">
         <is>
-          <t>2014-10-14</t>
+          <t>2013-10-25</t>
         </is>
       </c>
       <c r="B5200" t="n">
-        <v>3051641.316</v>
+        <v>3355406.547</v>
       </c>
     </row>
     <row r="5201">
       <c r="A5201" t="inlineStr">
         <is>
-          <t>2016-08-18</t>
+          <t>2014-10-14</t>
         </is>
       </c>
       <c r="B5201" t="n">
-        <v>5520205.846</v>
+        <v>3051641.316</v>
       </c>
     </row>
     <row r="5202">
       <c r="A5202" t="inlineStr">
         <is>
-          <t>2019-05-09</t>
+          <t>2016-08-18</t>
         </is>
       </c>
       <c r="B5202" t="n">
-        <v>6645336.202</v>
+        <v>5520205.846</v>
       </c>
     </row>
     <row r="5203">
       <c r="A5203" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2019-05-09</t>
         </is>
       </c>
       <c r="B5203" t="n">
-        <v>8760085.365</v>
+        <v>6645336.202</v>
       </c>
     </row>
     <row r="5204">
       <c r="A5204" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="B5204" t="n">
-        <v>20506438.825</v>
+        <v>8760085.365</v>
       </c>
     </row>
     <row r="5205">
       <c r="A5205" t="inlineStr">
         <is>
-          <t>2013-11-17</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B5205" t="n">
-        <v>4107747.394</v>
+        <v>20506438.825</v>
       </c>
     </row>
     <row r="5206">
       <c r="A5206" t="inlineStr">
         <is>
-          <t>2016-09-03</t>
+          <t>2013-11-17</t>
         </is>
       </c>
       <c r="B5206" t="n">
-        <v>5203377.911</v>
+        <v>4107747.394</v>
       </c>
     </row>
     <row r="5207">
       <c r="A5207" t="inlineStr">
         <is>
-          <t>2014-10-22</t>
+          <t>2016-09-03</t>
         </is>
       </c>
       <c r="B5207" t="n">
-        <v>3035976.286</v>
+        <v>5203377.911</v>
       </c>
     </row>
     <row r="5208">
       <c r="A5208" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2014-10-22</t>
         </is>
       </c>
       <c r="B5208" t="n">
-        <v>18413104.776</v>
+        <v>3035976.286</v>
       </c>
     </row>
     <row r="5209">
       <c r="A5209" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B5209" t="n">
-        <v>7905786.007</v>
+        <v>18413104.776</v>
       </c>
     </row>
     <row r="5210">
       <c r="A5210" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="B5210" t="n">
-        <v>9073650.025</v>
+        <v>7905786.007</v>
       </c>
     </row>
     <row r="5211">
       <c r="A5211" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="B5211" t="n">
-        <v>19218055.445</v>
+        <v>9073650.025</v>
       </c>
     </row>
     <row r="5212">
       <c r="A5212" t="inlineStr">
         <is>
-          <t>2013-12-16</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B5212" t="n">
-        <v>5816249.876</v>
+        <v>19218055.445</v>
       </c>
     </row>
     <row r="5213">
       <c r="A5213" t="inlineStr">
         <is>
-          <t>2016-10-09</t>
+          <t>2013-12-16</t>
         </is>
       </c>
       <c r="B5213" t="n">
-        <v>4052991.609</v>
+        <v>5816249.876</v>
       </c>
     </row>
     <row r="5214">
       <c r="A5214" t="inlineStr">
         <is>
-          <t>2014-11-04</t>
+          <t>2016-10-09</t>
         </is>
       </c>
       <c r="B5214" t="n">
-        <v>2855446.32</v>
+        <v>4052991.609</v>
       </c>
     </row>
     <row r="5215">
       <c r="A5215" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2014-11-04</t>
         </is>
       </c>
       <c r="B5215" t="n">
-        <v>9252340.935000001</v>
+        <v>2855446.32</v>
       </c>
     </row>
     <row r="5216">
       <c r="A5216" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
       <c r="B5216" t="n">
-        <v>14880148.605</v>
+        <v>9252340.935000001</v>
       </c>
     </row>
     <row r="5217">
       <c r="A5217" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B5217" t="n">
-        <v>12724123.607</v>
+        <v>14880148.605</v>
       </c>
     </row>
     <row r="5218">
       <c r="A5218" t="inlineStr">
         <is>
-          <t>2019-08-21</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B5218" t="n">
-        <v>12393381.677</v>
+        <v>12724123.607</v>
       </c>
     </row>
     <row r="5219">
       <c r="A5219" t="inlineStr">
         <is>
-          <t>2021-12-01</t>
+          <t>2019-08-21</t>
         </is>
       </c>
       <c r="B5219" t="n">
-        <v>9613862.286</v>
+        <v>12393381.677</v>
       </c>
     </row>
     <row r="5220">
       <c r="A5220" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="B5220" t="n">
-        <v>18218036.776</v>
+        <v>9613862.286</v>
       </c>
     </row>
     <row r="5221">
       <c r="A5221" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B5221" t="n">
-        <v>16265749.775</v>
+        <v>18218036.776</v>
       </c>
     </row>
     <row r="5222">
       <c r="A5222" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2024-07-27</t>
         </is>
       </c>
       <c r="B5222" t="n">
-        <v>16670126.739</v>
+        <v>16265749.775</v>
       </c>
     </row>
     <row r="5223">
       <c r="A5223" t="inlineStr">
         <is>
-          <t>2013-12-26</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="B5223" t="n">
-        <v>6915819.538</v>
+        <v>16670126.739</v>
       </c>
     </row>
     <row r="5224">
       <c r="A5224" t="inlineStr">
         <is>
-          <t>2014-11-12</t>
+          <t>2013-12-26</t>
         </is>
       </c>
       <c r="B5224" t="n">
-        <v>3023467.834</v>
+        <v>6915819.538</v>
       </c>
     </row>
     <row r="5225">
       <c r="A5225" t="inlineStr">
         <is>
-          <t>2010-09-24</t>
+          <t>2014-11-12</t>
         </is>
       </c>
       <c r="B5225" t="n">
-        <v>112259.447</v>
+        <v>3023467.834</v>
       </c>
     </row>
     <row r="5226">
       <c r="A5226" t="inlineStr">
         <is>
-          <t>2016-10-23</t>
+          <t>2010-09-24</t>
         </is>
       </c>
       <c r="B5226" t="n">
-        <v>4402004.723</v>
+        <v>112259.447</v>
       </c>
     </row>
     <row r="5227">
       <c r="A5227" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2016-10-23</t>
         </is>
       </c>
       <c r="B5227" t="n">
-        <v>18095870.058</v>
+        <v>4402004.723</v>
       </c>
     </row>
     <row r="5228">
@@ -52716,3010 +52716,3020 @@
     <row r="5229">
       <c r="A5229" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B5229" t="n">
-        <v>9408798.934</v>
+        <v>18095870.058</v>
       </c>
     </row>
     <row r="5230">
       <c r="A5230" t="inlineStr">
         <is>
-          <t>2019-09-19</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B5230" t="n">
-        <v>11427939.892</v>
+        <v>9408798.934</v>
       </c>
     </row>
     <row r="5231">
       <c r="A5231" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
+          <t>2019-09-19</t>
         </is>
       </c>
       <c r="B5231" t="n">
-        <v>9957806.918</v>
+        <v>11427939.892</v>
       </c>
     </row>
     <row r="5232">
       <c r="A5232" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="B5232" t="n">
-        <v>17239012.79</v>
+        <v>9957806.918</v>
       </c>
     </row>
     <row r="5233">
       <c r="A5233" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B5233" t="n">
-        <v>11167233.165</v>
+        <v>17239012.79</v>
       </c>
     </row>
     <row r="5234">
       <c r="A5234" t="inlineStr">
         <is>
-          <t>2016-12-09</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B5234" t="n">
-        <v>5405479.025</v>
+        <v>11167233.165</v>
       </c>
     </row>
     <row r="5235">
       <c r="A5235" t="inlineStr">
         <is>
-          <t>2014-01-10</t>
+          <t>2016-12-09</t>
         </is>
       </c>
       <c r="B5235" t="n">
-        <v>6911767.667</v>
+        <v>5405479.025</v>
       </c>
     </row>
     <row r="5236">
       <c r="A5236" t="inlineStr">
         <is>
-          <t>2014-11-18</t>
+          <t>2014-01-10</t>
         </is>
       </c>
       <c r="B5236" t="n">
-        <v>3039813.332</v>
+        <v>6911767.667</v>
       </c>
     </row>
     <row r="5237">
       <c r="A5237" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2014-11-18</t>
         </is>
       </c>
       <c r="B5237" t="n">
-        <v>10958641.073</v>
+        <v>3039813.332</v>
       </c>
     </row>
     <row r="5238">
       <c r="A5238" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B5238" t="n">
-        <v>10512254.974</v>
+        <v>10958641.073</v>
       </c>
     </row>
     <row r="5239">
       <c r="A5239" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B5239" t="n">
-        <v>18752011.913</v>
+        <v>10512254.974</v>
       </c>
     </row>
     <row r="5240">
       <c r="A5240" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B5240" t="n">
-        <v>18684510.463</v>
+        <v>18752011.913</v>
       </c>
     </row>
     <row r="5241">
       <c r="A5241" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B5241" t="n">
-        <v>9947791.287</v>
+        <v>18684510.463</v>
       </c>
     </row>
     <row r="5242">
       <c r="A5242" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="B5242" t="n">
-        <v>8830961.847999999</v>
+        <v>9947791.287</v>
       </c>
     </row>
     <row r="5243">
       <c r="A5243" t="inlineStr">
         <is>
-          <t>2014-01-19</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="B5243" t="n">
-        <v>6709581.37</v>
+        <v>8830961.847999999</v>
       </c>
     </row>
     <row r="5244">
       <c r="A5244" t="inlineStr">
         <is>
-          <t>2016-12-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
       <c r="B5244" t="n">
-        <v>5441150.314</v>
+        <v>6709581.37</v>
       </c>
     </row>
     <row r="5245">
       <c r="A5245" t="inlineStr">
         <is>
-          <t>2014-12-15</t>
+          <t>2016-12-14</t>
         </is>
       </c>
       <c r="B5245" t="n">
-        <v>3652983.074</v>
+        <v>5441150.314</v>
       </c>
     </row>
     <row r="5246">
       <c r="A5246" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2014-12-15</t>
         </is>
       </c>
       <c r="B5246" t="n">
-        <v>14765108.135</v>
+        <v>3652983.074</v>
       </c>
     </row>
     <row r="5247">
       <c r="A5247" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B5247" t="n">
-        <v>10407093</v>
+        <v>14765108.135</v>
       </c>
     </row>
     <row r="5248">
       <c r="A5248" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B5248" t="n">
-        <v>12989124.134</v>
+        <v>10407093</v>
       </c>
     </row>
     <row r="5249">
       <c r="A5249" t="inlineStr">
         <is>
-          <t>2019-10-25</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="B5249" t="n">
-        <v>10081112.066</v>
+        <v>12989124.134</v>
       </c>
     </row>
     <row r="5250">
       <c r="A5250" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="B5250" t="n">
-        <v>9996728.27</v>
+        <v>10081112.066</v>
       </c>
     </row>
     <row r="5251">
       <c r="A5251" t="inlineStr">
         <is>
-          <t>2014-01-20</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="B5251" t="n">
-        <v>6614252.892</v>
+        <v>9996728.27</v>
       </c>
     </row>
     <row r="5252">
       <c r="A5252" t="inlineStr">
         <is>
-          <t>2016-12-30</t>
+          <t>2014-01-20</t>
         </is>
       </c>
       <c r="B5252" t="n">
-        <v>6503628.164</v>
+        <v>6614252.892</v>
       </c>
     </row>
     <row r="5253">
       <c r="A5253" t="inlineStr">
         <is>
-          <t>2014-12-22</t>
+          <t>2016-12-30</t>
         </is>
       </c>
       <c r="B5253" t="n">
-        <v>3563708.16</v>
+        <v>6503628.164</v>
       </c>
     </row>
     <row r="5254">
       <c r="A5254" t="inlineStr">
         <is>
-          <t>2010-09-21</t>
+          <t>2014-12-22</t>
         </is>
       </c>
       <c r="B5254" t="n">
-        <v>111207.989</v>
+        <v>3563708.16</v>
       </c>
     </row>
     <row r="5255">
       <c r="A5255" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2010-09-21</t>
         </is>
       </c>
       <c r="B5255" t="n">
-        <v>19753403.705</v>
+        <v>111207.989</v>
       </c>
     </row>
     <row r="5256">
       <c r="A5256" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B5256" t="n">
-        <v>8145349.405</v>
+        <v>19753403.705</v>
       </c>
     </row>
     <row r="5257">
       <c r="A5257" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B5257" t="n">
-        <v>8685248.65</v>
+        <v>8145349.405</v>
       </c>
     </row>
     <row r="5258">
       <c r="A5258" t="inlineStr">
         <is>
-          <t>2014-01-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="B5258" t="n">
-        <v>6168423.578</v>
+        <v>8685248.65</v>
       </c>
     </row>
     <row r="5259">
       <c r="A5259" t="inlineStr">
         <is>
-          <t>2017-01-29</t>
+          <t>2014-01-23</t>
         </is>
       </c>
       <c r="B5259" t="n">
-        <v>7399149.518</v>
+        <v>6168423.578</v>
       </c>
     </row>
     <row r="5260">
       <c r="A5260" t="inlineStr">
         <is>
-          <t>2014-12-28</t>
+          <t>2017-01-29</t>
         </is>
       </c>
       <c r="B5260" t="n">
-        <v>3660548.296</v>
+        <v>7399149.518</v>
       </c>
     </row>
     <row r="5261">
       <c r="A5261" t="inlineStr">
         <is>
-          <t>2011-07-03</t>
+          <t>2014-12-28</t>
         </is>
       </c>
       <c r="B5261" t="n">
-        <v>1736677.834</v>
+        <v>3660548.296</v>
       </c>
     </row>
     <row r="5262">
       <c r="A5262" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2011-07-03</t>
         </is>
       </c>
       <c r="B5262" t="n">
-        <v>18949481.536</v>
+        <v>1736677.834</v>
       </c>
     </row>
     <row r="5263">
       <c r="A5263" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="B5263" t="n">
-        <v>12847069.898</v>
+        <v>18949481.536</v>
       </c>
     </row>
     <row r="5264">
       <c r="A5264" t="inlineStr">
         <is>
-          <t>2019-12-29</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B5264" t="n">
-        <v>8042178.284</v>
+        <v>12847069.898</v>
       </c>
     </row>
     <row r="5265">
       <c r="A5265" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2019-12-29</t>
         </is>
       </c>
       <c r="B5265" t="n">
-        <v>9941198.092</v>
+        <v>8042178.284</v>
       </c>
     </row>
     <row r="5266">
       <c r="A5266" t="inlineStr">
         <is>
-          <t>2014-02-10</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="B5266" t="n">
-        <v>6482705.217</v>
+        <v>9941198.092</v>
       </c>
     </row>
     <row r="5267">
       <c r="A5267" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2014-02-10</t>
         </is>
       </c>
       <c r="B5267" t="n">
-        <v>3639884.552</v>
+        <v>6482705.217</v>
       </c>
     </row>
     <row r="5268">
       <c r="A5268" t="inlineStr">
         <is>
-          <t>2011-09-13</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="B5268" t="n">
-        <v>992731.454</v>
+        <v>3639884.552</v>
       </c>
     </row>
     <row r="5269">
       <c r="A5269" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2011-09-13</t>
         </is>
       </c>
       <c r="B5269" t="n">
-        <v>12025387.77</v>
+        <v>992731.454</v>
       </c>
     </row>
     <row r="5270">
       <c r="A5270" t="inlineStr">
         <is>
-          <t>2017-02-14</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B5270" t="n">
-        <v>7583332.734</v>
+        <v>12025387.77</v>
       </c>
     </row>
     <row r="5271">
       <c r="A5271" t="inlineStr">
         <is>
-          <t>2017-04-03</t>
+          <t>2017-02-14</t>
         </is>
       </c>
       <c r="B5271" t="n">
-        <v>9243648.802999999</v>
+        <v>7583332.734</v>
       </c>
     </row>
     <row r="5272">
       <c r="A5272" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2017-04-03</t>
         </is>
       </c>
       <c r="B5272" t="n">
-        <v>11517746.211</v>
+        <v>9243648.802999999</v>
       </c>
     </row>
     <row r="5273">
       <c r="A5273" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B5273" t="n">
-        <v>19403702.941</v>
+        <v>11517746.211</v>
       </c>
     </row>
     <row r="5274">
       <c r="A5274" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B5274" t="n">
-        <v>7135383.216</v>
+        <v>19403702.941</v>
       </c>
     </row>
     <row r="5275">
       <c r="A5275" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="B5275" t="n">
-        <v>10037167.8</v>
+        <v>7135383.216</v>
       </c>
     </row>
     <row r="5276">
       <c r="A5276" t="inlineStr">
         <is>
-          <t>2014-02-14</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="B5276" t="n">
-        <v>6165888.39</v>
+        <v>10037167.8</v>
       </c>
     </row>
     <row r="5277">
       <c r="A5277" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2014-02-14</t>
         </is>
       </c>
       <c r="B5277" t="n">
-        <v>18605805.647</v>
+        <v>6165888.39</v>
       </c>
     </row>
     <row r="5278">
       <c r="A5278" t="inlineStr">
         <is>
-          <t>2017-02-15</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B5278" t="n">
-        <v>7448825.404</v>
+        <v>18605805.647</v>
       </c>
     </row>
     <row r="5279">
       <c r="A5279" t="inlineStr">
         <is>
-          <t>2015-01-18</t>
+          <t>2017-02-15</t>
         </is>
       </c>
       <c r="B5279" t="n">
-        <v>4062626.204</v>
+        <v>7448825.404</v>
       </c>
     </row>
     <row r="5280">
       <c r="A5280" t="inlineStr">
         <is>
-          <t>2011-09-27</t>
+          <t>2015-01-18</t>
         </is>
       </c>
       <c r="B5280" t="n">
-        <v>744327.885</v>
+        <v>4062626.204</v>
       </c>
     </row>
     <row r="5281">
       <c r="A5281" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2011-09-27</t>
         </is>
       </c>
       <c r="B5281" t="n">
-        <v>18754649.599</v>
+        <v>744327.885</v>
       </c>
     </row>
     <row r="5282">
       <c r="A5282" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B5282" t="n">
-        <v>18648006.799</v>
+        <v>18754649.599</v>
       </c>
     </row>
     <row r="5283">
       <c r="A5283" t="inlineStr">
         <is>
-          <t>2017-08-24</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B5283" t="n">
-        <v>19382954.778</v>
+        <v>18648006.799</v>
       </c>
     </row>
     <row r="5284">
       <c r="A5284" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2017-08-24</t>
         </is>
       </c>
       <c r="B5284" t="n">
-        <v>8319527.642</v>
+        <v>19382954.778</v>
       </c>
     </row>
     <row r="5285">
       <c r="A5285" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B5285" t="n">
-        <v>10152904.599</v>
+        <v>8319527.642</v>
       </c>
     </row>
     <row r="5286">
       <c r="A5286" t="inlineStr">
         <is>
-          <t>2014-02-26</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="B5286" t="n">
-        <v>4892785.663</v>
+        <v>10152904.599</v>
       </c>
     </row>
     <row r="5287">
       <c r="A5287" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2014-02-26</t>
         </is>
       </c>
       <c r="B5287" t="n">
-        <v>15630701.474</v>
+        <v>4892785.663</v>
       </c>
     </row>
     <row r="5288">
       <c r="A5288" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B5288" t="n">
-        <v>11711443.8</v>
+        <v>15630701.474</v>
       </c>
     </row>
     <row r="5289">
       <c r="A5289" t="inlineStr">
         <is>
-          <t>2017-03-06</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B5289" t="n">
-        <v>7818647.054</v>
+        <v>11711443.8</v>
       </c>
     </row>
     <row r="5290">
       <c r="A5290" t="inlineStr">
         <is>
-          <t>2015-01-26</t>
+          <t>2017-03-06</t>
         </is>
       </c>
       <c r="B5290" t="n">
-        <v>4227141.883</v>
+        <v>7818647.054</v>
       </c>
     </row>
     <row r="5291">
       <c r="A5291" t="inlineStr">
         <is>
-          <t>2011-10-11</t>
+          <t>2015-01-26</t>
         </is>
       </c>
       <c r="B5291" t="n">
-        <v>733876.334</v>
+        <v>4227141.883</v>
       </c>
     </row>
     <row r="5292">
       <c r="A5292" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2011-10-11</t>
         </is>
       </c>
       <c r="B5292" t="n">
-        <v>11437944.275</v>
+        <v>733876.334</v>
       </c>
     </row>
     <row r="5293">
       <c r="A5293" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B5293" t="n">
-        <v>8278468.575</v>
+        <v>11437944.275</v>
       </c>
     </row>
     <row r="5294">
       <c r="A5294" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B5294" t="n">
-        <v>8620307.16</v>
+        <v>8278468.575</v>
       </c>
     </row>
     <row r="5295">
       <c r="A5295" t="inlineStr">
         <is>
-          <t>2014-03-15</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="B5295" t="n">
-        <v>6519122.467</v>
+        <v>8620307.16</v>
       </c>
     </row>
     <row r="5296">
       <c r="A5296" t="inlineStr">
         <is>
-          <t>2017-03-12</t>
+          <t>2014-03-15</t>
         </is>
       </c>
       <c r="B5296" t="n">
-        <v>8015167.541</v>
+        <v>6519122.467</v>
       </c>
     </row>
     <row r="5297">
       <c r="A5297" t="inlineStr">
         <is>
-          <t>2015-02-02</t>
+          <t>2017-03-12</t>
         </is>
       </c>
       <c r="B5297" t="n">
-        <v>4214903.008</v>
+        <v>8015167.541</v>
       </c>
     </row>
     <row r="5298">
       <c r="A5298" t="inlineStr">
         <is>
-          <t>2011-10-28</t>
+          <t>2015-02-02</t>
         </is>
       </c>
       <c r="B5298" t="n">
-        <v>735721.417</v>
+        <v>4214903.008</v>
       </c>
     </row>
     <row r="5299">
       <c r="A5299" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="B5299" t="n">
-        <v>18201448.889</v>
+        <v>735721.417</v>
       </c>
     </row>
     <row r="5300">
       <c r="A5300" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B5300" t="n">
-        <v>12856671.682</v>
+        <v>18201448.889</v>
       </c>
     </row>
     <row r="5301">
       <c r="A5301" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B5301" t="n">
-        <v>7919062.632</v>
+        <v>12856671.682</v>
       </c>
     </row>
     <row r="5302">
       <c r="A5302" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B5302" t="n">
-        <v>9519524.592</v>
+        <v>7919062.632</v>
       </c>
     </row>
     <row r="5303">
       <c r="A5303" t="inlineStr">
         <is>
-          <t>2014-03-18</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="B5303" t="n">
-        <v>6370558.748</v>
+        <v>9519524.592</v>
       </c>
     </row>
     <row r="5304">
       <c r="A5304" t="inlineStr">
         <is>
-          <t>2017-03-21</t>
+          <t>2014-03-18</t>
         </is>
       </c>
       <c r="B5304" t="n">
-        <v>8412562.749</v>
+        <v>6370558.748</v>
       </c>
     </row>
     <row r="5305">
       <c r="A5305" t="inlineStr">
         <is>
-          <t>2015-02-09</t>
+          <t>2017-03-21</t>
         </is>
       </c>
       <c r="B5305" t="n">
-        <v>4096290.662</v>
+        <v>8412562.749</v>
       </c>
     </row>
     <row r="5306">
       <c r="A5306" t="inlineStr">
         <is>
-          <t>2011-10-31</t>
+          <t>2015-02-09</t>
         </is>
       </c>
       <c r="B5306" t="n">
-        <v>732160.326</v>
+        <v>4096290.662</v>
       </c>
     </row>
     <row r="5307">
       <c r="A5307" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2011-10-31</t>
         </is>
       </c>
       <c r="B5307" t="n">
-        <v>7287456.154</v>
+        <v>732160.326</v>
       </c>
     </row>
     <row r="5308">
       <c r="A5308" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B5308" t="n">
-        <v>9308642.501</v>
+        <v>7287456.154</v>
       </c>
     </row>
     <row r="5309">
       <c r="A5309" t="inlineStr">
         <is>
-          <t>2014-04-06</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="B5309" t="n">
-        <v>5505621.837</v>
+        <v>9308642.501</v>
       </c>
     </row>
     <row r="5310">
       <c r="A5310" t="inlineStr">
         <is>
-          <t>2017-04-09</t>
+          <t>2014-04-06</t>
         </is>
       </c>
       <c r="B5310" t="n">
-        <v>8810606.551000001</v>
+        <v>5505621.837</v>
       </c>
     </row>
     <row r="5311">
       <c r="A5311" t="inlineStr">
         <is>
-          <t>2015-03-02</t>
+          <t>2017-04-09</t>
         </is>
       </c>
       <c r="B5311" t="n">
-        <v>3933274.224</v>
+        <v>8810606.551000001</v>
       </c>
     </row>
     <row r="5312">
       <c r="A5312" t="inlineStr">
         <is>
-          <t>2011-11-14</t>
+          <t>2015-03-02</t>
         </is>
       </c>
       <c r="B5312" t="n">
-        <v>826121.591</v>
+        <v>3933274.224</v>
       </c>
     </row>
     <row r="5313">
       <c r="A5313" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2011-11-14</t>
         </is>
       </c>
       <c r="B5313" t="n">
-        <v>10333719.079</v>
+        <v>826121.591</v>
       </c>
     </row>
     <row r="5314">
       <c r="A5314" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B5314" t="n">
-        <v>6907432.252</v>
+        <v>10333719.079</v>
       </c>
     </row>
     <row r="5315">
       <c r="A5315" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B5315" t="n">
-        <v>9481051.257999999</v>
+        <v>6907432.252</v>
       </c>
     </row>
     <row r="5316">
       <c r="A5316" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="B5316" t="n">
-        <v>16829264.336</v>
+        <v>9481051.257999999</v>
       </c>
     </row>
     <row r="5317">
       <c r="A5317" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B5317" t="n">
-        <v>10843259.392</v>
+        <v>16829264.336</v>
       </c>
     </row>
     <row r="5318">
       <c r="A5318" t="inlineStr">
         <is>
-          <t>2014-04-27</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B5318" t="n">
-        <v>5438426.506</v>
+        <v>10843259.392</v>
       </c>
     </row>
     <row r="5319">
       <c r="A5319" t="inlineStr">
         <is>
-          <t>2015-03-09</t>
+          <t>2014-04-27</t>
         </is>
       </c>
       <c r="B5319" t="n">
-        <v>3900348.066</v>
+        <v>5438426.506</v>
       </c>
     </row>
     <row r="5320">
       <c r="A5320" t="inlineStr">
         <is>
-          <t>2011-11-16</t>
+          <t>2015-03-09</t>
         </is>
       </c>
       <c r="B5320" t="n">
-        <v>1048736.803</v>
+        <v>3900348.066</v>
       </c>
     </row>
     <row r="5321">
       <c r="A5321" t="inlineStr">
         <is>
-          <t>2017-04-20</t>
+          <t>2011-11-16</t>
         </is>
       </c>
       <c r="B5321" t="n">
-        <v>8967425.550000001</v>
+        <v>1048736.803</v>
       </c>
     </row>
     <row r="5322">
       <c r="A5322" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2017-04-20</t>
         </is>
       </c>
       <c r="B5322" t="n">
-        <v>12827728.942</v>
+        <v>8967425.550000001</v>
       </c>
     </row>
     <row r="5323">
       <c r="A5323" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B5323" t="n">
-        <v>6721984.554</v>
+        <v>12827728.942</v>
       </c>
     </row>
     <row r="5324">
       <c r="A5324" t="inlineStr">
         <is>
-          <t>2022-08-06</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="B5324" t="n">
-        <v>9532015.716</v>
+        <v>6721984.554</v>
       </c>
     </row>
     <row r="5325">
       <c r="A5325" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="B5325" t="n">
-        <v>16884075.838</v>
+        <v>9532015.716</v>
       </c>
     </row>
     <row r="5326">
       <c r="A5326" t="inlineStr">
         <is>
-          <t>2014-06-01</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B5326" t="n">
-        <v>4343530.167</v>
+        <v>16884075.838</v>
       </c>
     </row>
     <row r="5327">
       <c r="A5327" t="inlineStr">
         <is>
-          <t>2015-03-22</t>
+          <t>2014-06-01</t>
         </is>
       </c>
       <c r="B5327" t="n">
-        <v>4135797.457</v>
+        <v>4343530.167</v>
       </c>
     </row>
     <row r="5328">
       <c r="A5328" t="inlineStr">
         <is>
-          <t>2017-04-30</t>
+          <t>2015-03-22</t>
         </is>
       </c>
       <c r="B5328" t="n">
-        <v>8922467.217</v>
+        <v>4135797.457</v>
       </c>
     </row>
     <row r="5329">
       <c r="A5329" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2017-04-30</t>
         </is>
       </c>
       <c r="B5329" t="n">
-        <v>1086764.653</v>
+        <v>8922467.217</v>
       </c>
     </row>
     <row r="5330">
       <c r="A5330" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2011-11-19</t>
         </is>
       </c>
       <c r="B5330" t="n">
-        <v>13592327.934</v>
+        <v>1086764.653</v>
       </c>
     </row>
     <row r="5331">
       <c r="A5331" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B5331" t="n">
-        <v>18930025.11</v>
+        <v>13592327.934</v>
       </c>
     </row>
     <row r="5332">
       <c r="A5332" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="B5332" t="n">
-        <v>17480511.655</v>
+        <v>18930025.11</v>
       </c>
     </row>
     <row r="5333">
       <c r="A5333" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B5333" t="n">
-        <v>15295963.935</v>
+        <v>17480511.655</v>
       </c>
     </row>
     <row r="5334">
       <c r="A5334" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="B5334" t="n">
-        <v>5802826.225</v>
+        <v>15295963.935</v>
       </c>
     </row>
     <row r="5335">
       <c r="A5335" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="B5335" t="n">
-        <v>8363509.02</v>
+        <v>5802826.225</v>
       </c>
     </row>
     <row r="5336">
       <c r="A5336" t="inlineStr">
         <is>
-          <t>2014-06-28</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="B5336" t="n">
-        <v>2686947.84</v>
+        <v>8363509.02</v>
       </c>
     </row>
     <row r="5337">
       <c r="A5337" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2014-06-28</t>
         </is>
       </c>
       <c r="B5337" t="n">
-        <v>11641354.93</v>
+        <v>2686947.84</v>
       </c>
     </row>
     <row r="5338">
       <c r="A5338" t="inlineStr">
         <is>
-          <t>2017-05-17</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B5338" t="n">
-        <v>10300409.588</v>
+        <v>11641354.93</v>
       </c>
     </row>
     <row r="5339">
       <c r="A5339" t="inlineStr">
         <is>
-          <t>2015-03-29</t>
+          <t>2017-05-17</t>
         </is>
       </c>
       <c r="B5339" t="n">
-        <v>3988633.591</v>
+        <v>10300409.588</v>
       </c>
     </row>
     <row r="5340">
       <c r="A5340" t="inlineStr">
         <is>
-          <t>2011-12-03</t>
+          <t>2015-03-29</t>
         </is>
       </c>
       <c r="B5340" t="n">
-        <v>1095387.925</v>
+        <v>3988633.591</v>
       </c>
     </row>
     <row r="5341">
       <c r="A5341" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2011-12-03</t>
         </is>
       </c>
       <c r="B5341" t="n">
-        <v>17359924.278</v>
+        <v>1095387.925</v>
       </c>
     </row>
     <row r="5342">
       <c r="A5342" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="B5342" t="n">
-        <v>16833334.95</v>
+        <v>17359924.278</v>
       </c>
     </row>
     <row r="5343">
       <c r="A5343" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B5343" t="n">
-        <v>10236215.389</v>
+        <v>16833334.95</v>
       </c>
     </row>
     <row r="5344">
       <c r="A5344" t="inlineStr">
         <is>
-          <t>2017-06-01</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B5344" t="n">
-        <v>11531744.112</v>
+        <v>10236215.389</v>
       </c>
     </row>
     <row r="5345">
       <c r="A5345" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2017-06-01</t>
         </is>
       </c>
       <c r="B5345" t="n">
-        <v>6065155.983</v>
+        <v>11531744.112</v>
       </c>
     </row>
     <row r="5346">
       <c r="A5346" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="B5346" t="n">
-        <v>8049967.714</v>
+        <v>6065155.983</v>
       </c>
     </row>
     <row r="5347">
       <c r="A5347" t="inlineStr">
         <is>
-          <t>2024-07-13</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="B5347" t="n">
-        <v>15731904.375</v>
+        <v>8049967.714</v>
       </c>
     </row>
     <row r="5348">
       <c r="A5348" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="B5348" t="n">
-        <v>2436383.016</v>
+        <v>15731904.375</v>
       </c>
     </row>
     <row r="5349">
       <c r="A5349" t="inlineStr">
         <is>
-          <t>2015-04-06</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="B5349" t="n">
-        <v>3694404.674</v>
+        <v>2436383.016</v>
       </c>
     </row>
     <row r="5350">
       <c r="A5350" t="inlineStr">
         <is>
-          <t>2011-12-17</t>
+          <t>2015-04-06</t>
         </is>
       </c>
       <c r="B5350" t="n">
-        <v>1066127.172</v>
+        <v>3694404.674</v>
       </c>
     </row>
     <row r="5351">
       <c r="A5351" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2011-12-17</t>
         </is>
       </c>
       <c r="B5351" t="n">
-        <v>19357870.444</v>
+        <v>1066127.172</v>
       </c>
     </row>
     <row r="5352">
       <c r="A5352" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B5352" t="n">
-        <v>9506750.107999999</v>
+        <v>19357870.444</v>
       </c>
     </row>
     <row r="5353">
       <c r="A5353" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="B5353" t="n">
-        <v>18249350.163</v>
+        <v>9506750.107999999</v>
       </c>
     </row>
     <row r="5354">
       <c r="A5354" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B5354" t="n">
-        <v>10121188.898</v>
+        <v>18249350.163</v>
       </c>
     </row>
     <row r="5355">
       <c r="A5355" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B5355" t="n">
-        <v>18172193.247</v>
+        <v>10121188.898</v>
       </c>
     </row>
     <row r="5356">
       <c r="A5356" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B5356" t="n">
-        <v>11873870.808</v>
+        <v>18172193.247</v>
       </c>
     </row>
     <row r="5357">
       <c r="A5357" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B5357" t="n">
-        <v>16905626.816</v>
+        <v>11873870.808</v>
       </c>
     </row>
     <row r="5358">
       <c r="A5358" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B5358" t="n">
-        <v>11511228.874</v>
+        <v>16905626.816</v>
       </c>
     </row>
     <row r="5359">
       <c r="A5359" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-05-03</t>
         </is>
       </c>
       <c r="B5359" t="n">
-        <v>18829096.598</v>
+        <v>11511228.874</v>
       </c>
     </row>
     <row r="5360">
       <c r="A5360" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B5360" t="n">
-        <v>11905850.214</v>
+        <v>18829096.598</v>
       </c>
     </row>
     <row r="5361">
       <c r="A5361" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="B5361" t="n">
-        <v>6820551.817</v>
+        <v>11905850.214</v>
       </c>
     </row>
     <row r="5362">
       <c r="A5362" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="B5362" t="n">
-        <v>6358468.879</v>
+        <v>6820551.817</v>
       </c>
     </row>
     <row r="5363">
       <c r="A5363" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="B5363" t="n">
-        <v>14873483.781</v>
+        <v>6358468.879</v>
       </c>
     </row>
     <row r="5364">
       <c r="A5364" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B5364" t="n">
-        <v>11867652.532</v>
+        <v>14873483.781</v>
       </c>
     </row>
     <row r="5365">
       <c r="A5365" t="inlineStr">
         <is>
-          <t>2014-08-06</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B5365" t="n">
-        <v>2826869.713</v>
+        <v>11867652.532</v>
       </c>
     </row>
     <row r="5366">
       <c r="A5366" t="inlineStr">
         <is>
-          <t>2015-04-12</t>
+          <t>2014-08-06</t>
         </is>
       </c>
       <c r="B5366" t="n">
-        <v>3600337.897</v>
+        <v>2826869.713</v>
       </c>
     </row>
     <row r="5367">
       <c r="A5367" t="inlineStr">
         <is>
-          <t>2012-01-03</t>
+          <t>2015-04-12</t>
         </is>
       </c>
       <c r="B5367" t="n">
-        <v>1178238.791</v>
+        <v>3600337.897</v>
       </c>
     </row>
     <row r="5368">
       <c r="A5368" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2012-01-03</t>
         </is>
       </c>
       <c r="B5368" t="n">
-        <v>12210206.289</v>
+        <v>1178238.791</v>
       </c>
     </row>
     <row r="5369">
       <c r="A5369" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B5369" t="n">
-        <v>18211536.318</v>
+        <v>12210206.289</v>
       </c>
     </row>
     <row r="5370">
       <c r="A5370" t="inlineStr">
         <is>
-          <t>2017-08-15</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B5370" t="n">
-        <v>19566598.77</v>
+        <v>18211536.318</v>
       </c>
     </row>
     <row r="5371">
       <c r="A5371" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2017-08-15</t>
         </is>
       </c>
       <c r="B5371" t="n">
-        <v>6837460.05</v>
+        <v>19566598.77</v>
       </c>
     </row>
     <row r="5372">
       <c r="A5372" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="B5372" t="n">
-        <v>8536718.226</v>
+        <v>6837460.05</v>
       </c>
     </row>
     <row r="5373">
       <c r="A5373" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B5373" t="n">
-        <v>19772264.652</v>
+        <v>8536718.226</v>
       </c>
     </row>
     <row r="5374">
       <c r="A5374" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="B5374" t="n">
-        <v>16050259.512</v>
+        <v>19772264.652</v>
       </c>
     </row>
     <row r="5375">
       <c r="A5375" t="inlineStr">
         <is>
-          <t>2014-08-18</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B5375" t="n">
-        <v>2925697.333</v>
+        <v>16050259.512</v>
       </c>
     </row>
     <row r="5376">
       <c r="A5376" t="inlineStr">
         <is>
-          <t>2015-04-19</t>
+          <t>2014-08-18</t>
         </is>
       </c>
       <c r="B5376" t="n">
-        <v>3445407.103</v>
+        <v>2925697.333</v>
       </c>
     </row>
     <row r="5377">
       <c r="A5377" t="inlineStr">
         <is>
-          <t>2012-01-20</t>
+          <t>2015-04-19</t>
         </is>
       </c>
       <c r="B5377" t="n">
-        <v>1244736.785</v>
+        <v>3445407.103</v>
       </c>
     </row>
     <row r="5378">
       <c r="A5378" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2012-01-20</t>
         </is>
       </c>
       <c r="B5378" t="n">
-        <v>13510242.654</v>
+        <v>1244736.785</v>
       </c>
     </row>
     <row r="5379">
       <c r="A5379" t="inlineStr">
         <is>
-          <t>2017-08-28</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B5379" t="n">
-        <v>19422838.72</v>
+        <v>13510242.654</v>
       </c>
     </row>
     <row r="5380">
       <c r="A5380" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2017-08-28</t>
         </is>
       </c>
       <c r="B5380" t="n">
-        <v>11104807.404</v>
+        <v>19422838.72</v>
       </c>
     </row>
     <row r="5381">
       <c r="A5381" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="B5381" t="n">
-        <v>10451472.456</v>
+        <v>11104807.404</v>
       </c>
     </row>
     <row r="5382">
       <c r="A5382" t="inlineStr">
         <is>
-          <t>2014-09-13</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B5382" t="n">
-        <v>2524791.779</v>
+        <v>10451472.456</v>
       </c>
     </row>
     <row r="5383">
       <c r="A5383" t="inlineStr">
         <is>
-          <t>2015-04-25</t>
+          <t>2014-09-13</t>
         </is>
       </c>
       <c r="B5383" t="n">
-        <v>3352942.164</v>
+        <v>2524791.779</v>
       </c>
     </row>
     <row r="5384">
       <c r="A5384" t="inlineStr">
         <is>
-          <t>2012-01-21</t>
+          <t>2015-04-25</t>
         </is>
       </c>
       <c r="B5384" t="n">
-        <v>1246443.905</v>
+        <v>3352942.164</v>
       </c>
     </row>
     <row r="5385">
       <c r="A5385" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2012-01-21</t>
         </is>
       </c>
       <c r="B5385" t="n">
-        <v>20351324.136</v>
+        <v>1246443.905</v>
       </c>
     </row>
     <row r="5386">
       <c r="A5386" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B5386" t="n">
-        <v>13491078.904</v>
+        <v>20351324.136</v>
       </c>
     </row>
     <row r="5387">
       <c r="A5387" t="inlineStr">
         <is>
-          <t>2017-09-08</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B5387" t="n">
-        <v>19486335.788</v>
+        <v>13491078.904</v>
       </c>
     </row>
     <row r="5388">
       <c r="A5388" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2017-09-08</t>
         </is>
       </c>
       <c r="B5388" t="n">
-        <v>13156711.485</v>
+        <v>19486335.788</v>
       </c>
     </row>
     <row r="5389">
       <c r="A5389" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B5389" t="n">
-        <v>10510937.957</v>
+        <v>13156711.485</v>
       </c>
     </row>
     <row r="5390">
       <c r="A5390" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="B5390" t="n">
-        <v>15716836.044</v>
+        <v>10510937.957</v>
       </c>
     </row>
     <row r="5391">
       <c r="A5391" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-07-21</t>
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>19939698.057</v>
+        <v>15716836.044</v>
       </c>
     </row>
     <row r="5392">
       <c r="A5392" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B5392" t="n">
-        <v>2628371.334</v>
+        <v>19939698.057</v>
       </c>
     </row>
     <row r="5393">
       <c r="A5393" t="inlineStr">
         <is>
-          <t>2015-05-20</t>
+          <t>2014-10-02</t>
         </is>
       </c>
       <c r="B5393" t="n">
-        <v>3177021.142</v>
+        <v>2628371.334</v>
       </c>
     </row>
     <row r="5394">
       <c r="A5394" t="inlineStr">
         <is>
-          <t>2012-01-26</t>
+          <t>2015-05-20</t>
         </is>
       </c>
       <c r="B5394" t="n">
-        <v>1264128.557</v>
+        <v>3177021.142</v>
       </c>
     </row>
     <row r="5395">
       <c r="A5395" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2012-01-26</t>
         </is>
       </c>
       <c r="B5395" t="n">
-        <v>10152643.862</v>
+        <v>1264128.557</v>
       </c>
     </row>
     <row r="5396">
       <c r="A5396" t="inlineStr">
         <is>
-          <t>2017-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="B5396" t="n">
-        <v>18137220.352</v>
+        <v>10152643.862</v>
       </c>
     </row>
     <row r="5397">
       <c r="A5397" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2017-09-23</t>
         </is>
       </c>
       <c r="B5397" t="n">
-        <v>18779023.107</v>
+        <v>18137220.352</v>
       </c>
     </row>
     <row r="5398">
       <c r="A5398" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="B5398" t="n">
-        <v>10615483.231</v>
+        <v>18779023.107</v>
       </c>
     </row>
     <row r="5399">
       <c r="A5399" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="B5399" t="n">
-        <v>15795124.861</v>
+        <v>10615483.231</v>
       </c>
     </row>
     <row r="5400">
       <c r="A5400" t="inlineStr">
         <is>
-          <t>2014-10-23</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B5400" t="n">
-        <v>3053937.556</v>
+        <v>15795124.861</v>
       </c>
     </row>
     <row r="5401">
       <c r="A5401" t="inlineStr">
         <is>
-          <t>2015-05-27</t>
+          <t>2014-10-23</t>
         </is>
       </c>
       <c r="B5401" t="n">
-        <v>2974495.006</v>
+        <v>3053937.556</v>
       </c>
     </row>
     <row r="5402">
       <c r="A5402" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2015-05-27</t>
         </is>
       </c>
       <c r="B5402" t="n">
-        <v>1068036.951</v>
+        <v>2974495.006</v>
       </c>
     </row>
     <row r="5403">
       <c r="A5403" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="B5403" t="n">
-        <v>12796519.886</v>
+        <v>1068036.951</v>
       </c>
     </row>
     <row r="5404">
       <c r="A5404" t="inlineStr">
         <is>
-          <t>2017-10-09</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B5404" t="n">
-        <v>19407598.446</v>
+        <v>12796519.886</v>
       </c>
     </row>
     <row r="5405">
       <c r="A5405" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2017-10-09</t>
         </is>
       </c>
       <c r="B5405" t="n">
-        <v>20455744.669</v>
+        <v>19407598.446</v>
       </c>
     </row>
     <row r="5406">
       <c r="A5406" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="B5406" t="n">
-        <v>11376341.238</v>
+        <v>20455744.669</v>
       </c>
     </row>
     <row r="5407">
       <c r="A5407" t="inlineStr">
         <is>
-          <t>2014-11-01</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="B5407" t="n">
-        <v>3044004.834</v>
+        <v>11376341.238</v>
       </c>
     </row>
     <row r="5408">
       <c r="A5408" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2014-11-01</t>
         </is>
       </c>
       <c r="B5408" t="n">
-        <v>2765454.564</v>
+        <v>3044004.834</v>
       </c>
     </row>
     <row r="5409">
       <c r="A5409" t="inlineStr">
         <is>
-          <t>2012-04-02</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="B5409" t="n">
-        <v>1066217.337</v>
+        <v>2765454.564</v>
       </c>
     </row>
     <row r="5410">
       <c r="A5410" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2012-04-02</t>
         </is>
       </c>
       <c r="B5410" t="n">
-        <v>13432763.242</v>
+        <v>1066217.337</v>
       </c>
     </row>
     <row r="5411">
       <c r="A5411" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B5411" t="n">
-        <v>19306849.276</v>
+        <v>13432763.242</v>
       </c>
     </row>
     <row r="5412">
       <c r="A5412" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="B5412" t="n">
-        <v>17904427.701</v>
+        <v>19306849.276</v>
       </c>
     </row>
     <row r="5413">
       <c r="A5413" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="B5413" t="n">
-        <v>11260943.27</v>
+        <v>17904427.701</v>
       </c>
     </row>
     <row r="5414">
       <c r="A5414" t="inlineStr">
         <is>
-          <t>2014-11-19</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="B5414" t="n">
-        <v>3019744.611</v>
+        <v>11260943.27</v>
       </c>
     </row>
     <row r="5415">
       <c r="A5415" t="inlineStr">
         <is>
-          <t>2015-06-09</t>
+          <t>2014-11-19</t>
         </is>
       </c>
       <c r="B5415" t="n">
-        <v>2361717.899</v>
+        <v>3019744.611</v>
       </c>
     </row>
     <row r="5416">
       <c r="A5416" t="inlineStr">
         <is>
-          <t>2012-04-18</t>
+          <t>2015-06-09</t>
         </is>
       </c>
       <c r="B5416" t="n">
-        <v>1080512.495</v>
+        <v>2361717.899</v>
       </c>
     </row>
     <row r="5417">
       <c r="A5417" t="inlineStr">
         <is>
-          <t>2017-11-16</t>
+          <t>2012-04-18</t>
         </is>
       </c>
       <c r="B5417" t="n">
-        <v>15794441.353</v>
+        <v>1080512.495</v>
       </c>
     </row>
     <row r="5418">
       <c r="A5418" t="inlineStr">
         <is>
-          <t>2021-02-12</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="B5418" t="n">
-        <v>18047843.242</v>
+        <v>15794441.353</v>
       </c>
     </row>
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2021-02-12</t>
         </is>
       </c>
       <c r="B5419" t="n">
-        <v>7804497.859</v>
+        <v>18047843.242</v>
       </c>
     </row>
     <row r="5420">
       <c r="A5420" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="B5420" t="n">
-        <v>9877779.377</v>
+        <v>7804497.859</v>
       </c>
     </row>
     <row r="5421">
       <c r="A5421" t="inlineStr">
         <is>
-          <t>2014-12-05</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B5421" t="n">
-        <v>3374566.02</v>
+        <v>9877779.377</v>
       </c>
     </row>
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2014-12-05</t>
         </is>
       </c>
       <c r="B5422" t="n">
-        <v>2394815.633</v>
+        <v>3374566.02</v>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2012-05-04</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="B5423" t="n">
-        <v>1211448.82</v>
+        <v>2394815.633</v>
       </c>
     </row>
     <row r="5424">
       <c r="A5424" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2012-05-04</t>
         </is>
       </c>
       <c r="B5424" t="n">
-        <v>9388382.575999999</v>
+        <v>1211448.82</v>
       </c>
     </row>
     <row r="5425">
       <c r="A5425" t="inlineStr">
         <is>
-          <t>2017-11-30</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B5425" t="n">
-        <v>15739620.059</v>
+        <v>9388382.575999999</v>
       </c>
     </row>
     <row r="5426">
       <c r="A5426" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2017-11-30</t>
         </is>
       </c>
       <c r="B5426" t="n">
-        <v>17461848.264</v>
+        <v>15739620.059</v>
       </c>
     </row>
     <row r="5427">
       <c r="A5427" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="B5427" t="n">
-        <v>7349744.434</v>
+        <v>17461848.264</v>
       </c>
     </row>
     <row r="5428">
       <c r="A5428" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="B5428" t="n">
-        <v>15621689.103</v>
+        <v>7349744.434</v>
       </c>
     </row>
     <row r="5429">
       <c r="A5429" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="B5429" t="n">
-        <v>11149234.035</v>
+        <v>15621689.103</v>
       </c>
     </row>
     <row r="5430">
       <c r="A5430" t="inlineStr">
         <is>
-          <t>2014-12-24</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B5430" t="n">
-        <v>3749367.14</v>
+        <v>11149234.035</v>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2014-12-24</t>
         </is>
       </c>
       <c r="B5431" t="n">
-        <v>18799096.649</v>
+        <v>3749367.14</v>
       </c>
     </row>
     <row r="5432">
       <c r="A5432" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B5432" t="n">
-        <v>2573704.983</v>
+        <v>18799096.649</v>
       </c>
     </row>
     <row r="5433">
       <c r="A5433" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="B5433" t="n">
-        <v>1258763.689</v>
+        <v>2573704.983</v>
       </c>
     </row>
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>2017-12-01</t>
+          <t>2012-05-21</t>
         </is>
       </c>
       <c r="B5434" t="n">
-        <v>15786676.067</v>
+        <v>1258763.689</v>
       </c>
     </row>
     <row r="5435">
       <c r="A5435" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2017-12-01</t>
         </is>
       </c>
       <c r="B5435" t="n">
-        <v>15009732.42</v>
+        <v>15786676.067</v>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B5436" t="n">
-        <v>8127301.046</v>
+        <v>15009732.42</v>
       </c>
     </row>
     <row r="5437">
       <c r="A5437" t="inlineStr">
         <is>
-          <t>2015-01-11</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="B5437" t="n">
-        <v>3848375.44</v>
+        <v>8127301.046</v>
       </c>
     </row>
     <row r="5438">
       <c r="A5438" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-01-11</t>
         </is>
       </c>
       <c r="B5438" t="n">
-        <v>2511092.261</v>
+        <v>3848375.44</v>
       </c>
     </row>
     <row r="5439">
       <c r="A5439" t="inlineStr">
         <is>
-          <t>2012-06-06</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="B5439" t="n">
-        <v>1365675.341</v>
+        <v>2511092.261</v>
       </c>
     </row>
     <row r="5440">
       <c r="A5440" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2012-06-06</t>
         </is>
       </c>
       <c r="B5440" t="n">
-        <v>18209088.114</v>
+        <v>1365675.341</v>
       </c>
     </row>
     <row r="5441">
       <c r="A5441" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B5441" t="n">
-        <v>17645156.999</v>
+        <v>18209088.114</v>
       </c>
     </row>
     <row r="5442">
       <c r="A5442" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="B5442" t="n">
-        <v>13264526.584</v>
+        <v>17645156.999</v>
       </c>
     </row>
     <row r="5443">
       <c r="A5443" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B5443" t="n">
-        <v>8486747.433</v>
+        <v>13264526.584</v>
       </c>
     </row>
     <row r="5444">
       <c r="A5444" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B5444" t="n">
-        <v>4046018.483</v>
+        <v>8486747.433</v>
       </c>
     </row>
     <row r="5445">
       <c r="A5445" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B5445" t="n">
-        <v>2718554.466</v>
+        <v>4046018.483</v>
       </c>
     </row>
     <row r="5446">
       <c r="A5446" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="B5446" t="n">
-        <v>1367243.39</v>
+        <v>2718554.466</v>
       </c>
     </row>
     <row r="5447">
       <c r="A5447" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2012-06-18</t>
         </is>
       </c>
       <c r="B5447" t="n">
-        <v>9114476.312000001</v>
+        <v>1367243.39</v>
       </c>
     </row>
     <row r="5448">
       <c r="A5448" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B5448" t="n">
-        <v>15346852.871</v>
+        <v>9114476.312000001</v>
       </c>
     </row>
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B5449" t="n">
-        <v>12870879.477</v>
+        <v>15346852.871</v>
       </c>
     </row>
     <row r="5450">
       <c r="A5450" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5450" t="n">
-        <v>17780525.245</v>
+        <v>12870879.477</v>
       </c>
     </row>
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B5451" t="n">
-        <v>13194431.726</v>
+        <v>17780525.245</v>
       </c>
     </row>
     <row r="5452">
       <c r="A5452" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B5452" t="n">
-        <v>8346328.634</v>
+        <v>13194431.726</v>
       </c>
     </row>
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>16236706.926</v>
+        <v>8346328.634</v>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>16585261.576</v>
+        <v>16236706.926</v>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2015-02-10</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>4071380.974</v>
+        <v>16585261.576</v>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>2793932.294</v>
+        <v>4071380.974</v>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5457" t="n">
-        <v>1363857.943</v>
+        <v>2793932.294</v>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>18882222.042</v>
+        <v>1363857.943</v>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>17968690.541</v>
+        <v>18882222.042</v>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>9386582.370999999</v>
+        <v>17968690.541</v>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>17890389.899</v>
+        <v>9386582.370999999</v>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>12015164.279</v>
+        <v>17890389.899</v>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>7902657.124</v>
+        <v>12015164.279</v>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>10503343.65</v>
+        <v>7902657.124</v>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>3819509.271</v>
+        <v>10503343.65</v>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>2826416.003</v>
+        <v>3819509.271</v>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5467" t="n">
-        <v>1630324.679</v>
+        <v>2826416.003</v>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5468" t="n">
-        <v>10658742.561</v>
+        <v>1630324.679</v>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5469" t="n">
-        <v>18727823.649</v>
+        <v>10658742.561</v>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>17224052.503</v>
+        <v>18727823.649</v>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>10673931.348</v>
+        <v>17224052.503</v>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>3979751.142</v>
+        <v>10673931.348</v>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>3642872.298</v>
+        <v>3979751.142</v>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>1613219.441</v>
+        <v>3642872.298</v>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>18746833.543</v>
+        <v>1613219.441</v>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>14696488.122</v>
+        <v>18746833.543</v>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>18803774.412</v>
+        <v>14696488.122</v>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>13074131.781</v>
+        <v>18803774.412</v>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>18108889.119</v>
+        <v>13074131.781</v>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>10600975.162</v>
+        <v>18108889.119</v>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>3489354.733</v>
+        <v>10600975.162</v>
       </c>
     </row>
     <row r="5482">
       <c r="A5482" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>3660667.082</v>
+        <v>3489354.733</v>
       </c>
     </row>
     <row r="5483">
       <c r="A5483" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5483" t="n">
-        <v>316907.127</v>
+        <v>3660667.082</v>
       </c>
     </row>
     <row r="5484">
       <c r="A5484" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>1760535.998</v>
+        <v>316907.127</v>
       </c>
     </row>
     <row r="5485">
       <c r="A5485" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>19760413.223</v>
+        <v>1760535.998</v>
       </c>
     </row>
     <row r="5486">
       <c r="A5486" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>15296257.118</v>
+        <v>19760413.223</v>
       </c>
     </row>
     <row r="5487">
       <c r="A5487" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>10677343.165</v>
+        <v>15296257.118</v>
       </c>
     </row>
     <row r="5488">
       <c r="A5488" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>12841467.318</v>
+        <v>10677343.165</v>
       </c>
     </row>
     <row r="5489">
       <c r="A5489" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>3205484.527</v>
+        <v>12841467.318</v>
       </c>
     </row>
     <row r="5490">
       <c r="A5490" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>4648212.458</v>
+        <v>3205484.527</v>
       </c>
     </row>
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>1873037.142</v>
+        <v>4648212.458</v>
       </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>19272529.034</v>
+        <v>1873037.142</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>13193422.783</v>
+        <v>19272529.034</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>8610177.493000001</v>
+        <v>13193422.783</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>12225489.867</v>
+        <v>8610177.493000001</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>2985205.142</v>
+        <v>12225489.867</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>4603582.061</v>
+        <v>2985205.142</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>2093652.744</v>
+        <v>4603582.061</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>11477197.525</v>
+        <v>2093652.744</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>19496972.836</v>
+        <v>11477197.525</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>10566019.663</v>
+        <v>19496972.836</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>8609734.759</v>
+        <v>10566019.663</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>18616838.388</v>
+        <v>8609734.759</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>2392944.256</v>
+        <v>18616838.388</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>4964683.773</v>
+        <v>2392944.256</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>2162784.464</v>
+        <v>4964683.773</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>8046257.588</v>
+        <v>2162784.464</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>8443126.151000001</v>
+        <v>8046257.588</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>8386250.008</v>
+        <v>8443126.151000001</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>2565551.236</v>
+        <v>8386250.008</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>6127123.106</v>
+        <v>2565551.236</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>2157212.824</v>
+        <v>6127123.106</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>11978202.448</v>
+        <v>2157212.824</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>15303734.889</v>
+        <v>11978202.448</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>8103908.652</v>
+        <v>15303734.889</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>9382181.960999999</v>
+        <v>8103908.652</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>16784620.262</v>
+        <v>9382181.960999999</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>16833063.951</v>
+        <v>16784620.262</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>17049245.734</v>
+        <v>16833063.951</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>17115867.282</v>
+        <v>17049245.734</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>17153769.299</v>
+        <v>17115867.282</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>17225229.436</v>
+        <v>17153769.299</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5523" t="n">
-        <v>17249482.25</v>
+        <v>17225229.436</v>
       </c>
     </row>
     <row r="5524">
       <c r="A5524" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5524" t="n">
-        <v>17569350.656</v>
+        <v>17249482.25</v>
       </c>
     </row>
     <row r="5525">
       <c r="A5525" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5525" t="n">
-        <v>2859270.317</v>
+        <v>17569350.656</v>
       </c>
     </row>
     <row r="5526">
       <c r="A5526" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5526" t="n">
-        <v>5532498.781</v>
+        <v>2859270.317</v>
       </c>
     </row>
     <row r="5527">
       <c r="A5527" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5527" t="n">
-        <v>2138609.994</v>
+        <v>5532498.781</v>
       </c>
     </row>
     <row r="5528">
       <c r="A5528" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5528" t="n">
-        <v>12895454.923</v>
+        <v>2138609.994</v>
       </c>
     </row>
     <row r="5529">
       <c r="A5529" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5529" t="n">
+        <v>12895454.923</v>
+      </c>
+    </row>
+    <row r="5530">
+      <c r="A5530" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5529" t="n">
+      <c r="B5530" t="n">
         <v>11691372.317</v>
       </c>
     </row>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5530"/>
+  <dimension ref="A1:B5531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47056,21 +47056,21 @@
     <row r="4663">
       <c r="A4663" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2024-11-22</t>
         </is>
       </c>
       <c r="B4663" t="n">
-        <v>14643596.316</v>
+        <v>12764248.542</v>
       </c>
     </row>
     <row r="4664">
       <c r="A4664" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B4664" t="n">
-        <v>12764248.542</v>
+        <v>14643596.316</v>
       </c>
     </row>
     <row r="4665">
@@ -49726,21 +49726,21 @@
     <row r="4930">
       <c r="A4930" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B4930" t="n">
-        <v>14504226.874</v>
+        <v>18389579.978</v>
       </c>
     </row>
     <row r="4931">
       <c r="A4931" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B4931" t="n">
-        <v>18389579.978</v>
+        <v>14504226.874</v>
       </c>
     </row>
     <row r="4932">
@@ -54286,1450 +54286,1460 @@
     <row r="5386">
       <c r="A5386" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B5386" t="n">
-        <v>20351324.136</v>
+        <v>14362928.781</v>
       </c>
     </row>
     <row r="5387">
       <c r="A5387" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B5387" t="n">
-        <v>13491078.904</v>
+        <v>20351324.136</v>
       </c>
     </row>
     <row r="5388">
       <c r="A5388" t="inlineStr">
         <is>
-          <t>2017-09-08</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B5388" t="n">
-        <v>19486335.788</v>
+        <v>13491078.904</v>
       </c>
     </row>
     <row r="5389">
       <c r="A5389" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2017-09-08</t>
         </is>
       </c>
       <c r="B5389" t="n">
-        <v>13156711.485</v>
+        <v>19486335.788</v>
       </c>
     </row>
     <row r="5390">
       <c r="A5390" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B5390" t="n">
-        <v>10510937.957</v>
+        <v>13156711.485</v>
       </c>
     </row>
     <row r="5391">
       <c r="A5391" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>15716836.044</v>
+        <v>10510937.957</v>
       </c>
     </row>
     <row r="5392">
       <c r="A5392" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-07-21</t>
         </is>
       </c>
       <c r="B5392" t="n">
-        <v>19939698.057</v>
+        <v>15716836.044</v>
       </c>
     </row>
     <row r="5393">
       <c r="A5393" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B5393" t="n">
-        <v>2628371.334</v>
+        <v>19939698.057</v>
       </c>
     </row>
     <row r="5394">
       <c r="A5394" t="inlineStr">
         <is>
-          <t>2015-05-20</t>
+          <t>2014-10-02</t>
         </is>
       </c>
       <c r="B5394" t="n">
-        <v>3177021.142</v>
+        <v>2628371.334</v>
       </c>
     </row>
     <row r="5395">
       <c r="A5395" t="inlineStr">
         <is>
-          <t>2012-01-26</t>
+          <t>2015-05-20</t>
         </is>
       </c>
       <c r="B5395" t="n">
-        <v>1264128.557</v>
+        <v>3177021.142</v>
       </c>
     </row>
     <row r="5396">
       <c r="A5396" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2012-01-26</t>
         </is>
       </c>
       <c r="B5396" t="n">
-        <v>10152643.862</v>
+        <v>1264128.557</v>
       </c>
     </row>
     <row r="5397">
       <c r="A5397" t="inlineStr">
         <is>
-          <t>2017-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="B5397" t="n">
-        <v>18137220.352</v>
+        <v>10152643.862</v>
       </c>
     </row>
     <row r="5398">
       <c r="A5398" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2017-09-23</t>
         </is>
       </c>
       <c r="B5398" t="n">
-        <v>18779023.107</v>
+        <v>18137220.352</v>
       </c>
     </row>
     <row r="5399">
       <c r="A5399" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="B5399" t="n">
-        <v>10615483.231</v>
+        <v>18779023.107</v>
       </c>
     </row>
     <row r="5400">
       <c r="A5400" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="B5400" t="n">
-        <v>15795124.861</v>
+        <v>10615483.231</v>
       </c>
     </row>
     <row r="5401">
       <c r="A5401" t="inlineStr">
         <is>
-          <t>2014-10-23</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B5401" t="n">
-        <v>3053937.556</v>
+        <v>15795124.861</v>
       </c>
     </row>
     <row r="5402">
       <c r="A5402" t="inlineStr">
         <is>
-          <t>2015-05-27</t>
+          <t>2014-10-23</t>
         </is>
       </c>
       <c r="B5402" t="n">
-        <v>2974495.006</v>
+        <v>3053937.556</v>
       </c>
     </row>
     <row r="5403">
       <c r="A5403" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2015-05-27</t>
         </is>
       </c>
       <c r="B5403" t="n">
-        <v>1068036.951</v>
+        <v>2974495.006</v>
       </c>
     </row>
     <row r="5404">
       <c r="A5404" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="B5404" t="n">
-        <v>12796519.886</v>
+        <v>1068036.951</v>
       </c>
     </row>
     <row r="5405">
       <c r="A5405" t="inlineStr">
         <is>
-          <t>2017-10-09</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B5405" t="n">
-        <v>19407598.446</v>
+        <v>12796519.886</v>
       </c>
     </row>
     <row r="5406">
       <c r="A5406" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2017-10-09</t>
         </is>
       </c>
       <c r="B5406" t="n">
-        <v>20455744.669</v>
+        <v>19407598.446</v>
       </c>
     </row>
     <row r="5407">
       <c r="A5407" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="B5407" t="n">
-        <v>11376341.238</v>
+        <v>20455744.669</v>
       </c>
     </row>
     <row r="5408">
       <c r="A5408" t="inlineStr">
         <is>
-          <t>2014-11-01</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="B5408" t="n">
-        <v>3044004.834</v>
+        <v>11376341.238</v>
       </c>
     </row>
     <row r="5409">
       <c r="A5409" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2014-11-01</t>
         </is>
       </c>
       <c r="B5409" t="n">
-        <v>2765454.564</v>
+        <v>3044004.834</v>
       </c>
     </row>
     <row r="5410">
       <c r="A5410" t="inlineStr">
         <is>
-          <t>2012-04-02</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="B5410" t="n">
-        <v>1066217.337</v>
+        <v>2765454.564</v>
       </c>
     </row>
     <row r="5411">
       <c r="A5411" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2012-04-02</t>
         </is>
       </c>
       <c r="B5411" t="n">
-        <v>13432763.242</v>
+        <v>1066217.337</v>
       </c>
     </row>
     <row r="5412">
       <c r="A5412" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B5412" t="n">
-        <v>19306849.276</v>
+        <v>13432763.242</v>
       </c>
     </row>
     <row r="5413">
       <c r="A5413" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="B5413" t="n">
-        <v>17904427.701</v>
+        <v>19306849.276</v>
       </c>
     </row>
     <row r="5414">
       <c r="A5414" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="B5414" t="n">
-        <v>11260943.27</v>
+        <v>17904427.701</v>
       </c>
     </row>
     <row r="5415">
       <c r="A5415" t="inlineStr">
         <is>
-          <t>2014-11-19</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="B5415" t="n">
-        <v>3019744.611</v>
+        <v>11260943.27</v>
       </c>
     </row>
     <row r="5416">
       <c r="A5416" t="inlineStr">
         <is>
-          <t>2015-06-09</t>
+          <t>2014-11-19</t>
         </is>
       </c>
       <c r="B5416" t="n">
-        <v>2361717.899</v>
+        <v>3019744.611</v>
       </c>
     </row>
     <row r="5417">
       <c r="A5417" t="inlineStr">
         <is>
-          <t>2012-04-18</t>
+          <t>2015-06-09</t>
         </is>
       </c>
       <c r="B5417" t="n">
-        <v>1080512.495</v>
+        <v>2361717.899</v>
       </c>
     </row>
     <row r="5418">
       <c r="A5418" t="inlineStr">
         <is>
-          <t>2017-11-16</t>
+          <t>2012-04-18</t>
         </is>
       </c>
       <c r="B5418" t="n">
-        <v>15794441.353</v>
+        <v>1080512.495</v>
       </c>
     </row>
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2021-02-12</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="B5419" t="n">
-        <v>18047843.242</v>
+        <v>15794441.353</v>
       </c>
     </row>
     <row r="5420">
       <c r="A5420" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2021-02-12</t>
         </is>
       </c>
       <c r="B5420" t="n">
-        <v>7804497.859</v>
+        <v>18047843.242</v>
       </c>
     </row>
     <row r="5421">
       <c r="A5421" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="B5421" t="n">
-        <v>9877779.377</v>
+        <v>7804497.859</v>
       </c>
     </row>
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2014-12-05</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B5422" t="n">
-        <v>3374566.02</v>
+        <v>9877779.377</v>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2014-12-05</t>
         </is>
       </c>
       <c r="B5423" t="n">
-        <v>2394815.633</v>
+        <v>3374566.02</v>
       </c>
     </row>
     <row r="5424">
       <c r="A5424" t="inlineStr">
         <is>
-          <t>2012-05-04</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="B5424" t="n">
-        <v>1211448.82</v>
+        <v>2394815.633</v>
       </c>
     </row>
     <row r="5425">
       <c r="A5425" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2012-05-04</t>
         </is>
       </c>
       <c r="B5425" t="n">
-        <v>9388382.575999999</v>
+        <v>1211448.82</v>
       </c>
     </row>
     <row r="5426">
       <c r="A5426" t="inlineStr">
         <is>
-          <t>2017-11-30</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B5426" t="n">
-        <v>15739620.059</v>
+        <v>9388382.575999999</v>
       </c>
     </row>
     <row r="5427">
       <c r="A5427" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2017-11-30</t>
         </is>
       </c>
       <c r="B5427" t="n">
-        <v>17461848.264</v>
+        <v>15739620.059</v>
       </c>
     </row>
     <row r="5428">
       <c r="A5428" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="B5428" t="n">
-        <v>7349744.434</v>
+        <v>17461848.264</v>
       </c>
     </row>
     <row r="5429">
       <c r="A5429" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="B5429" t="n">
-        <v>15621689.103</v>
+        <v>7349744.434</v>
       </c>
     </row>
     <row r="5430">
       <c r="A5430" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="B5430" t="n">
-        <v>11149234.035</v>
+        <v>15621689.103</v>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="inlineStr">
         <is>
-          <t>2014-12-24</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B5431" t="n">
-        <v>3749367.14</v>
+        <v>11149234.035</v>
       </c>
     </row>
     <row r="5432">
       <c r="A5432" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2014-12-24</t>
         </is>
       </c>
       <c r="B5432" t="n">
-        <v>18799096.649</v>
+        <v>3749367.14</v>
       </c>
     </row>
     <row r="5433">
       <c r="A5433" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B5433" t="n">
-        <v>2573704.983</v>
+        <v>18799096.649</v>
       </c>
     </row>
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="B5434" t="n">
-        <v>1258763.689</v>
+        <v>2573704.983</v>
       </c>
     </row>
     <row r="5435">
       <c r="A5435" t="inlineStr">
         <is>
-          <t>2017-12-01</t>
+          <t>2012-05-21</t>
         </is>
       </c>
       <c r="B5435" t="n">
-        <v>15786676.067</v>
+        <v>1258763.689</v>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2017-12-01</t>
         </is>
       </c>
       <c r="B5436" t="n">
-        <v>15009732.42</v>
+        <v>15786676.067</v>
       </c>
     </row>
     <row r="5437">
       <c r="A5437" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B5437" t="n">
-        <v>8127301.046</v>
+        <v>15009732.42</v>
       </c>
     </row>
     <row r="5438">
       <c r="A5438" t="inlineStr">
         <is>
-          <t>2015-01-11</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="B5438" t="n">
-        <v>3848375.44</v>
+        <v>8127301.046</v>
       </c>
     </row>
     <row r="5439">
       <c r="A5439" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-01-11</t>
         </is>
       </c>
       <c r="B5439" t="n">
-        <v>2511092.261</v>
+        <v>3848375.44</v>
       </c>
     </row>
     <row r="5440">
       <c r="A5440" t="inlineStr">
         <is>
-          <t>2012-06-06</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="B5440" t="n">
-        <v>1365675.341</v>
+        <v>2511092.261</v>
       </c>
     </row>
     <row r="5441">
       <c r="A5441" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2012-06-06</t>
         </is>
       </c>
       <c r="B5441" t="n">
-        <v>18209088.114</v>
+        <v>1365675.341</v>
       </c>
     </row>
     <row r="5442">
       <c r="A5442" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B5442" t="n">
-        <v>17645156.999</v>
+        <v>18209088.114</v>
       </c>
     </row>
     <row r="5443">
       <c r="A5443" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="B5443" t="n">
-        <v>13264526.584</v>
+        <v>17645156.999</v>
       </c>
     </row>
     <row r="5444">
       <c r="A5444" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B5444" t="n">
-        <v>8486747.433</v>
+        <v>13264526.584</v>
       </c>
     </row>
     <row r="5445">
       <c r="A5445" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B5445" t="n">
-        <v>4046018.483</v>
+        <v>8486747.433</v>
       </c>
     </row>
     <row r="5446">
       <c r="A5446" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B5446" t="n">
-        <v>2718554.466</v>
+        <v>4046018.483</v>
       </c>
     </row>
     <row r="5447">
       <c r="A5447" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="B5447" t="n">
-        <v>1367243.39</v>
+        <v>2718554.466</v>
       </c>
     </row>
     <row r="5448">
       <c r="A5448" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2012-06-18</t>
         </is>
       </c>
       <c r="B5448" t="n">
-        <v>9114476.312000001</v>
+        <v>1367243.39</v>
       </c>
     </row>
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B5449" t="n">
-        <v>15346852.871</v>
+        <v>9114476.312000001</v>
       </c>
     </row>
     <row r="5450">
       <c r="A5450" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B5450" t="n">
-        <v>12870879.477</v>
+        <v>15346852.871</v>
       </c>
     </row>
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5451" t="n">
-        <v>17780525.245</v>
+        <v>12870879.477</v>
       </c>
     </row>
     <row r="5452">
       <c r="A5452" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B5452" t="n">
-        <v>13194431.726</v>
+        <v>17780525.245</v>
       </c>
     </row>
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>8346328.634</v>
+        <v>13194431.726</v>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>16236706.926</v>
+        <v>8346328.634</v>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>16585261.576</v>
+        <v>16236706.926</v>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2015-02-10</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>4071380.974</v>
+        <v>16585261.576</v>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="B5457" t="n">
-        <v>2793932.294</v>
+        <v>4071380.974</v>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>1363857.943</v>
+        <v>2793932.294</v>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>18882222.042</v>
+        <v>1363857.943</v>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>17968690.541</v>
+        <v>18882222.042</v>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>9386582.370999999</v>
+        <v>17968690.541</v>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>17890389.899</v>
+        <v>9386582.370999999</v>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>12015164.279</v>
+        <v>17890389.899</v>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>7902657.124</v>
+        <v>12015164.279</v>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>10503343.65</v>
+        <v>7902657.124</v>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>3819509.271</v>
+        <v>10503343.65</v>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5467" t="n">
-        <v>2826416.003</v>
+        <v>3819509.271</v>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5468" t="n">
-        <v>1630324.679</v>
+        <v>2826416.003</v>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5469" t="n">
-        <v>10658742.561</v>
+        <v>1630324.679</v>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>18727823.649</v>
+        <v>10658742.561</v>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>17224052.503</v>
+        <v>18727823.649</v>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>10673931.348</v>
+        <v>17224052.503</v>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>3979751.142</v>
+        <v>10673931.348</v>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>3642872.298</v>
+        <v>3979751.142</v>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>1613219.441</v>
+        <v>3642872.298</v>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>18746833.543</v>
+        <v>1613219.441</v>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>14696488.122</v>
+        <v>18746833.543</v>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>18803774.412</v>
+        <v>14696488.122</v>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>13074131.781</v>
+        <v>18803774.412</v>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>18108889.119</v>
+        <v>13074131.781</v>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>10600975.162</v>
+        <v>18108889.119</v>
       </c>
     </row>
     <row r="5482">
       <c r="A5482" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>3489354.733</v>
+        <v>10600975.162</v>
       </c>
     </row>
     <row r="5483">
       <c r="A5483" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5483" t="n">
-        <v>3660667.082</v>
+        <v>3489354.733</v>
       </c>
     </row>
     <row r="5484">
       <c r="A5484" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>316907.127</v>
+        <v>3660667.082</v>
       </c>
     </row>
     <row r="5485">
       <c r="A5485" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>1760535.998</v>
+        <v>316907.127</v>
       </c>
     </row>
     <row r="5486">
       <c r="A5486" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>19760413.223</v>
+        <v>1760535.998</v>
       </c>
     </row>
     <row r="5487">
       <c r="A5487" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>15296257.118</v>
+        <v>19760413.223</v>
       </c>
     </row>
     <row r="5488">
       <c r="A5488" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>10677343.165</v>
+        <v>15296257.118</v>
       </c>
     </row>
     <row r="5489">
       <c r="A5489" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>12841467.318</v>
+        <v>10677343.165</v>
       </c>
     </row>
     <row r="5490">
       <c r="A5490" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>3205484.527</v>
+        <v>12841467.318</v>
       </c>
     </row>
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>4648212.458</v>
+        <v>3205484.527</v>
       </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>1873037.142</v>
+        <v>4648212.458</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>19272529.034</v>
+        <v>1873037.142</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>13193422.783</v>
+        <v>19272529.034</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>8610177.493000001</v>
+        <v>13193422.783</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>12225489.867</v>
+        <v>8610177.493000001</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>2985205.142</v>
+        <v>12225489.867</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>4603582.061</v>
+        <v>2985205.142</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>2093652.744</v>
+        <v>4603582.061</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>11477197.525</v>
+        <v>2093652.744</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>19496972.836</v>
+        <v>11477197.525</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>10566019.663</v>
+        <v>19496972.836</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>8609734.759</v>
+        <v>10566019.663</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>18616838.388</v>
+        <v>8609734.759</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>2392944.256</v>
+        <v>18616838.388</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>4964683.773</v>
+        <v>2392944.256</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>2162784.464</v>
+        <v>4964683.773</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>8046257.588</v>
+        <v>2162784.464</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>8443126.151000001</v>
+        <v>8046257.588</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>8386250.008</v>
+        <v>8443126.151000001</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>2565551.236</v>
+        <v>8386250.008</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>6127123.106</v>
+        <v>2565551.236</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>2157212.824</v>
+        <v>6127123.106</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>11978202.448</v>
+        <v>2157212.824</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>15303734.889</v>
+        <v>11978202.448</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>8103908.652</v>
+        <v>15303734.889</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>9382181.960999999</v>
+        <v>8103908.652</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>16784620.262</v>
+        <v>9382181.960999999</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>16833063.951</v>
+        <v>16784620.262</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>17049245.734</v>
+        <v>16833063.951</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>17115867.282</v>
+        <v>17049245.734</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>17153769.299</v>
+        <v>17115867.282</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5523" t="n">
-        <v>17225229.436</v>
+        <v>17153769.299</v>
       </c>
     </row>
     <row r="5524">
       <c r="A5524" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5524" t="n">
-        <v>17249482.25</v>
+        <v>17225229.436</v>
       </c>
     </row>
     <row r="5525">
       <c r="A5525" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5525" t="n">
-        <v>17569350.656</v>
+        <v>17249482.25</v>
       </c>
     </row>
     <row r="5526">
       <c r="A5526" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5526" t="n">
-        <v>2859270.317</v>
+        <v>17569350.656</v>
       </c>
     </row>
     <row r="5527">
       <c r="A5527" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5527" t="n">
-        <v>5532498.781</v>
+        <v>2859270.317</v>
       </c>
     </row>
     <row r="5528">
       <c r="A5528" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5528" t="n">
-        <v>2138609.994</v>
+        <v>5532498.781</v>
       </c>
     </row>
     <row r="5529">
       <c r="A5529" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5529" t="n">
-        <v>12895454.923</v>
+        <v>2138609.994</v>
       </c>
     </row>
     <row r="5530">
       <c r="A5530" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5530" t="n">
+        <v>12895454.923</v>
+      </c>
+    </row>
+    <row r="5531">
+      <c r="A5531" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5530" t="n">
+      <c r="B5531" t="n">
         <v>11691372.317</v>
       </c>
     </row>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5533"/>
+  <dimension ref="A1:B5534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50196,5570 +50196,5580 @@
     <row r="4977">
       <c r="A4977" t="inlineStr">
         <is>
-          <t>2024-11-23</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B4977" t="n">
-        <v>12933809.709</v>
+        <v>14616694.16</v>
       </c>
     </row>
     <row r="4978">
       <c r="A4978" t="inlineStr">
         <is>
-          <t>2018-04-07</t>
+          <t>2024-11-23</t>
         </is>
       </c>
       <c r="B4978" t="n">
-        <v>8715110.261</v>
+        <v>12933809.709</v>
       </c>
     </row>
     <row r="4979">
       <c r="A4979" t="inlineStr">
         <is>
-          <t>2020-12-14</t>
+          <t>2018-04-07</t>
         </is>
       </c>
       <c r="B4979" t="n">
-        <v>14568396.772</v>
+        <v>8715110.261</v>
       </c>
     </row>
     <row r="4980">
       <c r="A4980" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2020-12-14</t>
         </is>
       </c>
       <c r="B4980" t="n">
-        <v>7308221.44</v>
+        <v>14568396.772</v>
       </c>
     </row>
     <row r="4981">
       <c r="A4981" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="B4981" t="n">
-        <v>19746507.73</v>
+        <v>7308221.44</v>
       </c>
     </row>
     <row r="4982">
       <c r="A4982" t="inlineStr">
         <is>
-          <t>2013-08-18</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="B4982" t="n">
-        <v>2450459.11</v>
+        <v>19746507.73</v>
       </c>
     </row>
     <row r="4983">
       <c r="A4983" t="inlineStr">
         <is>
-          <t>2015-07-18</t>
+          <t>2013-08-18</t>
         </is>
       </c>
       <c r="B4983" t="n">
-        <v>2800364.069</v>
+        <v>2450459.11</v>
       </c>
     </row>
     <row r="4984">
       <c r="A4984" t="inlineStr">
         <is>
-          <t>2011-05-08</t>
+          <t>2015-07-18</t>
         </is>
       </c>
       <c r="B4984" t="n">
-        <v>590659.897</v>
+        <v>2800364.069</v>
       </c>
     </row>
     <row r="4985">
       <c r="A4985" t="inlineStr">
         <is>
-          <t>2013-02-15</t>
+          <t>2011-05-08</t>
         </is>
       </c>
       <c r="B4985" t="n">
-        <v>2669285.077</v>
+        <v>590659.897</v>
       </c>
     </row>
     <row r="4986">
       <c r="A4986" t="inlineStr">
         <is>
-          <t>2018-04-23</t>
+          <t>2013-02-15</t>
         </is>
       </c>
       <c r="B4986" t="n">
-        <v>8409681.130999999</v>
+        <v>2669285.077</v>
       </c>
     </row>
     <row r="4987">
       <c r="A4987" t="inlineStr">
         <is>
-          <t>2020-12-29</t>
+          <t>2018-04-23</t>
         </is>
       </c>
       <c r="B4987" t="n">
-        <v>17106922.198</v>
+        <v>8409681.130999999</v>
       </c>
     </row>
     <row r="4988">
       <c r="A4988" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2020-12-29</t>
         </is>
       </c>
       <c r="B4988" t="n">
-        <v>7876220.229</v>
+        <v>17106922.198</v>
       </c>
     </row>
     <row r="4989">
       <c r="A4989" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="B4989" t="n">
-        <v>11885242.465</v>
+        <v>7876220.229</v>
       </c>
     </row>
     <row r="4990">
       <c r="A4990" t="inlineStr">
         <is>
-          <t>2013-10-23</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="B4990" t="n">
-        <v>2986856.758</v>
+        <v>11885242.465</v>
       </c>
     </row>
     <row r="4991">
       <c r="A4991" t="inlineStr">
         <is>
-          <t>2015-08-01</t>
+          <t>2013-10-23</t>
         </is>
       </c>
       <c r="B4991" t="n">
-        <v>2872671.671</v>
+        <v>2986856.758</v>
       </c>
     </row>
     <row r="4992">
       <c r="A4992" t="inlineStr">
         <is>
-          <t>2011-05-23</t>
+          <t>2015-08-01</t>
         </is>
       </c>
       <c r="B4992" t="n">
-        <v>766330.206</v>
+        <v>2872671.671</v>
       </c>
     </row>
     <row r="4993">
       <c r="A4993" t="inlineStr">
         <is>
-          <t>2013-03-07</t>
+          <t>2011-05-23</t>
         </is>
       </c>
       <c r="B4993" t="n">
-        <v>3241428.994</v>
+        <v>766330.206</v>
       </c>
     </row>
     <row r="4994">
       <c r="A4994" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2013-03-07</t>
         </is>
       </c>
       <c r="B4994" t="n">
-        <v>12988051.483</v>
+        <v>3241428.994</v>
       </c>
     </row>
     <row r="4995">
       <c r="A4995" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="B4995" t="n">
-        <v>18760597.04</v>
+        <v>12988051.483</v>
       </c>
     </row>
     <row r="4996">
       <c r="A4996" t="inlineStr">
         <is>
-          <t>2018-05-10</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B4996" t="n">
-        <v>6510882.164</v>
+        <v>18760597.04</v>
       </c>
     </row>
     <row r="4997">
       <c r="A4997" t="inlineStr">
         <is>
-          <t>2021-01-12</t>
+          <t>2018-05-10</t>
         </is>
       </c>
       <c r="B4997" t="n">
-        <v>20145733.863</v>
+        <v>6510882.164</v>
       </c>
     </row>
     <row r="4998">
       <c r="A4998" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2021-01-12</t>
         </is>
       </c>
       <c r="B4998" t="n">
-        <v>8473097.453</v>
+        <v>20145733.863</v>
       </c>
     </row>
     <row r="4999">
       <c r="A4999" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="B4999" t="n">
-        <v>11371015.617</v>
+        <v>8473097.453</v>
       </c>
     </row>
     <row r="5000">
       <c r="A5000" t="inlineStr">
         <is>
-          <t>2014-01-16</t>
+          <t>2024-11-17</t>
         </is>
       </c>
       <c r="B5000" t="n">
-        <v>6970368.657</v>
+        <v>11371015.617</v>
       </c>
     </row>
     <row r="5001">
       <c r="A5001" t="inlineStr">
         <is>
-          <t>2015-08-11</t>
+          <t>2014-01-16</t>
         </is>
       </c>
       <c r="B5001" t="n">
-        <v>3218034.455</v>
+        <v>6970368.657</v>
       </c>
     </row>
     <row r="5002">
       <c r="A5002" t="inlineStr">
         <is>
-          <t>2011-07-06</t>
+          <t>2015-08-11</t>
         </is>
       </c>
       <c r="B5002" t="n">
-        <v>1754964.907</v>
+        <v>3218034.455</v>
       </c>
     </row>
     <row r="5003">
       <c r="A5003" t="inlineStr">
         <is>
-          <t>2013-03-23</t>
+          <t>2011-07-06</t>
         </is>
       </c>
       <c r="B5003" t="n">
-        <v>3589501.35</v>
+        <v>1754964.907</v>
       </c>
     </row>
     <row r="5004">
       <c r="A5004" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2013-03-23</t>
         </is>
       </c>
       <c r="B5004" t="n">
-        <v>18567759.562</v>
+        <v>3589501.35</v>
       </c>
     </row>
     <row r="5005">
       <c r="A5005" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B5005" t="n">
-        <v>11513696.526</v>
+        <v>18567759.562</v>
       </c>
     </row>
     <row r="5006">
       <c r="A5006" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B5006" t="n">
-        <v>19476737.258</v>
+        <v>11513696.526</v>
       </c>
     </row>
     <row r="5007">
       <c r="A5007" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="B5007" t="n">
-        <v>11785461.662</v>
+        <v>19476737.258</v>
       </c>
     </row>
     <row r="5008">
       <c r="A5008" t="inlineStr">
         <is>
-          <t>2018-05-30</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="B5008" t="n">
-        <v>6201090.208</v>
+        <v>11785461.662</v>
       </c>
     </row>
     <row r="5009">
       <c r="A5009" t="inlineStr">
         <is>
-          <t>2021-01-27</t>
+          <t>2018-05-30</t>
         </is>
       </c>
       <c r="B5009" t="n">
-        <v>19974036.715</v>
+        <v>6201090.208</v>
       </c>
     </row>
     <row r="5010">
       <c r="A5010" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2021-01-27</t>
         </is>
       </c>
       <c r="B5010" t="n">
-        <v>8551266.077</v>
+        <v>19974036.715</v>
       </c>
     </row>
     <row r="5011">
       <c r="A5011" t="inlineStr">
         <is>
-          <t>2014-01-28</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="B5011" t="n">
-        <v>6138215.498</v>
+        <v>8551266.077</v>
       </c>
     </row>
     <row r="5012">
       <c r="A5012" t="inlineStr">
         <is>
-          <t>2015-08-21</t>
+          <t>2014-01-28</t>
         </is>
       </c>
       <c r="B5012" t="n">
-        <v>3408662.316</v>
+        <v>6138215.498</v>
       </c>
     </row>
     <row r="5013">
       <c r="A5013" t="inlineStr">
         <is>
-          <t>2011-07-11</t>
+          <t>2015-08-21</t>
         </is>
       </c>
       <c r="B5013" t="n">
-        <v>1780474.358</v>
+        <v>3408662.316</v>
       </c>
     </row>
     <row r="5014">
       <c r="A5014" t="inlineStr">
         <is>
-          <t>2013-03-24</t>
+          <t>2011-07-11</t>
         </is>
       </c>
       <c r="B5014" t="n">
-        <v>3633372.759</v>
+        <v>1780474.358</v>
       </c>
     </row>
     <row r="5015">
       <c r="A5015" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2013-03-24</t>
         </is>
       </c>
       <c r="B5015" t="n">
-        <v>18785986.856</v>
+        <v>3633372.759</v>
       </c>
     </row>
     <row r="5016">
       <c r="A5016" t="inlineStr">
         <is>
-          <t>2018-06-09</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B5016" t="n">
-        <v>6011921.198</v>
+        <v>18785986.856</v>
       </c>
     </row>
     <row r="5017">
       <c r="A5017" t="inlineStr">
         <is>
-          <t>2021-02-14</t>
+          <t>2018-06-09</t>
         </is>
       </c>
       <c r="B5017" t="n">
-        <v>18025144.31</v>
+        <v>6011921.198</v>
       </c>
     </row>
     <row r="5018">
       <c r="A5018" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2021-02-14</t>
         </is>
       </c>
       <c r="B5018" t="n">
-        <v>9524420.506999999</v>
+        <v>18025144.31</v>
       </c>
     </row>
     <row r="5019">
       <c r="A5019" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2023-12-28</t>
         </is>
       </c>
       <c r="B5019" t="n">
-        <v>11482296.535</v>
+        <v>9524420.506999999</v>
       </c>
     </row>
     <row r="5020">
       <c r="A5020" t="inlineStr">
         <is>
-          <t>2014-02-04</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="B5020" t="n">
-        <v>5933884.516</v>
+        <v>11482296.535</v>
       </c>
     </row>
     <row r="5021">
       <c r="A5021" t="inlineStr">
         <is>
-          <t>2015-09-04</t>
+          <t>2014-02-04</t>
         </is>
       </c>
       <c r="B5021" t="n">
-        <v>3873267.812</v>
+        <v>5933884.516</v>
       </c>
     </row>
     <row r="5022">
       <c r="A5022" t="inlineStr">
         <is>
-          <t>2012-11-25</t>
+          <t>2015-09-04</t>
         </is>
       </c>
       <c r="B5022" t="n">
-        <v>1902645.522</v>
+        <v>3873267.812</v>
       </c>
     </row>
     <row r="5023">
       <c r="A5023" t="inlineStr">
         <is>
-          <t>2013-04-06</t>
+          <t>2012-11-25</t>
         </is>
       </c>
       <c r="B5023" t="n">
-        <v>4569312.896</v>
+        <v>1902645.522</v>
       </c>
     </row>
     <row r="5024">
       <c r="A5024" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
       <c r="B5024" t="n">
-        <v>11377694.684</v>
+        <v>4569312.896</v>
       </c>
     </row>
     <row r="5025">
       <c r="A5025" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B5025" t="n">
-        <v>16169923.625</v>
+        <v>11377694.684</v>
       </c>
     </row>
     <row r="5026">
       <c r="A5026" t="inlineStr">
         <is>
-          <t>2018-06-19</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B5026" t="n">
-        <v>5888257.764</v>
+        <v>16169923.625</v>
       </c>
     </row>
     <row r="5027">
       <c r="A5027" t="inlineStr">
         <is>
-          <t>2021-02-24</t>
+          <t>2018-06-19</t>
         </is>
       </c>
       <c r="B5027" t="n">
-        <v>17928661.951</v>
+        <v>5888257.764</v>
       </c>
     </row>
     <row r="5028">
       <c r="A5028" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2021-02-24</t>
         </is>
       </c>
       <c r="B5028" t="n">
-        <v>10359819.603</v>
+        <v>17928661.951</v>
       </c>
     </row>
     <row r="5029">
       <c r="A5029" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="B5029" t="n">
-        <v>17551353.824</v>
+        <v>10359819.603</v>
       </c>
     </row>
     <row r="5030">
       <c r="A5030" t="inlineStr">
         <is>
-          <t>2014-04-11</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B5030" t="n">
-        <v>5486391.567</v>
+        <v>17551353.824</v>
       </c>
     </row>
     <row r="5031">
       <c r="A5031" t="inlineStr">
         <is>
-          <t>2015-09-19</t>
+          <t>2014-04-11</t>
         </is>
       </c>
       <c r="B5031" t="n">
-        <v>3664786.161</v>
+        <v>5486391.567</v>
       </c>
     </row>
     <row r="5032">
       <c r="A5032" t="inlineStr">
         <is>
-          <t>2013-02-14</t>
+          <t>2015-09-19</t>
         </is>
       </c>
       <c r="B5032" t="n">
-        <v>2562212.317</v>
+        <v>3664786.161</v>
       </c>
     </row>
     <row r="5033">
       <c r="A5033" t="inlineStr">
         <is>
-          <t>2013-04-11</t>
+          <t>2013-02-14</t>
         </is>
       </c>
       <c r="B5033" t="n">
-        <v>5258477.274</v>
+        <v>2562212.317</v>
       </c>
     </row>
     <row r="5034">
       <c r="A5034" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2013-04-11</t>
         </is>
       </c>
       <c r="B5034" t="n">
-        <v>18496989.062</v>
+        <v>5258477.274</v>
       </c>
     </row>
     <row r="5035">
       <c r="A5035" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B5035" t="n">
-        <v>12884767.419</v>
+        <v>18496989.062</v>
       </c>
     </row>
     <row r="5036">
       <c r="A5036" t="inlineStr">
         <is>
-          <t>2018-07-06</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B5036" t="n">
-        <v>6085617.267</v>
+        <v>12884767.419</v>
       </c>
     </row>
     <row r="5037">
       <c r="A5037" t="inlineStr">
         <is>
-          <t>2021-03-11</t>
+          <t>2018-07-06</t>
         </is>
       </c>
       <c r="B5037" t="n">
-        <v>17506401.366</v>
+        <v>6085617.267</v>
       </c>
     </row>
     <row r="5038">
       <c r="A5038" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2021-03-11</t>
         </is>
       </c>
       <c r="B5038" t="n">
-        <v>6598014.235</v>
+        <v>17506401.366</v>
       </c>
     </row>
     <row r="5039">
       <c r="A5039" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="B5039" t="n">
-        <v>10277655.606</v>
+        <v>6598014.235</v>
       </c>
     </row>
     <row r="5040">
       <c r="A5040" t="inlineStr">
         <is>
-          <t>2014-04-19</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="B5040" t="n">
-        <v>5485487.586</v>
+        <v>10277655.606</v>
       </c>
     </row>
     <row r="5041">
       <c r="A5041" t="inlineStr">
         <is>
-          <t>2015-05-13</t>
+          <t>2014-04-19</t>
         </is>
       </c>
       <c r="B5041" t="n">
-        <v>3230141.766</v>
+        <v>5485487.586</v>
       </c>
     </row>
     <row r="5042">
       <c r="A5042" t="inlineStr">
         <is>
-          <t>2015-10-17</t>
+          <t>2015-05-13</t>
         </is>
       </c>
       <c r="B5042" t="n">
-        <v>3654408.41</v>
+        <v>3230141.766</v>
       </c>
     </row>
     <row r="5043">
       <c r="A5043" t="inlineStr">
         <is>
-          <t>2013-04-18</t>
+          <t>2015-10-17</t>
         </is>
       </c>
       <c r="B5043" t="n">
-        <v>5574917.223</v>
+        <v>3654408.41</v>
       </c>
     </row>
     <row r="5044">
       <c r="A5044" t="inlineStr">
         <is>
-          <t>2018-07-22</t>
+          <t>2013-04-18</t>
         </is>
       </c>
       <c r="B5044" t="n">
-        <v>5228255.855</v>
+        <v>5574917.223</v>
       </c>
     </row>
     <row r="5045">
       <c r="A5045" t="inlineStr">
         <is>
-          <t>2021-03-26</t>
+          <t>2018-07-22</t>
         </is>
       </c>
       <c r="B5045" t="n">
-        <v>16111714.082</v>
+        <v>5228255.855</v>
       </c>
     </row>
     <row r="5046">
       <c r="A5046" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2021-03-26</t>
         </is>
       </c>
       <c r="B5046" t="n">
-        <v>11670457.865</v>
+        <v>16111714.082</v>
       </c>
     </row>
     <row r="5047">
       <c r="A5047" t="inlineStr">
         <is>
-          <t>2014-04-25</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="B5047" t="n">
-        <v>5461830.872</v>
+        <v>11670457.865</v>
       </c>
     </row>
     <row r="5048">
       <c r="A5048" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2014-04-25</t>
         </is>
       </c>
       <c r="B5048" t="n">
-        <v>2729765.372</v>
+        <v>5461830.872</v>
       </c>
     </row>
     <row r="5049">
       <c r="A5049" t="inlineStr">
         <is>
-          <t>2015-11-23</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="B5049" t="n">
-        <v>4274264.644</v>
+        <v>2729765.372</v>
       </c>
     </row>
     <row r="5050">
       <c r="A5050" t="inlineStr">
         <is>
-          <t>2013-05-12</t>
+          <t>2015-11-23</t>
         </is>
       </c>
       <c r="B5050" t="n">
-        <v>5251259.328</v>
+        <v>4274264.644</v>
       </c>
     </row>
     <row r="5051">
       <c r="A5051" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2013-05-12</t>
         </is>
       </c>
       <c r="B5051" t="n">
-        <v>18983749.017</v>
+        <v>5251259.328</v>
       </c>
     </row>
     <row r="5052">
       <c r="A5052" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B5052" t="n">
-        <v>10054424.048</v>
+        <v>18983749.017</v>
       </c>
     </row>
     <row r="5053">
       <c r="A5053" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="B5053" t="n">
-        <v>18523673.383</v>
+        <v>10054424.048</v>
       </c>
     </row>
     <row r="5054">
       <c r="A5054" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B5054" t="n">
-        <v>6190194.949</v>
+        <v>18523673.383</v>
       </c>
     </row>
     <row r="5055">
       <c r="A5055" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="B5055" t="n">
-        <v>6153661.361</v>
+        <v>6190194.949</v>
       </c>
     </row>
     <row r="5056">
       <c r="A5056" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="B5056" t="n">
-        <v>10362802.579</v>
+        <v>6153661.361</v>
       </c>
     </row>
     <row r="5057">
       <c r="A5057" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2022-11-26</t>
         </is>
       </c>
       <c r="B5057" t="n">
-        <v>8173999.195</v>
+        <v>10362802.579</v>
       </c>
     </row>
     <row r="5058">
       <c r="A5058" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="B5058" t="n">
-        <v>8017070.673</v>
+        <v>8173999.195</v>
       </c>
     </row>
     <row r="5059">
       <c r="A5059" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="B5059" t="n">
-        <v>12216862.024</v>
+        <v>8017070.673</v>
       </c>
     </row>
     <row r="5060">
       <c r="A5060" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B5060" t="n">
-        <v>16777254.692</v>
+        <v>12216862.024</v>
       </c>
     </row>
     <row r="5061">
       <c r="A5061" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="B5061" t="n">
-        <v>10786270.903</v>
+        <v>16777254.692</v>
       </c>
     </row>
     <row r="5062">
       <c r="A5062" t="inlineStr">
         <is>
-          <t>2014-04-30</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B5062" t="n">
-        <v>5420067.424</v>
+        <v>10786270.903</v>
       </c>
     </row>
     <row r="5063">
       <c r="A5063" t="inlineStr">
         <is>
-          <t>2015-12-15</t>
+          <t>2014-04-30</t>
         </is>
       </c>
       <c r="B5063" t="n">
-        <v>4926141.739</v>
+        <v>5420067.424</v>
       </c>
     </row>
     <row r="5064">
       <c r="A5064" t="inlineStr">
         <is>
-          <t>2013-05-20</t>
+          <t>2015-12-15</t>
         </is>
       </c>
       <c r="B5064" t="n">
-        <v>5042140.665</v>
+        <v>4926141.739</v>
       </c>
     </row>
     <row r="5065">
       <c r="A5065" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2013-05-20</t>
         </is>
       </c>
       <c r="B5065" t="n">
-        <v>12620748.822</v>
+        <v>5042140.665</v>
       </c>
     </row>
     <row r="5066">
       <c r="A5066" t="inlineStr">
         <is>
-          <t>2017-05-15</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B5066" t="n">
-        <v>10092377.113</v>
+        <v>12620748.822</v>
       </c>
     </row>
     <row r="5067">
       <c r="A5067" t="inlineStr">
         <is>
-          <t>2018-09-13</t>
+          <t>2017-05-15</t>
         </is>
       </c>
       <c r="B5067" t="n">
-        <v>5716052.208</v>
+        <v>10092377.113</v>
       </c>
     </row>
     <row r="5068">
       <c r="A5068" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2018-09-13</t>
         </is>
       </c>
       <c r="B5068" t="n">
-        <v>12978042.967</v>
+        <v>5716052.208</v>
       </c>
     </row>
     <row r="5069">
       <c r="A5069" t="inlineStr">
         <is>
-          <t>2021-11-14</t>
+          <t>2021-04-13</t>
         </is>
       </c>
       <c r="B5069" t="n">
-        <v>8999892.903000001</v>
+        <v>12978042.967</v>
       </c>
     </row>
     <row r="5070">
       <c r="A5070" t="inlineStr">
         <is>
-          <t>2021-11-15</t>
+          <t>2021-11-14</t>
         </is>
       </c>
       <c r="B5070" t="n">
-        <v>9046092.041999999</v>
+        <v>8999892.903000001</v>
       </c>
     </row>
     <row r="5071">
       <c r="A5071" t="inlineStr">
         <is>
-          <t>2021-12-05</t>
+          <t>2021-11-15</t>
         </is>
       </c>
       <c r="B5071" t="n">
-        <v>9731141.630999999</v>
+        <v>9046092.041999999</v>
       </c>
     </row>
     <row r="5072">
       <c r="A5072" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2021-12-05</t>
         </is>
       </c>
       <c r="B5072" t="n">
-        <v>9907110.057</v>
+        <v>9731141.630999999</v>
       </c>
     </row>
     <row r="5073">
       <c r="A5073" t="inlineStr">
         <is>
-          <t>2022-01-04</t>
+          <t>2021-12-07</t>
         </is>
       </c>
       <c r="B5073" t="n">
-        <v>9609614.795</v>
+        <v>9907110.057</v>
       </c>
     </row>
     <row r="5074">
       <c r="A5074" t="inlineStr">
         <is>
-          <t>2022-01-06</t>
+          <t>2022-01-04</t>
         </is>
       </c>
       <c r="B5074" t="n">
-        <v>9657259.026000001</v>
+        <v>9609614.795</v>
       </c>
     </row>
     <row r="5075">
       <c r="A5075" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-01-06</t>
         </is>
       </c>
       <c r="B5075" t="n">
-        <v>9240975.41</v>
+        <v>9657259.026000001</v>
       </c>
     </row>
     <row r="5076">
       <c r="A5076" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="B5076" t="n">
-        <v>9269022.852</v>
+        <v>9240975.41</v>
       </c>
     </row>
     <row r="5077">
       <c r="A5077" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="B5077" t="n">
-        <v>10034636.877</v>
+        <v>9269022.852</v>
       </c>
     </row>
     <row r="5078">
       <c r="A5078" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="B5078" t="n">
-        <v>8218318.752</v>
+        <v>10034636.877</v>
       </c>
     </row>
     <row r="5079">
       <c r="A5079" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="B5079" t="n">
-        <v>9030081.539999999</v>
+        <v>8218318.752</v>
       </c>
     </row>
     <row r="5080">
       <c r="A5080" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="B5080" t="n">
-        <v>9212749.865</v>
+        <v>9030081.539999999</v>
       </c>
     </row>
     <row r="5081">
       <c r="A5081" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="B5081" t="n">
-        <v>9880601.411</v>
+        <v>9212749.865</v>
       </c>
     </row>
     <row r="5082">
       <c r="A5082" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="B5082" t="n">
-        <v>9874969.986</v>
+        <v>9880601.411</v>
       </c>
     </row>
     <row r="5083">
       <c r="A5083" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="B5083" t="n">
-        <v>10273334.73</v>
+        <v>9874969.986</v>
       </c>
     </row>
     <row r="5084">
       <c r="A5084" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B5084" t="n">
-        <v>10435634.731</v>
+        <v>10273334.73</v>
       </c>
     </row>
     <row r="5085">
       <c r="A5085" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B5085" t="n">
-        <v>10366318.076</v>
+        <v>10435634.731</v>
       </c>
     </row>
     <row r="5086">
       <c r="A5086" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="B5086" t="n">
-        <v>10213288.827</v>
+        <v>10366318.076</v>
       </c>
     </row>
     <row r="5087">
       <c r="A5087" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="B5087" t="n">
-        <v>9524273.433</v>
+        <v>10213288.827</v>
       </c>
     </row>
     <row r="5088">
       <c r="A5088" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="B5088" t="n">
-        <v>8112862.961</v>
+        <v>9524273.433</v>
       </c>
     </row>
     <row r="5089">
       <c r="A5089" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B5089" t="n">
-        <v>7953269.825</v>
+        <v>8112862.961</v>
       </c>
     </row>
     <row r="5090">
       <c r="A5090" t="inlineStr">
         <is>
-          <t>2023-03-29</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="B5090" t="n">
-        <v>7280535.923</v>
+        <v>7953269.825</v>
       </c>
     </row>
     <row r="5091">
       <c r="A5091" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-03-29</t>
         </is>
       </c>
       <c r="B5091" t="n">
-        <v>7702956.401</v>
+        <v>7280535.923</v>
       </c>
     </row>
     <row r="5092">
       <c r="A5092" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="B5092" t="n">
-        <v>7760533.554</v>
+        <v>7702956.401</v>
       </c>
     </row>
     <row r="5093">
       <c r="A5093" t="inlineStr">
         <is>
-          <t>2023-06-11</t>
+          <t>2023-04-19</t>
         </is>
       </c>
       <c r="B5093" t="n">
-        <v>8261999.766</v>
+        <v>7760533.554</v>
       </c>
     </row>
     <row r="5094">
       <c r="A5094" t="inlineStr">
         <is>
-          <t>2023-06-12</t>
+          <t>2023-06-11</t>
         </is>
       </c>
       <c r="B5094" t="n">
-        <v>8200427.591</v>
+        <v>8261999.766</v>
       </c>
     </row>
     <row r="5095">
       <c r="A5095" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-06-12</t>
         </is>
       </c>
       <c r="B5095" t="n">
-        <v>8214760.012</v>
+        <v>8200427.591</v>
       </c>
     </row>
     <row r="5096">
       <c r="A5096" t="inlineStr">
         <is>
-          <t>2018-10-06</t>
+          <t>2023-07-08</t>
         </is>
       </c>
       <c r="B5096" t="n">
-        <v>5589914.377</v>
+        <v>8214760.012</v>
       </c>
     </row>
     <row r="5097">
       <c r="A5097" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2018-10-06</t>
         </is>
       </c>
       <c r="B5097" t="n">
-        <v>13532358.233</v>
+        <v>5589914.377</v>
       </c>
     </row>
     <row r="5098">
       <c r="A5098" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2021-04-29</t>
         </is>
       </c>
       <c r="B5098" t="n">
-        <v>12614002.689</v>
+        <v>13532358.233</v>
       </c>
     </row>
     <row r="5099">
       <c r="A5099" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="B5099" t="n">
-        <v>16908871.181</v>
+        <v>12614002.689</v>
       </c>
     </row>
     <row r="5100">
       <c r="A5100" t="inlineStr">
         <is>
-          <t>2013-06-06</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B5100" t="n">
-        <v>4599987.198</v>
+        <v>16908871.181</v>
       </c>
     </row>
     <row r="5101">
       <c r="A5101" t="inlineStr">
         <is>
-          <t>2014-07-06</t>
+          <t>2013-06-06</t>
         </is>
       </c>
       <c r="B5101" t="n">
-        <v>2651817.344</v>
+        <v>4599987.198</v>
       </c>
     </row>
     <row r="5102">
       <c r="A5102" t="inlineStr">
         <is>
-          <t>2016-01-06</t>
+          <t>2014-07-06</t>
         </is>
       </c>
       <c r="B5102" t="n">
-        <v>4922546.397</v>
+        <v>2651817.344</v>
       </c>
     </row>
     <row r="5103">
       <c r="A5103" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2016-01-06</t>
         </is>
       </c>
       <c r="B5103" t="n">
-        <v>18944691.526</v>
+        <v>4922546.397</v>
       </c>
     </row>
     <row r="5104">
       <c r="A5104" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B5104" t="n">
-        <v>17508953.532</v>
+        <v>18944691.526</v>
       </c>
     </row>
     <row r="5105">
       <c r="A5105" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B5105" t="n">
-        <v>13539397.76</v>
+        <v>17508953.532</v>
       </c>
     </row>
     <row r="5106">
       <c r="A5106" t="inlineStr">
         <is>
-          <t>2018-10-22</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B5106" t="n">
-        <v>5898415.348</v>
+        <v>13539397.76</v>
       </c>
     </row>
     <row r="5107">
       <c r="A5107" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2018-10-22</t>
         </is>
       </c>
       <c r="B5107" t="n">
-        <v>13125869.478</v>
+        <v>5898415.348</v>
       </c>
     </row>
     <row r="5108">
       <c r="A5108" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="B5108" t="n">
-        <v>12536685.09</v>
+        <v>13125869.478</v>
       </c>
     </row>
     <row r="5109">
       <c r="A5109" t="inlineStr">
         <is>
-          <t>2013-06-10</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="B5109" t="n">
-        <v>4546996.485</v>
+        <v>12536685.09</v>
       </c>
     </row>
     <row r="5110">
       <c r="A5110" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2013-06-10</t>
         </is>
       </c>
       <c r="B5110" t="n">
-        <v>11463487.194</v>
+        <v>4546996.485</v>
       </c>
     </row>
     <row r="5111">
       <c r="A5111" t="inlineStr">
         <is>
-          <t>2014-07-12</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B5111" t="n">
-        <v>2584261.892</v>
+        <v>11463487.194</v>
       </c>
     </row>
     <row r="5112">
       <c r="A5112" t="inlineStr">
         <is>
-          <t>2016-02-04</t>
+          <t>2014-07-12</t>
         </is>
       </c>
       <c r="B5112" t="n">
-        <v>5485945.959</v>
+        <v>2584261.892</v>
       </c>
     </row>
     <row r="5113">
       <c r="A5113" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2016-02-04</t>
         </is>
       </c>
       <c r="B5113" t="n">
-        <v>17420607.699</v>
+        <v>5485945.959</v>
       </c>
     </row>
     <row r="5114">
       <c r="A5114" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="B5114" t="n">
-        <v>16742051.234</v>
+        <v>17420607.699</v>
       </c>
     </row>
     <row r="5115">
       <c r="A5115" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B5115" t="n">
-        <v>10154290.861</v>
+        <v>16742051.234</v>
       </c>
     </row>
     <row r="5116">
       <c r="A5116" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="B5116" t="n">
-        <v>5966396.144</v>
+        <v>10154290.861</v>
       </c>
     </row>
     <row r="5117">
       <c r="A5117" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="B5117" t="n">
-        <v>13060043.261</v>
+        <v>5966396.144</v>
       </c>
     </row>
     <row r="5118">
       <c r="A5118" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="B5118" t="n">
-        <v>13198740.126</v>
+        <v>13060043.261</v>
       </c>
     </row>
     <row r="5119">
       <c r="A5119" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="B5119" t="n">
-        <v>15762243.002</v>
+        <v>13198740.126</v>
       </c>
     </row>
     <row r="5120">
       <c r="A5120" t="inlineStr">
         <is>
-          <t>2013-06-27</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="B5120" t="n">
-        <v>4002308.164</v>
+        <v>15762243.002</v>
       </c>
     </row>
     <row r="5121">
       <c r="A5121" t="inlineStr">
         <is>
-          <t>2014-07-19</t>
+          <t>2013-06-27</t>
         </is>
       </c>
       <c r="B5121" t="n">
-        <v>2463584.735</v>
+        <v>4002308.164</v>
       </c>
     </row>
     <row r="5122">
       <c r="A5122" t="inlineStr">
         <is>
-          <t>2016-02-19</t>
+          <t>2014-07-19</t>
         </is>
       </c>
       <c r="B5122" t="n">
-        <v>5426730.361</v>
+        <v>2463584.735</v>
       </c>
     </row>
     <row r="5123">
       <c r="A5123" t="inlineStr">
         <is>
-          <t>2024-10-12</t>
+          <t>2016-02-19</t>
         </is>
       </c>
       <c r="B5123" t="n">
-        <v>10165678.695</v>
+        <v>5426730.361</v>
       </c>
     </row>
     <row r="5124">
       <c r="A5124" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2024-10-12</t>
         </is>
       </c>
       <c r="B5124" t="n">
-        <v>19324380.182</v>
+        <v>10165678.695</v>
       </c>
     </row>
     <row r="5125">
       <c r="A5125" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B5125" t="n">
-        <v>16662741.532</v>
+        <v>19324380.182</v>
       </c>
     </row>
     <row r="5126">
       <c r="A5126" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B5126" t="n">
-        <v>11982419.652</v>
+        <v>16662741.532</v>
       </c>
     </row>
     <row r="5127">
       <c r="A5127" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B5127" t="n">
-        <v>18518628.999</v>
+        <v>11982419.652</v>
       </c>
     </row>
     <row r="5128">
       <c r="A5128" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B5128" t="n">
-        <v>11533542.22</v>
+        <v>18518628.999</v>
       </c>
     </row>
     <row r="5129">
       <c r="A5129" t="inlineStr">
         <is>
-          <t>2018-11-29</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B5129" t="n">
-        <v>5868364.27</v>
+        <v>11533542.22</v>
       </c>
     </row>
     <row r="5130">
       <c r="A5130" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="B5130" t="n">
-        <v>12659047.396</v>
+        <v>5868364.27</v>
       </c>
     </row>
     <row r="5131">
       <c r="A5131" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2021-05-26</t>
         </is>
       </c>
       <c r="B5131" t="n">
-        <v>13742960</v>
+        <v>12659047.396</v>
       </c>
     </row>
     <row r="5132">
       <c r="A5132" t="inlineStr">
         <is>
-          <t>2013-06-28</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B5132" t="n">
-        <v>3944583.64</v>
+        <v>13742960</v>
       </c>
     </row>
     <row r="5133">
       <c r="A5133" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2013-06-28</t>
         </is>
       </c>
       <c r="B5133" t="n">
-        <v>11890718.505</v>
+        <v>3944583.64</v>
       </c>
     </row>
     <row r="5134">
       <c r="A5134" t="inlineStr">
         <is>
-          <t>2014-07-26</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B5134" t="n">
-        <v>2518919.825</v>
+        <v>11890718.505</v>
       </c>
     </row>
     <row r="5135">
       <c r="A5135" t="inlineStr">
         <is>
-          <t>2016-03-04</t>
+          <t>2014-07-26</t>
         </is>
       </c>
       <c r="B5135" t="n">
-        <v>5778833.318</v>
+        <v>2518919.825</v>
       </c>
     </row>
     <row r="5136">
       <c r="A5136" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2016-03-04</t>
         </is>
       </c>
       <c r="B5136" t="n">
-        <v>17921349.452</v>
+        <v>5778833.318</v>
       </c>
     </row>
     <row r="5137">
       <c r="A5137" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B5137" t="n">
-        <v>12190152.036</v>
+        <v>17921349.452</v>
       </c>
     </row>
     <row r="5138">
       <c r="A5138" t="inlineStr">
         <is>
-          <t>2019-01-13</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B5138" t="n">
-        <v>14122551.88</v>
+        <v>12190152.036</v>
       </c>
     </row>
     <row r="5139">
       <c r="A5139" t="inlineStr">
         <is>
-          <t>2021-06-14</t>
+          <t>2019-01-13</t>
         </is>
       </c>
       <c r="B5139" t="n">
-        <v>11639185.801</v>
+        <v>14122551.88</v>
       </c>
     </row>
     <row r="5140">
       <c r="A5140" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2021-06-14</t>
         </is>
       </c>
       <c r="B5140" t="n">
-        <v>15843658.658</v>
+        <v>11639185.801</v>
       </c>
     </row>
     <row r="5141">
       <c r="A5141" t="inlineStr">
         <is>
-          <t>2013-07-20</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="B5141" t="n">
-        <v>2418821.13</v>
+        <v>15843658.658</v>
       </c>
     </row>
     <row r="5142">
       <c r="A5142" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2013-07-20</t>
         </is>
       </c>
       <c r="B5142" t="n">
-        <v>19799814.996</v>
+        <v>2418821.13</v>
       </c>
     </row>
     <row r="5143">
       <c r="A5143" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B5143" t="n">
-        <v>16092268.729</v>
+        <v>19799814.996</v>
       </c>
     </row>
     <row r="5144">
       <c r="A5144" t="inlineStr">
         <is>
-          <t>2014-08-02</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="B5144" t="n">
-        <v>2629106.898</v>
+        <v>16092268.729</v>
       </c>
     </row>
     <row r="5145">
       <c r="A5145" t="inlineStr">
         <is>
-          <t>2016-03-18</t>
+          <t>2014-08-02</t>
         </is>
       </c>
       <c r="B5145" t="n">
-        <v>6029787.816</v>
+        <v>2629106.898</v>
       </c>
     </row>
     <row r="5146">
       <c r="A5146" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2016-03-18</t>
         </is>
       </c>
       <c r="B5146" t="n">
-        <v>13888250.184</v>
+        <v>6029787.816</v>
       </c>
     </row>
     <row r="5147">
       <c r="A5147" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B5147" t="n">
-        <v>13422882.236</v>
+        <v>13888250.184</v>
       </c>
     </row>
     <row r="5148">
       <c r="A5148" t="inlineStr">
         <is>
-          <t>2019-01-29</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B5148" t="n">
-        <v>15644638.336</v>
+        <v>13422882.236</v>
       </c>
     </row>
     <row r="5149">
       <c r="A5149" t="inlineStr">
         <is>
-          <t>2021-06-29</t>
+          <t>2019-01-29</t>
         </is>
       </c>
       <c r="B5149" t="n">
-        <v>10913626.968</v>
+        <v>15644638.336</v>
       </c>
     </row>
     <row r="5150">
       <c r="A5150" t="inlineStr">
         <is>
-          <t>2024-03-23</t>
+          <t>2021-06-29</t>
         </is>
       </c>
       <c r="B5150" t="n">
-        <v>19077349.963</v>
+        <v>10913626.968</v>
       </c>
     </row>
     <row r="5151">
       <c r="A5151" t="inlineStr">
         <is>
-          <t>2013-08-08</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="B5151" t="n">
-        <v>2304856.993</v>
+        <v>19077349.963</v>
       </c>
     </row>
     <row r="5152">
       <c r="A5152" t="inlineStr">
         <is>
-          <t>2014-08-08</t>
+          <t>2013-08-08</t>
         </is>
       </c>
       <c r="B5152" t="n">
-        <v>2848618.131</v>
+        <v>2304856.993</v>
       </c>
     </row>
     <row r="5153">
       <c r="A5153" t="inlineStr">
         <is>
-          <t>2016-04-16</t>
+          <t>2014-08-08</t>
         </is>
       </c>
       <c r="B5153" t="n">
-        <v>6185360.008</v>
+        <v>2848618.131</v>
       </c>
     </row>
     <row r="5154">
       <c r="A5154" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2016-04-16</t>
         </is>
       </c>
       <c r="B5154" t="n">
-        <v>13449347.64</v>
+        <v>6185360.008</v>
       </c>
     </row>
     <row r="5155">
       <c r="A5155" t="inlineStr">
         <is>
-          <t>2019-02-14</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B5155" t="n">
-        <v>15372460.768</v>
+        <v>13449347.64</v>
       </c>
     </row>
     <row r="5156">
       <c r="A5156" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2019-02-14</t>
         </is>
       </c>
       <c r="B5156" t="n">
-        <v>9416090.248</v>
+        <v>15372460.768</v>
       </c>
     </row>
     <row r="5157">
       <c r="A5157" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="B5157" t="n">
-        <v>19554838.811</v>
+        <v>9416090.248</v>
       </c>
     </row>
     <row r="5158">
       <c r="A5158" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-03-30</t>
         </is>
       </c>
       <c r="B5158" t="n">
-        <v>15736728.197</v>
+        <v>19554838.811</v>
       </c>
     </row>
     <row r="5159">
       <c r="A5159" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="B5159" t="n">
-        <v>18061928.338</v>
+        <v>15736728.197</v>
       </c>
     </row>
     <row r="5160">
       <c r="A5160" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B5160" t="n">
-        <v>18195056.999</v>
+        <v>18061928.338</v>
       </c>
     </row>
     <row r="5161">
       <c r="A5161" t="inlineStr">
         <is>
-          <t>2013-08-22</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B5161" t="n">
-        <v>2483113.932</v>
+        <v>18195056.999</v>
       </c>
     </row>
     <row r="5162">
       <c r="A5162" t="inlineStr">
         <is>
-          <t>2014-08-24</t>
+          <t>2013-08-22</t>
         </is>
       </c>
       <c r="B5162" t="n">
-        <v>2907894.968</v>
+        <v>2483113.932</v>
       </c>
     </row>
     <row r="5163">
       <c r="A5163" t="inlineStr">
         <is>
-          <t>2016-04-30</t>
+          <t>2014-08-24</t>
         </is>
       </c>
       <c r="B5163" t="n">
-        <v>5584076.258</v>
+        <v>2907894.968</v>
       </c>
     </row>
     <row r="5164">
       <c r="A5164" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2016-04-30</t>
         </is>
       </c>
       <c r="B5164" t="n">
-        <v>10139727.84</v>
+        <v>5584076.258</v>
       </c>
     </row>
     <row r="5165">
       <c r="A5165" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="B5165" t="n">
-        <v>20311437.78</v>
+        <v>10139727.84</v>
       </c>
     </row>
     <row r="5166">
       <c r="A5166" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="B5166" t="n">
-        <v>19921671.37</v>
+        <v>20311437.78</v>
       </c>
     </row>
     <row r="5167">
       <c r="A5167" t="inlineStr">
         <is>
-          <t>2019-03-08</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="B5167" t="n">
-        <v>7888479.131</v>
+        <v>19921671.37</v>
       </c>
     </row>
     <row r="5168">
       <c r="A5168" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2019-03-08</t>
         </is>
       </c>
       <c r="B5168" t="n">
-        <v>10017123.009</v>
+        <v>7888479.131</v>
       </c>
     </row>
     <row r="5169">
       <c r="A5169" t="inlineStr">
         <is>
-          <t>2024-04-06</t>
+          <t>2021-08-08</t>
         </is>
       </c>
       <c r="B5169" t="n">
-        <v>19912305.448</v>
+        <v>10017123.009</v>
       </c>
     </row>
     <row r="5170">
       <c r="A5170" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-04-06</t>
         </is>
       </c>
       <c r="B5170" t="n">
-        <v>15408192.117</v>
+        <v>19912305.448</v>
       </c>
     </row>
     <row r="5171">
       <c r="A5171" t="inlineStr">
         <is>
-          <t>2013-09-08</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="B5171" t="n">
-        <v>2309043.439</v>
+        <v>15408192.117</v>
       </c>
     </row>
     <row r="5172">
       <c r="A5172" t="inlineStr">
         <is>
-          <t>2014-08-30</t>
+          <t>2013-09-08</t>
         </is>
       </c>
       <c r="B5172" t="n">
-        <v>2814593.841</v>
+        <v>2309043.439</v>
       </c>
     </row>
     <row r="5173">
       <c r="A5173" t="inlineStr">
         <is>
-          <t>2016-05-11</t>
+          <t>2014-08-30</t>
         </is>
       </c>
       <c r="B5173" t="n">
-        <v>5531832.262</v>
+        <v>2814593.841</v>
       </c>
     </row>
     <row r="5174">
       <c r="A5174" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2016-05-11</t>
         </is>
       </c>
       <c r="B5174" t="n">
-        <v>13010963.419</v>
+        <v>5531832.262</v>
       </c>
     </row>
     <row r="5175">
       <c r="A5175" t="inlineStr">
         <is>
-          <t>2019-03-14</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="B5175" t="n">
-        <v>7713021.774</v>
+        <v>13010963.419</v>
       </c>
     </row>
     <row r="5176">
       <c r="A5176" t="inlineStr">
         <is>
-          <t>2021-08-13</t>
+          <t>2019-03-14</t>
         </is>
       </c>
       <c r="B5176" t="n">
-        <v>9574167.65</v>
+        <v>7713021.774</v>
       </c>
     </row>
     <row r="5177">
       <c r="A5177" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2021-08-13</t>
         </is>
       </c>
       <c r="B5177" t="n">
-        <v>17931313.804</v>
+        <v>9574167.65</v>
       </c>
     </row>
     <row r="5178">
       <c r="A5178" t="inlineStr">
         <is>
-          <t>2013-09-10</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="B5178" t="n">
-        <v>2350507.87</v>
+        <v>17931313.804</v>
       </c>
     </row>
     <row r="5179">
       <c r="A5179" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2013-09-10</t>
         </is>
       </c>
       <c r="B5179" t="n">
-        <v>13202621.428</v>
+        <v>2350507.87</v>
       </c>
     </row>
     <row r="5180">
       <c r="A5180" t="inlineStr">
         <is>
-          <t>2014-09-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B5180" t="n">
-        <v>2654246.128</v>
+        <v>13202621.428</v>
       </c>
     </row>
     <row r="5181">
       <c r="A5181" t="inlineStr">
         <is>
-          <t>2016-05-26</t>
+          <t>2014-09-24</t>
         </is>
       </c>
       <c r="B5181" t="n">
-        <v>5654997.006</v>
+        <v>2654246.128</v>
       </c>
     </row>
     <row r="5182">
       <c r="A5182" t="inlineStr">
         <is>
-          <t>2019-03-30</t>
+          <t>2016-05-26</t>
         </is>
       </c>
       <c r="B5182" t="n">
-        <v>7636682.731</v>
+        <v>5654997.006</v>
       </c>
     </row>
     <row r="5183">
       <c r="A5183" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2019-03-30</t>
         </is>
       </c>
       <c r="B5183" t="n">
-        <v>9115635.342</v>
+        <v>7636682.731</v>
       </c>
     </row>
     <row r="5184">
       <c r="A5184" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2021-08-18</t>
         </is>
       </c>
       <c r="B5184" t="n">
-        <v>17680988.152</v>
+        <v>9115635.342</v>
       </c>
     </row>
     <row r="5185">
       <c r="A5185" t="inlineStr">
         <is>
-          <t>2013-10-04</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="B5185" t="n">
-        <v>2315949.206</v>
+        <v>17680988.152</v>
       </c>
     </row>
     <row r="5186">
       <c r="A5186" t="inlineStr">
         <is>
-          <t>2016-07-20</t>
+          <t>2013-10-04</t>
         </is>
       </c>
       <c r="B5186" t="n">
-        <v>5964902.839</v>
+        <v>2315949.206</v>
       </c>
     </row>
     <row r="5187">
       <c r="A5187" t="inlineStr">
         <is>
-          <t>2014-09-30</t>
+          <t>2016-07-20</t>
         </is>
       </c>
       <c r="B5187" t="n">
-        <v>2625686.029</v>
+        <v>5964902.839</v>
       </c>
     </row>
     <row r="5188">
       <c r="A5188" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2014-09-30</t>
         </is>
       </c>
       <c r="B5188" t="n">
-        <v>14555529.314</v>
+        <v>2625686.029</v>
       </c>
     </row>
     <row r="5189">
       <c r="A5189" t="inlineStr">
         <is>
-          <t>2019-04-15</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B5189" t="n">
-        <v>6167355.699</v>
+        <v>14555529.314</v>
       </c>
     </row>
     <row r="5190">
       <c r="A5190" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-04-15</t>
         </is>
       </c>
       <c r="B5190" t="n">
-        <v>8491040.936000001</v>
+        <v>6167355.699</v>
       </c>
     </row>
     <row r="5191">
       <c r="A5191" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="B5191" t="n">
-        <v>17316630.871</v>
+        <v>8491040.936000001</v>
       </c>
     </row>
     <row r="5192">
       <c r="A5192" t="inlineStr">
         <is>
-          <t>2013-10-22</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="B5192" t="n">
-        <v>2877443.953</v>
+        <v>17316630.871</v>
       </c>
     </row>
     <row r="5193">
       <c r="A5193" t="inlineStr">
         <is>
-          <t>2016-08-03</t>
+          <t>2013-10-22</t>
         </is>
       </c>
       <c r="B5193" t="n">
-        <v>5948319.051</v>
+        <v>2877443.953</v>
       </c>
     </row>
     <row r="5194">
       <c r="A5194" t="inlineStr">
         <is>
-          <t>2014-10-07</t>
+          <t>2016-08-03</t>
         </is>
       </c>
       <c r="B5194" t="n">
-        <v>2920545.529</v>
+        <v>5948319.051</v>
       </c>
     </row>
     <row r="5195">
       <c r="A5195" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2014-10-07</t>
         </is>
       </c>
       <c r="B5195" t="n">
-        <v>9876625.647</v>
+        <v>2920545.529</v>
       </c>
     </row>
     <row r="5196">
       <c r="A5196" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B5196" t="n">
-        <v>9348543.609999999</v>
+        <v>9876625.647</v>
       </c>
     </row>
     <row r="5197">
       <c r="A5197" t="inlineStr">
         <is>
-          <t>2019-04-30</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B5197" t="n">
-        <v>6286634.574</v>
+        <v>9348543.609999999</v>
       </c>
     </row>
     <row r="5198">
       <c r="A5198" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2019-04-30</t>
         </is>
       </c>
       <c r="B5198" t="n">
-        <v>8893796.503</v>
+        <v>6286634.574</v>
       </c>
     </row>
     <row r="5199">
       <c r="A5199" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2021-09-26</t>
         </is>
       </c>
       <c r="B5199" t="n">
-        <v>16658702.812</v>
+        <v>8893796.503</v>
       </c>
     </row>
     <row r="5200">
       <c r="A5200" t="inlineStr">
         <is>
-          <t>2024-07-06</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="B5200" t="n">
-        <v>15649596.102</v>
+        <v>16658702.812</v>
       </c>
     </row>
     <row r="5201">
       <c r="A5201" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-07-06</t>
         </is>
       </c>
       <c r="B5201" t="n">
-        <v>11176294.018</v>
+        <v>15649596.102</v>
       </c>
     </row>
     <row r="5202">
       <c r="A5202" t="inlineStr">
         <is>
-          <t>2013-10-25</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B5202" t="n">
-        <v>3355406.547</v>
+        <v>11176294.018</v>
       </c>
     </row>
     <row r="5203">
       <c r="A5203" t="inlineStr">
         <is>
-          <t>2014-10-14</t>
+          <t>2013-10-25</t>
         </is>
       </c>
       <c r="B5203" t="n">
-        <v>3051641.316</v>
+        <v>3355406.547</v>
       </c>
     </row>
     <row r="5204">
       <c r="A5204" t="inlineStr">
         <is>
-          <t>2016-08-18</t>
+          <t>2014-10-14</t>
         </is>
       </c>
       <c r="B5204" t="n">
-        <v>5520205.846</v>
+        <v>3051641.316</v>
       </c>
     </row>
     <row r="5205">
       <c r="A5205" t="inlineStr">
         <is>
-          <t>2019-05-09</t>
+          <t>2016-08-18</t>
         </is>
       </c>
       <c r="B5205" t="n">
-        <v>6645336.202</v>
+        <v>5520205.846</v>
       </c>
     </row>
     <row r="5206">
       <c r="A5206" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2019-05-09</t>
         </is>
       </c>
       <c r="B5206" t="n">
-        <v>8760085.365</v>
+        <v>6645336.202</v>
       </c>
     </row>
     <row r="5207">
       <c r="A5207" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="B5207" t="n">
-        <v>20506438.825</v>
+        <v>8760085.365</v>
       </c>
     </row>
     <row r="5208">
       <c r="A5208" t="inlineStr">
         <is>
-          <t>2013-11-17</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B5208" t="n">
-        <v>4107747.394</v>
+        <v>20506438.825</v>
       </c>
     </row>
     <row r="5209">
       <c r="A5209" t="inlineStr">
         <is>
-          <t>2016-09-03</t>
+          <t>2013-11-17</t>
         </is>
       </c>
       <c r="B5209" t="n">
-        <v>5203377.911</v>
+        <v>4107747.394</v>
       </c>
     </row>
     <row r="5210">
       <c r="A5210" t="inlineStr">
         <is>
-          <t>2014-10-22</t>
+          <t>2016-09-03</t>
         </is>
       </c>
       <c r="B5210" t="n">
-        <v>3035976.286</v>
+        <v>5203377.911</v>
       </c>
     </row>
     <row r="5211">
       <c r="A5211" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2014-10-22</t>
         </is>
       </c>
       <c r="B5211" t="n">
-        <v>18413104.776</v>
+        <v>3035976.286</v>
       </c>
     </row>
     <row r="5212">
       <c r="A5212" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B5212" t="n">
-        <v>7905786.007</v>
+        <v>18413104.776</v>
       </c>
     </row>
     <row r="5213">
       <c r="A5213" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="B5213" t="n">
-        <v>9073650.025</v>
+        <v>7905786.007</v>
       </c>
     </row>
     <row r="5214">
       <c r="A5214" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="B5214" t="n">
-        <v>19218055.445</v>
+        <v>9073650.025</v>
       </c>
     </row>
     <row r="5215">
       <c r="A5215" t="inlineStr">
         <is>
-          <t>2013-12-16</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B5215" t="n">
-        <v>5816249.876</v>
+        <v>19218055.445</v>
       </c>
     </row>
     <row r="5216">
       <c r="A5216" t="inlineStr">
         <is>
-          <t>2016-10-09</t>
+          <t>2013-12-16</t>
         </is>
       </c>
       <c r="B5216" t="n">
-        <v>4052991.609</v>
+        <v>5816249.876</v>
       </c>
     </row>
     <row r="5217">
       <c r="A5217" t="inlineStr">
         <is>
-          <t>2014-11-04</t>
+          <t>2016-10-09</t>
         </is>
       </c>
       <c r="B5217" t="n">
-        <v>2855446.32</v>
+        <v>4052991.609</v>
       </c>
     </row>
     <row r="5218">
       <c r="A5218" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2014-11-04</t>
         </is>
       </c>
       <c r="B5218" t="n">
-        <v>9252340.935000001</v>
+        <v>2855446.32</v>
       </c>
     </row>
     <row r="5219">
       <c r="A5219" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
       <c r="B5219" t="n">
-        <v>14880148.605</v>
+        <v>9252340.935000001</v>
       </c>
     </row>
     <row r="5220">
       <c r="A5220" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B5220" t="n">
-        <v>12724123.607</v>
+        <v>14880148.605</v>
       </c>
     </row>
     <row r="5221">
       <c r="A5221" t="inlineStr">
         <is>
-          <t>2019-08-21</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B5221" t="n">
-        <v>12393381.677</v>
+        <v>12724123.607</v>
       </c>
     </row>
     <row r="5222">
       <c r="A5222" t="inlineStr">
         <is>
-          <t>2021-12-01</t>
+          <t>2019-08-21</t>
         </is>
       </c>
       <c r="B5222" t="n">
-        <v>9613862.286</v>
+        <v>12393381.677</v>
       </c>
     </row>
     <row r="5223">
       <c r="A5223" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="B5223" t="n">
-        <v>18218036.776</v>
+        <v>9613862.286</v>
       </c>
     </row>
     <row r="5224">
       <c r="A5224" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B5224" t="n">
-        <v>16265749.775</v>
+        <v>18218036.776</v>
       </c>
     </row>
     <row r="5225">
       <c r="A5225" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2024-07-27</t>
         </is>
       </c>
       <c r="B5225" t="n">
-        <v>16670126.739</v>
+        <v>16265749.775</v>
       </c>
     </row>
     <row r="5226">
       <c r="A5226" t="inlineStr">
         <is>
-          <t>2013-12-26</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="B5226" t="n">
-        <v>6915819.538</v>
+        <v>16670126.739</v>
       </c>
     </row>
     <row r="5227">
       <c r="A5227" t="inlineStr">
         <is>
-          <t>2014-11-12</t>
+          <t>2013-12-26</t>
         </is>
       </c>
       <c r="B5227" t="n">
-        <v>3023467.834</v>
+        <v>6915819.538</v>
       </c>
     </row>
     <row r="5228">
       <c r="A5228" t="inlineStr">
         <is>
-          <t>2010-09-24</t>
+          <t>2014-11-12</t>
         </is>
       </c>
       <c r="B5228" t="n">
-        <v>112259.447</v>
+        <v>3023467.834</v>
       </c>
     </row>
     <row r="5229">
       <c r="A5229" t="inlineStr">
         <is>
-          <t>2016-10-23</t>
+          <t>2010-09-24</t>
         </is>
       </c>
       <c r="B5229" t="n">
-        <v>4402004.723</v>
+        <v>112259.447</v>
       </c>
     </row>
     <row r="5230">
       <c r="A5230" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2016-10-23</t>
         </is>
       </c>
       <c r="B5230" t="n">
-        <v>19014663.42</v>
+        <v>4402004.723</v>
       </c>
     </row>
     <row r="5231">
       <c r="A5231" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="B5231" t="n">
-        <v>18095870.058</v>
+        <v>19014663.42</v>
       </c>
     </row>
     <row r="5232">
       <c r="A5232" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B5232" t="n">
-        <v>9408798.934</v>
+        <v>18095870.058</v>
       </c>
     </row>
     <row r="5233">
       <c r="A5233" t="inlineStr">
         <is>
-          <t>2019-09-19</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B5233" t="n">
-        <v>11427939.892</v>
+        <v>9408798.934</v>
       </c>
     </row>
     <row r="5234">
       <c r="A5234" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
+          <t>2019-09-19</t>
         </is>
       </c>
       <c r="B5234" t="n">
-        <v>9957806.918</v>
+        <v>11427939.892</v>
       </c>
     </row>
     <row r="5235">
       <c r="A5235" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="B5235" t="n">
-        <v>17239012.79</v>
+        <v>9957806.918</v>
       </c>
     </row>
     <row r="5236">
       <c r="A5236" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B5236" t="n">
-        <v>11167233.165</v>
+        <v>17239012.79</v>
       </c>
     </row>
     <row r="5237">
       <c r="A5237" t="inlineStr">
         <is>
-          <t>2016-12-09</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B5237" t="n">
-        <v>5405479.025</v>
+        <v>11167233.165</v>
       </c>
     </row>
     <row r="5238">
       <c r="A5238" t="inlineStr">
         <is>
-          <t>2014-01-10</t>
+          <t>2016-12-09</t>
         </is>
       </c>
       <c r="B5238" t="n">
-        <v>6911767.667</v>
+        <v>5405479.025</v>
       </c>
     </row>
     <row r="5239">
       <c r="A5239" t="inlineStr">
         <is>
-          <t>2014-11-18</t>
+          <t>2014-01-10</t>
         </is>
       </c>
       <c r="B5239" t="n">
-        <v>3039813.332</v>
+        <v>6911767.667</v>
       </c>
     </row>
     <row r="5240">
       <c r="A5240" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2014-11-18</t>
         </is>
       </c>
       <c r="B5240" t="n">
-        <v>10958641.073</v>
+        <v>3039813.332</v>
       </c>
     </row>
     <row r="5241">
       <c r="A5241" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B5241" t="n">
-        <v>10512254.974</v>
+        <v>10958641.073</v>
       </c>
     </row>
     <row r="5242">
       <c r="A5242" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B5242" t="n">
-        <v>18752011.913</v>
+        <v>10512254.974</v>
       </c>
     </row>
     <row r="5243">
       <c r="A5243" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B5243" t="n">
-        <v>18684510.463</v>
+        <v>18752011.913</v>
       </c>
     </row>
     <row r="5244">
       <c r="A5244" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B5244" t="n">
-        <v>9947791.287</v>
+        <v>18684510.463</v>
       </c>
     </row>
     <row r="5245">
       <c r="A5245" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="B5245" t="n">
-        <v>8830961.847999999</v>
+        <v>9947791.287</v>
       </c>
     </row>
     <row r="5246">
       <c r="A5246" t="inlineStr">
         <is>
-          <t>2014-01-19</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="B5246" t="n">
-        <v>6709581.37</v>
+        <v>8830961.847999999</v>
       </c>
     </row>
     <row r="5247">
       <c r="A5247" t="inlineStr">
         <is>
-          <t>2016-12-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
       <c r="B5247" t="n">
-        <v>5441150.314</v>
+        <v>6709581.37</v>
       </c>
     </row>
     <row r="5248">
       <c r="A5248" t="inlineStr">
         <is>
-          <t>2014-12-15</t>
+          <t>2016-12-14</t>
         </is>
       </c>
       <c r="B5248" t="n">
-        <v>3652983.074</v>
+        <v>5441150.314</v>
       </c>
     </row>
     <row r="5249">
       <c r="A5249" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2014-12-15</t>
         </is>
       </c>
       <c r="B5249" t="n">
-        <v>14765108.135</v>
+        <v>3652983.074</v>
       </c>
     </row>
     <row r="5250">
       <c r="A5250" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B5250" t="n">
-        <v>10407093</v>
+        <v>14765108.135</v>
       </c>
     </row>
     <row r="5251">
       <c r="A5251" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B5251" t="n">
-        <v>12989124.134</v>
+        <v>10407093</v>
       </c>
     </row>
     <row r="5252">
       <c r="A5252" t="inlineStr">
         <is>
-          <t>2019-10-25</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="B5252" t="n">
-        <v>10081112.066</v>
+        <v>12989124.134</v>
       </c>
     </row>
     <row r="5253">
       <c r="A5253" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="B5253" t="n">
-        <v>9996728.27</v>
+        <v>10081112.066</v>
       </c>
     </row>
     <row r="5254">
       <c r="A5254" t="inlineStr">
         <is>
-          <t>2014-01-20</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="B5254" t="n">
-        <v>6614252.892</v>
+        <v>9996728.27</v>
       </c>
     </row>
     <row r="5255">
       <c r="A5255" t="inlineStr">
         <is>
-          <t>2016-12-30</t>
+          <t>2014-01-20</t>
         </is>
       </c>
       <c r="B5255" t="n">
-        <v>6503628.164</v>
+        <v>6614252.892</v>
       </c>
     </row>
     <row r="5256">
       <c r="A5256" t="inlineStr">
         <is>
-          <t>2014-12-22</t>
+          <t>2016-12-30</t>
         </is>
       </c>
       <c r="B5256" t="n">
-        <v>3563708.16</v>
+        <v>6503628.164</v>
       </c>
     </row>
     <row r="5257">
       <c r="A5257" t="inlineStr">
         <is>
-          <t>2010-09-21</t>
+          <t>2014-12-22</t>
         </is>
       </c>
       <c r="B5257" t="n">
-        <v>111207.989</v>
+        <v>3563708.16</v>
       </c>
     </row>
     <row r="5258">
       <c r="A5258" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2010-09-21</t>
         </is>
       </c>
       <c r="B5258" t="n">
-        <v>19753403.705</v>
+        <v>111207.989</v>
       </c>
     </row>
     <row r="5259">
       <c r="A5259" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B5259" t="n">
-        <v>8145349.405</v>
+        <v>19753403.705</v>
       </c>
     </row>
     <row r="5260">
       <c r="A5260" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B5260" t="n">
-        <v>8685248.65</v>
+        <v>8145349.405</v>
       </c>
     </row>
     <row r="5261">
       <c r="A5261" t="inlineStr">
         <is>
-          <t>2014-01-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="B5261" t="n">
-        <v>6168423.578</v>
+        <v>8685248.65</v>
       </c>
     </row>
     <row r="5262">
       <c r="A5262" t="inlineStr">
         <is>
-          <t>2017-01-29</t>
+          <t>2014-01-23</t>
         </is>
       </c>
       <c r="B5262" t="n">
-        <v>7399149.518</v>
+        <v>6168423.578</v>
       </c>
     </row>
     <row r="5263">
       <c r="A5263" t="inlineStr">
         <is>
-          <t>2014-12-28</t>
+          <t>2017-01-29</t>
         </is>
       </c>
       <c r="B5263" t="n">
-        <v>3660548.296</v>
+        <v>7399149.518</v>
       </c>
     </row>
     <row r="5264">
       <c r="A5264" t="inlineStr">
         <is>
-          <t>2011-07-03</t>
+          <t>2014-12-28</t>
         </is>
       </c>
       <c r="B5264" t="n">
-        <v>1736677.834</v>
+        <v>3660548.296</v>
       </c>
     </row>
     <row r="5265">
       <c r="A5265" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2011-07-03</t>
         </is>
       </c>
       <c r="B5265" t="n">
-        <v>18949481.536</v>
+        <v>1736677.834</v>
       </c>
     </row>
     <row r="5266">
       <c r="A5266" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="B5266" t="n">
-        <v>12847069.898</v>
+        <v>18949481.536</v>
       </c>
     </row>
     <row r="5267">
       <c r="A5267" t="inlineStr">
         <is>
-          <t>2019-12-29</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B5267" t="n">
-        <v>8042178.284</v>
+        <v>12847069.898</v>
       </c>
     </row>
     <row r="5268">
       <c r="A5268" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2019-12-29</t>
         </is>
       </c>
       <c r="B5268" t="n">
-        <v>9941198.092</v>
+        <v>8042178.284</v>
       </c>
     </row>
     <row r="5269">
       <c r="A5269" t="inlineStr">
         <is>
-          <t>2014-02-10</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="B5269" t="n">
-        <v>6482705.217</v>
+        <v>9941198.092</v>
       </c>
     </row>
     <row r="5270">
       <c r="A5270" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2014-02-10</t>
         </is>
       </c>
       <c r="B5270" t="n">
-        <v>3639884.552</v>
+        <v>6482705.217</v>
       </c>
     </row>
     <row r="5271">
       <c r="A5271" t="inlineStr">
         <is>
-          <t>2011-09-13</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="B5271" t="n">
-        <v>992731.454</v>
+        <v>3639884.552</v>
       </c>
     </row>
     <row r="5272">
       <c r="A5272" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2011-09-13</t>
         </is>
       </c>
       <c r="B5272" t="n">
-        <v>12025387.77</v>
+        <v>992731.454</v>
       </c>
     </row>
     <row r="5273">
       <c r="A5273" t="inlineStr">
         <is>
-          <t>2017-02-14</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B5273" t="n">
-        <v>7583332.734</v>
+        <v>12025387.77</v>
       </c>
     </row>
     <row r="5274">
       <c r="A5274" t="inlineStr">
         <is>
-          <t>2017-04-03</t>
+          <t>2017-02-14</t>
         </is>
       </c>
       <c r="B5274" t="n">
-        <v>9243648.802999999</v>
+        <v>7583332.734</v>
       </c>
     </row>
     <row r="5275">
       <c r="A5275" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2017-04-03</t>
         </is>
       </c>
       <c r="B5275" t="n">
-        <v>11517746.211</v>
+        <v>9243648.802999999</v>
       </c>
     </row>
     <row r="5276">
       <c r="A5276" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B5276" t="n">
-        <v>19403702.941</v>
+        <v>11517746.211</v>
       </c>
     </row>
     <row r="5277">
       <c r="A5277" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B5277" t="n">
-        <v>7135383.216</v>
+        <v>19403702.941</v>
       </c>
     </row>
     <row r="5278">
       <c r="A5278" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="B5278" t="n">
-        <v>10037167.8</v>
+        <v>7135383.216</v>
       </c>
     </row>
     <row r="5279">
       <c r="A5279" t="inlineStr">
         <is>
-          <t>2014-02-14</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="B5279" t="n">
-        <v>6165888.39</v>
+        <v>10037167.8</v>
       </c>
     </row>
     <row r="5280">
       <c r="A5280" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2014-02-14</t>
         </is>
       </c>
       <c r="B5280" t="n">
-        <v>18605805.647</v>
+        <v>6165888.39</v>
       </c>
     </row>
     <row r="5281">
       <c r="A5281" t="inlineStr">
         <is>
-          <t>2017-02-15</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B5281" t="n">
-        <v>7448825.404</v>
+        <v>18605805.647</v>
       </c>
     </row>
     <row r="5282">
       <c r="A5282" t="inlineStr">
         <is>
-          <t>2015-01-18</t>
+          <t>2017-02-15</t>
         </is>
       </c>
       <c r="B5282" t="n">
-        <v>4062626.204</v>
+        <v>7448825.404</v>
       </c>
     </row>
     <row r="5283">
       <c r="A5283" t="inlineStr">
         <is>
-          <t>2011-09-27</t>
+          <t>2015-01-18</t>
         </is>
       </c>
       <c r="B5283" t="n">
-        <v>744327.885</v>
+        <v>4062626.204</v>
       </c>
     </row>
     <row r="5284">
       <c r="A5284" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2011-09-27</t>
         </is>
       </c>
       <c r="B5284" t="n">
-        <v>18754649.599</v>
+        <v>744327.885</v>
       </c>
     </row>
     <row r="5285">
       <c r="A5285" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B5285" t="n">
-        <v>18648006.799</v>
+        <v>18754649.599</v>
       </c>
     </row>
     <row r="5286">
       <c r="A5286" t="inlineStr">
         <is>
-          <t>2017-08-24</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B5286" t="n">
-        <v>19382954.778</v>
+        <v>18648006.799</v>
       </c>
     </row>
     <row r="5287">
       <c r="A5287" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2017-08-24</t>
         </is>
       </c>
       <c r="B5287" t="n">
-        <v>8319527.642</v>
+        <v>19382954.778</v>
       </c>
     </row>
     <row r="5288">
       <c r="A5288" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B5288" t="n">
-        <v>10152904.599</v>
+        <v>8319527.642</v>
       </c>
     </row>
     <row r="5289">
       <c r="A5289" t="inlineStr">
         <is>
-          <t>2014-02-26</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="B5289" t="n">
-        <v>4892785.663</v>
+        <v>10152904.599</v>
       </c>
     </row>
     <row r="5290">
       <c r="A5290" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2014-02-26</t>
         </is>
       </c>
       <c r="B5290" t="n">
-        <v>15630701.474</v>
+        <v>4892785.663</v>
       </c>
     </row>
     <row r="5291">
       <c r="A5291" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B5291" t="n">
-        <v>11711443.8</v>
+        <v>15630701.474</v>
       </c>
     </row>
     <row r="5292">
       <c r="A5292" t="inlineStr">
         <is>
-          <t>2017-03-06</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B5292" t="n">
-        <v>7818647.054</v>
+        <v>11711443.8</v>
       </c>
     </row>
     <row r="5293">
       <c r="A5293" t="inlineStr">
         <is>
-          <t>2015-01-26</t>
+          <t>2017-03-06</t>
         </is>
       </c>
       <c r="B5293" t="n">
-        <v>4227141.883</v>
+        <v>7818647.054</v>
       </c>
     </row>
     <row r="5294">
       <c r="A5294" t="inlineStr">
         <is>
-          <t>2011-10-11</t>
+          <t>2015-01-26</t>
         </is>
       </c>
       <c r="B5294" t="n">
-        <v>733876.334</v>
+        <v>4227141.883</v>
       </c>
     </row>
     <row r="5295">
       <c r="A5295" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2011-10-11</t>
         </is>
       </c>
       <c r="B5295" t="n">
-        <v>11437944.275</v>
+        <v>733876.334</v>
       </c>
     </row>
     <row r="5296">
       <c r="A5296" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B5296" t="n">
-        <v>8278468.575</v>
+        <v>11437944.275</v>
       </c>
     </row>
     <row r="5297">
       <c r="A5297" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B5297" t="n">
-        <v>8620307.16</v>
+        <v>8278468.575</v>
       </c>
     </row>
     <row r="5298">
       <c r="A5298" t="inlineStr">
         <is>
-          <t>2014-03-15</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="B5298" t="n">
-        <v>6519122.467</v>
+        <v>8620307.16</v>
       </c>
     </row>
     <row r="5299">
       <c r="A5299" t="inlineStr">
         <is>
-          <t>2017-03-12</t>
+          <t>2014-03-15</t>
         </is>
       </c>
       <c r="B5299" t="n">
-        <v>8015167.541</v>
+        <v>6519122.467</v>
       </c>
     </row>
     <row r="5300">
       <c r="A5300" t="inlineStr">
         <is>
-          <t>2015-02-02</t>
+          <t>2017-03-12</t>
         </is>
       </c>
       <c r="B5300" t="n">
-        <v>4214903.008</v>
+        <v>8015167.541</v>
       </c>
     </row>
     <row r="5301">
       <c r="A5301" t="inlineStr">
         <is>
-          <t>2011-10-28</t>
+          <t>2015-02-02</t>
         </is>
       </c>
       <c r="B5301" t="n">
-        <v>735721.417</v>
+        <v>4214903.008</v>
       </c>
     </row>
     <row r="5302">
       <c r="A5302" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="B5302" t="n">
-        <v>18201448.889</v>
+        <v>735721.417</v>
       </c>
     </row>
     <row r="5303">
       <c r="A5303" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B5303" t="n">
-        <v>12856671.682</v>
+        <v>18201448.889</v>
       </c>
     </row>
     <row r="5304">
       <c r="A5304" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B5304" t="n">
-        <v>7919062.632</v>
+        <v>12856671.682</v>
       </c>
     </row>
     <row r="5305">
       <c r="A5305" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B5305" t="n">
-        <v>9519524.592</v>
+        <v>7919062.632</v>
       </c>
     </row>
     <row r="5306">
       <c r="A5306" t="inlineStr">
         <is>
-          <t>2014-03-18</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="B5306" t="n">
-        <v>6370558.748</v>
+        <v>9519524.592</v>
       </c>
     </row>
     <row r="5307">
       <c r="A5307" t="inlineStr">
         <is>
-          <t>2017-03-21</t>
+          <t>2014-03-18</t>
         </is>
       </c>
       <c r="B5307" t="n">
-        <v>8412562.749</v>
+        <v>6370558.748</v>
       </c>
     </row>
     <row r="5308">
       <c r="A5308" t="inlineStr">
         <is>
-          <t>2015-02-09</t>
+          <t>2017-03-21</t>
         </is>
       </c>
       <c r="B5308" t="n">
-        <v>4096290.662</v>
+        <v>8412562.749</v>
       </c>
     </row>
     <row r="5309">
       <c r="A5309" t="inlineStr">
         <is>
-          <t>2011-10-31</t>
+          <t>2015-02-09</t>
         </is>
       </c>
       <c r="B5309" t="n">
-        <v>732160.326</v>
+        <v>4096290.662</v>
       </c>
     </row>
     <row r="5310">
       <c r="A5310" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2011-10-31</t>
         </is>
       </c>
       <c r="B5310" t="n">
-        <v>7287456.154</v>
+        <v>732160.326</v>
       </c>
     </row>
     <row r="5311">
       <c r="A5311" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B5311" t="n">
-        <v>9308642.501</v>
+        <v>7287456.154</v>
       </c>
     </row>
     <row r="5312">
       <c r="A5312" t="inlineStr">
         <is>
-          <t>2014-04-06</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="B5312" t="n">
-        <v>5505621.837</v>
+        <v>9308642.501</v>
       </c>
     </row>
     <row r="5313">
       <c r="A5313" t="inlineStr">
         <is>
-          <t>2017-04-09</t>
+          <t>2014-04-06</t>
         </is>
       </c>
       <c r="B5313" t="n">
-        <v>8810606.551000001</v>
+        <v>5505621.837</v>
       </c>
     </row>
     <row r="5314">
       <c r="A5314" t="inlineStr">
         <is>
-          <t>2015-03-02</t>
+          <t>2017-04-09</t>
         </is>
       </c>
       <c r="B5314" t="n">
-        <v>3933274.224</v>
+        <v>8810606.551000001</v>
       </c>
     </row>
     <row r="5315">
       <c r="A5315" t="inlineStr">
         <is>
-          <t>2011-11-14</t>
+          <t>2015-03-02</t>
         </is>
       </c>
       <c r="B5315" t="n">
-        <v>826121.591</v>
+        <v>3933274.224</v>
       </c>
     </row>
     <row r="5316">
       <c r="A5316" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2011-11-14</t>
         </is>
       </c>
       <c r="B5316" t="n">
-        <v>10333719.079</v>
+        <v>826121.591</v>
       </c>
     </row>
     <row r="5317">
       <c r="A5317" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B5317" t="n">
-        <v>6907432.252</v>
+        <v>10333719.079</v>
       </c>
     </row>
     <row r="5318">
       <c r="A5318" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B5318" t="n">
-        <v>9481051.257999999</v>
+        <v>6907432.252</v>
       </c>
     </row>
     <row r="5319">
       <c r="A5319" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="B5319" t="n">
-        <v>16829264.336</v>
+        <v>9481051.257999999</v>
       </c>
     </row>
     <row r="5320">
       <c r="A5320" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B5320" t="n">
-        <v>10843259.392</v>
+        <v>16829264.336</v>
       </c>
     </row>
     <row r="5321">
       <c r="A5321" t="inlineStr">
         <is>
-          <t>2014-04-27</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B5321" t="n">
-        <v>5438426.506</v>
+        <v>10843259.392</v>
       </c>
     </row>
     <row r="5322">
       <c r="A5322" t="inlineStr">
         <is>
-          <t>2015-03-09</t>
+          <t>2014-04-27</t>
         </is>
       </c>
       <c r="B5322" t="n">
-        <v>3900348.066</v>
+        <v>5438426.506</v>
       </c>
     </row>
     <row r="5323">
       <c r="A5323" t="inlineStr">
         <is>
-          <t>2011-11-16</t>
+          <t>2015-03-09</t>
         </is>
       </c>
       <c r="B5323" t="n">
-        <v>1048736.803</v>
+        <v>3900348.066</v>
       </c>
     </row>
     <row r="5324">
       <c r="A5324" t="inlineStr">
         <is>
-          <t>2017-04-20</t>
+          <t>2011-11-16</t>
         </is>
       </c>
       <c r="B5324" t="n">
-        <v>8967425.550000001</v>
+        <v>1048736.803</v>
       </c>
     </row>
     <row r="5325">
       <c r="A5325" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2017-04-20</t>
         </is>
       </c>
       <c r="B5325" t="n">
-        <v>12827728.942</v>
+        <v>8967425.550000001</v>
       </c>
     </row>
     <row r="5326">
       <c r="A5326" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B5326" t="n">
-        <v>6721984.554</v>
+        <v>12827728.942</v>
       </c>
     </row>
     <row r="5327">
       <c r="A5327" t="inlineStr">
         <is>
-          <t>2022-08-06</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="B5327" t="n">
-        <v>9532015.716</v>
+        <v>6721984.554</v>
       </c>
     </row>
     <row r="5328">
       <c r="A5328" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="B5328" t="n">
-        <v>16884075.838</v>
+        <v>9532015.716</v>
       </c>
     </row>
     <row r="5329">
       <c r="A5329" t="inlineStr">
         <is>
-          <t>2014-06-01</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B5329" t="n">
-        <v>4343530.167</v>
+        <v>16884075.838</v>
       </c>
     </row>
     <row r="5330">
       <c r="A5330" t="inlineStr">
         <is>
-          <t>2015-03-22</t>
+          <t>2014-06-01</t>
         </is>
       </c>
       <c r="B5330" t="n">
-        <v>4135797.457</v>
+        <v>4343530.167</v>
       </c>
     </row>
     <row r="5331">
       <c r="A5331" t="inlineStr">
         <is>
-          <t>2017-04-30</t>
+          <t>2015-03-22</t>
         </is>
       </c>
       <c r="B5331" t="n">
-        <v>8922467.217</v>
+        <v>4135797.457</v>
       </c>
     </row>
     <row r="5332">
       <c r="A5332" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2017-04-30</t>
         </is>
       </c>
       <c r="B5332" t="n">
-        <v>1086764.653</v>
+        <v>8922467.217</v>
       </c>
     </row>
     <row r="5333">
       <c r="A5333" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2011-11-19</t>
         </is>
       </c>
       <c r="B5333" t="n">
-        <v>13592327.934</v>
+        <v>1086764.653</v>
       </c>
     </row>
     <row r="5334">
       <c r="A5334" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B5334" t="n">
-        <v>18930025.11</v>
+        <v>13592327.934</v>
       </c>
     </row>
     <row r="5335">
       <c r="A5335" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="B5335" t="n">
-        <v>17480511.655</v>
+        <v>18930025.11</v>
       </c>
     </row>
     <row r="5336">
       <c r="A5336" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B5336" t="n">
-        <v>15295963.935</v>
+        <v>17480511.655</v>
       </c>
     </row>
     <row r="5337">
       <c r="A5337" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="B5337" t="n">
-        <v>5802826.225</v>
+        <v>15295963.935</v>
       </c>
     </row>
     <row r="5338">
       <c r="A5338" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="B5338" t="n">
-        <v>8363509.02</v>
+        <v>5802826.225</v>
       </c>
     </row>
     <row r="5339">
       <c r="A5339" t="inlineStr">
         <is>
-          <t>2014-06-28</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="B5339" t="n">
-        <v>2686947.84</v>
+        <v>8363509.02</v>
       </c>
     </row>
     <row r="5340">
       <c r="A5340" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2014-06-28</t>
         </is>
       </c>
       <c r="B5340" t="n">
-        <v>11641354.93</v>
+        <v>2686947.84</v>
       </c>
     </row>
     <row r="5341">
       <c r="A5341" t="inlineStr">
         <is>
-          <t>2017-05-17</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B5341" t="n">
-        <v>10300409.588</v>
+        <v>11641354.93</v>
       </c>
     </row>
     <row r="5342">
       <c r="A5342" t="inlineStr">
         <is>
-          <t>2015-03-29</t>
+          <t>2017-05-17</t>
         </is>
       </c>
       <c r="B5342" t="n">
-        <v>3988633.591</v>
+        <v>10300409.588</v>
       </c>
     </row>
     <row r="5343">
       <c r="A5343" t="inlineStr">
         <is>
-          <t>2011-12-03</t>
+          <t>2015-03-29</t>
         </is>
       </c>
       <c r="B5343" t="n">
-        <v>1095387.925</v>
+        <v>3988633.591</v>
       </c>
     </row>
     <row r="5344">
       <c r="A5344" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2011-12-03</t>
         </is>
       </c>
       <c r="B5344" t="n">
-        <v>17359924.278</v>
+        <v>1095387.925</v>
       </c>
     </row>
     <row r="5345">
       <c r="A5345" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="B5345" t="n">
-        <v>16833334.95</v>
+        <v>17359924.278</v>
       </c>
     </row>
     <row r="5346">
       <c r="A5346" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B5346" t="n">
-        <v>10236215.389</v>
+        <v>16833334.95</v>
       </c>
     </row>
     <row r="5347">
       <c r="A5347" t="inlineStr">
         <is>
-          <t>2017-06-01</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B5347" t="n">
-        <v>11531744.112</v>
+        <v>10236215.389</v>
       </c>
     </row>
     <row r="5348">
       <c r="A5348" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2017-06-01</t>
         </is>
       </c>
       <c r="B5348" t="n">
-        <v>6065155.983</v>
+        <v>11531744.112</v>
       </c>
     </row>
     <row r="5349">
       <c r="A5349" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="B5349" t="n">
-        <v>8049967.714</v>
+        <v>6065155.983</v>
       </c>
     </row>
     <row r="5350">
       <c r="A5350" t="inlineStr">
         <is>
-          <t>2024-07-13</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="B5350" t="n">
-        <v>15731904.375</v>
+        <v>8049967.714</v>
       </c>
     </row>
     <row r="5351">
       <c r="A5351" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="B5351" t="n">
-        <v>2436383.016</v>
+        <v>15731904.375</v>
       </c>
     </row>
     <row r="5352">
       <c r="A5352" t="inlineStr">
         <is>
-          <t>2015-04-06</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="B5352" t="n">
-        <v>3694404.674</v>
+        <v>2436383.016</v>
       </c>
     </row>
     <row r="5353">
       <c r="A5353" t="inlineStr">
         <is>
-          <t>2011-12-17</t>
+          <t>2015-04-06</t>
         </is>
       </c>
       <c r="B5353" t="n">
-        <v>1066127.172</v>
+        <v>3694404.674</v>
       </c>
     </row>
     <row r="5354">
       <c r="A5354" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2011-12-17</t>
         </is>
       </c>
       <c r="B5354" t="n">
-        <v>19357870.444</v>
+        <v>1066127.172</v>
       </c>
     </row>
     <row r="5355">
       <c r="A5355" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B5355" t="n">
-        <v>9506750.107999999</v>
+        <v>19357870.444</v>
       </c>
     </row>
     <row r="5356">
       <c r="A5356" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="B5356" t="n">
-        <v>18249350.163</v>
+        <v>9506750.107999999</v>
       </c>
     </row>
     <row r="5357">
       <c r="A5357" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B5357" t="n">
-        <v>10121188.898</v>
+        <v>18249350.163</v>
       </c>
     </row>
     <row r="5358">
       <c r="A5358" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B5358" t="n">
-        <v>18172193.247</v>
+        <v>10121188.898</v>
       </c>
     </row>
     <row r="5359">
       <c r="A5359" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B5359" t="n">
-        <v>11873870.808</v>
+        <v>18172193.247</v>
       </c>
     </row>
     <row r="5360">
       <c r="A5360" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B5360" t="n">
-        <v>16905626.816</v>
+        <v>11873870.808</v>
       </c>
     </row>
     <row r="5361">
       <c r="A5361" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B5361" t="n">
-        <v>11511228.874</v>
+        <v>16905626.816</v>
       </c>
     </row>
     <row r="5362">
       <c r="A5362" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-05-03</t>
         </is>
       </c>
       <c r="B5362" t="n">
-        <v>18829096.598</v>
+        <v>11511228.874</v>
       </c>
     </row>
     <row r="5363">
       <c r="A5363" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B5363" t="n">
-        <v>11905850.214</v>
+        <v>18829096.598</v>
       </c>
     </row>
     <row r="5364">
       <c r="A5364" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="B5364" t="n">
-        <v>6820551.817</v>
+        <v>11905850.214</v>
       </c>
     </row>
     <row r="5365">
       <c r="A5365" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="B5365" t="n">
-        <v>6358468.879</v>
+        <v>6820551.817</v>
       </c>
     </row>
     <row r="5366">
       <c r="A5366" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="B5366" t="n">
-        <v>14873483.781</v>
+        <v>6358468.879</v>
       </c>
     </row>
     <row r="5367">
       <c r="A5367" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B5367" t="n">
-        <v>11867652.532</v>
+        <v>14873483.781</v>
       </c>
     </row>
     <row r="5368">
       <c r="A5368" t="inlineStr">
         <is>
-          <t>2014-08-06</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B5368" t="n">
-        <v>2826869.713</v>
+        <v>11867652.532</v>
       </c>
     </row>
     <row r="5369">
       <c r="A5369" t="inlineStr">
         <is>
-          <t>2015-04-12</t>
+          <t>2014-08-06</t>
         </is>
       </c>
       <c r="B5369" t="n">
-        <v>3600337.897</v>
+        <v>2826869.713</v>
       </c>
     </row>
     <row r="5370">
       <c r="A5370" t="inlineStr">
         <is>
-          <t>2012-01-03</t>
+          <t>2015-04-12</t>
         </is>
       </c>
       <c r="B5370" t="n">
-        <v>1178238.791</v>
+        <v>3600337.897</v>
       </c>
     </row>
     <row r="5371">
       <c r="A5371" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2012-01-03</t>
         </is>
       </c>
       <c r="B5371" t="n">
-        <v>12210206.289</v>
+        <v>1178238.791</v>
       </c>
     </row>
     <row r="5372">
       <c r="A5372" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B5372" t="n">
-        <v>18211536.318</v>
+        <v>12210206.289</v>
       </c>
     </row>
     <row r="5373">
       <c r="A5373" t="inlineStr">
         <is>
-          <t>2017-08-15</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B5373" t="n">
-        <v>19566598.77</v>
+        <v>18211536.318</v>
       </c>
     </row>
     <row r="5374">
       <c r="A5374" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2017-08-15</t>
         </is>
       </c>
       <c r="B5374" t="n">
-        <v>6837460.05</v>
+        <v>19566598.77</v>
       </c>
     </row>
     <row r="5375">
       <c r="A5375" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="B5375" t="n">
-        <v>8536718.226</v>
+        <v>6837460.05</v>
       </c>
     </row>
     <row r="5376">
       <c r="A5376" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B5376" t="n">
-        <v>19772264.652</v>
+        <v>8536718.226</v>
       </c>
     </row>
     <row r="5377">
       <c r="A5377" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="B5377" t="n">
-        <v>16050259.512</v>
+        <v>19772264.652</v>
       </c>
     </row>
     <row r="5378">
       <c r="A5378" t="inlineStr">
         <is>
-          <t>2014-08-18</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B5378" t="n">
-        <v>2925697.333</v>
+        <v>16050259.512</v>
       </c>
     </row>
     <row r="5379">
       <c r="A5379" t="inlineStr">
         <is>
-          <t>2015-04-19</t>
+          <t>2014-08-18</t>
         </is>
       </c>
       <c r="B5379" t="n">
-        <v>3445407.103</v>
+        <v>2925697.333</v>
       </c>
     </row>
     <row r="5380">
       <c r="A5380" t="inlineStr">
         <is>
-          <t>2012-01-20</t>
+          <t>2015-04-19</t>
         </is>
       </c>
       <c r="B5380" t="n">
-        <v>1244736.785</v>
+        <v>3445407.103</v>
       </c>
     </row>
     <row r="5381">
       <c r="A5381" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2012-01-20</t>
         </is>
       </c>
       <c r="B5381" t="n">
-        <v>13510242.654</v>
+        <v>1244736.785</v>
       </c>
     </row>
     <row r="5382">
       <c r="A5382" t="inlineStr">
         <is>
-          <t>2017-08-28</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B5382" t="n">
-        <v>19422838.72</v>
+        <v>13510242.654</v>
       </c>
     </row>
     <row r="5383">
       <c r="A5383" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2017-08-28</t>
         </is>
       </c>
       <c r="B5383" t="n">
-        <v>11104807.404</v>
+        <v>19422838.72</v>
       </c>
     </row>
     <row r="5384">
       <c r="A5384" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="B5384" t="n">
-        <v>10451472.456</v>
+        <v>11104807.404</v>
       </c>
     </row>
     <row r="5385">
       <c r="A5385" t="inlineStr">
         <is>
-          <t>2014-09-13</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B5385" t="n">
-        <v>2524791.779</v>
+        <v>10451472.456</v>
       </c>
     </row>
     <row r="5386">
       <c r="A5386" t="inlineStr">
         <is>
-          <t>2015-04-25</t>
+          <t>2014-09-13</t>
         </is>
       </c>
       <c r="B5386" t="n">
-        <v>3352942.164</v>
+        <v>2524791.779</v>
       </c>
     </row>
     <row r="5387">
       <c r="A5387" t="inlineStr">
         <is>
-          <t>2012-01-21</t>
+          <t>2015-04-25</t>
         </is>
       </c>
       <c r="B5387" t="n">
-        <v>1246443.905</v>
+        <v>3352942.164</v>
       </c>
     </row>
     <row r="5388">
       <c r="A5388" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2012-01-21</t>
         </is>
       </c>
       <c r="B5388" t="n">
-        <v>14362928.781</v>
+        <v>1246443.905</v>
       </c>
     </row>
     <row r="5389">
       <c r="A5389" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B5389" t="n">
-        <v>20351324.136</v>
+        <v>14362928.781</v>
       </c>
     </row>
     <row r="5390">
       <c r="A5390" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B5390" t="n">
-        <v>13491078.904</v>
+        <v>20351324.136</v>
       </c>
     </row>
     <row r="5391">
       <c r="A5391" t="inlineStr">
         <is>
-          <t>2017-09-08</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>19486335.788</v>
+        <v>13491078.904</v>
       </c>
     </row>
     <row r="5392">
       <c r="A5392" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2017-09-08</t>
         </is>
       </c>
       <c r="B5392" t="n">
-        <v>13156711.485</v>
+        <v>19486335.788</v>
       </c>
     </row>
     <row r="5393">
       <c r="A5393" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B5393" t="n">
-        <v>10510937.957</v>
+        <v>13156711.485</v>
       </c>
     </row>
     <row r="5394">
       <c r="A5394" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="B5394" t="n">
-        <v>15716836.044</v>
+        <v>10510937.957</v>
       </c>
     </row>
     <row r="5395">
       <c r="A5395" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-07-21</t>
         </is>
       </c>
       <c r="B5395" t="n">
-        <v>19939698.057</v>
+        <v>15716836.044</v>
       </c>
     </row>
     <row r="5396">
       <c r="A5396" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B5396" t="n">
-        <v>2628371.334</v>
+        <v>19939698.057</v>
       </c>
     </row>
     <row r="5397">
       <c r="A5397" t="inlineStr">
         <is>
-          <t>2015-05-20</t>
+          <t>2014-10-02</t>
         </is>
       </c>
       <c r="B5397" t="n">
-        <v>3177021.142</v>
+        <v>2628371.334</v>
       </c>
     </row>
     <row r="5398">
       <c r="A5398" t="inlineStr">
         <is>
-          <t>2012-01-26</t>
+          <t>2015-05-20</t>
         </is>
       </c>
       <c r="B5398" t="n">
-        <v>1264128.557</v>
+        <v>3177021.142</v>
       </c>
     </row>
     <row r="5399">
       <c r="A5399" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2012-01-26</t>
         </is>
       </c>
       <c r="B5399" t="n">
-        <v>10152643.862</v>
+        <v>1264128.557</v>
       </c>
     </row>
     <row r="5400">
       <c r="A5400" t="inlineStr">
         <is>
-          <t>2017-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="B5400" t="n">
-        <v>18137220.352</v>
+        <v>10152643.862</v>
       </c>
     </row>
     <row r="5401">
       <c r="A5401" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2017-09-23</t>
         </is>
       </c>
       <c r="B5401" t="n">
-        <v>18779023.107</v>
+        <v>18137220.352</v>
       </c>
     </row>
     <row r="5402">
       <c r="A5402" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="B5402" t="n">
-        <v>10615483.231</v>
+        <v>18779023.107</v>
       </c>
     </row>
     <row r="5403">
       <c r="A5403" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="B5403" t="n">
-        <v>15795124.861</v>
+        <v>10615483.231</v>
       </c>
     </row>
     <row r="5404">
       <c r="A5404" t="inlineStr">
         <is>
-          <t>2014-10-23</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B5404" t="n">
-        <v>3053937.556</v>
+        <v>15795124.861</v>
       </c>
     </row>
     <row r="5405">
       <c r="A5405" t="inlineStr">
         <is>
-          <t>2015-05-27</t>
+          <t>2014-10-23</t>
         </is>
       </c>
       <c r="B5405" t="n">
-        <v>2974495.006</v>
+        <v>3053937.556</v>
       </c>
     </row>
     <row r="5406">
       <c r="A5406" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2015-05-27</t>
         </is>
       </c>
       <c r="B5406" t="n">
-        <v>1068036.951</v>
+        <v>2974495.006</v>
       </c>
     </row>
     <row r="5407">
       <c r="A5407" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="B5407" t="n">
-        <v>12796519.886</v>
+        <v>1068036.951</v>
       </c>
     </row>
     <row r="5408">
       <c r="A5408" t="inlineStr">
         <is>
-          <t>2017-10-09</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B5408" t="n">
-        <v>19407598.446</v>
+        <v>12796519.886</v>
       </c>
     </row>
     <row r="5409">
       <c r="A5409" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2017-10-09</t>
         </is>
       </c>
       <c r="B5409" t="n">
-        <v>20455744.669</v>
+        <v>19407598.446</v>
       </c>
     </row>
     <row r="5410">
       <c r="A5410" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="B5410" t="n">
-        <v>11376341.238</v>
+        <v>20455744.669</v>
       </c>
     </row>
     <row r="5411">
       <c r="A5411" t="inlineStr">
         <is>
-          <t>2014-11-01</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="B5411" t="n">
-        <v>3044004.834</v>
+        <v>11376341.238</v>
       </c>
     </row>
     <row r="5412">
       <c r="A5412" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2014-11-01</t>
         </is>
       </c>
       <c r="B5412" t="n">
-        <v>2765454.564</v>
+        <v>3044004.834</v>
       </c>
     </row>
     <row r="5413">
       <c r="A5413" t="inlineStr">
         <is>
-          <t>2012-04-02</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="B5413" t="n">
-        <v>1066217.337</v>
+        <v>2765454.564</v>
       </c>
     </row>
     <row r="5414">
       <c r="A5414" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2012-04-02</t>
         </is>
       </c>
       <c r="B5414" t="n">
-        <v>13432763.242</v>
+        <v>1066217.337</v>
       </c>
     </row>
     <row r="5415">
       <c r="A5415" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B5415" t="n">
-        <v>19306849.276</v>
+        <v>13432763.242</v>
       </c>
     </row>
     <row r="5416">
       <c r="A5416" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="B5416" t="n">
-        <v>17904427.701</v>
+        <v>19306849.276</v>
       </c>
     </row>
     <row r="5417">
       <c r="A5417" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="B5417" t="n">
-        <v>11260943.27</v>
+        <v>17904427.701</v>
       </c>
     </row>
     <row r="5418">
       <c r="A5418" t="inlineStr">
         <is>
-          <t>2014-11-19</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="B5418" t="n">
-        <v>3019744.611</v>
+        <v>11260943.27</v>
       </c>
     </row>
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2015-06-09</t>
+          <t>2014-11-19</t>
         </is>
       </c>
       <c r="B5419" t="n">
-        <v>2361717.899</v>
+        <v>3019744.611</v>
       </c>
     </row>
     <row r="5420">
       <c r="A5420" t="inlineStr">
         <is>
-          <t>2012-04-18</t>
+          <t>2015-06-09</t>
         </is>
       </c>
       <c r="B5420" t="n">
-        <v>1080512.495</v>
+        <v>2361717.899</v>
       </c>
     </row>
     <row r="5421">
       <c r="A5421" t="inlineStr">
         <is>
-          <t>2017-11-16</t>
+          <t>2012-04-18</t>
         </is>
       </c>
       <c r="B5421" t="n">
-        <v>15794441.353</v>
+        <v>1080512.495</v>
       </c>
     </row>
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2021-02-12</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="B5422" t="n">
-        <v>18047843.242</v>
+        <v>15794441.353</v>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2021-02-12</t>
         </is>
       </c>
       <c r="B5423" t="n">
-        <v>7804497.859</v>
+        <v>18047843.242</v>
       </c>
     </row>
     <row r="5424">
       <c r="A5424" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="B5424" t="n">
-        <v>9877779.377</v>
+        <v>7804497.859</v>
       </c>
     </row>
     <row r="5425">
       <c r="A5425" t="inlineStr">
         <is>
-          <t>2014-12-05</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B5425" t="n">
-        <v>3374566.02</v>
+        <v>9877779.377</v>
       </c>
     </row>
     <row r="5426">
       <c r="A5426" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2014-12-05</t>
         </is>
       </c>
       <c r="B5426" t="n">
-        <v>2394815.633</v>
+        <v>3374566.02</v>
       </c>
     </row>
     <row r="5427">
       <c r="A5427" t="inlineStr">
         <is>
-          <t>2012-05-04</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="B5427" t="n">
-        <v>1211448.82</v>
+        <v>2394815.633</v>
       </c>
     </row>
     <row r="5428">
       <c r="A5428" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2012-05-04</t>
         </is>
       </c>
       <c r="B5428" t="n">
-        <v>9388382.575999999</v>
+        <v>1211448.82</v>
       </c>
     </row>
     <row r="5429">
       <c r="A5429" t="inlineStr">
         <is>
-          <t>2017-11-30</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B5429" t="n">
-        <v>15739620.059</v>
+        <v>9388382.575999999</v>
       </c>
     </row>
     <row r="5430">
       <c r="A5430" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2017-11-30</t>
         </is>
       </c>
       <c r="B5430" t="n">
-        <v>17461848.264</v>
+        <v>15739620.059</v>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="B5431" t="n">
-        <v>7349744.434</v>
+        <v>17461848.264</v>
       </c>
     </row>
     <row r="5432">
       <c r="A5432" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="B5432" t="n">
-        <v>15621689.103</v>
+        <v>7349744.434</v>
       </c>
     </row>
     <row r="5433">
       <c r="A5433" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="B5433" t="n">
-        <v>11149234.035</v>
+        <v>15621689.103</v>
       </c>
     </row>
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>2014-12-24</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B5434" t="n">
-        <v>3749367.14</v>
+        <v>11149234.035</v>
       </c>
     </row>
     <row r="5435">
       <c r="A5435" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2014-12-24</t>
         </is>
       </c>
       <c r="B5435" t="n">
-        <v>18799096.649</v>
+        <v>3749367.14</v>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B5436" t="n">
-        <v>2573704.983</v>
+        <v>18799096.649</v>
       </c>
     </row>
     <row r="5437">
       <c r="A5437" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="B5437" t="n">
-        <v>1258763.689</v>
+        <v>2573704.983</v>
       </c>
     </row>
     <row r="5438">
       <c r="A5438" t="inlineStr">
         <is>
-          <t>2017-12-01</t>
+          <t>2012-05-21</t>
         </is>
       </c>
       <c r="B5438" t="n">
-        <v>15786676.067</v>
+        <v>1258763.689</v>
       </c>
     </row>
     <row r="5439">
       <c r="A5439" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2017-12-01</t>
         </is>
       </c>
       <c r="B5439" t="n">
-        <v>15009732.42</v>
+        <v>15786676.067</v>
       </c>
     </row>
     <row r="5440">
       <c r="A5440" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B5440" t="n">
-        <v>8127301.046</v>
+        <v>15009732.42</v>
       </c>
     </row>
     <row r="5441">
       <c r="A5441" t="inlineStr">
         <is>
-          <t>2015-01-11</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="B5441" t="n">
-        <v>3848375.44</v>
+        <v>8127301.046</v>
       </c>
     </row>
     <row r="5442">
       <c r="A5442" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-01-11</t>
         </is>
       </c>
       <c r="B5442" t="n">
-        <v>2511092.261</v>
+        <v>3848375.44</v>
       </c>
     </row>
     <row r="5443">
       <c r="A5443" t="inlineStr">
         <is>
-          <t>2012-06-06</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="B5443" t="n">
-        <v>1365675.341</v>
+        <v>2511092.261</v>
       </c>
     </row>
     <row r="5444">
       <c r="A5444" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2012-06-06</t>
         </is>
       </c>
       <c r="B5444" t="n">
-        <v>18209088.114</v>
+        <v>1365675.341</v>
       </c>
     </row>
     <row r="5445">
       <c r="A5445" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B5445" t="n">
-        <v>17645156.999</v>
+        <v>18209088.114</v>
       </c>
     </row>
     <row r="5446">
       <c r="A5446" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="B5446" t="n">
-        <v>13264526.584</v>
+        <v>17645156.999</v>
       </c>
     </row>
     <row r="5447">
       <c r="A5447" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B5447" t="n">
-        <v>8486747.433</v>
+        <v>13264526.584</v>
       </c>
     </row>
     <row r="5448">
       <c r="A5448" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B5448" t="n">
-        <v>4046018.483</v>
+        <v>8486747.433</v>
       </c>
     </row>
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B5449" t="n">
-        <v>2718554.466</v>
+        <v>4046018.483</v>
       </c>
     </row>
     <row r="5450">
       <c r="A5450" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="B5450" t="n">
-        <v>1367243.39</v>
+        <v>2718554.466</v>
       </c>
     </row>
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2012-06-18</t>
         </is>
       </c>
       <c r="B5451" t="n">
-        <v>9114476.312000001</v>
+        <v>1367243.39</v>
       </c>
     </row>
     <row r="5452">
       <c r="A5452" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B5452" t="n">
-        <v>15346852.871</v>
+        <v>9114476.312000001</v>
       </c>
     </row>
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>12870879.477</v>
+        <v>15346852.871</v>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>17780525.245</v>
+        <v>12870879.477</v>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>13194431.726</v>
+        <v>17780525.245</v>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>8346328.634</v>
+        <v>13194431.726</v>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="B5457" t="n">
-        <v>16236706.926</v>
+        <v>8346328.634</v>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>16585261.576</v>
+        <v>16236706.926</v>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2015-02-10</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>4071380.974</v>
+        <v>16585261.576</v>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>2793932.294</v>
+        <v>4071380.974</v>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>1363857.943</v>
+        <v>2793932.294</v>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>18882222.042</v>
+        <v>1363857.943</v>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>17968690.541</v>
+        <v>18882222.042</v>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>9386582.370999999</v>
+        <v>17968690.541</v>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>17890389.899</v>
+        <v>9386582.370999999</v>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>12015164.279</v>
+        <v>17890389.899</v>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5467" t="n">
-        <v>7902657.124</v>
+        <v>12015164.279</v>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5468" t="n">
-        <v>10503343.65</v>
+        <v>7902657.124</v>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5469" t="n">
-        <v>3819509.271</v>
+        <v>10503343.65</v>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>2826416.003</v>
+        <v>3819509.271</v>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>1630324.679</v>
+        <v>2826416.003</v>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>10658742.561</v>
+        <v>1630324.679</v>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>18727823.649</v>
+        <v>10658742.561</v>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>17224052.503</v>
+        <v>18727823.649</v>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>10673931.348</v>
+        <v>17224052.503</v>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>3979751.142</v>
+        <v>10673931.348</v>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>3642872.298</v>
+        <v>3979751.142</v>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>1613219.441</v>
+        <v>3642872.298</v>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>18746833.543</v>
+        <v>1613219.441</v>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>14696488.122</v>
+        <v>18746833.543</v>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>18803774.412</v>
+        <v>14696488.122</v>
       </c>
     </row>
     <row r="5482">
       <c r="A5482" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>13074131.781</v>
+        <v>18803774.412</v>
       </c>
     </row>
     <row r="5483">
       <c r="A5483" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5483" t="n">
-        <v>18108889.119</v>
+        <v>13074131.781</v>
       </c>
     </row>
     <row r="5484">
       <c r="A5484" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>10600975.162</v>
+        <v>18108889.119</v>
       </c>
     </row>
     <row r="5485">
       <c r="A5485" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>3489354.733</v>
+        <v>10600975.162</v>
       </c>
     </row>
     <row r="5486">
       <c r="A5486" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>3660667.082</v>
+        <v>3489354.733</v>
       </c>
     </row>
     <row r="5487">
       <c r="A5487" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>316907.127</v>
+        <v>3660667.082</v>
       </c>
     </row>
     <row r="5488">
       <c r="A5488" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>1760535.998</v>
+        <v>316907.127</v>
       </c>
     </row>
     <row r="5489">
       <c r="A5489" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>19760413.223</v>
+        <v>1760535.998</v>
       </c>
     </row>
     <row r="5490">
       <c r="A5490" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>15296257.118</v>
+        <v>19760413.223</v>
       </c>
     </row>
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>10677343.165</v>
+        <v>15296257.118</v>
       </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>12841467.318</v>
+        <v>10677343.165</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>3205484.527</v>
+        <v>12841467.318</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>4648212.458</v>
+        <v>3205484.527</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>1873037.142</v>
+        <v>4648212.458</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>19272529.034</v>
+        <v>1873037.142</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>13193422.783</v>
+        <v>19272529.034</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>8610177.493000001</v>
+        <v>13193422.783</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>12225489.867</v>
+        <v>8610177.493000001</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>2985205.142</v>
+        <v>12225489.867</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>4603582.061</v>
+        <v>2985205.142</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>2093652.744</v>
+        <v>4603582.061</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>11477197.525</v>
+        <v>2093652.744</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>19496972.836</v>
+        <v>11477197.525</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>10566019.663</v>
+        <v>19496972.836</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>8609734.759</v>
+        <v>10566019.663</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>18616838.388</v>
+        <v>8609734.759</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>2392944.256</v>
+        <v>18616838.388</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>4964683.773</v>
+        <v>2392944.256</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>2162784.464</v>
+        <v>4964683.773</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>8046257.588</v>
+        <v>2162784.464</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>8443126.151000001</v>
+        <v>8046257.588</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>8386250.008</v>
+        <v>8443126.151000001</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>2565551.236</v>
+        <v>8386250.008</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>6127123.106</v>
+        <v>2565551.236</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>2157212.824</v>
+        <v>6127123.106</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>11978202.448</v>
+        <v>2157212.824</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>15303734.889</v>
+        <v>11978202.448</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>8103908.652</v>
+        <v>15303734.889</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>9382181.960999999</v>
+        <v>8103908.652</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>16784620.262</v>
+        <v>9382181.960999999</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>16833063.951</v>
+        <v>16784620.262</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5523" t="n">
-        <v>17049245.734</v>
+        <v>16833063.951</v>
       </c>
     </row>
     <row r="5524">
       <c r="A5524" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5524" t="n">
-        <v>17115867.282</v>
+        <v>17049245.734</v>
       </c>
     </row>
     <row r="5525">
       <c r="A5525" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5525" t="n">
-        <v>17153769.299</v>
+        <v>17115867.282</v>
       </c>
     </row>
     <row r="5526">
       <c r="A5526" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5526" t="n">
-        <v>17225229.436</v>
+        <v>17153769.299</v>
       </c>
     </row>
     <row r="5527">
       <c r="A5527" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5527" t="n">
-        <v>17249482.25</v>
+        <v>17225229.436</v>
       </c>
     </row>
     <row r="5528">
       <c r="A5528" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5528" t="n">
-        <v>17569350.656</v>
+        <v>17249482.25</v>
       </c>
     </row>
     <row r="5529">
       <c r="A5529" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5529" t="n">
-        <v>2859270.317</v>
+        <v>17569350.656</v>
       </c>
     </row>
     <row r="5530">
       <c r="A5530" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5530" t="n">
-        <v>5532498.781</v>
+        <v>2859270.317</v>
       </c>
     </row>
     <row r="5531">
       <c r="A5531" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5531" t="n">
-        <v>2138609.994</v>
+        <v>5532498.781</v>
       </c>
     </row>
     <row r="5532">
       <c r="A5532" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5532" t="n">
-        <v>12895454.923</v>
+        <v>2138609.994</v>
       </c>
     </row>
     <row r="5533">
       <c r="A5533" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5533" t="n">
+        <v>12895454.923</v>
+      </c>
+    </row>
+    <row r="5534">
+      <c r="A5534" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5533" t="n">
+      <c r="B5534" t="n">
         <v>11691372.317</v>
       </c>
     </row>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5534"/>
+  <dimension ref="A1:B5535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47066,21 +47066,21 @@
     <row r="4664">
       <c r="A4664" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B4664" t="n">
-        <v>14643596.316</v>
+        <v>14953650.236</v>
       </c>
     </row>
     <row r="4665">
       <c r="A4665" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B4665" t="n">
-        <v>14953650.236</v>
+        <v>14643596.316</v>
       </c>
     </row>
     <row r="4666">
@@ -48586,21 +48586,21 @@
     <row r="4816">
       <c r="A4816" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B4816" t="n">
-        <v>18601572.678</v>
+        <v>12057555.671</v>
       </c>
     </row>
     <row r="4817">
       <c r="A4817" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B4817" t="n">
-        <v>12057555.671</v>
+        <v>18601572.678</v>
       </c>
     </row>
     <row r="4818">
@@ -52556,2701 +52556,2701 @@
     <row r="5213">
       <c r="A5213" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B5213" t="n">
-        <v>7905786.007</v>
+        <v>14548570.861</v>
       </c>
     </row>
     <row r="5214">
       <c r="A5214" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="B5214" t="n">
-        <v>9073650.025</v>
+        <v>7905786.007</v>
       </c>
     </row>
     <row r="5215">
       <c r="A5215" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="B5215" t="n">
-        <v>19218055.445</v>
+        <v>9073650.025</v>
       </c>
     </row>
     <row r="5216">
       <c r="A5216" t="inlineStr">
         <is>
-          <t>2013-12-16</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B5216" t="n">
-        <v>5816249.876</v>
+        <v>19218055.445</v>
       </c>
     </row>
     <row r="5217">
       <c r="A5217" t="inlineStr">
         <is>
-          <t>2016-10-09</t>
+          <t>2013-12-16</t>
         </is>
       </c>
       <c r="B5217" t="n">
-        <v>4052991.609</v>
+        <v>5816249.876</v>
       </c>
     </row>
     <row r="5218">
       <c r="A5218" t="inlineStr">
         <is>
-          <t>2014-11-04</t>
+          <t>2016-10-09</t>
         </is>
       </c>
       <c r="B5218" t="n">
-        <v>2855446.32</v>
+        <v>4052991.609</v>
       </c>
     </row>
     <row r="5219">
       <c r="A5219" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2014-11-04</t>
         </is>
       </c>
       <c r="B5219" t="n">
-        <v>9252340.935000001</v>
+        <v>2855446.32</v>
       </c>
     </row>
     <row r="5220">
       <c r="A5220" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
       <c r="B5220" t="n">
-        <v>14880148.605</v>
+        <v>9252340.935000001</v>
       </c>
     </row>
     <row r="5221">
       <c r="A5221" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B5221" t="n">
-        <v>12724123.607</v>
+        <v>14880148.605</v>
       </c>
     </row>
     <row r="5222">
       <c r="A5222" t="inlineStr">
         <is>
-          <t>2019-08-21</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B5222" t="n">
-        <v>12393381.677</v>
+        <v>12724123.607</v>
       </c>
     </row>
     <row r="5223">
       <c r="A5223" t="inlineStr">
         <is>
-          <t>2021-12-01</t>
+          <t>2019-08-21</t>
         </is>
       </c>
       <c r="B5223" t="n">
-        <v>9613862.286</v>
+        <v>12393381.677</v>
       </c>
     </row>
     <row r="5224">
       <c r="A5224" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="B5224" t="n">
-        <v>18218036.776</v>
+        <v>9613862.286</v>
       </c>
     </row>
     <row r="5225">
       <c r="A5225" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B5225" t="n">
-        <v>16265749.775</v>
+        <v>18218036.776</v>
       </c>
     </row>
     <row r="5226">
       <c r="A5226" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2024-07-27</t>
         </is>
       </c>
       <c r="B5226" t="n">
-        <v>16670126.739</v>
+        <v>16265749.775</v>
       </c>
     </row>
     <row r="5227">
       <c r="A5227" t="inlineStr">
         <is>
-          <t>2013-12-26</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="B5227" t="n">
-        <v>6915819.538</v>
+        <v>16670126.739</v>
       </c>
     </row>
     <row r="5228">
       <c r="A5228" t="inlineStr">
         <is>
-          <t>2014-11-12</t>
+          <t>2013-12-26</t>
         </is>
       </c>
       <c r="B5228" t="n">
-        <v>3023467.834</v>
+        <v>6915819.538</v>
       </c>
     </row>
     <row r="5229">
       <c r="A5229" t="inlineStr">
         <is>
-          <t>2010-09-24</t>
+          <t>2014-11-12</t>
         </is>
       </c>
       <c r="B5229" t="n">
-        <v>112259.447</v>
+        <v>3023467.834</v>
       </c>
     </row>
     <row r="5230">
       <c r="A5230" t="inlineStr">
         <is>
-          <t>2016-10-23</t>
+          <t>2010-09-24</t>
         </is>
       </c>
       <c r="B5230" t="n">
-        <v>4402004.723</v>
+        <v>112259.447</v>
       </c>
     </row>
     <row r="5231">
       <c r="A5231" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2016-10-23</t>
         </is>
       </c>
       <c r="B5231" t="n">
-        <v>19014663.42</v>
+        <v>4402004.723</v>
       </c>
     </row>
     <row r="5232">
       <c r="A5232" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="B5232" t="n">
-        <v>18095870.058</v>
+        <v>19014663.42</v>
       </c>
     </row>
     <row r="5233">
       <c r="A5233" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B5233" t="n">
-        <v>9408798.934</v>
+        <v>18095870.058</v>
       </c>
     </row>
     <row r="5234">
       <c r="A5234" t="inlineStr">
         <is>
-          <t>2019-09-19</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B5234" t="n">
-        <v>11427939.892</v>
+        <v>9408798.934</v>
       </c>
     </row>
     <row r="5235">
       <c r="A5235" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
+          <t>2019-09-19</t>
         </is>
       </c>
       <c r="B5235" t="n">
-        <v>9957806.918</v>
+        <v>11427939.892</v>
       </c>
     </row>
     <row r="5236">
       <c r="A5236" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="B5236" t="n">
-        <v>17239012.79</v>
+        <v>9957806.918</v>
       </c>
     </row>
     <row r="5237">
       <c r="A5237" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B5237" t="n">
-        <v>11167233.165</v>
+        <v>17239012.79</v>
       </c>
     </row>
     <row r="5238">
       <c r="A5238" t="inlineStr">
         <is>
-          <t>2016-12-09</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B5238" t="n">
-        <v>5405479.025</v>
+        <v>11167233.165</v>
       </c>
     </row>
     <row r="5239">
       <c r="A5239" t="inlineStr">
         <is>
-          <t>2014-01-10</t>
+          <t>2016-12-09</t>
         </is>
       </c>
       <c r="B5239" t="n">
-        <v>6911767.667</v>
+        <v>5405479.025</v>
       </c>
     </row>
     <row r="5240">
       <c r="A5240" t="inlineStr">
         <is>
-          <t>2014-11-18</t>
+          <t>2014-01-10</t>
         </is>
       </c>
       <c r="B5240" t="n">
-        <v>3039813.332</v>
+        <v>6911767.667</v>
       </c>
     </row>
     <row r="5241">
       <c r="A5241" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2014-11-18</t>
         </is>
       </c>
       <c r="B5241" t="n">
-        <v>10958641.073</v>
+        <v>3039813.332</v>
       </c>
     </row>
     <row r="5242">
       <c r="A5242" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B5242" t="n">
-        <v>10512254.974</v>
+        <v>10958641.073</v>
       </c>
     </row>
     <row r="5243">
       <c r="A5243" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B5243" t="n">
-        <v>18752011.913</v>
+        <v>10512254.974</v>
       </c>
     </row>
     <row r="5244">
       <c r="A5244" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B5244" t="n">
-        <v>18684510.463</v>
+        <v>18752011.913</v>
       </c>
     </row>
     <row r="5245">
       <c r="A5245" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B5245" t="n">
-        <v>9947791.287</v>
+        <v>18684510.463</v>
       </c>
     </row>
     <row r="5246">
       <c r="A5246" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="B5246" t="n">
-        <v>8830961.847999999</v>
+        <v>9947791.287</v>
       </c>
     </row>
     <row r="5247">
       <c r="A5247" t="inlineStr">
         <is>
-          <t>2014-01-19</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="B5247" t="n">
-        <v>6709581.37</v>
+        <v>8830961.847999999</v>
       </c>
     </row>
     <row r="5248">
       <c r="A5248" t="inlineStr">
         <is>
-          <t>2016-12-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
       <c r="B5248" t="n">
-        <v>5441150.314</v>
+        <v>6709581.37</v>
       </c>
     </row>
     <row r="5249">
       <c r="A5249" t="inlineStr">
         <is>
-          <t>2014-12-15</t>
+          <t>2016-12-14</t>
         </is>
       </c>
       <c r="B5249" t="n">
-        <v>3652983.074</v>
+        <v>5441150.314</v>
       </c>
     </row>
     <row r="5250">
       <c r="A5250" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2014-12-15</t>
         </is>
       </c>
       <c r="B5250" t="n">
-        <v>14765108.135</v>
+        <v>3652983.074</v>
       </c>
     </row>
     <row r="5251">
       <c r="A5251" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B5251" t="n">
-        <v>10407093</v>
+        <v>14765108.135</v>
       </c>
     </row>
     <row r="5252">
       <c r="A5252" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B5252" t="n">
-        <v>12989124.134</v>
+        <v>10407093</v>
       </c>
     </row>
     <row r="5253">
       <c r="A5253" t="inlineStr">
         <is>
-          <t>2019-10-25</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="B5253" t="n">
-        <v>10081112.066</v>
+        <v>12989124.134</v>
       </c>
     </row>
     <row r="5254">
       <c r="A5254" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="B5254" t="n">
-        <v>9996728.27</v>
+        <v>10081112.066</v>
       </c>
     </row>
     <row r="5255">
       <c r="A5255" t="inlineStr">
         <is>
-          <t>2014-01-20</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="B5255" t="n">
-        <v>6614252.892</v>
+        <v>9996728.27</v>
       </c>
     </row>
     <row r="5256">
       <c r="A5256" t="inlineStr">
         <is>
-          <t>2016-12-30</t>
+          <t>2014-01-20</t>
         </is>
       </c>
       <c r="B5256" t="n">
-        <v>6503628.164</v>
+        <v>6614252.892</v>
       </c>
     </row>
     <row r="5257">
       <c r="A5257" t="inlineStr">
         <is>
-          <t>2014-12-22</t>
+          <t>2016-12-30</t>
         </is>
       </c>
       <c r="B5257" t="n">
-        <v>3563708.16</v>
+        <v>6503628.164</v>
       </c>
     </row>
     <row r="5258">
       <c r="A5258" t="inlineStr">
         <is>
-          <t>2010-09-21</t>
+          <t>2014-12-22</t>
         </is>
       </c>
       <c r="B5258" t="n">
-        <v>111207.989</v>
+        <v>3563708.16</v>
       </c>
     </row>
     <row r="5259">
       <c r="A5259" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2010-09-21</t>
         </is>
       </c>
       <c r="B5259" t="n">
-        <v>19753403.705</v>
+        <v>111207.989</v>
       </c>
     </row>
     <row r="5260">
       <c r="A5260" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B5260" t="n">
-        <v>8145349.405</v>
+        <v>19753403.705</v>
       </c>
     </row>
     <row r="5261">
       <c r="A5261" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B5261" t="n">
-        <v>8685248.65</v>
+        <v>8145349.405</v>
       </c>
     </row>
     <row r="5262">
       <c r="A5262" t="inlineStr">
         <is>
-          <t>2014-01-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="B5262" t="n">
-        <v>6168423.578</v>
+        <v>8685248.65</v>
       </c>
     </row>
     <row r="5263">
       <c r="A5263" t="inlineStr">
         <is>
-          <t>2017-01-29</t>
+          <t>2014-01-23</t>
         </is>
       </c>
       <c r="B5263" t="n">
-        <v>7399149.518</v>
+        <v>6168423.578</v>
       </c>
     </row>
     <row r="5264">
       <c r="A5264" t="inlineStr">
         <is>
-          <t>2014-12-28</t>
+          <t>2017-01-29</t>
         </is>
       </c>
       <c r="B5264" t="n">
-        <v>3660548.296</v>
+        <v>7399149.518</v>
       </c>
     </row>
     <row r="5265">
       <c r="A5265" t="inlineStr">
         <is>
-          <t>2011-07-03</t>
+          <t>2014-12-28</t>
         </is>
       </c>
       <c r="B5265" t="n">
-        <v>1736677.834</v>
+        <v>3660548.296</v>
       </c>
     </row>
     <row r="5266">
       <c r="A5266" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2011-07-03</t>
         </is>
       </c>
       <c r="B5266" t="n">
-        <v>18949481.536</v>
+        <v>1736677.834</v>
       </c>
     </row>
     <row r="5267">
       <c r="A5267" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="B5267" t="n">
-        <v>12847069.898</v>
+        <v>18949481.536</v>
       </c>
     </row>
     <row r="5268">
       <c r="A5268" t="inlineStr">
         <is>
-          <t>2019-12-29</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B5268" t="n">
-        <v>8042178.284</v>
+        <v>12847069.898</v>
       </c>
     </row>
     <row r="5269">
       <c r="A5269" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2019-12-29</t>
         </is>
       </c>
       <c r="B5269" t="n">
-        <v>9941198.092</v>
+        <v>8042178.284</v>
       </c>
     </row>
     <row r="5270">
       <c r="A5270" t="inlineStr">
         <is>
-          <t>2014-02-10</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="B5270" t="n">
-        <v>6482705.217</v>
+        <v>9941198.092</v>
       </c>
     </row>
     <row r="5271">
       <c r="A5271" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2014-02-10</t>
         </is>
       </c>
       <c r="B5271" t="n">
-        <v>3639884.552</v>
+        <v>6482705.217</v>
       </c>
     </row>
     <row r="5272">
       <c r="A5272" t="inlineStr">
         <is>
-          <t>2011-09-13</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="B5272" t="n">
-        <v>992731.454</v>
+        <v>3639884.552</v>
       </c>
     </row>
     <row r="5273">
       <c r="A5273" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2011-09-13</t>
         </is>
       </c>
       <c r="B5273" t="n">
-        <v>12025387.77</v>
+        <v>992731.454</v>
       </c>
     </row>
     <row r="5274">
       <c r="A5274" t="inlineStr">
         <is>
-          <t>2017-02-14</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B5274" t="n">
-        <v>7583332.734</v>
+        <v>12025387.77</v>
       </c>
     </row>
     <row r="5275">
       <c r="A5275" t="inlineStr">
         <is>
-          <t>2017-04-03</t>
+          <t>2017-02-14</t>
         </is>
       </c>
       <c r="B5275" t="n">
-        <v>9243648.802999999</v>
+        <v>7583332.734</v>
       </c>
     </row>
     <row r="5276">
       <c r="A5276" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2017-04-03</t>
         </is>
       </c>
       <c r="B5276" t="n">
-        <v>11517746.211</v>
+        <v>9243648.802999999</v>
       </c>
     </row>
     <row r="5277">
       <c r="A5277" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B5277" t="n">
-        <v>19403702.941</v>
+        <v>11517746.211</v>
       </c>
     </row>
     <row r="5278">
       <c r="A5278" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B5278" t="n">
-        <v>7135383.216</v>
+        <v>19403702.941</v>
       </c>
     </row>
     <row r="5279">
       <c r="A5279" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="B5279" t="n">
-        <v>10037167.8</v>
+        <v>7135383.216</v>
       </c>
     </row>
     <row r="5280">
       <c r="A5280" t="inlineStr">
         <is>
-          <t>2014-02-14</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="B5280" t="n">
-        <v>6165888.39</v>
+        <v>10037167.8</v>
       </c>
     </row>
     <row r="5281">
       <c r="A5281" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2014-02-14</t>
         </is>
       </c>
       <c r="B5281" t="n">
-        <v>18605805.647</v>
+        <v>6165888.39</v>
       </c>
     </row>
     <row r="5282">
       <c r="A5282" t="inlineStr">
         <is>
-          <t>2017-02-15</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B5282" t="n">
-        <v>7448825.404</v>
+        <v>18605805.647</v>
       </c>
     </row>
     <row r="5283">
       <c r="A5283" t="inlineStr">
         <is>
-          <t>2015-01-18</t>
+          <t>2017-02-15</t>
         </is>
       </c>
       <c r="B5283" t="n">
-        <v>4062626.204</v>
+        <v>7448825.404</v>
       </c>
     </row>
     <row r="5284">
       <c r="A5284" t="inlineStr">
         <is>
-          <t>2011-09-27</t>
+          <t>2015-01-18</t>
         </is>
       </c>
       <c r="B5284" t="n">
-        <v>744327.885</v>
+        <v>4062626.204</v>
       </c>
     </row>
     <row r="5285">
       <c r="A5285" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2011-09-27</t>
         </is>
       </c>
       <c r="B5285" t="n">
-        <v>18754649.599</v>
+        <v>744327.885</v>
       </c>
     </row>
     <row r="5286">
       <c r="A5286" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B5286" t="n">
-        <v>18648006.799</v>
+        <v>18754649.599</v>
       </c>
     </row>
     <row r="5287">
       <c r="A5287" t="inlineStr">
         <is>
-          <t>2017-08-24</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B5287" t="n">
-        <v>19382954.778</v>
+        <v>18648006.799</v>
       </c>
     </row>
     <row r="5288">
       <c r="A5288" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2017-08-24</t>
         </is>
       </c>
       <c r="B5288" t="n">
-        <v>8319527.642</v>
+        <v>19382954.778</v>
       </c>
     </row>
     <row r="5289">
       <c r="A5289" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B5289" t="n">
-        <v>10152904.599</v>
+        <v>8319527.642</v>
       </c>
     </row>
     <row r="5290">
       <c r="A5290" t="inlineStr">
         <is>
-          <t>2014-02-26</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="B5290" t="n">
-        <v>4892785.663</v>
+        <v>10152904.599</v>
       </c>
     </row>
     <row r="5291">
       <c r="A5291" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2014-02-26</t>
         </is>
       </c>
       <c r="B5291" t="n">
-        <v>15630701.474</v>
+        <v>4892785.663</v>
       </c>
     </row>
     <row r="5292">
       <c r="A5292" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B5292" t="n">
-        <v>11711443.8</v>
+        <v>15630701.474</v>
       </c>
     </row>
     <row r="5293">
       <c r="A5293" t="inlineStr">
         <is>
-          <t>2017-03-06</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B5293" t="n">
-        <v>7818647.054</v>
+        <v>11711443.8</v>
       </c>
     </row>
     <row r="5294">
       <c r="A5294" t="inlineStr">
         <is>
-          <t>2015-01-26</t>
+          <t>2017-03-06</t>
         </is>
       </c>
       <c r="B5294" t="n">
-        <v>4227141.883</v>
+        <v>7818647.054</v>
       </c>
     </row>
     <row r="5295">
       <c r="A5295" t="inlineStr">
         <is>
-          <t>2011-10-11</t>
+          <t>2015-01-26</t>
         </is>
       </c>
       <c r="B5295" t="n">
-        <v>733876.334</v>
+        <v>4227141.883</v>
       </c>
     </row>
     <row r="5296">
       <c r="A5296" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2011-10-11</t>
         </is>
       </c>
       <c r="B5296" t="n">
-        <v>11437944.275</v>
+        <v>733876.334</v>
       </c>
     </row>
     <row r="5297">
       <c r="A5297" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B5297" t="n">
-        <v>8278468.575</v>
+        <v>11437944.275</v>
       </c>
     </row>
     <row r="5298">
       <c r="A5298" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B5298" t="n">
-        <v>8620307.16</v>
+        <v>8278468.575</v>
       </c>
     </row>
     <row r="5299">
       <c r="A5299" t="inlineStr">
         <is>
-          <t>2014-03-15</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="B5299" t="n">
-        <v>6519122.467</v>
+        <v>8620307.16</v>
       </c>
     </row>
     <row r="5300">
       <c r="A5300" t="inlineStr">
         <is>
-          <t>2017-03-12</t>
+          <t>2014-03-15</t>
         </is>
       </c>
       <c r="B5300" t="n">
-        <v>8015167.541</v>
+        <v>6519122.467</v>
       </c>
     </row>
     <row r="5301">
       <c r="A5301" t="inlineStr">
         <is>
-          <t>2015-02-02</t>
+          <t>2017-03-12</t>
         </is>
       </c>
       <c r="B5301" t="n">
-        <v>4214903.008</v>
+        <v>8015167.541</v>
       </c>
     </row>
     <row r="5302">
       <c r="A5302" t="inlineStr">
         <is>
-          <t>2011-10-28</t>
+          <t>2015-02-02</t>
         </is>
       </c>
       <c r="B5302" t="n">
-        <v>735721.417</v>
+        <v>4214903.008</v>
       </c>
     </row>
     <row r="5303">
       <c r="A5303" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="B5303" t="n">
-        <v>18201448.889</v>
+        <v>735721.417</v>
       </c>
     </row>
     <row r="5304">
       <c r="A5304" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B5304" t="n">
-        <v>12856671.682</v>
+        <v>18201448.889</v>
       </c>
     </row>
     <row r="5305">
       <c r="A5305" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B5305" t="n">
-        <v>7919062.632</v>
+        <v>12856671.682</v>
       </c>
     </row>
     <row r="5306">
       <c r="A5306" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B5306" t="n">
-        <v>9519524.592</v>
+        <v>7919062.632</v>
       </c>
     </row>
     <row r="5307">
       <c r="A5307" t="inlineStr">
         <is>
-          <t>2014-03-18</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="B5307" t="n">
-        <v>6370558.748</v>
+        <v>9519524.592</v>
       </c>
     </row>
     <row r="5308">
       <c r="A5308" t="inlineStr">
         <is>
-          <t>2017-03-21</t>
+          <t>2014-03-18</t>
         </is>
       </c>
       <c r="B5308" t="n">
-        <v>8412562.749</v>
+        <v>6370558.748</v>
       </c>
     </row>
     <row r="5309">
       <c r="A5309" t="inlineStr">
         <is>
-          <t>2015-02-09</t>
+          <t>2017-03-21</t>
         </is>
       </c>
       <c r="B5309" t="n">
-        <v>4096290.662</v>
+        <v>8412562.749</v>
       </c>
     </row>
     <row r="5310">
       <c r="A5310" t="inlineStr">
         <is>
-          <t>2011-10-31</t>
+          <t>2015-02-09</t>
         </is>
       </c>
       <c r="B5310" t="n">
-        <v>732160.326</v>
+        <v>4096290.662</v>
       </c>
     </row>
     <row r="5311">
       <c r="A5311" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2011-10-31</t>
         </is>
       </c>
       <c r="B5311" t="n">
-        <v>7287456.154</v>
+        <v>732160.326</v>
       </c>
     </row>
     <row r="5312">
       <c r="A5312" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B5312" t="n">
-        <v>9308642.501</v>
+        <v>7287456.154</v>
       </c>
     </row>
     <row r="5313">
       <c r="A5313" t="inlineStr">
         <is>
-          <t>2014-04-06</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="B5313" t="n">
-        <v>5505621.837</v>
+        <v>9308642.501</v>
       </c>
     </row>
     <row r="5314">
       <c r="A5314" t="inlineStr">
         <is>
-          <t>2017-04-09</t>
+          <t>2014-04-06</t>
         </is>
       </c>
       <c r="B5314" t="n">
-        <v>8810606.551000001</v>
+        <v>5505621.837</v>
       </c>
     </row>
     <row r="5315">
       <c r="A5315" t="inlineStr">
         <is>
-          <t>2015-03-02</t>
+          <t>2017-04-09</t>
         </is>
       </c>
       <c r="B5315" t="n">
-        <v>3933274.224</v>
+        <v>8810606.551000001</v>
       </c>
     </row>
     <row r="5316">
       <c r="A5316" t="inlineStr">
         <is>
-          <t>2011-11-14</t>
+          <t>2015-03-02</t>
         </is>
       </c>
       <c r="B5316" t="n">
-        <v>826121.591</v>
+        <v>3933274.224</v>
       </c>
     </row>
     <row r="5317">
       <c r="A5317" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2011-11-14</t>
         </is>
       </c>
       <c r="B5317" t="n">
-        <v>10333719.079</v>
+        <v>826121.591</v>
       </c>
     </row>
     <row r="5318">
       <c r="A5318" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B5318" t="n">
-        <v>6907432.252</v>
+        <v>10333719.079</v>
       </c>
     </row>
     <row r="5319">
       <c r="A5319" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B5319" t="n">
-        <v>9481051.257999999</v>
+        <v>6907432.252</v>
       </c>
     </row>
     <row r="5320">
       <c r="A5320" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="B5320" t="n">
-        <v>16829264.336</v>
+        <v>9481051.257999999</v>
       </c>
     </row>
     <row r="5321">
       <c r="A5321" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B5321" t="n">
-        <v>10843259.392</v>
+        <v>16829264.336</v>
       </c>
     </row>
     <row r="5322">
       <c r="A5322" t="inlineStr">
         <is>
-          <t>2014-04-27</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B5322" t="n">
-        <v>5438426.506</v>
+        <v>10843259.392</v>
       </c>
     </row>
     <row r="5323">
       <c r="A5323" t="inlineStr">
         <is>
-          <t>2015-03-09</t>
+          <t>2014-04-27</t>
         </is>
       </c>
       <c r="B5323" t="n">
-        <v>3900348.066</v>
+        <v>5438426.506</v>
       </c>
     </row>
     <row r="5324">
       <c r="A5324" t="inlineStr">
         <is>
-          <t>2011-11-16</t>
+          <t>2015-03-09</t>
         </is>
       </c>
       <c r="B5324" t="n">
-        <v>1048736.803</v>
+        <v>3900348.066</v>
       </c>
     </row>
     <row r="5325">
       <c r="A5325" t="inlineStr">
         <is>
-          <t>2017-04-20</t>
+          <t>2011-11-16</t>
         </is>
       </c>
       <c r="B5325" t="n">
-        <v>8967425.550000001</v>
+        <v>1048736.803</v>
       </c>
     </row>
     <row r="5326">
       <c r="A5326" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2017-04-20</t>
         </is>
       </c>
       <c r="B5326" t="n">
-        <v>12827728.942</v>
+        <v>8967425.550000001</v>
       </c>
     </row>
     <row r="5327">
       <c r="A5327" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B5327" t="n">
-        <v>6721984.554</v>
+        <v>12827728.942</v>
       </c>
     </row>
     <row r="5328">
       <c r="A5328" t="inlineStr">
         <is>
-          <t>2022-08-06</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="B5328" t="n">
-        <v>9532015.716</v>
+        <v>6721984.554</v>
       </c>
     </row>
     <row r="5329">
       <c r="A5329" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="B5329" t="n">
-        <v>16884075.838</v>
+        <v>9532015.716</v>
       </c>
     </row>
     <row r="5330">
       <c r="A5330" t="inlineStr">
         <is>
-          <t>2014-06-01</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B5330" t="n">
-        <v>4343530.167</v>
+        <v>16884075.838</v>
       </c>
     </row>
     <row r="5331">
       <c r="A5331" t="inlineStr">
         <is>
-          <t>2015-03-22</t>
+          <t>2014-06-01</t>
         </is>
       </c>
       <c r="B5331" t="n">
-        <v>4135797.457</v>
+        <v>4343530.167</v>
       </c>
     </row>
     <row r="5332">
       <c r="A5332" t="inlineStr">
         <is>
-          <t>2017-04-30</t>
+          <t>2015-03-22</t>
         </is>
       </c>
       <c r="B5332" t="n">
-        <v>8922467.217</v>
+        <v>4135797.457</v>
       </c>
     </row>
     <row r="5333">
       <c r="A5333" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2017-04-30</t>
         </is>
       </c>
       <c r="B5333" t="n">
-        <v>1086764.653</v>
+        <v>8922467.217</v>
       </c>
     </row>
     <row r="5334">
       <c r="A5334" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2011-11-19</t>
         </is>
       </c>
       <c r="B5334" t="n">
-        <v>13592327.934</v>
+        <v>1086764.653</v>
       </c>
     </row>
     <row r="5335">
       <c r="A5335" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B5335" t="n">
-        <v>18930025.11</v>
+        <v>13592327.934</v>
       </c>
     </row>
     <row r="5336">
       <c r="A5336" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="B5336" t="n">
-        <v>17480511.655</v>
+        <v>18930025.11</v>
       </c>
     </row>
     <row r="5337">
       <c r="A5337" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B5337" t="n">
-        <v>15295963.935</v>
+        <v>17480511.655</v>
       </c>
     </row>
     <row r="5338">
       <c r="A5338" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="B5338" t="n">
-        <v>5802826.225</v>
+        <v>15295963.935</v>
       </c>
     </row>
     <row r="5339">
       <c r="A5339" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="B5339" t="n">
-        <v>8363509.02</v>
+        <v>5802826.225</v>
       </c>
     </row>
     <row r="5340">
       <c r="A5340" t="inlineStr">
         <is>
-          <t>2014-06-28</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="B5340" t="n">
-        <v>2686947.84</v>
+        <v>8363509.02</v>
       </c>
     </row>
     <row r="5341">
       <c r="A5341" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2014-06-28</t>
         </is>
       </c>
       <c r="B5341" t="n">
-        <v>11641354.93</v>
+        <v>2686947.84</v>
       </c>
     </row>
     <row r="5342">
       <c r="A5342" t="inlineStr">
         <is>
-          <t>2017-05-17</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B5342" t="n">
-        <v>10300409.588</v>
+        <v>11641354.93</v>
       </c>
     </row>
     <row r="5343">
       <c r="A5343" t="inlineStr">
         <is>
-          <t>2015-03-29</t>
+          <t>2017-05-17</t>
         </is>
       </c>
       <c r="B5343" t="n">
-        <v>3988633.591</v>
+        <v>10300409.588</v>
       </c>
     </row>
     <row r="5344">
       <c r="A5344" t="inlineStr">
         <is>
-          <t>2011-12-03</t>
+          <t>2015-03-29</t>
         </is>
       </c>
       <c r="B5344" t="n">
-        <v>1095387.925</v>
+        <v>3988633.591</v>
       </c>
     </row>
     <row r="5345">
       <c r="A5345" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2011-12-03</t>
         </is>
       </c>
       <c r="B5345" t="n">
-        <v>17359924.278</v>
+        <v>1095387.925</v>
       </c>
     </row>
     <row r="5346">
       <c r="A5346" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="B5346" t="n">
-        <v>16833334.95</v>
+        <v>17359924.278</v>
       </c>
     </row>
     <row r="5347">
       <c r="A5347" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B5347" t="n">
-        <v>10236215.389</v>
+        <v>16833334.95</v>
       </c>
     </row>
     <row r="5348">
       <c r="A5348" t="inlineStr">
         <is>
-          <t>2017-06-01</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B5348" t="n">
-        <v>11531744.112</v>
+        <v>10236215.389</v>
       </c>
     </row>
     <row r="5349">
       <c r="A5349" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2017-06-01</t>
         </is>
       </c>
       <c r="B5349" t="n">
-        <v>6065155.983</v>
+        <v>11531744.112</v>
       </c>
     </row>
     <row r="5350">
       <c r="A5350" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="B5350" t="n">
-        <v>8049967.714</v>
+        <v>6065155.983</v>
       </c>
     </row>
     <row r="5351">
       <c r="A5351" t="inlineStr">
         <is>
-          <t>2024-07-13</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="B5351" t="n">
-        <v>15731904.375</v>
+        <v>8049967.714</v>
       </c>
     </row>
     <row r="5352">
       <c r="A5352" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="B5352" t="n">
-        <v>2436383.016</v>
+        <v>15731904.375</v>
       </c>
     </row>
     <row r="5353">
       <c r="A5353" t="inlineStr">
         <is>
-          <t>2015-04-06</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="B5353" t="n">
-        <v>3694404.674</v>
+        <v>2436383.016</v>
       </c>
     </row>
     <row r="5354">
       <c r="A5354" t="inlineStr">
         <is>
-          <t>2011-12-17</t>
+          <t>2015-04-06</t>
         </is>
       </c>
       <c r="B5354" t="n">
-        <v>1066127.172</v>
+        <v>3694404.674</v>
       </c>
     </row>
     <row r="5355">
       <c r="A5355" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2011-12-17</t>
         </is>
       </c>
       <c r="B5355" t="n">
-        <v>19357870.444</v>
+        <v>1066127.172</v>
       </c>
     </row>
     <row r="5356">
       <c r="A5356" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B5356" t="n">
-        <v>9506750.107999999</v>
+        <v>19357870.444</v>
       </c>
     </row>
     <row r="5357">
       <c r="A5357" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="B5357" t="n">
-        <v>18249350.163</v>
+        <v>9506750.107999999</v>
       </c>
     </row>
     <row r="5358">
       <c r="A5358" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B5358" t="n">
-        <v>10121188.898</v>
+        <v>18249350.163</v>
       </c>
     </row>
     <row r="5359">
       <c r="A5359" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B5359" t="n">
-        <v>18172193.247</v>
+        <v>10121188.898</v>
       </c>
     </row>
     <row r="5360">
       <c r="A5360" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B5360" t="n">
-        <v>11873870.808</v>
+        <v>18172193.247</v>
       </c>
     </row>
     <row r="5361">
       <c r="A5361" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B5361" t="n">
-        <v>16905626.816</v>
+        <v>11873870.808</v>
       </c>
     </row>
     <row r="5362">
       <c r="A5362" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B5362" t="n">
-        <v>11511228.874</v>
+        <v>16905626.816</v>
       </c>
     </row>
     <row r="5363">
       <c r="A5363" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-05-03</t>
         </is>
       </c>
       <c r="B5363" t="n">
-        <v>18829096.598</v>
+        <v>11511228.874</v>
       </c>
     </row>
     <row r="5364">
       <c r="A5364" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B5364" t="n">
-        <v>11905850.214</v>
+        <v>18829096.598</v>
       </c>
     </row>
     <row r="5365">
       <c r="A5365" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="B5365" t="n">
-        <v>6820551.817</v>
+        <v>11905850.214</v>
       </c>
     </row>
     <row r="5366">
       <c r="A5366" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="B5366" t="n">
-        <v>6358468.879</v>
+        <v>6820551.817</v>
       </c>
     </row>
     <row r="5367">
       <c r="A5367" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="B5367" t="n">
-        <v>14873483.781</v>
+        <v>6358468.879</v>
       </c>
     </row>
     <row r="5368">
       <c r="A5368" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B5368" t="n">
-        <v>11867652.532</v>
+        <v>14873483.781</v>
       </c>
     </row>
     <row r="5369">
       <c r="A5369" t="inlineStr">
         <is>
-          <t>2014-08-06</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B5369" t="n">
-        <v>2826869.713</v>
+        <v>11867652.532</v>
       </c>
     </row>
     <row r="5370">
       <c r="A5370" t="inlineStr">
         <is>
-          <t>2015-04-12</t>
+          <t>2014-08-06</t>
         </is>
       </c>
       <c r="B5370" t="n">
-        <v>3600337.897</v>
+        <v>2826869.713</v>
       </c>
     </row>
     <row r="5371">
       <c r="A5371" t="inlineStr">
         <is>
-          <t>2012-01-03</t>
+          <t>2015-04-12</t>
         </is>
       </c>
       <c r="B5371" t="n">
-        <v>1178238.791</v>
+        <v>3600337.897</v>
       </c>
     </row>
     <row r="5372">
       <c r="A5372" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2012-01-03</t>
         </is>
       </c>
       <c r="B5372" t="n">
-        <v>12210206.289</v>
+        <v>1178238.791</v>
       </c>
     </row>
     <row r="5373">
       <c r="A5373" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B5373" t="n">
-        <v>18211536.318</v>
+        <v>12210206.289</v>
       </c>
     </row>
     <row r="5374">
       <c r="A5374" t="inlineStr">
         <is>
-          <t>2017-08-15</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B5374" t="n">
-        <v>19566598.77</v>
+        <v>18211536.318</v>
       </c>
     </row>
     <row r="5375">
       <c r="A5375" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2017-08-15</t>
         </is>
       </c>
       <c r="B5375" t="n">
-        <v>6837460.05</v>
+        <v>19566598.77</v>
       </c>
     </row>
     <row r="5376">
       <c r="A5376" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="B5376" t="n">
-        <v>8536718.226</v>
+        <v>6837460.05</v>
       </c>
     </row>
     <row r="5377">
       <c r="A5377" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B5377" t="n">
-        <v>19772264.652</v>
+        <v>8536718.226</v>
       </c>
     </row>
     <row r="5378">
       <c r="A5378" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="B5378" t="n">
-        <v>16050259.512</v>
+        <v>19772264.652</v>
       </c>
     </row>
     <row r="5379">
       <c r="A5379" t="inlineStr">
         <is>
-          <t>2014-08-18</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B5379" t="n">
-        <v>2925697.333</v>
+        <v>16050259.512</v>
       </c>
     </row>
     <row r="5380">
       <c r="A5380" t="inlineStr">
         <is>
-          <t>2015-04-19</t>
+          <t>2014-08-18</t>
         </is>
       </c>
       <c r="B5380" t="n">
-        <v>3445407.103</v>
+        <v>2925697.333</v>
       </c>
     </row>
     <row r="5381">
       <c r="A5381" t="inlineStr">
         <is>
-          <t>2012-01-20</t>
+          <t>2015-04-19</t>
         </is>
       </c>
       <c r="B5381" t="n">
-        <v>1244736.785</v>
+        <v>3445407.103</v>
       </c>
     </row>
     <row r="5382">
       <c r="A5382" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2012-01-20</t>
         </is>
       </c>
       <c r="B5382" t="n">
-        <v>13510242.654</v>
+        <v>1244736.785</v>
       </c>
     </row>
     <row r="5383">
       <c r="A5383" t="inlineStr">
         <is>
-          <t>2017-08-28</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B5383" t="n">
-        <v>19422838.72</v>
+        <v>13510242.654</v>
       </c>
     </row>
     <row r="5384">
       <c r="A5384" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2017-08-28</t>
         </is>
       </c>
       <c r="B5384" t="n">
-        <v>11104807.404</v>
+        <v>19422838.72</v>
       </c>
     </row>
     <row r="5385">
       <c r="A5385" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="B5385" t="n">
-        <v>10451472.456</v>
+        <v>11104807.404</v>
       </c>
     </row>
     <row r="5386">
       <c r="A5386" t="inlineStr">
         <is>
-          <t>2014-09-13</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B5386" t="n">
-        <v>2524791.779</v>
+        <v>10451472.456</v>
       </c>
     </row>
     <row r="5387">
       <c r="A5387" t="inlineStr">
         <is>
-          <t>2015-04-25</t>
+          <t>2014-09-13</t>
         </is>
       </c>
       <c r="B5387" t="n">
-        <v>3352942.164</v>
+        <v>2524791.779</v>
       </c>
     </row>
     <row r="5388">
       <c r="A5388" t="inlineStr">
         <is>
-          <t>2012-01-21</t>
+          <t>2015-04-25</t>
         </is>
       </c>
       <c r="B5388" t="n">
-        <v>1246443.905</v>
+        <v>3352942.164</v>
       </c>
     </row>
     <row r="5389">
       <c r="A5389" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2012-01-21</t>
         </is>
       </c>
       <c r="B5389" t="n">
-        <v>14362928.781</v>
+        <v>1246443.905</v>
       </c>
     </row>
     <row r="5390">
       <c r="A5390" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B5390" t="n">
-        <v>20351324.136</v>
+        <v>14362928.781</v>
       </c>
     </row>
     <row r="5391">
       <c r="A5391" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>13491078.904</v>
+        <v>20351324.136</v>
       </c>
     </row>
     <row r="5392">
       <c r="A5392" t="inlineStr">
         <is>
-          <t>2017-09-08</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B5392" t="n">
-        <v>19486335.788</v>
+        <v>13491078.904</v>
       </c>
     </row>
     <row r="5393">
       <c r="A5393" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2017-09-08</t>
         </is>
       </c>
       <c r="B5393" t="n">
-        <v>13156711.485</v>
+        <v>19486335.788</v>
       </c>
     </row>
     <row r="5394">
       <c r="A5394" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B5394" t="n">
-        <v>10510937.957</v>
+        <v>13156711.485</v>
       </c>
     </row>
     <row r="5395">
       <c r="A5395" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="B5395" t="n">
-        <v>15716836.044</v>
+        <v>10510937.957</v>
       </c>
     </row>
     <row r="5396">
       <c r="A5396" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-07-21</t>
         </is>
       </c>
       <c r="B5396" t="n">
-        <v>19939698.057</v>
+        <v>15716836.044</v>
       </c>
     </row>
     <row r="5397">
       <c r="A5397" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B5397" t="n">
-        <v>2628371.334</v>
+        <v>19939698.057</v>
       </c>
     </row>
     <row r="5398">
       <c r="A5398" t="inlineStr">
         <is>
-          <t>2015-05-20</t>
+          <t>2014-10-02</t>
         </is>
       </c>
       <c r="B5398" t="n">
-        <v>3177021.142</v>
+        <v>2628371.334</v>
       </c>
     </row>
     <row r="5399">
       <c r="A5399" t="inlineStr">
         <is>
-          <t>2012-01-26</t>
+          <t>2015-05-20</t>
         </is>
       </c>
       <c r="B5399" t="n">
-        <v>1264128.557</v>
+        <v>3177021.142</v>
       </c>
     </row>
     <row r="5400">
       <c r="A5400" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2012-01-26</t>
         </is>
       </c>
       <c r="B5400" t="n">
-        <v>10152643.862</v>
+        <v>1264128.557</v>
       </c>
     </row>
     <row r="5401">
       <c r="A5401" t="inlineStr">
         <is>
-          <t>2017-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="B5401" t="n">
-        <v>18137220.352</v>
+        <v>10152643.862</v>
       </c>
     </row>
     <row r="5402">
       <c r="A5402" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2017-09-23</t>
         </is>
       </c>
       <c r="B5402" t="n">
-        <v>18779023.107</v>
+        <v>18137220.352</v>
       </c>
     </row>
     <row r="5403">
       <c r="A5403" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="B5403" t="n">
-        <v>10615483.231</v>
+        <v>18779023.107</v>
       </c>
     </row>
     <row r="5404">
       <c r="A5404" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="B5404" t="n">
-        <v>15795124.861</v>
+        <v>10615483.231</v>
       </c>
     </row>
     <row r="5405">
       <c r="A5405" t="inlineStr">
         <is>
-          <t>2014-10-23</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B5405" t="n">
-        <v>3053937.556</v>
+        <v>15795124.861</v>
       </c>
     </row>
     <row r="5406">
       <c r="A5406" t="inlineStr">
         <is>
-          <t>2015-05-27</t>
+          <t>2014-10-23</t>
         </is>
       </c>
       <c r="B5406" t="n">
-        <v>2974495.006</v>
+        <v>3053937.556</v>
       </c>
     </row>
     <row r="5407">
       <c r="A5407" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2015-05-27</t>
         </is>
       </c>
       <c r="B5407" t="n">
-        <v>1068036.951</v>
+        <v>2974495.006</v>
       </c>
     </row>
     <row r="5408">
       <c r="A5408" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="B5408" t="n">
-        <v>12796519.886</v>
+        <v>1068036.951</v>
       </c>
     </row>
     <row r="5409">
       <c r="A5409" t="inlineStr">
         <is>
-          <t>2017-10-09</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B5409" t="n">
-        <v>19407598.446</v>
+        <v>12796519.886</v>
       </c>
     </row>
     <row r="5410">
       <c r="A5410" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2017-10-09</t>
         </is>
       </c>
       <c r="B5410" t="n">
-        <v>20455744.669</v>
+        <v>19407598.446</v>
       </c>
     </row>
     <row r="5411">
       <c r="A5411" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="B5411" t="n">
-        <v>11376341.238</v>
+        <v>20455744.669</v>
       </c>
     </row>
     <row r="5412">
       <c r="A5412" t="inlineStr">
         <is>
-          <t>2014-11-01</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="B5412" t="n">
-        <v>3044004.834</v>
+        <v>11376341.238</v>
       </c>
     </row>
     <row r="5413">
       <c r="A5413" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2014-11-01</t>
         </is>
       </c>
       <c r="B5413" t="n">
-        <v>2765454.564</v>
+        <v>3044004.834</v>
       </c>
     </row>
     <row r="5414">
       <c r="A5414" t="inlineStr">
         <is>
-          <t>2012-04-02</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="B5414" t="n">
-        <v>1066217.337</v>
+        <v>2765454.564</v>
       </c>
     </row>
     <row r="5415">
       <c r="A5415" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2012-04-02</t>
         </is>
       </c>
       <c r="B5415" t="n">
-        <v>13432763.242</v>
+        <v>1066217.337</v>
       </c>
     </row>
     <row r="5416">
       <c r="A5416" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B5416" t="n">
-        <v>19306849.276</v>
+        <v>13432763.242</v>
       </c>
     </row>
     <row r="5417">
       <c r="A5417" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="B5417" t="n">
-        <v>17904427.701</v>
+        <v>19306849.276</v>
       </c>
     </row>
     <row r="5418">
       <c r="A5418" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="B5418" t="n">
-        <v>11260943.27</v>
+        <v>17904427.701</v>
       </c>
     </row>
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2014-11-19</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="B5419" t="n">
-        <v>3019744.611</v>
+        <v>11260943.27</v>
       </c>
     </row>
     <row r="5420">
       <c r="A5420" t="inlineStr">
         <is>
-          <t>2015-06-09</t>
+          <t>2014-11-19</t>
         </is>
       </c>
       <c r="B5420" t="n">
-        <v>2361717.899</v>
+        <v>3019744.611</v>
       </c>
     </row>
     <row r="5421">
       <c r="A5421" t="inlineStr">
         <is>
-          <t>2012-04-18</t>
+          <t>2015-06-09</t>
         </is>
       </c>
       <c r="B5421" t="n">
-        <v>1080512.495</v>
+        <v>2361717.899</v>
       </c>
     </row>
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2017-11-16</t>
+          <t>2012-04-18</t>
         </is>
       </c>
       <c r="B5422" t="n">
-        <v>15794441.353</v>
+        <v>1080512.495</v>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2021-02-12</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="B5423" t="n">
-        <v>18047843.242</v>
+        <v>15794441.353</v>
       </c>
     </row>
     <row r="5424">
       <c r="A5424" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2021-02-12</t>
         </is>
       </c>
       <c r="B5424" t="n">
-        <v>7804497.859</v>
+        <v>18047843.242</v>
       </c>
     </row>
     <row r="5425">
       <c r="A5425" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="B5425" t="n">
-        <v>9877779.377</v>
+        <v>7804497.859</v>
       </c>
     </row>
     <row r="5426">
       <c r="A5426" t="inlineStr">
         <is>
-          <t>2014-12-05</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B5426" t="n">
-        <v>3374566.02</v>
+        <v>9877779.377</v>
       </c>
     </row>
     <row r="5427">
       <c r="A5427" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2014-12-05</t>
         </is>
       </c>
       <c r="B5427" t="n">
-        <v>2394815.633</v>
+        <v>3374566.02</v>
       </c>
     </row>
     <row r="5428">
       <c r="A5428" t="inlineStr">
         <is>
-          <t>2012-05-04</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="B5428" t="n">
-        <v>1211448.82</v>
+        <v>2394815.633</v>
       </c>
     </row>
     <row r="5429">
       <c r="A5429" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2012-05-04</t>
         </is>
       </c>
       <c r="B5429" t="n">
-        <v>9388382.575999999</v>
+        <v>1211448.82</v>
       </c>
     </row>
     <row r="5430">
       <c r="A5430" t="inlineStr">
         <is>
-          <t>2017-11-30</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B5430" t="n">
-        <v>15739620.059</v>
+        <v>9388382.575999999</v>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2017-11-30</t>
         </is>
       </c>
       <c r="B5431" t="n">
-        <v>17461848.264</v>
+        <v>15739620.059</v>
       </c>
     </row>
     <row r="5432">
       <c r="A5432" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="B5432" t="n">
-        <v>7349744.434</v>
+        <v>17461848.264</v>
       </c>
     </row>
     <row r="5433">
       <c r="A5433" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="B5433" t="n">
-        <v>15621689.103</v>
+        <v>7349744.434</v>
       </c>
     </row>
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="B5434" t="n">
-        <v>11149234.035</v>
+        <v>15621689.103</v>
       </c>
     </row>
     <row r="5435">
       <c r="A5435" t="inlineStr">
         <is>
-          <t>2014-12-24</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B5435" t="n">
-        <v>3749367.14</v>
+        <v>11149234.035</v>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2014-12-24</t>
         </is>
       </c>
       <c r="B5436" t="n">
-        <v>18799096.649</v>
+        <v>3749367.14</v>
       </c>
     </row>
     <row r="5437">
       <c r="A5437" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B5437" t="n">
-        <v>2573704.983</v>
+        <v>18799096.649</v>
       </c>
     </row>
     <row r="5438">
       <c r="A5438" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="B5438" t="n">
-        <v>1258763.689</v>
+        <v>2573704.983</v>
       </c>
     </row>
     <row r="5439">
       <c r="A5439" t="inlineStr">
         <is>
-          <t>2017-12-01</t>
+          <t>2012-05-21</t>
         </is>
       </c>
       <c r="B5439" t="n">
-        <v>15786676.067</v>
+        <v>1258763.689</v>
       </c>
     </row>
     <row r="5440">
       <c r="A5440" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2017-12-01</t>
         </is>
       </c>
       <c r="B5440" t="n">
-        <v>15009732.42</v>
+        <v>15786676.067</v>
       </c>
     </row>
     <row r="5441">
       <c r="A5441" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B5441" t="n">
-        <v>8127301.046</v>
+        <v>15009732.42</v>
       </c>
     </row>
     <row r="5442">
       <c r="A5442" t="inlineStr">
         <is>
-          <t>2015-01-11</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="B5442" t="n">
-        <v>3848375.44</v>
+        <v>8127301.046</v>
       </c>
     </row>
     <row r="5443">
       <c r="A5443" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-01-11</t>
         </is>
       </c>
       <c r="B5443" t="n">
-        <v>2511092.261</v>
+        <v>3848375.44</v>
       </c>
     </row>
     <row r="5444">
       <c r="A5444" t="inlineStr">
         <is>
-          <t>2012-06-06</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="B5444" t="n">
-        <v>1365675.341</v>
+        <v>2511092.261</v>
       </c>
     </row>
     <row r="5445">
       <c r="A5445" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2012-06-06</t>
         </is>
       </c>
       <c r="B5445" t="n">
-        <v>18209088.114</v>
+        <v>1365675.341</v>
       </c>
     </row>
     <row r="5446">
       <c r="A5446" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B5446" t="n">
-        <v>17645156.999</v>
+        <v>18209088.114</v>
       </c>
     </row>
     <row r="5447">
       <c r="A5447" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="B5447" t="n">
-        <v>13264526.584</v>
+        <v>17645156.999</v>
       </c>
     </row>
     <row r="5448">
       <c r="A5448" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B5448" t="n">
-        <v>8486747.433</v>
+        <v>13264526.584</v>
       </c>
     </row>
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B5449" t="n">
-        <v>4046018.483</v>
+        <v>8486747.433</v>
       </c>
     </row>
     <row r="5450">
       <c r="A5450" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B5450" t="n">
-        <v>2718554.466</v>
+        <v>4046018.483</v>
       </c>
     </row>
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="B5451" t="n">
-        <v>1367243.39</v>
+        <v>2718554.466</v>
       </c>
     </row>
     <row r="5452">
       <c r="A5452" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2012-06-18</t>
         </is>
       </c>
       <c r="B5452" t="n">
-        <v>9114476.312000001</v>
+        <v>1367243.39</v>
       </c>
     </row>
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>15346852.871</v>
+        <v>9114476.312000001</v>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>12870879.477</v>
+        <v>15346852.871</v>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>17780525.245</v>
+        <v>12870879.477</v>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>13194431.726</v>
+        <v>17780525.245</v>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B5457" t="n">
-        <v>8346328.634</v>
+        <v>13194431.726</v>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>16236706.926</v>
+        <v>8346328.634</v>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>16585261.576</v>
+        <v>16236706.926</v>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2015-02-10</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>4071380.974</v>
+        <v>16585261.576</v>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>2793932.294</v>
+        <v>4071380.974</v>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>1363857.943</v>
+        <v>2793932.294</v>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>18882222.042</v>
+        <v>1363857.943</v>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>17968690.541</v>
+        <v>18882222.042</v>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>9386582.370999999</v>
+        <v>17968690.541</v>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>17890389.899</v>
+        <v>9386582.370999999</v>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5467" t="n">
-        <v>12015164.279</v>
+        <v>17890389.899</v>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5468" t="n">
-        <v>7902657.124</v>
+        <v>12015164.279</v>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5469" t="n">
-        <v>10503343.65</v>
+        <v>7902657.124</v>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>3819509.271</v>
+        <v>10503343.65</v>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>2826416.003</v>
+        <v>3819509.271</v>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>1630324.679</v>
+        <v>2826416.003</v>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>10658742.561</v>
+        <v>1630324.679</v>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>18727823.649</v>
+        <v>10658742.561</v>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>17224052.503</v>
+        <v>18727823.649</v>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>10673931.348</v>
+        <v>17224052.503</v>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>3979751.142</v>
+        <v>10673931.348</v>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>3642872.298</v>
+        <v>3979751.142</v>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>1613219.441</v>
+        <v>3642872.298</v>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>18746833.543</v>
+        <v>1613219.441</v>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>14696488.122</v>
+        <v>18746833.543</v>
       </c>
     </row>
     <row r="5482">
       <c r="A5482" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>18803774.412</v>
+        <v>14696488.122</v>
       </c>
     </row>
     <row r="5483">
@@ -55266,510 +55266,520 @@
     <row r="5484">
       <c r="A5484" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>18108889.119</v>
+        <v>18803774.412</v>
       </c>
     </row>
     <row r="5485">
       <c r="A5485" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>10600975.162</v>
+        <v>18108889.119</v>
       </c>
     </row>
     <row r="5486">
       <c r="A5486" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>3489354.733</v>
+        <v>10600975.162</v>
       </c>
     </row>
     <row r="5487">
       <c r="A5487" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>3660667.082</v>
+        <v>3489354.733</v>
       </c>
     </row>
     <row r="5488">
       <c r="A5488" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>316907.127</v>
+        <v>3660667.082</v>
       </c>
     </row>
     <row r="5489">
       <c r="A5489" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>1760535.998</v>
+        <v>316907.127</v>
       </c>
     </row>
     <row r="5490">
       <c r="A5490" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>19760413.223</v>
+        <v>1760535.998</v>
       </c>
     </row>
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>15296257.118</v>
+        <v>19760413.223</v>
       </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>10677343.165</v>
+        <v>15296257.118</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>12841467.318</v>
+        <v>10677343.165</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>3205484.527</v>
+        <v>12841467.318</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>4648212.458</v>
+        <v>3205484.527</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>1873037.142</v>
+        <v>4648212.458</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>19272529.034</v>
+        <v>1873037.142</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>13193422.783</v>
+        <v>19272529.034</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>8610177.493000001</v>
+        <v>13193422.783</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>12225489.867</v>
+        <v>8610177.493000001</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>2985205.142</v>
+        <v>12225489.867</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>4603582.061</v>
+        <v>2985205.142</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>2093652.744</v>
+        <v>4603582.061</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>11477197.525</v>
+        <v>2093652.744</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>19496972.836</v>
+        <v>11477197.525</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>10566019.663</v>
+        <v>19496972.836</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>8609734.759</v>
+        <v>10566019.663</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>18616838.388</v>
+        <v>8609734.759</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>2392944.256</v>
+        <v>18616838.388</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>4964683.773</v>
+        <v>2392944.256</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>2162784.464</v>
+        <v>4964683.773</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>8046257.588</v>
+        <v>2162784.464</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>8443126.151000001</v>
+        <v>8046257.588</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>8386250.008</v>
+        <v>8443126.151000001</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>2565551.236</v>
+        <v>8386250.008</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>6127123.106</v>
+        <v>2565551.236</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>2157212.824</v>
+        <v>6127123.106</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>11978202.448</v>
+        <v>2157212.824</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>15303734.889</v>
+        <v>11978202.448</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>8103908.652</v>
+        <v>15303734.889</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>9382181.960999999</v>
+        <v>8103908.652</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>16784620.262</v>
+        <v>9382181.960999999</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5523" t="n">
-        <v>16833063.951</v>
+        <v>16784620.262</v>
       </c>
     </row>
     <row r="5524">
       <c r="A5524" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5524" t="n">
-        <v>17049245.734</v>
+        <v>16833063.951</v>
       </c>
     </row>
     <row r="5525">
       <c r="A5525" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5525" t="n">
-        <v>17115867.282</v>
+        <v>17049245.734</v>
       </c>
     </row>
     <row r="5526">
       <c r="A5526" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5526" t="n">
-        <v>17153769.299</v>
+        <v>17115867.282</v>
       </c>
     </row>
     <row r="5527">
       <c r="A5527" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5527" t="n">
-        <v>17225229.436</v>
+        <v>17153769.299</v>
       </c>
     </row>
     <row r="5528">
       <c r="A5528" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5528" t="n">
-        <v>17249482.25</v>
+        <v>17225229.436</v>
       </c>
     </row>
     <row r="5529">
       <c r="A5529" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5529" t="n">
-        <v>17569350.656</v>
+        <v>17249482.25</v>
       </c>
     </row>
     <row r="5530">
       <c r="A5530" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5530" t="n">
-        <v>2859270.317</v>
+        <v>17569350.656</v>
       </c>
     </row>
     <row r="5531">
       <c r="A5531" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5531" t="n">
-        <v>5532498.781</v>
+        <v>2859270.317</v>
       </c>
     </row>
     <row r="5532">
       <c r="A5532" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5532" t="n">
-        <v>2138609.994</v>
+        <v>5532498.781</v>
       </c>
     </row>
     <row r="5533">
       <c r="A5533" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5533" t="n">
-        <v>12895454.923</v>
+        <v>2138609.994</v>
       </c>
     </row>
     <row r="5534">
       <c r="A5534" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5534" t="n">
+        <v>12895454.923</v>
+      </c>
+    </row>
+    <row r="5535">
+      <c r="A5535" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5534" t="n">
+      <c r="B5535" t="n">
         <v>11691372.317</v>
       </c>
     </row>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5535"/>
+  <dimension ref="A1:B5536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47016,71 +47016,71 @@
     <row r="4659">
       <c r="A4659" t="inlineStr">
         <is>
-          <t>2016-10-11</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B4659" t="n">
-        <v>4081966.566</v>
+        <v>14643596.316</v>
       </c>
     </row>
     <row r="4660">
       <c r="A4660" t="inlineStr">
         <is>
-          <t>2014-06-04</t>
+          <t>2016-10-11</t>
         </is>
       </c>
       <c r="B4660" t="n">
-        <v>4334471.241</v>
+        <v>4081966.566</v>
       </c>
     </row>
     <row r="4661">
       <c r="A4661" t="inlineStr">
         <is>
-          <t>2011-12-20</t>
+          <t>2014-06-04</t>
         </is>
       </c>
       <c r="B4661" t="n">
-        <v>1110725.984</v>
+        <v>4334471.241</v>
       </c>
     </row>
     <row r="4662">
       <c r="A4662" t="inlineStr">
         <is>
-          <t>2012-08-29</t>
+          <t>2011-12-20</t>
         </is>
       </c>
       <c r="B4662" t="n">
-        <v>1779726.918</v>
+        <v>1110725.984</v>
       </c>
     </row>
     <row r="4663">
       <c r="A4663" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2012-08-29</t>
         </is>
       </c>
       <c r="B4663" t="n">
-        <v>12764248.542</v>
+        <v>1779726.918</v>
       </c>
     </row>
     <row r="4664">
       <c r="A4664" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2024-11-22</t>
         </is>
       </c>
       <c r="B4664" t="n">
-        <v>14953650.236</v>
+        <v>12764248.542</v>
       </c>
     </row>
     <row r="4665">
       <c r="A4665" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B4665" t="n">
-        <v>14643596.316</v>
+        <v>14953650.236</v>
       </c>
     </row>
     <row r="4666">
@@ -47256,71 +47256,71 @@
     <row r="4683">
       <c r="A4683" t="inlineStr">
         <is>
-          <t>2016-07-04</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B4683" t="n">
-        <v>5904321.864</v>
+        <v>14629813.48</v>
       </c>
     </row>
     <row r="4684">
       <c r="A4684" t="inlineStr">
         <is>
-          <t>2016-12-08</t>
+          <t>2016-07-04</t>
         </is>
       </c>
       <c r="B4684" t="n">
-        <v>5399140.71</v>
+        <v>5904321.864</v>
       </c>
     </row>
     <row r="4685">
       <c r="A4685" t="inlineStr">
         <is>
-          <t>2011-12-30</t>
+          <t>2016-12-08</t>
         </is>
       </c>
       <c r="B4685" t="n">
-        <v>1131186.928</v>
+        <v>5399140.71</v>
       </c>
     </row>
     <row r="4686">
       <c r="A4686" t="inlineStr">
         <is>
-          <t>2012-09-14</t>
+          <t>2011-12-30</t>
         </is>
       </c>
       <c r="B4686" t="n">
-        <v>1973976.107</v>
+        <v>1131186.928</v>
       </c>
     </row>
     <row r="4687">
       <c r="A4687" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2012-09-14</t>
         </is>
       </c>
       <c r="B4687" t="n">
-        <v>17924810.11</v>
+        <v>1973976.107</v>
       </c>
     </row>
     <row r="4688">
       <c r="A4688" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B4688" t="n">
-        <v>18712982.753</v>
+        <v>17924810.11</v>
       </c>
     </row>
     <row r="4689">
       <c r="A4689" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="B4689" t="n">
-        <v>14629813.48</v>
+        <v>18712982.753</v>
       </c>
     </row>
     <row r="4690">
@@ -47396,51 +47396,51 @@
     <row r="4697">
       <c r="A4697" t="inlineStr">
         <is>
-          <t>2016-12-20</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B4697" t="n">
-        <v>5590337.561</v>
+        <v>14537522.035</v>
       </c>
     </row>
     <row r="4698">
       <c r="A4698" t="inlineStr">
         <is>
-          <t>2014-07-13</t>
+          <t>2016-12-20</t>
         </is>
       </c>
       <c r="B4698" t="n">
-        <v>2573147.556</v>
+        <v>5590337.561</v>
       </c>
     </row>
     <row r="4699">
       <c r="A4699" t="inlineStr">
         <is>
-          <t>2012-01-05</t>
+          <t>2014-07-13</t>
         </is>
       </c>
       <c r="B4699" t="n">
-        <v>1166389.95</v>
+        <v>2573147.556</v>
       </c>
     </row>
     <row r="4700">
       <c r="A4700" t="inlineStr">
         <is>
-          <t>2012-09-21</t>
+          <t>2012-01-05</t>
         </is>
       </c>
       <c r="B4700" t="n">
-        <v>2087568.27</v>
+        <v>1166389.95</v>
       </c>
     </row>
     <row r="4701">
       <c r="A4701" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2012-09-21</t>
         </is>
       </c>
       <c r="B4701" t="n">
-        <v>14537522.035</v>
+        <v>2087568.27</v>
       </c>
     </row>
     <row r="4702">
@@ -49646,121 +49646,121 @@
     <row r="4922">
       <c r="A4922" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B4922" t="n">
-        <v>6008052.168</v>
+        <v>14504226.874</v>
       </c>
     </row>
     <row r="4923">
       <c r="A4923" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-09-28</t>
         </is>
       </c>
       <c r="B4923" t="n">
-        <v>10466814.972</v>
+        <v>6008052.168</v>
       </c>
     </row>
     <row r="4924">
       <c r="A4924" t="inlineStr">
         <is>
-          <t>2023-02-11</t>
+          <t>2022-12-09</t>
         </is>
       </c>
       <c r="B4924" t="n">
-        <v>9512207.699999999</v>
+        <v>10466814.972</v>
       </c>
     </row>
     <row r="4925">
       <c r="A4925" t="inlineStr">
         <is>
-          <t>2023-03-12</t>
+          <t>2023-02-11</t>
         </is>
       </c>
       <c r="B4925" t="n">
-        <v>7103905.636</v>
+        <v>9512207.699999999</v>
       </c>
     </row>
     <row r="4926">
       <c r="A4926" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-03-12</t>
         </is>
       </c>
       <c r="B4926" t="n">
-        <v>8134887.795</v>
+        <v>7103905.636</v>
       </c>
     </row>
     <row r="4927">
       <c r="A4927" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="B4927" t="n">
-        <v>6605806.716</v>
+        <v>8134887.795</v>
       </c>
     </row>
     <row r="4928">
       <c r="A4928" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B4928" t="n">
-        <v>17208008.89</v>
+        <v>6605806.716</v>
       </c>
     </row>
     <row r="4929">
       <c r="A4929" t="inlineStr">
         <is>
-          <t>2015-04-27</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="B4929" t="n">
-        <v>3258623.998</v>
+        <v>17208008.89</v>
       </c>
     </row>
     <row r="4930">
       <c r="A4930" t="inlineStr">
         <is>
-          <t>2012-12-23</t>
+          <t>2015-04-27</t>
         </is>
       </c>
       <c r="B4930" t="n">
-        <v>1899621.694</v>
+        <v>3258623.998</v>
       </c>
     </row>
     <row r="4931">
       <c r="A4931" t="inlineStr">
         <is>
-          <t>2013-04-26</t>
+          <t>2012-12-23</t>
         </is>
       </c>
       <c r="B4931" t="n">
-        <v>5662798.756</v>
+        <v>1899621.694</v>
       </c>
     </row>
     <row r="4932">
       <c r="A4932" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2013-04-26</t>
         </is>
       </c>
       <c r="B4932" t="n">
-        <v>18389579.978</v>
+        <v>5662798.756</v>
       </c>
     </row>
     <row r="4933">
       <c r="A4933" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B4933" t="n">
-        <v>14504226.874</v>
+        <v>18389579.978</v>
       </c>
     </row>
     <row r="4934">
@@ -49806,71 +49806,71 @@
     <row r="4938">
       <c r="A4938" t="inlineStr">
         <is>
-          <t>2013-07-21</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B4938" t="n">
-        <v>2401238.474</v>
+        <v>14713290.066</v>
       </c>
     </row>
     <row r="4939">
       <c r="A4939" t="inlineStr">
         <is>
-          <t>2015-05-01</t>
+          <t>2013-07-21</t>
         </is>
       </c>
       <c r="B4939" t="n">
-        <v>3248006.045</v>
+        <v>2401238.474</v>
       </c>
     </row>
     <row r="4940">
       <c r="A4940" t="inlineStr">
         <is>
-          <t>2013-01-02</t>
+          <t>2015-05-01</t>
         </is>
       </c>
       <c r="B4940" t="n">
-        <v>1827277.216</v>
+        <v>3248006.045</v>
       </c>
     </row>
     <row r="4941">
       <c r="A4941" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2013-01-02</t>
         </is>
       </c>
       <c r="B4941" t="n">
-        <v>9270561.718</v>
+        <v>1827277.216</v>
       </c>
     </row>
     <row r="4942">
       <c r="A4942" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="B4942" t="n">
-        <v>12633844.31</v>
+        <v>9270561.718</v>
       </c>
     </row>
     <row r="4943">
       <c r="A4943" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="B4943" t="n">
-        <v>14392379.583</v>
+        <v>12633844.31</v>
       </c>
     </row>
     <row r="4944">
       <c r="A4944" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B4944" t="n">
-        <v>14713290.066</v>
+        <v>14392379.583</v>
       </c>
     </row>
     <row r="4945">
@@ -50146,61 +50146,61 @@
     <row r="4972">
       <c r="A4972" t="inlineStr">
         <is>
-          <t>2013-08-09</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B4972" t="n">
-        <v>2282151.25</v>
+        <v>14616694.16</v>
       </c>
     </row>
     <row r="4973">
       <c r="A4973" t="inlineStr">
         <is>
-          <t>2015-06-28</t>
+          <t>2013-08-09</t>
         </is>
       </c>
       <c r="B4973" t="n">
-        <v>2594483.55</v>
+        <v>2282151.25</v>
       </c>
     </row>
     <row r="4974">
       <c r="A4974" t="inlineStr">
         <is>
-          <t>2010-11-16</t>
+          <t>2015-06-28</t>
         </is>
       </c>
       <c r="B4974" t="n">
-        <v>304020.338</v>
+        <v>2594483.55</v>
       </c>
     </row>
     <row r="4975">
       <c r="A4975" t="inlineStr">
         <is>
-          <t>2013-02-12</t>
+          <t>2010-11-16</t>
         </is>
       </c>
       <c r="B4975" t="n">
-        <v>2529625.788</v>
+        <v>304020.338</v>
       </c>
     </row>
     <row r="4976">
       <c r="A4976" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2013-02-12</t>
         </is>
       </c>
       <c r="B4976" t="n">
-        <v>14737879.389</v>
+        <v>2529625.788</v>
       </c>
     </row>
     <row r="4977">
       <c r="A4977" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B4977" t="n">
-        <v>14616694.16</v>
+        <v>14737879.389</v>
       </c>
     </row>
     <row r="4978">
@@ -52296,31 +52296,31 @@
     <row r="5187">
       <c r="A5187" t="inlineStr">
         <is>
-          <t>2016-07-20</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B5187" t="n">
-        <v>5964902.839</v>
+        <v>14555529.314</v>
       </c>
     </row>
     <row r="5188">
       <c r="A5188" t="inlineStr">
         <is>
-          <t>2014-09-30</t>
+          <t>2016-07-20</t>
         </is>
       </c>
       <c r="B5188" t="n">
-        <v>2625686.029</v>
+        <v>5964902.839</v>
       </c>
     </row>
     <row r="5189">
       <c r="A5189" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2014-09-30</t>
         </is>
       </c>
       <c r="B5189" t="n">
-        <v>14555529.314</v>
+        <v>2625686.029</v>
       </c>
     </row>
     <row r="5190">
@@ -52526,41 +52526,41 @@
     <row r="5210">
       <c r="A5210" t="inlineStr">
         <is>
-          <t>2016-09-03</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B5210" t="n">
-        <v>5203377.911</v>
+        <v>14548570.861</v>
       </c>
     </row>
     <row r="5211">
       <c r="A5211" t="inlineStr">
         <is>
-          <t>2014-10-22</t>
+          <t>2016-09-03</t>
         </is>
       </c>
       <c r="B5211" t="n">
-        <v>3035976.286</v>
+        <v>5203377.911</v>
       </c>
     </row>
     <row r="5212">
       <c r="A5212" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2014-10-22</t>
         </is>
       </c>
       <c r="B5212" t="n">
-        <v>18413104.776</v>
+        <v>3035976.286</v>
       </c>
     </row>
     <row r="5213">
       <c r="A5213" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B5213" t="n">
-        <v>14548570.861</v>
+        <v>18413104.776</v>
       </c>
     </row>
     <row r="5214">
@@ -54296,41 +54296,41 @@
     <row r="5387">
       <c r="A5387" t="inlineStr">
         <is>
-          <t>2014-09-13</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B5387" t="n">
-        <v>2524791.779</v>
+        <v>14362928.781</v>
       </c>
     </row>
     <row r="5388">
       <c r="A5388" t="inlineStr">
         <is>
-          <t>2015-04-25</t>
+          <t>2014-09-13</t>
         </is>
       </c>
       <c r="B5388" t="n">
-        <v>3352942.164</v>
+        <v>2524791.779</v>
       </c>
     </row>
     <row r="5389">
       <c r="A5389" t="inlineStr">
         <is>
-          <t>2012-01-21</t>
+          <t>2015-04-25</t>
         </is>
       </c>
       <c r="B5389" t="n">
-        <v>1246443.905</v>
+        <v>3352942.164</v>
       </c>
     </row>
     <row r="5390">
       <c r="A5390" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2012-01-21</t>
         </is>
       </c>
       <c r="B5390" t="n">
-        <v>14362928.781</v>
+        <v>1246443.905</v>
       </c>
     </row>
     <row r="5391">
@@ -54556,1230 +54556,1240 @@
     <row r="5413">
       <c r="A5413" t="inlineStr">
         <is>
-          <t>2014-11-01</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B5413" t="n">
-        <v>3044004.834</v>
+        <v>14589767.49</v>
       </c>
     </row>
     <row r="5414">
       <c r="A5414" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2014-11-01</t>
         </is>
       </c>
       <c r="B5414" t="n">
-        <v>2765454.564</v>
+        <v>3044004.834</v>
       </c>
     </row>
     <row r="5415">
       <c r="A5415" t="inlineStr">
         <is>
-          <t>2012-04-02</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="B5415" t="n">
-        <v>1066217.337</v>
+        <v>2765454.564</v>
       </c>
     </row>
     <row r="5416">
       <c r="A5416" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2012-04-02</t>
         </is>
       </c>
       <c r="B5416" t="n">
-        <v>13432763.242</v>
+        <v>1066217.337</v>
       </c>
     </row>
     <row r="5417">
       <c r="A5417" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B5417" t="n">
-        <v>19306849.276</v>
+        <v>13432763.242</v>
       </c>
     </row>
     <row r="5418">
       <c r="A5418" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="B5418" t="n">
-        <v>17904427.701</v>
+        <v>19306849.276</v>
       </c>
     </row>
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="B5419" t="n">
-        <v>11260943.27</v>
+        <v>17904427.701</v>
       </c>
     </row>
     <row r="5420">
       <c r="A5420" t="inlineStr">
         <is>
-          <t>2014-11-19</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="B5420" t="n">
-        <v>3019744.611</v>
+        <v>11260943.27</v>
       </c>
     </row>
     <row r="5421">
       <c r="A5421" t="inlineStr">
         <is>
-          <t>2015-06-09</t>
+          <t>2014-11-19</t>
         </is>
       </c>
       <c r="B5421" t="n">
-        <v>2361717.899</v>
+        <v>3019744.611</v>
       </c>
     </row>
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2012-04-18</t>
+          <t>2015-06-09</t>
         </is>
       </c>
       <c r="B5422" t="n">
-        <v>1080512.495</v>
+        <v>2361717.899</v>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2017-11-16</t>
+          <t>2012-04-18</t>
         </is>
       </c>
       <c r="B5423" t="n">
-        <v>15794441.353</v>
+        <v>1080512.495</v>
       </c>
     </row>
     <row r="5424">
       <c r="A5424" t="inlineStr">
         <is>
-          <t>2021-02-12</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="B5424" t="n">
-        <v>18047843.242</v>
+        <v>15794441.353</v>
       </c>
     </row>
     <row r="5425">
       <c r="A5425" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2021-02-12</t>
         </is>
       </c>
       <c r="B5425" t="n">
-        <v>7804497.859</v>
+        <v>18047843.242</v>
       </c>
     </row>
     <row r="5426">
       <c r="A5426" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="B5426" t="n">
-        <v>9877779.377</v>
+        <v>7804497.859</v>
       </c>
     </row>
     <row r="5427">
       <c r="A5427" t="inlineStr">
         <is>
-          <t>2014-12-05</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B5427" t="n">
-        <v>3374566.02</v>
+        <v>9877779.377</v>
       </c>
     </row>
     <row r="5428">
       <c r="A5428" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2014-12-05</t>
         </is>
       </c>
       <c r="B5428" t="n">
-        <v>2394815.633</v>
+        <v>3374566.02</v>
       </c>
     </row>
     <row r="5429">
       <c r="A5429" t="inlineStr">
         <is>
-          <t>2012-05-04</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="B5429" t="n">
-        <v>1211448.82</v>
+        <v>2394815.633</v>
       </c>
     </row>
     <row r="5430">
       <c r="A5430" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2012-05-04</t>
         </is>
       </c>
       <c r="B5430" t="n">
-        <v>9388382.575999999</v>
+        <v>1211448.82</v>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="inlineStr">
         <is>
-          <t>2017-11-30</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B5431" t="n">
-        <v>15739620.059</v>
+        <v>9388382.575999999</v>
       </c>
     </row>
     <row r="5432">
       <c r="A5432" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2017-11-30</t>
         </is>
       </c>
       <c r="B5432" t="n">
-        <v>17461848.264</v>
+        <v>15739620.059</v>
       </c>
     </row>
     <row r="5433">
       <c r="A5433" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="B5433" t="n">
-        <v>7349744.434</v>
+        <v>17461848.264</v>
       </c>
     </row>
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="B5434" t="n">
-        <v>15621689.103</v>
+        <v>7349744.434</v>
       </c>
     </row>
     <row r="5435">
       <c r="A5435" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="B5435" t="n">
-        <v>11149234.035</v>
+        <v>15621689.103</v>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2014-12-24</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B5436" t="n">
-        <v>3749367.14</v>
+        <v>11149234.035</v>
       </c>
     </row>
     <row r="5437">
       <c r="A5437" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2014-12-24</t>
         </is>
       </c>
       <c r="B5437" t="n">
-        <v>18799096.649</v>
+        <v>3749367.14</v>
       </c>
     </row>
     <row r="5438">
       <c r="A5438" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B5438" t="n">
-        <v>2573704.983</v>
+        <v>18799096.649</v>
       </c>
     </row>
     <row r="5439">
       <c r="A5439" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="B5439" t="n">
-        <v>1258763.689</v>
+        <v>2573704.983</v>
       </c>
     </row>
     <row r="5440">
       <c r="A5440" t="inlineStr">
         <is>
-          <t>2017-12-01</t>
+          <t>2012-05-21</t>
         </is>
       </c>
       <c r="B5440" t="n">
-        <v>15786676.067</v>
+        <v>1258763.689</v>
       </c>
     </row>
     <row r="5441">
       <c r="A5441" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2017-12-01</t>
         </is>
       </c>
       <c r="B5441" t="n">
-        <v>15009732.42</v>
+        <v>15786676.067</v>
       </c>
     </row>
     <row r="5442">
       <c r="A5442" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B5442" t="n">
-        <v>8127301.046</v>
+        <v>15009732.42</v>
       </c>
     </row>
     <row r="5443">
       <c r="A5443" t="inlineStr">
         <is>
-          <t>2015-01-11</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="B5443" t="n">
-        <v>3848375.44</v>
+        <v>8127301.046</v>
       </c>
     </row>
     <row r="5444">
       <c r="A5444" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-01-11</t>
         </is>
       </c>
       <c r="B5444" t="n">
-        <v>2511092.261</v>
+        <v>3848375.44</v>
       </c>
     </row>
     <row r="5445">
       <c r="A5445" t="inlineStr">
         <is>
-          <t>2012-06-06</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="B5445" t="n">
-        <v>1365675.341</v>
+        <v>2511092.261</v>
       </c>
     </row>
     <row r="5446">
       <c r="A5446" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2012-06-06</t>
         </is>
       </c>
       <c r="B5446" t="n">
-        <v>18209088.114</v>
+        <v>1365675.341</v>
       </c>
     </row>
     <row r="5447">
       <c r="A5447" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B5447" t="n">
-        <v>17645156.999</v>
+        <v>18209088.114</v>
       </c>
     </row>
     <row r="5448">
       <c r="A5448" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="B5448" t="n">
-        <v>13264526.584</v>
+        <v>17645156.999</v>
       </c>
     </row>
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B5449" t="n">
-        <v>8486747.433</v>
+        <v>13264526.584</v>
       </c>
     </row>
     <row r="5450">
       <c r="A5450" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B5450" t="n">
-        <v>4046018.483</v>
+        <v>8486747.433</v>
       </c>
     </row>
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B5451" t="n">
-        <v>2718554.466</v>
+        <v>4046018.483</v>
       </c>
     </row>
     <row r="5452">
       <c r="A5452" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="B5452" t="n">
-        <v>1367243.39</v>
+        <v>2718554.466</v>
       </c>
     </row>
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2012-06-18</t>
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>9114476.312000001</v>
+        <v>1367243.39</v>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>15346852.871</v>
+        <v>9114476.312000001</v>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>12870879.477</v>
+        <v>15346852.871</v>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>17780525.245</v>
+        <v>12870879.477</v>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B5457" t="n">
-        <v>13194431.726</v>
+        <v>17780525.245</v>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>8346328.634</v>
+        <v>13194431.726</v>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>16236706.926</v>
+        <v>8346328.634</v>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>16585261.576</v>
+        <v>16236706.926</v>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2015-02-10</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>4071380.974</v>
+        <v>16585261.576</v>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>2793932.294</v>
+        <v>4071380.974</v>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>1363857.943</v>
+        <v>2793932.294</v>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>18882222.042</v>
+        <v>1363857.943</v>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>17968690.541</v>
+        <v>18882222.042</v>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>9386582.370999999</v>
+        <v>17968690.541</v>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5467" t="n">
-        <v>17890389.899</v>
+        <v>9386582.370999999</v>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5468" t="n">
-        <v>12015164.279</v>
+        <v>17890389.899</v>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5469" t="n">
-        <v>7902657.124</v>
+        <v>12015164.279</v>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>10503343.65</v>
+        <v>7902657.124</v>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>3819509.271</v>
+        <v>10503343.65</v>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>2826416.003</v>
+        <v>3819509.271</v>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>1630324.679</v>
+        <v>2826416.003</v>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>10658742.561</v>
+        <v>1630324.679</v>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>18727823.649</v>
+        <v>10658742.561</v>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>17224052.503</v>
+        <v>18727823.649</v>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>10673931.348</v>
+        <v>17224052.503</v>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>3979751.142</v>
+        <v>10673931.348</v>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>3642872.298</v>
+        <v>18803774.412</v>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>1613219.441</v>
+        <v>3979751.142</v>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>18746833.543</v>
+        <v>3642872.298</v>
       </c>
     </row>
     <row r="5482">
       <c r="A5482" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>14696488.122</v>
+        <v>1613219.441</v>
       </c>
     </row>
     <row r="5483">
       <c r="A5483" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5483" t="n">
-        <v>13074131.781</v>
+        <v>18746833.543</v>
       </c>
     </row>
     <row r="5484">
       <c r="A5484" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>18803774.412</v>
+        <v>14696488.122</v>
       </c>
     </row>
     <row r="5485">
       <c r="A5485" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>18108889.119</v>
+        <v>13074131.781</v>
       </c>
     </row>
     <row r="5486">
       <c r="A5486" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>10600975.162</v>
+        <v>18108889.119</v>
       </c>
     </row>
     <row r="5487">
       <c r="A5487" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>3489354.733</v>
+        <v>10600975.162</v>
       </c>
     </row>
     <row r="5488">
       <c r="A5488" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>3660667.082</v>
+        <v>3489354.733</v>
       </c>
     </row>
     <row r="5489">
       <c r="A5489" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>316907.127</v>
+        <v>3660667.082</v>
       </c>
     </row>
     <row r="5490">
       <c r="A5490" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>1760535.998</v>
+        <v>316907.127</v>
       </c>
     </row>
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>19760413.223</v>
+        <v>1760535.998</v>
       </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>15296257.118</v>
+        <v>19760413.223</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>10677343.165</v>
+        <v>15296257.118</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>12841467.318</v>
+        <v>10677343.165</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>3205484.527</v>
+        <v>12841467.318</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>4648212.458</v>
+        <v>3205484.527</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>1873037.142</v>
+        <v>4648212.458</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>19272529.034</v>
+        <v>1873037.142</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>13193422.783</v>
+        <v>19272529.034</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>8610177.493000001</v>
+        <v>13193422.783</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>12225489.867</v>
+        <v>8610177.493000001</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>2985205.142</v>
+        <v>12225489.867</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>4603582.061</v>
+        <v>2985205.142</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>2093652.744</v>
+        <v>4603582.061</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>11477197.525</v>
+        <v>2093652.744</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>19496972.836</v>
+        <v>11477197.525</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>10566019.663</v>
+        <v>19496972.836</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>8609734.759</v>
+        <v>10566019.663</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>18616838.388</v>
+        <v>8609734.759</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>2392944.256</v>
+        <v>18616838.388</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>4964683.773</v>
+        <v>2392944.256</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>2162784.464</v>
+        <v>4964683.773</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>8046257.588</v>
+        <v>2162784.464</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>8443126.151000001</v>
+        <v>8046257.588</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>8386250.008</v>
+        <v>8443126.151000001</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>2565551.236</v>
+        <v>8386250.008</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>6127123.106</v>
+        <v>2565551.236</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>2157212.824</v>
+        <v>6127123.106</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>11978202.448</v>
+        <v>2157212.824</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>15303734.889</v>
+        <v>11978202.448</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>8103908.652</v>
+        <v>15303734.889</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>9382181.960999999</v>
+        <v>8103908.652</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5523" t="n">
-        <v>16784620.262</v>
+        <v>9382181.960999999</v>
       </c>
     </row>
     <row r="5524">
       <c r="A5524" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5524" t="n">
-        <v>16833063.951</v>
+        <v>16784620.262</v>
       </c>
     </row>
     <row r="5525">
       <c r="A5525" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5525" t="n">
-        <v>17049245.734</v>
+        <v>16833063.951</v>
       </c>
     </row>
     <row r="5526">
       <c r="A5526" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5526" t="n">
-        <v>17115867.282</v>
+        <v>17049245.734</v>
       </c>
     </row>
     <row r="5527">
       <c r="A5527" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5527" t="n">
-        <v>17153769.299</v>
+        <v>17115867.282</v>
       </c>
     </row>
     <row r="5528">
       <c r="A5528" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5528" t="n">
-        <v>17225229.436</v>
+        <v>17153769.299</v>
       </c>
     </row>
     <row r="5529">
       <c r="A5529" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5529" t="n">
-        <v>17249482.25</v>
+        <v>17225229.436</v>
       </c>
     </row>
     <row r="5530">
       <c r="A5530" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5530" t="n">
-        <v>17569350.656</v>
+        <v>17249482.25</v>
       </c>
     </row>
     <row r="5531">
       <c r="A5531" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5531" t="n">
-        <v>2859270.317</v>
+        <v>17569350.656</v>
       </c>
     </row>
     <row r="5532">
       <c r="A5532" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5532" t="n">
-        <v>5532498.781</v>
+        <v>2859270.317</v>
       </c>
     </row>
     <row r="5533">
       <c r="A5533" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5533" t="n">
-        <v>2138609.994</v>
+        <v>5532498.781</v>
       </c>
     </row>
     <row r="5534">
       <c r="A5534" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5534" t="n">
-        <v>12895454.923</v>
+        <v>2138609.994</v>
       </c>
     </row>
     <row r="5535">
       <c r="A5535" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5535" t="n">
+        <v>12895454.923</v>
+      </c>
+    </row>
+    <row r="5536">
+      <c r="A5536" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5535" t="n">
+      <c r="B5536" t="n">
         <v>11691372.317</v>
       </c>
     </row>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5539"/>
+  <dimension ref="A1:B5540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47086,21 +47086,21 @@
     <row r="4666">
       <c r="A4666" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2024-11-22</t>
         </is>
       </c>
       <c r="B4666" t="n">
-        <v>14643596.316</v>
+        <v>12764248.542</v>
       </c>
     </row>
     <row r="4667">
       <c r="A4667" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B4667" t="n">
-        <v>12764248.542</v>
+        <v>14643596.316</v>
       </c>
     </row>
     <row r="4668">
@@ -47336,21 +47336,21 @@
     <row r="4691">
       <c r="A4691" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="B4691" t="n">
-        <v>14629813.48</v>
+        <v>18712982.753</v>
       </c>
     </row>
     <row r="4692">
       <c r="A4692" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B4692" t="n">
-        <v>18712982.753</v>
+        <v>14629813.48</v>
       </c>
     </row>
     <row r="4693">
@@ -47876,2351 +47876,2351 @@
     <row r="4745">
       <c r="A4745" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B4745" t="n">
-        <v>7084799.555</v>
+        <v>14270593.852</v>
       </c>
     </row>
     <row r="4746">
       <c r="A4746" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2020-03-03</t>
         </is>
       </c>
       <c r="B4746" t="n">
-        <v>9422237.498</v>
+        <v>7084799.555</v>
       </c>
     </row>
     <row r="4747">
       <c r="A4747" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="B4747" t="n">
-        <v>9358721.466</v>
+        <v>9422237.498</v>
       </c>
     </row>
     <row r="4748">
       <c r="A4748" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="B4748" t="n">
-        <v>7259411.135</v>
+        <v>9358721.466</v>
       </c>
     </row>
     <row r="4749">
       <c r="A4749" t="inlineStr">
         <is>
-          <t>2017-02-22</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="B4749" t="n">
-        <v>7301227.676</v>
+        <v>7259411.135</v>
       </c>
     </row>
     <row r="4750">
       <c r="A4750" t="inlineStr">
         <is>
-          <t>2014-09-14</t>
+          <t>2017-02-22</t>
         </is>
       </c>
       <c r="B4750" t="n">
-        <v>2514186.685</v>
+        <v>7301227.676</v>
       </c>
     </row>
     <row r="4751">
       <c r="A4751" t="inlineStr">
         <is>
-          <t>2012-04-06</t>
+          <t>2014-09-14</t>
         </is>
       </c>
       <c r="B4751" t="n">
-        <v>1084863.253</v>
+        <v>2514186.685</v>
       </c>
     </row>
     <row r="4752">
       <c r="A4752" t="inlineStr">
         <is>
-          <t>2012-10-19</t>
+          <t>2012-04-06</t>
         </is>
       </c>
       <c r="B4752" t="n">
-        <v>2085867.28</v>
+        <v>1084863.253</v>
       </c>
     </row>
     <row r="4753">
       <c r="A4753" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2012-10-19</t>
         </is>
       </c>
       <c r="B4753" t="n">
-        <v>9456428.016000001</v>
+        <v>2085867.28</v>
       </c>
     </row>
     <row r="4754">
       <c r="A4754" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="B4754" t="n">
-        <v>18527947.46</v>
+        <v>9456428.016000001</v>
       </c>
     </row>
     <row r="4755">
       <c r="A4755" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B4755" t="n">
-        <v>12722932.507</v>
+        <v>18527947.46</v>
       </c>
     </row>
     <row r="4756">
       <c r="A4756" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B4756" t="n">
-        <v>11938735.729</v>
+        <v>12722932.507</v>
       </c>
     </row>
     <row r="4757">
       <c r="A4757" t="inlineStr">
         <is>
-          <t>2020-03-19</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B4757" t="n">
-        <v>8271659.275</v>
+        <v>11938735.729</v>
       </c>
     </row>
     <row r="4758">
       <c r="A4758" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2020-03-19</t>
         </is>
       </c>
       <c r="B4758" t="n">
-        <v>9507766.615</v>
+        <v>8271659.275</v>
       </c>
     </row>
     <row r="4759">
       <c r="A4759" t="inlineStr">
         <is>
-          <t>2022-07-21</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="B4759" t="n">
-        <v>9809232.718</v>
+        <v>9507766.615</v>
       </c>
     </row>
     <row r="4760">
       <c r="A4760" t="inlineStr">
         <is>
-          <t>2023-03-11</t>
+          <t>2022-07-21</t>
         </is>
       </c>
       <c r="B4760" t="n">
-        <v>7126453.134</v>
+        <v>9809232.718</v>
       </c>
     </row>
     <row r="4761">
       <c r="A4761" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-11</t>
         </is>
       </c>
       <c r="B4761" t="n">
-        <v>7108260.131</v>
+        <v>7126453.134</v>
       </c>
     </row>
     <row r="4762">
       <c r="A4762" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="B4762" t="n">
-        <v>7299061.636</v>
+        <v>7108260.131</v>
       </c>
     </row>
     <row r="4763">
       <c r="A4763" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="B4763" t="n">
-        <v>6587399.075</v>
+        <v>7299061.636</v>
       </c>
     </row>
     <row r="4764">
       <c r="A4764" t="inlineStr">
         <is>
-          <t>2017-03-10</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="B4764" t="n">
-        <v>7995034.514</v>
+        <v>6587399.075</v>
       </c>
     </row>
     <row r="4765">
       <c r="A4765" t="inlineStr">
         <is>
-          <t>2014-09-29</t>
+          <t>2017-03-10</t>
         </is>
       </c>
       <c r="B4765" t="n">
-        <v>2634285.285</v>
+        <v>7995034.514</v>
       </c>
     </row>
     <row r="4766">
       <c r="A4766" t="inlineStr">
         <is>
-          <t>2012-05-05</t>
+          <t>2014-09-29</t>
         </is>
       </c>
       <c r="B4766" t="n">
-        <v>1212234.197</v>
+        <v>2634285.285</v>
       </c>
     </row>
     <row r="4767">
       <c r="A4767" t="inlineStr">
         <is>
-          <t>2012-10-25</t>
+          <t>2012-05-05</t>
         </is>
       </c>
       <c r="B4767" t="n">
-        <v>2136608.068</v>
+        <v>1212234.197</v>
       </c>
     </row>
     <row r="4768">
       <c r="A4768" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2012-10-25</t>
         </is>
       </c>
       <c r="B4768" t="n">
-        <v>9736790.387</v>
+        <v>2136608.068</v>
       </c>
     </row>
     <row r="4769">
       <c r="A4769" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2024-11-11</t>
         </is>
       </c>
       <c r="B4769" t="n">
-        <v>12729614.685</v>
+        <v>9736790.387</v>
       </c>
     </row>
     <row r="4770">
       <c r="A4770" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B4770" t="n">
-        <v>8288606.704</v>
+        <v>12729614.685</v>
       </c>
     </row>
     <row r="4771">
       <c r="A4771" t="inlineStr">
         <is>
-          <t>2023-03-09</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="B4771" t="n">
-        <v>7095491.394</v>
+        <v>8288606.704</v>
       </c>
     </row>
     <row r="4772">
       <c r="A4772" t="inlineStr">
         <is>
-          <t>2023-10-17</t>
+          <t>2023-03-09</t>
         </is>
       </c>
       <c r="B4772" t="n">
-        <v>6592549.217</v>
+        <v>7095491.394</v>
       </c>
     </row>
     <row r="4773">
       <c r="A4773" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2023-10-17</t>
         </is>
       </c>
       <c r="B4773" t="n">
-        <v>16727091.234</v>
+        <v>6592549.217</v>
       </c>
     </row>
     <row r="4774">
       <c r="A4774" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="B4774" t="n">
-        <v>10793064.387</v>
+        <v>16727091.234</v>
       </c>
     </row>
     <row r="4775">
       <c r="A4775" t="inlineStr">
         <is>
-          <t>2014-10-17</t>
+          <t>2024-09-11</t>
         </is>
       </c>
       <c r="B4775" t="n">
-        <v>3095461.912</v>
+        <v>10793064.387</v>
       </c>
     </row>
     <row r="4776">
       <c r="A4776" t="inlineStr">
         <is>
-          <t>2017-04-10</t>
+          <t>2014-10-17</t>
         </is>
       </c>
       <c r="B4776" t="n">
-        <v>8815333.573999999</v>
+        <v>3095461.912</v>
       </c>
     </row>
     <row r="4777">
       <c r="A4777" t="inlineStr">
         <is>
-          <t>2012-05-11</t>
+          <t>2017-04-10</t>
         </is>
       </c>
       <c r="B4777" t="n">
-        <v>1207434.772</v>
+        <v>8815333.573999999</v>
       </c>
     </row>
     <row r="4778">
       <c r="A4778" t="inlineStr">
         <is>
-          <t>2012-11-01</t>
+          <t>2012-05-11</t>
         </is>
       </c>
       <c r="B4778" t="n">
-        <v>2153510.57</v>
+        <v>1207434.772</v>
       </c>
     </row>
     <row r="4779">
       <c r="A4779" t="inlineStr">
         <is>
-          <t>2013-04-30</t>
+          <t>2012-11-01</t>
         </is>
       </c>
       <c r="B4779" t="n">
-        <v>5497657.863</v>
+        <v>2153510.57</v>
       </c>
     </row>
     <row r="4780">
       <c r="A4780" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2013-04-30</t>
         </is>
       </c>
       <c r="B4780" t="n">
-        <v>12673319.268</v>
+        <v>5497657.863</v>
       </c>
     </row>
     <row r="4781">
       <c r="A4781" t="inlineStr">
         <is>
-          <t>2020-04-16</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B4781" t="n">
-        <v>8018210.181</v>
+        <v>12673319.268</v>
       </c>
     </row>
     <row r="4782">
       <c r="A4782" t="inlineStr">
         <is>
-          <t>2023-05-03</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="B4782" t="n">
-        <v>7455548.867</v>
+        <v>8018210.181</v>
       </c>
     </row>
     <row r="4783">
       <c r="A4783" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2023-05-03</t>
         </is>
       </c>
       <c r="B4783" t="n">
-        <v>6872584.918</v>
+        <v>7455548.867</v>
       </c>
     </row>
     <row r="4784">
       <c r="A4784" t="inlineStr">
         <is>
-          <t>2014-01-30</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B4784" t="n">
-        <v>6114931.72</v>
+        <v>6872584.918</v>
       </c>
     </row>
     <row r="4785">
       <c r="A4785" t="inlineStr">
         <is>
-          <t>2017-05-04</t>
+          <t>2014-01-30</t>
         </is>
       </c>
       <c r="B4785" t="n">
-        <v>9298668.844000001</v>
+        <v>6114931.72</v>
       </c>
     </row>
     <row r="4786">
       <c r="A4786" t="inlineStr">
         <is>
-          <t>2014-11-06</t>
+          <t>2017-05-04</t>
         </is>
       </c>
       <c r="B4786" t="n">
-        <v>2879254.309</v>
+        <v>9298668.844000001</v>
       </c>
     </row>
     <row r="4787">
       <c r="A4787" t="inlineStr">
         <is>
-          <t>2012-05-12</t>
+          <t>2014-11-06</t>
         </is>
       </c>
       <c r="B4787" t="n">
-        <v>1276345.475</v>
+        <v>2879254.309</v>
       </c>
     </row>
     <row r="4788">
       <c r="A4788" t="inlineStr">
         <is>
-          <t>2012-11-07</t>
+          <t>2012-05-12</t>
         </is>
       </c>
       <c r="B4788" t="n">
-        <v>2128822.138</v>
+        <v>1276345.475</v>
       </c>
     </row>
     <row r="4789">
       <c r="A4789" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2012-11-07</t>
         </is>
       </c>
       <c r="B4789" t="n">
-        <v>18459379.883</v>
+        <v>2128822.138</v>
       </c>
     </row>
     <row r="4790">
       <c r="A4790" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B4790" t="n">
-        <v>18932006.014</v>
+        <v>18459379.883</v>
       </c>
     </row>
     <row r="4791">
       <c r="A4791" t="inlineStr">
         <is>
-          <t>2025-08-24</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B4791" t="n">
-        <v>17791123.577</v>
+        <v>18932006.014</v>
       </c>
     </row>
     <row r="4792">
       <c r="A4792" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="B4792" t="n">
-        <v>13312479.096</v>
+        <v>17791123.577</v>
       </c>
     </row>
     <row r="4793">
       <c r="A4793" t="inlineStr">
         <is>
-          <t>2017-05-22</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B4793" t="n">
-        <v>10578866.565</v>
+        <v>13312479.096</v>
       </c>
     </row>
     <row r="4794">
       <c r="A4794" t="inlineStr">
         <is>
-          <t>2020-04-26</t>
+          <t>2017-05-22</t>
         </is>
       </c>
       <c r="B4794" t="n">
-        <v>7916783.797</v>
+        <v>10578866.565</v>
       </c>
     </row>
     <row r="4795">
       <c r="A4795" t="inlineStr">
         <is>
-          <t>2022-07-23</t>
+          <t>2020-04-26</t>
         </is>
       </c>
       <c r="B4795" t="n">
-        <v>9903067.517999999</v>
+        <v>7916783.797</v>
       </c>
     </row>
     <row r="4796">
       <c r="A4796" t="inlineStr">
         <is>
-          <t>2023-06-17</t>
+          <t>2022-07-23</t>
         </is>
       </c>
       <c r="B4796" t="n">
-        <v>8373661.789</v>
+        <v>9903067.517999999</v>
       </c>
     </row>
     <row r="4797">
       <c r="A4797" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-06-17</t>
         </is>
       </c>
       <c r="B4797" t="n">
-        <v>7083228.662</v>
+        <v>8373661.789</v>
       </c>
     </row>
     <row r="4798">
       <c r="A4798" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="B4798" t="n">
-        <v>11310855.322</v>
+        <v>7083228.662</v>
       </c>
     </row>
     <row r="4799">
       <c r="A4799" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B4799" t="n">
-        <v>17541534.802</v>
+        <v>11310855.322</v>
       </c>
     </row>
     <row r="4800">
       <c r="A4800" t="inlineStr">
         <is>
-          <t>2014-11-11</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="B4800" t="n">
-        <v>3006774.921</v>
+        <v>17541534.802</v>
       </c>
     </row>
     <row r="4801">
       <c r="A4801" t="inlineStr">
         <is>
-          <t>2012-06-03</t>
+          <t>2014-11-11</t>
         </is>
       </c>
       <c r="B4801" t="n">
-        <v>1334918.742</v>
+        <v>3006774.921</v>
       </c>
     </row>
     <row r="4802">
       <c r="A4802" t="inlineStr">
         <is>
-          <t>2012-11-14</t>
+          <t>2012-06-03</t>
         </is>
       </c>
       <c r="B4802" t="n">
-        <v>2135938.421</v>
+        <v>1334918.742</v>
       </c>
     </row>
     <row r="4803">
       <c r="A4803" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2012-11-14</t>
         </is>
       </c>
       <c r="B4803" t="n">
-        <v>16732457.517</v>
+        <v>2135938.421</v>
       </c>
     </row>
     <row r="4804">
       <c r="A4804" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="B4804" t="n">
-        <v>10071130.987</v>
+        <v>16732457.517</v>
       </c>
     </row>
     <row r="4805">
       <c r="A4805" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="B4805" t="n">
-        <v>18126267.628</v>
+        <v>10071130.987</v>
       </c>
     </row>
     <row r="4806">
       <c r="A4806" t="inlineStr">
         <is>
-          <t>2017-06-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B4806" t="n">
-        <v>11573584.248</v>
+        <v>18126267.628</v>
       </c>
     </row>
     <row r="4807">
       <c r="A4807" t="inlineStr">
         <is>
-          <t>2020-05-08</t>
+          <t>2017-06-05</t>
         </is>
       </c>
       <c r="B4807" t="n">
-        <v>7257356.98</v>
+        <v>11573584.248</v>
       </c>
     </row>
     <row r="4808">
       <c r="A4808" t="inlineStr">
         <is>
-          <t>2023-07-05</t>
+          <t>2020-05-08</t>
         </is>
       </c>
       <c r="B4808" t="n">
-        <v>8042090.576</v>
+        <v>7257356.98</v>
       </c>
     </row>
     <row r="4809">
       <c r="A4809" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-07-05</t>
         </is>
       </c>
       <c r="B4809" t="n">
-        <v>7977963.589</v>
+        <v>8042090.576</v>
       </c>
     </row>
     <row r="4810">
       <c r="A4810" t="inlineStr">
         <is>
-          <t>2023-12-14</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="B4810" t="n">
-        <v>8445638.851</v>
+        <v>7977963.589</v>
       </c>
     </row>
     <row r="4811">
       <c r="A4811" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2023-12-14</t>
         </is>
       </c>
       <c r="B4811" t="n">
-        <v>15737013.492</v>
+        <v>8445638.851</v>
       </c>
     </row>
     <row r="4812">
       <c r="A4812" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="B4812" t="n">
-        <v>10155336.497</v>
+        <v>15737013.492</v>
       </c>
     </row>
     <row r="4813">
       <c r="A4813" t="inlineStr">
         <is>
-          <t>2014-12-06</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="B4813" t="n">
-        <v>3366909.88</v>
+        <v>10155336.497</v>
       </c>
     </row>
     <row r="4814">
       <c r="A4814" t="inlineStr">
         <is>
-          <t>2012-06-21</t>
+          <t>2014-12-06</t>
         </is>
       </c>
       <c r="B4814" t="n">
-        <v>1380434.39</v>
+        <v>3366909.88</v>
       </c>
     </row>
     <row r="4815">
       <c r="A4815" t="inlineStr">
         <is>
-          <t>2012-11-20</t>
+          <t>2012-06-21</t>
         </is>
       </c>
       <c r="B4815" t="n">
-        <v>1949847.285</v>
+        <v>1380434.39</v>
       </c>
     </row>
     <row r="4816">
       <c r="A4816" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2012-11-20</t>
         </is>
       </c>
       <c r="B4816" t="n">
-        <v>19176092.195</v>
+        <v>1949847.285</v>
       </c>
     </row>
     <row r="4817">
       <c r="A4817" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B4817" t="n">
-        <v>18902714.615</v>
+        <v>19176092.195</v>
       </c>
     </row>
     <row r="4818">
       <c r="A4818" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B4818" t="n">
-        <v>16504964.214</v>
+        <v>18902714.615</v>
       </c>
     </row>
     <row r="4819">
       <c r="A4819" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B4819" t="n">
-        <v>12057555.671</v>
+        <v>16504964.214</v>
       </c>
     </row>
     <row r="4820">
       <c r="A4820" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B4820" t="n">
-        <v>18601572.678</v>
+        <v>12057555.671</v>
       </c>
     </row>
     <row r="4821">
       <c r="A4821" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B4821" t="n">
-        <v>11393282.759</v>
+        <v>18601572.678</v>
       </c>
     </row>
     <row r="4822">
       <c r="A4822" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B4822" t="n">
-        <v>18263481.818</v>
+        <v>11393282.759</v>
       </c>
     </row>
     <row r="4823">
       <c r="A4823" t="inlineStr">
         <is>
-          <t>2017-06-22</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B4823" t="n">
-        <v>12272100.738</v>
+        <v>18263481.818</v>
       </c>
     </row>
     <row r="4824">
       <c r="A4824" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2017-06-22</t>
         </is>
       </c>
       <c r="B4824" t="n">
-        <v>6940094.184</v>
+        <v>12272100.738</v>
       </c>
     </row>
     <row r="4825">
       <c r="A4825" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="B4825" t="n">
-        <v>7978148.013</v>
+        <v>6940094.184</v>
       </c>
     </row>
     <row r="4826">
       <c r="A4826" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2023-07-13</t>
         </is>
       </c>
       <c r="B4826" t="n">
-        <v>10334944.759</v>
+        <v>7978148.013</v>
       </c>
     </row>
     <row r="4827">
       <c r="A4827" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="B4827" t="n">
-        <v>11743400.645</v>
+        <v>10334944.759</v>
       </c>
     </row>
     <row r="4828">
       <c r="A4828" t="inlineStr">
         <is>
-          <t>2014-12-21</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B4828" t="n">
-        <v>3568148.31</v>
+        <v>11743400.645</v>
       </c>
     </row>
     <row r="4829">
       <c r="A4829" t="inlineStr">
         <is>
-          <t>2012-07-12</t>
+          <t>2014-12-21</t>
         </is>
       </c>
       <c r="B4829" t="n">
-        <v>1445168.381</v>
+        <v>3568148.31</v>
       </c>
     </row>
     <row r="4830">
       <c r="A4830" t="inlineStr">
         <is>
-          <t>2012-11-28</t>
+          <t>2012-07-12</t>
         </is>
       </c>
       <c r="B4830" t="n">
-        <v>1915604.786</v>
+        <v>1445168.381</v>
       </c>
     </row>
     <row r="4831">
       <c r="A4831" t="inlineStr">
         <is>
-          <t>2013-05-17</t>
+          <t>2012-11-28</t>
         </is>
       </c>
       <c r="B4831" t="n">
-        <v>5084157.35</v>
+        <v>1915604.786</v>
       </c>
     </row>
     <row r="4832">
       <c r="A4832" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2013-05-17</t>
         </is>
       </c>
       <c r="B4832" t="n">
-        <v>12602780.311</v>
+        <v>5084157.35</v>
       </c>
     </row>
     <row r="4833">
       <c r="A4833" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="B4833" t="n">
-        <v>18009208.082</v>
+        <v>12602780.311</v>
       </c>
     </row>
     <row r="4834">
       <c r="A4834" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B4834" t="n">
-        <v>13706271.631</v>
+        <v>18009208.082</v>
       </c>
     </row>
     <row r="4835">
       <c r="A4835" t="inlineStr">
         <is>
-          <t>2017-07-10</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B4835" t="n">
-        <v>12163382.696</v>
+        <v>13706271.631</v>
       </c>
     </row>
     <row r="4836">
       <c r="A4836" t="inlineStr">
         <is>
-          <t>2020-06-05</t>
+          <t>2017-07-10</t>
         </is>
       </c>
       <c r="B4836" t="n">
-        <v>6717066.848</v>
+        <v>12163382.696</v>
       </c>
     </row>
     <row r="4837">
       <c r="A4837" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2020-06-05</t>
         </is>
       </c>
       <c r="B4837" t="n">
-        <v>8025625.18</v>
+        <v>6717066.848</v>
       </c>
     </row>
     <row r="4838">
       <c r="A4838" t="inlineStr">
         <is>
-          <t>2024-01-07</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="B4838" t="n">
-        <v>10260081.547</v>
+        <v>8025625.18</v>
       </c>
     </row>
     <row r="4839">
       <c r="A4839" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-01-07</t>
         </is>
       </c>
       <c r="B4839" t="n">
-        <v>15054523.106</v>
+        <v>10260081.547</v>
       </c>
     </row>
     <row r="4840">
       <c r="A4840" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="B4840" t="n">
-        <v>19778813.536</v>
+        <v>15054523.106</v>
       </c>
     </row>
     <row r="4841">
       <c r="A4841" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="B4841" t="n">
-        <v>15807832.072</v>
+        <v>19778813.536</v>
       </c>
     </row>
     <row r="4842">
       <c r="A4842" t="inlineStr">
         <is>
-          <t>2015-01-07</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="B4842" t="n">
-        <v>3769144.092</v>
+        <v>15807832.072</v>
       </c>
     </row>
     <row r="4843">
       <c r="A4843" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2015-01-07</t>
         </is>
       </c>
       <c r="B4843" t="n">
-        <v>14153820.75</v>
+        <v>3769144.092</v>
       </c>
     </row>
     <row r="4844">
       <c r="A4844" t="inlineStr">
         <is>
-          <t>2012-08-01</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B4844" t="n">
-        <v>1583802.107</v>
+        <v>14153820.75</v>
       </c>
     </row>
     <row r="4845">
       <c r="A4845" t="inlineStr">
         <is>
-          <t>2012-12-04</t>
+          <t>2012-08-01</t>
         </is>
       </c>
       <c r="B4845" t="n">
-        <v>1957072.203</v>
+        <v>1583802.107</v>
       </c>
     </row>
     <row r="4846">
       <c r="A4846" t="inlineStr">
         <is>
-          <t>2013-05-03</t>
+          <t>2012-12-04</t>
         </is>
       </c>
       <c r="B4846" t="n">
-        <v>5379393.252</v>
+        <v>1957072.203</v>
       </c>
     </row>
     <row r="4847">
       <c r="A4847" t="inlineStr">
         <is>
-          <t>2013-05-19</t>
+          <t>2013-05-03</t>
         </is>
       </c>
       <c r="B4847" t="n">
-        <v>5064998.563</v>
+        <v>5379393.252</v>
       </c>
     </row>
     <row r="4848">
       <c r="A4848" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2013-05-19</t>
         </is>
       </c>
       <c r="B4848" t="n">
-        <v>13373154.572</v>
+        <v>5064998.563</v>
       </c>
     </row>
     <row r="4849">
       <c r="A4849" t="inlineStr">
         <is>
-          <t>2017-08-17</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="B4849" t="n">
-        <v>19610114.074</v>
+        <v>13373154.572</v>
       </c>
     </row>
     <row r="4850">
       <c r="A4850" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2017-08-17</t>
         </is>
       </c>
       <c r="B4850" t="n">
-        <v>5653018.264</v>
+        <v>19610114.074</v>
       </c>
     </row>
     <row r="4851">
       <c r="A4851" t="inlineStr">
         <is>
-          <t>2022-01-12</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="B4851" t="n">
-        <v>9429782.348999999</v>
+        <v>5653018.264</v>
       </c>
     </row>
     <row r="4852">
       <c r="A4852" t="inlineStr">
         <is>
-          <t>2023-07-31</t>
+          <t>2022-01-12</t>
         </is>
       </c>
       <c r="B4852" t="n">
-        <v>8847168.232000001</v>
+        <v>9429782.348999999</v>
       </c>
     </row>
     <row r="4853">
       <c r="A4853" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="B4853" t="n">
-        <v>12254468.78</v>
+        <v>8847168.232000001</v>
       </c>
     </row>
     <row r="4854">
       <c r="A4854" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="B4854" t="n">
-        <v>11222124.303</v>
+        <v>12254468.78</v>
       </c>
     </row>
     <row r="4855">
       <c r="A4855" t="inlineStr">
         <is>
-          <t>2015-01-10</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="B4855" t="n">
-        <v>3837422.392</v>
+        <v>11222124.303</v>
       </c>
     </row>
     <row r="4856">
       <c r="A4856" t="inlineStr">
         <is>
-          <t>2012-08-20</t>
+          <t>2015-01-10</t>
         </is>
       </c>
       <c r="B4856" t="n">
-        <v>1727157.694</v>
+        <v>3837422.392</v>
       </c>
     </row>
     <row r="4857">
       <c r="A4857" t="inlineStr">
         <is>
-          <t>2012-12-11</t>
+          <t>2012-08-20</t>
         </is>
       </c>
       <c r="B4857" t="n">
-        <v>1939190.261</v>
+        <v>1727157.694</v>
       </c>
     </row>
     <row r="4858">
       <c r="A4858" t="inlineStr">
         <is>
-          <t>2017-08-27</t>
+          <t>2012-12-11</t>
         </is>
       </c>
       <c r="B4858" t="n">
-        <v>19440418.088</v>
+        <v>1939190.261</v>
       </c>
     </row>
     <row r="4859">
       <c r="A4859" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2017-08-27</t>
         </is>
       </c>
       <c r="B4859" t="n">
-        <v>5853548.802</v>
+        <v>19440418.088</v>
       </c>
     </row>
     <row r="4860">
       <c r="A4860" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="B4860" t="n">
-        <v>8404561.468</v>
+        <v>5853548.802</v>
       </c>
     </row>
     <row r="4861">
       <c r="A4861" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="B4861" t="n">
-        <v>13043079.95</v>
+        <v>8404561.468</v>
       </c>
     </row>
     <row r="4862">
       <c r="A4862" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="B4862" t="n">
-        <v>15732205.442</v>
+        <v>13043079.95</v>
       </c>
     </row>
     <row r="4863">
       <c r="A4863" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="B4863" t="n">
-        <v>10079264.693</v>
+        <v>15732205.442</v>
       </c>
     </row>
     <row r="4864">
       <c r="A4864" t="inlineStr">
         <is>
-          <t>2013-11-30</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B4864" t="n">
-        <v>5487103.992</v>
+        <v>10079264.693</v>
       </c>
     </row>
     <row r="4865">
       <c r="A4865" t="inlineStr">
         <is>
-          <t>2015-02-03</t>
+          <t>2013-11-30</t>
         </is>
       </c>
       <c r="B4865" t="n">
-        <v>4216822.155</v>
+        <v>5487103.992</v>
       </c>
     </row>
     <row r="4866">
       <c r="A4866" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2015-02-03</t>
         </is>
       </c>
       <c r="B4866" t="n">
-        <v>20059418.345</v>
+        <v>4216822.155</v>
       </c>
     </row>
     <row r="4867">
       <c r="A4867" t="inlineStr">
         <is>
-          <t>2012-09-05</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B4867" t="n">
-        <v>1858681.499</v>
+        <v>20059418.345</v>
       </c>
     </row>
     <row r="4868">
       <c r="A4868" t="inlineStr">
         <is>
-          <t>2012-12-17</t>
+          <t>2012-09-05</t>
         </is>
       </c>
       <c r="B4868" t="n">
-        <v>1937667.056</v>
+        <v>1858681.499</v>
       </c>
     </row>
     <row r="4869">
       <c r="A4869" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2012-12-17</t>
         </is>
       </c>
       <c r="B4869" t="n">
-        <v>19888945.755</v>
+        <v>1937667.056</v>
       </c>
     </row>
     <row r="4870">
       <c r="A4870" t="inlineStr">
         <is>
-          <t>2017-09-12</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="B4870" t="n">
-        <v>18286897.272</v>
+        <v>19888945.755</v>
       </c>
     </row>
     <row r="4871">
       <c r="A4871" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>2017-09-12</t>
         </is>
       </c>
       <c r="B4871" t="n">
-        <v>6098695.482</v>
+        <v>18286897.272</v>
       </c>
     </row>
     <row r="4872">
       <c r="A4872" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="B4872" t="n">
-        <v>7982545.503</v>
+        <v>6098695.482</v>
       </c>
     </row>
     <row r="4873">
       <c r="A4873" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="B4873" t="n">
-        <v>16254770.186</v>
+        <v>7982545.503</v>
       </c>
     </row>
     <row r="4874">
       <c r="A4874" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="B4874" t="n">
-        <v>15736124.913</v>
+        <v>16254770.186</v>
       </c>
     </row>
     <row r="4875">
       <c r="A4875" t="inlineStr">
         <is>
-          <t>2015-02-13</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="B4875" t="n">
-        <v>4046633.271</v>
+        <v>15736124.913</v>
       </c>
     </row>
     <row r="4876">
       <c r="A4876" t="inlineStr">
         <is>
-          <t>2016-04-18</t>
+          <t>2015-02-13</t>
         </is>
       </c>
       <c r="B4876" t="n">
-        <v>6144643.58</v>
+        <v>4046633.271</v>
       </c>
     </row>
     <row r="4877">
       <c r="A4877" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2016-04-18</t>
         </is>
       </c>
       <c r="B4877" t="n">
-        <v>12991619.239</v>
+        <v>6144643.58</v>
       </c>
     </row>
     <row r="4878">
       <c r="A4878" t="inlineStr">
         <is>
-          <t>2011-05-02</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B4878" t="n">
-        <v>547275.5110000001</v>
+        <v>12991619.239</v>
       </c>
     </row>
     <row r="4879">
       <c r="A4879" t="inlineStr">
         <is>
-          <t>2012-09-10</t>
+          <t>2011-05-02</t>
         </is>
       </c>
       <c r="B4879" t="n">
-        <v>1976750.746</v>
+        <v>547275.5110000001</v>
       </c>
     </row>
     <row r="4880">
       <c r="A4880" t="inlineStr">
         <is>
-          <t>2012-12-24</t>
+          <t>2012-09-10</t>
         </is>
       </c>
       <c r="B4880" t="n">
-        <v>1884935.165</v>
+        <v>1976750.746</v>
       </c>
     </row>
     <row r="4881">
       <c r="A4881" t="inlineStr">
         <is>
-          <t>2017-09-29</t>
+          <t>2012-12-24</t>
         </is>
       </c>
       <c r="B4881" t="n">
-        <v>18839685.673</v>
+        <v>1884935.165</v>
       </c>
     </row>
     <row r="4882">
       <c r="A4882" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2017-09-29</t>
         </is>
       </c>
       <c r="B4882" t="n">
-        <v>6512862.956</v>
+        <v>18839685.673</v>
       </c>
     </row>
     <row r="4883">
       <c r="A4883" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="B4883" t="n">
-        <v>10040744.36</v>
+        <v>6512862.956</v>
       </c>
     </row>
     <row r="4884">
       <c r="A4884" t="inlineStr">
         <is>
-          <t>2023-03-16</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="B4884" t="n">
-        <v>7199162.719</v>
+        <v>10040744.36</v>
       </c>
     </row>
     <row r="4885">
       <c r="A4885" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-03-16</t>
         </is>
       </c>
       <c r="B4885" t="n">
-        <v>7795415.295</v>
+        <v>7199162.719</v>
       </c>
     </row>
     <row r="4886">
       <c r="A4886" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="B4886" t="n">
-        <v>16404541.597</v>
+        <v>7795415.295</v>
       </c>
     </row>
     <row r="4887">
       <c r="A4887" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="B4887" t="n">
-        <v>13180955.134</v>
+        <v>16404541.597</v>
       </c>
     </row>
     <row r="4888">
       <c r="A4888" t="inlineStr">
         <is>
-          <t>2015-02-27</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B4888" t="n">
-        <v>3825679.24</v>
+        <v>13180955.134</v>
       </c>
     </row>
     <row r="4889">
       <c r="A4889" t="inlineStr">
         <is>
-          <t>2012-09-29</t>
+          <t>2015-02-27</t>
         </is>
       </c>
       <c r="B4889" t="n">
-        <v>2184625.519</v>
+        <v>3825679.24</v>
       </c>
     </row>
     <row r="4890">
       <c r="A4890" t="inlineStr">
         <is>
-          <t>2012-12-30</t>
+          <t>2012-09-29</t>
         </is>
       </c>
       <c r="B4890" t="n">
-        <v>1815709.108</v>
+        <v>2184625.519</v>
       </c>
     </row>
     <row r="4891">
       <c r="A4891" t="inlineStr">
         <is>
-          <t>2017-09-30</t>
+          <t>2012-12-30</t>
         </is>
       </c>
       <c r="B4891" t="n">
-        <v>18888154.264</v>
+        <v>1815709.108</v>
       </c>
     </row>
     <row r="4892">
       <c r="A4892" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2017-09-30</t>
         </is>
       </c>
       <c r="B4892" t="n">
-        <v>6624368.808</v>
+        <v>18888154.264</v>
       </c>
     </row>
     <row r="4893">
       <c r="A4893" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="B4893" t="n">
-        <v>7370614.503</v>
+        <v>6624368.808</v>
       </c>
     </row>
     <row r="4894">
       <c r="A4894" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="B4894" t="n">
-        <v>19840596.87</v>
+        <v>7370614.503</v>
       </c>
     </row>
     <row r="4895">
       <c r="A4895" t="inlineStr">
         <is>
-          <t>2013-06-04</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="B4895" t="n">
-        <v>4578468.342</v>
+        <v>19840596.87</v>
       </c>
     </row>
     <row r="4896">
       <c r="A4896" t="inlineStr">
         <is>
-          <t>2015-03-16</t>
+          <t>2013-06-04</t>
         </is>
       </c>
       <c r="B4896" t="n">
-        <v>4139429.838</v>
+        <v>4578468.342</v>
       </c>
     </row>
     <row r="4897">
       <c r="A4897" t="inlineStr">
         <is>
-          <t>2012-10-17</t>
+          <t>2015-03-16</t>
         </is>
       </c>
       <c r="B4897" t="n">
-        <v>2082000.236</v>
+        <v>4139429.838</v>
       </c>
     </row>
     <row r="4898">
       <c r="A4898" t="inlineStr">
         <is>
-          <t>2013-02-11</t>
+          <t>2012-10-17</t>
         </is>
       </c>
       <c r="B4898" t="n">
-        <v>2516299.136</v>
+        <v>2082000.236</v>
       </c>
     </row>
     <row r="4899">
       <c r="A4899" t="inlineStr">
         <is>
-          <t>2017-11-09</t>
+          <t>2013-02-11</t>
         </is>
       </c>
       <c r="B4899" t="n">
-        <v>13803591.086</v>
+        <v>2516299.136</v>
       </c>
     </row>
     <row r="4900">
       <c r="A4900" t="inlineStr">
         <is>
-          <t>2020-08-19</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="B4900" t="n">
-        <v>6747877.276</v>
+        <v>13803591.086</v>
       </c>
     </row>
     <row r="4901">
       <c r="A4901" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2020-08-19</t>
         </is>
       </c>
       <c r="B4901" t="n">
-        <v>6847142.251</v>
+        <v>6747877.276</v>
       </c>
     </row>
     <row r="4902">
       <c r="A4902" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="B4902" t="n">
-        <v>19817395.793</v>
+        <v>6847142.251</v>
       </c>
     </row>
     <row r="4903">
       <c r="A4903" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="B4903" t="n">
-        <v>18020855.515</v>
+        <v>19817395.793</v>
       </c>
     </row>
     <row r="4904">
       <c r="A4904" t="inlineStr">
         <is>
-          <t>2015-03-23</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B4904" t="n">
-        <v>4132329.348</v>
+        <v>18020855.515</v>
       </c>
     </row>
     <row r="4905">
       <c r="A4905" t="inlineStr">
         <is>
-          <t>2016-04-10</t>
+          <t>2015-03-23</t>
         </is>
       </c>
       <c r="B4905" t="n">
-        <v>6289683.85</v>
+        <v>4132329.348</v>
       </c>
     </row>
     <row r="4906">
       <c r="A4906" t="inlineStr">
         <is>
-          <t>2012-11-08</t>
+          <t>2016-04-10</t>
         </is>
       </c>
       <c r="B4906" t="n">
-        <v>2123397.986</v>
+        <v>6289683.85</v>
       </c>
     </row>
     <row r="4907">
       <c r="A4907" t="inlineStr">
         <is>
-          <t>2013-03-01</t>
+          <t>2012-11-08</t>
         </is>
       </c>
       <c r="B4907" t="n">
-        <v>3147145.888</v>
+        <v>2123397.986</v>
       </c>
     </row>
     <row r="4908">
       <c r="A4908" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2013-03-01</t>
         </is>
       </c>
       <c r="B4908" t="n">
-        <v>20400661.749</v>
+        <v>3147145.888</v>
       </c>
     </row>
     <row r="4909">
       <c r="A4909" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="B4909" t="n">
-        <v>9875068.106000001</v>
+        <v>20400661.749</v>
       </c>
     </row>
     <row r="4910">
       <c r="A4910" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="B4910" t="n">
-        <v>9193966.23</v>
+        <v>9875068.106000001</v>
       </c>
     </row>
     <row r="4911">
       <c r="A4911" t="inlineStr">
         <is>
-          <t>2017-11-26</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="B4911" t="n">
-        <v>15781629.68</v>
+        <v>9193966.23</v>
       </c>
     </row>
     <row r="4912">
       <c r="A4912" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
+          <t>2017-11-26</t>
         </is>
       </c>
       <c r="B4912" t="n">
-        <v>6876141.449</v>
+        <v>15781629.68</v>
       </c>
     </row>
     <row r="4913">
       <c r="A4913" t="inlineStr">
         <is>
-          <t>2021-11-21</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="B4913" t="n">
-        <v>9263341.755000001</v>
+        <v>6876141.449</v>
       </c>
     </row>
     <row r="4914">
       <c r="A4914" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2021-11-21</t>
         </is>
       </c>
       <c r="B4914" t="n">
-        <v>6352507.324</v>
+        <v>9263341.755000001</v>
       </c>
     </row>
     <row r="4915">
       <c r="A4915" t="inlineStr">
         <is>
-          <t>2024-04-21</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="B4915" t="n">
-        <v>18534074.954</v>
+        <v>6352507.324</v>
       </c>
     </row>
     <row r="4916">
       <c r="A4916" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-04-21</t>
         </is>
       </c>
       <c r="B4916" t="n">
-        <v>15459847.995</v>
+        <v>18534074.954</v>
       </c>
     </row>
     <row r="4917">
       <c r="A4917" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="B4917" t="n">
-        <v>11123186.066</v>
+        <v>15459847.995</v>
       </c>
     </row>
     <row r="4918">
       <c r="A4918" t="inlineStr">
         <is>
-          <t>2015-04-10</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B4918" t="n">
-        <v>3645607.576</v>
+        <v>11123186.066</v>
       </c>
     </row>
     <row r="4919">
       <c r="A4919" t="inlineStr">
         <is>
-          <t>2012-12-05</t>
+          <t>2015-04-10</t>
         </is>
       </c>
       <c r="B4919" t="n">
-        <v>1962454.249</v>
+        <v>3645607.576</v>
       </c>
     </row>
     <row r="4920">
       <c r="A4920" t="inlineStr">
         <is>
-          <t>2013-03-13</t>
+          <t>2012-12-05</t>
         </is>
       </c>
       <c r="B4920" t="n">
-        <v>3305281.64</v>
+        <v>1962454.249</v>
       </c>
     </row>
     <row r="4921">
       <c r="A4921" t="inlineStr">
         <is>
-          <t>2017-12-15</t>
+          <t>2013-03-13</t>
         </is>
       </c>
       <c r="B4921" t="n">
-        <v>17248776.207</v>
+        <v>3305281.64</v>
       </c>
     </row>
     <row r="4922">
       <c r="A4922" t="inlineStr">
         <is>
-          <t>2020-09-02</t>
+          <t>2017-12-15</t>
         </is>
       </c>
       <c r="B4922" t="n">
-        <v>6889646.764</v>
+        <v>17248776.207</v>
       </c>
     </row>
     <row r="4923">
       <c r="A4923" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="B4923" t="n">
-        <v>8157662.803</v>
+        <v>6889646.764</v>
       </c>
     </row>
     <row r="4924">
       <c r="A4924" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="B4924" t="n">
-        <v>9027679.793</v>
+        <v>8157662.803</v>
       </c>
     </row>
     <row r="4925">
       <c r="A4925" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="B4925" t="n">
-        <v>6008052.168</v>
+        <v>9027679.793</v>
       </c>
     </row>
     <row r="4926">
       <c r="A4926" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-09-28</t>
         </is>
       </c>
       <c r="B4926" t="n">
-        <v>10466814.972</v>
+        <v>6008052.168</v>
       </c>
     </row>
     <row r="4927">
       <c r="A4927" t="inlineStr">
         <is>
-          <t>2023-02-11</t>
+          <t>2022-12-09</t>
         </is>
       </c>
       <c r="B4927" t="n">
-        <v>9512207.699999999</v>
+        <v>10466814.972</v>
       </c>
     </row>
     <row r="4928">
       <c r="A4928" t="inlineStr">
         <is>
-          <t>2023-03-12</t>
+          <t>2023-02-11</t>
         </is>
       </c>
       <c r="B4928" t="n">
-        <v>7103905.636</v>
+        <v>9512207.699999999</v>
       </c>
     </row>
     <row r="4929">
       <c r="A4929" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-03-12</t>
         </is>
       </c>
       <c r="B4929" t="n">
-        <v>8134887.795</v>
+        <v>7103905.636</v>
       </c>
     </row>
     <row r="4930">
       <c r="A4930" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="B4930" t="n">
-        <v>6605806.716</v>
+        <v>8134887.795</v>
       </c>
     </row>
     <row r="4931">
       <c r="A4931" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B4931" t="n">
-        <v>17208008.89</v>
+        <v>6605806.716</v>
       </c>
     </row>
     <row r="4932">
       <c r="A4932" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="B4932" t="n">
-        <v>14504226.874</v>
+        <v>17208008.89</v>
       </c>
     </row>
     <row r="4933">
       <c r="A4933" t="inlineStr">
         <is>
-          <t>2015-04-27</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B4933" t="n">
-        <v>3258623.998</v>
+        <v>14504226.874</v>
       </c>
     </row>
     <row r="4934">
       <c r="A4934" t="inlineStr">
         <is>
-          <t>2012-12-23</t>
+          <t>2015-04-27</t>
         </is>
       </c>
       <c r="B4934" t="n">
-        <v>1899621.694</v>
+        <v>3258623.998</v>
       </c>
     </row>
     <row r="4935">
       <c r="A4935" t="inlineStr">
         <is>
-          <t>2013-04-26</t>
+          <t>2012-12-23</t>
         </is>
       </c>
       <c r="B4935" t="n">
-        <v>5662798.756</v>
+        <v>1899621.694</v>
       </c>
     </row>
     <row r="4936">
       <c r="A4936" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2013-04-26</t>
         </is>
       </c>
       <c r="B4936" t="n">
-        <v>18389579.978</v>
+        <v>5662798.756</v>
       </c>
     </row>
     <row r="4937">
       <c r="A4937" t="inlineStr">
         <is>
-          <t>2017-12-28</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B4937" t="n">
-        <v>17615180.51</v>
+        <v>18389579.978</v>
       </c>
     </row>
     <row r="4938">
       <c r="A4938" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>2017-12-28</t>
         </is>
       </c>
       <c r="B4938" t="n">
-        <v>7140009.28</v>
+        <v>17615180.51</v>
       </c>
     </row>
     <row r="4939">
       <c r="A4939" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="B4939" t="n">
-        <v>6311486.07</v>
+        <v>7140009.28</v>
       </c>
     </row>
     <row r="4940">
       <c r="A4940" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2023-10-26</t>
         </is>
       </c>
       <c r="B4940" t="n">
-        <v>21647135.032</v>
+        <v>6311486.07</v>
       </c>
     </row>
     <row r="4941">
       <c r="A4941" t="inlineStr">
         <is>
-          <t>2013-07-21</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="B4941" t="n">
-        <v>2401238.474</v>
+        <v>21647135.032</v>
       </c>
     </row>
     <row r="4942">
       <c r="A4942" t="inlineStr">
         <is>
-          <t>2015-05-01</t>
+          <t>2013-07-21</t>
         </is>
       </c>
       <c r="B4942" t="n">
-        <v>3248006.045</v>
+        <v>2401238.474</v>
       </c>
     </row>
     <row r="4943">
       <c r="A4943" t="inlineStr">
         <is>
-          <t>2013-01-02</t>
+          <t>2015-05-01</t>
         </is>
       </c>
       <c r="B4943" t="n">
-        <v>1827277.216</v>
+        <v>3248006.045</v>
       </c>
     </row>
     <row r="4944">
       <c r="A4944" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2013-01-02</t>
         </is>
       </c>
       <c r="B4944" t="n">
-        <v>9270561.718</v>
+        <v>1827277.216</v>
       </c>
     </row>
     <row r="4945">
       <c r="A4945" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="B4945" t="n">
-        <v>14713290.066</v>
+        <v>9270561.718</v>
       </c>
     </row>
     <row r="4946">
       <c r="A4946" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B4946" t="n">
-        <v>12633844.31</v>
+        <v>14713290.066</v>
       </c>
     </row>
     <row r="4947">
       <c r="A4947" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="B4947" t="n">
-        <v>14392379.583</v>
+        <v>12633844.31</v>
       </c>
     </row>
     <row r="4948">
       <c r="A4948" t="inlineStr">
         <is>
-          <t>2018-01-02</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B4948" t="n">
-        <v>17982694.401</v>
+        <v>14392379.583</v>
       </c>
     </row>
     <row r="4949">
       <c r="A4949" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2018-01-02</t>
         </is>
       </c>
       <c r="B4949" t="n">
-        <v>7514888.09</v>
+        <v>17982694.401</v>
       </c>
     </row>
     <row r="4950">
       <c r="A4950" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="B4950" t="n">
-        <v>6817299.489</v>
+        <v>7514888.09</v>
       </c>
     </row>
     <row r="4951">
       <c r="A4951" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="B4951" t="n">
-        <v>17664296.466</v>
+        <v>6817299.489</v>
       </c>
     </row>
     <row r="4952">
       <c r="A4952" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="B4952" t="n">
-        <v>16241686.46</v>
+        <v>17664296.466</v>
       </c>
     </row>
     <row r="4953">
       <c r="A4953" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="B4953" t="n">
-        <v>16703777.294</v>
+        <v>16241686.46</v>
       </c>
     </row>
     <row r="4954">
       <c r="A4954" t="inlineStr">
         <is>
-          <t>2013-07-27</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="B4954" t="n">
-        <v>2230083.986</v>
+        <v>16703777.294</v>
       </c>
     </row>
     <row r="4955">
       <c r="A4955" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2013-07-27</t>
         </is>
       </c>
       <c r="B4955" t="n">
-        <v>10134422.693</v>
+        <v>2230083.986</v>
       </c>
     </row>
     <row r="4956">
       <c r="A4956" t="inlineStr">
         <is>
-          <t>2015-05-17</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B4956" t="n">
-        <v>3198372.64</v>
+        <v>10134422.693</v>
       </c>
     </row>
     <row r="4957">
       <c r="A4957" t="inlineStr">
         <is>
-          <t>2013-01-11</t>
+          <t>2015-05-17</t>
         </is>
       </c>
       <c r="B4957" t="n">
-        <v>1846369.453</v>
+        <v>3198372.64</v>
       </c>
     </row>
     <row r="4958">
       <c r="A4958" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2013-01-11</t>
         </is>
       </c>
       <c r="B4958" t="n">
-        <v>19066275.837</v>
+        <v>1846369.453</v>
       </c>
     </row>
     <row r="4959">
       <c r="A4959" t="inlineStr">
         <is>
-          <t>2025-08-17</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="B4959" t="n">
-        <v>18263584.952</v>
+        <v>19066275.837</v>
       </c>
     </row>
     <row r="4960">
       <c r="A4960" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B4960" t="n">
-        <v>9314345.433</v>
+        <v>18263584.952</v>
       </c>
     </row>
     <row r="4961">
       <c r="A4961" t="inlineStr">
         <is>
-          <t>2018-02-08</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="B4961" t="n">
-        <v>18158241.72</v>
+        <v>9314345.433</v>
       </c>
     </row>
     <row r="4962">
       <c r="A4962" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>2018-02-08</t>
         </is>
       </c>
       <c r="B4962" t="n">
-        <v>11360312.667</v>
+        <v>18158241.72</v>
       </c>
     </row>
     <row r="4963">
       <c r="A4963" t="inlineStr">
         <is>
-          <t>2023-11-14</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="B4963" t="n">
-        <v>7028591.115</v>
+        <v>11360312.667</v>
       </c>
     </row>
     <row r="4964">
       <c r="A4964" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="B4964" t="n">
-        <v>17197990.83</v>
+        <v>7028591.115</v>
       </c>
     </row>
     <row r="4965">
       <c r="A4965" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="B4965" t="n">
-        <v>17268706.198</v>
+        <v>17197990.83</v>
       </c>
     </row>
     <row r="4966">
       <c r="A4966" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="B4966" t="n">
-        <v>11414106.357</v>
+        <v>17268706.198</v>
       </c>
     </row>
     <row r="4967">
       <c r="A4967" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B4967" t="n">
-        <v>18706071.644</v>
+        <v>11414106.357</v>
       </c>
     </row>
     <row r="4968">
       <c r="A4968" t="inlineStr">
         <is>
-          <t>2013-08-03</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="B4968" t="n">
-        <v>2313884.342</v>
+        <v>18706071.644</v>
       </c>
     </row>
     <row r="4969">
       <c r="A4969" t="inlineStr">
         <is>
-          <t>2015-06-10</t>
+          <t>2013-08-03</t>
         </is>
       </c>
       <c r="B4969" t="n">
-        <v>2370221.996</v>
+        <v>2313884.342</v>
       </c>
     </row>
     <row r="4970">
       <c r="A4970" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2015-06-10</t>
         </is>
       </c>
       <c r="B4970" t="n">
-        <v>10942825.102</v>
+        <v>2370221.996</v>
       </c>
     </row>
     <row r="4971">
       <c r="A4971" t="inlineStr">
         <is>
-          <t>2013-01-26</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B4971" t="n">
-        <v>1899111.02</v>
+        <v>10942825.102</v>
       </c>
     </row>
     <row r="4972">
       <c r="A4972" t="inlineStr">
         <is>
-          <t>2018-04-02</t>
+          <t>2013-01-26</t>
         </is>
       </c>
       <c r="B4972" t="n">
-        <v>9893037.857000001</v>
+        <v>1899111.02</v>
       </c>
     </row>
     <row r="4973">
       <c r="A4973" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2018-04-02</t>
         </is>
       </c>
       <c r="B4973" t="n">
-        <v>12964564.24</v>
+        <v>9893037.857000001</v>
       </c>
     </row>
     <row r="4974">
       <c r="A4974" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2020-11-29</t>
         </is>
       </c>
       <c r="B4974" t="n">
-        <v>7255143.779</v>
+        <v>12964564.24</v>
       </c>
     </row>
     <row r="4975">
       <c r="A4975" t="inlineStr">
         <is>
-          <t>2013-08-09</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="B4975" t="n">
-        <v>2282151.25</v>
+        <v>7255143.779</v>
       </c>
     </row>
     <row r="4976">
       <c r="A4976" t="inlineStr">
         <is>
-          <t>2015-06-28</t>
+          <t>2013-08-09</t>
         </is>
       </c>
       <c r="B4976" t="n">
-        <v>2594483.55</v>
+        <v>2282151.25</v>
       </c>
     </row>
     <row r="4977">
       <c r="A4977" t="inlineStr">
         <is>
-          <t>2010-11-16</t>
+          <t>2015-06-28</t>
         </is>
       </c>
       <c r="B4977" t="n">
-        <v>304020.338</v>
+        <v>2594483.55</v>
       </c>
     </row>
     <row r="4978">
       <c r="A4978" t="inlineStr">
         <is>
-          <t>2013-02-12</t>
+          <t>2010-11-16</t>
         </is>
       </c>
       <c r="B4978" t="n">
-        <v>2529625.788</v>
+        <v>304020.338</v>
       </c>
     </row>
     <row r="4979">
       <c r="A4979" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2013-02-12</t>
         </is>
       </c>
       <c r="B4979" t="n">
-        <v>14616694.16</v>
+        <v>2529625.788</v>
       </c>
     </row>
     <row r="4980">
@@ -50236,5590 +50236,5600 @@
     <row r="4981">
       <c r="A4981" t="inlineStr">
         <is>
-          <t>2024-11-23</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B4981" t="n">
-        <v>12933809.709</v>
+        <v>14616694.16</v>
       </c>
     </row>
     <row r="4982">
       <c r="A4982" t="inlineStr">
         <is>
-          <t>2018-04-07</t>
+          <t>2024-11-23</t>
         </is>
       </c>
       <c r="B4982" t="n">
-        <v>8715110.261</v>
+        <v>12933809.709</v>
       </c>
     </row>
     <row r="4983">
       <c r="A4983" t="inlineStr">
         <is>
-          <t>2020-12-14</t>
+          <t>2018-04-07</t>
         </is>
       </c>
       <c r="B4983" t="n">
-        <v>14568396.772</v>
+        <v>8715110.261</v>
       </c>
     </row>
     <row r="4984">
       <c r="A4984" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2020-12-14</t>
         </is>
       </c>
       <c r="B4984" t="n">
-        <v>7308221.44</v>
+        <v>14568396.772</v>
       </c>
     </row>
     <row r="4985">
       <c r="A4985" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="B4985" t="n">
-        <v>19746507.73</v>
+        <v>7308221.44</v>
       </c>
     </row>
     <row r="4986">
       <c r="A4986" t="inlineStr">
         <is>
-          <t>2013-08-18</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="B4986" t="n">
-        <v>2450459.11</v>
+        <v>19746507.73</v>
       </c>
     </row>
     <row r="4987">
       <c r="A4987" t="inlineStr">
         <is>
-          <t>2015-07-18</t>
+          <t>2013-08-18</t>
         </is>
       </c>
       <c r="B4987" t="n">
-        <v>2800364.069</v>
+        <v>2450459.11</v>
       </c>
     </row>
     <row r="4988">
       <c r="A4988" t="inlineStr">
         <is>
-          <t>2011-05-08</t>
+          <t>2015-07-18</t>
         </is>
       </c>
       <c r="B4988" t="n">
-        <v>590659.897</v>
+        <v>2800364.069</v>
       </c>
     </row>
     <row r="4989">
       <c r="A4989" t="inlineStr">
         <is>
-          <t>2013-02-15</t>
+          <t>2011-05-08</t>
         </is>
       </c>
       <c r="B4989" t="n">
-        <v>2669285.077</v>
+        <v>590659.897</v>
       </c>
     </row>
     <row r="4990">
       <c r="A4990" t="inlineStr">
         <is>
-          <t>2018-04-23</t>
+          <t>2013-02-15</t>
         </is>
       </c>
       <c r="B4990" t="n">
-        <v>8409681.130999999</v>
+        <v>2669285.077</v>
       </c>
     </row>
     <row r="4991">
       <c r="A4991" t="inlineStr">
         <is>
-          <t>2020-12-29</t>
+          <t>2018-04-23</t>
         </is>
       </c>
       <c r="B4991" t="n">
-        <v>17106922.198</v>
+        <v>8409681.130999999</v>
       </c>
     </row>
     <row r="4992">
       <c r="A4992" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2020-12-29</t>
         </is>
       </c>
       <c r="B4992" t="n">
-        <v>7876220.229</v>
+        <v>17106922.198</v>
       </c>
     </row>
     <row r="4993">
       <c r="A4993" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="B4993" t="n">
-        <v>11885242.465</v>
+        <v>7876220.229</v>
       </c>
     </row>
     <row r="4994">
       <c r="A4994" t="inlineStr">
         <is>
-          <t>2013-10-23</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="B4994" t="n">
-        <v>2986856.758</v>
+        <v>11885242.465</v>
       </c>
     </row>
     <row r="4995">
       <c r="A4995" t="inlineStr">
         <is>
-          <t>2015-08-01</t>
+          <t>2013-10-23</t>
         </is>
       </c>
       <c r="B4995" t="n">
-        <v>2872671.671</v>
+        <v>2986856.758</v>
       </c>
     </row>
     <row r="4996">
       <c r="A4996" t="inlineStr">
         <is>
-          <t>2011-05-23</t>
+          <t>2015-08-01</t>
         </is>
       </c>
       <c r="B4996" t="n">
-        <v>766330.206</v>
+        <v>2872671.671</v>
       </c>
     </row>
     <row r="4997">
       <c r="A4997" t="inlineStr">
         <is>
-          <t>2013-03-07</t>
+          <t>2011-05-23</t>
         </is>
       </c>
       <c r="B4997" t="n">
-        <v>3241428.994</v>
+        <v>766330.206</v>
       </c>
     </row>
     <row r="4998">
       <c r="A4998" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2013-03-07</t>
         </is>
       </c>
       <c r="B4998" t="n">
-        <v>12988051.483</v>
+        <v>3241428.994</v>
       </c>
     </row>
     <row r="4999">
       <c r="A4999" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="B4999" t="n">
-        <v>18760597.04</v>
+        <v>12988051.483</v>
       </c>
     </row>
     <row r="5000">
       <c r="A5000" t="inlineStr">
         <is>
-          <t>2018-05-10</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B5000" t="n">
-        <v>6510882.164</v>
+        <v>18760597.04</v>
       </c>
     </row>
     <row r="5001">
       <c r="A5001" t="inlineStr">
         <is>
-          <t>2021-01-12</t>
+          <t>2018-05-10</t>
         </is>
       </c>
       <c r="B5001" t="n">
-        <v>20145733.863</v>
+        <v>6510882.164</v>
       </c>
     </row>
     <row r="5002">
       <c r="A5002" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2021-01-12</t>
         </is>
       </c>
       <c r="B5002" t="n">
-        <v>8473097.453</v>
+        <v>20145733.863</v>
       </c>
     </row>
     <row r="5003">
       <c r="A5003" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="B5003" t="n">
-        <v>11371015.617</v>
+        <v>8473097.453</v>
       </c>
     </row>
     <row r="5004">
       <c r="A5004" t="inlineStr">
         <is>
-          <t>2014-01-16</t>
+          <t>2024-11-17</t>
         </is>
       </c>
       <c r="B5004" t="n">
-        <v>6970368.657</v>
+        <v>11371015.617</v>
       </c>
     </row>
     <row r="5005">
       <c r="A5005" t="inlineStr">
         <is>
-          <t>2015-08-11</t>
+          <t>2014-01-16</t>
         </is>
       </c>
       <c r="B5005" t="n">
-        <v>3218034.455</v>
+        <v>6970368.657</v>
       </c>
     </row>
     <row r="5006">
       <c r="A5006" t="inlineStr">
         <is>
-          <t>2011-07-06</t>
+          <t>2015-08-11</t>
         </is>
       </c>
       <c r="B5006" t="n">
-        <v>1754964.907</v>
+        <v>3218034.455</v>
       </c>
     </row>
     <row r="5007">
       <c r="A5007" t="inlineStr">
         <is>
-          <t>2013-03-23</t>
+          <t>2011-07-06</t>
         </is>
       </c>
       <c r="B5007" t="n">
-        <v>3589501.35</v>
+        <v>1754964.907</v>
       </c>
     </row>
     <row r="5008">
       <c r="A5008" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2013-03-23</t>
         </is>
       </c>
       <c r="B5008" t="n">
-        <v>18567759.562</v>
+        <v>3589501.35</v>
       </c>
     </row>
     <row r="5009">
       <c r="A5009" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B5009" t="n">
-        <v>11513696.526</v>
+        <v>18567759.562</v>
       </c>
     </row>
     <row r="5010">
       <c r="A5010" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B5010" t="n">
-        <v>19476737.258</v>
+        <v>11513696.526</v>
       </c>
     </row>
     <row r="5011">
       <c r="A5011" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="B5011" t="n">
-        <v>11785461.662</v>
+        <v>19476737.258</v>
       </c>
     </row>
     <row r="5012">
       <c r="A5012" t="inlineStr">
         <is>
-          <t>2018-05-30</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="B5012" t="n">
-        <v>6201090.208</v>
+        <v>11785461.662</v>
       </c>
     </row>
     <row r="5013">
       <c r="A5013" t="inlineStr">
         <is>
-          <t>2021-01-27</t>
+          <t>2018-05-30</t>
         </is>
       </c>
       <c r="B5013" t="n">
-        <v>19974036.715</v>
+        <v>6201090.208</v>
       </c>
     </row>
     <row r="5014">
       <c r="A5014" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2021-01-27</t>
         </is>
       </c>
       <c r="B5014" t="n">
-        <v>8551266.077</v>
+        <v>19974036.715</v>
       </c>
     </row>
     <row r="5015">
       <c r="A5015" t="inlineStr">
         <is>
-          <t>2014-01-28</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="B5015" t="n">
-        <v>6138215.498</v>
+        <v>8551266.077</v>
       </c>
     </row>
     <row r="5016">
       <c r="A5016" t="inlineStr">
         <is>
-          <t>2015-08-21</t>
+          <t>2014-01-28</t>
         </is>
       </c>
       <c r="B5016" t="n">
-        <v>3408662.316</v>
+        <v>6138215.498</v>
       </c>
     </row>
     <row r="5017">
       <c r="A5017" t="inlineStr">
         <is>
-          <t>2011-07-11</t>
+          <t>2015-08-21</t>
         </is>
       </c>
       <c r="B5017" t="n">
-        <v>1780474.358</v>
+        <v>3408662.316</v>
       </c>
     </row>
     <row r="5018">
       <c r="A5018" t="inlineStr">
         <is>
-          <t>2013-03-24</t>
+          <t>2011-07-11</t>
         </is>
       </c>
       <c r="B5018" t="n">
-        <v>3633372.759</v>
+        <v>1780474.358</v>
       </c>
     </row>
     <row r="5019">
       <c r="A5019" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2013-03-24</t>
         </is>
       </c>
       <c r="B5019" t="n">
-        <v>18785986.856</v>
+        <v>3633372.759</v>
       </c>
     </row>
     <row r="5020">
       <c r="A5020" t="inlineStr">
         <is>
-          <t>2018-06-09</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B5020" t="n">
-        <v>6011921.198</v>
+        <v>18785986.856</v>
       </c>
     </row>
     <row r="5021">
       <c r="A5021" t="inlineStr">
         <is>
-          <t>2021-02-14</t>
+          <t>2018-06-09</t>
         </is>
       </c>
       <c r="B5021" t="n">
-        <v>18025144.31</v>
+        <v>6011921.198</v>
       </c>
     </row>
     <row r="5022">
       <c r="A5022" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2021-02-14</t>
         </is>
       </c>
       <c r="B5022" t="n">
-        <v>9524420.506999999</v>
+        <v>18025144.31</v>
       </c>
     </row>
     <row r="5023">
       <c r="A5023" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2023-12-28</t>
         </is>
       </c>
       <c r="B5023" t="n">
-        <v>11482296.535</v>
+        <v>9524420.506999999</v>
       </c>
     </row>
     <row r="5024">
       <c r="A5024" t="inlineStr">
         <is>
-          <t>2014-02-04</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="B5024" t="n">
-        <v>5933884.516</v>
+        <v>11482296.535</v>
       </c>
     </row>
     <row r="5025">
       <c r="A5025" t="inlineStr">
         <is>
-          <t>2015-09-04</t>
+          <t>2014-02-04</t>
         </is>
       </c>
       <c r="B5025" t="n">
-        <v>3873267.812</v>
+        <v>5933884.516</v>
       </c>
     </row>
     <row r="5026">
       <c r="A5026" t="inlineStr">
         <is>
-          <t>2012-11-25</t>
+          <t>2015-09-04</t>
         </is>
       </c>
       <c r="B5026" t="n">
-        <v>1902645.522</v>
+        <v>3873267.812</v>
       </c>
     </row>
     <row r="5027">
       <c r="A5027" t="inlineStr">
         <is>
-          <t>2013-04-06</t>
+          <t>2012-11-25</t>
         </is>
       </c>
       <c r="B5027" t="n">
-        <v>4569312.896</v>
+        <v>1902645.522</v>
       </c>
     </row>
     <row r="5028">
       <c r="A5028" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
       <c r="B5028" t="n">
-        <v>11377694.684</v>
+        <v>4569312.896</v>
       </c>
     </row>
     <row r="5029">
       <c r="A5029" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B5029" t="n">
-        <v>16169923.625</v>
+        <v>11377694.684</v>
       </c>
     </row>
     <row r="5030">
       <c r="A5030" t="inlineStr">
         <is>
-          <t>2018-06-19</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B5030" t="n">
-        <v>5888257.764</v>
+        <v>16169923.625</v>
       </c>
     </row>
     <row r="5031">
       <c r="A5031" t="inlineStr">
         <is>
-          <t>2021-02-24</t>
+          <t>2018-06-19</t>
         </is>
       </c>
       <c r="B5031" t="n">
-        <v>17928661.951</v>
+        <v>5888257.764</v>
       </c>
     </row>
     <row r="5032">
       <c r="A5032" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2021-02-24</t>
         </is>
       </c>
       <c r="B5032" t="n">
-        <v>10359819.603</v>
+        <v>17928661.951</v>
       </c>
     </row>
     <row r="5033">
       <c r="A5033" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="B5033" t="n">
-        <v>17551353.824</v>
+        <v>10359819.603</v>
       </c>
     </row>
     <row r="5034">
       <c r="A5034" t="inlineStr">
         <is>
-          <t>2014-04-11</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B5034" t="n">
-        <v>5486391.567</v>
+        <v>17551353.824</v>
       </c>
     </row>
     <row r="5035">
       <c r="A5035" t="inlineStr">
         <is>
-          <t>2015-09-19</t>
+          <t>2014-04-11</t>
         </is>
       </c>
       <c r="B5035" t="n">
-        <v>3664786.161</v>
+        <v>5486391.567</v>
       </c>
     </row>
     <row r="5036">
       <c r="A5036" t="inlineStr">
         <is>
-          <t>2013-02-14</t>
+          <t>2015-09-19</t>
         </is>
       </c>
       <c r="B5036" t="n">
-        <v>2562212.317</v>
+        <v>3664786.161</v>
       </c>
     </row>
     <row r="5037">
       <c r="A5037" t="inlineStr">
         <is>
-          <t>2013-04-11</t>
+          <t>2013-02-14</t>
         </is>
       </c>
       <c r="B5037" t="n">
-        <v>5258477.274</v>
+        <v>2562212.317</v>
       </c>
     </row>
     <row r="5038">
       <c r="A5038" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2013-04-11</t>
         </is>
       </c>
       <c r="B5038" t="n">
-        <v>18496989.062</v>
+        <v>5258477.274</v>
       </c>
     </row>
     <row r="5039">
       <c r="A5039" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B5039" t="n">
-        <v>12884767.419</v>
+        <v>18496989.062</v>
       </c>
     </row>
     <row r="5040">
       <c r="A5040" t="inlineStr">
         <is>
-          <t>2018-07-06</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B5040" t="n">
-        <v>6085617.267</v>
+        <v>12884767.419</v>
       </c>
     </row>
     <row r="5041">
       <c r="A5041" t="inlineStr">
         <is>
-          <t>2021-03-11</t>
+          <t>2018-07-06</t>
         </is>
       </c>
       <c r="B5041" t="n">
-        <v>17506401.366</v>
+        <v>6085617.267</v>
       </c>
     </row>
     <row r="5042">
       <c r="A5042" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2021-03-11</t>
         </is>
       </c>
       <c r="B5042" t="n">
-        <v>6598014.235</v>
+        <v>17506401.366</v>
       </c>
     </row>
     <row r="5043">
       <c r="A5043" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="B5043" t="n">
-        <v>10277655.606</v>
+        <v>6598014.235</v>
       </c>
     </row>
     <row r="5044">
       <c r="A5044" t="inlineStr">
         <is>
-          <t>2014-04-19</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="B5044" t="n">
-        <v>5485487.586</v>
+        <v>10277655.606</v>
       </c>
     </row>
     <row r="5045">
       <c r="A5045" t="inlineStr">
         <is>
-          <t>2015-05-13</t>
+          <t>2014-04-19</t>
         </is>
       </c>
       <c r="B5045" t="n">
-        <v>3230141.766</v>
+        <v>5485487.586</v>
       </c>
     </row>
     <row r="5046">
       <c r="A5046" t="inlineStr">
         <is>
-          <t>2015-10-17</t>
+          <t>2015-05-13</t>
         </is>
       </c>
       <c r="B5046" t="n">
-        <v>3654408.41</v>
+        <v>3230141.766</v>
       </c>
     </row>
     <row r="5047">
       <c r="A5047" t="inlineStr">
         <is>
-          <t>2013-04-18</t>
+          <t>2015-10-17</t>
         </is>
       </c>
       <c r="B5047" t="n">
-        <v>5574917.223</v>
+        <v>3654408.41</v>
       </c>
     </row>
     <row r="5048">
       <c r="A5048" t="inlineStr">
         <is>
-          <t>2018-07-22</t>
+          <t>2013-04-18</t>
         </is>
       </c>
       <c r="B5048" t="n">
-        <v>5228255.855</v>
+        <v>5574917.223</v>
       </c>
     </row>
     <row r="5049">
       <c r="A5049" t="inlineStr">
         <is>
-          <t>2021-03-26</t>
+          <t>2018-07-22</t>
         </is>
       </c>
       <c r="B5049" t="n">
-        <v>16111714.082</v>
+        <v>5228255.855</v>
       </c>
     </row>
     <row r="5050">
       <c r="A5050" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2021-03-26</t>
         </is>
       </c>
       <c r="B5050" t="n">
-        <v>11670457.865</v>
+        <v>16111714.082</v>
       </c>
     </row>
     <row r="5051">
       <c r="A5051" t="inlineStr">
         <is>
-          <t>2014-04-25</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="B5051" t="n">
-        <v>5461830.872</v>
+        <v>11670457.865</v>
       </c>
     </row>
     <row r="5052">
       <c r="A5052" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2014-04-25</t>
         </is>
       </c>
       <c r="B5052" t="n">
-        <v>2729765.372</v>
+        <v>5461830.872</v>
       </c>
     </row>
     <row r="5053">
       <c r="A5053" t="inlineStr">
         <is>
-          <t>2015-11-23</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="B5053" t="n">
-        <v>4274264.644</v>
+        <v>2729765.372</v>
       </c>
     </row>
     <row r="5054">
       <c r="A5054" t="inlineStr">
         <is>
-          <t>2013-05-12</t>
+          <t>2015-11-23</t>
         </is>
       </c>
       <c r="B5054" t="n">
-        <v>5251259.328</v>
+        <v>4274264.644</v>
       </c>
     </row>
     <row r="5055">
       <c r="A5055" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2013-05-12</t>
         </is>
       </c>
       <c r="B5055" t="n">
-        <v>18983749.017</v>
+        <v>5251259.328</v>
       </c>
     </row>
     <row r="5056">
       <c r="A5056" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B5056" t="n">
-        <v>10054424.048</v>
+        <v>18983749.017</v>
       </c>
     </row>
     <row r="5057">
       <c r="A5057" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="B5057" t="n">
-        <v>18523673.383</v>
+        <v>10054424.048</v>
       </c>
     </row>
     <row r="5058">
       <c r="A5058" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B5058" t="n">
-        <v>6190194.949</v>
+        <v>18523673.383</v>
       </c>
     </row>
     <row r="5059">
       <c r="A5059" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="B5059" t="n">
-        <v>6153661.361</v>
+        <v>6190194.949</v>
       </c>
     </row>
     <row r="5060">
       <c r="A5060" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="B5060" t="n">
-        <v>10362802.579</v>
+        <v>6153661.361</v>
       </c>
     </row>
     <row r="5061">
       <c r="A5061" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2022-11-26</t>
         </is>
       </c>
       <c r="B5061" t="n">
-        <v>8173999.195</v>
+        <v>10362802.579</v>
       </c>
     </row>
     <row r="5062">
       <c r="A5062" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="B5062" t="n">
-        <v>8017070.673</v>
+        <v>8173999.195</v>
       </c>
     </row>
     <row r="5063">
       <c r="A5063" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="B5063" t="n">
-        <v>12216862.024</v>
+        <v>8017070.673</v>
       </c>
     </row>
     <row r="5064">
       <c r="A5064" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B5064" t="n">
-        <v>16777254.692</v>
+        <v>12216862.024</v>
       </c>
     </row>
     <row r="5065">
       <c r="A5065" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="B5065" t="n">
-        <v>10786270.903</v>
+        <v>16777254.692</v>
       </c>
     </row>
     <row r="5066">
       <c r="A5066" t="inlineStr">
         <is>
-          <t>2014-04-30</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B5066" t="n">
-        <v>5420067.424</v>
+        <v>10786270.903</v>
       </c>
     </row>
     <row r="5067">
       <c r="A5067" t="inlineStr">
         <is>
-          <t>2015-12-15</t>
+          <t>2014-04-30</t>
         </is>
       </c>
       <c r="B5067" t="n">
-        <v>4926141.739</v>
+        <v>5420067.424</v>
       </c>
     </row>
     <row r="5068">
       <c r="A5068" t="inlineStr">
         <is>
-          <t>2013-05-20</t>
+          <t>2015-12-15</t>
         </is>
       </c>
       <c r="B5068" t="n">
-        <v>5042140.665</v>
+        <v>4926141.739</v>
       </c>
     </row>
     <row r="5069">
       <c r="A5069" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2013-05-20</t>
         </is>
       </c>
       <c r="B5069" t="n">
-        <v>12620748.822</v>
+        <v>5042140.665</v>
       </c>
     </row>
     <row r="5070">
       <c r="A5070" t="inlineStr">
         <is>
-          <t>2017-05-15</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B5070" t="n">
-        <v>10092377.113</v>
+        <v>12620748.822</v>
       </c>
     </row>
     <row r="5071">
       <c r="A5071" t="inlineStr">
         <is>
-          <t>2018-09-13</t>
+          <t>2017-05-15</t>
         </is>
       </c>
       <c r="B5071" t="n">
-        <v>5716052.208</v>
+        <v>10092377.113</v>
       </c>
     </row>
     <row r="5072">
       <c r="A5072" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2018-09-13</t>
         </is>
       </c>
       <c r="B5072" t="n">
-        <v>12978042.967</v>
+        <v>5716052.208</v>
       </c>
     </row>
     <row r="5073">
       <c r="A5073" t="inlineStr">
         <is>
-          <t>2021-11-14</t>
+          <t>2021-04-13</t>
         </is>
       </c>
       <c r="B5073" t="n">
-        <v>8999892.903000001</v>
+        <v>12978042.967</v>
       </c>
     </row>
     <row r="5074">
       <c r="A5074" t="inlineStr">
         <is>
-          <t>2021-11-15</t>
+          <t>2021-11-14</t>
         </is>
       </c>
       <c r="B5074" t="n">
-        <v>9046092.041999999</v>
+        <v>8999892.903000001</v>
       </c>
     </row>
     <row r="5075">
       <c r="A5075" t="inlineStr">
         <is>
-          <t>2021-12-05</t>
+          <t>2021-11-15</t>
         </is>
       </c>
       <c r="B5075" t="n">
-        <v>9731141.630999999</v>
+        <v>9046092.041999999</v>
       </c>
     </row>
     <row r="5076">
       <c r="A5076" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2021-12-05</t>
         </is>
       </c>
       <c r="B5076" t="n">
-        <v>9907110.057</v>
+        <v>9731141.630999999</v>
       </c>
     </row>
     <row r="5077">
       <c r="A5077" t="inlineStr">
         <is>
-          <t>2022-01-04</t>
+          <t>2021-12-07</t>
         </is>
       </c>
       <c r="B5077" t="n">
-        <v>9609614.795</v>
+        <v>9907110.057</v>
       </c>
     </row>
     <row r="5078">
       <c r="A5078" t="inlineStr">
         <is>
-          <t>2022-01-06</t>
+          <t>2022-01-04</t>
         </is>
       </c>
       <c r="B5078" t="n">
-        <v>9657259.026000001</v>
+        <v>9609614.795</v>
       </c>
     </row>
     <row r="5079">
       <c r="A5079" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-01-06</t>
         </is>
       </c>
       <c r="B5079" t="n">
-        <v>9240975.41</v>
+        <v>9657259.026000001</v>
       </c>
     </row>
     <row r="5080">
       <c r="A5080" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="B5080" t="n">
-        <v>9269022.852</v>
+        <v>9240975.41</v>
       </c>
     </row>
     <row r="5081">
       <c r="A5081" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="B5081" t="n">
-        <v>10034636.877</v>
+        <v>9269022.852</v>
       </c>
     </row>
     <row r="5082">
       <c r="A5082" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="B5082" t="n">
-        <v>8218318.752</v>
+        <v>10034636.877</v>
       </c>
     </row>
     <row r="5083">
       <c r="A5083" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="B5083" t="n">
-        <v>9030081.539999999</v>
+        <v>8218318.752</v>
       </c>
     </row>
     <row r="5084">
       <c r="A5084" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="B5084" t="n">
-        <v>9212749.865</v>
+        <v>9030081.539999999</v>
       </c>
     </row>
     <row r="5085">
       <c r="A5085" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="B5085" t="n">
-        <v>9880601.411</v>
+        <v>9212749.865</v>
       </c>
     </row>
     <row r="5086">
       <c r="A5086" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="B5086" t="n">
-        <v>9874969.986</v>
+        <v>9880601.411</v>
       </c>
     </row>
     <row r="5087">
       <c r="A5087" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="B5087" t="n">
-        <v>10273334.73</v>
+        <v>9874969.986</v>
       </c>
     </row>
     <row r="5088">
       <c r="A5088" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B5088" t="n">
-        <v>10435634.731</v>
+        <v>10273334.73</v>
       </c>
     </row>
     <row r="5089">
       <c r="A5089" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B5089" t="n">
-        <v>10366318.076</v>
+        <v>10435634.731</v>
       </c>
     </row>
     <row r="5090">
       <c r="A5090" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="B5090" t="n">
-        <v>10213288.827</v>
+        <v>10366318.076</v>
       </c>
     </row>
     <row r="5091">
       <c r="A5091" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="B5091" t="n">
-        <v>9524273.433</v>
+        <v>10213288.827</v>
       </c>
     </row>
     <row r="5092">
       <c r="A5092" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="B5092" t="n">
-        <v>8112862.961</v>
+        <v>9524273.433</v>
       </c>
     </row>
     <row r="5093">
       <c r="A5093" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B5093" t="n">
-        <v>7953269.825</v>
+        <v>8112862.961</v>
       </c>
     </row>
     <row r="5094">
       <c r="A5094" t="inlineStr">
         <is>
-          <t>2023-03-29</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="B5094" t="n">
-        <v>7280535.923</v>
+        <v>7953269.825</v>
       </c>
     </row>
     <row r="5095">
       <c r="A5095" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-03-29</t>
         </is>
       </c>
       <c r="B5095" t="n">
-        <v>7702956.401</v>
+        <v>7280535.923</v>
       </c>
     </row>
     <row r="5096">
       <c r="A5096" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="B5096" t="n">
-        <v>7760533.554</v>
+        <v>7702956.401</v>
       </c>
     </row>
     <row r="5097">
       <c r="A5097" t="inlineStr">
         <is>
-          <t>2023-06-11</t>
+          <t>2023-04-19</t>
         </is>
       </c>
       <c r="B5097" t="n">
-        <v>8261999.766</v>
+        <v>7760533.554</v>
       </c>
     </row>
     <row r="5098">
       <c r="A5098" t="inlineStr">
         <is>
-          <t>2023-06-12</t>
+          <t>2023-06-11</t>
         </is>
       </c>
       <c r="B5098" t="n">
-        <v>8200427.591</v>
+        <v>8261999.766</v>
       </c>
     </row>
     <row r="5099">
       <c r="A5099" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-06-12</t>
         </is>
       </c>
       <c r="B5099" t="n">
-        <v>8214760.012</v>
+        <v>8200427.591</v>
       </c>
     </row>
     <row r="5100">
       <c r="A5100" t="inlineStr">
         <is>
-          <t>2018-10-06</t>
+          <t>2023-07-08</t>
         </is>
       </c>
       <c r="B5100" t="n">
-        <v>5589914.377</v>
+        <v>8214760.012</v>
       </c>
     </row>
     <row r="5101">
       <c r="A5101" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2018-10-06</t>
         </is>
       </c>
       <c r="B5101" t="n">
-        <v>13532358.233</v>
+        <v>5589914.377</v>
       </c>
     </row>
     <row r="5102">
       <c r="A5102" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2021-04-29</t>
         </is>
       </c>
       <c r="B5102" t="n">
-        <v>12614002.689</v>
+        <v>13532358.233</v>
       </c>
     </row>
     <row r="5103">
       <c r="A5103" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="B5103" t="n">
-        <v>16908871.181</v>
+        <v>12614002.689</v>
       </c>
     </row>
     <row r="5104">
       <c r="A5104" t="inlineStr">
         <is>
-          <t>2013-06-06</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B5104" t="n">
-        <v>4599987.198</v>
+        <v>16908871.181</v>
       </c>
     </row>
     <row r="5105">
       <c r="A5105" t="inlineStr">
         <is>
-          <t>2014-07-06</t>
+          <t>2013-06-06</t>
         </is>
       </c>
       <c r="B5105" t="n">
-        <v>2651817.344</v>
+        <v>4599987.198</v>
       </c>
     </row>
     <row r="5106">
       <c r="A5106" t="inlineStr">
         <is>
-          <t>2016-01-06</t>
+          <t>2014-07-06</t>
         </is>
       </c>
       <c r="B5106" t="n">
-        <v>4922546.397</v>
+        <v>2651817.344</v>
       </c>
     </row>
     <row r="5107">
       <c r="A5107" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2016-01-06</t>
         </is>
       </c>
       <c r="B5107" t="n">
-        <v>18944691.526</v>
+        <v>4922546.397</v>
       </c>
     </row>
     <row r="5108">
       <c r="A5108" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B5108" t="n">
-        <v>17508953.532</v>
+        <v>18944691.526</v>
       </c>
     </row>
     <row r="5109">
       <c r="A5109" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B5109" t="n">
-        <v>13539397.76</v>
+        <v>17508953.532</v>
       </c>
     </row>
     <row r="5110">
       <c r="A5110" t="inlineStr">
         <is>
-          <t>2018-10-22</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B5110" t="n">
-        <v>5898415.348</v>
+        <v>13539397.76</v>
       </c>
     </row>
     <row r="5111">
       <c r="A5111" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2018-10-22</t>
         </is>
       </c>
       <c r="B5111" t="n">
-        <v>13125869.478</v>
+        <v>5898415.348</v>
       </c>
     </row>
     <row r="5112">
       <c r="A5112" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="B5112" t="n">
-        <v>12536685.09</v>
+        <v>13125869.478</v>
       </c>
     </row>
     <row r="5113">
       <c r="A5113" t="inlineStr">
         <is>
-          <t>2013-06-10</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="B5113" t="n">
-        <v>4546996.485</v>
+        <v>12536685.09</v>
       </c>
     </row>
     <row r="5114">
       <c r="A5114" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2013-06-10</t>
         </is>
       </c>
       <c r="B5114" t="n">
-        <v>11463487.194</v>
+        <v>4546996.485</v>
       </c>
     </row>
     <row r="5115">
       <c r="A5115" t="inlineStr">
         <is>
-          <t>2014-07-12</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B5115" t="n">
-        <v>2584261.892</v>
+        <v>11463487.194</v>
       </c>
     </row>
     <row r="5116">
       <c r="A5116" t="inlineStr">
         <is>
-          <t>2016-02-04</t>
+          <t>2014-07-12</t>
         </is>
       </c>
       <c r="B5116" t="n">
-        <v>5485945.959</v>
+        <v>2584261.892</v>
       </c>
     </row>
     <row r="5117">
       <c r="A5117" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2016-02-04</t>
         </is>
       </c>
       <c r="B5117" t="n">
-        <v>17420607.699</v>
+        <v>5485945.959</v>
       </c>
     </row>
     <row r="5118">
       <c r="A5118" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="B5118" t="n">
-        <v>16742051.234</v>
+        <v>17420607.699</v>
       </c>
     </row>
     <row r="5119">
       <c r="A5119" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B5119" t="n">
-        <v>10154290.861</v>
+        <v>16742051.234</v>
       </c>
     </row>
     <row r="5120">
       <c r="A5120" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="B5120" t="n">
-        <v>5966396.144</v>
+        <v>10154290.861</v>
       </c>
     </row>
     <row r="5121">
       <c r="A5121" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="B5121" t="n">
-        <v>13060043.261</v>
+        <v>5966396.144</v>
       </c>
     </row>
     <row r="5122">
       <c r="A5122" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="B5122" t="n">
-        <v>13198740.126</v>
+        <v>13060043.261</v>
       </c>
     </row>
     <row r="5123">
       <c r="A5123" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="B5123" t="n">
-        <v>15762243.002</v>
+        <v>13198740.126</v>
       </c>
     </row>
     <row r="5124">
       <c r="A5124" t="inlineStr">
         <is>
-          <t>2013-06-27</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="B5124" t="n">
-        <v>4002308.164</v>
+        <v>15762243.002</v>
       </c>
     </row>
     <row r="5125">
       <c r="A5125" t="inlineStr">
         <is>
-          <t>2014-07-19</t>
+          <t>2013-06-27</t>
         </is>
       </c>
       <c r="B5125" t="n">
-        <v>2463584.735</v>
+        <v>4002308.164</v>
       </c>
     </row>
     <row r="5126">
       <c r="A5126" t="inlineStr">
         <is>
-          <t>2016-02-19</t>
+          <t>2014-07-19</t>
         </is>
       </c>
       <c r="B5126" t="n">
-        <v>5426730.361</v>
+        <v>2463584.735</v>
       </c>
     </row>
     <row r="5127">
       <c r="A5127" t="inlineStr">
         <is>
-          <t>2024-10-12</t>
+          <t>2016-02-19</t>
         </is>
       </c>
       <c r="B5127" t="n">
-        <v>10165678.695</v>
+        <v>5426730.361</v>
       </c>
     </row>
     <row r="5128">
       <c r="A5128" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2024-10-12</t>
         </is>
       </c>
       <c r="B5128" t="n">
-        <v>19324380.182</v>
+        <v>10165678.695</v>
       </c>
     </row>
     <row r="5129">
       <c r="A5129" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B5129" t="n">
-        <v>16662741.532</v>
+        <v>19324380.182</v>
       </c>
     </row>
     <row r="5130">
       <c r="A5130" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B5130" t="n">
-        <v>11982419.652</v>
+        <v>16662741.532</v>
       </c>
     </row>
     <row r="5131">
       <c r="A5131" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B5131" t="n">
-        <v>18518628.999</v>
+        <v>11982419.652</v>
       </c>
     </row>
     <row r="5132">
       <c r="A5132" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B5132" t="n">
-        <v>11533542.22</v>
+        <v>18518628.999</v>
       </c>
     </row>
     <row r="5133">
       <c r="A5133" t="inlineStr">
         <is>
-          <t>2018-11-29</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B5133" t="n">
-        <v>5868364.27</v>
+        <v>11533542.22</v>
       </c>
     </row>
     <row r="5134">
       <c r="A5134" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="B5134" t="n">
-        <v>12659047.396</v>
+        <v>5868364.27</v>
       </c>
     </row>
     <row r="5135">
       <c r="A5135" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2021-05-26</t>
         </is>
       </c>
       <c r="B5135" t="n">
-        <v>13742960</v>
+        <v>12659047.396</v>
       </c>
     </row>
     <row r="5136">
       <c r="A5136" t="inlineStr">
         <is>
-          <t>2013-06-28</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B5136" t="n">
-        <v>3944583.64</v>
+        <v>13742960</v>
       </c>
     </row>
     <row r="5137">
       <c r="A5137" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2013-06-28</t>
         </is>
       </c>
       <c r="B5137" t="n">
-        <v>11890718.505</v>
+        <v>3944583.64</v>
       </c>
     </row>
     <row r="5138">
       <c r="A5138" t="inlineStr">
         <is>
-          <t>2014-07-26</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B5138" t="n">
-        <v>2518919.825</v>
+        <v>11890718.505</v>
       </c>
     </row>
     <row r="5139">
       <c r="A5139" t="inlineStr">
         <is>
-          <t>2016-03-04</t>
+          <t>2014-07-26</t>
         </is>
       </c>
       <c r="B5139" t="n">
-        <v>5778833.318</v>
+        <v>2518919.825</v>
       </c>
     </row>
     <row r="5140">
       <c r="A5140" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2016-03-04</t>
         </is>
       </c>
       <c r="B5140" t="n">
-        <v>17921349.452</v>
+        <v>5778833.318</v>
       </c>
     </row>
     <row r="5141">
       <c r="A5141" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B5141" t="n">
-        <v>12190152.036</v>
+        <v>17921349.452</v>
       </c>
     </row>
     <row r="5142">
       <c r="A5142" t="inlineStr">
         <is>
-          <t>2019-01-13</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B5142" t="n">
-        <v>14122551.88</v>
+        <v>12190152.036</v>
       </c>
     </row>
     <row r="5143">
       <c r="A5143" t="inlineStr">
         <is>
-          <t>2021-06-14</t>
+          <t>2019-01-13</t>
         </is>
       </c>
       <c r="B5143" t="n">
-        <v>11639185.801</v>
+        <v>14122551.88</v>
       </c>
     </row>
     <row r="5144">
       <c r="A5144" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2021-06-14</t>
         </is>
       </c>
       <c r="B5144" t="n">
-        <v>15843658.658</v>
+        <v>11639185.801</v>
       </c>
     </row>
     <row r="5145">
       <c r="A5145" t="inlineStr">
         <is>
-          <t>2013-07-20</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="B5145" t="n">
-        <v>2418821.13</v>
+        <v>15843658.658</v>
       </c>
     </row>
     <row r="5146">
       <c r="A5146" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2013-07-20</t>
         </is>
       </c>
       <c r="B5146" t="n">
-        <v>19799814.996</v>
+        <v>2418821.13</v>
       </c>
     </row>
     <row r="5147">
       <c r="A5147" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B5147" t="n">
-        <v>16092268.729</v>
+        <v>19799814.996</v>
       </c>
     </row>
     <row r="5148">
       <c r="A5148" t="inlineStr">
         <is>
-          <t>2014-08-02</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="B5148" t="n">
-        <v>2629106.898</v>
+        <v>16092268.729</v>
       </c>
     </row>
     <row r="5149">
       <c r="A5149" t="inlineStr">
         <is>
-          <t>2016-03-18</t>
+          <t>2014-08-02</t>
         </is>
       </c>
       <c r="B5149" t="n">
-        <v>6029787.816</v>
+        <v>2629106.898</v>
       </c>
     </row>
     <row r="5150">
       <c r="A5150" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2016-03-18</t>
         </is>
       </c>
       <c r="B5150" t="n">
-        <v>13888250.184</v>
+        <v>6029787.816</v>
       </c>
     </row>
     <row r="5151">
       <c r="A5151" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B5151" t="n">
-        <v>13422882.236</v>
+        <v>13888250.184</v>
       </c>
     </row>
     <row r="5152">
       <c r="A5152" t="inlineStr">
         <is>
-          <t>2019-01-29</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B5152" t="n">
-        <v>15644638.336</v>
+        <v>13422882.236</v>
       </c>
     </row>
     <row r="5153">
       <c r="A5153" t="inlineStr">
         <is>
-          <t>2021-06-29</t>
+          <t>2019-01-29</t>
         </is>
       </c>
       <c r="B5153" t="n">
-        <v>10913626.968</v>
+        <v>15644638.336</v>
       </c>
     </row>
     <row r="5154">
       <c r="A5154" t="inlineStr">
         <is>
-          <t>2024-03-23</t>
+          <t>2021-06-29</t>
         </is>
       </c>
       <c r="B5154" t="n">
-        <v>19077349.963</v>
+        <v>10913626.968</v>
       </c>
     </row>
     <row r="5155">
       <c r="A5155" t="inlineStr">
         <is>
-          <t>2013-08-08</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="B5155" t="n">
-        <v>2304856.993</v>
+        <v>19077349.963</v>
       </c>
     </row>
     <row r="5156">
       <c r="A5156" t="inlineStr">
         <is>
-          <t>2014-08-08</t>
+          <t>2013-08-08</t>
         </is>
       </c>
       <c r="B5156" t="n">
-        <v>2848618.131</v>
+        <v>2304856.993</v>
       </c>
     </row>
     <row r="5157">
       <c r="A5157" t="inlineStr">
         <is>
-          <t>2016-04-16</t>
+          <t>2014-08-08</t>
         </is>
       </c>
       <c r="B5157" t="n">
-        <v>6185360.008</v>
+        <v>2848618.131</v>
       </c>
     </row>
     <row r="5158">
       <c r="A5158" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2016-04-16</t>
         </is>
       </c>
       <c r="B5158" t="n">
-        <v>13449347.64</v>
+        <v>6185360.008</v>
       </c>
     </row>
     <row r="5159">
       <c r="A5159" t="inlineStr">
         <is>
-          <t>2019-02-14</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B5159" t="n">
-        <v>15372460.768</v>
+        <v>13449347.64</v>
       </c>
     </row>
     <row r="5160">
       <c r="A5160" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2019-02-14</t>
         </is>
       </c>
       <c r="B5160" t="n">
-        <v>9416090.248</v>
+        <v>15372460.768</v>
       </c>
     </row>
     <row r="5161">
       <c r="A5161" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="B5161" t="n">
-        <v>19554838.811</v>
+        <v>9416090.248</v>
       </c>
     </row>
     <row r="5162">
       <c r="A5162" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-03-30</t>
         </is>
       </c>
       <c r="B5162" t="n">
-        <v>15736728.197</v>
+        <v>19554838.811</v>
       </c>
     </row>
     <row r="5163">
       <c r="A5163" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="B5163" t="n">
-        <v>18061928.338</v>
+        <v>15736728.197</v>
       </c>
     </row>
     <row r="5164">
       <c r="A5164" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B5164" t="n">
-        <v>18195056.999</v>
+        <v>18061928.338</v>
       </c>
     </row>
     <row r="5165">
       <c r="A5165" t="inlineStr">
         <is>
-          <t>2013-08-22</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B5165" t="n">
-        <v>2483113.932</v>
+        <v>18195056.999</v>
       </c>
     </row>
     <row r="5166">
       <c r="A5166" t="inlineStr">
         <is>
-          <t>2014-08-24</t>
+          <t>2013-08-22</t>
         </is>
       </c>
       <c r="B5166" t="n">
-        <v>2907894.968</v>
+        <v>2483113.932</v>
       </c>
     </row>
     <row r="5167">
       <c r="A5167" t="inlineStr">
         <is>
-          <t>2016-04-30</t>
+          <t>2014-08-24</t>
         </is>
       </c>
       <c r="B5167" t="n">
-        <v>5584076.258</v>
+        <v>2907894.968</v>
       </c>
     </row>
     <row r="5168">
       <c r="A5168" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2016-04-30</t>
         </is>
       </c>
       <c r="B5168" t="n">
-        <v>10139727.84</v>
+        <v>5584076.258</v>
       </c>
     </row>
     <row r="5169">
       <c r="A5169" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="B5169" t="n">
-        <v>20311437.78</v>
+        <v>10139727.84</v>
       </c>
     </row>
     <row r="5170">
       <c r="A5170" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="B5170" t="n">
-        <v>19921671.37</v>
+        <v>20311437.78</v>
       </c>
     </row>
     <row r="5171">
       <c r="A5171" t="inlineStr">
         <is>
-          <t>2019-03-08</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="B5171" t="n">
-        <v>7888479.131</v>
+        <v>19921671.37</v>
       </c>
     </row>
     <row r="5172">
       <c r="A5172" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2019-03-08</t>
         </is>
       </c>
       <c r="B5172" t="n">
-        <v>10017123.009</v>
+        <v>7888479.131</v>
       </c>
     </row>
     <row r="5173">
       <c r="A5173" t="inlineStr">
         <is>
-          <t>2024-04-06</t>
+          <t>2021-08-08</t>
         </is>
       </c>
       <c r="B5173" t="n">
-        <v>19912305.448</v>
+        <v>10017123.009</v>
       </c>
     </row>
     <row r="5174">
       <c r="A5174" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-04-06</t>
         </is>
       </c>
       <c r="B5174" t="n">
-        <v>15408192.117</v>
+        <v>19912305.448</v>
       </c>
     </row>
     <row r="5175">
       <c r="A5175" t="inlineStr">
         <is>
-          <t>2013-09-08</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="B5175" t="n">
-        <v>2309043.439</v>
+        <v>15408192.117</v>
       </c>
     </row>
     <row r="5176">
       <c r="A5176" t="inlineStr">
         <is>
-          <t>2014-08-30</t>
+          <t>2013-09-08</t>
         </is>
       </c>
       <c r="B5176" t="n">
-        <v>2814593.841</v>
+        <v>2309043.439</v>
       </c>
     </row>
     <row r="5177">
       <c r="A5177" t="inlineStr">
         <is>
-          <t>2016-05-11</t>
+          <t>2014-08-30</t>
         </is>
       </c>
       <c r="B5177" t="n">
-        <v>5531832.262</v>
+        <v>2814593.841</v>
       </c>
     </row>
     <row r="5178">
       <c r="A5178" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2016-05-11</t>
         </is>
       </c>
       <c r="B5178" t="n">
-        <v>13010963.419</v>
+        <v>5531832.262</v>
       </c>
     </row>
     <row r="5179">
       <c r="A5179" t="inlineStr">
         <is>
-          <t>2019-03-14</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="B5179" t="n">
-        <v>7713021.774</v>
+        <v>13010963.419</v>
       </c>
     </row>
     <row r="5180">
       <c r="A5180" t="inlineStr">
         <is>
-          <t>2021-08-13</t>
+          <t>2019-03-14</t>
         </is>
       </c>
       <c r="B5180" t="n">
-        <v>9574167.65</v>
+        <v>7713021.774</v>
       </c>
     </row>
     <row r="5181">
       <c r="A5181" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2021-08-13</t>
         </is>
       </c>
       <c r="B5181" t="n">
-        <v>17931313.804</v>
+        <v>9574167.65</v>
       </c>
     </row>
     <row r="5182">
       <c r="A5182" t="inlineStr">
         <is>
-          <t>2013-09-10</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="B5182" t="n">
-        <v>2350507.87</v>
+        <v>17931313.804</v>
       </c>
     </row>
     <row r="5183">
       <c r="A5183" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2013-09-10</t>
         </is>
       </c>
       <c r="B5183" t="n">
-        <v>13202621.428</v>
+        <v>2350507.87</v>
       </c>
     </row>
     <row r="5184">
       <c r="A5184" t="inlineStr">
         <is>
-          <t>2014-09-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B5184" t="n">
-        <v>2654246.128</v>
+        <v>13202621.428</v>
       </c>
     </row>
     <row r="5185">
       <c r="A5185" t="inlineStr">
         <is>
-          <t>2016-05-26</t>
+          <t>2014-09-24</t>
         </is>
       </c>
       <c r="B5185" t="n">
-        <v>5654997.006</v>
+        <v>2654246.128</v>
       </c>
     </row>
     <row r="5186">
       <c r="A5186" t="inlineStr">
         <is>
-          <t>2019-03-30</t>
+          <t>2016-05-26</t>
         </is>
       </c>
       <c r="B5186" t="n">
-        <v>7636682.731</v>
+        <v>5654997.006</v>
       </c>
     </row>
     <row r="5187">
       <c r="A5187" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2019-03-30</t>
         </is>
       </c>
       <c r="B5187" t="n">
-        <v>9115635.342</v>
+        <v>7636682.731</v>
       </c>
     </row>
     <row r="5188">
       <c r="A5188" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2021-08-18</t>
         </is>
       </c>
       <c r="B5188" t="n">
-        <v>17680988.152</v>
+        <v>9115635.342</v>
       </c>
     </row>
     <row r="5189">
       <c r="A5189" t="inlineStr">
         <is>
-          <t>2013-10-04</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="B5189" t="n">
-        <v>2315949.206</v>
+        <v>17680988.152</v>
       </c>
     </row>
     <row r="5190">
       <c r="A5190" t="inlineStr">
         <is>
-          <t>2016-07-20</t>
+          <t>2013-10-04</t>
         </is>
       </c>
       <c r="B5190" t="n">
-        <v>5964902.839</v>
+        <v>2315949.206</v>
       </c>
     </row>
     <row r="5191">
       <c r="A5191" t="inlineStr">
         <is>
-          <t>2014-09-30</t>
+          <t>2016-07-20</t>
         </is>
       </c>
       <c r="B5191" t="n">
-        <v>2625686.029</v>
+        <v>5964902.839</v>
       </c>
     </row>
     <row r="5192">
       <c r="A5192" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2014-09-30</t>
         </is>
       </c>
       <c r="B5192" t="n">
-        <v>14555529.314</v>
+        <v>2625686.029</v>
       </c>
     </row>
     <row r="5193">
       <c r="A5193" t="inlineStr">
         <is>
-          <t>2019-04-15</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B5193" t="n">
-        <v>6167355.699</v>
+        <v>14555529.314</v>
       </c>
     </row>
     <row r="5194">
       <c r="A5194" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-04-15</t>
         </is>
       </c>
       <c r="B5194" t="n">
-        <v>8491040.936000001</v>
+        <v>6167355.699</v>
       </c>
     </row>
     <row r="5195">
       <c r="A5195" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="B5195" t="n">
-        <v>17316630.871</v>
+        <v>8491040.936000001</v>
       </c>
     </row>
     <row r="5196">
       <c r="A5196" t="inlineStr">
         <is>
-          <t>2013-10-22</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="B5196" t="n">
-        <v>2877443.953</v>
+        <v>17316630.871</v>
       </c>
     </row>
     <row r="5197">
       <c r="A5197" t="inlineStr">
         <is>
-          <t>2016-08-03</t>
+          <t>2013-10-22</t>
         </is>
       </c>
       <c r="B5197" t="n">
-        <v>5948319.051</v>
+        <v>2877443.953</v>
       </c>
     </row>
     <row r="5198">
       <c r="A5198" t="inlineStr">
         <is>
-          <t>2014-10-07</t>
+          <t>2016-08-03</t>
         </is>
       </c>
       <c r="B5198" t="n">
-        <v>2920545.529</v>
+        <v>5948319.051</v>
       </c>
     </row>
     <row r="5199">
       <c r="A5199" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2014-10-07</t>
         </is>
       </c>
       <c r="B5199" t="n">
-        <v>9876625.647</v>
+        <v>2920545.529</v>
       </c>
     </row>
     <row r="5200">
       <c r="A5200" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B5200" t="n">
-        <v>9348543.609999999</v>
+        <v>9876625.647</v>
       </c>
     </row>
     <row r="5201">
       <c r="A5201" t="inlineStr">
         <is>
-          <t>2019-04-30</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B5201" t="n">
-        <v>6286634.574</v>
+        <v>9348543.609999999</v>
       </c>
     </row>
     <row r="5202">
       <c r="A5202" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2019-04-30</t>
         </is>
       </c>
       <c r="B5202" t="n">
-        <v>8893796.503</v>
+        <v>6286634.574</v>
       </c>
     </row>
     <row r="5203">
       <c r="A5203" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2021-09-26</t>
         </is>
       </c>
       <c r="B5203" t="n">
-        <v>16658702.812</v>
+        <v>8893796.503</v>
       </c>
     </row>
     <row r="5204">
       <c r="A5204" t="inlineStr">
         <is>
-          <t>2024-07-06</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="B5204" t="n">
-        <v>15649596.102</v>
+        <v>16658702.812</v>
       </c>
     </row>
     <row r="5205">
       <c r="A5205" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-07-06</t>
         </is>
       </c>
       <c r="B5205" t="n">
-        <v>11176294.018</v>
+        <v>15649596.102</v>
       </c>
     </row>
     <row r="5206">
       <c r="A5206" t="inlineStr">
         <is>
-          <t>2013-10-25</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B5206" t="n">
-        <v>3355406.547</v>
+        <v>11176294.018</v>
       </c>
     </row>
     <row r="5207">
       <c r="A5207" t="inlineStr">
         <is>
-          <t>2014-10-14</t>
+          <t>2013-10-25</t>
         </is>
       </c>
       <c r="B5207" t="n">
-        <v>3051641.316</v>
+        <v>3355406.547</v>
       </c>
     </row>
     <row r="5208">
       <c r="A5208" t="inlineStr">
         <is>
-          <t>2016-08-18</t>
+          <t>2014-10-14</t>
         </is>
       </c>
       <c r="B5208" t="n">
-        <v>5520205.846</v>
+        <v>3051641.316</v>
       </c>
     </row>
     <row r="5209">
       <c r="A5209" t="inlineStr">
         <is>
-          <t>2019-05-09</t>
+          <t>2016-08-18</t>
         </is>
       </c>
       <c r="B5209" t="n">
-        <v>6645336.202</v>
+        <v>5520205.846</v>
       </c>
     </row>
     <row r="5210">
       <c r="A5210" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2019-05-09</t>
         </is>
       </c>
       <c r="B5210" t="n">
-        <v>8760085.365</v>
+        <v>6645336.202</v>
       </c>
     </row>
     <row r="5211">
       <c r="A5211" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="B5211" t="n">
-        <v>20506438.825</v>
+        <v>8760085.365</v>
       </c>
     </row>
     <row r="5212">
       <c r="A5212" t="inlineStr">
         <is>
-          <t>2013-11-17</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B5212" t="n">
-        <v>4107747.394</v>
+        <v>20506438.825</v>
       </c>
     </row>
     <row r="5213">
       <c r="A5213" t="inlineStr">
         <is>
-          <t>2016-09-03</t>
+          <t>2013-11-17</t>
         </is>
       </c>
       <c r="B5213" t="n">
-        <v>5203377.911</v>
+        <v>4107747.394</v>
       </c>
     </row>
     <row r="5214">
       <c r="A5214" t="inlineStr">
         <is>
-          <t>2014-10-22</t>
+          <t>2016-09-03</t>
         </is>
       </c>
       <c r="B5214" t="n">
-        <v>3035976.286</v>
+        <v>5203377.911</v>
       </c>
     </row>
     <row r="5215">
       <c r="A5215" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2014-10-22</t>
         </is>
       </c>
       <c r="B5215" t="n">
-        <v>14548570.861</v>
+        <v>3035976.286</v>
       </c>
     </row>
     <row r="5216">
       <c r="A5216" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B5216" t="n">
-        <v>18413104.776</v>
+        <v>14548570.861</v>
       </c>
     </row>
     <row r="5217">
       <c r="A5217" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B5217" t="n">
-        <v>7905786.007</v>
+        <v>18413104.776</v>
       </c>
     </row>
     <row r="5218">
       <c r="A5218" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="B5218" t="n">
-        <v>9073650.025</v>
+        <v>7905786.007</v>
       </c>
     </row>
     <row r="5219">
       <c r="A5219" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="B5219" t="n">
-        <v>19218055.445</v>
+        <v>9073650.025</v>
       </c>
     </row>
     <row r="5220">
       <c r="A5220" t="inlineStr">
         <is>
-          <t>2013-12-16</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B5220" t="n">
-        <v>5816249.876</v>
+        <v>19218055.445</v>
       </c>
     </row>
     <row r="5221">
       <c r="A5221" t="inlineStr">
         <is>
-          <t>2016-10-09</t>
+          <t>2013-12-16</t>
         </is>
       </c>
       <c r="B5221" t="n">
-        <v>4052991.609</v>
+        <v>5816249.876</v>
       </c>
     </row>
     <row r="5222">
       <c r="A5222" t="inlineStr">
         <is>
-          <t>2014-11-04</t>
+          <t>2016-10-09</t>
         </is>
       </c>
       <c r="B5222" t="n">
-        <v>2855446.32</v>
+        <v>4052991.609</v>
       </c>
     </row>
     <row r="5223">
       <c r="A5223" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2014-11-04</t>
         </is>
       </c>
       <c r="B5223" t="n">
-        <v>9252340.935000001</v>
+        <v>2855446.32</v>
       </c>
     </row>
     <row r="5224">
       <c r="A5224" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
       <c r="B5224" t="n">
-        <v>14880148.605</v>
+        <v>9252340.935000001</v>
       </c>
     </row>
     <row r="5225">
       <c r="A5225" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B5225" t="n">
-        <v>12724123.607</v>
+        <v>14880148.605</v>
       </c>
     </row>
     <row r="5226">
       <c r="A5226" t="inlineStr">
         <is>
-          <t>2019-08-21</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B5226" t="n">
-        <v>12393381.677</v>
+        <v>12724123.607</v>
       </c>
     </row>
     <row r="5227">
       <c r="A5227" t="inlineStr">
         <is>
-          <t>2021-12-01</t>
+          <t>2019-08-21</t>
         </is>
       </c>
       <c r="B5227" t="n">
-        <v>9613862.286</v>
+        <v>12393381.677</v>
       </c>
     </row>
     <row r="5228">
       <c r="A5228" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="B5228" t="n">
-        <v>18218036.776</v>
+        <v>9613862.286</v>
       </c>
     </row>
     <row r="5229">
       <c r="A5229" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B5229" t="n">
-        <v>16265749.775</v>
+        <v>18218036.776</v>
       </c>
     </row>
     <row r="5230">
       <c r="A5230" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2024-07-27</t>
         </is>
       </c>
       <c r="B5230" t="n">
-        <v>16670126.739</v>
+        <v>16265749.775</v>
       </c>
     </row>
     <row r="5231">
       <c r="A5231" t="inlineStr">
         <is>
-          <t>2013-12-26</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="B5231" t="n">
-        <v>6915819.538</v>
+        <v>16670126.739</v>
       </c>
     </row>
     <row r="5232">
       <c r="A5232" t="inlineStr">
         <is>
-          <t>2014-11-12</t>
+          <t>2013-12-26</t>
         </is>
       </c>
       <c r="B5232" t="n">
-        <v>3023467.834</v>
+        <v>6915819.538</v>
       </c>
     </row>
     <row r="5233">
       <c r="A5233" t="inlineStr">
         <is>
-          <t>2010-09-24</t>
+          <t>2014-11-12</t>
         </is>
       </c>
       <c r="B5233" t="n">
-        <v>112259.447</v>
+        <v>3023467.834</v>
       </c>
     </row>
     <row r="5234">
       <c r="A5234" t="inlineStr">
         <is>
-          <t>2016-10-23</t>
+          <t>2010-09-24</t>
         </is>
       </c>
       <c r="B5234" t="n">
-        <v>4402004.723</v>
+        <v>112259.447</v>
       </c>
     </row>
     <row r="5235">
       <c r="A5235" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2016-10-23</t>
         </is>
       </c>
       <c r="B5235" t="n">
-        <v>19014663.42</v>
+        <v>4402004.723</v>
       </c>
     </row>
     <row r="5236">
       <c r="A5236" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="B5236" t="n">
-        <v>18095870.058</v>
+        <v>19014663.42</v>
       </c>
     </row>
     <row r="5237">
       <c r="A5237" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B5237" t="n">
-        <v>9408798.934</v>
+        <v>18095870.058</v>
       </c>
     </row>
     <row r="5238">
       <c r="A5238" t="inlineStr">
         <is>
-          <t>2019-09-19</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B5238" t="n">
-        <v>11427939.892</v>
+        <v>9408798.934</v>
       </c>
     </row>
     <row r="5239">
       <c r="A5239" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
+          <t>2019-09-19</t>
         </is>
       </c>
       <c r="B5239" t="n">
-        <v>9957806.918</v>
+        <v>11427939.892</v>
       </c>
     </row>
     <row r="5240">
       <c r="A5240" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="B5240" t="n">
-        <v>17239012.79</v>
+        <v>9957806.918</v>
       </c>
     </row>
     <row r="5241">
       <c r="A5241" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B5241" t="n">
-        <v>11167233.165</v>
+        <v>17239012.79</v>
       </c>
     </row>
     <row r="5242">
       <c r="A5242" t="inlineStr">
         <is>
-          <t>2016-12-09</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B5242" t="n">
-        <v>5405479.025</v>
+        <v>11167233.165</v>
       </c>
     </row>
     <row r="5243">
       <c r="A5243" t="inlineStr">
         <is>
-          <t>2014-01-10</t>
+          <t>2016-12-09</t>
         </is>
       </c>
       <c r="B5243" t="n">
-        <v>6911767.667</v>
+        <v>5405479.025</v>
       </c>
     </row>
     <row r="5244">
       <c r="A5244" t="inlineStr">
         <is>
-          <t>2014-11-18</t>
+          <t>2014-01-10</t>
         </is>
       </c>
       <c r="B5244" t="n">
-        <v>3039813.332</v>
+        <v>6911767.667</v>
       </c>
     </row>
     <row r="5245">
       <c r="A5245" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2014-11-18</t>
         </is>
       </c>
       <c r="B5245" t="n">
-        <v>10958641.073</v>
+        <v>3039813.332</v>
       </c>
     </row>
     <row r="5246">
       <c r="A5246" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B5246" t="n">
-        <v>10512254.974</v>
+        <v>10958641.073</v>
       </c>
     </row>
     <row r="5247">
       <c r="A5247" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B5247" t="n">
-        <v>18752011.913</v>
+        <v>10512254.974</v>
       </c>
     </row>
     <row r="5248">
       <c r="A5248" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B5248" t="n">
-        <v>18684510.463</v>
+        <v>18752011.913</v>
       </c>
     </row>
     <row r="5249">
       <c r="A5249" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B5249" t="n">
-        <v>9947791.287</v>
+        <v>18684510.463</v>
       </c>
     </row>
     <row r="5250">
       <c r="A5250" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="B5250" t="n">
-        <v>8830961.847999999</v>
+        <v>9947791.287</v>
       </c>
     </row>
     <row r="5251">
       <c r="A5251" t="inlineStr">
         <is>
-          <t>2014-01-19</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="B5251" t="n">
-        <v>6709581.37</v>
+        <v>8830961.847999999</v>
       </c>
     </row>
     <row r="5252">
       <c r="A5252" t="inlineStr">
         <is>
-          <t>2016-12-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
       <c r="B5252" t="n">
-        <v>5441150.314</v>
+        <v>6709581.37</v>
       </c>
     </row>
     <row r="5253">
       <c r="A5253" t="inlineStr">
         <is>
-          <t>2014-12-15</t>
+          <t>2016-12-14</t>
         </is>
       </c>
       <c r="B5253" t="n">
-        <v>3652983.074</v>
+        <v>5441150.314</v>
       </c>
     </row>
     <row r="5254">
       <c r="A5254" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2014-12-15</t>
         </is>
       </c>
       <c r="B5254" t="n">
-        <v>14765108.135</v>
+        <v>3652983.074</v>
       </c>
     </row>
     <row r="5255">
       <c r="A5255" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B5255" t="n">
-        <v>10407093</v>
+        <v>14765108.135</v>
       </c>
     </row>
     <row r="5256">
       <c r="A5256" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B5256" t="n">
-        <v>12989124.134</v>
+        <v>10407093</v>
       </c>
     </row>
     <row r="5257">
       <c r="A5257" t="inlineStr">
         <is>
-          <t>2019-10-25</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="B5257" t="n">
-        <v>10081112.066</v>
+        <v>12989124.134</v>
       </c>
     </row>
     <row r="5258">
       <c r="A5258" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="B5258" t="n">
-        <v>9996728.27</v>
+        <v>10081112.066</v>
       </c>
     </row>
     <row r="5259">
       <c r="A5259" t="inlineStr">
         <is>
-          <t>2014-01-20</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="B5259" t="n">
-        <v>6614252.892</v>
+        <v>9996728.27</v>
       </c>
     </row>
     <row r="5260">
       <c r="A5260" t="inlineStr">
         <is>
-          <t>2016-12-30</t>
+          <t>2014-01-20</t>
         </is>
       </c>
       <c r="B5260" t="n">
-        <v>6503628.164</v>
+        <v>6614252.892</v>
       </c>
     </row>
     <row r="5261">
       <c r="A5261" t="inlineStr">
         <is>
-          <t>2014-12-22</t>
+          <t>2016-12-30</t>
         </is>
       </c>
       <c r="B5261" t="n">
-        <v>3563708.16</v>
+        <v>6503628.164</v>
       </c>
     </row>
     <row r="5262">
       <c r="A5262" t="inlineStr">
         <is>
-          <t>2010-09-21</t>
+          <t>2014-12-22</t>
         </is>
       </c>
       <c r="B5262" t="n">
-        <v>111207.989</v>
+        <v>3563708.16</v>
       </c>
     </row>
     <row r="5263">
       <c r="A5263" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2010-09-21</t>
         </is>
       </c>
       <c r="B5263" t="n">
-        <v>19753403.705</v>
+        <v>111207.989</v>
       </c>
     </row>
     <row r="5264">
       <c r="A5264" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B5264" t="n">
-        <v>8145349.405</v>
+        <v>19753403.705</v>
       </c>
     </row>
     <row r="5265">
       <c r="A5265" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B5265" t="n">
-        <v>8685248.65</v>
+        <v>8145349.405</v>
       </c>
     </row>
     <row r="5266">
       <c r="A5266" t="inlineStr">
         <is>
-          <t>2014-01-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="B5266" t="n">
-        <v>6168423.578</v>
+        <v>8685248.65</v>
       </c>
     </row>
     <row r="5267">
       <c r="A5267" t="inlineStr">
         <is>
-          <t>2017-01-29</t>
+          <t>2014-01-23</t>
         </is>
       </c>
       <c r="B5267" t="n">
-        <v>7399149.518</v>
+        <v>6168423.578</v>
       </c>
     </row>
     <row r="5268">
       <c r="A5268" t="inlineStr">
         <is>
-          <t>2014-12-28</t>
+          <t>2017-01-29</t>
         </is>
       </c>
       <c r="B5268" t="n">
-        <v>3660548.296</v>
+        <v>7399149.518</v>
       </c>
     </row>
     <row r="5269">
       <c r="A5269" t="inlineStr">
         <is>
-          <t>2011-07-03</t>
+          <t>2014-12-28</t>
         </is>
       </c>
       <c r="B5269" t="n">
-        <v>1736677.834</v>
+        <v>3660548.296</v>
       </c>
     </row>
     <row r="5270">
       <c r="A5270" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2011-07-03</t>
         </is>
       </c>
       <c r="B5270" t="n">
-        <v>18949481.536</v>
+        <v>1736677.834</v>
       </c>
     </row>
     <row r="5271">
       <c r="A5271" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="B5271" t="n">
-        <v>12847069.898</v>
+        <v>18949481.536</v>
       </c>
     </row>
     <row r="5272">
       <c r="A5272" t="inlineStr">
         <is>
-          <t>2019-12-29</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B5272" t="n">
-        <v>8042178.284</v>
+        <v>12847069.898</v>
       </c>
     </row>
     <row r="5273">
       <c r="A5273" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2019-12-29</t>
         </is>
       </c>
       <c r="B5273" t="n">
-        <v>9941198.092</v>
+        <v>8042178.284</v>
       </c>
     </row>
     <row r="5274">
       <c r="A5274" t="inlineStr">
         <is>
-          <t>2014-02-10</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="B5274" t="n">
-        <v>6482705.217</v>
+        <v>9941198.092</v>
       </c>
     </row>
     <row r="5275">
       <c r="A5275" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2014-02-10</t>
         </is>
       </c>
       <c r="B5275" t="n">
-        <v>3639884.552</v>
+        <v>6482705.217</v>
       </c>
     </row>
     <row r="5276">
       <c r="A5276" t="inlineStr">
         <is>
-          <t>2011-09-13</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="B5276" t="n">
-        <v>992731.454</v>
+        <v>3639884.552</v>
       </c>
     </row>
     <row r="5277">
       <c r="A5277" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2011-09-13</t>
         </is>
       </c>
       <c r="B5277" t="n">
-        <v>12025387.77</v>
+        <v>992731.454</v>
       </c>
     </row>
     <row r="5278">
       <c r="A5278" t="inlineStr">
         <is>
-          <t>2017-02-14</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B5278" t="n">
-        <v>7583332.734</v>
+        <v>12025387.77</v>
       </c>
     </row>
     <row r="5279">
       <c r="A5279" t="inlineStr">
         <is>
-          <t>2017-04-03</t>
+          <t>2017-02-14</t>
         </is>
       </c>
       <c r="B5279" t="n">
-        <v>9243648.802999999</v>
+        <v>7583332.734</v>
       </c>
     </row>
     <row r="5280">
       <c r="A5280" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2017-04-03</t>
         </is>
       </c>
       <c r="B5280" t="n">
-        <v>11517746.211</v>
+        <v>9243648.802999999</v>
       </c>
     </row>
     <row r="5281">
       <c r="A5281" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B5281" t="n">
-        <v>19403702.941</v>
+        <v>11517746.211</v>
       </c>
     </row>
     <row r="5282">
       <c r="A5282" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B5282" t="n">
-        <v>7135383.216</v>
+        <v>19403702.941</v>
       </c>
     </row>
     <row r="5283">
       <c r="A5283" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="B5283" t="n">
-        <v>10037167.8</v>
+        <v>7135383.216</v>
       </c>
     </row>
     <row r="5284">
       <c r="A5284" t="inlineStr">
         <is>
-          <t>2014-02-14</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="B5284" t="n">
-        <v>6165888.39</v>
+        <v>10037167.8</v>
       </c>
     </row>
     <row r="5285">
       <c r="A5285" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2014-02-14</t>
         </is>
       </c>
       <c r="B5285" t="n">
-        <v>18605805.647</v>
+        <v>6165888.39</v>
       </c>
     </row>
     <row r="5286">
       <c r="A5286" t="inlineStr">
         <is>
-          <t>2017-02-15</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B5286" t="n">
-        <v>7448825.404</v>
+        <v>18605805.647</v>
       </c>
     </row>
     <row r="5287">
       <c r="A5287" t="inlineStr">
         <is>
-          <t>2015-01-18</t>
+          <t>2017-02-15</t>
         </is>
       </c>
       <c r="B5287" t="n">
-        <v>4062626.204</v>
+        <v>7448825.404</v>
       </c>
     </row>
     <row r="5288">
       <c r="A5288" t="inlineStr">
         <is>
-          <t>2011-09-27</t>
+          <t>2015-01-18</t>
         </is>
       </c>
       <c r="B5288" t="n">
-        <v>744327.885</v>
+        <v>4062626.204</v>
       </c>
     </row>
     <row r="5289">
       <c r="A5289" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2011-09-27</t>
         </is>
       </c>
       <c r="B5289" t="n">
-        <v>18754649.599</v>
+        <v>744327.885</v>
       </c>
     </row>
     <row r="5290">
       <c r="A5290" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B5290" t="n">
-        <v>18648006.799</v>
+        <v>18754649.599</v>
       </c>
     </row>
     <row r="5291">
       <c r="A5291" t="inlineStr">
         <is>
-          <t>2017-08-24</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B5291" t="n">
-        <v>19382954.778</v>
+        <v>18648006.799</v>
       </c>
     </row>
     <row r="5292">
       <c r="A5292" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2017-08-24</t>
         </is>
       </c>
       <c r="B5292" t="n">
-        <v>8319527.642</v>
+        <v>19382954.778</v>
       </c>
     </row>
     <row r="5293">
       <c r="A5293" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B5293" t="n">
-        <v>10152904.599</v>
+        <v>8319527.642</v>
       </c>
     </row>
     <row r="5294">
       <c r="A5294" t="inlineStr">
         <is>
-          <t>2014-02-26</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="B5294" t="n">
-        <v>4892785.663</v>
+        <v>10152904.599</v>
       </c>
     </row>
     <row r="5295">
       <c r="A5295" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2014-02-26</t>
         </is>
       </c>
       <c r="B5295" t="n">
-        <v>15630701.474</v>
+        <v>4892785.663</v>
       </c>
     </row>
     <row r="5296">
       <c r="A5296" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B5296" t="n">
-        <v>11711443.8</v>
+        <v>15630701.474</v>
       </c>
     </row>
     <row r="5297">
       <c r="A5297" t="inlineStr">
         <is>
-          <t>2017-03-06</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B5297" t="n">
-        <v>7818647.054</v>
+        <v>11711443.8</v>
       </c>
     </row>
     <row r="5298">
       <c r="A5298" t="inlineStr">
         <is>
-          <t>2015-01-26</t>
+          <t>2017-03-06</t>
         </is>
       </c>
       <c r="B5298" t="n">
-        <v>4227141.883</v>
+        <v>7818647.054</v>
       </c>
     </row>
     <row r="5299">
       <c r="A5299" t="inlineStr">
         <is>
-          <t>2011-10-11</t>
+          <t>2015-01-26</t>
         </is>
       </c>
       <c r="B5299" t="n">
-        <v>733876.334</v>
+        <v>4227141.883</v>
       </c>
     </row>
     <row r="5300">
       <c r="A5300" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2011-10-11</t>
         </is>
       </c>
       <c r="B5300" t="n">
-        <v>11437944.275</v>
+        <v>733876.334</v>
       </c>
     </row>
     <row r="5301">
       <c r="A5301" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B5301" t="n">
-        <v>8278468.575</v>
+        <v>11437944.275</v>
       </c>
     </row>
     <row r="5302">
       <c r="A5302" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B5302" t="n">
-        <v>8620307.16</v>
+        <v>8278468.575</v>
       </c>
     </row>
     <row r="5303">
       <c r="A5303" t="inlineStr">
         <is>
-          <t>2014-03-15</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="B5303" t="n">
-        <v>6519122.467</v>
+        <v>8620307.16</v>
       </c>
     </row>
     <row r="5304">
       <c r="A5304" t="inlineStr">
         <is>
-          <t>2017-03-12</t>
+          <t>2014-03-15</t>
         </is>
       </c>
       <c r="B5304" t="n">
-        <v>8015167.541</v>
+        <v>6519122.467</v>
       </c>
     </row>
     <row r="5305">
       <c r="A5305" t="inlineStr">
         <is>
-          <t>2015-02-02</t>
+          <t>2017-03-12</t>
         </is>
       </c>
       <c r="B5305" t="n">
-        <v>4214903.008</v>
+        <v>8015167.541</v>
       </c>
     </row>
     <row r="5306">
       <c r="A5306" t="inlineStr">
         <is>
-          <t>2011-10-28</t>
+          <t>2015-02-02</t>
         </is>
       </c>
       <c r="B5306" t="n">
-        <v>735721.417</v>
+        <v>4214903.008</v>
       </c>
     </row>
     <row r="5307">
       <c r="A5307" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="B5307" t="n">
-        <v>18201448.889</v>
+        <v>735721.417</v>
       </c>
     </row>
     <row r="5308">
       <c r="A5308" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B5308" t="n">
-        <v>12856671.682</v>
+        <v>18201448.889</v>
       </c>
     </row>
     <row r="5309">
       <c r="A5309" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B5309" t="n">
-        <v>7919062.632</v>
+        <v>12856671.682</v>
       </c>
     </row>
     <row r="5310">
       <c r="A5310" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B5310" t="n">
-        <v>9519524.592</v>
+        <v>7919062.632</v>
       </c>
     </row>
     <row r="5311">
       <c r="A5311" t="inlineStr">
         <is>
-          <t>2014-03-18</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="B5311" t="n">
-        <v>6370558.748</v>
+        <v>9519524.592</v>
       </c>
     </row>
     <row r="5312">
       <c r="A5312" t="inlineStr">
         <is>
-          <t>2017-03-21</t>
+          <t>2014-03-18</t>
         </is>
       </c>
       <c r="B5312" t="n">
-        <v>8412562.749</v>
+        <v>6370558.748</v>
       </c>
     </row>
     <row r="5313">
       <c r="A5313" t="inlineStr">
         <is>
-          <t>2015-02-09</t>
+          <t>2017-03-21</t>
         </is>
       </c>
       <c r="B5313" t="n">
-        <v>4096290.662</v>
+        <v>8412562.749</v>
       </c>
     </row>
     <row r="5314">
       <c r="A5314" t="inlineStr">
         <is>
-          <t>2011-10-31</t>
+          <t>2015-02-09</t>
         </is>
       </c>
       <c r="B5314" t="n">
-        <v>732160.326</v>
+        <v>4096290.662</v>
       </c>
     </row>
     <row r="5315">
       <c r="A5315" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2011-10-31</t>
         </is>
       </c>
       <c r="B5315" t="n">
-        <v>7287456.154</v>
+        <v>732160.326</v>
       </c>
     </row>
     <row r="5316">
       <c r="A5316" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B5316" t="n">
-        <v>9308642.501</v>
+        <v>7287456.154</v>
       </c>
     </row>
     <row r="5317">
       <c r="A5317" t="inlineStr">
         <is>
-          <t>2014-04-06</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="B5317" t="n">
-        <v>5505621.837</v>
+        <v>9308642.501</v>
       </c>
     </row>
     <row r="5318">
       <c r="A5318" t="inlineStr">
         <is>
-          <t>2017-04-09</t>
+          <t>2014-04-06</t>
         </is>
       </c>
       <c r="B5318" t="n">
-        <v>8810606.551000001</v>
+        <v>5505621.837</v>
       </c>
     </row>
     <row r="5319">
       <c r="A5319" t="inlineStr">
         <is>
-          <t>2015-03-02</t>
+          <t>2017-04-09</t>
         </is>
       </c>
       <c r="B5319" t="n">
-        <v>3933274.224</v>
+        <v>8810606.551000001</v>
       </c>
     </row>
     <row r="5320">
       <c r="A5320" t="inlineStr">
         <is>
-          <t>2011-11-14</t>
+          <t>2015-03-02</t>
         </is>
       </c>
       <c r="B5320" t="n">
-        <v>826121.591</v>
+        <v>3933274.224</v>
       </c>
     </row>
     <row r="5321">
       <c r="A5321" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2011-11-14</t>
         </is>
       </c>
       <c r="B5321" t="n">
-        <v>10333719.079</v>
+        <v>826121.591</v>
       </c>
     </row>
     <row r="5322">
       <c r="A5322" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B5322" t="n">
-        <v>6907432.252</v>
+        <v>10333719.079</v>
       </c>
     </row>
     <row r="5323">
       <c r="A5323" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B5323" t="n">
-        <v>9481051.257999999</v>
+        <v>6907432.252</v>
       </c>
     </row>
     <row r="5324">
       <c r="A5324" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="B5324" t="n">
-        <v>16829264.336</v>
+        <v>9481051.257999999</v>
       </c>
     </row>
     <row r="5325">
       <c r="A5325" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B5325" t="n">
-        <v>10843259.392</v>
+        <v>16829264.336</v>
       </c>
     </row>
     <row r="5326">
       <c r="A5326" t="inlineStr">
         <is>
-          <t>2014-04-27</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B5326" t="n">
-        <v>5438426.506</v>
+        <v>10843259.392</v>
       </c>
     </row>
     <row r="5327">
       <c r="A5327" t="inlineStr">
         <is>
-          <t>2015-03-09</t>
+          <t>2014-04-27</t>
         </is>
       </c>
       <c r="B5327" t="n">
-        <v>3900348.066</v>
+        <v>5438426.506</v>
       </c>
     </row>
     <row r="5328">
       <c r="A5328" t="inlineStr">
         <is>
-          <t>2011-11-16</t>
+          <t>2015-03-09</t>
         </is>
       </c>
       <c r="B5328" t="n">
-        <v>1048736.803</v>
+        <v>3900348.066</v>
       </c>
     </row>
     <row r="5329">
       <c r="A5329" t="inlineStr">
         <is>
-          <t>2017-04-20</t>
+          <t>2011-11-16</t>
         </is>
       </c>
       <c r="B5329" t="n">
-        <v>8967425.550000001</v>
+        <v>1048736.803</v>
       </c>
     </row>
     <row r="5330">
       <c r="A5330" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2017-04-20</t>
         </is>
       </c>
       <c r="B5330" t="n">
-        <v>12827728.942</v>
+        <v>8967425.550000001</v>
       </c>
     </row>
     <row r="5331">
       <c r="A5331" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B5331" t="n">
-        <v>6721984.554</v>
+        <v>12827728.942</v>
       </c>
     </row>
     <row r="5332">
       <c r="A5332" t="inlineStr">
         <is>
-          <t>2022-08-06</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="B5332" t="n">
-        <v>9532015.716</v>
+        <v>6721984.554</v>
       </c>
     </row>
     <row r="5333">
       <c r="A5333" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="B5333" t="n">
-        <v>16884075.838</v>
+        <v>9532015.716</v>
       </c>
     </row>
     <row r="5334">
       <c r="A5334" t="inlineStr">
         <is>
-          <t>2014-06-01</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B5334" t="n">
-        <v>4343530.167</v>
+        <v>16884075.838</v>
       </c>
     </row>
     <row r="5335">
       <c r="A5335" t="inlineStr">
         <is>
-          <t>2015-03-22</t>
+          <t>2014-06-01</t>
         </is>
       </c>
       <c r="B5335" t="n">
-        <v>4135797.457</v>
+        <v>4343530.167</v>
       </c>
     </row>
     <row r="5336">
       <c r="A5336" t="inlineStr">
         <is>
-          <t>2017-04-30</t>
+          <t>2015-03-22</t>
         </is>
       </c>
       <c r="B5336" t="n">
-        <v>8922467.217</v>
+        <v>4135797.457</v>
       </c>
     </row>
     <row r="5337">
       <c r="A5337" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2017-04-30</t>
         </is>
       </c>
       <c r="B5337" t="n">
-        <v>1086764.653</v>
+        <v>8922467.217</v>
       </c>
     </row>
     <row r="5338">
       <c r="A5338" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2011-11-19</t>
         </is>
       </c>
       <c r="B5338" t="n">
-        <v>13592327.934</v>
+        <v>1086764.653</v>
       </c>
     </row>
     <row r="5339">
       <c r="A5339" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B5339" t="n">
-        <v>18930025.11</v>
+        <v>13592327.934</v>
       </c>
     </row>
     <row r="5340">
       <c r="A5340" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="B5340" t="n">
-        <v>17480511.655</v>
+        <v>18930025.11</v>
       </c>
     </row>
     <row r="5341">
       <c r="A5341" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B5341" t="n">
-        <v>15295963.935</v>
+        <v>17480511.655</v>
       </c>
     </row>
     <row r="5342">
       <c r="A5342" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="B5342" t="n">
-        <v>5802826.225</v>
+        <v>15295963.935</v>
       </c>
     </row>
     <row r="5343">
       <c r="A5343" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="B5343" t="n">
-        <v>8363509.02</v>
+        <v>5802826.225</v>
       </c>
     </row>
     <row r="5344">
       <c r="A5344" t="inlineStr">
         <is>
-          <t>2014-06-28</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="B5344" t="n">
-        <v>2686947.84</v>
+        <v>8363509.02</v>
       </c>
     </row>
     <row r="5345">
       <c r="A5345" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2014-06-28</t>
         </is>
       </c>
       <c r="B5345" t="n">
-        <v>11641354.93</v>
+        <v>2686947.84</v>
       </c>
     </row>
     <row r="5346">
       <c r="A5346" t="inlineStr">
         <is>
-          <t>2017-05-17</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B5346" t="n">
-        <v>10300409.588</v>
+        <v>11641354.93</v>
       </c>
     </row>
     <row r="5347">
       <c r="A5347" t="inlineStr">
         <is>
-          <t>2015-03-29</t>
+          <t>2017-05-17</t>
         </is>
       </c>
       <c r="B5347" t="n">
-        <v>3988633.591</v>
+        <v>10300409.588</v>
       </c>
     </row>
     <row r="5348">
       <c r="A5348" t="inlineStr">
         <is>
-          <t>2011-12-03</t>
+          <t>2015-03-29</t>
         </is>
       </c>
       <c r="B5348" t="n">
-        <v>1095387.925</v>
+        <v>3988633.591</v>
       </c>
     </row>
     <row r="5349">
       <c r="A5349" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2011-12-03</t>
         </is>
       </c>
       <c r="B5349" t="n">
-        <v>17359924.278</v>
+        <v>1095387.925</v>
       </c>
     </row>
     <row r="5350">
       <c r="A5350" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="B5350" t="n">
-        <v>16833334.95</v>
+        <v>17359924.278</v>
       </c>
     </row>
     <row r="5351">
       <c r="A5351" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B5351" t="n">
-        <v>10236215.389</v>
+        <v>16833334.95</v>
       </c>
     </row>
     <row r="5352">
       <c r="A5352" t="inlineStr">
         <is>
-          <t>2017-06-01</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B5352" t="n">
-        <v>11531744.112</v>
+        <v>10236215.389</v>
       </c>
     </row>
     <row r="5353">
       <c r="A5353" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2017-06-01</t>
         </is>
       </c>
       <c r="B5353" t="n">
-        <v>6065155.983</v>
+        <v>11531744.112</v>
       </c>
     </row>
     <row r="5354">
       <c r="A5354" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="B5354" t="n">
-        <v>8049967.714</v>
+        <v>6065155.983</v>
       </c>
     </row>
     <row r="5355">
       <c r="A5355" t="inlineStr">
         <is>
-          <t>2024-07-13</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="B5355" t="n">
-        <v>15731904.375</v>
+        <v>8049967.714</v>
       </c>
     </row>
     <row r="5356">
       <c r="A5356" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="B5356" t="n">
-        <v>2436383.016</v>
+        <v>15731904.375</v>
       </c>
     </row>
     <row r="5357">
       <c r="A5357" t="inlineStr">
         <is>
-          <t>2015-04-06</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="B5357" t="n">
-        <v>3694404.674</v>
+        <v>2436383.016</v>
       </c>
     </row>
     <row r="5358">
       <c r="A5358" t="inlineStr">
         <is>
-          <t>2011-12-17</t>
+          <t>2015-04-06</t>
         </is>
       </c>
       <c r="B5358" t="n">
-        <v>1066127.172</v>
+        <v>3694404.674</v>
       </c>
     </row>
     <row r="5359">
       <c r="A5359" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2011-12-17</t>
         </is>
       </c>
       <c r="B5359" t="n">
-        <v>19357870.444</v>
+        <v>1066127.172</v>
       </c>
     </row>
     <row r="5360">
       <c r="A5360" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B5360" t="n">
-        <v>9506750.107999999</v>
+        <v>19357870.444</v>
       </c>
     </row>
     <row r="5361">
       <c r="A5361" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="B5361" t="n">
-        <v>18249350.163</v>
+        <v>9506750.107999999</v>
       </c>
     </row>
     <row r="5362">
       <c r="A5362" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B5362" t="n">
-        <v>10121188.898</v>
+        <v>18249350.163</v>
       </c>
     </row>
     <row r="5363">
       <c r="A5363" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B5363" t="n">
-        <v>18172193.247</v>
+        <v>10121188.898</v>
       </c>
     </row>
     <row r="5364">
       <c r="A5364" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B5364" t="n">
-        <v>11873870.808</v>
+        <v>18172193.247</v>
       </c>
     </row>
     <row r="5365">
       <c r="A5365" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B5365" t="n">
-        <v>16905626.816</v>
+        <v>11873870.808</v>
       </c>
     </row>
     <row r="5366">
       <c r="A5366" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B5366" t="n">
-        <v>11511228.874</v>
+        <v>16905626.816</v>
       </c>
     </row>
     <row r="5367">
       <c r="A5367" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-05-03</t>
         </is>
       </c>
       <c r="B5367" t="n">
-        <v>18829096.598</v>
+        <v>11511228.874</v>
       </c>
     </row>
     <row r="5368">
       <c r="A5368" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B5368" t="n">
-        <v>11905850.214</v>
+        <v>18829096.598</v>
       </c>
     </row>
     <row r="5369">
       <c r="A5369" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="B5369" t="n">
-        <v>6820551.817</v>
+        <v>11905850.214</v>
       </c>
     </row>
     <row r="5370">
       <c r="A5370" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="B5370" t="n">
-        <v>6358468.879</v>
+        <v>6820551.817</v>
       </c>
     </row>
     <row r="5371">
       <c r="A5371" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="B5371" t="n">
-        <v>14873483.781</v>
+        <v>6358468.879</v>
       </c>
     </row>
     <row r="5372">
       <c r="A5372" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B5372" t="n">
-        <v>11867652.532</v>
+        <v>14873483.781</v>
       </c>
     </row>
     <row r="5373">
       <c r="A5373" t="inlineStr">
         <is>
-          <t>2014-08-06</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B5373" t="n">
-        <v>2826869.713</v>
+        <v>11867652.532</v>
       </c>
     </row>
     <row r="5374">
       <c r="A5374" t="inlineStr">
         <is>
-          <t>2015-04-12</t>
+          <t>2014-08-06</t>
         </is>
       </c>
       <c r="B5374" t="n">
-        <v>3600337.897</v>
+        <v>2826869.713</v>
       </c>
     </row>
     <row r="5375">
       <c r="A5375" t="inlineStr">
         <is>
-          <t>2012-01-03</t>
+          <t>2015-04-12</t>
         </is>
       </c>
       <c r="B5375" t="n">
-        <v>1178238.791</v>
+        <v>3600337.897</v>
       </c>
     </row>
     <row r="5376">
       <c r="A5376" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2012-01-03</t>
         </is>
       </c>
       <c r="B5376" t="n">
-        <v>12210206.289</v>
+        <v>1178238.791</v>
       </c>
     </row>
     <row r="5377">
       <c r="A5377" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B5377" t="n">
-        <v>18211536.318</v>
+        <v>12210206.289</v>
       </c>
     </row>
     <row r="5378">
       <c r="A5378" t="inlineStr">
         <is>
-          <t>2017-08-15</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B5378" t="n">
-        <v>19566598.77</v>
+        <v>18211536.318</v>
       </c>
     </row>
     <row r="5379">
       <c r="A5379" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2017-08-15</t>
         </is>
       </c>
       <c r="B5379" t="n">
-        <v>6837460.05</v>
+        <v>19566598.77</v>
       </c>
     </row>
     <row r="5380">
       <c r="A5380" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="B5380" t="n">
-        <v>8536718.226</v>
+        <v>6837460.05</v>
       </c>
     </row>
     <row r="5381">
       <c r="A5381" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B5381" t="n">
-        <v>19772264.652</v>
+        <v>8536718.226</v>
       </c>
     </row>
     <row r="5382">
       <c r="A5382" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="B5382" t="n">
-        <v>16050259.512</v>
+        <v>19772264.652</v>
       </c>
     </row>
     <row r="5383">
       <c r="A5383" t="inlineStr">
         <is>
-          <t>2014-08-18</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B5383" t="n">
-        <v>2925697.333</v>
+        <v>16050259.512</v>
       </c>
     </row>
     <row r="5384">
       <c r="A5384" t="inlineStr">
         <is>
-          <t>2015-04-19</t>
+          <t>2014-08-18</t>
         </is>
       </c>
       <c r="B5384" t="n">
-        <v>3445407.103</v>
+        <v>2925697.333</v>
       </c>
     </row>
     <row r="5385">
       <c r="A5385" t="inlineStr">
         <is>
-          <t>2012-01-20</t>
+          <t>2015-04-19</t>
         </is>
       </c>
       <c r="B5385" t="n">
-        <v>1244736.785</v>
+        <v>3445407.103</v>
       </c>
     </row>
     <row r="5386">
       <c r="A5386" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2012-01-20</t>
         </is>
       </c>
       <c r="B5386" t="n">
-        <v>13510242.654</v>
+        <v>1244736.785</v>
       </c>
     </row>
     <row r="5387">
       <c r="A5387" t="inlineStr">
         <is>
-          <t>2017-08-28</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B5387" t="n">
-        <v>19422838.72</v>
+        <v>13510242.654</v>
       </c>
     </row>
     <row r="5388">
       <c r="A5388" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2017-08-28</t>
         </is>
       </c>
       <c r="B5388" t="n">
-        <v>11104807.404</v>
+        <v>19422838.72</v>
       </c>
     </row>
     <row r="5389">
       <c r="A5389" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="B5389" t="n">
-        <v>10451472.456</v>
+        <v>11104807.404</v>
       </c>
     </row>
     <row r="5390">
       <c r="A5390" t="inlineStr">
         <is>
-          <t>2014-09-13</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B5390" t="n">
-        <v>2524791.779</v>
+        <v>10451472.456</v>
       </c>
     </row>
     <row r="5391">
       <c r="A5391" t="inlineStr">
         <is>
-          <t>2015-04-25</t>
+          <t>2014-09-13</t>
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>3352942.164</v>
+        <v>2524791.779</v>
       </c>
     </row>
     <row r="5392">
       <c r="A5392" t="inlineStr">
         <is>
-          <t>2012-01-21</t>
+          <t>2015-04-25</t>
         </is>
       </c>
       <c r="B5392" t="n">
-        <v>1246443.905</v>
+        <v>3352942.164</v>
       </c>
     </row>
     <row r="5393">
       <c r="A5393" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2012-01-21</t>
         </is>
       </c>
       <c r="B5393" t="n">
-        <v>14362928.781</v>
+        <v>1246443.905</v>
       </c>
     </row>
     <row r="5394">
       <c r="A5394" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B5394" t="n">
-        <v>20351324.136</v>
+        <v>14362928.781</v>
       </c>
     </row>
     <row r="5395">
       <c r="A5395" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B5395" t="n">
-        <v>13491078.904</v>
+        <v>20351324.136</v>
       </c>
     </row>
     <row r="5396">
       <c r="A5396" t="inlineStr">
         <is>
-          <t>2017-09-08</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B5396" t="n">
-        <v>19486335.788</v>
+        <v>13491078.904</v>
       </c>
     </row>
     <row r="5397">
       <c r="A5397" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2017-09-08</t>
         </is>
       </c>
       <c r="B5397" t="n">
-        <v>13156711.485</v>
+        <v>19486335.788</v>
       </c>
     </row>
     <row r="5398">
       <c r="A5398" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B5398" t="n">
-        <v>10510937.957</v>
+        <v>13156711.485</v>
       </c>
     </row>
     <row r="5399">
       <c r="A5399" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="B5399" t="n">
-        <v>15716836.044</v>
+        <v>10510937.957</v>
       </c>
     </row>
     <row r="5400">
       <c r="A5400" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-07-21</t>
         </is>
       </c>
       <c r="B5400" t="n">
-        <v>19939698.057</v>
+        <v>15716836.044</v>
       </c>
     </row>
     <row r="5401">
       <c r="A5401" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B5401" t="n">
-        <v>2628371.334</v>
+        <v>19939698.057</v>
       </c>
     </row>
     <row r="5402">
       <c r="A5402" t="inlineStr">
         <is>
-          <t>2015-05-20</t>
+          <t>2014-10-02</t>
         </is>
       </c>
       <c r="B5402" t="n">
-        <v>3177021.142</v>
+        <v>2628371.334</v>
       </c>
     </row>
     <row r="5403">
       <c r="A5403" t="inlineStr">
         <is>
-          <t>2012-01-26</t>
+          <t>2015-05-20</t>
         </is>
       </c>
       <c r="B5403" t="n">
-        <v>1264128.557</v>
+        <v>3177021.142</v>
       </c>
     </row>
     <row r="5404">
       <c r="A5404" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2012-01-26</t>
         </is>
       </c>
       <c r="B5404" t="n">
-        <v>10152643.862</v>
+        <v>1264128.557</v>
       </c>
     </row>
     <row r="5405">
       <c r="A5405" t="inlineStr">
         <is>
-          <t>2017-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="B5405" t="n">
-        <v>18137220.352</v>
+        <v>10152643.862</v>
       </c>
     </row>
     <row r="5406">
       <c r="A5406" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2017-09-23</t>
         </is>
       </c>
       <c r="B5406" t="n">
-        <v>18779023.107</v>
+        <v>18137220.352</v>
       </c>
     </row>
     <row r="5407">
       <c r="A5407" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="B5407" t="n">
-        <v>10615483.231</v>
+        <v>18779023.107</v>
       </c>
     </row>
     <row r="5408">
       <c r="A5408" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="B5408" t="n">
-        <v>15795124.861</v>
+        <v>10615483.231</v>
       </c>
     </row>
     <row r="5409">
       <c r="A5409" t="inlineStr">
         <is>
-          <t>2014-10-23</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B5409" t="n">
-        <v>3053937.556</v>
+        <v>15795124.861</v>
       </c>
     </row>
     <row r="5410">
       <c r="A5410" t="inlineStr">
         <is>
-          <t>2015-05-27</t>
+          <t>2014-10-23</t>
         </is>
       </c>
       <c r="B5410" t="n">
-        <v>2974495.006</v>
+        <v>3053937.556</v>
       </c>
     </row>
     <row r="5411">
       <c r="A5411" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2015-05-27</t>
         </is>
       </c>
       <c r="B5411" t="n">
-        <v>1068036.951</v>
+        <v>2974495.006</v>
       </c>
     </row>
     <row r="5412">
       <c r="A5412" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="B5412" t="n">
-        <v>12796519.886</v>
+        <v>1068036.951</v>
       </c>
     </row>
     <row r="5413">
       <c r="A5413" t="inlineStr">
         <is>
-          <t>2017-10-09</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B5413" t="n">
-        <v>19407598.446</v>
+        <v>12796519.886</v>
       </c>
     </row>
     <row r="5414">
       <c r="A5414" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2017-10-09</t>
         </is>
       </c>
       <c r="B5414" t="n">
-        <v>20455744.669</v>
+        <v>19407598.446</v>
       </c>
     </row>
     <row r="5415">
       <c r="A5415" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="B5415" t="n">
-        <v>11376341.238</v>
+        <v>20455744.669</v>
       </c>
     </row>
     <row r="5416">
       <c r="A5416" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="B5416" t="n">
-        <v>14589767.49</v>
+        <v>11376341.238</v>
       </c>
     </row>
     <row r="5417">
       <c r="A5417" t="inlineStr">
         <is>
-          <t>2014-11-01</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B5417" t="n">
-        <v>3044004.834</v>
+        <v>14589767.49</v>
       </c>
     </row>
     <row r="5418">
       <c r="A5418" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2014-11-01</t>
         </is>
       </c>
       <c r="B5418" t="n">
-        <v>2765454.564</v>
+        <v>3044004.834</v>
       </c>
     </row>
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2012-04-02</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="B5419" t="n">
-        <v>1066217.337</v>
+        <v>2765454.564</v>
       </c>
     </row>
     <row r="5420">
       <c r="A5420" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2012-04-02</t>
         </is>
       </c>
       <c r="B5420" t="n">
-        <v>13432763.242</v>
+        <v>1066217.337</v>
       </c>
     </row>
     <row r="5421">
       <c r="A5421" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B5421" t="n">
-        <v>19306849.276</v>
+        <v>13432763.242</v>
       </c>
     </row>
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="B5422" t="n">
-        <v>17904427.701</v>
+        <v>19306849.276</v>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="B5423" t="n">
-        <v>11260943.27</v>
+        <v>17904427.701</v>
       </c>
     </row>
     <row r="5424">
       <c r="A5424" t="inlineStr">
         <is>
-          <t>2014-11-19</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="B5424" t="n">
-        <v>3019744.611</v>
+        <v>11260943.27</v>
       </c>
     </row>
     <row r="5425">
       <c r="A5425" t="inlineStr">
         <is>
-          <t>2015-06-09</t>
+          <t>2014-11-19</t>
         </is>
       </c>
       <c r="B5425" t="n">
-        <v>2361717.899</v>
+        <v>3019744.611</v>
       </c>
     </row>
     <row r="5426">
       <c r="A5426" t="inlineStr">
         <is>
-          <t>2012-04-18</t>
+          <t>2015-06-09</t>
         </is>
       </c>
       <c r="B5426" t="n">
-        <v>1080512.495</v>
+        <v>2361717.899</v>
       </c>
     </row>
     <row r="5427">
       <c r="A5427" t="inlineStr">
         <is>
-          <t>2017-11-16</t>
+          <t>2012-04-18</t>
         </is>
       </c>
       <c r="B5427" t="n">
-        <v>15794441.353</v>
+        <v>1080512.495</v>
       </c>
     </row>
     <row r="5428">
       <c r="A5428" t="inlineStr">
         <is>
-          <t>2021-02-12</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="B5428" t="n">
-        <v>18047843.242</v>
+        <v>15794441.353</v>
       </c>
     </row>
     <row r="5429">
       <c r="A5429" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2021-02-12</t>
         </is>
       </c>
       <c r="B5429" t="n">
-        <v>7804497.859</v>
+        <v>18047843.242</v>
       </c>
     </row>
     <row r="5430">
       <c r="A5430" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="B5430" t="n">
-        <v>9877779.377</v>
+        <v>7804497.859</v>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="inlineStr">
         <is>
-          <t>2014-12-05</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B5431" t="n">
-        <v>3374566.02</v>
+        <v>9877779.377</v>
       </c>
     </row>
     <row r="5432">
       <c r="A5432" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2014-12-05</t>
         </is>
       </c>
       <c r="B5432" t="n">
-        <v>2394815.633</v>
+        <v>3374566.02</v>
       </c>
     </row>
     <row r="5433">
       <c r="A5433" t="inlineStr">
         <is>
-          <t>2012-05-04</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="B5433" t="n">
-        <v>1211448.82</v>
+        <v>2394815.633</v>
       </c>
     </row>
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2012-05-04</t>
         </is>
       </c>
       <c r="B5434" t="n">
-        <v>9388382.575999999</v>
+        <v>1211448.82</v>
       </c>
     </row>
     <row r="5435">
       <c r="A5435" t="inlineStr">
         <is>
-          <t>2017-11-30</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B5435" t="n">
-        <v>15739620.059</v>
+        <v>9388382.575999999</v>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2017-11-30</t>
         </is>
       </c>
       <c r="B5436" t="n">
-        <v>17461848.264</v>
+        <v>15739620.059</v>
       </c>
     </row>
     <row r="5437">
       <c r="A5437" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="B5437" t="n">
-        <v>7349744.434</v>
+        <v>17461848.264</v>
       </c>
     </row>
     <row r="5438">
       <c r="A5438" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="B5438" t="n">
-        <v>15621689.103</v>
+        <v>7349744.434</v>
       </c>
     </row>
     <row r="5439">
       <c r="A5439" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="B5439" t="n">
-        <v>11149234.035</v>
+        <v>15621689.103</v>
       </c>
     </row>
     <row r="5440">
       <c r="A5440" t="inlineStr">
         <is>
-          <t>2014-12-24</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B5440" t="n">
-        <v>3749367.14</v>
+        <v>11149234.035</v>
       </c>
     </row>
     <row r="5441">
       <c r="A5441" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2014-12-24</t>
         </is>
       </c>
       <c r="B5441" t="n">
-        <v>18799096.649</v>
+        <v>3749367.14</v>
       </c>
     </row>
     <row r="5442">
       <c r="A5442" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B5442" t="n">
-        <v>2573704.983</v>
+        <v>18799096.649</v>
       </c>
     </row>
     <row r="5443">
       <c r="A5443" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="B5443" t="n">
-        <v>1258763.689</v>
+        <v>2573704.983</v>
       </c>
     </row>
     <row r="5444">
       <c r="A5444" t="inlineStr">
         <is>
-          <t>2017-12-01</t>
+          <t>2012-05-21</t>
         </is>
       </c>
       <c r="B5444" t="n">
-        <v>15786676.067</v>
+        <v>1258763.689</v>
       </c>
     </row>
     <row r="5445">
       <c r="A5445" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2017-12-01</t>
         </is>
       </c>
       <c r="B5445" t="n">
-        <v>15009732.42</v>
+        <v>15786676.067</v>
       </c>
     </row>
     <row r="5446">
       <c r="A5446" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B5446" t="n">
-        <v>8127301.046</v>
+        <v>15009732.42</v>
       </c>
     </row>
     <row r="5447">
       <c r="A5447" t="inlineStr">
         <is>
-          <t>2015-01-11</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="B5447" t="n">
-        <v>3848375.44</v>
+        <v>8127301.046</v>
       </c>
     </row>
     <row r="5448">
       <c r="A5448" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-01-11</t>
         </is>
       </c>
       <c r="B5448" t="n">
-        <v>2511092.261</v>
+        <v>3848375.44</v>
       </c>
     </row>
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>2012-06-06</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="B5449" t="n">
-        <v>1365675.341</v>
+        <v>2511092.261</v>
       </c>
     </row>
     <row r="5450">
       <c r="A5450" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2012-06-06</t>
         </is>
       </c>
       <c r="B5450" t="n">
-        <v>18209088.114</v>
+        <v>1365675.341</v>
       </c>
     </row>
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B5451" t="n">
-        <v>17645156.999</v>
+        <v>18209088.114</v>
       </c>
     </row>
     <row r="5452">
       <c r="A5452" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="B5452" t="n">
-        <v>13264526.584</v>
+        <v>17645156.999</v>
       </c>
     </row>
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>8486747.433</v>
+        <v>13264526.584</v>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>4046018.483</v>
+        <v>8486747.433</v>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>2718554.466</v>
+        <v>4046018.483</v>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>1367243.39</v>
+        <v>2718554.466</v>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2012-06-18</t>
         </is>
       </c>
       <c r="B5457" t="n">
-        <v>9114476.312000001</v>
+        <v>1367243.39</v>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>15346852.871</v>
+        <v>9114476.312000001</v>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>12870879.477</v>
+        <v>15346852.871</v>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>17780525.245</v>
+        <v>12870879.477</v>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>13194431.726</v>
+        <v>17780525.245</v>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>8346328.634</v>
+        <v>13194431.726</v>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>16236706.926</v>
+        <v>8346328.634</v>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>16585261.576</v>
+        <v>16236706.926</v>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2015-02-10</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>4071380.974</v>
+        <v>16585261.576</v>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>2793932.294</v>
+        <v>4071380.974</v>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5467" t="n">
-        <v>1363857.943</v>
+        <v>2793932.294</v>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5468" t="n">
-        <v>18882222.042</v>
+        <v>1363857.943</v>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5469" t="n">
-        <v>17968690.541</v>
+        <v>18882222.042</v>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>9386582.370999999</v>
+        <v>17968690.541</v>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>17890389.899</v>
+        <v>9386582.370999999</v>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>12015164.279</v>
+        <v>17890389.899</v>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>7902657.124</v>
+        <v>12015164.279</v>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>10503343.65</v>
+        <v>7902657.124</v>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>3819509.271</v>
+        <v>10503343.65</v>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>2826416.003</v>
+        <v>3819509.271</v>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>1630324.679</v>
+        <v>2826416.003</v>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>10658742.561</v>
+        <v>1630324.679</v>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>18727823.649</v>
+        <v>10658742.561</v>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>17224052.503</v>
+        <v>18727823.649</v>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>10673931.348</v>
+        <v>17224052.503</v>
       </c>
     </row>
     <row r="5482">
       <c r="A5482" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>3979751.142</v>
+        <v>10673931.348</v>
       </c>
     </row>
     <row r="5483">
       <c r="A5483" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5483" t="n">
-        <v>3642872.298</v>
+        <v>3979751.142</v>
       </c>
     </row>
     <row r="5484">
       <c r="A5484" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>1613219.441</v>
+        <v>3642872.298</v>
       </c>
     </row>
     <row r="5485">
       <c r="A5485" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>18746833.543</v>
+        <v>1613219.441</v>
       </c>
     </row>
     <row r="5486">
       <c r="A5486" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>14696488.122</v>
+        <v>18746833.543</v>
       </c>
     </row>
     <row r="5487">
       <c r="A5487" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>18803774.412</v>
+        <v>14696488.122</v>
       </c>
     </row>
     <row r="5488">
       <c r="A5488" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>13074131.781</v>
+        <v>18803774.412</v>
       </c>
     </row>
     <row r="5489">
       <c r="A5489" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>18108889.119</v>
+        <v>13074131.781</v>
       </c>
     </row>
     <row r="5490">
       <c r="A5490" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>10600975.162</v>
+        <v>18108889.119</v>
       </c>
     </row>
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>3489354.733</v>
+        <v>10600975.162</v>
       </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>3660667.082</v>
+        <v>3489354.733</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>316907.127</v>
+        <v>3660667.082</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>1760535.998</v>
+        <v>316907.127</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>19760413.223</v>
+        <v>1760535.998</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>15296257.118</v>
+        <v>19760413.223</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>10677343.165</v>
+        <v>15296257.118</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>12841467.318</v>
+        <v>10677343.165</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>3205484.527</v>
+        <v>12841467.318</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>4648212.458</v>
+        <v>3205484.527</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>1873037.142</v>
+        <v>4648212.458</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>19272529.034</v>
+        <v>1873037.142</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>13193422.783</v>
+        <v>19272529.034</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>8610177.493000001</v>
+        <v>13193422.783</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>12225489.867</v>
+        <v>8610177.493000001</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>2985205.142</v>
+        <v>12225489.867</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>4603582.061</v>
+        <v>2985205.142</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>2093652.744</v>
+        <v>4603582.061</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>11477197.525</v>
+        <v>2093652.744</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>19496972.836</v>
+        <v>11477197.525</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>10566019.663</v>
+        <v>19496972.836</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>8609734.759</v>
+        <v>10566019.663</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>18616838.388</v>
+        <v>8609734.759</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>2392944.256</v>
+        <v>18616838.388</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>4964683.773</v>
+        <v>2392944.256</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>2162784.464</v>
+        <v>4964683.773</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>8046257.588</v>
+        <v>2162784.464</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>8443126.151000001</v>
+        <v>8046257.588</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>8386250.008</v>
+        <v>8443126.151000001</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>2565551.236</v>
+        <v>8386250.008</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>6127123.106</v>
+        <v>2565551.236</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>2157212.824</v>
+        <v>6127123.106</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5523" t="n">
-        <v>11978202.448</v>
+        <v>2157212.824</v>
       </c>
     </row>
     <row r="5524">
       <c r="A5524" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5524" t="n">
-        <v>15303734.889</v>
+        <v>11978202.448</v>
       </c>
     </row>
     <row r="5525">
       <c r="A5525" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5525" t="n">
-        <v>8103908.652</v>
+        <v>15303734.889</v>
       </c>
     </row>
     <row r="5526">
       <c r="A5526" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5526" t="n">
-        <v>9382181.960999999</v>
+        <v>8103908.652</v>
       </c>
     </row>
     <row r="5527">
       <c r="A5527" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5527" t="n">
-        <v>16784620.262</v>
+        <v>9382181.960999999</v>
       </c>
     </row>
     <row r="5528">
       <c r="A5528" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5528" t="n">
-        <v>16833063.951</v>
+        <v>16784620.262</v>
       </c>
     </row>
     <row r="5529">
       <c r="A5529" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5529" t="n">
-        <v>17049245.734</v>
+        <v>16833063.951</v>
       </c>
     </row>
     <row r="5530">
       <c r="A5530" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5530" t="n">
-        <v>17115867.282</v>
+        <v>17049245.734</v>
       </c>
     </row>
     <row r="5531">
       <c r="A5531" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5531" t="n">
-        <v>17153769.299</v>
+        <v>17115867.282</v>
       </c>
     </row>
     <row r="5532">
       <c r="A5532" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5532" t="n">
-        <v>17225229.436</v>
+        <v>17153769.299</v>
       </c>
     </row>
     <row r="5533">
       <c r="A5533" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5533" t="n">
-        <v>17249482.25</v>
+        <v>17225229.436</v>
       </c>
     </row>
     <row r="5534">
       <c r="A5534" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5534" t="n">
-        <v>17569350.656</v>
+        <v>17249482.25</v>
       </c>
     </row>
     <row r="5535">
       <c r="A5535" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5535" t="n">
-        <v>2859270.317</v>
+        <v>17569350.656</v>
       </c>
     </row>
     <row r="5536">
       <c r="A5536" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5536" t="n">
-        <v>5532498.781</v>
+        <v>2859270.317</v>
       </c>
     </row>
     <row r="5537">
       <c r="A5537" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5537" t="n">
-        <v>2138609.994</v>
+        <v>5532498.781</v>
       </c>
     </row>
     <row r="5538">
       <c r="A5538" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5538" t="n">
-        <v>12895454.923</v>
+        <v>2138609.994</v>
       </c>
     </row>
     <row r="5539">
       <c r="A5539" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5539" t="n">
+        <v>12895454.923</v>
+      </c>
+    </row>
+    <row r="5540">
+      <c r="A5540" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5539" t="n">
+      <c r="B5540" t="n">
         <v>11691372.317</v>
       </c>
     </row>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5541"/>
+  <dimension ref="A1:B5542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44716,21 +44716,21 @@
     <row r="4429">
       <c r="A4429" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="B4429" t="n">
-        <v>14036807.952</v>
+        <v>17861906.92</v>
       </c>
     </row>
     <row r="4430">
       <c r="A4430" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B4430" t="n">
-        <v>17861906.92</v>
+        <v>14036807.952</v>
       </c>
     </row>
     <row r="4431">
@@ -50396,21 +50396,21 @@
     <row r="4997">
       <c r="A4997" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="B4997" t="n">
-        <v>14270964.112</v>
+        <v>12988051.483</v>
       </c>
     </row>
     <row r="4998">
       <c r="A4998" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B4998" t="n">
-        <v>12988051.483</v>
+        <v>14270964.112</v>
       </c>
     </row>
     <row r="4999">
@@ -51116,31 +51116,31 @@
     <row r="5069">
       <c r="A5069" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2013-05-20</t>
         </is>
       </c>
       <c r="B5069" t="n">
-        <v>14044333.608</v>
+        <v>5042140.665</v>
       </c>
     </row>
     <row r="5070">
       <c r="A5070" t="inlineStr">
         <is>
-          <t>2013-05-20</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B5070" t="n">
-        <v>5042140.665</v>
+        <v>12620748.822</v>
       </c>
     </row>
     <row r="5071">
       <c r="A5071" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B5071" t="n">
-        <v>12620748.822</v>
+        <v>14044333.608</v>
       </c>
     </row>
     <row r="5072">
@@ -52596,21 +52596,21 @@
     <row r="5217">
       <c r="A5217" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B5217" t="n">
-        <v>14548570.861</v>
+        <v>18413104.776</v>
       </c>
     </row>
     <row r="5218">
       <c r="A5218" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B5218" t="n">
-        <v>18413104.776</v>
+        <v>14548570.861</v>
       </c>
     </row>
     <row r="5219">
@@ -52986,2860 +52986,2870 @@
     <row r="5256">
       <c r="A5256" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B5256" t="n">
-        <v>14765108.135</v>
+        <v>14396933.475</v>
       </c>
     </row>
     <row r="5257">
       <c r="A5257" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B5257" t="n">
-        <v>10407093</v>
+        <v>14765108.135</v>
       </c>
     </row>
     <row r="5258">
       <c r="A5258" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B5258" t="n">
-        <v>12989124.134</v>
+        <v>10407093</v>
       </c>
     </row>
     <row r="5259">
       <c r="A5259" t="inlineStr">
         <is>
-          <t>2019-10-25</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="B5259" t="n">
-        <v>10081112.066</v>
+        <v>12989124.134</v>
       </c>
     </row>
     <row r="5260">
       <c r="A5260" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="B5260" t="n">
-        <v>9996728.27</v>
+        <v>10081112.066</v>
       </c>
     </row>
     <row r="5261">
       <c r="A5261" t="inlineStr">
         <is>
-          <t>2014-01-20</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="B5261" t="n">
-        <v>6614252.892</v>
+        <v>9996728.27</v>
       </c>
     </row>
     <row r="5262">
       <c r="A5262" t="inlineStr">
         <is>
-          <t>2016-12-30</t>
+          <t>2014-01-20</t>
         </is>
       </c>
       <c r="B5262" t="n">
-        <v>6503628.164</v>
+        <v>6614252.892</v>
       </c>
     </row>
     <row r="5263">
       <c r="A5263" t="inlineStr">
         <is>
-          <t>2014-12-22</t>
+          <t>2016-12-30</t>
         </is>
       </c>
       <c r="B5263" t="n">
-        <v>3563708.16</v>
+        <v>6503628.164</v>
       </c>
     </row>
     <row r="5264">
       <c r="A5264" t="inlineStr">
         <is>
-          <t>2010-09-21</t>
+          <t>2014-12-22</t>
         </is>
       </c>
       <c r="B5264" t="n">
-        <v>111207.989</v>
+        <v>3563708.16</v>
       </c>
     </row>
     <row r="5265">
       <c r="A5265" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2010-09-21</t>
         </is>
       </c>
       <c r="B5265" t="n">
-        <v>19753403.705</v>
+        <v>111207.989</v>
       </c>
     </row>
     <row r="5266">
       <c r="A5266" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B5266" t="n">
-        <v>8145349.405</v>
+        <v>19753403.705</v>
       </c>
     </row>
     <row r="5267">
       <c r="A5267" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B5267" t="n">
-        <v>8685248.65</v>
+        <v>8145349.405</v>
       </c>
     </row>
     <row r="5268">
       <c r="A5268" t="inlineStr">
         <is>
-          <t>2014-01-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="B5268" t="n">
-        <v>6168423.578</v>
+        <v>8685248.65</v>
       </c>
     </row>
     <row r="5269">
       <c r="A5269" t="inlineStr">
         <is>
-          <t>2017-01-29</t>
+          <t>2014-01-23</t>
         </is>
       </c>
       <c r="B5269" t="n">
-        <v>7399149.518</v>
+        <v>6168423.578</v>
       </c>
     </row>
     <row r="5270">
       <c r="A5270" t="inlineStr">
         <is>
-          <t>2014-12-28</t>
+          <t>2017-01-29</t>
         </is>
       </c>
       <c r="B5270" t="n">
-        <v>3660548.296</v>
+        <v>7399149.518</v>
       </c>
     </row>
     <row r="5271">
       <c r="A5271" t="inlineStr">
         <is>
-          <t>2011-07-03</t>
+          <t>2014-12-28</t>
         </is>
       </c>
       <c r="B5271" t="n">
-        <v>1736677.834</v>
+        <v>3660548.296</v>
       </c>
     </row>
     <row r="5272">
       <c r="A5272" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2011-07-03</t>
         </is>
       </c>
       <c r="B5272" t="n">
-        <v>18949481.536</v>
+        <v>1736677.834</v>
       </c>
     </row>
     <row r="5273">
       <c r="A5273" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="B5273" t="n">
-        <v>12847069.898</v>
+        <v>18949481.536</v>
       </c>
     </row>
     <row r="5274">
       <c r="A5274" t="inlineStr">
         <is>
-          <t>2019-12-29</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B5274" t="n">
-        <v>8042178.284</v>
+        <v>12847069.898</v>
       </c>
     </row>
     <row r="5275">
       <c r="A5275" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2019-12-29</t>
         </is>
       </c>
       <c r="B5275" t="n">
-        <v>9941198.092</v>
+        <v>8042178.284</v>
       </c>
     </row>
     <row r="5276">
       <c r="A5276" t="inlineStr">
         <is>
-          <t>2014-02-10</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="B5276" t="n">
-        <v>6482705.217</v>
+        <v>9941198.092</v>
       </c>
     </row>
     <row r="5277">
       <c r="A5277" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2014-02-10</t>
         </is>
       </c>
       <c r="B5277" t="n">
-        <v>3639884.552</v>
+        <v>6482705.217</v>
       </c>
     </row>
     <row r="5278">
       <c r="A5278" t="inlineStr">
         <is>
-          <t>2011-09-13</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="B5278" t="n">
-        <v>992731.454</v>
+        <v>3639884.552</v>
       </c>
     </row>
     <row r="5279">
       <c r="A5279" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2011-09-13</t>
         </is>
       </c>
       <c r="B5279" t="n">
-        <v>12025387.77</v>
+        <v>992731.454</v>
       </c>
     </row>
     <row r="5280">
       <c r="A5280" t="inlineStr">
         <is>
-          <t>2017-02-14</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B5280" t="n">
-        <v>7583332.734</v>
+        <v>12025387.77</v>
       </c>
     </row>
     <row r="5281">
       <c r="A5281" t="inlineStr">
         <is>
-          <t>2017-04-03</t>
+          <t>2017-02-14</t>
         </is>
       </c>
       <c r="B5281" t="n">
-        <v>9243648.802999999</v>
+        <v>7583332.734</v>
       </c>
     </row>
     <row r="5282">
       <c r="A5282" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2017-04-03</t>
         </is>
       </c>
       <c r="B5282" t="n">
-        <v>11517746.211</v>
+        <v>9243648.802999999</v>
       </c>
     </row>
     <row r="5283">
       <c r="A5283" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B5283" t="n">
-        <v>19403702.941</v>
+        <v>11517746.211</v>
       </c>
     </row>
     <row r="5284">
       <c r="A5284" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B5284" t="n">
-        <v>7135383.216</v>
+        <v>19403702.941</v>
       </c>
     </row>
     <row r="5285">
       <c r="A5285" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="B5285" t="n">
-        <v>10037167.8</v>
+        <v>7135383.216</v>
       </c>
     </row>
     <row r="5286">
       <c r="A5286" t="inlineStr">
         <is>
-          <t>2014-02-14</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="B5286" t="n">
-        <v>6165888.39</v>
+        <v>10037167.8</v>
       </c>
     </row>
     <row r="5287">
       <c r="A5287" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2014-02-14</t>
         </is>
       </c>
       <c r="B5287" t="n">
-        <v>18605805.647</v>
+        <v>6165888.39</v>
       </c>
     </row>
     <row r="5288">
       <c r="A5288" t="inlineStr">
         <is>
-          <t>2017-02-15</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B5288" t="n">
-        <v>7448825.404</v>
+        <v>18605805.647</v>
       </c>
     </row>
     <row r="5289">
       <c r="A5289" t="inlineStr">
         <is>
-          <t>2015-01-18</t>
+          <t>2017-02-15</t>
         </is>
       </c>
       <c r="B5289" t="n">
-        <v>4062626.204</v>
+        <v>7448825.404</v>
       </c>
     </row>
     <row r="5290">
       <c r="A5290" t="inlineStr">
         <is>
-          <t>2011-09-27</t>
+          <t>2015-01-18</t>
         </is>
       </c>
       <c r="B5290" t="n">
-        <v>744327.885</v>
+        <v>4062626.204</v>
       </c>
     </row>
     <row r="5291">
       <c r="A5291" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2011-09-27</t>
         </is>
       </c>
       <c r="B5291" t="n">
-        <v>18754649.599</v>
+        <v>744327.885</v>
       </c>
     </row>
     <row r="5292">
       <c r="A5292" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B5292" t="n">
-        <v>18648006.799</v>
+        <v>18754649.599</v>
       </c>
     </row>
     <row r="5293">
       <c r="A5293" t="inlineStr">
         <is>
-          <t>2017-08-24</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B5293" t="n">
-        <v>19382954.778</v>
+        <v>18648006.799</v>
       </c>
     </row>
     <row r="5294">
       <c r="A5294" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2017-08-24</t>
         </is>
       </c>
       <c r="B5294" t="n">
-        <v>8319527.642</v>
+        <v>19382954.778</v>
       </c>
     </row>
     <row r="5295">
       <c r="A5295" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B5295" t="n">
-        <v>10152904.599</v>
+        <v>8319527.642</v>
       </c>
     </row>
     <row r="5296">
       <c r="A5296" t="inlineStr">
         <is>
-          <t>2014-02-26</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="B5296" t="n">
-        <v>4892785.663</v>
+        <v>10152904.599</v>
       </c>
     </row>
     <row r="5297">
       <c r="A5297" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2014-02-26</t>
         </is>
       </c>
       <c r="B5297" t="n">
-        <v>15630701.474</v>
+        <v>4892785.663</v>
       </c>
     </row>
     <row r="5298">
       <c r="A5298" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B5298" t="n">
-        <v>11711443.8</v>
+        <v>15630701.474</v>
       </c>
     </row>
     <row r="5299">
       <c r="A5299" t="inlineStr">
         <is>
-          <t>2017-03-06</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B5299" t="n">
-        <v>7818647.054</v>
+        <v>11711443.8</v>
       </c>
     </row>
     <row r="5300">
       <c r="A5300" t="inlineStr">
         <is>
-          <t>2015-01-26</t>
+          <t>2017-03-06</t>
         </is>
       </c>
       <c r="B5300" t="n">
-        <v>4227141.883</v>
+        <v>7818647.054</v>
       </c>
     </row>
     <row r="5301">
       <c r="A5301" t="inlineStr">
         <is>
-          <t>2011-10-11</t>
+          <t>2015-01-26</t>
         </is>
       </c>
       <c r="B5301" t="n">
-        <v>733876.334</v>
+        <v>4227141.883</v>
       </c>
     </row>
     <row r="5302">
       <c r="A5302" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2011-10-11</t>
         </is>
       </c>
       <c r="B5302" t="n">
-        <v>11437944.275</v>
+        <v>733876.334</v>
       </c>
     </row>
     <row r="5303">
       <c r="A5303" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B5303" t="n">
-        <v>8278468.575</v>
+        <v>11437944.275</v>
       </c>
     </row>
     <row r="5304">
       <c r="A5304" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B5304" t="n">
-        <v>8620307.16</v>
+        <v>8278468.575</v>
       </c>
     </row>
     <row r="5305">
       <c r="A5305" t="inlineStr">
         <is>
-          <t>2014-03-15</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="B5305" t="n">
-        <v>6519122.467</v>
+        <v>8620307.16</v>
       </c>
     </row>
     <row r="5306">
       <c r="A5306" t="inlineStr">
         <is>
-          <t>2017-03-12</t>
+          <t>2014-03-15</t>
         </is>
       </c>
       <c r="B5306" t="n">
-        <v>8015167.541</v>
+        <v>6519122.467</v>
       </c>
     </row>
     <row r="5307">
       <c r="A5307" t="inlineStr">
         <is>
-          <t>2015-02-02</t>
+          <t>2017-03-12</t>
         </is>
       </c>
       <c r="B5307" t="n">
-        <v>4214903.008</v>
+        <v>8015167.541</v>
       </c>
     </row>
     <row r="5308">
       <c r="A5308" t="inlineStr">
         <is>
-          <t>2011-10-28</t>
+          <t>2015-02-02</t>
         </is>
       </c>
       <c r="B5308" t="n">
-        <v>735721.417</v>
+        <v>4214903.008</v>
       </c>
     </row>
     <row r="5309">
       <c r="A5309" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="B5309" t="n">
-        <v>18201448.889</v>
+        <v>735721.417</v>
       </c>
     </row>
     <row r="5310">
       <c r="A5310" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B5310" t="n">
-        <v>12856671.682</v>
+        <v>18201448.889</v>
       </c>
     </row>
     <row r="5311">
       <c r="A5311" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B5311" t="n">
-        <v>7919062.632</v>
+        <v>12856671.682</v>
       </c>
     </row>
     <row r="5312">
       <c r="A5312" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B5312" t="n">
-        <v>9519524.592</v>
+        <v>7919062.632</v>
       </c>
     </row>
     <row r="5313">
       <c r="A5313" t="inlineStr">
         <is>
-          <t>2014-03-18</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="B5313" t="n">
-        <v>6370558.748</v>
+        <v>9519524.592</v>
       </c>
     </row>
     <row r="5314">
       <c r="A5314" t="inlineStr">
         <is>
-          <t>2017-03-21</t>
+          <t>2014-03-18</t>
         </is>
       </c>
       <c r="B5314" t="n">
-        <v>8412562.749</v>
+        <v>6370558.748</v>
       </c>
     </row>
     <row r="5315">
       <c r="A5315" t="inlineStr">
         <is>
-          <t>2015-02-09</t>
+          <t>2017-03-21</t>
         </is>
       </c>
       <c r="B5315" t="n">
-        <v>4096290.662</v>
+        <v>8412562.749</v>
       </c>
     </row>
     <row r="5316">
       <c r="A5316" t="inlineStr">
         <is>
-          <t>2011-10-31</t>
+          <t>2015-02-09</t>
         </is>
       </c>
       <c r="B5316" t="n">
-        <v>732160.326</v>
+        <v>4096290.662</v>
       </c>
     </row>
     <row r="5317">
       <c r="A5317" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2011-10-31</t>
         </is>
       </c>
       <c r="B5317" t="n">
-        <v>7287456.154</v>
+        <v>732160.326</v>
       </c>
     </row>
     <row r="5318">
       <c r="A5318" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B5318" t="n">
-        <v>9308642.501</v>
+        <v>7287456.154</v>
       </c>
     </row>
     <row r="5319">
       <c r="A5319" t="inlineStr">
         <is>
-          <t>2014-04-06</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="B5319" t="n">
-        <v>5505621.837</v>
+        <v>9308642.501</v>
       </c>
     </row>
     <row r="5320">
       <c r="A5320" t="inlineStr">
         <is>
-          <t>2017-04-09</t>
+          <t>2014-04-06</t>
         </is>
       </c>
       <c r="B5320" t="n">
-        <v>8810606.551000001</v>
+        <v>5505621.837</v>
       </c>
     </row>
     <row r="5321">
       <c r="A5321" t="inlineStr">
         <is>
-          <t>2015-03-02</t>
+          <t>2017-04-09</t>
         </is>
       </c>
       <c r="B5321" t="n">
-        <v>3933274.224</v>
+        <v>8810606.551000001</v>
       </c>
     </row>
     <row r="5322">
       <c r="A5322" t="inlineStr">
         <is>
-          <t>2011-11-14</t>
+          <t>2015-03-02</t>
         </is>
       </c>
       <c r="B5322" t="n">
-        <v>826121.591</v>
+        <v>3933274.224</v>
       </c>
     </row>
     <row r="5323">
       <c r="A5323" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2011-11-14</t>
         </is>
       </c>
       <c r="B5323" t="n">
-        <v>10333719.079</v>
+        <v>826121.591</v>
       </c>
     </row>
     <row r="5324">
       <c r="A5324" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B5324" t="n">
-        <v>6907432.252</v>
+        <v>10333719.079</v>
       </c>
     </row>
     <row r="5325">
       <c r="A5325" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B5325" t="n">
-        <v>9481051.257999999</v>
+        <v>6907432.252</v>
       </c>
     </row>
     <row r="5326">
       <c r="A5326" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="B5326" t="n">
-        <v>16829264.336</v>
+        <v>9481051.257999999</v>
       </c>
     </row>
     <row r="5327">
       <c r="A5327" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B5327" t="n">
-        <v>10843259.392</v>
+        <v>16829264.336</v>
       </c>
     </row>
     <row r="5328">
       <c r="A5328" t="inlineStr">
         <is>
-          <t>2014-04-27</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B5328" t="n">
-        <v>5438426.506</v>
+        <v>10843259.392</v>
       </c>
     </row>
     <row r="5329">
       <c r="A5329" t="inlineStr">
         <is>
-          <t>2015-03-09</t>
+          <t>2014-04-27</t>
         </is>
       </c>
       <c r="B5329" t="n">
-        <v>3900348.066</v>
+        <v>5438426.506</v>
       </c>
     </row>
     <row r="5330">
       <c r="A5330" t="inlineStr">
         <is>
-          <t>2011-11-16</t>
+          <t>2015-03-09</t>
         </is>
       </c>
       <c r="B5330" t="n">
-        <v>1048736.803</v>
+        <v>3900348.066</v>
       </c>
     </row>
     <row r="5331">
       <c r="A5331" t="inlineStr">
         <is>
-          <t>2017-04-20</t>
+          <t>2011-11-16</t>
         </is>
       </c>
       <c r="B5331" t="n">
-        <v>8967425.550000001</v>
+        <v>1048736.803</v>
       </c>
     </row>
     <row r="5332">
       <c r="A5332" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2017-04-20</t>
         </is>
       </c>
       <c r="B5332" t="n">
-        <v>12827728.942</v>
+        <v>8967425.550000001</v>
       </c>
     </row>
     <row r="5333">
       <c r="A5333" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B5333" t="n">
-        <v>6721984.554</v>
+        <v>12827728.942</v>
       </c>
     </row>
     <row r="5334">
       <c r="A5334" t="inlineStr">
         <is>
-          <t>2022-08-06</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="B5334" t="n">
-        <v>9532015.716</v>
+        <v>6721984.554</v>
       </c>
     </row>
     <row r="5335">
       <c r="A5335" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="B5335" t="n">
-        <v>16884075.838</v>
+        <v>9532015.716</v>
       </c>
     </row>
     <row r="5336">
       <c r="A5336" t="inlineStr">
         <is>
-          <t>2014-06-01</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B5336" t="n">
-        <v>4343530.167</v>
+        <v>16884075.838</v>
       </c>
     </row>
     <row r="5337">
       <c r="A5337" t="inlineStr">
         <is>
-          <t>2015-03-22</t>
+          <t>2014-06-01</t>
         </is>
       </c>
       <c r="B5337" t="n">
-        <v>4135797.457</v>
+        <v>4343530.167</v>
       </c>
     </row>
     <row r="5338">
       <c r="A5338" t="inlineStr">
         <is>
-          <t>2017-04-30</t>
+          <t>2015-03-22</t>
         </is>
       </c>
       <c r="B5338" t="n">
-        <v>8922467.217</v>
+        <v>4135797.457</v>
       </c>
     </row>
     <row r="5339">
       <c r="A5339" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2017-04-30</t>
         </is>
       </c>
       <c r="B5339" t="n">
-        <v>1086764.653</v>
+        <v>8922467.217</v>
       </c>
     </row>
     <row r="5340">
       <c r="A5340" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2011-11-19</t>
         </is>
       </c>
       <c r="B5340" t="n">
-        <v>13592327.934</v>
+        <v>1086764.653</v>
       </c>
     </row>
     <row r="5341">
       <c r="A5341" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B5341" t="n">
-        <v>18930025.11</v>
+        <v>13592327.934</v>
       </c>
     </row>
     <row r="5342">
       <c r="A5342" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="B5342" t="n">
-        <v>17480511.655</v>
+        <v>18930025.11</v>
       </c>
     </row>
     <row r="5343">
       <c r="A5343" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B5343" t="n">
-        <v>15295963.935</v>
+        <v>17480511.655</v>
       </c>
     </row>
     <row r="5344">
       <c r="A5344" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="B5344" t="n">
-        <v>5802826.225</v>
+        <v>15295963.935</v>
       </c>
     </row>
     <row r="5345">
       <c r="A5345" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="B5345" t="n">
-        <v>8363509.02</v>
+        <v>5802826.225</v>
       </c>
     </row>
     <row r="5346">
       <c r="A5346" t="inlineStr">
         <is>
-          <t>2014-06-28</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="B5346" t="n">
-        <v>2686947.84</v>
+        <v>8363509.02</v>
       </c>
     </row>
     <row r="5347">
       <c r="A5347" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2014-06-28</t>
         </is>
       </c>
       <c r="B5347" t="n">
-        <v>11641354.93</v>
+        <v>2686947.84</v>
       </c>
     </row>
     <row r="5348">
       <c r="A5348" t="inlineStr">
         <is>
-          <t>2017-05-17</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B5348" t="n">
-        <v>10300409.588</v>
+        <v>11641354.93</v>
       </c>
     </row>
     <row r="5349">
       <c r="A5349" t="inlineStr">
         <is>
-          <t>2015-03-29</t>
+          <t>2017-05-17</t>
         </is>
       </c>
       <c r="B5349" t="n">
-        <v>3988633.591</v>
+        <v>10300409.588</v>
       </c>
     </row>
     <row r="5350">
       <c r="A5350" t="inlineStr">
         <is>
-          <t>2011-12-03</t>
+          <t>2015-03-29</t>
         </is>
       </c>
       <c r="B5350" t="n">
-        <v>1095387.925</v>
+        <v>3988633.591</v>
       </c>
     </row>
     <row r="5351">
       <c r="A5351" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2011-12-03</t>
         </is>
       </c>
       <c r="B5351" t="n">
-        <v>17359924.278</v>
+        <v>1095387.925</v>
       </c>
     </row>
     <row r="5352">
       <c r="A5352" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="B5352" t="n">
-        <v>16833334.95</v>
+        <v>17359924.278</v>
       </c>
     </row>
     <row r="5353">
       <c r="A5353" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B5353" t="n">
-        <v>10236215.389</v>
+        <v>16833334.95</v>
       </c>
     </row>
     <row r="5354">
       <c r="A5354" t="inlineStr">
         <is>
-          <t>2017-06-01</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B5354" t="n">
-        <v>11531744.112</v>
+        <v>10236215.389</v>
       </c>
     </row>
     <row r="5355">
       <c r="A5355" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2017-06-01</t>
         </is>
       </c>
       <c r="B5355" t="n">
-        <v>6065155.983</v>
+        <v>11531744.112</v>
       </c>
     </row>
     <row r="5356">
       <c r="A5356" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="B5356" t="n">
-        <v>8049967.714</v>
+        <v>6065155.983</v>
       </c>
     </row>
     <row r="5357">
       <c r="A5357" t="inlineStr">
         <is>
-          <t>2024-07-13</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="B5357" t="n">
-        <v>15731904.375</v>
+        <v>8049967.714</v>
       </c>
     </row>
     <row r="5358">
       <c r="A5358" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="B5358" t="n">
-        <v>2436383.016</v>
+        <v>15731904.375</v>
       </c>
     </row>
     <row r="5359">
       <c r="A5359" t="inlineStr">
         <is>
-          <t>2015-04-06</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="B5359" t="n">
-        <v>3694404.674</v>
+        <v>2436383.016</v>
       </c>
     </row>
     <row r="5360">
       <c r="A5360" t="inlineStr">
         <is>
-          <t>2011-12-17</t>
+          <t>2015-04-06</t>
         </is>
       </c>
       <c r="B5360" t="n">
-        <v>1066127.172</v>
+        <v>3694404.674</v>
       </c>
     </row>
     <row r="5361">
       <c r="A5361" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2011-12-17</t>
         </is>
       </c>
       <c r="B5361" t="n">
-        <v>19357870.444</v>
+        <v>1066127.172</v>
       </c>
     </row>
     <row r="5362">
       <c r="A5362" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B5362" t="n">
-        <v>9506750.107999999</v>
+        <v>19357870.444</v>
       </c>
     </row>
     <row r="5363">
       <c r="A5363" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="B5363" t="n">
-        <v>18249350.163</v>
+        <v>9506750.107999999</v>
       </c>
     </row>
     <row r="5364">
       <c r="A5364" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B5364" t="n">
-        <v>10121188.898</v>
+        <v>18249350.163</v>
       </c>
     </row>
     <row r="5365">
       <c r="A5365" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B5365" t="n">
-        <v>18172193.247</v>
+        <v>10121188.898</v>
       </c>
     </row>
     <row r="5366">
       <c r="A5366" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B5366" t="n">
-        <v>11873870.808</v>
+        <v>18172193.247</v>
       </c>
     </row>
     <row r="5367">
       <c r="A5367" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B5367" t="n">
-        <v>16905626.816</v>
+        <v>11873870.808</v>
       </c>
     </row>
     <row r="5368">
       <c r="A5368" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B5368" t="n">
-        <v>11511228.874</v>
+        <v>16905626.816</v>
       </c>
     </row>
     <row r="5369">
       <c r="A5369" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-05-03</t>
         </is>
       </c>
       <c r="B5369" t="n">
-        <v>18829096.598</v>
+        <v>11511228.874</v>
       </c>
     </row>
     <row r="5370">
       <c r="A5370" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B5370" t="n">
-        <v>11905850.214</v>
+        <v>18829096.598</v>
       </c>
     </row>
     <row r="5371">
       <c r="A5371" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="B5371" t="n">
-        <v>6820551.817</v>
+        <v>11905850.214</v>
       </c>
     </row>
     <row r="5372">
       <c r="A5372" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="B5372" t="n">
-        <v>6358468.879</v>
+        <v>6820551.817</v>
       </c>
     </row>
     <row r="5373">
       <c r="A5373" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="B5373" t="n">
-        <v>14873483.781</v>
+        <v>6358468.879</v>
       </c>
     </row>
     <row r="5374">
       <c r="A5374" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B5374" t="n">
-        <v>11867652.532</v>
+        <v>14873483.781</v>
       </c>
     </row>
     <row r="5375">
       <c r="A5375" t="inlineStr">
         <is>
-          <t>2014-08-06</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B5375" t="n">
-        <v>2826869.713</v>
+        <v>11867652.532</v>
       </c>
     </row>
     <row r="5376">
       <c r="A5376" t="inlineStr">
         <is>
-          <t>2015-04-12</t>
+          <t>2014-08-06</t>
         </is>
       </c>
       <c r="B5376" t="n">
-        <v>3600337.897</v>
+        <v>2826869.713</v>
       </c>
     </row>
     <row r="5377">
       <c r="A5377" t="inlineStr">
         <is>
-          <t>2012-01-03</t>
+          <t>2015-04-12</t>
         </is>
       </c>
       <c r="B5377" t="n">
-        <v>1178238.791</v>
+        <v>3600337.897</v>
       </c>
     </row>
     <row r="5378">
       <c r="A5378" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2012-01-03</t>
         </is>
       </c>
       <c r="B5378" t="n">
-        <v>12210206.289</v>
+        <v>1178238.791</v>
       </c>
     </row>
     <row r="5379">
       <c r="A5379" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B5379" t="n">
-        <v>18211536.318</v>
+        <v>12210206.289</v>
       </c>
     </row>
     <row r="5380">
       <c r="A5380" t="inlineStr">
         <is>
-          <t>2017-08-15</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B5380" t="n">
-        <v>19566598.77</v>
+        <v>18211536.318</v>
       </c>
     </row>
     <row r="5381">
       <c r="A5381" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2017-08-15</t>
         </is>
       </c>
       <c r="B5381" t="n">
-        <v>6837460.05</v>
+        <v>19566598.77</v>
       </c>
     </row>
     <row r="5382">
       <c r="A5382" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="B5382" t="n">
-        <v>8536718.226</v>
+        <v>6837460.05</v>
       </c>
     </row>
     <row r="5383">
       <c r="A5383" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B5383" t="n">
-        <v>19772264.652</v>
+        <v>8536718.226</v>
       </c>
     </row>
     <row r="5384">
       <c r="A5384" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="B5384" t="n">
-        <v>16050259.512</v>
+        <v>19772264.652</v>
       </c>
     </row>
     <row r="5385">
       <c r="A5385" t="inlineStr">
         <is>
-          <t>2014-08-18</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B5385" t="n">
-        <v>2925697.333</v>
+        <v>16050259.512</v>
       </c>
     </row>
     <row r="5386">
       <c r="A5386" t="inlineStr">
         <is>
-          <t>2015-04-19</t>
+          <t>2014-08-18</t>
         </is>
       </c>
       <c r="B5386" t="n">
-        <v>3445407.103</v>
+        <v>2925697.333</v>
       </c>
     </row>
     <row r="5387">
       <c r="A5387" t="inlineStr">
         <is>
-          <t>2012-01-20</t>
+          <t>2015-04-19</t>
         </is>
       </c>
       <c r="B5387" t="n">
-        <v>1244736.785</v>
+        <v>3445407.103</v>
       </c>
     </row>
     <row r="5388">
       <c r="A5388" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2012-01-20</t>
         </is>
       </c>
       <c r="B5388" t="n">
-        <v>13510242.654</v>
+        <v>1244736.785</v>
       </c>
     </row>
     <row r="5389">
       <c r="A5389" t="inlineStr">
         <is>
-          <t>2017-08-28</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B5389" t="n">
-        <v>19422838.72</v>
+        <v>13510242.654</v>
       </c>
     </row>
     <row r="5390">
       <c r="A5390" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2017-08-28</t>
         </is>
       </c>
       <c r="B5390" t="n">
-        <v>11104807.404</v>
+        <v>19422838.72</v>
       </c>
     </row>
     <row r="5391">
       <c r="A5391" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>10451472.456</v>
+        <v>11104807.404</v>
       </c>
     </row>
     <row r="5392">
       <c r="A5392" t="inlineStr">
         <is>
-          <t>2014-09-13</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B5392" t="n">
-        <v>2524791.779</v>
+        <v>10451472.456</v>
       </c>
     </row>
     <row r="5393">
       <c r="A5393" t="inlineStr">
         <is>
-          <t>2015-04-25</t>
+          <t>2014-09-13</t>
         </is>
       </c>
       <c r="B5393" t="n">
-        <v>3352942.164</v>
+        <v>2524791.779</v>
       </c>
     </row>
     <row r="5394">
       <c r="A5394" t="inlineStr">
         <is>
-          <t>2012-01-21</t>
+          <t>2015-04-25</t>
         </is>
       </c>
       <c r="B5394" t="n">
-        <v>1246443.905</v>
+        <v>3352942.164</v>
       </c>
     </row>
     <row r="5395">
       <c r="A5395" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2012-01-21</t>
         </is>
       </c>
       <c r="B5395" t="n">
-        <v>14362928.781</v>
+        <v>1246443.905</v>
       </c>
     </row>
     <row r="5396">
       <c r="A5396" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B5396" t="n">
-        <v>20351324.136</v>
+        <v>14362928.781</v>
       </c>
     </row>
     <row r="5397">
       <c r="A5397" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B5397" t="n">
-        <v>13491078.904</v>
+        <v>20351324.136</v>
       </c>
     </row>
     <row r="5398">
       <c r="A5398" t="inlineStr">
         <is>
-          <t>2017-09-08</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B5398" t="n">
-        <v>19486335.788</v>
+        <v>13491078.904</v>
       </c>
     </row>
     <row r="5399">
       <c r="A5399" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2017-09-08</t>
         </is>
       </c>
       <c r="B5399" t="n">
-        <v>13156711.485</v>
+        <v>19486335.788</v>
       </c>
     </row>
     <row r="5400">
       <c r="A5400" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B5400" t="n">
-        <v>10510937.957</v>
+        <v>13156711.485</v>
       </c>
     </row>
     <row r="5401">
       <c r="A5401" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="B5401" t="n">
-        <v>15716836.044</v>
+        <v>10510937.957</v>
       </c>
     </row>
     <row r="5402">
       <c r="A5402" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-07-21</t>
         </is>
       </c>
       <c r="B5402" t="n">
-        <v>19939698.057</v>
+        <v>15716836.044</v>
       </c>
     </row>
     <row r="5403">
       <c r="A5403" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B5403" t="n">
-        <v>2628371.334</v>
+        <v>19939698.057</v>
       </c>
     </row>
     <row r="5404">
       <c r="A5404" t="inlineStr">
         <is>
-          <t>2015-05-20</t>
+          <t>2014-10-02</t>
         </is>
       </c>
       <c r="B5404" t="n">
-        <v>3177021.142</v>
+        <v>2628371.334</v>
       </c>
     </row>
     <row r="5405">
       <c r="A5405" t="inlineStr">
         <is>
-          <t>2012-01-26</t>
+          <t>2015-05-20</t>
         </is>
       </c>
       <c r="B5405" t="n">
-        <v>1264128.557</v>
+        <v>3177021.142</v>
       </c>
     </row>
     <row r="5406">
       <c r="A5406" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2012-01-26</t>
         </is>
       </c>
       <c r="B5406" t="n">
-        <v>10152643.862</v>
+        <v>1264128.557</v>
       </c>
     </row>
     <row r="5407">
       <c r="A5407" t="inlineStr">
         <is>
-          <t>2017-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="B5407" t="n">
-        <v>18137220.352</v>
+        <v>10152643.862</v>
       </c>
     </row>
     <row r="5408">
       <c r="A5408" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2017-09-23</t>
         </is>
       </c>
       <c r="B5408" t="n">
-        <v>18779023.107</v>
+        <v>18137220.352</v>
       </c>
     </row>
     <row r="5409">
       <c r="A5409" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="B5409" t="n">
-        <v>10615483.231</v>
+        <v>18779023.107</v>
       </c>
     </row>
     <row r="5410">
       <c r="A5410" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="B5410" t="n">
-        <v>15795124.861</v>
+        <v>10615483.231</v>
       </c>
     </row>
     <row r="5411">
       <c r="A5411" t="inlineStr">
         <is>
-          <t>2014-10-23</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B5411" t="n">
-        <v>3053937.556</v>
+        <v>15795124.861</v>
       </c>
     </row>
     <row r="5412">
       <c r="A5412" t="inlineStr">
         <is>
-          <t>2015-05-27</t>
+          <t>2014-10-23</t>
         </is>
       </c>
       <c r="B5412" t="n">
-        <v>2974495.006</v>
+        <v>3053937.556</v>
       </c>
     </row>
     <row r="5413">
       <c r="A5413" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2015-05-27</t>
         </is>
       </c>
       <c r="B5413" t="n">
-        <v>1068036.951</v>
+        <v>2974495.006</v>
       </c>
     </row>
     <row r="5414">
       <c r="A5414" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="B5414" t="n">
-        <v>12796519.886</v>
+        <v>1068036.951</v>
       </c>
     </row>
     <row r="5415">
       <c r="A5415" t="inlineStr">
         <is>
-          <t>2017-10-09</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B5415" t="n">
-        <v>19407598.446</v>
+        <v>12796519.886</v>
       </c>
     </row>
     <row r="5416">
       <c r="A5416" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2017-10-09</t>
         </is>
       </c>
       <c r="B5416" t="n">
-        <v>20455744.669</v>
+        <v>19407598.446</v>
       </c>
     </row>
     <row r="5417">
       <c r="A5417" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="B5417" t="n">
-        <v>11376341.238</v>
+        <v>20455744.669</v>
       </c>
     </row>
     <row r="5418">
       <c r="A5418" t="inlineStr">
         <is>
-          <t>2014-11-01</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="B5418" t="n">
-        <v>3044004.834</v>
+        <v>11376341.238</v>
       </c>
     </row>
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2014-11-01</t>
         </is>
       </c>
       <c r="B5419" t="n">
-        <v>2765454.564</v>
+        <v>3044004.834</v>
       </c>
     </row>
     <row r="5420">
       <c r="A5420" t="inlineStr">
         <is>
-          <t>2012-04-02</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="B5420" t="n">
-        <v>1066217.337</v>
+        <v>2765454.564</v>
       </c>
     </row>
     <row r="5421">
       <c r="A5421" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2012-04-02</t>
         </is>
       </c>
       <c r="B5421" t="n">
-        <v>14589767.49</v>
+        <v>1066217.337</v>
       </c>
     </row>
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B5422" t="n">
-        <v>13432763.242</v>
+        <v>14589767.49</v>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B5423" t="n">
-        <v>19306849.276</v>
+        <v>13432763.242</v>
       </c>
     </row>
     <row r="5424">
       <c r="A5424" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="B5424" t="n">
-        <v>17904427.701</v>
+        <v>19306849.276</v>
       </c>
     </row>
     <row r="5425">
       <c r="A5425" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="B5425" t="n">
-        <v>11260943.27</v>
+        <v>17904427.701</v>
       </c>
     </row>
     <row r="5426">
       <c r="A5426" t="inlineStr">
         <is>
-          <t>2014-11-19</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="B5426" t="n">
-        <v>3019744.611</v>
+        <v>11260943.27</v>
       </c>
     </row>
     <row r="5427">
       <c r="A5427" t="inlineStr">
         <is>
-          <t>2015-06-09</t>
+          <t>2014-11-19</t>
         </is>
       </c>
       <c r="B5427" t="n">
-        <v>2361717.899</v>
+        <v>3019744.611</v>
       </c>
     </row>
     <row r="5428">
       <c r="A5428" t="inlineStr">
         <is>
-          <t>2012-04-18</t>
+          <t>2015-06-09</t>
         </is>
       </c>
       <c r="B5428" t="n">
-        <v>1080512.495</v>
+        <v>2361717.899</v>
       </c>
     </row>
     <row r="5429">
       <c r="A5429" t="inlineStr">
         <is>
-          <t>2017-11-16</t>
+          <t>2012-04-18</t>
         </is>
       </c>
       <c r="B5429" t="n">
-        <v>15794441.353</v>
+        <v>1080512.495</v>
       </c>
     </row>
     <row r="5430">
       <c r="A5430" t="inlineStr">
         <is>
-          <t>2021-02-12</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="B5430" t="n">
-        <v>18047843.242</v>
+        <v>15794441.353</v>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2021-02-12</t>
         </is>
       </c>
       <c r="B5431" t="n">
-        <v>7804497.859</v>
+        <v>18047843.242</v>
       </c>
     </row>
     <row r="5432">
       <c r="A5432" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="B5432" t="n">
-        <v>9877779.377</v>
+        <v>7804497.859</v>
       </c>
     </row>
     <row r="5433">
       <c r="A5433" t="inlineStr">
         <is>
-          <t>2014-12-05</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B5433" t="n">
-        <v>3374566.02</v>
+        <v>9877779.377</v>
       </c>
     </row>
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2014-12-05</t>
         </is>
       </c>
       <c r="B5434" t="n">
-        <v>2394815.633</v>
+        <v>3374566.02</v>
       </c>
     </row>
     <row r="5435">
       <c r="A5435" t="inlineStr">
         <is>
-          <t>2012-05-04</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="B5435" t="n">
-        <v>1211448.82</v>
+        <v>2394815.633</v>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2012-05-04</t>
         </is>
       </c>
       <c r="B5436" t="n">
-        <v>9388382.575999999</v>
+        <v>1211448.82</v>
       </c>
     </row>
     <row r="5437">
       <c r="A5437" t="inlineStr">
         <is>
-          <t>2017-11-30</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B5437" t="n">
-        <v>15739620.059</v>
+        <v>9388382.575999999</v>
       </c>
     </row>
     <row r="5438">
       <c r="A5438" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2017-11-30</t>
         </is>
       </c>
       <c r="B5438" t="n">
-        <v>17461848.264</v>
+        <v>15739620.059</v>
       </c>
     </row>
     <row r="5439">
       <c r="A5439" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="B5439" t="n">
-        <v>7349744.434</v>
+        <v>17461848.264</v>
       </c>
     </row>
     <row r="5440">
       <c r="A5440" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="B5440" t="n">
-        <v>15621689.103</v>
+        <v>7349744.434</v>
       </c>
     </row>
     <row r="5441">
       <c r="A5441" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="B5441" t="n">
-        <v>11149234.035</v>
+        <v>15621689.103</v>
       </c>
     </row>
     <row r="5442">
       <c r="A5442" t="inlineStr">
         <is>
-          <t>2014-12-24</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B5442" t="n">
-        <v>3749367.14</v>
+        <v>11149234.035</v>
       </c>
     </row>
     <row r="5443">
       <c r="A5443" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2014-12-24</t>
         </is>
       </c>
       <c r="B5443" t="n">
-        <v>18799096.649</v>
+        <v>3749367.14</v>
       </c>
     </row>
     <row r="5444">
       <c r="A5444" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B5444" t="n">
-        <v>2573704.983</v>
+        <v>18799096.649</v>
       </c>
     </row>
     <row r="5445">
       <c r="A5445" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="B5445" t="n">
-        <v>1258763.689</v>
+        <v>2573704.983</v>
       </c>
     </row>
     <row r="5446">
       <c r="A5446" t="inlineStr">
         <is>
-          <t>2017-12-01</t>
+          <t>2012-05-21</t>
         </is>
       </c>
       <c r="B5446" t="n">
-        <v>15786676.067</v>
+        <v>1258763.689</v>
       </c>
     </row>
     <row r="5447">
       <c r="A5447" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2017-12-01</t>
         </is>
       </c>
       <c r="B5447" t="n">
-        <v>15009732.42</v>
+        <v>15786676.067</v>
       </c>
     </row>
     <row r="5448">
       <c r="A5448" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B5448" t="n">
-        <v>8127301.046</v>
+        <v>15009732.42</v>
       </c>
     </row>
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>2015-01-11</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="B5449" t="n">
-        <v>3848375.44</v>
+        <v>8127301.046</v>
       </c>
     </row>
     <row r="5450">
       <c r="A5450" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-01-11</t>
         </is>
       </c>
       <c r="B5450" t="n">
-        <v>2511092.261</v>
+        <v>3848375.44</v>
       </c>
     </row>
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2012-06-06</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="B5451" t="n">
-        <v>1365675.341</v>
+        <v>2511092.261</v>
       </c>
     </row>
     <row r="5452">
       <c r="A5452" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2012-06-06</t>
         </is>
       </c>
       <c r="B5452" t="n">
-        <v>18209088.114</v>
+        <v>1365675.341</v>
       </c>
     </row>
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>17645156.999</v>
+        <v>18209088.114</v>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>13264526.584</v>
+        <v>17645156.999</v>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>8486747.433</v>
+        <v>13264526.584</v>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>4046018.483</v>
+        <v>8486747.433</v>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B5457" t="n">
-        <v>2718554.466</v>
+        <v>4046018.483</v>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>1367243.39</v>
+        <v>2718554.466</v>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2012-06-18</t>
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>9114476.312000001</v>
+        <v>1367243.39</v>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>15346852.871</v>
+        <v>9114476.312000001</v>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>12870879.477</v>
+        <v>15346852.871</v>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>17780525.245</v>
+        <v>12870879.477</v>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>13194431.726</v>
+        <v>17780525.245</v>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>8346328.634</v>
+        <v>13194431.726</v>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>16236706.926</v>
+        <v>8346328.634</v>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>16585261.576</v>
+        <v>16236706.926</v>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2015-02-10</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5467" t="n">
-        <v>4071380.974</v>
+        <v>16585261.576</v>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="B5468" t="n">
-        <v>2793932.294</v>
+        <v>4071380.974</v>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5469" t="n">
-        <v>1363857.943</v>
+        <v>2793932.294</v>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>18882222.042</v>
+        <v>1363857.943</v>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>17968690.541</v>
+        <v>18882222.042</v>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>9386582.370999999</v>
+        <v>17968690.541</v>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>17890389.899</v>
+        <v>9386582.370999999</v>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>12015164.279</v>
+        <v>17890389.899</v>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>7902657.124</v>
+        <v>12015164.279</v>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>10503343.65</v>
+        <v>7902657.124</v>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>3819509.271</v>
+        <v>10503343.65</v>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>2826416.003</v>
+        <v>3819509.271</v>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>1630324.679</v>
+        <v>2826416.003</v>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>10658742.561</v>
+        <v>1630324.679</v>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>18727823.649</v>
+        <v>10658742.561</v>
       </c>
     </row>
     <row r="5482">
       <c r="A5482" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>17224052.503</v>
+        <v>18727823.649</v>
       </c>
     </row>
     <row r="5483">
       <c r="A5483" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5483" t="n">
-        <v>10673931.348</v>
+        <v>17224052.503</v>
       </c>
     </row>
     <row r="5484">
       <c r="A5484" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>3979751.142</v>
+        <v>10673931.348</v>
       </c>
     </row>
     <row r="5485">
       <c r="A5485" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>3642872.298</v>
+        <v>3979751.142</v>
       </c>
     </row>
     <row r="5486">
       <c r="A5486" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>1613219.441</v>
+        <v>3642872.298</v>
       </c>
     </row>
     <row r="5487">
       <c r="A5487" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>18746833.543</v>
+        <v>1613219.441</v>
       </c>
     </row>
     <row r="5488">
       <c r="A5488" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>14696488.122</v>
+        <v>18746833.543</v>
       </c>
     </row>
     <row r="5489">
       <c r="A5489" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>18803774.412</v>
+        <v>14696488.122</v>
       </c>
     </row>
     <row r="5490">
       <c r="A5490" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>13074131.781</v>
+        <v>18803774.412</v>
       </c>
     </row>
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>18108889.119</v>
+        <v>13074131.781</v>
       </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>10600975.162</v>
+        <v>18108889.119</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>3489354.733</v>
+        <v>10600975.162</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>3660667.082</v>
+        <v>3489354.733</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>316907.127</v>
+        <v>3660667.082</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>1760535.998</v>
+        <v>316907.127</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>19760413.223</v>
+        <v>1760535.998</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>15296257.118</v>
+        <v>19760413.223</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>10677343.165</v>
+        <v>15296257.118</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>12841467.318</v>
+        <v>10677343.165</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>3205484.527</v>
+        <v>12841467.318</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>4648212.458</v>
+        <v>3205484.527</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>1873037.142</v>
+        <v>4648212.458</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>19272529.034</v>
+        <v>1873037.142</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>13193422.783</v>
+        <v>19272529.034</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>8610177.493000001</v>
+        <v>13193422.783</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>12225489.867</v>
+        <v>8610177.493000001</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>2985205.142</v>
+        <v>12225489.867</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>4603582.061</v>
+        <v>2985205.142</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>2093652.744</v>
+        <v>4603582.061</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>11477197.525</v>
+        <v>2093652.744</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>19496972.836</v>
+        <v>11477197.525</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>10566019.663</v>
+        <v>19496972.836</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>8609734.759</v>
+        <v>10566019.663</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>18616838.388</v>
+        <v>8609734.759</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>2392944.256</v>
+        <v>18616838.388</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>4964683.773</v>
+        <v>2392944.256</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>2162784.464</v>
+        <v>4964683.773</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>8046257.588</v>
+        <v>2162784.464</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>8443126.151000001</v>
+        <v>8046257.588</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>8386250.008</v>
+        <v>8443126.151000001</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>2565551.236</v>
+        <v>8386250.008</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5523" t="n">
-        <v>6127123.106</v>
+        <v>2565551.236</v>
       </c>
     </row>
     <row r="5524">
       <c r="A5524" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5524" t="n">
-        <v>2157212.824</v>
+        <v>6127123.106</v>
       </c>
     </row>
     <row r="5525">
       <c r="A5525" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5525" t="n">
-        <v>11978202.448</v>
+        <v>2157212.824</v>
       </c>
     </row>
     <row r="5526">
       <c r="A5526" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5526" t="n">
-        <v>15303734.889</v>
+        <v>11978202.448</v>
       </c>
     </row>
     <row r="5527">
       <c r="A5527" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5527" t="n">
-        <v>8103908.652</v>
+        <v>15303734.889</v>
       </c>
     </row>
     <row r="5528">
       <c r="A5528" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5528" t="n">
-        <v>9382181.960999999</v>
+        <v>8103908.652</v>
       </c>
     </row>
     <row r="5529">
       <c r="A5529" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5529" t="n">
-        <v>16784620.262</v>
+        <v>9382181.960999999</v>
       </c>
     </row>
     <row r="5530">
       <c r="A5530" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5530" t="n">
-        <v>16833063.951</v>
+        <v>16784620.262</v>
       </c>
     </row>
     <row r="5531">
       <c r="A5531" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5531" t="n">
-        <v>17049245.734</v>
+        <v>16833063.951</v>
       </c>
     </row>
     <row r="5532">
       <c r="A5532" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5532" t="n">
-        <v>17115867.282</v>
+        <v>17049245.734</v>
       </c>
     </row>
     <row r="5533">
       <c r="A5533" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5533" t="n">
-        <v>17153769.299</v>
+        <v>17115867.282</v>
       </c>
     </row>
     <row r="5534">
       <c r="A5534" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5534" t="n">
-        <v>17225229.436</v>
+        <v>17153769.299</v>
       </c>
     </row>
     <row r="5535">
       <c r="A5535" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5535" t="n">
-        <v>17249482.25</v>
+        <v>17225229.436</v>
       </c>
     </row>
     <row r="5536">
       <c r="A5536" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5536" t="n">
-        <v>17569350.656</v>
+        <v>17249482.25</v>
       </c>
     </row>
     <row r="5537">
       <c r="A5537" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5537" t="n">
-        <v>2859270.317</v>
+        <v>17569350.656</v>
       </c>
     </row>
     <row r="5538">
       <c r="A5538" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5538" t="n">
-        <v>5532498.781</v>
+        <v>2859270.317</v>
       </c>
     </row>
     <row r="5539">
       <c r="A5539" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5539" t="n">
-        <v>2138609.994</v>
+        <v>5532498.781</v>
       </c>
     </row>
     <row r="5540">
       <c r="A5540" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5540" t="n">
-        <v>12895454.923</v>
+        <v>2138609.994</v>
       </c>
     </row>
     <row r="5541">
       <c r="A5541" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5541" t="n">
+        <v>12895454.923</v>
+      </c>
+    </row>
+    <row r="5542">
+      <c r="A5542" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5541" t="n">
+      <c r="B5542" t="n">
         <v>11691372.317</v>
       </c>
     </row>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5542"/>
+  <dimension ref="A1:B5543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47326,31 +47326,31 @@
     <row r="4690">
       <c r="A4690" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B4690" t="n">
-        <v>14629813.48</v>
+        <v>11175600.083</v>
       </c>
     </row>
     <row r="4691">
       <c r="A4691" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="B4691" t="n">
-        <v>11175600.083</v>
+        <v>19643216.711</v>
       </c>
     </row>
     <row r="4692">
       <c r="A4692" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B4692" t="n">
-        <v>19643216.711</v>
+        <v>14629813.48</v>
       </c>
     </row>
     <row r="4693">
@@ -47466,21 +47466,21 @@
     <row r="4704">
       <c r="A4704" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="B4704" t="n">
-        <v>14537522.035</v>
+        <v>19068613.398</v>
       </c>
     </row>
     <row r="4705">
       <c r="A4705" t="inlineStr">
         <is>
-          <t>2025-08-03</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B4705" t="n">
-        <v>19068613.398</v>
+        <v>14537522.035</v>
       </c>
     </row>
     <row r="4706">
@@ -50406,21 +50406,21 @@
     <row r="4998">
       <c r="A4998" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B4998" t="n">
-        <v>14270964.112</v>
+        <v>18760597.04</v>
       </c>
     </row>
     <row r="4999">
       <c r="A4999" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B4999" t="n">
-        <v>18760597.04</v>
+        <v>14270964.112</v>
       </c>
     </row>
     <row r="5000">
@@ -54646,21 +54646,21 @@
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B5422" t="n">
-        <v>14589767.49</v>
+        <v>13432763.242</v>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B5423" t="n">
-        <v>13432763.242</v>
+        <v>14589767.49</v>
       </c>
     </row>
     <row r="5424">
@@ -54956,900 +54956,910 @@
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>18209088.114</v>
+        <v>14446234.788</v>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>17645156.999</v>
+        <v>18209088.114</v>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>13264526.584</v>
+        <v>17645156.999</v>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>8486747.433</v>
+        <v>13264526.584</v>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B5457" t="n">
-        <v>4046018.483</v>
+        <v>8486747.433</v>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>2718554.466</v>
+        <v>4046018.483</v>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>1367243.39</v>
+        <v>2718554.466</v>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2012-06-18</t>
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>9114476.312000001</v>
+        <v>1367243.39</v>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>15346852.871</v>
+        <v>9114476.312000001</v>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>12870879.477</v>
+        <v>15346852.871</v>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>17780525.245</v>
+        <v>12870879.477</v>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>13194431.726</v>
+        <v>17780525.245</v>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>8346328.634</v>
+        <v>13194431.726</v>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>16236706.926</v>
+        <v>8346328.634</v>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B5467" t="n">
-        <v>16585261.576</v>
+        <v>16236706.926</v>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2015-02-10</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5468" t="n">
-        <v>4071380.974</v>
+        <v>16585261.576</v>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="B5469" t="n">
-        <v>2793932.294</v>
+        <v>4071380.974</v>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>1363857.943</v>
+        <v>2793932.294</v>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>18882222.042</v>
+        <v>1363857.943</v>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>17968690.541</v>
+        <v>18882222.042</v>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>9386582.370999999</v>
+        <v>17968690.541</v>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>17890389.899</v>
+        <v>9386582.370999999</v>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>12015164.279</v>
+        <v>17890389.899</v>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>7902657.124</v>
+        <v>12015164.279</v>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>10503343.65</v>
+        <v>7902657.124</v>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>3819509.271</v>
+        <v>10503343.65</v>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>2826416.003</v>
+        <v>3819509.271</v>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>1630324.679</v>
+        <v>2826416.003</v>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>10658742.561</v>
+        <v>1630324.679</v>
       </c>
     </row>
     <row r="5482">
       <c r="A5482" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>18727823.649</v>
+        <v>10658742.561</v>
       </c>
     </row>
     <row r="5483">
       <c r="A5483" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5483" t="n">
-        <v>17224052.503</v>
+        <v>18727823.649</v>
       </c>
     </row>
     <row r="5484">
       <c r="A5484" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>10673931.348</v>
+        <v>17224052.503</v>
       </c>
     </row>
     <row r="5485">
       <c r="A5485" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>3979751.142</v>
+        <v>10673931.348</v>
       </c>
     </row>
     <row r="5486">
       <c r="A5486" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>3642872.298</v>
+        <v>3979751.142</v>
       </c>
     </row>
     <row r="5487">
       <c r="A5487" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>1613219.441</v>
+        <v>3642872.298</v>
       </c>
     </row>
     <row r="5488">
       <c r="A5488" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>18746833.543</v>
+        <v>1613219.441</v>
       </c>
     </row>
     <row r="5489">
       <c r="A5489" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>14696488.122</v>
+        <v>18746833.543</v>
       </c>
     </row>
     <row r="5490">
       <c r="A5490" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>18803774.412</v>
+        <v>14696488.122</v>
       </c>
     </row>
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>13074131.781</v>
+        <v>18803774.412</v>
       </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>18108889.119</v>
+        <v>13074131.781</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>10600975.162</v>
+        <v>18108889.119</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>3489354.733</v>
+        <v>10600975.162</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>3660667.082</v>
+        <v>3489354.733</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>316907.127</v>
+        <v>3660667.082</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>1760535.998</v>
+        <v>316907.127</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>19760413.223</v>
+        <v>1760535.998</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>15296257.118</v>
+        <v>19760413.223</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>10677343.165</v>
+        <v>15296257.118</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>12841467.318</v>
+        <v>10677343.165</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>3205484.527</v>
+        <v>12841467.318</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>4648212.458</v>
+        <v>3205484.527</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>1873037.142</v>
+        <v>4648212.458</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>19272529.034</v>
+        <v>1873037.142</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>13193422.783</v>
+        <v>19272529.034</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>8610177.493000001</v>
+        <v>13193422.783</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>12225489.867</v>
+        <v>8610177.493000001</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>2985205.142</v>
+        <v>12225489.867</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>4603582.061</v>
+        <v>2985205.142</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>2093652.744</v>
+        <v>4603582.061</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>11477197.525</v>
+        <v>2093652.744</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>19496972.836</v>
+        <v>11477197.525</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>10566019.663</v>
+        <v>19496972.836</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>8609734.759</v>
+        <v>10566019.663</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>18616838.388</v>
+        <v>8609734.759</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>2392944.256</v>
+        <v>18616838.388</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>4964683.773</v>
+        <v>2392944.256</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>2162784.464</v>
+        <v>4964683.773</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>8046257.588</v>
+        <v>2162784.464</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>8443126.151000001</v>
+        <v>8046257.588</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>8386250.008</v>
+        <v>8443126.151000001</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5523" t="n">
-        <v>2565551.236</v>
+        <v>8386250.008</v>
       </c>
     </row>
     <row r="5524">
       <c r="A5524" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5524" t="n">
-        <v>6127123.106</v>
+        <v>2565551.236</v>
       </c>
     </row>
     <row r="5525">
       <c r="A5525" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5525" t="n">
-        <v>2157212.824</v>
+        <v>6127123.106</v>
       </c>
     </row>
     <row r="5526">
       <c r="A5526" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5526" t="n">
-        <v>11978202.448</v>
+        <v>2157212.824</v>
       </c>
     </row>
     <row r="5527">
       <c r="A5527" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5527" t="n">
-        <v>15303734.889</v>
+        <v>11978202.448</v>
       </c>
     </row>
     <row r="5528">
       <c r="A5528" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5528" t="n">
-        <v>8103908.652</v>
+        <v>15303734.889</v>
       </c>
     </row>
     <row r="5529">
       <c r="A5529" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5529" t="n">
-        <v>9382181.960999999</v>
+        <v>8103908.652</v>
       </c>
     </row>
     <row r="5530">
       <c r="A5530" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5530" t="n">
-        <v>16784620.262</v>
+        <v>9382181.960999999</v>
       </c>
     </row>
     <row r="5531">
       <c r="A5531" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5531" t="n">
-        <v>16833063.951</v>
+        <v>16784620.262</v>
       </c>
     </row>
     <row r="5532">
       <c r="A5532" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5532" t="n">
-        <v>17049245.734</v>
+        <v>16833063.951</v>
       </c>
     </row>
     <row r="5533">
       <c r="A5533" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5533" t="n">
-        <v>17115867.282</v>
+        <v>17049245.734</v>
       </c>
     </row>
     <row r="5534">
       <c r="A5534" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5534" t="n">
-        <v>17153769.299</v>
+        <v>17115867.282</v>
       </c>
     </row>
     <row r="5535">
       <c r="A5535" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5535" t="n">
-        <v>17225229.436</v>
+        <v>17153769.299</v>
       </c>
     </row>
     <row r="5536">
       <c r="A5536" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5536" t="n">
-        <v>17249482.25</v>
+        <v>17225229.436</v>
       </c>
     </row>
     <row r="5537">
       <c r="A5537" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5537" t="n">
-        <v>17569350.656</v>
+        <v>17249482.25</v>
       </c>
     </row>
     <row r="5538">
       <c r="A5538" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5538" t="n">
-        <v>2859270.317</v>
+        <v>17569350.656</v>
       </c>
     </row>
     <row r="5539">
       <c r="A5539" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5539" t="n">
-        <v>5532498.781</v>
+        <v>2859270.317</v>
       </c>
     </row>
     <row r="5540">
       <c r="A5540" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5540" t="n">
-        <v>2138609.994</v>
+        <v>5532498.781</v>
       </c>
     </row>
     <row r="5541">
       <c r="A5541" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5541" t="n">
-        <v>12895454.923</v>
+        <v>2138609.994</v>
       </c>
     </row>
     <row r="5542">
       <c r="A5542" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5542" t="n">
+        <v>12895454.923</v>
+      </c>
+    </row>
+    <row r="5543">
+      <c r="A5543" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5542" t="n">
+      <c r="B5543" t="n">
         <v>11691372.317</v>
       </c>
     </row>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5547"/>
+  <dimension ref="A1:B5548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50026,5880 +50026,5890 @@
     <row r="4960">
       <c r="A4960" t="inlineStr">
         <is>
-          <t>2013-01-11</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B4960" t="n">
-        <v>1846369.453</v>
+        <v>13991670.579</v>
       </c>
     </row>
     <row r="4961">
       <c r="A4961" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2013-01-11</t>
         </is>
       </c>
       <c r="B4961" t="n">
-        <v>19066275.837</v>
+        <v>1846369.453</v>
       </c>
     </row>
     <row r="4962">
       <c r="A4962" t="inlineStr">
         <is>
-          <t>2025-08-17</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="B4962" t="n">
-        <v>18263584.952</v>
+        <v>19066275.837</v>
       </c>
     </row>
     <row r="4963">
       <c r="A4963" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B4963" t="n">
-        <v>9314345.433</v>
+        <v>18263584.952</v>
       </c>
     </row>
     <row r="4964">
       <c r="A4964" t="inlineStr">
         <is>
-          <t>2018-02-08</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="B4964" t="n">
-        <v>18158241.72</v>
+        <v>9314345.433</v>
       </c>
     </row>
     <row r="4965">
       <c r="A4965" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>2018-02-08</t>
         </is>
       </c>
       <c r="B4965" t="n">
-        <v>11360312.667</v>
+        <v>18158241.72</v>
       </c>
     </row>
     <row r="4966">
       <c r="A4966" t="inlineStr">
         <is>
-          <t>2023-11-14</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="B4966" t="n">
-        <v>7028591.115</v>
+        <v>11360312.667</v>
       </c>
     </row>
     <row r="4967">
       <c r="A4967" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="B4967" t="n">
-        <v>17197990.83</v>
+        <v>7028591.115</v>
       </c>
     </row>
     <row r="4968">
       <c r="A4968" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="B4968" t="n">
-        <v>17268706.198</v>
+        <v>17197990.83</v>
       </c>
     </row>
     <row r="4969">
       <c r="A4969" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="B4969" t="n">
-        <v>11414106.357</v>
+        <v>17268706.198</v>
       </c>
     </row>
     <row r="4970">
       <c r="A4970" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B4970" t="n">
-        <v>18706071.644</v>
+        <v>11414106.357</v>
       </c>
     </row>
     <row r="4971">
       <c r="A4971" t="inlineStr">
         <is>
-          <t>2013-08-03</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="B4971" t="n">
-        <v>2313884.342</v>
+        <v>18706071.644</v>
       </c>
     </row>
     <row r="4972">
       <c r="A4972" t="inlineStr">
         <is>
-          <t>2015-06-10</t>
+          <t>2013-08-03</t>
         </is>
       </c>
       <c r="B4972" t="n">
-        <v>2370221.996</v>
+        <v>2313884.342</v>
       </c>
     </row>
     <row r="4973">
       <c r="A4973" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2015-06-10</t>
         </is>
       </c>
       <c r="B4973" t="n">
-        <v>10942825.102</v>
+        <v>2370221.996</v>
       </c>
     </row>
     <row r="4974">
       <c r="A4974" t="inlineStr">
         <is>
-          <t>2013-01-26</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B4974" t="n">
-        <v>1899111.02</v>
+        <v>10942825.102</v>
       </c>
     </row>
     <row r="4975">
       <c r="A4975" t="inlineStr">
         <is>
-          <t>2018-04-02</t>
+          <t>2013-01-26</t>
         </is>
       </c>
       <c r="B4975" t="n">
-        <v>9893037.857000001</v>
+        <v>1899111.02</v>
       </c>
     </row>
     <row r="4976">
       <c r="A4976" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2018-04-02</t>
         </is>
       </c>
       <c r="B4976" t="n">
-        <v>12964564.24</v>
+        <v>9893037.857000001</v>
       </c>
     </row>
     <row r="4977">
       <c r="A4977" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2020-11-29</t>
         </is>
       </c>
       <c r="B4977" t="n">
-        <v>7255143.779</v>
+        <v>12964564.24</v>
       </c>
     </row>
     <row r="4978">
       <c r="A4978" t="inlineStr">
         <is>
-          <t>2013-08-09</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="B4978" t="n">
-        <v>2282151.25</v>
+        <v>7255143.779</v>
       </c>
     </row>
     <row r="4979">
       <c r="A4979" t="inlineStr">
         <is>
-          <t>2015-06-28</t>
+          <t>2013-08-09</t>
         </is>
       </c>
       <c r="B4979" t="n">
-        <v>2594483.55</v>
+        <v>2282151.25</v>
       </c>
     </row>
     <row r="4980">
       <c r="A4980" t="inlineStr">
         <is>
-          <t>2010-11-16</t>
+          <t>2015-06-28</t>
         </is>
       </c>
       <c r="B4980" t="n">
-        <v>304020.338</v>
+        <v>2594483.55</v>
       </c>
     </row>
     <row r="4981">
       <c r="A4981" t="inlineStr">
         <is>
-          <t>2013-02-12</t>
+          <t>2010-11-16</t>
         </is>
       </c>
       <c r="B4981" t="n">
-        <v>2529625.788</v>
+        <v>304020.338</v>
       </c>
     </row>
     <row r="4982">
       <c r="A4982" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2013-02-12</t>
         </is>
       </c>
       <c r="B4982" t="n">
-        <v>14737879.389</v>
+        <v>2529625.788</v>
       </c>
     </row>
     <row r="4983">
       <c r="A4983" t="inlineStr">
         <is>
-          <t>2024-11-23</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B4983" t="n">
-        <v>12933809.709</v>
+        <v>14737879.389</v>
       </c>
     </row>
     <row r="4984">
       <c r="A4984" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2024-11-23</t>
         </is>
       </c>
       <c r="B4984" t="n">
-        <v>14616694.16</v>
+        <v>12933809.709</v>
       </c>
     </row>
     <row r="4985">
       <c r="A4985" t="inlineStr">
         <is>
-          <t>2018-04-07</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B4985" t="n">
-        <v>8715110.261</v>
+        <v>14616694.16</v>
       </c>
     </row>
     <row r="4986">
       <c r="A4986" t="inlineStr">
         <is>
-          <t>2020-12-14</t>
+          <t>2018-04-07</t>
         </is>
       </c>
       <c r="B4986" t="n">
-        <v>14568396.772</v>
+        <v>8715110.261</v>
       </c>
     </row>
     <row r="4987">
       <c r="A4987" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2020-12-14</t>
         </is>
       </c>
       <c r="B4987" t="n">
-        <v>7308221.44</v>
+        <v>14568396.772</v>
       </c>
     </row>
     <row r="4988">
       <c r="A4988" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="B4988" t="n">
-        <v>19746507.73</v>
+        <v>7308221.44</v>
       </c>
     </row>
     <row r="4989">
       <c r="A4989" t="inlineStr">
         <is>
-          <t>2013-08-18</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="B4989" t="n">
-        <v>2450459.11</v>
+        <v>19746507.73</v>
       </c>
     </row>
     <row r="4990">
       <c r="A4990" t="inlineStr">
         <is>
-          <t>2015-07-18</t>
+          <t>2013-08-18</t>
         </is>
       </c>
       <c r="B4990" t="n">
-        <v>2800364.069</v>
+        <v>2450459.11</v>
       </c>
     </row>
     <row r="4991">
       <c r="A4991" t="inlineStr">
         <is>
-          <t>2011-05-08</t>
+          <t>2015-07-18</t>
         </is>
       </c>
       <c r="B4991" t="n">
-        <v>590659.897</v>
+        <v>2800364.069</v>
       </c>
     </row>
     <row r="4992">
       <c r="A4992" t="inlineStr">
         <is>
-          <t>2013-02-15</t>
+          <t>2011-05-08</t>
         </is>
       </c>
       <c r="B4992" t="n">
-        <v>2669285.077</v>
+        <v>590659.897</v>
       </c>
     </row>
     <row r="4993">
       <c r="A4993" t="inlineStr">
         <is>
-          <t>2018-04-23</t>
+          <t>2013-02-15</t>
         </is>
       </c>
       <c r="B4993" t="n">
-        <v>8409681.130999999</v>
+        <v>2669285.077</v>
       </c>
     </row>
     <row r="4994">
       <c r="A4994" t="inlineStr">
         <is>
-          <t>2020-12-29</t>
+          <t>2018-04-23</t>
         </is>
       </c>
       <c r="B4994" t="n">
-        <v>17106922.198</v>
+        <v>8409681.130999999</v>
       </c>
     </row>
     <row r="4995">
       <c r="A4995" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2020-12-29</t>
         </is>
       </c>
       <c r="B4995" t="n">
-        <v>7876220.229</v>
+        <v>17106922.198</v>
       </c>
     </row>
     <row r="4996">
       <c r="A4996" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="B4996" t="n">
-        <v>11885242.465</v>
+        <v>7876220.229</v>
       </c>
     </row>
     <row r="4997">
       <c r="A4997" t="inlineStr">
         <is>
-          <t>2013-10-23</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="B4997" t="n">
-        <v>2986856.758</v>
+        <v>11885242.465</v>
       </c>
     </row>
     <row r="4998">
       <c r="A4998" t="inlineStr">
         <is>
-          <t>2015-08-01</t>
+          <t>2013-10-23</t>
         </is>
       </c>
       <c r="B4998" t="n">
-        <v>2872671.671</v>
+        <v>2986856.758</v>
       </c>
     </row>
     <row r="4999">
       <c r="A4999" t="inlineStr">
         <is>
-          <t>2011-05-23</t>
+          <t>2015-08-01</t>
         </is>
       </c>
       <c r="B4999" t="n">
-        <v>766330.206</v>
+        <v>2872671.671</v>
       </c>
     </row>
     <row r="5000">
       <c r="A5000" t="inlineStr">
         <is>
-          <t>2013-03-07</t>
+          <t>2011-05-23</t>
         </is>
       </c>
       <c r="B5000" t="n">
-        <v>3241428.994</v>
+        <v>766330.206</v>
       </c>
     </row>
     <row r="5001">
       <c r="A5001" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2013-03-07</t>
         </is>
       </c>
       <c r="B5001" t="n">
-        <v>12988051.483</v>
+        <v>3241428.994</v>
       </c>
     </row>
     <row r="5002">
       <c r="A5002" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="B5002" t="n">
-        <v>18760597.04</v>
+        <v>12988051.483</v>
       </c>
     </row>
     <row r="5003">
       <c r="A5003" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B5003" t="n">
-        <v>14270964.112</v>
+        <v>18760597.04</v>
       </c>
     </row>
     <row r="5004">
       <c r="A5004" t="inlineStr">
         <is>
-          <t>2018-05-10</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B5004" t="n">
-        <v>6510882.164</v>
+        <v>14270964.112</v>
       </c>
     </row>
     <row r="5005">
       <c r="A5005" t="inlineStr">
         <is>
-          <t>2021-01-12</t>
+          <t>2018-05-10</t>
         </is>
       </c>
       <c r="B5005" t="n">
-        <v>20145733.863</v>
+        <v>6510882.164</v>
       </c>
     </row>
     <row r="5006">
       <c r="A5006" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2021-01-12</t>
         </is>
       </c>
       <c r="B5006" t="n">
-        <v>8473097.453</v>
+        <v>20145733.863</v>
       </c>
     </row>
     <row r="5007">
       <c r="A5007" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="B5007" t="n">
-        <v>11371015.617</v>
+        <v>8473097.453</v>
       </c>
     </row>
     <row r="5008">
       <c r="A5008" t="inlineStr">
         <is>
-          <t>2014-01-16</t>
+          <t>2024-11-17</t>
         </is>
       </c>
       <c r="B5008" t="n">
-        <v>6970368.657</v>
+        <v>11371015.617</v>
       </c>
     </row>
     <row r="5009">
       <c r="A5009" t="inlineStr">
         <is>
-          <t>2015-08-11</t>
+          <t>2014-01-16</t>
         </is>
       </c>
       <c r="B5009" t="n">
-        <v>3218034.455</v>
+        <v>6970368.657</v>
       </c>
     </row>
     <row r="5010">
       <c r="A5010" t="inlineStr">
         <is>
-          <t>2011-07-06</t>
+          <t>2015-08-11</t>
         </is>
       </c>
       <c r="B5010" t="n">
-        <v>1754964.907</v>
+        <v>3218034.455</v>
       </c>
     </row>
     <row r="5011">
       <c r="A5011" t="inlineStr">
         <is>
-          <t>2013-03-23</t>
+          <t>2011-07-06</t>
         </is>
       </c>
       <c r="B5011" t="n">
-        <v>3589501.35</v>
+        <v>1754964.907</v>
       </c>
     </row>
     <row r="5012">
       <c r="A5012" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2013-03-23</t>
         </is>
       </c>
       <c r="B5012" t="n">
-        <v>18567759.562</v>
+        <v>3589501.35</v>
       </c>
     </row>
     <row r="5013">
       <c r="A5013" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B5013" t="n">
-        <v>11513696.526</v>
+        <v>18567759.562</v>
       </c>
     </row>
     <row r="5014">
       <c r="A5014" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B5014" t="n">
-        <v>19476737.258</v>
+        <v>11513696.526</v>
       </c>
     </row>
     <row r="5015">
       <c r="A5015" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="B5015" t="n">
-        <v>11785461.662</v>
+        <v>19476737.258</v>
       </c>
     </row>
     <row r="5016">
       <c r="A5016" t="inlineStr">
         <is>
-          <t>2018-05-30</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="B5016" t="n">
-        <v>6201090.208</v>
+        <v>11785461.662</v>
       </c>
     </row>
     <row r="5017">
       <c r="A5017" t="inlineStr">
         <is>
-          <t>2021-01-27</t>
+          <t>2018-05-30</t>
         </is>
       </c>
       <c r="B5017" t="n">
-        <v>19974036.715</v>
+        <v>6201090.208</v>
       </c>
     </row>
     <row r="5018">
       <c r="A5018" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2021-01-27</t>
         </is>
       </c>
       <c r="B5018" t="n">
-        <v>8551266.077</v>
+        <v>19974036.715</v>
       </c>
     </row>
     <row r="5019">
       <c r="A5019" t="inlineStr">
         <is>
-          <t>2014-01-28</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="B5019" t="n">
-        <v>6138215.498</v>
+        <v>8551266.077</v>
       </c>
     </row>
     <row r="5020">
       <c r="A5020" t="inlineStr">
         <is>
-          <t>2015-08-21</t>
+          <t>2014-01-28</t>
         </is>
       </c>
       <c r="B5020" t="n">
-        <v>3408662.316</v>
+        <v>6138215.498</v>
       </c>
     </row>
     <row r="5021">
       <c r="A5021" t="inlineStr">
         <is>
-          <t>2011-07-11</t>
+          <t>2015-08-21</t>
         </is>
       </c>
       <c r="B5021" t="n">
-        <v>1780474.358</v>
+        <v>3408662.316</v>
       </c>
     </row>
     <row r="5022">
       <c r="A5022" t="inlineStr">
         <is>
-          <t>2013-03-24</t>
+          <t>2011-07-11</t>
         </is>
       </c>
       <c r="B5022" t="n">
-        <v>3633372.759</v>
+        <v>1780474.358</v>
       </c>
     </row>
     <row r="5023">
       <c r="A5023" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2013-03-24</t>
         </is>
       </c>
       <c r="B5023" t="n">
-        <v>18785986.856</v>
+        <v>3633372.759</v>
       </c>
     </row>
     <row r="5024">
       <c r="A5024" t="inlineStr">
         <is>
-          <t>2018-06-09</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B5024" t="n">
-        <v>6011921.198</v>
+        <v>18785986.856</v>
       </c>
     </row>
     <row r="5025">
       <c r="A5025" t="inlineStr">
         <is>
-          <t>2021-02-14</t>
+          <t>2018-06-09</t>
         </is>
       </c>
       <c r="B5025" t="n">
-        <v>18025144.31</v>
+        <v>6011921.198</v>
       </c>
     </row>
     <row r="5026">
       <c r="A5026" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2021-02-14</t>
         </is>
       </c>
       <c r="B5026" t="n">
-        <v>9524420.506999999</v>
+        <v>18025144.31</v>
       </c>
     </row>
     <row r="5027">
       <c r="A5027" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2023-12-28</t>
         </is>
       </c>
       <c r="B5027" t="n">
-        <v>11482296.535</v>
+        <v>9524420.506999999</v>
       </c>
     </row>
     <row r="5028">
       <c r="A5028" t="inlineStr">
         <is>
-          <t>2014-02-04</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="B5028" t="n">
-        <v>5933884.516</v>
+        <v>11482296.535</v>
       </c>
     </row>
     <row r="5029">
       <c r="A5029" t="inlineStr">
         <is>
-          <t>2015-09-04</t>
+          <t>2014-02-04</t>
         </is>
       </c>
       <c r="B5029" t="n">
-        <v>3873267.812</v>
+        <v>5933884.516</v>
       </c>
     </row>
     <row r="5030">
       <c r="A5030" t="inlineStr">
         <is>
-          <t>2012-11-25</t>
+          <t>2015-09-04</t>
         </is>
       </c>
       <c r="B5030" t="n">
-        <v>1902645.522</v>
+        <v>3873267.812</v>
       </c>
     </row>
     <row r="5031">
       <c r="A5031" t="inlineStr">
         <is>
-          <t>2013-04-06</t>
+          <t>2012-11-25</t>
         </is>
       </c>
       <c r="B5031" t="n">
-        <v>4569312.896</v>
+        <v>1902645.522</v>
       </c>
     </row>
     <row r="5032">
       <c r="A5032" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
       <c r="B5032" t="n">
-        <v>11377694.684</v>
+        <v>4569312.896</v>
       </c>
     </row>
     <row r="5033">
       <c r="A5033" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B5033" t="n">
-        <v>16169923.625</v>
+        <v>11377694.684</v>
       </c>
     </row>
     <row r="5034">
       <c r="A5034" t="inlineStr">
         <is>
-          <t>2018-06-19</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B5034" t="n">
-        <v>5888257.764</v>
+        <v>16169923.625</v>
       </c>
     </row>
     <row r="5035">
       <c r="A5035" t="inlineStr">
         <is>
-          <t>2021-02-24</t>
+          <t>2018-06-19</t>
         </is>
       </c>
       <c r="B5035" t="n">
-        <v>17928661.951</v>
+        <v>5888257.764</v>
       </c>
     </row>
     <row r="5036">
       <c r="A5036" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2021-02-24</t>
         </is>
       </c>
       <c r="B5036" t="n">
-        <v>10359819.603</v>
+        <v>17928661.951</v>
       </c>
     </row>
     <row r="5037">
       <c r="A5037" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="B5037" t="n">
-        <v>17551353.824</v>
+        <v>10359819.603</v>
       </c>
     </row>
     <row r="5038">
       <c r="A5038" t="inlineStr">
         <is>
-          <t>2014-04-11</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B5038" t="n">
-        <v>5486391.567</v>
+        <v>17551353.824</v>
       </c>
     </row>
     <row r="5039">
       <c r="A5039" t="inlineStr">
         <is>
-          <t>2015-09-19</t>
+          <t>2014-04-11</t>
         </is>
       </c>
       <c r="B5039" t="n">
-        <v>3664786.161</v>
+        <v>5486391.567</v>
       </c>
     </row>
     <row r="5040">
       <c r="A5040" t="inlineStr">
         <is>
-          <t>2013-02-14</t>
+          <t>2015-09-19</t>
         </is>
       </c>
       <c r="B5040" t="n">
-        <v>2562212.317</v>
+        <v>3664786.161</v>
       </c>
     </row>
     <row r="5041">
       <c r="A5041" t="inlineStr">
         <is>
-          <t>2013-04-11</t>
+          <t>2013-02-14</t>
         </is>
       </c>
       <c r="B5041" t="n">
-        <v>5258477.274</v>
+        <v>2562212.317</v>
       </c>
     </row>
     <row r="5042">
       <c r="A5042" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2013-04-11</t>
         </is>
       </c>
       <c r="B5042" t="n">
-        <v>18496989.062</v>
+        <v>5258477.274</v>
       </c>
     </row>
     <row r="5043">
       <c r="A5043" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B5043" t="n">
-        <v>12884767.419</v>
+        <v>18496989.062</v>
       </c>
     </row>
     <row r="5044">
       <c r="A5044" t="inlineStr">
         <is>
-          <t>2018-07-06</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B5044" t="n">
-        <v>6085617.267</v>
+        <v>12884767.419</v>
       </c>
     </row>
     <row r="5045">
       <c r="A5045" t="inlineStr">
         <is>
-          <t>2021-03-11</t>
+          <t>2018-07-06</t>
         </is>
       </c>
       <c r="B5045" t="n">
-        <v>17506401.366</v>
+        <v>6085617.267</v>
       </c>
     </row>
     <row r="5046">
       <c r="A5046" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2021-03-11</t>
         </is>
       </c>
       <c r="B5046" t="n">
-        <v>6598014.235</v>
+        <v>17506401.366</v>
       </c>
     </row>
     <row r="5047">
       <c r="A5047" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="B5047" t="n">
-        <v>10277655.606</v>
+        <v>6598014.235</v>
       </c>
     </row>
     <row r="5048">
       <c r="A5048" t="inlineStr">
         <is>
-          <t>2014-04-19</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="B5048" t="n">
-        <v>5485487.586</v>
+        <v>10277655.606</v>
       </c>
     </row>
     <row r="5049">
       <c r="A5049" t="inlineStr">
         <is>
-          <t>2015-05-13</t>
+          <t>2014-04-19</t>
         </is>
       </c>
       <c r="B5049" t="n">
-        <v>3230141.766</v>
+        <v>5485487.586</v>
       </c>
     </row>
     <row r="5050">
       <c r="A5050" t="inlineStr">
         <is>
-          <t>2015-10-17</t>
+          <t>2015-05-13</t>
         </is>
       </c>
       <c r="B5050" t="n">
-        <v>3654408.41</v>
+        <v>3230141.766</v>
       </c>
     </row>
     <row r="5051">
       <c r="A5051" t="inlineStr">
         <is>
-          <t>2013-04-18</t>
+          <t>2015-10-17</t>
         </is>
       </c>
       <c r="B5051" t="n">
-        <v>5574917.223</v>
+        <v>3654408.41</v>
       </c>
     </row>
     <row r="5052">
       <c r="A5052" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2013-04-18</t>
         </is>
       </c>
       <c r="B5052" t="n">
-        <v>13906083.942</v>
+        <v>5574917.223</v>
       </c>
     </row>
     <row r="5053">
       <c r="A5053" t="inlineStr">
         <is>
-          <t>2018-07-22</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B5053" t="n">
-        <v>5228255.855</v>
+        <v>13906083.942</v>
       </c>
     </row>
     <row r="5054">
       <c r="A5054" t="inlineStr">
         <is>
-          <t>2021-03-26</t>
+          <t>2018-07-22</t>
         </is>
       </c>
       <c r="B5054" t="n">
-        <v>16111714.082</v>
+        <v>5228255.855</v>
       </c>
     </row>
     <row r="5055">
       <c r="A5055" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2021-03-26</t>
         </is>
       </c>
       <c r="B5055" t="n">
-        <v>11670457.865</v>
+        <v>16111714.082</v>
       </c>
     </row>
     <row r="5056">
       <c r="A5056" t="inlineStr">
         <is>
-          <t>2014-04-25</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="B5056" t="n">
-        <v>5461830.872</v>
+        <v>11670457.865</v>
       </c>
     </row>
     <row r="5057">
       <c r="A5057" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2014-04-25</t>
         </is>
       </c>
       <c r="B5057" t="n">
-        <v>2729765.372</v>
+        <v>5461830.872</v>
       </c>
     </row>
     <row r="5058">
       <c r="A5058" t="inlineStr">
         <is>
-          <t>2015-11-23</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="B5058" t="n">
-        <v>4274264.644</v>
+        <v>2729765.372</v>
       </c>
     </row>
     <row r="5059">
       <c r="A5059" t="inlineStr">
         <is>
-          <t>2013-05-12</t>
+          <t>2015-11-23</t>
         </is>
       </c>
       <c r="B5059" t="n">
-        <v>5251259.328</v>
+        <v>4274264.644</v>
       </c>
     </row>
     <row r="5060">
       <c r="A5060" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2013-05-12</t>
         </is>
       </c>
       <c r="B5060" t="n">
-        <v>18983749.017</v>
+        <v>5251259.328</v>
       </c>
     </row>
     <row r="5061">
       <c r="A5061" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B5061" t="n">
-        <v>10054424.048</v>
+        <v>18983749.017</v>
       </c>
     </row>
     <row r="5062">
       <c r="A5062" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="B5062" t="n">
-        <v>18523673.383</v>
+        <v>10054424.048</v>
       </c>
     </row>
     <row r="5063">
       <c r="A5063" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B5063" t="n">
-        <v>6190194.949</v>
+        <v>18523673.383</v>
       </c>
     </row>
     <row r="5064">
       <c r="A5064" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="B5064" t="n">
-        <v>6153661.361</v>
+        <v>6190194.949</v>
       </c>
     </row>
     <row r="5065">
       <c r="A5065" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="B5065" t="n">
-        <v>10362802.579</v>
+        <v>6153661.361</v>
       </c>
     </row>
     <row r="5066">
       <c r="A5066" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2022-11-26</t>
         </is>
       </c>
       <c r="B5066" t="n">
-        <v>8173999.195</v>
+        <v>10362802.579</v>
       </c>
     </row>
     <row r="5067">
       <c r="A5067" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="B5067" t="n">
-        <v>8017070.673</v>
+        <v>8173999.195</v>
       </c>
     </row>
     <row r="5068">
       <c r="A5068" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="B5068" t="n">
-        <v>12216862.024</v>
+        <v>8017070.673</v>
       </c>
     </row>
     <row r="5069">
       <c r="A5069" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B5069" t="n">
-        <v>16777254.692</v>
+        <v>12216862.024</v>
       </c>
     </row>
     <row r="5070">
       <c r="A5070" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="B5070" t="n">
-        <v>10786270.903</v>
+        <v>16777254.692</v>
       </c>
     </row>
     <row r="5071">
       <c r="A5071" t="inlineStr">
         <is>
-          <t>2014-04-30</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B5071" t="n">
-        <v>5420067.424</v>
+        <v>10786270.903</v>
       </c>
     </row>
     <row r="5072">
       <c r="A5072" t="inlineStr">
         <is>
-          <t>2015-12-15</t>
+          <t>2014-04-30</t>
         </is>
       </c>
       <c r="B5072" t="n">
-        <v>4926141.739</v>
+        <v>5420067.424</v>
       </c>
     </row>
     <row r="5073">
       <c r="A5073" t="inlineStr">
         <is>
-          <t>2013-05-20</t>
+          <t>2015-12-15</t>
         </is>
       </c>
       <c r="B5073" t="n">
-        <v>5042140.665</v>
+        <v>4926141.739</v>
       </c>
     </row>
     <row r="5074">
       <c r="A5074" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B5074" t="n">
-        <v>12620748.822</v>
+        <v>14044333.608</v>
       </c>
     </row>
     <row r="5075">
       <c r="A5075" t="inlineStr">
         <is>
-          <t>2017-05-15</t>
+          <t>2013-05-20</t>
         </is>
       </c>
       <c r="B5075" t="n">
-        <v>10092377.113</v>
+        <v>5042140.665</v>
       </c>
     </row>
     <row r="5076">
       <c r="A5076" t="inlineStr">
         <is>
-          <t>2018-09-13</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B5076" t="n">
-        <v>5716052.208</v>
+        <v>12620748.822</v>
       </c>
     </row>
     <row r="5077">
       <c r="A5077" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2017-05-15</t>
         </is>
       </c>
       <c r="B5077" t="n">
-        <v>12978042.967</v>
+        <v>10092377.113</v>
       </c>
     </row>
     <row r="5078">
       <c r="A5078" t="inlineStr">
         <is>
-          <t>2021-11-14</t>
+          <t>2018-09-13</t>
         </is>
       </c>
       <c r="B5078" t="n">
-        <v>8999892.903000001</v>
+        <v>5716052.208</v>
       </c>
     </row>
     <row r="5079">
       <c r="A5079" t="inlineStr">
         <is>
-          <t>2021-11-15</t>
+          <t>2021-04-13</t>
         </is>
       </c>
       <c r="B5079" t="n">
-        <v>9046092.041999999</v>
+        <v>12978042.967</v>
       </c>
     </row>
     <row r="5080">
       <c r="A5080" t="inlineStr">
         <is>
-          <t>2021-12-05</t>
+          <t>2021-11-14</t>
         </is>
       </c>
       <c r="B5080" t="n">
-        <v>9731141.630999999</v>
+        <v>8999892.903000001</v>
       </c>
     </row>
     <row r="5081">
       <c r="A5081" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2021-11-15</t>
         </is>
       </c>
       <c r="B5081" t="n">
-        <v>9907110.057</v>
+        <v>9046092.041999999</v>
       </c>
     </row>
     <row r="5082">
       <c r="A5082" t="inlineStr">
         <is>
-          <t>2022-01-04</t>
+          <t>2021-12-05</t>
         </is>
       </c>
       <c r="B5082" t="n">
-        <v>9609614.795</v>
+        <v>9731141.630999999</v>
       </c>
     </row>
     <row r="5083">
       <c r="A5083" t="inlineStr">
         <is>
-          <t>2022-01-06</t>
+          <t>2021-12-07</t>
         </is>
       </c>
       <c r="B5083" t="n">
-        <v>9657259.026000001</v>
+        <v>9907110.057</v>
       </c>
     </row>
     <row r="5084">
       <c r="A5084" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-01-04</t>
         </is>
       </c>
       <c r="B5084" t="n">
-        <v>9240975.41</v>
+        <v>9609614.795</v>
       </c>
     </row>
     <row r="5085">
       <c r="A5085" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-01-06</t>
         </is>
       </c>
       <c r="B5085" t="n">
-        <v>9269022.852</v>
+        <v>9657259.026000001</v>
       </c>
     </row>
     <row r="5086">
       <c r="A5086" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="B5086" t="n">
-        <v>10034636.877</v>
+        <v>9240975.41</v>
       </c>
     </row>
     <row r="5087">
       <c r="A5087" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="B5087" t="n">
-        <v>8218318.752</v>
+        <v>9269022.852</v>
       </c>
     </row>
     <row r="5088">
       <c r="A5088" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="B5088" t="n">
-        <v>9030081.539999999</v>
+        <v>10034636.877</v>
       </c>
     </row>
     <row r="5089">
       <c r="A5089" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="B5089" t="n">
-        <v>9212749.865</v>
+        <v>8218318.752</v>
       </c>
     </row>
     <row r="5090">
       <c r="A5090" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="B5090" t="n">
-        <v>9880601.411</v>
+        <v>9030081.539999999</v>
       </c>
     </row>
     <row r="5091">
       <c r="A5091" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="B5091" t="n">
-        <v>9874969.986</v>
+        <v>9212749.865</v>
       </c>
     </row>
     <row r="5092">
       <c r="A5092" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="B5092" t="n">
-        <v>10273334.73</v>
+        <v>9880601.411</v>
       </c>
     </row>
     <row r="5093">
       <c r="A5093" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="B5093" t="n">
-        <v>10435634.731</v>
+        <v>9874969.986</v>
       </c>
     </row>
     <row r="5094">
       <c r="A5094" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B5094" t="n">
-        <v>10366318.076</v>
+        <v>10273334.73</v>
       </c>
     </row>
     <row r="5095">
       <c r="A5095" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B5095" t="n">
-        <v>10213288.827</v>
+        <v>10435634.731</v>
       </c>
     </row>
     <row r="5096">
       <c r="A5096" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="B5096" t="n">
-        <v>9524273.433</v>
+        <v>10366318.076</v>
       </c>
     </row>
     <row r="5097">
       <c r="A5097" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="B5097" t="n">
-        <v>8112862.961</v>
+        <v>10213288.827</v>
       </c>
     </row>
     <row r="5098">
       <c r="A5098" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="B5098" t="n">
-        <v>7953269.825</v>
+        <v>9524273.433</v>
       </c>
     </row>
     <row r="5099">
       <c r="A5099" t="inlineStr">
         <is>
-          <t>2023-03-29</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B5099" t="n">
-        <v>7280535.923</v>
+        <v>8112862.961</v>
       </c>
     </row>
     <row r="5100">
       <c r="A5100" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="B5100" t="n">
-        <v>7702956.401</v>
+        <v>7953269.825</v>
       </c>
     </row>
     <row r="5101">
       <c r="A5101" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2023-03-29</t>
         </is>
       </c>
       <c r="B5101" t="n">
-        <v>7760533.554</v>
+        <v>7280535.923</v>
       </c>
     </row>
     <row r="5102">
       <c r="A5102" t="inlineStr">
         <is>
-          <t>2023-06-11</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="B5102" t="n">
-        <v>8261999.766</v>
+        <v>7702956.401</v>
       </c>
     </row>
     <row r="5103">
       <c r="A5103" t="inlineStr">
         <is>
-          <t>2023-06-12</t>
+          <t>2023-04-19</t>
         </is>
       </c>
       <c r="B5103" t="n">
-        <v>8200427.591</v>
+        <v>7760533.554</v>
       </c>
     </row>
     <row r="5104">
       <c r="A5104" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-06-11</t>
         </is>
       </c>
       <c r="B5104" t="n">
-        <v>8214760.012</v>
+        <v>8261999.766</v>
       </c>
     </row>
     <row r="5105">
       <c r="A5105" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2023-06-12</t>
         </is>
       </c>
       <c r="B5105" t="n">
-        <v>14044333.608</v>
+        <v>8200427.591</v>
       </c>
     </row>
     <row r="5106">
       <c r="A5106" t="inlineStr">
         <is>
-          <t>2018-10-06</t>
+          <t>2023-07-08</t>
         </is>
       </c>
       <c r="B5106" t="n">
-        <v>5589914.377</v>
+        <v>8214760.012</v>
       </c>
     </row>
     <row r="5107">
       <c r="A5107" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2018-10-06</t>
         </is>
       </c>
       <c r="B5107" t="n">
-        <v>13532358.233</v>
+        <v>5589914.377</v>
       </c>
     </row>
     <row r="5108">
       <c r="A5108" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2021-04-29</t>
         </is>
       </c>
       <c r="B5108" t="n">
-        <v>12614002.689</v>
+        <v>13532358.233</v>
       </c>
     </row>
     <row r="5109">
       <c r="A5109" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="B5109" t="n">
-        <v>16908871.181</v>
+        <v>12614002.689</v>
       </c>
     </row>
     <row r="5110">
       <c r="A5110" t="inlineStr">
         <is>
-          <t>2013-06-06</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B5110" t="n">
-        <v>4599987.198</v>
+        <v>16908871.181</v>
       </c>
     </row>
     <row r="5111">
       <c r="A5111" t="inlineStr">
         <is>
-          <t>2014-07-06</t>
+          <t>2013-06-06</t>
         </is>
       </c>
       <c r="B5111" t="n">
-        <v>2651817.344</v>
+        <v>4599987.198</v>
       </c>
     </row>
     <row r="5112">
       <c r="A5112" t="inlineStr">
         <is>
-          <t>2016-01-06</t>
+          <t>2014-07-06</t>
         </is>
       </c>
       <c r="B5112" t="n">
-        <v>4922546.397</v>
+        <v>2651817.344</v>
       </c>
     </row>
     <row r="5113">
       <c r="A5113" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2016-01-06</t>
         </is>
       </c>
       <c r="B5113" t="n">
-        <v>18944691.526</v>
+        <v>4922546.397</v>
       </c>
     </row>
     <row r="5114">
       <c r="A5114" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B5114" t="n">
-        <v>17508953.532</v>
+        <v>18944691.526</v>
       </c>
     </row>
     <row r="5115">
       <c r="A5115" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B5115" t="n">
-        <v>13539397.76</v>
+        <v>17508953.532</v>
       </c>
     </row>
     <row r="5116">
       <c r="A5116" t="inlineStr">
         <is>
-          <t>2018-10-22</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B5116" t="n">
-        <v>5898415.348</v>
+        <v>13539397.76</v>
       </c>
     </row>
     <row r="5117">
       <c r="A5117" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2018-10-22</t>
         </is>
       </c>
       <c r="B5117" t="n">
-        <v>13125869.478</v>
+        <v>5898415.348</v>
       </c>
     </row>
     <row r="5118">
       <c r="A5118" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="B5118" t="n">
-        <v>12536685.09</v>
+        <v>13125869.478</v>
       </c>
     </row>
     <row r="5119">
       <c r="A5119" t="inlineStr">
         <is>
-          <t>2013-06-10</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="B5119" t="n">
-        <v>4546996.485</v>
+        <v>12536685.09</v>
       </c>
     </row>
     <row r="5120">
       <c r="A5120" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2013-06-10</t>
         </is>
       </c>
       <c r="B5120" t="n">
-        <v>11463487.194</v>
+        <v>4546996.485</v>
       </c>
     </row>
     <row r="5121">
       <c r="A5121" t="inlineStr">
         <is>
-          <t>2014-07-12</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B5121" t="n">
-        <v>2584261.892</v>
+        <v>11463487.194</v>
       </c>
     </row>
     <row r="5122">
       <c r="A5122" t="inlineStr">
         <is>
-          <t>2016-02-04</t>
+          <t>2014-07-12</t>
         </is>
       </c>
       <c r="B5122" t="n">
-        <v>5485945.959</v>
+        <v>2584261.892</v>
       </c>
     </row>
     <row r="5123">
       <c r="A5123" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2016-02-04</t>
         </is>
       </c>
       <c r="B5123" t="n">
-        <v>17420607.699</v>
+        <v>5485945.959</v>
       </c>
     </row>
     <row r="5124">
       <c r="A5124" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="B5124" t="n">
-        <v>16742051.234</v>
+        <v>17420607.699</v>
       </c>
     </row>
     <row r="5125">
       <c r="A5125" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B5125" t="n">
-        <v>10154290.861</v>
+        <v>16742051.234</v>
       </c>
     </row>
     <row r="5126">
       <c r="A5126" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="B5126" t="n">
-        <v>5966396.144</v>
+        <v>10154290.861</v>
       </c>
     </row>
     <row r="5127">
       <c r="A5127" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="B5127" t="n">
-        <v>13060043.261</v>
+        <v>5966396.144</v>
       </c>
     </row>
     <row r="5128">
       <c r="A5128" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="B5128" t="n">
-        <v>13198740.126</v>
+        <v>13060043.261</v>
       </c>
     </row>
     <row r="5129">
       <c r="A5129" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="B5129" t="n">
-        <v>15762243.002</v>
+        <v>13198740.126</v>
       </c>
     </row>
     <row r="5130">
       <c r="A5130" t="inlineStr">
         <is>
-          <t>2013-06-27</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="B5130" t="n">
-        <v>4002308.164</v>
+        <v>15762243.002</v>
       </c>
     </row>
     <row r="5131">
       <c r="A5131" t="inlineStr">
         <is>
-          <t>2014-07-19</t>
+          <t>2013-06-27</t>
         </is>
       </c>
       <c r="B5131" t="n">
-        <v>2463584.735</v>
+        <v>4002308.164</v>
       </c>
     </row>
     <row r="5132">
       <c r="A5132" t="inlineStr">
         <is>
-          <t>2016-02-19</t>
+          <t>2014-07-19</t>
         </is>
       </c>
       <c r="B5132" t="n">
-        <v>5426730.361</v>
+        <v>2463584.735</v>
       </c>
     </row>
     <row r="5133">
       <c r="A5133" t="inlineStr">
         <is>
-          <t>2024-10-12</t>
+          <t>2016-02-19</t>
         </is>
       </c>
       <c r="B5133" t="n">
-        <v>10165678.695</v>
+        <v>5426730.361</v>
       </c>
     </row>
     <row r="5134">
       <c r="A5134" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2024-10-12</t>
         </is>
       </c>
       <c r="B5134" t="n">
-        <v>19324380.182</v>
+        <v>10165678.695</v>
       </c>
     </row>
     <row r="5135">
       <c r="A5135" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B5135" t="n">
-        <v>16662741.532</v>
+        <v>19324380.182</v>
       </c>
     </row>
     <row r="5136">
       <c r="A5136" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B5136" t="n">
-        <v>11982419.652</v>
+        <v>16662741.532</v>
       </c>
     </row>
     <row r="5137">
       <c r="A5137" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B5137" t="n">
-        <v>18518628.999</v>
+        <v>11982419.652</v>
       </c>
     </row>
     <row r="5138">
       <c r="A5138" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B5138" t="n">
-        <v>11533542.22</v>
+        <v>18518628.999</v>
       </c>
     </row>
     <row r="5139">
       <c r="A5139" t="inlineStr">
         <is>
-          <t>2018-11-29</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B5139" t="n">
-        <v>5868364.27</v>
+        <v>11533542.22</v>
       </c>
     </row>
     <row r="5140">
       <c r="A5140" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="B5140" t="n">
-        <v>12659047.396</v>
+        <v>5868364.27</v>
       </c>
     </row>
     <row r="5141">
       <c r="A5141" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2021-05-26</t>
         </is>
       </c>
       <c r="B5141" t="n">
-        <v>13742960</v>
+        <v>12659047.396</v>
       </c>
     </row>
     <row r="5142">
       <c r="A5142" t="inlineStr">
         <is>
-          <t>2013-06-28</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B5142" t="n">
-        <v>3944583.64</v>
+        <v>13742960</v>
       </c>
     </row>
     <row r="5143">
       <c r="A5143" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2013-06-28</t>
         </is>
       </c>
       <c r="B5143" t="n">
-        <v>11890718.505</v>
+        <v>3944583.64</v>
       </c>
     </row>
     <row r="5144">
       <c r="A5144" t="inlineStr">
         <is>
-          <t>2014-07-26</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B5144" t="n">
-        <v>2518919.825</v>
+        <v>11890718.505</v>
       </c>
     </row>
     <row r="5145">
       <c r="A5145" t="inlineStr">
         <is>
-          <t>2016-03-04</t>
+          <t>2014-07-26</t>
         </is>
       </c>
       <c r="B5145" t="n">
-        <v>5778833.318</v>
+        <v>2518919.825</v>
       </c>
     </row>
     <row r="5146">
       <c r="A5146" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2016-03-04</t>
         </is>
       </c>
       <c r="B5146" t="n">
-        <v>17921349.452</v>
+        <v>5778833.318</v>
       </c>
     </row>
     <row r="5147">
       <c r="A5147" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B5147" t="n">
-        <v>12190152.036</v>
+        <v>17921349.452</v>
       </c>
     </row>
     <row r="5148">
       <c r="A5148" t="inlineStr">
         <is>
-          <t>2019-01-13</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B5148" t="n">
-        <v>14122551.88</v>
+        <v>12190152.036</v>
       </c>
     </row>
     <row r="5149">
       <c r="A5149" t="inlineStr">
         <is>
-          <t>2021-06-14</t>
+          <t>2019-01-13</t>
         </is>
       </c>
       <c r="B5149" t="n">
-        <v>11639185.801</v>
+        <v>14122551.88</v>
       </c>
     </row>
     <row r="5150">
       <c r="A5150" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2021-06-14</t>
         </is>
       </c>
       <c r="B5150" t="n">
-        <v>15843658.658</v>
+        <v>11639185.801</v>
       </c>
     </row>
     <row r="5151">
       <c r="A5151" t="inlineStr">
         <is>
-          <t>2013-07-20</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="B5151" t="n">
-        <v>2418821.13</v>
+        <v>15843658.658</v>
       </c>
     </row>
     <row r="5152">
       <c r="A5152" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2013-07-20</t>
         </is>
       </c>
       <c r="B5152" t="n">
-        <v>19799814.996</v>
+        <v>2418821.13</v>
       </c>
     </row>
     <row r="5153">
       <c r="A5153" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B5153" t="n">
-        <v>16092268.729</v>
+        <v>19799814.996</v>
       </c>
     </row>
     <row r="5154">
       <c r="A5154" t="inlineStr">
         <is>
-          <t>2014-08-02</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="B5154" t="n">
-        <v>2629106.898</v>
+        <v>16092268.729</v>
       </c>
     </row>
     <row r="5155">
       <c r="A5155" t="inlineStr">
         <is>
-          <t>2016-03-18</t>
+          <t>2014-08-02</t>
         </is>
       </c>
       <c r="B5155" t="n">
-        <v>6029787.816</v>
+        <v>2629106.898</v>
       </c>
     </row>
     <row r="5156">
       <c r="A5156" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2016-03-18</t>
         </is>
       </c>
       <c r="B5156" t="n">
-        <v>13888250.184</v>
+        <v>6029787.816</v>
       </c>
     </row>
     <row r="5157">
       <c r="A5157" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B5157" t="n">
-        <v>13422882.236</v>
+        <v>13888250.184</v>
       </c>
     </row>
     <row r="5158">
       <c r="A5158" t="inlineStr">
         <is>
-          <t>2019-01-29</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B5158" t="n">
-        <v>15644638.336</v>
+        <v>13422882.236</v>
       </c>
     </row>
     <row r="5159">
       <c r="A5159" t="inlineStr">
         <is>
-          <t>2021-06-29</t>
+          <t>2019-01-29</t>
         </is>
       </c>
       <c r="B5159" t="n">
-        <v>10913626.968</v>
+        <v>15644638.336</v>
       </c>
     </row>
     <row r="5160">
       <c r="A5160" t="inlineStr">
         <is>
-          <t>2024-03-23</t>
+          <t>2021-06-29</t>
         </is>
       </c>
       <c r="B5160" t="n">
-        <v>19077349.963</v>
+        <v>10913626.968</v>
       </c>
     </row>
     <row r="5161">
       <c r="A5161" t="inlineStr">
         <is>
-          <t>2013-08-08</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="B5161" t="n">
-        <v>2304856.993</v>
+        <v>19077349.963</v>
       </c>
     </row>
     <row r="5162">
       <c r="A5162" t="inlineStr">
         <is>
-          <t>2014-08-08</t>
+          <t>2013-08-08</t>
         </is>
       </c>
       <c r="B5162" t="n">
-        <v>2848618.131</v>
+        <v>2304856.993</v>
       </c>
     </row>
     <row r="5163">
       <c r="A5163" t="inlineStr">
         <is>
-          <t>2016-04-16</t>
+          <t>2014-08-08</t>
         </is>
       </c>
       <c r="B5163" t="n">
-        <v>6185360.008</v>
+        <v>2848618.131</v>
       </c>
     </row>
     <row r="5164">
       <c r="A5164" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2016-04-16</t>
         </is>
       </c>
       <c r="B5164" t="n">
-        <v>13449347.64</v>
+        <v>6185360.008</v>
       </c>
     </row>
     <row r="5165">
       <c r="A5165" t="inlineStr">
         <is>
-          <t>2019-02-14</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B5165" t="n">
-        <v>15372460.768</v>
+        <v>13449347.64</v>
       </c>
     </row>
     <row r="5166">
       <c r="A5166" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2019-02-14</t>
         </is>
       </c>
       <c r="B5166" t="n">
-        <v>9416090.248</v>
+        <v>15372460.768</v>
       </c>
     </row>
     <row r="5167">
       <c r="A5167" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="B5167" t="n">
-        <v>19554838.811</v>
+        <v>9416090.248</v>
       </c>
     </row>
     <row r="5168">
       <c r="A5168" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-03-30</t>
         </is>
       </c>
       <c r="B5168" t="n">
-        <v>15736728.197</v>
+        <v>19554838.811</v>
       </c>
     </row>
     <row r="5169">
       <c r="A5169" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="B5169" t="n">
-        <v>18061928.338</v>
+        <v>15736728.197</v>
       </c>
     </row>
     <row r="5170">
       <c r="A5170" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B5170" t="n">
-        <v>18195056.999</v>
+        <v>18061928.338</v>
       </c>
     </row>
     <row r="5171">
       <c r="A5171" t="inlineStr">
         <is>
-          <t>2013-08-22</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B5171" t="n">
-        <v>2483113.932</v>
+        <v>18195056.999</v>
       </c>
     </row>
     <row r="5172">
       <c r="A5172" t="inlineStr">
         <is>
-          <t>2014-08-24</t>
+          <t>2013-08-22</t>
         </is>
       </c>
       <c r="B5172" t="n">
-        <v>2907894.968</v>
+        <v>2483113.932</v>
       </c>
     </row>
     <row r="5173">
       <c r="A5173" t="inlineStr">
         <is>
-          <t>2016-04-30</t>
+          <t>2014-08-24</t>
         </is>
       </c>
       <c r="B5173" t="n">
-        <v>5584076.258</v>
+        <v>2907894.968</v>
       </c>
     </row>
     <row r="5174">
       <c r="A5174" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2016-04-30</t>
         </is>
       </c>
       <c r="B5174" t="n">
-        <v>10139727.84</v>
+        <v>5584076.258</v>
       </c>
     </row>
     <row r="5175">
       <c r="A5175" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="B5175" t="n">
-        <v>20311437.78</v>
+        <v>10139727.84</v>
       </c>
     </row>
     <row r="5176">
       <c r="A5176" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="B5176" t="n">
-        <v>19921671.37</v>
+        <v>20311437.78</v>
       </c>
     </row>
     <row r="5177">
       <c r="A5177" t="inlineStr">
         <is>
-          <t>2019-03-08</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="B5177" t="n">
-        <v>7888479.131</v>
+        <v>19921671.37</v>
       </c>
     </row>
     <row r="5178">
       <c r="A5178" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2019-03-08</t>
         </is>
       </c>
       <c r="B5178" t="n">
-        <v>10017123.009</v>
+        <v>7888479.131</v>
       </c>
     </row>
     <row r="5179">
       <c r="A5179" t="inlineStr">
         <is>
-          <t>2024-04-06</t>
+          <t>2021-08-08</t>
         </is>
       </c>
       <c r="B5179" t="n">
-        <v>19912305.448</v>
+        <v>10017123.009</v>
       </c>
     </row>
     <row r="5180">
       <c r="A5180" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-04-06</t>
         </is>
       </c>
       <c r="B5180" t="n">
-        <v>15408192.117</v>
+        <v>19912305.448</v>
       </c>
     </row>
     <row r="5181">
       <c r="A5181" t="inlineStr">
         <is>
-          <t>2013-09-08</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="B5181" t="n">
-        <v>2309043.439</v>
+        <v>15408192.117</v>
       </c>
     </row>
     <row r="5182">
       <c r="A5182" t="inlineStr">
         <is>
-          <t>2014-08-30</t>
+          <t>2013-09-08</t>
         </is>
       </c>
       <c r="B5182" t="n">
-        <v>2814593.841</v>
+        <v>2309043.439</v>
       </c>
     </row>
     <row r="5183">
       <c r="A5183" t="inlineStr">
         <is>
-          <t>2016-05-11</t>
+          <t>2014-08-30</t>
         </is>
       </c>
       <c r="B5183" t="n">
-        <v>5531832.262</v>
+        <v>2814593.841</v>
       </c>
     </row>
     <row r="5184">
       <c r="A5184" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2016-05-11</t>
         </is>
       </c>
       <c r="B5184" t="n">
-        <v>13010963.419</v>
+        <v>5531832.262</v>
       </c>
     </row>
     <row r="5185">
       <c r="A5185" t="inlineStr">
         <is>
-          <t>2019-03-14</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="B5185" t="n">
-        <v>7713021.774</v>
+        <v>13010963.419</v>
       </c>
     </row>
     <row r="5186">
       <c r="A5186" t="inlineStr">
         <is>
-          <t>2021-08-13</t>
+          <t>2019-03-14</t>
         </is>
       </c>
       <c r="B5186" t="n">
-        <v>9574167.65</v>
+        <v>7713021.774</v>
       </c>
     </row>
     <row r="5187">
       <c r="A5187" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2021-08-13</t>
         </is>
       </c>
       <c r="B5187" t="n">
-        <v>17931313.804</v>
+        <v>9574167.65</v>
       </c>
     </row>
     <row r="5188">
       <c r="A5188" t="inlineStr">
         <is>
-          <t>2013-09-10</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="B5188" t="n">
-        <v>2350507.87</v>
+        <v>17931313.804</v>
       </c>
     </row>
     <row r="5189">
       <c r="A5189" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2013-09-10</t>
         </is>
       </c>
       <c r="B5189" t="n">
-        <v>13202621.428</v>
+        <v>2350507.87</v>
       </c>
     </row>
     <row r="5190">
       <c r="A5190" t="inlineStr">
         <is>
-          <t>2014-09-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B5190" t="n">
-        <v>2654246.128</v>
+        <v>13202621.428</v>
       </c>
     </row>
     <row r="5191">
       <c r="A5191" t="inlineStr">
         <is>
-          <t>2016-05-26</t>
+          <t>2014-09-24</t>
         </is>
       </c>
       <c r="B5191" t="n">
-        <v>5654997.006</v>
+        <v>2654246.128</v>
       </c>
     </row>
     <row r="5192">
       <c r="A5192" t="inlineStr">
         <is>
-          <t>2019-03-30</t>
+          <t>2016-05-26</t>
         </is>
       </c>
       <c r="B5192" t="n">
-        <v>7636682.731</v>
+        <v>5654997.006</v>
       </c>
     </row>
     <row r="5193">
       <c r="A5193" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2019-03-30</t>
         </is>
       </c>
       <c r="B5193" t="n">
-        <v>9115635.342</v>
+        <v>7636682.731</v>
       </c>
     </row>
     <row r="5194">
       <c r="A5194" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2021-08-18</t>
         </is>
       </c>
       <c r="B5194" t="n">
-        <v>17680988.152</v>
+        <v>9115635.342</v>
       </c>
     </row>
     <row r="5195">
       <c r="A5195" t="inlineStr">
         <is>
-          <t>2013-10-04</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="B5195" t="n">
-        <v>2315949.206</v>
+        <v>17680988.152</v>
       </c>
     </row>
     <row r="5196">
       <c r="A5196" t="inlineStr">
         <is>
-          <t>2016-07-20</t>
+          <t>2013-10-04</t>
         </is>
       </c>
       <c r="B5196" t="n">
-        <v>5964902.839</v>
+        <v>2315949.206</v>
       </c>
     </row>
     <row r="5197">
       <c r="A5197" t="inlineStr">
         <is>
-          <t>2014-09-30</t>
+          <t>2016-07-20</t>
         </is>
       </c>
       <c r="B5197" t="n">
-        <v>2625686.029</v>
+        <v>5964902.839</v>
       </c>
     </row>
     <row r="5198">
       <c r="A5198" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2014-09-30</t>
         </is>
       </c>
       <c r="B5198" t="n">
-        <v>14555529.314</v>
+        <v>2625686.029</v>
       </c>
     </row>
     <row r="5199">
       <c r="A5199" t="inlineStr">
         <is>
-          <t>2019-04-15</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B5199" t="n">
-        <v>6167355.699</v>
+        <v>14555529.314</v>
       </c>
     </row>
     <row r="5200">
       <c r="A5200" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2019-04-15</t>
         </is>
       </c>
       <c r="B5200" t="n">
-        <v>8491040.936000001</v>
+        <v>6167355.699</v>
       </c>
     </row>
     <row r="5201">
       <c r="A5201" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="B5201" t="n">
-        <v>17316630.871</v>
+        <v>8491040.936000001</v>
       </c>
     </row>
     <row r="5202">
       <c r="A5202" t="inlineStr">
         <is>
-          <t>2013-10-22</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="B5202" t="n">
-        <v>2877443.953</v>
+        <v>17316630.871</v>
       </c>
     </row>
     <row r="5203">
       <c r="A5203" t="inlineStr">
         <is>
-          <t>2016-08-03</t>
+          <t>2013-10-22</t>
         </is>
       </c>
       <c r="B5203" t="n">
-        <v>5948319.051</v>
+        <v>2877443.953</v>
       </c>
     </row>
     <row r="5204">
       <c r="A5204" t="inlineStr">
         <is>
-          <t>2014-10-07</t>
+          <t>2016-08-03</t>
         </is>
       </c>
       <c r="B5204" t="n">
-        <v>2920545.529</v>
+        <v>5948319.051</v>
       </c>
     </row>
     <row r="5205">
       <c r="A5205" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2014-10-07</t>
         </is>
       </c>
       <c r="B5205" t="n">
-        <v>9876625.647</v>
+        <v>2920545.529</v>
       </c>
     </row>
     <row r="5206">
       <c r="A5206" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B5206" t="n">
-        <v>9348543.609999999</v>
+        <v>9876625.647</v>
       </c>
     </row>
     <row r="5207">
       <c r="A5207" t="inlineStr">
         <is>
-          <t>2019-04-30</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B5207" t="n">
-        <v>6286634.574</v>
+        <v>9348543.609999999</v>
       </c>
     </row>
     <row r="5208">
       <c r="A5208" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2019-04-30</t>
         </is>
       </c>
       <c r="B5208" t="n">
-        <v>8893796.503</v>
+        <v>6286634.574</v>
       </c>
     </row>
     <row r="5209">
       <c r="A5209" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2021-09-26</t>
         </is>
       </c>
       <c r="B5209" t="n">
-        <v>16658702.812</v>
+        <v>8893796.503</v>
       </c>
     </row>
     <row r="5210">
       <c r="A5210" t="inlineStr">
         <is>
-          <t>2024-07-06</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="B5210" t="n">
-        <v>15649596.102</v>
+        <v>16658702.812</v>
       </c>
     </row>
     <row r="5211">
       <c r="A5211" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-07-06</t>
         </is>
       </c>
       <c r="B5211" t="n">
-        <v>11176294.018</v>
+        <v>15649596.102</v>
       </c>
     </row>
     <row r="5212">
       <c r="A5212" t="inlineStr">
         <is>
-          <t>2013-10-25</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B5212" t="n">
-        <v>3355406.547</v>
+        <v>11176294.018</v>
       </c>
     </row>
     <row r="5213">
       <c r="A5213" t="inlineStr">
         <is>
-          <t>2014-10-14</t>
+          <t>2013-10-25</t>
         </is>
       </c>
       <c r="B5213" t="n">
-        <v>3051641.316</v>
+        <v>3355406.547</v>
       </c>
     </row>
     <row r="5214">
       <c r="A5214" t="inlineStr">
         <is>
-          <t>2016-08-18</t>
+          <t>2014-10-14</t>
         </is>
       </c>
       <c r="B5214" t="n">
-        <v>5520205.846</v>
+        <v>3051641.316</v>
       </c>
     </row>
     <row r="5215">
       <c r="A5215" t="inlineStr">
         <is>
-          <t>2019-05-09</t>
+          <t>2016-08-18</t>
         </is>
       </c>
       <c r="B5215" t="n">
-        <v>6645336.202</v>
+        <v>5520205.846</v>
       </c>
     </row>
     <row r="5216">
       <c r="A5216" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2019-05-09</t>
         </is>
       </c>
       <c r="B5216" t="n">
-        <v>8760085.365</v>
+        <v>6645336.202</v>
       </c>
     </row>
     <row r="5217">
       <c r="A5217" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="B5217" t="n">
-        <v>20506438.825</v>
+        <v>8760085.365</v>
       </c>
     </row>
     <row r="5218">
       <c r="A5218" t="inlineStr">
         <is>
-          <t>2013-11-17</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B5218" t="n">
-        <v>4107747.394</v>
+        <v>20506438.825</v>
       </c>
     </row>
     <row r="5219">
       <c r="A5219" t="inlineStr">
         <is>
-          <t>2016-09-03</t>
+          <t>2013-11-17</t>
         </is>
       </c>
       <c r="B5219" t="n">
-        <v>5203377.911</v>
+        <v>4107747.394</v>
       </c>
     </row>
     <row r="5220">
       <c r="A5220" t="inlineStr">
         <is>
-          <t>2014-10-22</t>
+          <t>2016-09-03</t>
         </is>
       </c>
       <c r="B5220" t="n">
-        <v>3035976.286</v>
+        <v>5203377.911</v>
       </c>
     </row>
     <row r="5221">
       <c r="A5221" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2014-10-22</t>
         </is>
       </c>
       <c r="B5221" t="n">
-        <v>18413104.776</v>
+        <v>3035976.286</v>
       </c>
     </row>
     <row r="5222">
       <c r="A5222" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B5222" t="n">
-        <v>14548570.861</v>
+        <v>18413104.776</v>
       </c>
     </row>
     <row r="5223">
       <c r="A5223" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B5223" t="n">
-        <v>7905786.007</v>
+        <v>14548570.861</v>
       </c>
     </row>
     <row r="5224">
       <c r="A5224" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="B5224" t="n">
-        <v>9073650.025</v>
+        <v>7905786.007</v>
       </c>
     </row>
     <row r="5225">
       <c r="A5225" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="B5225" t="n">
-        <v>19218055.445</v>
+        <v>9073650.025</v>
       </c>
     </row>
     <row r="5226">
       <c r="A5226" t="inlineStr">
         <is>
-          <t>2013-12-16</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B5226" t="n">
-        <v>5816249.876</v>
+        <v>19218055.445</v>
       </c>
     </row>
     <row r="5227">
       <c r="A5227" t="inlineStr">
         <is>
-          <t>2016-10-09</t>
+          <t>2013-12-16</t>
         </is>
       </c>
       <c r="B5227" t="n">
-        <v>4052991.609</v>
+        <v>5816249.876</v>
       </c>
     </row>
     <row r="5228">
       <c r="A5228" t="inlineStr">
         <is>
-          <t>2014-11-04</t>
+          <t>2016-10-09</t>
         </is>
       </c>
       <c r="B5228" t="n">
-        <v>2855446.32</v>
+        <v>4052991.609</v>
       </c>
     </row>
     <row r="5229">
       <c r="A5229" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2014-11-04</t>
         </is>
       </c>
       <c r="B5229" t="n">
-        <v>9252340.935000001</v>
+        <v>2855446.32</v>
       </c>
     </row>
     <row r="5230">
       <c r="A5230" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
       <c r="B5230" t="n">
-        <v>14880148.605</v>
+        <v>9252340.935000001</v>
       </c>
     </row>
     <row r="5231">
       <c r="A5231" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B5231" t="n">
-        <v>12724123.607</v>
+        <v>14880148.605</v>
       </c>
     </row>
     <row r="5232">
       <c r="A5232" t="inlineStr">
         <is>
-          <t>2019-08-21</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B5232" t="n">
-        <v>12393381.677</v>
+        <v>12724123.607</v>
       </c>
     </row>
     <row r="5233">
       <c r="A5233" t="inlineStr">
         <is>
-          <t>2021-12-01</t>
+          <t>2019-08-21</t>
         </is>
       </c>
       <c r="B5233" t="n">
-        <v>9613862.286</v>
+        <v>12393381.677</v>
       </c>
     </row>
     <row r="5234">
       <c r="A5234" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="B5234" t="n">
-        <v>18218036.776</v>
+        <v>9613862.286</v>
       </c>
     </row>
     <row r="5235">
       <c r="A5235" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B5235" t="n">
-        <v>16265749.775</v>
+        <v>18218036.776</v>
       </c>
     </row>
     <row r="5236">
       <c r="A5236" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2024-07-27</t>
         </is>
       </c>
       <c r="B5236" t="n">
-        <v>16670126.739</v>
+        <v>16265749.775</v>
       </c>
     </row>
     <row r="5237">
       <c r="A5237" t="inlineStr">
         <is>
-          <t>2013-12-26</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="B5237" t="n">
-        <v>6915819.538</v>
+        <v>16670126.739</v>
       </c>
     </row>
     <row r="5238">
       <c r="A5238" t="inlineStr">
         <is>
-          <t>2014-11-12</t>
+          <t>2013-12-26</t>
         </is>
       </c>
       <c r="B5238" t="n">
-        <v>3023467.834</v>
+        <v>6915819.538</v>
       </c>
     </row>
     <row r="5239">
       <c r="A5239" t="inlineStr">
         <is>
-          <t>2010-09-24</t>
+          <t>2014-11-12</t>
         </is>
       </c>
       <c r="B5239" t="n">
-        <v>112259.447</v>
+        <v>3023467.834</v>
       </c>
     </row>
     <row r="5240">
       <c r="A5240" t="inlineStr">
         <is>
-          <t>2016-10-23</t>
+          <t>2010-09-24</t>
         </is>
       </c>
       <c r="B5240" t="n">
-        <v>4402004.723</v>
+        <v>112259.447</v>
       </c>
     </row>
     <row r="5241">
       <c r="A5241" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2016-10-23</t>
         </is>
       </c>
       <c r="B5241" t="n">
-        <v>19014663.42</v>
+        <v>4402004.723</v>
       </c>
     </row>
     <row r="5242">
       <c r="A5242" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="B5242" t="n">
-        <v>18095870.058</v>
+        <v>19014663.42</v>
       </c>
     </row>
     <row r="5243">
       <c r="A5243" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B5243" t="n">
-        <v>9408798.934</v>
+        <v>18095870.058</v>
       </c>
     </row>
     <row r="5244">
       <c r="A5244" t="inlineStr">
         <is>
-          <t>2019-09-19</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B5244" t="n">
-        <v>11427939.892</v>
+        <v>9408798.934</v>
       </c>
     </row>
     <row r="5245">
       <c r="A5245" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
+          <t>2019-09-19</t>
         </is>
       </c>
       <c r="B5245" t="n">
-        <v>9957806.918</v>
+        <v>11427939.892</v>
       </c>
     </row>
     <row r="5246">
       <c r="A5246" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="B5246" t="n">
-        <v>17239012.79</v>
+        <v>9957806.918</v>
       </c>
     </row>
     <row r="5247">
       <c r="A5247" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B5247" t="n">
-        <v>11167233.165</v>
+        <v>17239012.79</v>
       </c>
     </row>
     <row r="5248">
       <c r="A5248" t="inlineStr">
         <is>
-          <t>2016-12-09</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B5248" t="n">
-        <v>5405479.025</v>
+        <v>11167233.165</v>
       </c>
     </row>
     <row r="5249">
       <c r="A5249" t="inlineStr">
         <is>
-          <t>2014-01-10</t>
+          <t>2016-12-09</t>
         </is>
       </c>
       <c r="B5249" t="n">
-        <v>6911767.667</v>
+        <v>5405479.025</v>
       </c>
     </row>
     <row r="5250">
       <c r="A5250" t="inlineStr">
         <is>
-          <t>2014-11-18</t>
+          <t>2014-01-10</t>
         </is>
       </c>
       <c r="B5250" t="n">
-        <v>3039813.332</v>
+        <v>6911767.667</v>
       </c>
     </row>
     <row r="5251">
       <c r="A5251" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2014-11-18</t>
         </is>
       </c>
       <c r="B5251" t="n">
-        <v>10958641.073</v>
+        <v>3039813.332</v>
       </c>
     </row>
     <row r="5252">
       <c r="A5252" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B5252" t="n">
-        <v>10512254.974</v>
+        <v>10958641.073</v>
       </c>
     </row>
     <row r="5253">
       <c r="A5253" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B5253" t="n">
-        <v>18752011.913</v>
+        <v>10512254.974</v>
       </c>
     </row>
     <row r="5254">
       <c r="A5254" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B5254" t="n">
-        <v>18684510.463</v>
+        <v>18752011.913</v>
       </c>
     </row>
     <row r="5255">
       <c r="A5255" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B5255" t="n">
-        <v>9947791.287</v>
+        <v>18684510.463</v>
       </c>
     </row>
     <row r="5256">
       <c r="A5256" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="B5256" t="n">
-        <v>8830961.847999999</v>
+        <v>9947791.287</v>
       </c>
     </row>
     <row r="5257">
       <c r="A5257" t="inlineStr">
         <is>
-          <t>2014-01-19</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="B5257" t="n">
-        <v>6709581.37</v>
+        <v>8830961.847999999</v>
       </c>
     </row>
     <row r="5258">
       <c r="A5258" t="inlineStr">
         <is>
-          <t>2016-12-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
       <c r="B5258" t="n">
-        <v>5441150.314</v>
+        <v>6709581.37</v>
       </c>
     </row>
     <row r="5259">
       <c r="A5259" t="inlineStr">
         <is>
-          <t>2014-12-15</t>
+          <t>2016-12-14</t>
         </is>
       </c>
       <c r="B5259" t="n">
-        <v>3652983.074</v>
+        <v>5441150.314</v>
       </c>
     </row>
     <row r="5260">
       <c r="A5260" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2014-12-15</t>
         </is>
       </c>
       <c r="B5260" t="n">
-        <v>14765108.135</v>
+        <v>3652983.074</v>
       </c>
     </row>
     <row r="5261">
       <c r="A5261" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B5261" t="n">
-        <v>10407093</v>
+        <v>14765108.135</v>
       </c>
     </row>
     <row r="5262">
       <c r="A5262" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B5262" t="n">
-        <v>14396933.475</v>
+        <v>10407093</v>
       </c>
     </row>
     <row r="5263">
       <c r="A5263" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B5263" t="n">
-        <v>12989124.134</v>
+        <v>14396933.475</v>
       </c>
     </row>
     <row r="5264">
       <c r="A5264" t="inlineStr">
         <is>
-          <t>2019-10-25</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="B5264" t="n">
-        <v>10081112.066</v>
+        <v>12989124.134</v>
       </c>
     </row>
     <row r="5265">
       <c r="A5265" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="B5265" t="n">
-        <v>9996728.27</v>
+        <v>10081112.066</v>
       </c>
     </row>
     <row r="5266">
       <c r="A5266" t="inlineStr">
         <is>
-          <t>2014-01-20</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="B5266" t="n">
-        <v>6614252.892</v>
+        <v>9996728.27</v>
       </c>
     </row>
     <row r="5267">
       <c r="A5267" t="inlineStr">
         <is>
-          <t>2016-12-30</t>
+          <t>2014-01-20</t>
         </is>
       </c>
       <c r="B5267" t="n">
-        <v>6503628.164</v>
+        <v>6614252.892</v>
       </c>
     </row>
     <row r="5268">
       <c r="A5268" t="inlineStr">
         <is>
-          <t>2014-12-22</t>
+          <t>2016-12-30</t>
         </is>
       </c>
       <c r="B5268" t="n">
-        <v>3563708.16</v>
+        <v>6503628.164</v>
       </c>
     </row>
     <row r="5269">
       <c r="A5269" t="inlineStr">
         <is>
-          <t>2010-09-21</t>
+          <t>2014-12-22</t>
         </is>
       </c>
       <c r="B5269" t="n">
-        <v>111207.989</v>
+        <v>3563708.16</v>
       </c>
     </row>
     <row r="5270">
       <c r="A5270" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2010-09-21</t>
         </is>
       </c>
       <c r="B5270" t="n">
-        <v>19753403.705</v>
+        <v>111207.989</v>
       </c>
     </row>
     <row r="5271">
       <c r="A5271" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B5271" t="n">
-        <v>8145349.405</v>
+        <v>19753403.705</v>
       </c>
     </row>
     <row r="5272">
       <c r="A5272" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B5272" t="n">
-        <v>8685248.65</v>
+        <v>8145349.405</v>
       </c>
     </row>
     <row r="5273">
       <c r="A5273" t="inlineStr">
         <is>
-          <t>2014-01-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="B5273" t="n">
-        <v>6168423.578</v>
+        <v>8685248.65</v>
       </c>
     </row>
     <row r="5274">
       <c r="A5274" t="inlineStr">
         <is>
-          <t>2017-01-29</t>
+          <t>2014-01-23</t>
         </is>
       </c>
       <c r="B5274" t="n">
-        <v>7399149.518</v>
+        <v>6168423.578</v>
       </c>
     </row>
     <row r="5275">
       <c r="A5275" t="inlineStr">
         <is>
-          <t>2014-12-28</t>
+          <t>2017-01-29</t>
         </is>
       </c>
       <c r="B5275" t="n">
-        <v>3660548.296</v>
+        <v>7399149.518</v>
       </c>
     </row>
     <row r="5276">
       <c r="A5276" t="inlineStr">
         <is>
-          <t>2011-07-03</t>
+          <t>2014-12-28</t>
         </is>
       </c>
       <c r="B5276" t="n">
-        <v>1736677.834</v>
+        <v>3660548.296</v>
       </c>
     </row>
     <row r="5277">
       <c r="A5277" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2011-07-03</t>
         </is>
       </c>
       <c r="B5277" t="n">
-        <v>18949481.536</v>
+        <v>1736677.834</v>
       </c>
     </row>
     <row r="5278">
       <c r="A5278" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="B5278" t="n">
-        <v>12847069.898</v>
+        <v>18949481.536</v>
       </c>
     </row>
     <row r="5279">
       <c r="A5279" t="inlineStr">
         <is>
-          <t>2019-12-29</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B5279" t="n">
-        <v>8042178.284</v>
+        <v>12847069.898</v>
       </c>
     </row>
     <row r="5280">
       <c r="A5280" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2019-12-29</t>
         </is>
       </c>
       <c r="B5280" t="n">
-        <v>9941198.092</v>
+        <v>8042178.284</v>
       </c>
     </row>
     <row r="5281">
       <c r="A5281" t="inlineStr">
         <is>
-          <t>2014-02-10</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="B5281" t="n">
-        <v>6482705.217</v>
+        <v>9941198.092</v>
       </c>
     </row>
     <row r="5282">
       <c r="A5282" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2014-02-10</t>
         </is>
       </c>
       <c r="B5282" t="n">
-        <v>3639884.552</v>
+        <v>6482705.217</v>
       </c>
     </row>
     <row r="5283">
       <c r="A5283" t="inlineStr">
         <is>
-          <t>2011-09-13</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="B5283" t="n">
-        <v>992731.454</v>
+        <v>3639884.552</v>
       </c>
     </row>
     <row r="5284">
       <c r="A5284" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2011-09-13</t>
         </is>
       </c>
       <c r="B5284" t="n">
-        <v>12025387.77</v>
+        <v>992731.454</v>
       </c>
     </row>
     <row r="5285">
       <c r="A5285" t="inlineStr">
         <is>
-          <t>2017-02-14</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B5285" t="n">
-        <v>7583332.734</v>
+        <v>12025387.77</v>
       </c>
     </row>
     <row r="5286">
       <c r="A5286" t="inlineStr">
         <is>
-          <t>2017-04-03</t>
+          <t>2017-02-14</t>
         </is>
       </c>
       <c r="B5286" t="n">
-        <v>9243648.802999999</v>
+        <v>7583332.734</v>
       </c>
     </row>
     <row r="5287">
       <c r="A5287" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2017-04-03</t>
         </is>
       </c>
       <c r="B5287" t="n">
-        <v>11517746.211</v>
+        <v>9243648.802999999</v>
       </c>
     </row>
     <row r="5288">
       <c r="A5288" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B5288" t="n">
-        <v>19403702.941</v>
+        <v>11517746.211</v>
       </c>
     </row>
     <row r="5289">
       <c r="A5289" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B5289" t="n">
-        <v>7135383.216</v>
+        <v>19403702.941</v>
       </c>
     </row>
     <row r="5290">
       <c r="A5290" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="B5290" t="n">
-        <v>10037167.8</v>
+        <v>7135383.216</v>
       </c>
     </row>
     <row r="5291">
       <c r="A5291" t="inlineStr">
         <is>
-          <t>2014-02-14</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="B5291" t="n">
-        <v>6165888.39</v>
+        <v>10037167.8</v>
       </c>
     </row>
     <row r="5292">
       <c r="A5292" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2014-02-14</t>
         </is>
       </c>
       <c r="B5292" t="n">
-        <v>18605805.647</v>
+        <v>6165888.39</v>
       </c>
     </row>
     <row r="5293">
       <c r="A5293" t="inlineStr">
         <is>
-          <t>2017-02-15</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B5293" t="n">
-        <v>7448825.404</v>
+        <v>18605805.647</v>
       </c>
     </row>
     <row r="5294">
       <c r="A5294" t="inlineStr">
         <is>
-          <t>2015-01-18</t>
+          <t>2017-02-15</t>
         </is>
       </c>
       <c r="B5294" t="n">
-        <v>4062626.204</v>
+        <v>7448825.404</v>
       </c>
     </row>
     <row r="5295">
       <c r="A5295" t="inlineStr">
         <is>
-          <t>2011-09-27</t>
+          <t>2015-01-18</t>
         </is>
       </c>
       <c r="B5295" t="n">
-        <v>744327.885</v>
+        <v>4062626.204</v>
       </c>
     </row>
     <row r="5296">
       <c r="A5296" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2011-09-27</t>
         </is>
       </c>
       <c r="B5296" t="n">
-        <v>18754649.599</v>
+        <v>744327.885</v>
       </c>
     </row>
     <row r="5297">
       <c r="A5297" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B5297" t="n">
-        <v>18648006.799</v>
+        <v>18754649.599</v>
       </c>
     </row>
     <row r="5298">
       <c r="A5298" t="inlineStr">
         <is>
-          <t>2017-08-24</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B5298" t="n">
-        <v>19382954.778</v>
+        <v>18648006.799</v>
       </c>
     </row>
     <row r="5299">
       <c r="A5299" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2017-08-24</t>
         </is>
       </c>
       <c r="B5299" t="n">
-        <v>8319527.642</v>
+        <v>19382954.778</v>
       </c>
     </row>
     <row r="5300">
       <c r="A5300" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B5300" t="n">
-        <v>10152904.599</v>
+        <v>8319527.642</v>
       </c>
     </row>
     <row r="5301">
       <c r="A5301" t="inlineStr">
         <is>
-          <t>2014-02-26</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="B5301" t="n">
-        <v>4892785.663</v>
+        <v>10152904.599</v>
       </c>
     </row>
     <row r="5302">
       <c r="A5302" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2014-02-26</t>
         </is>
       </c>
       <c r="B5302" t="n">
-        <v>15630701.474</v>
+        <v>4892785.663</v>
       </c>
     </row>
     <row r="5303">
       <c r="A5303" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B5303" t="n">
-        <v>11711443.8</v>
+        <v>15630701.474</v>
       </c>
     </row>
     <row r="5304">
       <c r="A5304" t="inlineStr">
         <is>
-          <t>2017-03-06</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B5304" t="n">
-        <v>7818647.054</v>
+        <v>11711443.8</v>
       </c>
     </row>
     <row r="5305">
       <c r="A5305" t="inlineStr">
         <is>
-          <t>2015-01-26</t>
+          <t>2017-03-06</t>
         </is>
       </c>
       <c r="B5305" t="n">
-        <v>4227141.883</v>
+        <v>7818647.054</v>
       </c>
     </row>
     <row r="5306">
       <c r="A5306" t="inlineStr">
         <is>
-          <t>2011-10-11</t>
+          <t>2015-01-26</t>
         </is>
       </c>
       <c r="B5306" t="n">
-        <v>733876.334</v>
+        <v>4227141.883</v>
       </c>
     </row>
     <row r="5307">
       <c r="A5307" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2011-10-11</t>
         </is>
       </c>
       <c r="B5307" t="n">
-        <v>11437944.275</v>
+        <v>733876.334</v>
       </c>
     </row>
     <row r="5308">
       <c r="A5308" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B5308" t="n">
-        <v>8278468.575</v>
+        <v>11437944.275</v>
       </c>
     </row>
     <row r="5309">
       <c r="A5309" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B5309" t="n">
-        <v>8620307.16</v>
+        <v>8278468.575</v>
       </c>
     </row>
     <row r="5310">
       <c r="A5310" t="inlineStr">
         <is>
-          <t>2014-03-15</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="B5310" t="n">
-        <v>6519122.467</v>
+        <v>8620307.16</v>
       </c>
     </row>
     <row r="5311">
       <c r="A5311" t="inlineStr">
         <is>
-          <t>2017-03-12</t>
+          <t>2014-03-15</t>
         </is>
       </c>
       <c r="B5311" t="n">
-        <v>8015167.541</v>
+        <v>6519122.467</v>
       </c>
     </row>
     <row r="5312">
       <c r="A5312" t="inlineStr">
         <is>
-          <t>2015-02-02</t>
+          <t>2017-03-12</t>
         </is>
       </c>
       <c r="B5312" t="n">
-        <v>4214903.008</v>
+        <v>8015167.541</v>
       </c>
     </row>
     <row r="5313">
       <c r="A5313" t="inlineStr">
         <is>
-          <t>2011-10-28</t>
+          <t>2015-02-02</t>
         </is>
       </c>
       <c r="B5313" t="n">
-        <v>735721.417</v>
+        <v>4214903.008</v>
       </c>
     </row>
     <row r="5314">
       <c r="A5314" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="B5314" t="n">
-        <v>18201448.889</v>
+        <v>735721.417</v>
       </c>
     </row>
     <row r="5315">
       <c r="A5315" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B5315" t="n">
-        <v>12856671.682</v>
+        <v>18201448.889</v>
       </c>
     </row>
     <row r="5316">
       <c r="A5316" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B5316" t="n">
-        <v>7919062.632</v>
+        <v>12856671.682</v>
       </c>
     </row>
     <row r="5317">
       <c r="A5317" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B5317" t="n">
-        <v>9519524.592</v>
+        <v>7919062.632</v>
       </c>
     </row>
     <row r="5318">
       <c r="A5318" t="inlineStr">
         <is>
-          <t>2014-03-18</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="B5318" t="n">
-        <v>6370558.748</v>
+        <v>9519524.592</v>
       </c>
     </row>
     <row r="5319">
       <c r="A5319" t="inlineStr">
         <is>
-          <t>2017-03-21</t>
+          <t>2014-03-18</t>
         </is>
       </c>
       <c r="B5319" t="n">
-        <v>8412562.749</v>
+        <v>6370558.748</v>
       </c>
     </row>
     <row r="5320">
       <c r="A5320" t="inlineStr">
         <is>
-          <t>2015-02-09</t>
+          <t>2017-03-21</t>
         </is>
       </c>
       <c r="B5320" t="n">
-        <v>4096290.662</v>
+        <v>8412562.749</v>
       </c>
     </row>
     <row r="5321">
       <c r="A5321" t="inlineStr">
         <is>
-          <t>2011-10-31</t>
+          <t>2015-02-09</t>
         </is>
       </c>
       <c r="B5321" t="n">
-        <v>732160.326</v>
+        <v>4096290.662</v>
       </c>
     </row>
     <row r="5322">
       <c r="A5322" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2011-10-31</t>
         </is>
       </c>
       <c r="B5322" t="n">
-        <v>7287456.154</v>
+        <v>732160.326</v>
       </c>
     </row>
     <row r="5323">
       <c r="A5323" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B5323" t="n">
-        <v>9308642.501</v>
+        <v>7287456.154</v>
       </c>
     </row>
     <row r="5324">
       <c r="A5324" t="inlineStr">
         <is>
-          <t>2014-04-06</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="B5324" t="n">
-        <v>5505621.837</v>
+        <v>9308642.501</v>
       </c>
     </row>
     <row r="5325">
       <c r="A5325" t="inlineStr">
         <is>
-          <t>2017-04-09</t>
+          <t>2014-04-06</t>
         </is>
       </c>
       <c r="B5325" t="n">
-        <v>8810606.551000001</v>
+        <v>5505621.837</v>
       </c>
     </row>
     <row r="5326">
       <c r="A5326" t="inlineStr">
         <is>
-          <t>2015-03-02</t>
+          <t>2017-04-09</t>
         </is>
       </c>
       <c r="B5326" t="n">
-        <v>3933274.224</v>
+        <v>8810606.551000001</v>
       </c>
     </row>
     <row r="5327">
       <c r="A5327" t="inlineStr">
         <is>
-          <t>2011-11-14</t>
+          <t>2015-03-02</t>
         </is>
       </c>
       <c r="B5327" t="n">
-        <v>826121.591</v>
+        <v>3933274.224</v>
       </c>
     </row>
     <row r="5328">
       <c r="A5328" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2011-11-14</t>
         </is>
       </c>
       <c r="B5328" t="n">
-        <v>10333719.079</v>
+        <v>826121.591</v>
       </c>
     </row>
     <row r="5329">
       <c r="A5329" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B5329" t="n">
-        <v>6907432.252</v>
+        <v>10333719.079</v>
       </c>
     </row>
     <row r="5330">
       <c r="A5330" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B5330" t="n">
-        <v>9481051.257999999</v>
+        <v>6907432.252</v>
       </c>
     </row>
     <row r="5331">
       <c r="A5331" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="B5331" t="n">
-        <v>16829264.336</v>
+        <v>9481051.257999999</v>
       </c>
     </row>
     <row r="5332">
       <c r="A5332" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B5332" t="n">
-        <v>10843259.392</v>
+        <v>16829264.336</v>
       </c>
     </row>
     <row r="5333">
       <c r="A5333" t="inlineStr">
         <is>
-          <t>2014-04-27</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B5333" t="n">
-        <v>5438426.506</v>
+        <v>10843259.392</v>
       </c>
     </row>
     <row r="5334">
       <c r="A5334" t="inlineStr">
         <is>
-          <t>2015-03-09</t>
+          <t>2014-04-27</t>
         </is>
       </c>
       <c r="B5334" t="n">
-        <v>3900348.066</v>
+        <v>5438426.506</v>
       </c>
     </row>
     <row r="5335">
       <c r="A5335" t="inlineStr">
         <is>
-          <t>2011-11-16</t>
+          <t>2015-03-09</t>
         </is>
       </c>
       <c r="B5335" t="n">
-        <v>1048736.803</v>
+        <v>3900348.066</v>
       </c>
     </row>
     <row r="5336">
       <c r="A5336" t="inlineStr">
         <is>
-          <t>2017-04-20</t>
+          <t>2011-11-16</t>
         </is>
       </c>
       <c r="B5336" t="n">
-        <v>8967425.550000001</v>
+        <v>1048736.803</v>
       </c>
     </row>
     <row r="5337">
       <c r="A5337" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2017-04-20</t>
         </is>
       </c>
       <c r="B5337" t="n">
-        <v>12827728.942</v>
+        <v>8967425.550000001</v>
       </c>
     </row>
     <row r="5338">
       <c r="A5338" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B5338" t="n">
-        <v>6721984.554</v>
+        <v>12827728.942</v>
       </c>
     </row>
     <row r="5339">
       <c r="A5339" t="inlineStr">
         <is>
-          <t>2022-08-06</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="B5339" t="n">
-        <v>9532015.716</v>
+        <v>6721984.554</v>
       </c>
     </row>
     <row r="5340">
       <c r="A5340" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="B5340" t="n">
-        <v>16884075.838</v>
+        <v>9532015.716</v>
       </c>
     </row>
     <row r="5341">
       <c r="A5341" t="inlineStr">
         <is>
-          <t>2014-06-01</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B5341" t="n">
-        <v>4343530.167</v>
+        <v>16884075.838</v>
       </c>
     </row>
     <row r="5342">
       <c r="A5342" t="inlineStr">
         <is>
-          <t>2015-03-22</t>
+          <t>2014-06-01</t>
         </is>
       </c>
       <c r="B5342" t="n">
-        <v>4135797.457</v>
+        <v>4343530.167</v>
       </c>
     </row>
     <row r="5343">
       <c r="A5343" t="inlineStr">
         <is>
-          <t>2017-04-30</t>
+          <t>2015-03-22</t>
         </is>
       </c>
       <c r="B5343" t="n">
-        <v>8922467.217</v>
+        <v>4135797.457</v>
       </c>
     </row>
     <row r="5344">
       <c r="A5344" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2017-04-30</t>
         </is>
       </c>
       <c r="B5344" t="n">
-        <v>1086764.653</v>
+        <v>8922467.217</v>
       </c>
     </row>
     <row r="5345">
       <c r="A5345" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2011-11-19</t>
         </is>
       </c>
       <c r="B5345" t="n">
-        <v>13592327.934</v>
+        <v>1086764.653</v>
       </c>
     </row>
     <row r="5346">
       <c r="A5346" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B5346" t="n">
-        <v>18930025.11</v>
+        <v>13592327.934</v>
       </c>
     </row>
     <row r="5347">
       <c r="A5347" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="B5347" t="n">
-        <v>17480511.655</v>
+        <v>18930025.11</v>
       </c>
     </row>
     <row r="5348">
       <c r="A5348" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B5348" t="n">
-        <v>15295963.935</v>
+        <v>17480511.655</v>
       </c>
     </row>
     <row r="5349">
       <c r="A5349" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="B5349" t="n">
-        <v>5802826.225</v>
+        <v>15295963.935</v>
       </c>
     </row>
     <row r="5350">
       <c r="A5350" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="B5350" t="n">
-        <v>8363509.02</v>
+        <v>5802826.225</v>
       </c>
     </row>
     <row r="5351">
       <c r="A5351" t="inlineStr">
         <is>
-          <t>2014-06-28</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="B5351" t="n">
-        <v>2686947.84</v>
+        <v>8363509.02</v>
       </c>
     </row>
     <row r="5352">
       <c r="A5352" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2014-06-28</t>
         </is>
       </c>
       <c r="B5352" t="n">
-        <v>11641354.93</v>
+        <v>2686947.84</v>
       </c>
     </row>
     <row r="5353">
       <c r="A5353" t="inlineStr">
         <is>
-          <t>2017-05-17</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B5353" t="n">
-        <v>10300409.588</v>
+        <v>11641354.93</v>
       </c>
     </row>
     <row r="5354">
       <c r="A5354" t="inlineStr">
         <is>
-          <t>2015-03-29</t>
+          <t>2017-05-17</t>
         </is>
       </c>
       <c r="B5354" t="n">
-        <v>3988633.591</v>
+        <v>10300409.588</v>
       </c>
     </row>
     <row r="5355">
       <c r="A5355" t="inlineStr">
         <is>
-          <t>2011-12-03</t>
+          <t>2015-03-29</t>
         </is>
       </c>
       <c r="B5355" t="n">
-        <v>1095387.925</v>
+        <v>3988633.591</v>
       </c>
     </row>
     <row r="5356">
       <c r="A5356" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2011-12-03</t>
         </is>
       </c>
       <c r="B5356" t="n">
-        <v>17359924.278</v>
+        <v>1095387.925</v>
       </c>
     </row>
     <row r="5357">
       <c r="A5357" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="B5357" t="n">
-        <v>16833334.95</v>
+        <v>17359924.278</v>
       </c>
     </row>
     <row r="5358">
       <c r="A5358" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B5358" t="n">
-        <v>10236215.389</v>
+        <v>16833334.95</v>
       </c>
     </row>
     <row r="5359">
       <c r="A5359" t="inlineStr">
         <is>
-          <t>2017-06-01</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B5359" t="n">
-        <v>11531744.112</v>
+        <v>10236215.389</v>
       </c>
     </row>
     <row r="5360">
       <c r="A5360" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2017-06-01</t>
         </is>
       </c>
       <c r="B5360" t="n">
-        <v>6065155.983</v>
+        <v>11531744.112</v>
       </c>
     </row>
     <row r="5361">
       <c r="A5361" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="B5361" t="n">
-        <v>8049967.714</v>
+        <v>6065155.983</v>
       </c>
     </row>
     <row r="5362">
       <c r="A5362" t="inlineStr">
         <is>
-          <t>2024-07-13</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="B5362" t="n">
-        <v>15731904.375</v>
+        <v>8049967.714</v>
       </c>
     </row>
     <row r="5363">
       <c r="A5363" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="B5363" t="n">
-        <v>2436383.016</v>
+        <v>15731904.375</v>
       </c>
     </row>
     <row r="5364">
       <c r="A5364" t="inlineStr">
         <is>
-          <t>2015-04-06</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="B5364" t="n">
-        <v>3694404.674</v>
+        <v>2436383.016</v>
       </c>
     </row>
     <row r="5365">
       <c r="A5365" t="inlineStr">
         <is>
-          <t>2011-12-17</t>
+          <t>2015-04-06</t>
         </is>
       </c>
       <c r="B5365" t="n">
-        <v>1066127.172</v>
+        <v>3694404.674</v>
       </c>
     </row>
     <row r="5366">
       <c r="A5366" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2011-12-17</t>
         </is>
       </c>
       <c r="B5366" t="n">
-        <v>19357870.444</v>
+        <v>1066127.172</v>
       </c>
     </row>
     <row r="5367">
       <c r="A5367" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B5367" t="n">
-        <v>9506750.107999999</v>
+        <v>19357870.444</v>
       </c>
     </row>
     <row r="5368">
       <c r="A5368" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="B5368" t="n">
-        <v>18249350.163</v>
+        <v>9506750.107999999</v>
       </c>
     </row>
     <row r="5369">
       <c r="A5369" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B5369" t="n">
-        <v>10121188.898</v>
+        <v>18249350.163</v>
       </c>
     </row>
     <row r="5370">
       <c r="A5370" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B5370" t="n">
-        <v>18172193.247</v>
+        <v>10121188.898</v>
       </c>
     </row>
     <row r="5371">
       <c r="A5371" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B5371" t="n">
-        <v>11873870.808</v>
+        <v>18172193.247</v>
       </c>
     </row>
     <row r="5372">
       <c r="A5372" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B5372" t="n">
-        <v>16905626.816</v>
+        <v>11873870.808</v>
       </c>
     </row>
     <row r="5373">
       <c r="A5373" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B5373" t="n">
-        <v>11511228.874</v>
+        <v>16905626.816</v>
       </c>
     </row>
     <row r="5374">
       <c r="A5374" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-05-03</t>
         </is>
       </c>
       <c r="B5374" t="n">
-        <v>18829096.598</v>
+        <v>11511228.874</v>
       </c>
     </row>
     <row r="5375">
       <c r="A5375" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B5375" t="n">
-        <v>11905850.214</v>
+        <v>18829096.598</v>
       </c>
     </row>
     <row r="5376">
       <c r="A5376" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="B5376" t="n">
-        <v>6820551.817</v>
+        <v>11905850.214</v>
       </c>
     </row>
     <row r="5377">
       <c r="A5377" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="B5377" t="n">
-        <v>6358468.879</v>
+        <v>6820551.817</v>
       </c>
     </row>
     <row r="5378">
       <c r="A5378" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="B5378" t="n">
-        <v>14873483.781</v>
+        <v>6358468.879</v>
       </c>
     </row>
     <row r="5379">
       <c r="A5379" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B5379" t="n">
-        <v>11867652.532</v>
+        <v>14873483.781</v>
       </c>
     </row>
     <row r="5380">
       <c r="A5380" t="inlineStr">
         <is>
-          <t>2014-08-06</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B5380" t="n">
-        <v>2826869.713</v>
+        <v>11867652.532</v>
       </c>
     </row>
     <row r="5381">
       <c r="A5381" t="inlineStr">
         <is>
-          <t>2015-04-12</t>
+          <t>2014-08-06</t>
         </is>
       </c>
       <c r="B5381" t="n">
-        <v>3600337.897</v>
+        <v>2826869.713</v>
       </c>
     </row>
     <row r="5382">
       <c r="A5382" t="inlineStr">
         <is>
-          <t>2012-01-03</t>
+          <t>2015-04-12</t>
         </is>
       </c>
       <c r="B5382" t="n">
-        <v>1178238.791</v>
+        <v>3600337.897</v>
       </c>
     </row>
     <row r="5383">
       <c r="A5383" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2012-01-03</t>
         </is>
       </c>
       <c r="B5383" t="n">
-        <v>12210206.289</v>
+        <v>1178238.791</v>
       </c>
     </row>
     <row r="5384">
       <c r="A5384" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B5384" t="n">
-        <v>18211536.318</v>
+        <v>12210206.289</v>
       </c>
     </row>
     <row r="5385">
       <c r="A5385" t="inlineStr">
         <is>
-          <t>2017-08-15</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B5385" t="n">
-        <v>19566598.77</v>
+        <v>18211536.318</v>
       </c>
     </row>
     <row r="5386">
       <c r="A5386" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2017-08-15</t>
         </is>
       </c>
       <c r="B5386" t="n">
-        <v>6837460.05</v>
+        <v>19566598.77</v>
       </c>
     </row>
     <row r="5387">
       <c r="A5387" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="B5387" t="n">
-        <v>8536718.226</v>
+        <v>6837460.05</v>
       </c>
     </row>
     <row r="5388">
       <c r="A5388" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B5388" t="n">
-        <v>19772264.652</v>
+        <v>8536718.226</v>
       </c>
     </row>
     <row r="5389">
       <c r="A5389" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="B5389" t="n">
-        <v>16050259.512</v>
+        <v>19772264.652</v>
       </c>
     </row>
     <row r="5390">
       <c r="A5390" t="inlineStr">
         <is>
-          <t>2014-08-18</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B5390" t="n">
-        <v>2925697.333</v>
+        <v>16050259.512</v>
       </c>
     </row>
     <row r="5391">
       <c r="A5391" t="inlineStr">
         <is>
-          <t>2015-04-19</t>
+          <t>2014-08-18</t>
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>3445407.103</v>
+        <v>2925697.333</v>
       </c>
     </row>
     <row r="5392">
       <c r="A5392" t="inlineStr">
         <is>
-          <t>2012-01-20</t>
+          <t>2015-04-19</t>
         </is>
       </c>
       <c r="B5392" t="n">
-        <v>1244736.785</v>
+        <v>3445407.103</v>
       </c>
     </row>
     <row r="5393">
       <c r="A5393" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2012-01-20</t>
         </is>
       </c>
       <c r="B5393" t="n">
-        <v>13510242.654</v>
+        <v>1244736.785</v>
       </c>
     </row>
     <row r="5394">
       <c r="A5394" t="inlineStr">
         <is>
-          <t>2017-08-28</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B5394" t="n">
-        <v>19422838.72</v>
+        <v>13510242.654</v>
       </c>
     </row>
     <row r="5395">
       <c r="A5395" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2017-08-28</t>
         </is>
       </c>
       <c r="B5395" t="n">
-        <v>11104807.404</v>
+        <v>19422838.72</v>
       </c>
     </row>
     <row r="5396">
       <c r="A5396" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="B5396" t="n">
-        <v>10451472.456</v>
+        <v>11104807.404</v>
       </c>
     </row>
     <row r="5397">
       <c r="A5397" t="inlineStr">
         <is>
-          <t>2014-09-13</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B5397" t="n">
-        <v>2524791.779</v>
+        <v>10451472.456</v>
       </c>
     </row>
     <row r="5398">
       <c r="A5398" t="inlineStr">
         <is>
-          <t>2015-04-25</t>
+          <t>2014-09-13</t>
         </is>
       </c>
       <c r="B5398" t="n">
-        <v>3352942.164</v>
+        <v>2524791.779</v>
       </c>
     </row>
     <row r="5399">
       <c r="A5399" t="inlineStr">
         <is>
-          <t>2012-01-21</t>
+          <t>2015-04-25</t>
         </is>
       </c>
       <c r="B5399" t="n">
-        <v>1246443.905</v>
+        <v>3352942.164</v>
       </c>
     </row>
     <row r="5400">
       <c r="A5400" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2012-01-21</t>
         </is>
       </c>
       <c r="B5400" t="n">
-        <v>14362928.781</v>
+        <v>1246443.905</v>
       </c>
     </row>
     <row r="5401">
       <c r="A5401" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B5401" t="n">
-        <v>20351324.136</v>
+        <v>14362928.781</v>
       </c>
     </row>
     <row r="5402">
       <c r="A5402" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B5402" t="n">
-        <v>13491078.904</v>
+        <v>20351324.136</v>
       </c>
     </row>
     <row r="5403">
       <c r="A5403" t="inlineStr">
         <is>
-          <t>2017-09-08</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B5403" t="n">
-        <v>19486335.788</v>
+        <v>13491078.904</v>
       </c>
     </row>
     <row r="5404">
       <c r="A5404" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2017-09-08</t>
         </is>
       </c>
       <c r="B5404" t="n">
-        <v>13156711.485</v>
+        <v>19486335.788</v>
       </c>
     </row>
     <row r="5405">
       <c r="A5405" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B5405" t="n">
-        <v>10510937.957</v>
+        <v>13156711.485</v>
       </c>
     </row>
     <row r="5406">
       <c r="A5406" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="B5406" t="n">
-        <v>15716836.044</v>
+        <v>10510937.957</v>
       </c>
     </row>
     <row r="5407">
       <c r="A5407" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-07-21</t>
         </is>
       </c>
       <c r="B5407" t="n">
-        <v>19939698.057</v>
+        <v>15716836.044</v>
       </c>
     </row>
     <row r="5408">
       <c r="A5408" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B5408" t="n">
-        <v>2628371.334</v>
+        <v>19939698.057</v>
       </c>
     </row>
     <row r="5409">
       <c r="A5409" t="inlineStr">
         <is>
-          <t>2015-05-20</t>
+          <t>2014-10-02</t>
         </is>
       </c>
       <c r="B5409" t="n">
-        <v>3177021.142</v>
+        <v>2628371.334</v>
       </c>
     </row>
     <row r="5410">
       <c r="A5410" t="inlineStr">
         <is>
-          <t>2012-01-26</t>
+          <t>2015-05-20</t>
         </is>
       </c>
       <c r="B5410" t="n">
-        <v>1264128.557</v>
+        <v>3177021.142</v>
       </c>
     </row>
     <row r="5411">
       <c r="A5411" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2012-01-26</t>
         </is>
       </c>
       <c r="B5411" t="n">
-        <v>10152643.862</v>
+        <v>1264128.557</v>
       </c>
     </row>
     <row r="5412">
       <c r="A5412" t="inlineStr">
         <is>
-          <t>2017-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="B5412" t="n">
-        <v>18137220.352</v>
+        <v>10152643.862</v>
       </c>
     </row>
     <row r="5413">
       <c r="A5413" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2017-09-23</t>
         </is>
       </c>
       <c r="B5413" t="n">
-        <v>18779023.107</v>
+        <v>18137220.352</v>
       </c>
     </row>
     <row r="5414">
       <c r="A5414" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="B5414" t="n">
-        <v>10615483.231</v>
+        <v>18779023.107</v>
       </c>
     </row>
     <row r="5415">
       <c r="A5415" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="B5415" t="n">
-        <v>15795124.861</v>
+        <v>10615483.231</v>
       </c>
     </row>
     <row r="5416">
       <c r="A5416" t="inlineStr">
         <is>
-          <t>2014-10-23</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B5416" t="n">
-        <v>3053937.556</v>
+        <v>15795124.861</v>
       </c>
     </row>
     <row r="5417">
       <c r="A5417" t="inlineStr">
         <is>
-          <t>2015-05-27</t>
+          <t>2014-10-23</t>
         </is>
       </c>
       <c r="B5417" t="n">
-        <v>2974495.006</v>
+        <v>3053937.556</v>
       </c>
     </row>
     <row r="5418">
       <c r="A5418" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2015-05-27</t>
         </is>
       </c>
       <c r="B5418" t="n">
-        <v>1068036.951</v>
+        <v>2974495.006</v>
       </c>
     </row>
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="B5419" t="n">
-        <v>12796519.886</v>
+        <v>1068036.951</v>
       </c>
     </row>
     <row r="5420">
       <c r="A5420" t="inlineStr">
         <is>
-          <t>2017-10-09</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B5420" t="n">
-        <v>19407598.446</v>
+        <v>12796519.886</v>
       </c>
     </row>
     <row r="5421">
       <c r="A5421" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2017-10-09</t>
         </is>
       </c>
       <c r="B5421" t="n">
-        <v>20455744.669</v>
+        <v>19407598.446</v>
       </c>
     </row>
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="B5422" t="n">
-        <v>11376341.238</v>
+        <v>20455744.669</v>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2014-11-01</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="B5423" t="n">
-        <v>3044004.834</v>
+        <v>11376341.238</v>
       </c>
     </row>
     <row r="5424">
       <c r="A5424" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2014-11-01</t>
         </is>
       </c>
       <c r="B5424" t="n">
-        <v>2765454.564</v>
+        <v>3044004.834</v>
       </c>
     </row>
     <row r="5425">
       <c r="A5425" t="inlineStr">
         <is>
-          <t>2012-04-02</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="B5425" t="n">
-        <v>1066217.337</v>
+        <v>2765454.564</v>
       </c>
     </row>
     <row r="5426">
       <c r="A5426" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2012-04-02</t>
         </is>
       </c>
       <c r="B5426" t="n">
-        <v>13432763.242</v>
+        <v>1066217.337</v>
       </c>
     </row>
     <row r="5427">
       <c r="A5427" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B5427" t="n">
-        <v>14589767.49</v>
+        <v>13432763.242</v>
       </c>
     </row>
     <row r="5428">
       <c r="A5428" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B5428" t="n">
-        <v>19306849.276</v>
+        <v>14589767.49</v>
       </c>
     </row>
     <row r="5429">
       <c r="A5429" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="B5429" t="n">
-        <v>17904427.701</v>
+        <v>19306849.276</v>
       </c>
     </row>
     <row r="5430">
       <c r="A5430" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="B5430" t="n">
-        <v>11260943.27</v>
+        <v>17904427.701</v>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="inlineStr">
         <is>
-          <t>2014-11-19</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="B5431" t="n">
-        <v>3019744.611</v>
+        <v>11260943.27</v>
       </c>
     </row>
     <row r="5432">
       <c r="A5432" t="inlineStr">
         <is>
-          <t>2015-06-09</t>
+          <t>2014-11-19</t>
         </is>
       </c>
       <c r="B5432" t="n">
-        <v>2361717.899</v>
+        <v>3019744.611</v>
       </c>
     </row>
     <row r="5433">
       <c r="A5433" t="inlineStr">
         <is>
-          <t>2012-04-18</t>
+          <t>2015-06-09</t>
         </is>
       </c>
       <c r="B5433" t="n">
-        <v>1080512.495</v>
+        <v>2361717.899</v>
       </c>
     </row>
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>2017-11-16</t>
+          <t>2012-04-18</t>
         </is>
       </c>
       <c r="B5434" t="n">
-        <v>15794441.353</v>
+        <v>1080512.495</v>
       </c>
     </row>
     <row r="5435">
       <c r="A5435" t="inlineStr">
         <is>
-          <t>2021-02-12</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="B5435" t="n">
-        <v>18047843.242</v>
+        <v>15794441.353</v>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2021-02-12</t>
         </is>
       </c>
       <c r="B5436" t="n">
-        <v>7804497.859</v>
+        <v>18047843.242</v>
       </c>
     </row>
     <row r="5437">
       <c r="A5437" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="B5437" t="n">
-        <v>9877779.377</v>
+        <v>7804497.859</v>
       </c>
     </row>
     <row r="5438">
       <c r="A5438" t="inlineStr">
         <is>
-          <t>2014-12-05</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B5438" t="n">
-        <v>3374566.02</v>
+        <v>9877779.377</v>
       </c>
     </row>
     <row r="5439">
       <c r="A5439" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2014-12-05</t>
         </is>
       </c>
       <c r="B5439" t="n">
-        <v>2394815.633</v>
+        <v>3374566.02</v>
       </c>
     </row>
     <row r="5440">
       <c r="A5440" t="inlineStr">
         <is>
-          <t>2012-05-04</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="B5440" t="n">
-        <v>1211448.82</v>
+        <v>2394815.633</v>
       </c>
     </row>
     <row r="5441">
       <c r="A5441" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2012-05-04</t>
         </is>
       </c>
       <c r="B5441" t="n">
-        <v>9388382.575999999</v>
+        <v>1211448.82</v>
       </c>
     </row>
     <row r="5442">
       <c r="A5442" t="inlineStr">
         <is>
-          <t>2017-11-30</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B5442" t="n">
-        <v>15739620.059</v>
+        <v>9388382.575999999</v>
       </c>
     </row>
     <row r="5443">
       <c r="A5443" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2017-11-30</t>
         </is>
       </c>
       <c r="B5443" t="n">
-        <v>17461848.264</v>
+        <v>15739620.059</v>
       </c>
     </row>
     <row r="5444">
       <c r="A5444" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="B5444" t="n">
-        <v>7349744.434</v>
+        <v>17461848.264</v>
       </c>
     </row>
     <row r="5445">
       <c r="A5445" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="B5445" t="n">
-        <v>15621689.103</v>
+        <v>7349744.434</v>
       </c>
     </row>
     <row r="5446">
       <c r="A5446" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="B5446" t="n">
-        <v>11149234.035</v>
+        <v>15621689.103</v>
       </c>
     </row>
     <row r="5447">
       <c r="A5447" t="inlineStr">
         <is>
-          <t>2014-12-24</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B5447" t="n">
-        <v>3749367.14</v>
+        <v>11149234.035</v>
       </c>
     </row>
     <row r="5448">
       <c r="A5448" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2014-12-24</t>
         </is>
       </c>
       <c r="B5448" t="n">
-        <v>18799096.649</v>
+        <v>3749367.14</v>
       </c>
     </row>
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B5449" t="n">
-        <v>2573704.983</v>
+        <v>18799096.649</v>
       </c>
     </row>
     <row r="5450">
       <c r="A5450" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="B5450" t="n">
-        <v>1258763.689</v>
+        <v>2573704.983</v>
       </c>
     </row>
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2017-12-01</t>
+          <t>2012-05-21</t>
         </is>
       </c>
       <c r="B5451" t="n">
-        <v>15786676.067</v>
+        <v>1258763.689</v>
       </c>
     </row>
     <row r="5452">
       <c r="A5452" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2017-12-01</t>
         </is>
       </c>
       <c r="B5452" t="n">
-        <v>15009732.42</v>
+        <v>15786676.067</v>
       </c>
     </row>
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>8127301.046</v>
+        <v>15009732.42</v>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2015-01-11</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>3848375.44</v>
+        <v>8127301.046</v>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-01-11</t>
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>2511092.261</v>
+        <v>3848375.44</v>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2012-06-06</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>1365675.341</v>
+        <v>2511092.261</v>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2012-06-06</t>
         </is>
       </c>
       <c r="B5457" t="n">
-        <v>18209088.114</v>
+        <v>1365675.341</v>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>14446234.788</v>
+        <v>18209088.114</v>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>17645156.999</v>
+        <v>14446234.788</v>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>13264526.584</v>
+        <v>17645156.999</v>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>8486747.433</v>
+        <v>13264526.584</v>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>4046018.483</v>
+        <v>8486747.433</v>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>2718554.466</v>
+        <v>4046018.483</v>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>1367243.39</v>
+        <v>2718554.466</v>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2012-06-18</t>
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>9114476.312000001</v>
+        <v>1367243.39</v>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>15346852.871</v>
+        <v>9114476.312000001</v>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B5467" t="n">
-        <v>12870879.477</v>
+        <v>15346852.871</v>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5468" t="n">
-        <v>17780525.245</v>
+        <v>12870879.477</v>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B5469" t="n">
-        <v>13194431.726</v>
+        <v>17780525.245</v>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>8346328.634</v>
+        <v>13194431.726</v>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>16236706.926</v>
+        <v>8346328.634</v>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>16585261.576</v>
+        <v>16236706.926</v>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2015-02-10</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>4071380.974</v>
+        <v>16585261.576</v>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>2793932.294</v>
+        <v>4071380.974</v>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>1363857.943</v>
+        <v>2793932.294</v>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>18882222.042</v>
+        <v>1363857.943</v>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>17968690.541</v>
+        <v>18882222.042</v>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>9386582.370999999</v>
+        <v>17968690.541</v>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>17890389.899</v>
+        <v>9386582.370999999</v>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>12015164.279</v>
+        <v>17890389.899</v>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>7902657.124</v>
+        <v>12015164.279</v>
       </c>
     </row>
     <row r="5482">
       <c r="A5482" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>10503343.65</v>
+        <v>7902657.124</v>
       </c>
     </row>
     <row r="5483">
       <c r="A5483" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5483" t="n">
-        <v>3819509.271</v>
+        <v>10503343.65</v>
       </c>
     </row>
     <row r="5484">
       <c r="A5484" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>2826416.003</v>
+        <v>3819509.271</v>
       </c>
     </row>
     <row r="5485">
       <c r="A5485" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>1630324.679</v>
+        <v>2826416.003</v>
       </c>
     </row>
     <row r="5486">
       <c r="A5486" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>10658742.561</v>
+        <v>1630324.679</v>
       </c>
     </row>
     <row r="5487">
       <c r="A5487" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>18727823.649</v>
+        <v>10658742.561</v>
       </c>
     </row>
     <row r="5488">
       <c r="A5488" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>17224052.503</v>
+        <v>18727823.649</v>
       </c>
     </row>
     <row r="5489">
       <c r="A5489" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>10673931.348</v>
+        <v>17224052.503</v>
       </c>
     </row>
     <row r="5490">
       <c r="A5490" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>3979751.142</v>
+        <v>10673931.348</v>
       </c>
     </row>
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>3642872.298</v>
+        <v>3979751.142</v>
       </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>1613219.441</v>
+        <v>3642872.298</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>18746833.543</v>
+        <v>1613219.441</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>14696488.122</v>
+        <v>18746833.543</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>18803774.412</v>
+        <v>14696488.122</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>13074131.781</v>
+        <v>18803774.412</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>18108889.119</v>
+        <v>13074131.781</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>10600975.162</v>
+        <v>18108889.119</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>3489354.733</v>
+        <v>10600975.162</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>3660667.082</v>
+        <v>3489354.733</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>316907.127</v>
+        <v>3660667.082</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>1760535.998</v>
+        <v>316907.127</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>19760413.223</v>
+        <v>1760535.998</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>15296257.118</v>
+        <v>19760413.223</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>10677343.165</v>
+        <v>15296257.118</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>12841467.318</v>
+        <v>10677343.165</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>3205484.527</v>
+        <v>12841467.318</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>4648212.458</v>
+        <v>3205484.527</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>1873037.142</v>
+        <v>4648212.458</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>19272529.034</v>
+        <v>1873037.142</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>13193422.783</v>
+        <v>19272529.034</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>8610177.493000001</v>
+        <v>13193422.783</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>12225489.867</v>
+        <v>8610177.493000001</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>2985205.142</v>
+        <v>12225489.867</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>4603582.061</v>
+        <v>2985205.142</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>2093652.744</v>
+        <v>4603582.061</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>11477197.525</v>
+        <v>2093652.744</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>19496972.836</v>
+        <v>11477197.525</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>10566019.663</v>
+        <v>19496972.836</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>8609734.759</v>
+        <v>10566019.663</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>18616838.388</v>
+        <v>8609734.759</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>2392944.256</v>
+        <v>18616838.388</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5523" t="n">
-        <v>4964683.773</v>
+        <v>2392944.256</v>
       </c>
     </row>
     <row r="5524">
       <c r="A5524" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5524" t="n">
-        <v>2162784.464</v>
+        <v>4964683.773</v>
       </c>
     </row>
     <row r="5525">
       <c r="A5525" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5525" t="n">
-        <v>8046257.588</v>
+        <v>2162784.464</v>
       </c>
     </row>
     <row r="5526">
       <c r="A5526" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5526" t="n">
-        <v>8443126.151000001</v>
+        <v>8046257.588</v>
       </c>
     </row>
     <row r="5527">
       <c r="A5527" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5527" t="n">
-        <v>8386250.008</v>
+        <v>8443126.151000001</v>
       </c>
     </row>
     <row r="5528">
       <c r="A5528" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5528" t="n">
-        <v>2565551.236</v>
+        <v>8386250.008</v>
       </c>
     </row>
     <row r="5529">
       <c r="A5529" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5529" t="n">
-        <v>6127123.106</v>
+        <v>2565551.236</v>
       </c>
     </row>
     <row r="5530">
       <c r="A5530" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5530" t="n">
-        <v>2157212.824</v>
+        <v>6127123.106</v>
       </c>
     </row>
     <row r="5531">
       <c r="A5531" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5531" t="n">
-        <v>11978202.448</v>
+        <v>2157212.824</v>
       </c>
     </row>
     <row r="5532">
       <c r="A5532" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5532" t="n">
-        <v>15303734.889</v>
+        <v>11978202.448</v>
       </c>
     </row>
     <row r="5533">
       <c r="A5533" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5533" t="n">
-        <v>8103908.652</v>
+        <v>15303734.889</v>
       </c>
     </row>
     <row r="5534">
       <c r="A5534" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5534" t="n">
-        <v>9382181.960999999</v>
+        <v>8103908.652</v>
       </c>
     </row>
     <row r="5535">
       <c r="A5535" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5535" t="n">
-        <v>16784620.262</v>
+        <v>9382181.960999999</v>
       </c>
     </row>
     <row r="5536">
       <c r="A5536" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5536" t="n">
-        <v>16833063.951</v>
+        <v>16784620.262</v>
       </c>
     </row>
     <row r="5537">
       <c r="A5537" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5537" t="n">
-        <v>17049245.734</v>
+        <v>16833063.951</v>
       </c>
     </row>
     <row r="5538">
       <c r="A5538" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5538" t="n">
-        <v>17115867.282</v>
+        <v>17049245.734</v>
       </c>
     </row>
     <row r="5539">
       <c r="A5539" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5539" t="n">
-        <v>17153769.299</v>
+        <v>17115867.282</v>
       </c>
     </row>
     <row r="5540">
       <c r="A5540" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5540" t="n">
-        <v>17225229.436</v>
+        <v>17153769.299</v>
       </c>
     </row>
     <row r="5541">
       <c r="A5541" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5541" t="n">
-        <v>17249482.25</v>
+        <v>17225229.436</v>
       </c>
     </row>
     <row r="5542">
       <c r="A5542" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5542" t="n">
-        <v>17569350.656</v>
+        <v>17249482.25</v>
       </c>
     </row>
     <row r="5543">
       <c r="A5543" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5543" t="n">
-        <v>2859270.317</v>
+        <v>17569350.656</v>
       </c>
     </row>
     <row r="5544">
       <c r="A5544" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5544" t="n">
-        <v>5532498.781</v>
+        <v>2859270.317</v>
       </c>
     </row>
     <row r="5545">
       <c r="A5545" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5545" t="n">
-        <v>2138609.994</v>
+        <v>5532498.781</v>
       </c>
     </row>
     <row r="5546">
       <c r="A5546" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5546" t="n">
-        <v>12895454.923</v>
+        <v>2138609.994</v>
       </c>
     </row>
     <row r="5547">
       <c r="A5547" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5547" t="n">
+        <v>12895454.923</v>
+      </c>
+    </row>
+    <row r="5548">
+      <c r="A5548" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5547" t="n">
+      <c r="B5548" t="n">
         <v>11691372.317</v>
       </c>
     </row>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5548"/>
+  <dimension ref="A1:B5549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51166,31 +51166,31 @@
     <row r="5074">
       <c r="A5074" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2013-05-20</t>
         </is>
       </c>
       <c r="B5074" t="n">
-        <v>14044333.608</v>
+        <v>5042140.665</v>
       </c>
     </row>
     <row r="5075">
       <c r="A5075" t="inlineStr">
         <is>
-          <t>2013-05-20</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B5075" t="n">
-        <v>5042140.665</v>
+        <v>12620748.822</v>
       </c>
     </row>
     <row r="5076">
       <c r="A5076" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B5076" t="n">
-        <v>12620748.822</v>
+        <v>14044333.608</v>
       </c>
     </row>
     <row r="5077">
@@ -52496,571 +52496,571 @@
     <row r="5207">
       <c r="A5207" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B5207" t="n">
-        <v>9348543.609999999</v>
+        <v>14080491.729</v>
       </c>
     </row>
     <row r="5208">
       <c r="A5208" t="inlineStr">
         <is>
-          <t>2019-04-30</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B5208" t="n">
-        <v>6286634.574</v>
+        <v>9348543.609999999</v>
       </c>
     </row>
     <row r="5209">
       <c r="A5209" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2019-04-30</t>
         </is>
       </c>
       <c r="B5209" t="n">
-        <v>8893796.503</v>
+        <v>6286634.574</v>
       </c>
     </row>
     <row r="5210">
       <c r="A5210" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2021-09-26</t>
         </is>
       </c>
       <c r="B5210" t="n">
-        <v>16658702.812</v>
+        <v>8893796.503</v>
       </c>
     </row>
     <row r="5211">
       <c r="A5211" t="inlineStr">
         <is>
-          <t>2024-07-06</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="B5211" t="n">
-        <v>15649596.102</v>
+        <v>16658702.812</v>
       </c>
     </row>
     <row r="5212">
       <c r="A5212" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-07-06</t>
         </is>
       </c>
       <c r="B5212" t="n">
-        <v>11176294.018</v>
+        <v>15649596.102</v>
       </c>
     </row>
     <row r="5213">
       <c r="A5213" t="inlineStr">
         <is>
-          <t>2013-10-25</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B5213" t="n">
-        <v>3355406.547</v>
+        <v>11176294.018</v>
       </c>
     </row>
     <row r="5214">
       <c r="A5214" t="inlineStr">
         <is>
-          <t>2014-10-14</t>
+          <t>2013-10-25</t>
         </is>
       </c>
       <c r="B5214" t="n">
-        <v>3051641.316</v>
+        <v>3355406.547</v>
       </c>
     </row>
     <row r="5215">
       <c r="A5215" t="inlineStr">
         <is>
-          <t>2016-08-18</t>
+          <t>2014-10-14</t>
         </is>
       </c>
       <c r="B5215" t="n">
-        <v>5520205.846</v>
+        <v>3051641.316</v>
       </c>
     </row>
     <row r="5216">
       <c r="A5216" t="inlineStr">
         <is>
-          <t>2019-05-09</t>
+          <t>2016-08-18</t>
         </is>
       </c>
       <c r="B5216" t="n">
-        <v>6645336.202</v>
+        <v>5520205.846</v>
       </c>
     </row>
     <row r="5217">
       <c r="A5217" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2019-05-09</t>
         </is>
       </c>
       <c r="B5217" t="n">
-        <v>8760085.365</v>
+        <v>6645336.202</v>
       </c>
     </row>
     <row r="5218">
       <c r="A5218" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="B5218" t="n">
-        <v>20506438.825</v>
+        <v>8760085.365</v>
       </c>
     </row>
     <row r="5219">
       <c r="A5219" t="inlineStr">
         <is>
-          <t>2013-11-17</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B5219" t="n">
-        <v>4107747.394</v>
+        <v>20506438.825</v>
       </c>
     </row>
     <row r="5220">
       <c r="A5220" t="inlineStr">
         <is>
-          <t>2016-09-03</t>
+          <t>2013-11-17</t>
         </is>
       </c>
       <c r="B5220" t="n">
-        <v>5203377.911</v>
+        <v>4107747.394</v>
       </c>
     </row>
     <row r="5221">
       <c r="A5221" t="inlineStr">
         <is>
-          <t>2014-10-22</t>
+          <t>2016-09-03</t>
         </is>
       </c>
       <c r="B5221" t="n">
-        <v>3035976.286</v>
+        <v>5203377.911</v>
       </c>
     </row>
     <row r="5222">
       <c r="A5222" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2014-10-22</t>
         </is>
       </c>
       <c r="B5222" t="n">
-        <v>18413104.776</v>
+        <v>3035976.286</v>
       </c>
     </row>
     <row r="5223">
       <c r="A5223" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B5223" t="n">
-        <v>14548570.861</v>
+        <v>18413104.776</v>
       </c>
     </row>
     <row r="5224">
       <c r="A5224" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B5224" t="n">
-        <v>7905786.007</v>
+        <v>14548570.861</v>
       </c>
     </row>
     <row r="5225">
       <c r="A5225" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="B5225" t="n">
-        <v>9073650.025</v>
+        <v>7905786.007</v>
       </c>
     </row>
     <row r="5226">
       <c r="A5226" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="B5226" t="n">
-        <v>19218055.445</v>
+        <v>9073650.025</v>
       </c>
     </row>
     <row r="5227">
       <c r="A5227" t="inlineStr">
         <is>
-          <t>2013-12-16</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B5227" t="n">
-        <v>5816249.876</v>
+        <v>19218055.445</v>
       </c>
     </row>
     <row r="5228">
       <c r="A5228" t="inlineStr">
         <is>
-          <t>2016-10-09</t>
+          <t>2013-12-16</t>
         </is>
       </c>
       <c r="B5228" t="n">
-        <v>4052991.609</v>
+        <v>5816249.876</v>
       </c>
     </row>
     <row r="5229">
       <c r="A5229" t="inlineStr">
         <is>
-          <t>2014-11-04</t>
+          <t>2016-10-09</t>
         </is>
       </c>
       <c r="B5229" t="n">
-        <v>2855446.32</v>
+        <v>4052991.609</v>
       </c>
     </row>
     <row r="5230">
       <c r="A5230" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2014-11-04</t>
         </is>
       </c>
       <c r="B5230" t="n">
-        <v>9252340.935000001</v>
+        <v>2855446.32</v>
       </c>
     </row>
     <row r="5231">
       <c r="A5231" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
       <c r="B5231" t="n">
-        <v>14880148.605</v>
+        <v>9252340.935000001</v>
       </c>
     </row>
     <row r="5232">
       <c r="A5232" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B5232" t="n">
-        <v>12724123.607</v>
+        <v>14880148.605</v>
       </c>
     </row>
     <row r="5233">
       <c r="A5233" t="inlineStr">
         <is>
-          <t>2019-08-21</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B5233" t="n">
-        <v>12393381.677</v>
+        <v>12724123.607</v>
       </c>
     </row>
     <row r="5234">
       <c r="A5234" t="inlineStr">
         <is>
-          <t>2021-12-01</t>
+          <t>2019-08-21</t>
         </is>
       </c>
       <c r="B5234" t="n">
-        <v>9613862.286</v>
+        <v>12393381.677</v>
       </c>
     </row>
     <row r="5235">
       <c r="A5235" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="B5235" t="n">
-        <v>18218036.776</v>
+        <v>9613862.286</v>
       </c>
     </row>
     <row r="5236">
       <c r="A5236" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B5236" t="n">
-        <v>16265749.775</v>
+        <v>18218036.776</v>
       </c>
     </row>
     <row r="5237">
       <c r="A5237" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2024-07-27</t>
         </is>
       </c>
       <c r="B5237" t="n">
-        <v>16670126.739</v>
+        <v>16265749.775</v>
       </c>
     </row>
     <row r="5238">
       <c r="A5238" t="inlineStr">
         <is>
-          <t>2013-12-26</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="B5238" t="n">
-        <v>6915819.538</v>
+        <v>16670126.739</v>
       </c>
     </row>
     <row r="5239">
       <c r="A5239" t="inlineStr">
         <is>
-          <t>2014-11-12</t>
+          <t>2013-12-26</t>
         </is>
       </c>
       <c r="B5239" t="n">
-        <v>3023467.834</v>
+        <v>6915819.538</v>
       </c>
     </row>
     <row r="5240">
       <c r="A5240" t="inlineStr">
         <is>
-          <t>2010-09-24</t>
+          <t>2014-11-12</t>
         </is>
       </c>
       <c r="B5240" t="n">
-        <v>112259.447</v>
+        <v>3023467.834</v>
       </c>
     </row>
     <row r="5241">
       <c r="A5241" t="inlineStr">
         <is>
-          <t>2016-10-23</t>
+          <t>2010-09-24</t>
         </is>
       </c>
       <c r="B5241" t="n">
-        <v>4402004.723</v>
+        <v>112259.447</v>
       </c>
     </row>
     <row r="5242">
       <c r="A5242" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2016-10-23</t>
         </is>
       </c>
       <c r="B5242" t="n">
-        <v>19014663.42</v>
+        <v>4402004.723</v>
       </c>
     </row>
     <row r="5243">
       <c r="A5243" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="B5243" t="n">
-        <v>18095870.058</v>
+        <v>19014663.42</v>
       </c>
     </row>
     <row r="5244">
       <c r="A5244" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B5244" t="n">
-        <v>9408798.934</v>
+        <v>18095870.058</v>
       </c>
     </row>
     <row r="5245">
       <c r="A5245" t="inlineStr">
         <is>
-          <t>2019-09-19</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B5245" t="n">
-        <v>11427939.892</v>
+        <v>9408798.934</v>
       </c>
     </row>
     <row r="5246">
       <c r="A5246" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
+          <t>2019-09-19</t>
         </is>
       </c>
       <c r="B5246" t="n">
-        <v>9957806.918</v>
+        <v>11427939.892</v>
       </c>
     </row>
     <row r="5247">
       <c r="A5247" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="B5247" t="n">
-        <v>17239012.79</v>
+        <v>9957806.918</v>
       </c>
     </row>
     <row r="5248">
       <c r="A5248" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B5248" t="n">
-        <v>11167233.165</v>
+        <v>17239012.79</v>
       </c>
     </row>
     <row r="5249">
       <c r="A5249" t="inlineStr">
         <is>
-          <t>2016-12-09</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B5249" t="n">
-        <v>5405479.025</v>
+        <v>11167233.165</v>
       </c>
     </row>
     <row r="5250">
       <c r="A5250" t="inlineStr">
         <is>
-          <t>2014-01-10</t>
+          <t>2016-12-09</t>
         </is>
       </c>
       <c r="B5250" t="n">
-        <v>6911767.667</v>
+        <v>5405479.025</v>
       </c>
     </row>
     <row r="5251">
       <c r="A5251" t="inlineStr">
         <is>
-          <t>2014-11-18</t>
+          <t>2014-01-10</t>
         </is>
       </c>
       <c r="B5251" t="n">
-        <v>3039813.332</v>
+        <v>6911767.667</v>
       </c>
     </row>
     <row r="5252">
       <c r="A5252" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2014-11-18</t>
         </is>
       </c>
       <c r="B5252" t="n">
-        <v>10958641.073</v>
+        <v>3039813.332</v>
       </c>
     </row>
     <row r="5253">
       <c r="A5253" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B5253" t="n">
-        <v>10512254.974</v>
+        <v>10958641.073</v>
       </c>
     </row>
     <row r="5254">
       <c r="A5254" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B5254" t="n">
-        <v>18752011.913</v>
+        <v>10512254.974</v>
       </c>
     </row>
     <row r="5255">
       <c r="A5255" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B5255" t="n">
-        <v>18684510.463</v>
+        <v>18752011.913</v>
       </c>
     </row>
     <row r="5256">
       <c r="A5256" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B5256" t="n">
-        <v>9947791.287</v>
+        <v>18684510.463</v>
       </c>
     </row>
     <row r="5257">
       <c r="A5257" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="B5257" t="n">
-        <v>8830961.847999999</v>
+        <v>9947791.287</v>
       </c>
     </row>
     <row r="5258">
       <c r="A5258" t="inlineStr">
         <is>
-          <t>2014-01-19</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="B5258" t="n">
-        <v>6709581.37</v>
+        <v>8830961.847999999</v>
       </c>
     </row>
     <row r="5259">
       <c r="A5259" t="inlineStr">
         <is>
-          <t>2016-12-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
       <c r="B5259" t="n">
-        <v>5441150.314</v>
+        <v>6709581.37</v>
       </c>
     </row>
     <row r="5260">
       <c r="A5260" t="inlineStr">
         <is>
-          <t>2014-12-15</t>
+          <t>2016-12-14</t>
         </is>
       </c>
       <c r="B5260" t="n">
-        <v>3652983.074</v>
+        <v>5441150.314</v>
       </c>
     </row>
     <row r="5261">
       <c r="A5261" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2014-12-15</t>
         </is>
       </c>
       <c r="B5261" t="n">
-        <v>14765108.135</v>
+        <v>3652983.074</v>
       </c>
     </row>
     <row r="5262">
       <c r="A5262" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B5262" t="n">
-        <v>10407093</v>
+        <v>14765108.135</v>
       </c>
     </row>
     <row r="5263">
       <c r="A5263" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B5263" t="n">
-        <v>14396933.475</v>
+        <v>10407093</v>
       </c>
     </row>
     <row r="5264">
@@ -53076,2840 +53076,2850 @@
     <row r="5265">
       <c r="A5265" t="inlineStr">
         <is>
-          <t>2019-10-25</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B5265" t="n">
-        <v>10081112.066</v>
+        <v>14396933.475</v>
       </c>
     </row>
     <row r="5266">
       <c r="A5266" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="B5266" t="n">
-        <v>9996728.27</v>
+        <v>10081112.066</v>
       </c>
     </row>
     <row r="5267">
       <c r="A5267" t="inlineStr">
         <is>
-          <t>2014-01-20</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="B5267" t="n">
-        <v>6614252.892</v>
+        <v>9996728.27</v>
       </c>
     </row>
     <row r="5268">
       <c r="A5268" t="inlineStr">
         <is>
-          <t>2016-12-30</t>
+          <t>2014-01-20</t>
         </is>
       </c>
       <c r="B5268" t="n">
-        <v>6503628.164</v>
+        <v>6614252.892</v>
       </c>
     </row>
     <row r="5269">
       <c r="A5269" t="inlineStr">
         <is>
-          <t>2014-12-22</t>
+          <t>2016-12-30</t>
         </is>
       </c>
       <c r="B5269" t="n">
-        <v>3563708.16</v>
+        <v>6503628.164</v>
       </c>
     </row>
     <row r="5270">
       <c r="A5270" t="inlineStr">
         <is>
-          <t>2010-09-21</t>
+          <t>2014-12-22</t>
         </is>
       </c>
       <c r="B5270" t="n">
-        <v>111207.989</v>
+        <v>3563708.16</v>
       </c>
     </row>
     <row r="5271">
       <c r="A5271" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2010-09-21</t>
         </is>
       </c>
       <c r="B5271" t="n">
-        <v>19753403.705</v>
+        <v>111207.989</v>
       </c>
     </row>
     <row r="5272">
       <c r="A5272" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B5272" t="n">
-        <v>8145349.405</v>
+        <v>19753403.705</v>
       </c>
     </row>
     <row r="5273">
       <c r="A5273" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B5273" t="n">
-        <v>8685248.65</v>
+        <v>8145349.405</v>
       </c>
     </row>
     <row r="5274">
       <c r="A5274" t="inlineStr">
         <is>
-          <t>2014-01-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="B5274" t="n">
-        <v>6168423.578</v>
+        <v>8685248.65</v>
       </c>
     </row>
     <row r="5275">
       <c r="A5275" t="inlineStr">
         <is>
-          <t>2017-01-29</t>
+          <t>2014-01-23</t>
         </is>
       </c>
       <c r="B5275" t="n">
-        <v>7399149.518</v>
+        <v>6168423.578</v>
       </c>
     </row>
     <row r="5276">
       <c r="A5276" t="inlineStr">
         <is>
-          <t>2014-12-28</t>
+          <t>2017-01-29</t>
         </is>
       </c>
       <c r="B5276" t="n">
-        <v>3660548.296</v>
+        <v>7399149.518</v>
       </c>
     </row>
     <row r="5277">
       <c r="A5277" t="inlineStr">
         <is>
-          <t>2011-07-03</t>
+          <t>2014-12-28</t>
         </is>
       </c>
       <c r="B5277" t="n">
-        <v>1736677.834</v>
+        <v>3660548.296</v>
       </c>
     </row>
     <row r="5278">
       <c r="A5278" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2011-07-03</t>
         </is>
       </c>
       <c r="B5278" t="n">
-        <v>18949481.536</v>
+        <v>1736677.834</v>
       </c>
     </row>
     <row r="5279">
       <c r="A5279" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="B5279" t="n">
-        <v>12847069.898</v>
+        <v>18949481.536</v>
       </c>
     </row>
     <row r="5280">
       <c r="A5280" t="inlineStr">
         <is>
-          <t>2019-12-29</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B5280" t="n">
-        <v>8042178.284</v>
+        <v>12847069.898</v>
       </c>
     </row>
     <row r="5281">
       <c r="A5281" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2019-12-29</t>
         </is>
       </c>
       <c r="B5281" t="n">
-        <v>9941198.092</v>
+        <v>8042178.284</v>
       </c>
     </row>
     <row r="5282">
       <c r="A5282" t="inlineStr">
         <is>
-          <t>2014-02-10</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="B5282" t="n">
-        <v>6482705.217</v>
+        <v>9941198.092</v>
       </c>
     </row>
     <row r="5283">
       <c r="A5283" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2014-02-10</t>
         </is>
       </c>
       <c r="B5283" t="n">
-        <v>3639884.552</v>
+        <v>6482705.217</v>
       </c>
     </row>
     <row r="5284">
       <c r="A5284" t="inlineStr">
         <is>
-          <t>2011-09-13</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="B5284" t="n">
-        <v>992731.454</v>
+        <v>3639884.552</v>
       </c>
     </row>
     <row r="5285">
       <c r="A5285" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2011-09-13</t>
         </is>
       </c>
       <c r="B5285" t="n">
-        <v>12025387.77</v>
+        <v>992731.454</v>
       </c>
     </row>
     <row r="5286">
       <c r="A5286" t="inlineStr">
         <is>
-          <t>2017-02-14</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B5286" t="n">
-        <v>7583332.734</v>
+        <v>12025387.77</v>
       </c>
     </row>
     <row r="5287">
       <c r="A5287" t="inlineStr">
         <is>
-          <t>2017-04-03</t>
+          <t>2017-02-14</t>
         </is>
       </c>
       <c r="B5287" t="n">
-        <v>9243648.802999999</v>
+        <v>7583332.734</v>
       </c>
     </row>
     <row r="5288">
       <c r="A5288" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2017-04-03</t>
         </is>
       </c>
       <c r="B5288" t="n">
-        <v>11517746.211</v>
+        <v>9243648.802999999</v>
       </c>
     </row>
     <row r="5289">
       <c r="A5289" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B5289" t="n">
-        <v>19403702.941</v>
+        <v>11517746.211</v>
       </c>
     </row>
     <row r="5290">
       <c r="A5290" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B5290" t="n">
-        <v>7135383.216</v>
+        <v>19403702.941</v>
       </c>
     </row>
     <row r="5291">
       <c r="A5291" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="B5291" t="n">
-        <v>10037167.8</v>
+        <v>7135383.216</v>
       </c>
     </row>
     <row r="5292">
       <c r="A5292" t="inlineStr">
         <is>
-          <t>2014-02-14</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="B5292" t="n">
-        <v>6165888.39</v>
+        <v>10037167.8</v>
       </c>
     </row>
     <row r="5293">
       <c r="A5293" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2014-02-14</t>
         </is>
       </c>
       <c r="B5293" t="n">
-        <v>18605805.647</v>
+        <v>6165888.39</v>
       </c>
     </row>
     <row r="5294">
       <c r="A5294" t="inlineStr">
         <is>
-          <t>2017-02-15</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B5294" t="n">
-        <v>7448825.404</v>
+        <v>18605805.647</v>
       </c>
     </row>
     <row r="5295">
       <c r="A5295" t="inlineStr">
         <is>
-          <t>2015-01-18</t>
+          <t>2017-02-15</t>
         </is>
       </c>
       <c r="B5295" t="n">
-        <v>4062626.204</v>
+        <v>7448825.404</v>
       </c>
     </row>
     <row r="5296">
       <c r="A5296" t="inlineStr">
         <is>
-          <t>2011-09-27</t>
+          <t>2015-01-18</t>
         </is>
       </c>
       <c r="B5296" t="n">
-        <v>744327.885</v>
+        <v>4062626.204</v>
       </c>
     </row>
     <row r="5297">
       <c r="A5297" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2011-09-27</t>
         </is>
       </c>
       <c r="B5297" t="n">
-        <v>18754649.599</v>
+        <v>744327.885</v>
       </c>
     </row>
     <row r="5298">
       <c r="A5298" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B5298" t="n">
-        <v>18648006.799</v>
+        <v>18754649.599</v>
       </c>
     </row>
     <row r="5299">
       <c r="A5299" t="inlineStr">
         <is>
-          <t>2017-08-24</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B5299" t="n">
-        <v>19382954.778</v>
+        <v>18648006.799</v>
       </c>
     </row>
     <row r="5300">
       <c r="A5300" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2017-08-24</t>
         </is>
       </c>
       <c r="B5300" t="n">
-        <v>8319527.642</v>
+        <v>19382954.778</v>
       </c>
     </row>
     <row r="5301">
       <c r="A5301" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B5301" t="n">
-        <v>10152904.599</v>
+        <v>8319527.642</v>
       </c>
     </row>
     <row r="5302">
       <c r="A5302" t="inlineStr">
         <is>
-          <t>2014-02-26</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="B5302" t="n">
-        <v>4892785.663</v>
+        <v>10152904.599</v>
       </c>
     </row>
     <row r="5303">
       <c r="A5303" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2014-02-26</t>
         </is>
       </c>
       <c r="B5303" t="n">
-        <v>15630701.474</v>
+        <v>4892785.663</v>
       </c>
     </row>
     <row r="5304">
       <c r="A5304" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B5304" t="n">
-        <v>11711443.8</v>
+        <v>15630701.474</v>
       </c>
     </row>
     <row r="5305">
       <c r="A5305" t="inlineStr">
         <is>
-          <t>2017-03-06</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B5305" t="n">
-        <v>7818647.054</v>
+        <v>11711443.8</v>
       </c>
     </row>
     <row r="5306">
       <c r="A5306" t="inlineStr">
         <is>
-          <t>2015-01-26</t>
+          <t>2017-03-06</t>
         </is>
       </c>
       <c r="B5306" t="n">
-        <v>4227141.883</v>
+        <v>7818647.054</v>
       </c>
     </row>
     <row r="5307">
       <c r="A5307" t="inlineStr">
         <is>
-          <t>2011-10-11</t>
+          <t>2015-01-26</t>
         </is>
       </c>
       <c r="B5307" t="n">
-        <v>733876.334</v>
+        <v>4227141.883</v>
       </c>
     </row>
     <row r="5308">
       <c r="A5308" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2011-10-11</t>
         </is>
       </c>
       <c r="B5308" t="n">
-        <v>11437944.275</v>
+        <v>733876.334</v>
       </c>
     </row>
     <row r="5309">
       <c r="A5309" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B5309" t="n">
-        <v>8278468.575</v>
+        <v>11437944.275</v>
       </c>
     </row>
     <row r="5310">
       <c r="A5310" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B5310" t="n">
-        <v>8620307.16</v>
+        <v>8278468.575</v>
       </c>
     </row>
     <row r="5311">
       <c r="A5311" t="inlineStr">
         <is>
-          <t>2014-03-15</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="B5311" t="n">
-        <v>6519122.467</v>
+        <v>8620307.16</v>
       </c>
     </row>
     <row r="5312">
       <c r="A5312" t="inlineStr">
         <is>
-          <t>2017-03-12</t>
+          <t>2014-03-15</t>
         </is>
       </c>
       <c r="B5312" t="n">
-        <v>8015167.541</v>
+        <v>6519122.467</v>
       </c>
     </row>
     <row r="5313">
       <c r="A5313" t="inlineStr">
         <is>
-          <t>2015-02-02</t>
+          <t>2017-03-12</t>
         </is>
       </c>
       <c r="B5313" t="n">
-        <v>4214903.008</v>
+        <v>8015167.541</v>
       </c>
     </row>
     <row r="5314">
       <c r="A5314" t="inlineStr">
         <is>
-          <t>2011-10-28</t>
+          <t>2015-02-02</t>
         </is>
       </c>
       <c r="B5314" t="n">
-        <v>735721.417</v>
+        <v>4214903.008</v>
       </c>
     </row>
     <row r="5315">
       <c r="A5315" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="B5315" t="n">
-        <v>18201448.889</v>
+        <v>735721.417</v>
       </c>
     </row>
     <row r="5316">
       <c r="A5316" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B5316" t="n">
-        <v>12856671.682</v>
+        <v>18201448.889</v>
       </c>
     </row>
     <row r="5317">
       <c r="A5317" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B5317" t="n">
-        <v>7919062.632</v>
+        <v>12856671.682</v>
       </c>
     </row>
     <row r="5318">
       <c r="A5318" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B5318" t="n">
-        <v>9519524.592</v>
+        <v>7919062.632</v>
       </c>
     </row>
     <row r="5319">
       <c r="A5319" t="inlineStr">
         <is>
-          <t>2014-03-18</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="B5319" t="n">
-        <v>6370558.748</v>
+        <v>9519524.592</v>
       </c>
     </row>
     <row r="5320">
       <c r="A5320" t="inlineStr">
         <is>
-          <t>2017-03-21</t>
+          <t>2014-03-18</t>
         </is>
       </c>
       <c r="B5320" t="n">
-        <v>8412562.749</v>
+        <v>6370558.748</v>
       </c>
     </row>
     <row r="5321">
       <c r="A5321" t="inlineStr">
         <is>
-          <t>2015-02-09</t>
+          <t>2017-03-21</t>
         </is>
       </c>
       <c r="B5321" t="n">
-        <v>4096290.662</v>
+        <v>8412562.749</v>
       </c>
     </row>
     <row r="5322">
       <c r="A5322" t="inlineStr">
         <is>
-          <t>2011-10-31</t>
+          <t>2015-02-09</t>
         </is>
       </c>
       <c r="B5322" t="n">
-        <v>732160.326</v>
+        <v>4096290.662</v>
       </c>
     </row>
     <row r="5323">
       <c r="A5323" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2011-10-31</t>
         </is>
       </c>
       <c r="B5323" t="n">
-        <v>7287456.154</v>
+        <v>732160.326</v>
       </c>
     </row>
     <row r="5324">
       <c r="A5324" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B5324" t="n">
-        <v>9308642.501</v>
+        <v>7287456.154</v>
       </c>
     </row>
     <row r="5325">
       <c r="A5325" t="inlineStr">
         <is>
-          <t>2014-04-06</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="B5325" t="n">
-        <v>5505621.837</v>
+        <v>9308642.501</v>
       </c>
     </row>
     <row r="5326">
       <c r="A5326" t="inlineStr">
         <is>
-          <t>2017-04-09</t>
+          <t>2014-04-06</t>
         </is>
       </c>
       <c r="B5326" t="n">
-        <v>8810606.551000001</v>
+        <v>5505621.837</v>
       </c>
     </row>
     <row r="5327">
       <c r="A5327" t="inlineStr">
         <is>
-          <t>2015-03-02</t>
+          <t>2017-04-09</t>
         </is>
       </c>
       <c r="B5327" t="n">
-        <v>3933274.224</v>
+        <v>8810606.551000001</v>
       </c>
     </row>
     <row r="5328">
       <c r="A5328" t="inlineStr">
         <is>
-          <t>2011-11-14</t>
+          <t>2015-03-02</t>
         </is>
       </c>
       <c r="B5328" t="n">
-        <v>826121.591</v>
+        <v>3933274.224</v>
       </c>
     </row>
     <row r="5329">
       <c r="A5329" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2011-11-14</t>
         </is>
       </c>
       <c r="B5329" t="n">
-        <v>10333719.079</v>
+        <v>826121.591</v>
       </c>
     </row>
     <row r="5330">
       <c r="A5330" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B5330" t="n">
-        <v>6907432.252</v>
+        <v>10333719.079</v>
       </c>
     </row>
     <row r="5331">
       <c r="A5331" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B5331" t="n">
-        <v>9481051.257999999</v>
+        <v>6907432.252</v>
       </c>
     </row>
     <row r="5332">
       <c r="A5332" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="B5332" t="n">
-        <v>16829264.336</v>
+        <v>9481051.257999999</v>
       </c>
     </row>
     <row r="5333">
       <c r="A5333" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B5333" t="n">
-        <v>10843259.392</v>
+        <v>16829264.336</v>
       </c>
     </row>
     <row r="5334">
       <c r="A5334" t="inlineStr">
         <is>
-          <t>2014-04-27</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B5334" t="n">
-        <v>5438426.506</v>
+        <v>10843259.392</v>
       </c>
     </row>
     <row r="5335">
       <c r="A5335" t="inlineStr">
         <is>
-          <t>2015-03-09</t>
+          <t>2014-04-27</t>
         </is>
       </c>
       <c r="B5335" t="n">
-        <v>3900348.066</v>
+        <v>5438426.506</v>
       </c>
     </row>
     <row r="5336">
       <c r="A5336" t="inlineStr">
         <is>
-          <t>2011-11-16</t>
+          <t>2015-03-09</t>
         </is>
       </c>
       <c r="B5336" t="n">
-        <v>1048736.803</v>
+        <v>3900348.066</v>
       </c>
     </row>
     <row r="5337">
       <c r="A5337" t="inlineStr">
         <is>
-          <t>2017-04-20</t>
+          <t>2011-11-16</t>
         </is>
       </c>
       <c r="B5337" t="n">
-        <v>8967425.550000001</v>
+        <v>1048736.803</v>
       </c>
     </row>
     <row r="5338">
       <c r="A5338" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2017-04-20</t>
         </is>
       </c>
       <c r="B5338" t="n">
-        <v>12827728.942</v>
+        <v>8967425.550000001</v>
       </c>
     </row>
     <row r="5339">
       <c r="A5339" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B5339" t="n">
-        <v>6721984.554</v>
+        <v>12827728.942</v>
       </c>
     </row>
     <row r="5340">
       <c r="A5340" t="inlineStr">
         <is>
-          <t>2022-08-06</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="B5340" t="n">
-        <v>9532015.716</v>
+        <v>6721984.554</v>
       </c>
     </row>
     <row r="5341">
       <c r="A5341" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="B5341" t="n">
-        <v>16884075.838</v>
+        <v>9532015.716</v>
       </c>
     </row>
     <row r="5342">
       <c r="A5342" t="inlineStr">
         <is>
-          <t>2014-06-01</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B5342" t="n">
-        <v>4343530.167</v>
+        <v>16884075.838</v>
       </c>
     </row>
     <row r="5343">
       <c r="A5343" t="inlineStr">
         <is>
-          <t>2015-03-22</t>
+          <t>2014-06-01</t>
         </is>
       </c>
       <c r="B5343" t="n">
-        <v>4135797.457</v>
+        <v>4343530.167</v>
       </c>
     </row>
     <row r="5344">
       <c r="A5344" t="inlineStr">
         <is>
-          <t>2017-04-30</t>
+          <t>2015-03-22</t>
         </is>
       </c>
       <c r="B5344" t="n">
-        <v>8922467.217</v>
+        <v>4135797.457</v>
       </c>
     </row>
     <row r="5345">
       <c r="A5345" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2017-04-30</t>
         </is>
       </c>
       <c r="B5345" t="n">
-        <v>1086764.653</v>
+        <v>8922467.217</v>
       </c>
     </row>
     <row r="5346">
       <c r="A5346" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2011-11-19</t>
         </is>
       </c>
       <c r="B5346" t="n">
-        <v>13592327.934</v>
+        <v>1086764.653</v>
       </c>
     </row>
     <row r="5347">
       <c r="A5347" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B5347" t="n">
-        <v>18930025.11</v>
+        <v>13592327.934</v>
       </c>
     </row>
     <row r="5348">
       <c r="A5348" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="B5348" t="n">
-        <v>17480511.655</v>
+        <v>18930025.11</v>
       </c>
     </row>
     <row r="5349">
       <c r="A5349" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B5349" t="n">
-        <v>15295963.935</v>
+        <v>17480511.655</v>
       </c>
     </row>
     <row r="5350">
       <c r="A5350" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="B5350" t="n">
-        <v>5802826.225</v>
+        <v>15295963.935</v>
       </c>
     </row>
     <row r="5351">
       <c r="A5351" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="B5351" t="n">
-        <v>8363509.02</v>
+        <v>5802826.225</v>
       </c>
     </row>
     <row r="5352">
       <c r="A5352" t="inlineStr">
         <is>
-          <t>2014-06-28</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="B5352" t="n">
-        <v>2686947.84</v>
+        <v>8363509.02</v>
       </c>
     </row>
     <row r="5353">
       <c r="A5353" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2014-06-28</t>
         </is>
       </c>
       <c r="B5353" t="n">
-        <v>11641354.93</v>
+        <v>2686947.84</v>
       </c>
     </row>
     <row r="5354">
       <c r="A5354" t="inlineStr">
         <is>
-          <t>2017-05-17</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B5354" t="n">
-        <v>10300409.588</v>
+        <v>11641354.93</v>
       </c>
     </row>
     <row r="5355">
       <c r="A5355" t="inlineStr">
         <is>
-          <t>2015-03-29</t>
+          <t>2017-05-17</t>
         </is>
       </c>
       <c r="B5355" t="n">
-        <v>3988633.591</v>
+        <v>10300409.588</v>
       </c>
     </row>
     <row r="5356">
       <c r="A5356" t="inlineStr">
         <is>
-          <t>2011-12-03</t>
+          <t>2015-03-29</t>
         </is>
       </c>
       <c r="B5356" t="n">
-        <v>1095387.925</v>
+        <v>3988633.591</v>
       </c>
     </row>
     <row r="5357">
       <c r="A5357" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2011-12-03</t>
         </is>
       </c>
       <c r="B5357" t="n">
-        <v>17359924.278</v>
+        <v>1095387.925</v>
       </c>
     </row>
     <row r="5358">
       <c r="A5358" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="B5358" t="n">
-        <v>16833334.95</v>
+        <v>17359924.278</v>
       </c>
     </row>
     <row r="5359">
       <c r="A5359" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B5359" t="n">
-        <v>10236215.389</v>
+        <v>16833334.95</v>
       </c>
     </row>
     <row r="5360">
       <c r="A5360" t="inlineStr">
         <is>
-          <t>2017-06-01</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B5360" t="n">
-        <v>11531744.112</v>
+        <v>10236215.389</v>
       </c>
     </row>
     <row r="5361">
       <c r="A5361" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2017-06-01</t>
         </is>
       </c>
       <c r="B5361" t="n">
-        <v>6065155.983</v>
+        <v>11531744.112</v>
       </c>
     </row>
     <row r="5362">
       <c r="A5362" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="B5362" t="n">
-        <v>8049967.714</v>
+        <v>6065155.983</v>
       </c>
     </row>
     <row r="5363">
       <c r="A5363" t="inlineStr">
         <is>
-          <t>2024-07-13</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="B5363" t="n">
-        <v>15731904.375</v>
+        <v>8049967.714</v>
       </c>
     </row>
     <row r="5364">
       <c r="A5364" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="B5364" t="n">
-        <v>2436383.016</v>
+        <v>15731904.375</v>
       </c>
     </row>
     <row r="5365">
       <c r="A5365" t="inlineStr">
         <is>
-          <t>2015-04-06</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="B5365" t="n">
-        <v>3694404.674</v>
+        <v>2436383.016</v>
       </c>
     </row>
     <row r="5366">
       <c r="A5366" t="inlineStr">
         <is>
-          <t>2011-12-17</t>
+          <t>2015-04-06</t>
         </is>
       </c>
       <c r="B5366" t="n">
-        <v>1066127.172</v>
+        <v>3694404.674</v>
       </c>
     </row>
     <row r="5367">
       <c r="A5367" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2011-12-17</t>
         </is>
       </c>
       <c r="B5367" t="n">
-        <v>19357870.444</v>
+        <v>1066127.172</v>
       </c>
     </row>
     <row r="5368">
       <c r="A5368" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B5368" t="n">
-        <v>9506750.107999999</v>
+        <v>19357870.444</v>
       </c>
     </row>
     <row r="5369">
       <c r="A5369" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="B5369" t="n">
-        <v>18249350.163</v>
+        <v>9506750.107999999</v>
       </c>
     </row>
     <row r="5370">
       <c r="A5370" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B5370" t="n">
-        <v>10121188.898</v>
+        <v>18249350.163</v>
       </c>
     </row>
     <row r="5371">
       <c r="A5371" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B5371" t="n">
-        <v>18172193.247</v>
+        <v>10121188.898</v>
       </c>
     </row>
     <row r="5372">
       <c r="A5372" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B5372" t="n">
-        <v>11873870.808</v>
+        <v>18172193.247</v>
       </c>
     </row>
     <row r="5373">
       <c r="A5373" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B5373" t="n">
-        <v>16905626.816</v>
+        <v>11873870.808</v>
       </c>
     </row>
     <row r="5374">
       <c r="A5374" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B5374" t="n">
-        <v>11511228.874</v>
+        <v>16905626.816</v>
       </c>
     </row>
     <row r="5375">
       <c r="A5375" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-05-03</t>
         </is>
       </c>
       <c r="B5375" t="n">
-        <v>18829096.598</v>
+        <v>11511228.874</v>
       </c>
     </row>
     <row r="5376">
       <c r="A5376" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B5376" t="n">
-        <v>11905850.214</v>
+        <v>18829096.598</v>
       </c>
     </row>
     <row r="5377">
       <c r="A5377" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="B5377" t="n">
-        <v>6820551.817</v>
+        <v>11905850.214</v>
       </c>
     </row>
     <row r="5378">
       <c r="A5378" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="B5378" t="n">
-        <v>6358468.879</v>
+        <v>6820551.817</v>
       </c>
     </row>
     <row r="5379">
       <c r="A5379" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="B5379" t="n">
-        <v>14873483.781</v>
+        <v>6358468.879</v>
       </c>
     </row>
     <row r="5380">
       <c r="A5380" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B5380" t="n">
-        <v>11867652.532</v>
+        <v>14873483.781</v>
       </c>
     </row>
     <row r="5381">
       <c r="A5381" t="inlineStr">
         <is>
-          <t>2014-08-06</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B5381" t="n">
-        <v>2826869.713</v>
+        <v>11867652.532</v>
       </c>
     </row>
     <row r="5382">
       <c r="A5382" t="inlineStr">
         <is>
-          <t>2015-04-12</t>
+          <t>2014-08-06</t>
         </is>
       </c>
       <c r="B5382" t="n">
-        <v>3600337.897</v>
+        <v>2826869.713</v>
       </c>
     </row>
     <row r="5383">
       <c r="A5383" t="inlineStr">
         <is>
-          <t>2012-01-03</t>
+          <t>2015-04-12</t>
         </is>
       </c>
       <c r="B5383" t="n">
-        <v>1178238.791</v>
+        <v>3600337.897</v>
       </c>
     </row>
     <row r="5384">
       <c r="A5384" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2012-01-03</t>
         </is>
       </c>
       <c r="B5384" t="n">
-        <v>12210206.289</v>
+        <v>1178238.791</v>
       </c>
     </row>
     <row r="5385">
       <c r="A5385" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B5385" t="n">
-        <v>18211536.318</v>
+        <v>12210206.289</v>
       </c>
     </row>
     <row r="5386">
       <c r="A5386" t="inlineStr">
         <is>
-          <t>2017-08-15</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B5386" t="n">
-        <v>19566598.77</v>
+        <v>18211536.318</v>
       </c>
     </row>
     <row r="5387">
       <c r="A5387" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2017-08-15</t>
         </is>
       </c>
       <c r="B5387" t="n">
-        <v>6837460.05</v>
+        <v>19566598.77</v>
       </c>
     </row>
     <row r="5388">
       <c r="A5388" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="B5388" t="n">
-        <v>8536718.226</v>
+        <v>6837460.05</v>
       </c>
     </row>
     <row r="5389">
       <c r="A5389" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B5389" t="n">
-        <v>19772264.652</v>
+        <v>8536718.226</v>
       </c>
     </row>
     <row r="5390">
       <c r="A5390" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="B5390" t="n">
-        <v>16050259.512</v>
+        <v>19772264.652</v>
       </c>
     </row>
     <row r="5391">
       <c r="A5391" t="inlineStr">
         <is>
-          <t>2014-08-18</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>2925697.333</v>
+        <v>16050259.512</v>
       </c>
     </row>
     <row r="5392">
       <c r="A5392" t="inlineStr">
         <is>
-          <t>2015-04-19</t>
+          <t>2014-08-18</t>
         </is>
       </c>
       <c r="B5392" t="n">
-        <v>3445407.103</v>
+        <v>2925697.333</v>
       </c>
     </row>
     <row r="5393">
       <c r="A5393" t="inlineStr">
         <is>
-          <t>2012-01-20</t>
+          <t>2015-04-19</t>
         </is>
       </c>
       <c r="B5393" t="n">
-        <v>1244736.785</v>
+        <v>3445407.103</v>
       </c>
     </row>
     <row r="5394">
       <c r="A5394" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2012-01-20</t>
         </is>
       </c>
       <c r="B5394" t="n">
-        <v>13510242.654</v>
+        <v>1244736.785</v>
       </c>
     </row>
     <row r="5395">
       <c r="A5395" t="inlineStr">
         <is>
-          <t>2017-08-28</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B5395" t="n">
-        <v>19422838.72</v>
+        <v>13510242.654</v>
       </c>
     </row>
     <row r="5396">
       <c r="A5396" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2017-08-28</t>
         </is>
       </c>
       <c r="B5396" t="n">
-        <v>11104807.404</v>
+        <v>19422838.72</v>
       </c>
     </row>
     <row r="5397">
       <c r="A5397" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="B5397" t="n">
-        <v>10451472.456</v>
+        <v>11104807.404</v>
       </c>
     </row>
     <row r="5398">
       <c r="A5398" t="inlineStr">
         <is>
-          <t>2014-09-13</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B5398" t="n">
-        <v>2524791.779</v>
+        <v>10451472.456</v>
       </c>
     </row>
     <row r="5399">
       <c r="A5399" t="inlineStr">
         <is>
-          <t>2015-04-25</t>
+          <t>2014-09-13</t>
         </is>
       </c>
       <c r="B5399" t="n">
-        <v>3352942.164</v>
+        <v>2524791.779</v>
       </c>
     </row>
     <row r="5400">
       <c r="A5400" t="inlineStr">
         <is>
-          <t>2012-01-21</t>
+          <t>2015-04-25</t>
         </is>
       </c>
       <c r="B5400" t="n">
-        <v>1246443.905</v>
+        <v>3352942.164</v>
       </c>
     </row>
     <row r="5401">
       <c r="A5401" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2012-01-21</t>
         </is>
       </c>
       <c r="B5401" t="n">
-        <v>14362928.781</v>
+        <v>1246443.905</v>
       </c>
     </row>
     <row r="5402">
       <c r="A5402" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B5402" t="n">
-        <v>20351324.136</v>
+        <v>14362928.781</v>
       </c>
     </row>
     <row r="5403">
       <c r="A5403" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B5403" t="n">
-        <v>13491078.904</v>
+        <v>20351324.136</v>
       </c>
     </row>
     <row r="5404">
       <c r="A5404" t="inlineStr">
         <is>
-          <t>2017-09-08</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B5404" t="n">
-        <v>19486335.788</v>
+        <v>13491078.904</v>
       </c>
     </row>
     <row r="5405">
       <c r="A5405" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2017-09-08</t>
         </is>
       </c>
       <c r="B5405" t="n">
-        <v>13156711.485</v>
+        <v>19486335.788</v>
       </c>
     </row>
     <row r="5406">
       <c r="A5406" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B5406" t="n">
-        <v>10510937.957</v>
+        <v>13156711.485</v>
       </c>
     </row>
     <row r="5407">
       <c r="A5407" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="B5407" t="n">
-        <v>15716836.044</v>
+        <v>10510937.957</v>
       </c>
     </row>
     <row r="5408">
       <c r="A5408" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-07-21</t>
         </is>
       </c>
       <c r="B5408" t="n">
-        <v>19939698.057</v>
+        <v>15716836.044</v>
       </c>
     </row>
     <row r="5409">
       <c r="A5409" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B5409" t="n">
-        <v>2628371.334</v>
+        <v>19939698.057</v>
       </c>
     </row>
     <row r="5410">
       <c r="A5410" t="inlineStr">
         <is>
-          <t>2015-05-20</t>
+          <t>2014-10-02</t>
         </is>
       </c>
       <c r="B5410" t="n">
-        <v>3177021.142</v>
+        <v>2628371.334</v>
       </c>
     </row>
     <row r="5411">
       <c r="A5411" t="inlineStr">
         <is>
-          <t>2012-01-26</t>
+          <t>2015-05-20</t>
         </is>
       </c>
       <c r="B5411" t="n">
-        <v>1264128.557</v>
+        <v>3177021.142</v>
       </c>
     </row>
     <row r="5412">
       <c r="A5412" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2012-01-26</t>
         </is>
       </c>
       <c r="B5412" t="n">
-        <v>10152643.862</v>
+        <v>1264128.557</v>
       </c>
     </row>
     <row r="5413">
       <c r="A5413" t="inlineStr">
         <is>
-          <t>2017-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="B5413" t="n">
-        <v>18137220.352</v>
+        <v>10152643.862</v>
       </c>
     </row>
     <row r="5414">
       <c r="A5414" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2017-09-23</t>
         </is>
       </c>
       <c r="B5414" t="n">
-        <v>18779023.107</v>
+        <v>18137220.352</v>
       </c>
     </row>
     <row r="5415">
       <c r="A5415" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="B5415" t="n">
-        <v>10615483.231</v>
+        <v>18779023.107</v>
       </c>
     </row>
     <row r="5416">
       <c r="A5416" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="B5416" t="n">
-        <v>15795124.861</v>
+        <v>10615483.231</v>
       </c>
     </row>
     <row r="5417">
       <c r="A5417" t="inlineStr">
         <is>
-          <t>2014-10-23</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B5417" t="n">
-        <v>3053937.556</v>
+        <v>15795124.861</v>
       </c>
     </row>
     <row r="5418">
       <c r="A5418" t="inlineStr">
         <is>
-          <t>2015-05-27</t>
+          <t>2014-10-23</t>
         </is>
       </c>
       <c r="B5418" t="n">
-        <v>2974495.006</v>
+        <v>3053937.556</v>
       </c>
     </row>
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2015-05-27</t>
         </is>
       </c>
       <c r="B5419" t="n">
-        <v>1068036.951</v>
+        <v>2974495.006</v>
       </c>
     </row>
     <row r="5420">
       <c r="A5420" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="B5420" t="n">
-        <v>12796519.886</v>
+        <v>1068036.951</v>
       </c>
     </row>
     <row r="5421">
       <c r="A5421" t="inlineStr">
         <is>
-          <t>2017-10-09</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B5421" t="n">
-        <v>19407598.446</v>
+        <v>12796519.886</v>
       </c>
     </row>
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2017-10-09</t>
         </is>
       </c>
       <c r="B5422" t="n">
-        <v>20455744.669</v>
+        <v>19407598.446</v>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="B5423" t="n">
-        <v>11376341.238</v>
+        <v>20455744.669</v>
       </c>
     </row>
     <row r="5424">
       <c r="A5424" t="inlineStr">
         <is>
-          <t>2014-11-01</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="B5424" t="n">
-        <v>3044004.834</v>
+        <v>11376341.238</v>
       </c>
     </row>
     <row r="5425">
       <c r="A5425" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2014-11-01</t>
         </is>
       </c>
       <c r="B5425" t="n">
-        <v>2765454.564</v>
+        <v>3044004.834</v>
       </c>
     </row>
     <row r="5426">
       <c r="A5426" t="inlineStr">
         <is>
-          <t>2012-04-02</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="B5426" t="n">
-        <v>1066217.337</v>
+        <v>2765454.564</v>
       </c>
     </row>
     <row r="5427">
       <c r="A5427" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2012-04-02</t>
         </is>
       </c>
       <c r="B5427" t="n">
-        <v>13432763.242</v>
+        <v>1066217.337</v>
       </c>
     </row>
     <row r="5428">
       <c r="A5428" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B5428" t="n">
-        <v>14589767.49</v>
+        <v>13432763.242</v>
       </c>
     </row>
     <row r="5429">
       <c r="A5429" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B5429" t="n">
-        <v>19306849.276</v>
+        <v>14589767.49</v>
       </c>
     </row>
     <row r="5430">
       <c r="A5430" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="B5430" t="n">
-        <v>17904427.701</v>
+        <v>19306849.276</v>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="B5431" t="n">
-        <v>11260943.27</v>
+        <v>17904427.701</v>
       </c>
     </row>
     <row r="5432">
       <c r="A5432" t="inlineStr">
         <is>
-          <t>2014-11-19</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="B5432" t="n">
-        <v>3019744.611</v>
+        <v>11260943.27</v>
       </c>
     </row>
     <row r="5433">
       <c r="A5433" t="inlineStr">
         <is>
-          <t>2015-06-09</t>
+          <t>2014-11-19</t>
         </is>
       </c>
       <c r="B5433" t="n">
-        <v>2361717.899</v>
+        <v>3019744.611</v>
       </c>
     </row>
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>2012-04-18</t>
+          <t>2015-06-09</t>
         </is>
       </c>
       <c r="B5434" t="n">
-        <v>1080512.495</v>
+        <v>2361717.899</v>
       </c>
     </row>
     <row r="5435">
       <c r="A5435" t="inlineStr">
         <is>
-          <t>2017-11-16</t>
+          <t>2012-04-18</t>
         </is>
       </c>
       <c r="B5435" t="n">
-        <v>15794441.353</v>
+        <v>1080512.495</v>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2021-02-12</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="B5436" t="n">
-        <v>18047843.242</v>
+        <v>15794441.353</v>
       </c>
     </row>
     <row r="5437">
       <c r="A5437" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2021-02-12</t>
         </is>
       </c>
       <c r="B5437" t="n">
-        <v>7804497.859</v>
+        <v>18047843.242</v>
       </c>
     </row>
     <row r="5438">
       <c r="A5438" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="B5438" t="n">
-        <v>9877779.377</v>
+        <v>7804497.859</v>
       </c>
     </row>
     <row r="5439">
       <c r="A5439" t="inlineStr">
         <is>
-          <t>2014-12-05</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B5439" t="n">
-        <v>3374566.02</v>
+        <v>9877779.377</v>
       </c>
     </row>
     <row r="5440">
       <c r="A5440" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2014-12-05</t>
         </is>
       </c>
       <c r="B5440" t="n">
-        <v>2394815.633</v>
+        <v>3374566.02</v>
       </c>
     </row>
     <row r="5441">
       <c r="A5441" t="inlineStr">
         <is>
-          <t>2012-05-04</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="B5441" t="n">
-        <v>1211448.82</v>
+        <v>2394815.633</v>
       </c>
     </row>
     <row r="5442">
       <c r="A5442" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2012-05-04</t>
         </is>
       </c>
       <c r="B5442" t="n">
-        <v>9388382.575999999</v>
+        <v>1211448.82</v>
       </c>
     </row>
     <row r="5443">
       <c r="A5443" t="inlineStr">
         <is>
-          <t>2017-11-30</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B5443" t="n">
-        <v>15739620.059</v>
+        <v>9388382.575999999</v>
       </c>
     </row>
     <row r="5444">
       <c r="A5444" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2017-11-30</t>
         </is>
       </c>
       <c r="B5444" t="n">
-        <v>17461848.264</v>
+        <v>15739620.059</v>
       </c>
     </row>
     <row r="5445">
       <c r="A5445" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="B5445" t="n">
-        <v>7349744.434</v>
+        <v>17461848.264</v>
       </c>
     </row>
     <row r="5446">
       <c r="A5446" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="B5446" t="n">
-        <v>15621689.103</v>
+        <v>7349744.434</v>
       </c>
     </row>
     <row r="5447">
       <c r="A5447" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="B5447" t="n">
-        <v>11149234.035</v>
+        <v>15621689.103</v>
       </c>
     </row>
     <row r="5448">
       <c r="A5448" t="inlineStr">
         <is>
-          <t>2014-12-24</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B5448" t="n">
-        <v>3749367.14</v>
+        <v>11149234.035</v>
       </c>
     </row>
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2014-12-24</t>
         </is>
       </c>
       <c r="B5449" t="n">
-        <v>18799096.649</v>
+        <v>3749367.14</v>
       </c>
     </row>
     <row r="5450">
       <c r="A5450" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B5450" t="n">
-        <v>2573704.983</v>
+        <v>18799096.649</v>
       </c>
     </row>
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="B5451" t="n">
-        <v>1258763.689</v>
+        <v>2573704.983</v>
       </c>
     </row>
     <row r="5452">
       <c r="A5452" t="inlineStr">
         <is>
-          <t>2017-12-01</t>
+          <t>2012-05-21</t>
         </is>
       </c>
       <c r="B5452" t="n">
-        <v>15786676.067</v>
+        <v>1258763.689</v>
       </c>
     </row>
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2017-12-01</t>
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>15009732.42</v>
+        <v>15786676.067</v>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>8127301.046</v>
+        <v>15009732.42</v>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2015-01-11</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>3848375.44</v>
+        <v>8127301.046</v>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-01-11</t>
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>2511092.261</v>
+        <v>3848375.44</v>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2012-06-06</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="B5457" t="n">
-        <v>1365675.341</v>
+        <v>2511092.261</v>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2012-06-06</t>
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>18209088.114</v>
+        <v>1365675.341</v>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>14446234.788</v>
+        <v>18209088.114</v>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>17645156.999</v>
+        <v>14446234.788</v>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>13264526.584</v>
+        <v>17645156.999</v>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>8486747.433</v>
+        <v>13264526.584</v>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>4046018.483</v>
+        <v>8486747.433</v>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>2718554.466</v>
+        <v>4046018.483</v>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>1367243.39</v>
+        <v>2718554.466</v>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2012-06-18</t>
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>9114476.312000001</v>
+        <v>1367243.39</v>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B5467" t="n">
-        <v>15346852.871</v>
+        <v>9114476.312000001</v>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B5468" t="n">
-        <v>12870879.477</v>
+        <v>15346852.871</v>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5469" t="n">
-        <v>17780525.245</v>
+        <v>12870879.477</v>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>13194431.726</v>
+        <v>17780525.245</v>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>8346328.634</v>
+        <v>13194431.726</v>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>16236706.926</v>
+        <v>8346328.634</v>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>16585261.576</v>
+        <v>16236706.926</v>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2015-02-10</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>4071380.974</v>
+        <v>16585261.576</v>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>2793932.294</v>
+        <v>4071380.974</v>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>1363857.943</v>
+        <v>2793932.294</v>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>18882222.042</v>
+        <v>1363857.943</v>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>17968690.541</v>
+        <v>18882222.042</v>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>9386582.370999999</v>
+        <v>17968690.541</v>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>17890389.899</v>
+        <v>9386582.370999999</v>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>12015164.279</v>
+        <v>17890389.899</v>
       </c>
     </row>
     <row r="5482">
       <c r="A5482" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>7902657.124</v>
+        <v>12015164.279</v>
       </c>
     </row>
     <row r="5483">
       <c r="A5483" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5483" t="n">
-        <v>10503343.65</v>
+        <v>7902657.124</v>
       </c>
     </row>
     <row r="5484">
       <c r="A5484" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>3819509.271</v>
+        <v>10503343.65</v>
       </c>
     </row>
     <row r="5485">
       <c r="A5485" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>2826416.003</v>
+        <v>3819509.271</v>
       </c>
     </row>
     <row r="5486">
       <c r="A5486" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>1630324.679</v>
+        <v>2826416.003</v>
       </c>
     </row>
     <row r="5487">
       <c r="A5487" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>10658742.561</v>
+        <v>1630324.679</v>
       </c>
     </row>
     <row r="5488">
       <c r="A5488" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>18727823.649</v>
+        <v>10658742.561</v>
       </c>
     </row>
     <row r="5489">
       <c r="A5489" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>17224052.503</v>
+        <v>18727823.649</v>
       </c>
     </row>
     <row r="5490">
       <c r="A5490" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>10673931.348</v>
+        <v>17224052.503</v>
       </c>
     </row>
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>3979751.142</v>
+        <v>10673931.348</v>
       </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>3642872.298</v>
+        <v>3979751.142</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>1613219.441</v>
+        <v>3642872.298</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>18746833.543</v>
+        <v>1613219.441</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>14696488.122</v>
+        <v>18746833.543</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>18803774.412</v>
+        <v>14696488.122</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>13074131.781</v>
+        <v>18803774.412</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>18108889.119</v>
+        <v>13074131.781</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>10600975.162</v>
+        <v>18108889.119</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>3489354.733</v>
+        <v>10600975.162</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>3660667.082</v>
+        <v>3489354.733</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>316907.127</v>
+        <v>3660667.082</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>1760535.998</v>
+        <v>316907.127</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>19760413.223</v>
+        <v>1760535.998</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>15296257.118</v>
+        <v>19760413.223</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>10677343.165</v>
+        <v>15296257.118</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>12841467.318</v>
+        <v>10677343.165</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>3205484.527</v>
+        <v>12841467.318</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>4648212.458</v>
+        <v>3205484.527</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>1873037.142</v>
+        <v>4648212.458</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>19272529.034</v>
+        <v>1873037.142</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>13193422.783</v>
+        <v>19272529.034</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>8610177.493000001</v>
+        <v>13193422.783</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>12225489.867</v>
+        <v>8610177.493000001</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>2985205.142</v>
+        <v>12225489.867</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>4603582.061</v>
+        <v>2985205.142</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>2093652.744</v>
+        <v>4603582.061</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>11477197.525</v>
+        <v>2093652.744</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>19496972.836</v>
+        <v>11477197.525</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>10566019.663</v>
+        <v>19496972.836</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>8609734.759</v>
+        <v>10566019.663</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>18616838.388</v>
+        <v>8609734.759</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5523" t="n">
-        <v>2392944.256</v>
+        <v>18616838.388</v>
       </c>
     </row>
     <row r="5524">
       <c r="A5524" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5524" t="n">
-        <v>4964683.773</v>
+        <v>2392944.256</v>
       </c>
     </row>
     <row r="5525">
       <c r="A5525" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5525" t="n">
-        <v>2162784.464</v>
+        <v>4964683.773</v>
       </c>
     </row>
     <row r="5526">
       <c r="A5526" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5526" t="n">
-        <v>8046257.588</v>
+        <v>2162784.464</v>
       </c>
     </row>
     <row r="5527">
       <c r="A5527" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5527" t="n">
-        <v>8443126.151000001</v>
+        <v>8046257.588</v>
       </c>
     </row>
     <row r="5528">
       <c r="A5528" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5528" t="n">
-        <v>8386250.008</v>
+        <v>8443126.151000001</v>
       </c>
     </row>
     <row r="5529">
       <c r="A5529" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5529" t="n">
-        <v>2565551.236</v>
+        <v>8386250.008</v>
       </c>
     </row>
     <row r="5530">
       <c r="A5530" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5530" t="n">
-        <v>6127123.106</v>
+        <v>2565551.236</v>
       </c>
     </row>
     <row r="5531">
       <c r="A5531" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5531" t="n">
-        <v>2157212.824</v>
+        <v>6127123.106</v>
       </c>
     </row>
     <row r="5532">
       <c r="A5532" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5532" t="n">
-        <v>11978202.448</v>
+        <v>2157212.824</v>
       </c>
     </row>
     <row r="5533">
       <c r="A5533" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5533" t="n">
-        <v>15303734.889</v>
+        <v>11978202.448</v>
       </c>
     </row>
     <row r="5534">
       <c r="A5534" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5534" t="n">
-        <v>8103908.652</v>
+        <v>15303734.889</v>
       </c>
     </row>
     <row r="5535">
       <c r="A5535" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5535" t="n">
-        <v>9382181.960999999</v>
+        <v>8103908.652</v>
       </c>
     </row>
     <row r="5536">
       <c r="A5536" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5536" t="n">
-        <v>16784620.262</v>
+        <v>9382181.960999999</v>
       </c>
     </row>
     <row r="5537">
       <c r="A5537" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5537" t="n">
-        <v>16833063.951</v>
+        <v>16784620.262</v>
       </c>
     </row>
     <row r="5538">
       <c r="A5538" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5538" t="n">
-        <v>17049245.734</v>
+        <v>16833063.951</v>
       </c>
     </row>
     <row r="5539">
       <c r="A5539" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5539" t="n">
-        <v>17115867.282</v>
+        <v>17049245.734</v>
       </c>
     </row>
     <row r="5540">
       <c r="A5540" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5540" t="n">
-        <v>17153769.299</v>
+        <v>17115867.282</v>
       </c>
     </row>
     <row r="5541">
       <c r="A5541" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5541" t="n">
-        <v>17225229.436</v>
+        <v>17153769.299</v>
       </c>
     </row>
     <row r="5542">
       <c r="A5542" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5542" t="n">
-        <v>17249482.25</v>
+        <v>17225229.436</v>
       </c>
     </row>
     <row r="5543">
       <c r="A5543" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5543" t="n">
-        <v>17569350.656</v>
+        <v>17249482.25</v>
       </c>
     </row>
     <row r="5544">
       <c r="A5544" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5544" t="n">
-        <v>2859270.317</v>
+        <v>17569350.656</v>
       </c>
     </row>
     <row r="5545">
       <c r="A5545" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5545" t="n">
-        <v>5532498.781</v>
+        <v>2859270.317</v>
       </c>
     </row>
     <row r="5546">
       <c r="A5546" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5546" t="n">
-        <v>2138609.994</v>
+        <v>5532498.781</v>
       </c>
     </row>
     <row r="5547">
       <c r="A5547" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5547" t="n">
-        <v>12895454.923</v>
+        <v>2138609.994</v>
       </c>
     </row>
     <row r="5548">
       <c r="A5548" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5548" t="n">
+        <v>12895454.923</v>
+      </c>
+    </row>
+    <row r="5549">
+      <c r="A5549" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5548" t="n">
+      <c r="B5549" t="n">
         <v>11691372.317</v>
       </c>
     </row>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5556"/>
+  <dimension ref="A1:B5557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47216,21 +47216,21 @@
     <row r="4679">
       <c r="A4679" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B4679" t="n">
-        <v>13907293</v>
+        <v>12970976.352</v>
       </c>
     </row>
     <row r="4680">
       <c r="A4680" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B4680" t="n">
-        <v>12970976.352</v>
+        <v>13907293</v>
       </c>
     </row>
     <row r="4681">
@@ -47276,21 +47276,21 @@
     <row r="4685">
       <c r="A4685" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="B4685" t="n">
-        <v>13956296.548</v>
+        <v>13027523.41</v>
       </c>
     </row>
     <row r="4686">
       <c r="A4686" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B4686" t="n">
-        <v>13027523.41</v>
+        <v>13956296.548</v>
       </c>
     </row>
     <row r="4687">
@@ -50376,31 +50376,31 @@
     <row r="4995">
       <c r="A4995" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2011-05-08</t>
         </is>
       </c>
       <c r="B4995" t="n">
-        <v>14547539.62</v>
+        <v>590659.897</v>
       </c>
     </row>
     <row r="4996">
       <c r="A4996" t="inlineStr">
         <is>
-          <t>2011-05-08</t>
+          <t>2013-02-15</t>
         </is>
       </c>
       <c r="B4996" t="n">
-        <v>590659.897</v>
+        <v>2669285.077</v>
       </c>
     </row>
     <row r="4997">
       <c r="A4997" t="inlineStr">
         <is>
-          <t>2013-02-15</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B4997" t="n">
-        <v>2669285.077</v>
+        <v>14547539.62</v>
       </c>
     </row>
     <row r="4998">
@@ -52786,3210 +52786,3220 @@
     <row r="5236">
       <c r="A5236" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B5236" t="n">
-        <v>14880148.605</v>
+        <v>14601308.011</v>
       </c>
     </row>
     <row r="5237">
       <c r="A5237" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B5237" t="n">
-        <v>12724123.607</v>
+        <v>14880148.605</v>
       </c>
     </row>
     <row r="5238">
       <c r="A5238" t="inlineStr">
         <is>
-          <t>2019-08-21</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B5238" t="n">
-        <v>12393381.677</v>
+        <v>12724123.607</v>
       </c>
     </row>
     <row r="5239">
       <c r="A5239" t="inlineStr">
         <is>
-          <t>2021-12-01</t>
+          <t>2019-08-21</t>
         </is>
       </c>
       <c r="B5239" t="n">
-        <v>9613862.286</v>
+        <v>12393381.677</v>
       </c>
     </row>
     <row r="5240">
       <c r="A5240" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="B5240" t="n">
-        <v>18218036.776</v>
+        <v>9613862.286</v>
       </c>
     </row>
     <row r="5241">
       <c r="A5241" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B5241" t="n">
-        <v>16265749.775</v>
+        <v>18218036.776</v>
       </c>
     </row>
     <row r="5242">
       <c r="A5242" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2024-07-27</t>
         </is>
       </c>
       <c r="B5242" t="n">
-        <v>16670126.739</v>
+        <v>16265749.775</v>
       </c>
     </row>
     <row r="5243">
       <c r="A5243" t="inlineStr">
         <is>
-          <t>2013-12-26</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="B5243" t="n">
-        <v>6915819.538</v>
+        <v>16670126.739</v>
       </c>
     </row>
     <row r="5244">
       <c r="A5244" t="inlineStr">
         <is>
-          <t>2014-11-12</t>
+          <t>2013-12-26</t>
         </is>
       </c>
       <c r="B5244" t="n">
-        <v>3023467.834</v>
+        <v>6915819.538</v>
       </c>
     </row>
     <row r="5245">
       <c r="A5245" t="inlineStr">
         <is>
-          <t>2010-09-24</t>
+          <t>2014-11-12</t>
         </is>
       </c>
       <c r="B5245" t="n">
-        <v>112259.447</v>
+        <v>3023467.834</v>
       </c>
     </row>
     <row r="5246">
       <c r="A5246" t="inlineStr">
         <is>
-          <t>2016-10-23</t>
+          <t>2010-09-24</t>
         </is>
       </c>
       <c r="B5246" t="n">
-        <v>4402004.723</v>
+        <v>112259.447</v>
       </c>
     </row>
     <row r="5247">
       <c r="A5247" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2016-10-23</t>
         </is>
       </c>
       <c r="B5247" t="n">
-        <v>19014663.42</v>
+        <v>4402004.723</v>
       </c>
     </row>
     <row r="5248">
       <c r="A5248" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="B5248" t="n">
-        <v>18095870.058</v>
+        <v>19014663.42</v>
       </c>
     </row>
     <row r="5249">
       <c r="A5249" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B5249" t="n">
-        <v>9408798.934</v>
+        <v>18095870.058</v>
       </c>
     </row>
     <row r="5250">
       <c r="A5250" t="inlineStr">
         <is>
-          <t>2019-09-19</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B5250" t="n">
-        <v>11427939.892</v>
+        <v>9408798.934</v>
       </c>
     </row>
     <row r="5251">
       <c r="A5251" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
+          <t>2019-09-19</t>
         </is>
       </c>
       <c r="B5251" t="n">
-        <v>9957806.918</v>
+        <v>11427939.892</v>
       </c>
     </row>
     <row r="5252">
       <c r="A5252" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="B5252" t="n">
-        <v>17239012.79</v>
+        <v>9957806.918</v>
       </c>
     </row>
     <row r="5253">
       <c r="A5253" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B5253" t="n">
-        <v>11167233.165</v>
+        <v>17239012.79</v>
       </c>
     </row>
     <row r="5254">
       <c r="A5254" t="inlineStr">
         <is>
-          <t>2016-12-09</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B5254" t="n">
-        <v>5405479.025</v>
+        <v>11167233.165</v>
       </c>
     </row>
     <row r="5255">
       <c r="A5255" t="inlineStr">
         <is>
-          <t>2014-01-10</t>
+          <t>2016-12-09</t>
         </is>
       </c>
       <c r="B5255" t="n">
-        <v>6911767.667</v>
+        <v>5405479.025</v>
       </c>
     </row>
     <row r="5256">
       <c r="A5256" t="inlineStr">
         <is>
-          <t>2014-11-18</t>
+          <t>2014-01-10</t>
         </is>
       </c>
       <c r="B5256" t="n">
-        <v>3039813.332</v>
+        <v>6911767.667</v>
       </c>
     </row>
     <row r="5257">
       <c r="A5257" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2014-11-18</t>
         </is>
       </c>
       <c r="B5257" t="n">
-        <v>10958641.073</v>
+        <v>3039813.332</v>
       </c>
     </row>
     <row r="5258">
       <c r="A5258" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B5258" t="n">
-        <v>10512254.974</v>
+        <v>10958641.073</v>
       </c>
     </row>
     <row r="5259">
       <c r="A5259" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B5259" t="n">
-        <v>18752011.913</v>
+        <v>10512254.974</v>
       </c>
     </row>
     <row r="5260">
       <c r="A5260" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B5260" t="n">
-        <v>18684510.463</v>
+        <v>18752011.913</v>
       </c>
     </row>
     <row r="5261">
       <c r="A5261" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B5261" t="n">
-        <v>9947791.287</v>
+        <v>18684510.463</v>
       </c>
     </row>
     <row r="5262">
       <c r="A5262" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="B5262" t="n">
-        <v>8830961.847999999</v>
+        <v>9947791.287</v>
       </c>
     </row>
     <row r="5263">
       <c r="A5263" t="inlineStr">
         <is>
-          <t>2014-01-19</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="B5263" t="n">
-        <v>6709581.37</v>
+        <v>8830961.847999999</v>
       </c>
     </row>
     <row r="5264">
       <c r="A5264" t="inlineStr">
         <is>
-          <t>2016-12-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
       <c r="B5264" t="n">
-        <v>5441150.314</v>
+        <v>6709581.37</v>
       </c>
     </row>
     <row r="5265">
       <c r="A5265" t="inlineStr">
         <is>
-          <t>2014-12-15</t>
+          <t>2016-12-14</t>
         </is>
       </c>
       <c r="B5265" t="n">
-        <v>3652983.074</v>
+        <v>5441150.314</v>
       </c>
     </row>
     <row r="5266">
       <c r="A5266" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2014-12-15</t>
         </is>
       </c>
       <c r="B5266" t="n">
-        <v>14765108.135</v>
+        <v>3652983.074</v>
       </c>
     </row>
     <row r="5267">
       <c r="A5267" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B5267" t="n">
-        <v>10407093</v>
+        <v>14765108.135</v>
       </c>
     </row>
     <row r="5268">
       <c r="A5268" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B5268" t="n">
-        <v>12989124.134</v>
+        <v>10407093</v>
       </c>
     </row>
     <row r="5269">
       <c r="A5269" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="B5269" t="n">
-        <v>14396933.475</v>
+        <v>12989124.134</v>
       </c>
     </row>
     <row r="5270">
       <c r="A5270" t="inlineStr">
         <is>
-          <t>2019-10-25</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B5270" t="n">
-        <v>10081112.066</v>
+        <v>14396933.475</v>
       </c>
     </row>
     <row r="5271">
       <c r="A5271" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="B5271" t="n">
-        <v>9996728.27</v>
+        <v>10081112.066</v>
       </c>
     </row>
     <row r="5272">
       <c r="A5272" t="inlineStr">
         <is>
-          <t>2014-01-20</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="B5272" t="n">
-        <v>6614252.892</v>
+        <v>9996728.27</v>
       </c>
     </row>
     <row r="5273">
       <c r="A5273" t="inlineStr">
         <is>
-          <t>2016-12-30</t>
+          <t>2014-01-20</t>
         </is>
       </c>
       <c r="B5273" t="n">
-        <v>6503628.164</v>
+        <v>6614252.892</v>
       </c>
     </row>
     <row r="5274">
       <c r="A5274" t="inlineStr">
         <is>
-          <t>2014-12-22</t>
+          <t>2016-12-30</t>
         </is>
       </c>
       <c r="B5274" t="n">
-        <v>3563708.16</v>
+        <v>6503628.164</v>
       </c>
     </row>
     <row r="5275">
       <c r="A5275" t="inlineStr">
         <is>
-          <t>2010-09-21</t>
+          <t>2014-12-22</t>
         </is>
       </c>
       <c r="B5275" t="n">
-        <v>111207.989</v>
+        <v>3563708.16</v>
       </c>
     </row>
     <row r="5276">
       <c r="A5276" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2010-09-21</t>
         </is>
       </c>
       <c r="B5276" t="n">
-        <v>19753403.705</v>
+        <v>111207.989</v>
       </c>
     </row>
     <row r="5277">
       <c r="A5277" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B5277" t="n">
-        <v>8145349.405</v>
+        <v>19753403.705</v>
       </c>
     </row>
     <row r="5278">
       <c r="A5278" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B5278" t="n">
-        <v>8685248.65</v>
+        <v>8145349.405</v>
       </c>
     </row>
     <row r="5279">
       <c r="A5279" t="inlineStr">
         <is>
-          <t>2014-01-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="B5279" t="n">
-        <v>6168423.578</v>
+        <v>8685248.65</v>
       </c>
     </row>
     <row r="5280">
       <c r="A5280" t="inlineStr">
         <is>
-          <t>2017-01-29</t>
+          <t>2014-01-23</t>
         </is>
       </c>
       <c r="B5280" t="n">
-        <v>7399149.518</v>
+        <v>6168423.578</v>
       </c>
     </row>
     <row r="5281">
       <c r="A5281" t="inlineStr">
         <is>
-          <t>2014-12-28</t>
+          <t>2017-01-29</t>
         </is>
       </c>
       <c r="B5281" t="n">
-        <v>3660548.296</v>
+        <v>7399149.518</v>
       </c>
     </row>
     <row r="5282">
       <c r="A5282" t="inlineStr">
         <is>
-          <t>2011-07-03</t>
+          <t>2014-12-28</t>
         </is>
       </c>
       <c r="B5282" t="n">
-        <v>1736677.834</v>
+        <v>3660548.296</v>
       </c>
     </row>
     <row r="5283">
       <c r="A5283" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2011-07-03</t>
         </is>
       </c>
       <c r="B5283" t="n">
-        <v>18949481.536</v>
+        <v>1736677.834</v>
       </c>
     </row>
     <row r="5284">
       <c r="A5284" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="B5284" t="n">
-        <v>12847069.898</v>
+        <v>18949481.536</v>
       </c>
     </row>
     <row r="5285">
       <c r="A5285" t="inlineStr">
         <is>
-          <t>2019-12-29</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B5285" t="n">
-        <v>8042178.284</v>
+        <v>12847069.898</v>
       </c>
     </row>
     <row r="5286">
       <c r="A5286" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2019-12-29</t>
         </is>
       </c>
       <c r="B5286" t="n">
-        <v>9941198.092</v>
+        <v>8042178.284</v>
       </c>
     </row>
     <row r="5287">
       <c r="A5287" t="inlineStr">
         <is>
-          <t>2014-02-10</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="B5287" t="n">
-        <v>6482705.217</v>
+        <v>9941198.092</v>
       </c>
     </row>
     <row r="5288">
       <c r="A5288" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2014-02-10</t>
         </is>
       </c>
       <c r="B5288" t="n">
-        <v>3639884.552</v>
+        <v>6482705.217</v>
       </c>
     </row>
     <row r="5289">
       <c r="A5289" t="inlineStr">
         <is>
-          <t>2011-09-13</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="B5289" t="n">
-        <v>992731.454</v>
+        <v>3639884.552</v>
       </c>
     </row>
     <row r="5290">
       <c r="A5290" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2011-09-13</t>
         </is>
       </c>
       <c r="B5290" t="n">
-        <v>12025387.77</v>
+        <v>992731.454</v>
       </c>
     </row>
     <row r="5291">
       <c r="A5291" t="inlineStr">
         <is>
-          <t>2017-02-14</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B5291" t="n">
-        <v>7583332.734</v>
+        <v>12025387.77</v>
       </c>
     </row>
     <row r="5292">
       <c r="A5292" t="inlineStr">
         <is>
-          <t>2017-04-03</t>
+          <t>2017-02-14</t>
         </is>
       </c>
       <c r="B5292" t="n">
-        <v>9243648.802999999</v>
+        <v>7583332.734</v>
       </c>
     </row>
     <row r="5293">
       <c r="A5293" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2017-04-03</t>
         </is>
       </c>
       <c r="B5293" t="n">
-        <v>11517746.211</v>
+        <v>9243648.802999999</v>
       </c>
     </row>
     <row r="5294">
       <c r="A5294" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B5294" t="n">
-        <v>19403702.941</v>
+        <v>11517746.211</v>
       </c>
     </row>
     <row r="5295">
       <c r="A5295" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B5295" t="n">
-        <v>7135383.216</v>
+        <v>19403702.941</v>
       </c>
     </row>
     <row r="5296">
       <c r="A5296" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="B5296" t="n">
-        <v>10037167.8</v>
+        <v>7135383.216</v>
       </c>
     </row>
     <row r="5297">
       <c r="A5297" t="inlineStr">
         <is>
-          <t>2014-02-14</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="B5297" t="n">
-        <v>6165888.39</v>
+        <v>10037167.8</v>
       </c>
     </row>
     <row r="5298">
       <c r="A5298" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2014-02-14</t>
         </is>
       </c>
       <c r="B5298" t="n">
-        <v>18605805.647</v>
+        <v>6165888.39</v>
       </c>
     </row>
     <row r="5299">
       <c r="A5299" t="inlineStr">
         <is>
-          <t>2017-02-15</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B5299" t="n">
-        <v>7448825.404</v>
+        <v>18605805.647</v>
       </c>
     </row>
     <row r="5300">
       <c r="A5300" t="inlineStr">
         <is>
-          <t>2015-01-18</t>
+          <t>2017-02-15</t>
         </is>
       </c>
       <c r="B5300" t="n">
-        <v>4062626.204</v>
+        <v>7448825.404</v>
       </c>
     </row>
     <row r="5301">
       <c r="A5301" t="inlineStr">
         <is>
-          <t>2011-09-27</t>
+          <t>2015-01-18</t>
         </is>
       </c>
       <c r="B5301" t="n">
-        <v>744327.885</v>
+        <v>4062626.204</v>
       </c>
     </row>
     <row r="5302">
       <c r="A5302" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2011-09-27</t>
         </is>
       </c>
       <c r="B5302" t="n">
-        <v>18754649.599</v>
+        <v>744327.885</v>
       </c>
     </row>
     <row r="5303">
       <c r="A5303" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B5303" t="n">
-        <v>18648006.799</v>
+        <v>18754649.599</v>
       </c>
     </row>
     <row r="5304">
       <c r="A5304" t="inlineStr">
         <is>
-          <t>2017-08-24</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B5304" t="n">
-        <v>19382954.778</v>
+        <v>18648006.799</v>
       </c>
     </row>
     <row r="5305">
       <c r="A5305" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2017-08-24</t>
         </is>
       </c>
       <c r="B5305" t="n">
-        <v>8319527.642</v>
+        <v>19382954.778</v>
       </c>
     </row>
     <row r="5306">
       <c r="A5306" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B5306" t="n">
-        <v>10152904.599</v>
+        <v>8319527.642</v>
       </c>
     </row>
     <row r="5307">
       <c r="A5307" t="inlineStr">
         <is>
-          <t>2014-02-26</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="B5307" t="n">
-        <v>4892785.663</v>
+        <v>10152904.599</v>
       </c>
     </row>
     <row r="5308">
       <c r="A5308" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2014-02-26</t>
         </is>
       </c>
       <c r="B5308" t="n">
-        <v>15630701.474</v>
+        <v>4892785.663</v>
       </c>
     </row>
     <row r="5309">
       <c r="A5309" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B5309" t="n">
-        <v>11711443.8</v>
+        <v>15630701.474</v>
       </c>
     </row>
     <row r="5310">
       <c r="A5310" t="inlineStr">
         <is>
-          <t>2017-03-06</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B5310" t="n">
-        <v>7818647.054</v>
+        <v>11711443.8</v>
       </c>
     </row>
     <row r="5311">
       <c r="A5311" t="inlineStr">
         <is>
-          <t>2015-01-26</t>
+          <t>2017-03-06</t>
         </is>
       </c>
       <c r="B5311" t="n">
-        <v>4227141.883</v>
+        <v>7818647.054</v>
       </c>
     </row>
     <row r="5312">
       <c r="A5312" t="inlineStr">
         <is>
-          <t>2011-10-11</t>
+          <t>2015-01-26</t>
         </is>
       </c>
       <c r="B5312" t="n">
-        <v>733876.334</v>
+        <v>4227141.883</v>
       </c>
     </row>
     <row r="5313">
       <c r="A5313" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2011-10-11</t>
         </is>
       </c>
       <c r="B5313" t="n">
-        <v>11437944.275</v>
+        <v>733876.334</v>
       </c>
     </row>
     <row r="5314">
       <c r="A5314" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B5314" t="n">
-        <v>8278468.575</v>
+        <v>11437944.275</v>
       </c>
     </row>
     <row r="5315">
       <c r="A5315" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B5315" t="n">
-        <v>8620307.16</v>
+        <v>8278468.575</v>
       </c>
     </row>
     <row r="5316">
       <c r="A5316" t="inlineStr">
         <is>
-          <t>2014-03-15</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="B5316" t="n">
-        <v>6519122.467</v>
+        <v>8620307.16</v>
       </c>
     </row>
     <row r="5317">
       <c r="A5317" t="inlineStr">
         <is>
-          <t>2017-03-12</t>
+          <t>2014-03-15</t>
         </is>
       </c>
       <c r="B5317" t="n">
-        <v>8015167.541</v>
+        <v>6519122.467</v>
       </c>
     </row>
     <row r="5318">
       <c r="A5318" t="inlineStr">
         <is>
-          <t>2015-02-02</t>
+          <t>2017-03-12</t>
         </is>
       </c>
       <c r="B5318" t="n">
-        <v>4214903.008</v>
+        <v>8015167.541</v>
       </c>
     </row>
     <row r="5319">
       <c r="A5319" t="inlineStr">
         <is>
-          <t>2011-10-28</t>
+          <t>2015-02-02</t>
         </is>
       </c>
       <c r="B5319" t="n">
-        <v>735721.417</v>
+        <v>4214903.008</v>
       </c>
     </row>
     <row r="5320">
       <c r="A5320" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="B5320" t="n">
-        <v>18201448.889</v>
+        <v>735721.417</v>
       </c>
     </row>
     <row r="5321">
       <c r="A5321" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B5321" t="n">
-        <v>12856671.682</v>
+        <v>18201448.889</v>
       </c>
     </row>
     <row r="5322">
       <c r="A5322" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B5322" t="n">
-        <v>7919062.632</v>
+        <v>12856671.682</v>
       </c>
     </row>
     <row r="5323">
       <c r="A5323" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B5323" t="n">
-        <v>9519524.592</v>
+        <v>7919062.632</v>
       </c>
     </row>
     <row r="5324">
       <c r="A5324" t="inlineStr">
         <is>
-          <t>2014-03-18</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="B5324" t="n">
-        <v>6370558.748</v>
+        <v>9519524.592</v>
       </c>
     </row>
     <row r="5325">
       <c r="A5325" t="inlineStr">
         <is>
-          <t>2017-03-21</t>
+          <t>2014-03-18</t>
         </is>
       </c>
       <c r="B5325" t="n">
-        <v>8412562.749</v>
+        <v>6370558.748</v>
       </c>
     </row>
     <row r="5326">
       <c r="A5326" t="inlineStr">
         <is>
-          <t>2015-02-09</t>
+          <t>2017-03-21</t>
         </is>
       </c>
       <c r="B5326" t="n">
-        <v>4096290.662</v>
+        <v>8412562.749</v>
       </c>
     </row>
     <row r="5327">
       <c r="A5327" t="inlineStr">
         <is>
-          <t>2011-10-31</t>
+          <t>2015-02-09</t>
         </is>
       </c>
       <c r="B5327" t="n">
-        <v>732160.326</v>
+        <v>4096290.662</v>
       </c>
     </row>
     <row r="5328">
       <c r="A5328" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2011-10-31</t>
         </is>
       </c>
       <c r="B5328" t="n">
-        <v>7287456.154</v>
+        <v>732160.326</v>
       </c>
     </row>
     <row r="5329">
       <c r="A5329" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B5329" t="n">
-        <v>9308642.501</v>
+        <v>7287456.154</v>
       </c>
     </row>
     <row r="5330">
       <c r="A5330" t="inlineStr">
         <is>
-          <t>2014-04-06</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="B5330" t="n">
-        <v>5505621.837</v>
+        <v>9308642.501</v>
       </c>
     </row>
     <row r="5331">
       <c r="A5331" t="inlineStr">
         <is>
-          <t>2017-04-09</t>
+          <t>2014-04-06</t>
         </is>
       </c>
       <c r="B5331" t="n">
-        <v>8810606.551000001</v>
+        <v>5505621.837</v>
       </c>
     </row>
     <row r="5332">
       <c r="A5332" t="inlineStr">
         <is>
-          <t>2015-03-02</t>
+          <t>2017-04-09</t>
         </is>
       </c>
       <c r="B5332" t="n">
-        <v>3933274.224</v>
+        <v>8810606.551000001</v>
       </c>
     </row>
     <row r="5333">
       <c r="A5333" t="inlineStr">
         <is>
-          <t>2011-11-14</t>
+          <t>2015-03-02</t>
         </is>
       </c>
       <c r="B5333" t="n">
-        <v>826121.591</v>
+        <v>3933274.224</v>
       </c>
     </row>
     <row r="5334">
       <c r="A5334" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2011-11-14</t>
         </is>
       </c>
       <c r="B5334" t="n">
-        <v>10333719.079</v>
+        <v>826121.591</v>
       </c>
     </row>
     <row r="5335">
       <c r="A5335" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B5335" t="n">
-        <v>6907432.252</v>
+        <v>10333719.079</v>
       </c>
     </row>
     <row r="5336">
       <c r="A5336" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B5336" t="n">
-        <v>9481051.257999999</v>
+        <v>6907432.252</v>
       </c>
     </row>
     <row r="5337">
       <c r="A5337" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="B5337" t="n">
-        <v>16829264.336</v>
+        <v>9481051.257999999</v>
       </c>
     </row>
     <row r="5338">
       <c r="A5338" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B5338" t="n">
-        <v>10843259.392</v>
+        <v>16829264.336</v>
       </c>
     </row>
     <row r="5339">
       <c r="A5339" t="inlineStr">
         <is>
-          <t>2014-04-27</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B5339" t="n">
-        <v>5438426.506</v>
+        <v>10843259.392</v>
       </c>
     </row>
     <row r="5340">
       <c r="A5340" t="inlineStr">
         <is>
-          <t>2015-03-09</t>
+          <t>2014-04-27</t>
         </is>
       </c>
       <c r="B5340" t="n">
-        <v>3900348.066</v>
+        <v>5438426.506</v>
       </c>
     </row>
     <row r="5341">
       <c r="A5341" t="inlineStr">
         <is>
-          <t>2011-11-16</t>
+          <t>2015-03-09</t>
         </is>
       </c>
       <c r="B5341" t="n">
-        <v>1048736.803</v>
+        <v>3900348.066</v>
       </c>
     </row>
     <row r="5342">
       <c r="A5342" t="inlineStr">
         <is>
-          <t>2017-04-20</t>
+          <t>2011-11-16</t>
         </is>
       </c>
       <c r="B5342" t="n">
-        <v>8967425.550000001</v>
+        <v>1048736.803</v>
       </c>
     </row>
     <row r="5343">
       <c r="A5343" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2017-04-20</t>
         </is>
       </c>
       <c r="B5343" t="n">
-        <v>12827728.942</v>
+        <v>8967425.550000001</v>
       </c>
     </row>
     <row r="5344">
       <c r="A5344" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B5344" t="n">
-        <v>6721984.554</v>
+        <v>12827728.942</v>
       </c>
     </row>
     <row r="5345">
       <c r="A5345" t="inlineStr">
         <is>
-          <t>2022-08-06</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="B5345" t="n">
-        <v>9532015.716</v>
+        <v>6721984.554</v>
       </c>
     </row>
     <row r="5346">
       <c r="A5346" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="B5346" t="n">
-        <v>16884075.838</v>
+        <v>9532015.716</v>
       </c>
     </row>
     <row r="5347">
       <c r="A5347" t="inlineStr">
         <is>
-          <t>2014-06-01</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B5347" t="n">
-        <v>4343530.167</v>
+        <v>16884075.838</v>
       </c>
     </row>
     <row r="5348">
       <c r="A5348" t="inlineStr">
         <is>
-          <t>2015-03-22</t>
+          <t>2014-06-01</t>
         </is>
       </c>
       <c r="B5348" t="n">
-        <v>4135797.457</v>
+        <v>4343530.167</v>
       </c>
     </row>
     <row r="5349">
       <c r="A5349" t="inlineStr">
         <is>
-          <t>2017-04-30</t>
+          <t>2015-03-22</t>
         </is>
       </c>
       <c r="B5349" t="n">
-        <v>8922467.217</v>
+        <v>4135797.457</v>
       </c>
     </row>
     <row r="5350">
       <c r="A5350" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2017-04-30</t>
         </is>
       </c>
       <c r="B5350" t="n">
-        <v>1086764.653</v>
+        <v>8922467.217</v>
       </c>
     </row>
     <row r="5351">
       <c r="A5351" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2011-11-19</t>
         </is>
       </c>
       <c r="B5351" t="n">
-        <v>13592327.934</v>
+        <v>1086764.653</v>
       </c>
     </row>
     <row r="5352">
       <c r="A5352" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B5352" t="n">
-        <v>18930025.11</v>
+        <v>13592327.934</v>
       </c>
     </row>
     <row r="5353">
       <c r="A5353" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="B5353" t="n">
-        <v>17480511.655</v>
+        <v>18930025.11</v>
       </c>
     </row>
     <row r="5354">
       <c r="A5354" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B5354" t="n">
-        <v>15295963.935</v>
+        <v>17480511.655</v>
       </c>
     </row>
     <row r="5355">
       <c r="A5355" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="B5355" t="n">
-        <v>5802826.225</v>
+        <v>15295963.935</v>
       </c>
     </row>
     <row r="5356">
       <c r="A5356" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="B5356" t="n">
-        <v>8363509.02</v>
+        <v>5802826.225</v>
       </c>
     </row>
     <row r="5357">
       <c r="A5357" t="inlineStr">
         <is>
-          <t>2014-06-28</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="B5357" t="n">
-        <v>2686947.84</v>
+        <v>8363509.02</v>
       </c>
     </row>
     <row r="5358">
       <c r="A5358" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2014-06-28</t>
         </is>
       </c>
       <c r="B5358" t="n">
-        <v>11641354.93</v>
+        <v>2686947.84</v>
       </c>
     </row>
     <row r="5359">
       <c r="A5359" t="inlineStr">
         <is>
-          <t>2017-05-17</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B5359" t="n">
-        <v>10300409.588</v>
+        <v>11641354.93</v>
       </c>
     </row>
     <row r="5360">
       <c r="A5360" t="inlineStr">
         <is>
-          <t>2015-03-29</t>
+          <t>2017-05-17</t>
         </is>
       </c>
       <c r="B5360" t="n">
-        <v>3988633.591</v>
+        <v>10300409.588</v>
       </c>
     </row>
     <row r="5361">
       <c r="A5361" t="inlineStr">
         <is>
-          <t>2011-12-03</t>
+          <t>2015-03-29</t>
         </is>
       </c>
       <c r="B5361" t="n">
-        <v>1095387.925</v>
+        <v>3988633.591</v>
       </c>
     </row>
     <row r="5362">
       <c r="A5362" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2011-12-03</t>
         </is>
       </c>
       <c r="B5362" t="n">
-        <v>17359924.278</v>
+        <v>1095387.925</v>
       </c>
     </row>
     <row r="5363">
       <c r="A5363" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="B5363" t="n">
-        <v>16833334.95</v>
+        <v>17359924.278</v>
       </c>
     </row>
     <row r="5364">
       <c r="A5364" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B5364" t="n">
-        <v>10236215.389</v>
+        <v>16833334.95</v>
       </c>
     </row>
     <row r="5365">
       <c r="A5365" t="inlineStr">
         <is>
-          <t>2017-06-01</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B5365" t="n">
-        <v>11531744.112</v>
+        <v>10236215.389</v>
       </c>
     </row>
     <row r="5366">
       <c r="A5366" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2017-06-01</t>
         </is>
       </c>
       <c r="B5366" t="n">
-        <v>6065155.983</v>
+        <v>11531744.112</v>
       </c>
     </row>
     <row r="5367">
       <c r="A5367" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="B5367" t="n">
-        <v>8049967.714</v>
+        <v>6065155.983</v>
       </c>
     </row>
     <row r="5368">
       <c r="A5368" t="inlineStr">
         <is>
-          <t>2024-07-13</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="B5368" t="n">
-        <v>15731904.375</v>
+        <v>8049967.714</v>
       </c>
     </row>
     <row r="5369">
       <c r="A5369" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="B5369" t="n">
-        <v>2436383.016</v>
+        <v>15731904.375</v>
       </c>
     </row>
     <row r="5370">
       <c r="A5370" t="inlineStr">
         <is>
-          <t>2015-04-06</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="B5370" t="n">
-        <v>3694404.674</v>
+        <v>2436383.016</v>
       </c>
     </row>
     <row r="5371">
       <c r="A5371" t="inlineStr">
         <is>
-          <t>2011-12-17</t>
+          <t>2015-04-06</t>
         </is>
       </c>
       <c r="B5371" t="n">
-        <v>1066127.172</v>
+        <v>3694404.674</v>
       </c>
     </row>
     <row r="5372">
       <c r="A5372" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2011-12-17</t>
         </is>
       </c>
       <c r="B5372" t="n">
-        <v>19357870.444</v>
+        <v>1066127.172</v>
       </c>
     </row>
     <row r="5373">
       <c r="A5373" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B5373" t="n">
-        <v>9506750.107999999</v>
+        <v>19357870.444</v>
       </c>
     </row>
     <row r="5374">
       <c r="A5374" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="B5374" t="n">
-        <v>18249350.163</v>
+        <v>9506750.107999999</v>
       </c>
     </row>
     <row r="5375">
       <c r="A5375" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B5375" t="n">
-        <v>10121188.898</v>
+        <v>18249350.163</v>
       </c>
     </row>
     <row r="5376">
       <c r="A5376" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B5376" t="n">
-        <v>18172193.247</v>
+        <v>10121188.898</v>
       </c>
     </row>
     <row r="5377">
       <c r="A5377" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B5377" t="n">
-        <v>11873870.808</v>
+        <v>18172193.247</v>
       </c>
     </row>
     <row r="5378">
       <c r="A5378" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B5378" t="n">
-        <v>16905626.816</v>
+        <v>11873870.808</v>
       </c>
     </row>
     <row r="5379">
       <c r="A5379" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B5379" t="n">
-        <v>11511228.874</v>
+        <v>16905626.816</v>
       </c>
     </row>
     <row r="5380">
       <c r="A5380" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-05-03</t>
         </is>
       </c>
       <c r="B5380" t="n">
-        <v>18829096.598</v>
+        <v>11511228.874</v>
       </c>
     </row>
     <row r="5381">
       <c r="A5381" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B5381" t="n">
-        <v>11905850.214</v>
+        <v>18829096.598</v>
       </c>
     </row>
     <row r="5382">
       <c r="A5382" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="B5382" t="n">
-        <v>6820551.817</v>
+        <v>11905850.214</v>
       </c>
     </row>
     <row r="5383">
       <c r="A5383" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="B5383" t="n">
-        <v>6358468.879</v>
+        <v>6820551.817</v>
       </c>
     </row>
     <row r="5384">
       <c r="A5384" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="B5384" t="n">
-        <v>14873483.781</v>
+        <v>6358468.879</v>
       </c>
     </row>
     <row r="5385">
       <c r="A5385" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B5385" t="n">
-        <v>11867652.532</v>
+        <v>14873483.781</v>
       </c>
     </row>
     <row r="5386">
       <c r="A5386" t="inlineStr">
         <is>
-          <t>2014-08-06</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B5386" t="n">
-        <v>2826869.713</v>
+        <v>11867652.532</v>
       </c>
     </row>
     <row r="5387">
       <c r="A5387" t="inlineStr">
         <is>
-          <t>2015-04-12</t>
+          <t>2014-08-06</t>
         </is>
       </c>
       <c r="B5387" t="n">
-        <v>3600337.897</v>
+        <v>2826869.713</v>
       </c>
     </row>
     <row r="5388">
       <c r="A5388" t="inlineStr">
         <is>
-          <t>2012-01-03</t>
+          <t>2015-04-12</t>
         </is>
       </c>
       <c r="B5388" t="n">
-        <v>1178238.791</v>
+        <v>3600337.897</v>
       </c>
     </row>
     <row r="5389">
       <c r="A5389" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2012-01-03</t>
         </is>
       </c>
       <c r="B5389" t="n">
-        <v>12210206.289</v>
+        <v>1178238.791</v>
       </c>
     </row>
     <row r="5390">
       <c r="A5390" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B5390" t="n">
-        <v>18211536.318</v>
+        <v>12210206.289</v>
       </c>
     </row>
     <row r="5391">
       <c r="A5391" t="inlineStr">
         <is>
-          <t>2017-08-15</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>19566598.77</v>
+        <v>18211536.318</v>
       </c>
     </row>
     <row r="5392">
       <c r="A5392" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2017-08-15</t>
         </is>
       </c>
       <c r="B5392" t="n">
-        <v>6837460.05</v>
+        <v>19566598.77</v>
       </c>
     </row>
     <row r="5393">
       <c r="A5393" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="B5393" t="n">
-        <v>8536718.226</v>
+        <v>6837460.05</v>
       </c>
     </row>
     <row r="5394">
       <c r="A5394" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B5394" t="n">
-        <v>19772264.652</v>
+        <v>8536718.226</v>
       </c>
     </row>
     <row r="5395">
       <c r="A5395" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="B5395" t="n">
-        <v>16050259.512</v>
+        <v>19772264.652</v>
       </c>
     </row>
     <row r="5396">
       <c r="A5396" t="inlineStr">
         <is>
-          <t>2014-08-18</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B5396" t="n">
-        <v>2925697.333</v>
+        <v>16050259.512</v>
       </c>
     </row>
     <row r="5397">
       <c r="A5397" t="inlineStr">
         <is>
-          <t>2015-04-19</t>
+          <t>2014-08-18</t>
         </is>
       </c>
       <c r="B5397" t="n">
-        <v>3445407.103</v>
+        <v>2925697.333</v>
       </c>
     </row>
     <row r="5398">
       <c r="A5398" t="inlineStr">
         <is>
-          <t>2012-01-20</t>
+          <t>2015-04-19</t>
         </is>
       </c>
       <c r="B5398" t="n">
-        <v>1244736.785</v>
+        <v>3445407.103</v>
       </c>
     </row>
     <row r="5399">
       <c r="A5399" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2012-01-20</t>
         </is>
       </c>
       <c r="B5399" t="n">
-        <v>13510242.654</v>
+        <v>1244736.785</v>
       </c>
     </row>
     <row r="5400">
       <c r="A5400" t="inlineStr">
         <is>
-          <t>2017-08-28</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B5400" t="n">
-        <v>19422838.72</v>
+        <v>13510242.654</v>
       </c>
     </row>
     <row r="5401">
       <c r="A5401" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2017-08-28</t>
         </is>
       </c>
       <c r="B5401" t="n">
-        <v>11104807.404</v>
+        <v>19422838.72</v>
       </c>
     </row>
     <row r="5402">
       <c r="A5402" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="B5402" t="n">
-        <v>10451472.456</v>
+        <v>11104807.404</v>
       </c>
     </row>
     <row r="5403">
       <c r="A5403" t="inlineStr">
         <is>
-          <t>2014-09-13</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B5403" t="n">
-        <v>2524791.779</v>
+        <v>10451472.456</v>
       </c>
     </row>
     <row r="5404">
       <c r="A5404" t="inlineStr">
         <is>
-          <t>2015-04-25</t>
+          <t>2014-09-13</t>
         </is>
       </c>
       <c r="B5404" t="n">
-        <v>3352942.164</v>
+        <v>2524791.779</v>
       </c>
     </row>
     <row r="5405">
       <c r="A5405" t="inlineStr">
         <is>
-          <t>2012-01-21</t>
+          <t>2015-04-25</t>
         </is>
       </c>
       <c r="B5405" t="n">
-        <v>1246443.905</v>
+        <v>3352942.164</v>
       </c>
     </row>
     <row r="5406">
       <c r="A5406" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2012-01-21</t>
         </is>
       </c>
       <c r="B5406" t="n">
-        <v>14362928.781</v>
+        <v>1246443.905</v>
       </c>
     </row>
     <row r="5407">
       <c r="A5407" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B5407" t="n">
-        <v>20351324.136</v>
+        <v>14362928.781</v>
       </c>
     </row>
     <row r="5408">
       <c r="A5408" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B5408" t="n">
-        <v>13491078.904</v>
+        <v>20351324.136</v>
       </c>
     </row>
     <row r="5409">
       <c r="A5409" t="inlineStr">
         <is>
-          <t>2017-09-08</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B5409" t="n">
-        <v>19486335.788</v>
+        <v>13491078.904</v>
       </c>
     </row>
     <row r="5410">
       <c r="A5410" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2017-09-08</t>
         </is>
       </c>
       <c r="B5410" t="n">
-        <v>13156711.485</v>
+        <v>19486335.788</v>
       </c>
     </row>
     <row r="5411">
       <c r="A5411" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B5411" t="n">
-        <v>10510937.957</v>
+        <v>13156711.485</v>
       </c>
     </row>
     <row r="5412">
       <c r="A5412" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="B5412" t="n">
-        <v>15716836.044</v>
+        <v>10510937.957</v>
       </c>
     </row>
     <row r="5413">
       <c r="A5413" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-07-21</t>
         </is>
       </c>
       <c r="B5413" t="n">
-        <v>19939698.057</v>
+        <v>15716836.044</v>
       </c>
     </row>
     <row r="5414">
       <c r="A5414" t="inlineStr">
         <is>
-          <t>2014-10-02</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B5414" t="n">
-        <v>2628371.334</v>
+        <v>19939698.057</v>
       </c>
     </row>
     <row r="5415">
       <c r="A5415" t="inlineStr">
         <is>
-          <t>2015-05-20</t>
+          <t>2014-10-02</t>
         </is>
       </c>
       <c r="B5415" t="n">
-        <v>3177021.142</v>
+        <v>2628371.334</v>
       </c>
     </row>
     <row r="5416">
       <c r="A5416" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2015-05-20</t>
         </is>
       </c>
       <c r="B5416" t="n">
-        <v>14103054.216</v>
+        <v>3177021.142</v>
       </c>
     </row>
     <row r="5417">
       <c r="A5417" t="inlineStr">
         <is>
-          <t>2012-01-26</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B5417" t="n">
-        <v>1264128.557</v>
+        <v>14103054.216</v>
       </c>
     </row>
     <row r="5418">
       <c r="A5418" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2012-01-26</t>
         </is>
       </c>
       <c r="B5418" t="n">
-        <v>10152643.862</v>
+        <v>1264128.557</v>
       </c>
     </row>
     <row r="5419">
       <c r="A5419" t="inlineStr">
         <is>
-          <t>2017-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="B5419" t="n">
-        <v>18137220.352</v>
+        <v>10152643.862</v>
       </c>
     </row>
     <row r="5420">
       <c r="A5420" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2017-09-23</t>
         </is>
       </c>
       <c r="B5420" t="n">
-        <v>18779023.107</v>
+        <v>18137220.352</v>
       </c>
     </row>
     <row r="5421">
       <c r="A5421" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="B5421" t="n">
-        <v>10615483.231</v>
+        <v>18779023.107</v>
       </c>
     </row>
     <row r="5422">
       <c r="A5422" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="B5422" t="n">
-        <v>15795124.861</v>
+        <v>10615483.231</v>
       </c>
     </row>
     <row r="5423">
       <c r="A5423" t="inlineStr">
         <is>
-          <t>2014-10-23</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B5423" t="n">
-        <v>3053937.556</v>
+        <v>15795124.861</v>
       </c>
     </row>
     <row r="5424">
       <c r="A5424" t="inlineStr">
         <is>
-          <t>2015-05-27</t>
+          <t>2014-10-23</t>
         </is>
       </c>
       <c r="B5424" t="n">
-        <v>2974495.006</v>
+        <v>3053937.556</v>
       </c>
     </row>
     <row r="5425">
       <c r="A5425" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2015-05-27</t>
         </is>
       </c>
       <c r="B5425" t="n">
-        <v>1068036.951</v>
+        <v>2974495.006</v>
       </c>
     </row>
     <row r="5426">
       <c r="A5426" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="B5426" t="n">
-        <v>12796519.886</v>
+        <v>1068036.951</v>
       </c>
     </row>
     <row r="5427">
       <c r="A5427" t="inlineStr">
         <is>
-          <t>2017-10-09</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B5427" t="n">
-        <v>19407598.446</v>
+        <v>12796519.886</v>
       </c>
     </row>
     <row r="5428">
       <c r="A5428" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2017-10-09</t>
         </is>
       </c>
       <c r="B5428" t="n">
-        <v>20455744.669</v>
+        <v>19407598.446</v>
       </c>
     </row>
     <row r="5429">
       <c r="A5429" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="B5429" t="n">
-        <v>11376341.238</v>
+        <v>20455744.669</v>
       </c>
     </row>
     <row r="5430">
       <c r="A5430" t="inlineStr">
         <is>
-          <t>2014-11-01</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="B5430" t="n">
-        <v>3044004.834</v>
+        <v>11376341.238</v>
       </c>
     </row>
     <row r="5431">
       <c r="A5431" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2014-11-01</t>
         </is>
       </c>
       <c r="B5431" t="n">
-        <v>2765454.564</v>
+        <v>3044004.834</v>
       </c>
     </row>
     <row r="5432">
       <c r="A5432" t="inlineStr">
         <is>
-          <t>2012-04-02</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="B5432" t="n">
-        <v>1066217.337</v>
+        <v>2765454.564</v>
       </c>
     </row>
     <row r="5433">
       <c r="A5433" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2012-04-02</t>
         </is>
       </c>
       <c r="B5433" t="n">
-        <v>13432763.242</v>
+        <v>1066217.337</v>
       </c>
     </row>
     <row r="5434">
       <c r="A5434" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B5434" t="n">
-        <v>14589767.49</v>
+        <v>13432763.242</v>
       </c>
     </row>
     <row r="5435">
       <c r="A5435" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B5435" t="n">
-        <v>19306849.276</v>
+        <v>14589767.49</v>
       </c>
     </row>
     <row r="5436">
       <c r="A5436" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="B5436" t="n">
-        <v>17904427.701</v>
+        <v>19306849.276</v>
       </c>
     </row>
     <row r="5437">
       <c r="A5437" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="B5437" t="n">
-        <v>11260943.27</v>
+        <v>17904427.701</v>
       </c>
     </row>
     <row r="5438">
       <c r="A5438" t="inlineStr">
         <is>
-          <t>2014-11-19</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="B5438" t="n">
-        <v>3019744.611</v>
+        <v>11260943.27</v>
       </c>
     </row>
     <row r="5439">
       <c r="A5439" t="inlineStr">
         <is>
-          <t>2015-06-09</t>
+          <t>2014-11-19</t>
         </is>
       </c>
       <c r="B5439" t="n">
-        <v>2361717.899</v>
+        <v>3019744.611</v>
       </c>
     </row>
     <row r="5440">
       <c r="A5440" t="inlineStr">
         <is>
-          <t>2012-04-18</t>
+          <t>2015-06-09</t>
         </is>
       </c>
       <c r="B5440" t="n">
-        <v>1080512.495</v>
+        <v>2361717.899</v>
       </c>
     </row>
     <row r="5441">
       <c r="A5441" t="inlineStr">
         <is>
-          <t>2017-11-16</t>
+          <t>2012-04-18</t>
         </is>
       </c>
       <c r="B5441" t="n">
-        <v>15794441.353</v>
+        <v>1080512.495</v>
       </c>
     </row>
     <row r="5442">
       <c r="A5442" t="inlineStr">
         <is>
-          <t>2021-02-12</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="B5442" t="n">
-        <v>18047843.242</v>
+        <v>15794441.353</v>
       </c>
     </row>
     <row r="5443">
       <c r="A5443" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2021-02-12</t>
         </is>
       </c>
       <c r="B5443" t="n">
-        <v>7804497.859</v>
+        <v>18047843.242</v>
       </c>
     </row>
     <row r="5444">
       <c r="A5444" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="B5444" t="n">
-        <v>9877779.377</v>
+        <v>7804497.859</v>
       </c>
     </row>
     <row r="5445">
       <c r="A5445" t="inlineStr">
         <is>
-          <t>2014-12-05</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B5445" t="n">
-        <v>3374566.02</v>
+        <v>9877779.377</v>
       </c>
     </row>
     <row r="5446">
       <c r="A5446" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2014-12-05</t>
         </is>
       </c>
       <c r="B5446" t="n">
-        <v>2394815.633</v>
+        <v>3374566.02</v>
       </c>
     </row>
     <row r="5447">
       <c r="A5447" t="inlineStr">
         <is>
-          <t>2012-05-04</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="B5447" t="n">
-        <v>1211448.82</v>
+        <v>2394815.633</v>
       </c>
     </row>
     <row r="5448">
       <c r="A5448" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2012-05-04</t>
         </is>
       </c>
       <c r="B5448" t="n">
-        <v>9388382.575999999</v>
+        <v>1211448.82</v>
       </c>
     </row>
     <row r="5449">
       <c r="A5449" t="inlineStr">
         <is>
-          <t>2017-11-30</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B5449" t="n">
-        <v>15739620.059</v>
+        <v>9388382.575999999</v>
       </c>
     </row>
     <row r="5450">
       <c r="A5450" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2017-11-30</t>
         </is>
       </c>
       <c r="B5450" t="n">
-        <v>17461848.264</v>
+        <v>15739620.059</v>
       </c>
     </row>
     <row r="5451">
       <c r="A5451" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="B5451" t="n">
-        <v>7349744.434</v>
+        <v>17461848.264</v>
       </c>
     </row>
     <row r="5452">
       <c r="A5452" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2023-05-02</t>
         </is>
       </c>
       <c r="B5452" t="n">
-        <v>15621689.103</v>
+        <v>7349744.434</v>
       </c>
     </row>
     <row r="5453">
       <c r="A5453" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>11149234.035</v>
+        <v>15621689.103</v>
       </c>
     </row>
     <row r="5454">
       <c r="A5454" t="inlineStr">
         <is>
-          <t>2014-12-24</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>3749367.14</v>
+        <v>11149234.035</v>
       </c>
     </row>
     <row r="5455">
       <c r="A5455" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2014-12-24</t>
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>18799096.649</v>
+        <v>3749367.14</v>
       </c>
     </row>
     <row r="5456">
       <c r="A5456" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>2573704.983</v>
+        <v>18799096.649</v>
       </c>
     </row>
     <row r="5457">
       <c r="A5457" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
+          <t>2015-06-23</t>
         </is>
       </c>
       <c r="B5457" t="n">
-        <v>1258763.689</v>
+        <v>2573704.983</v>
       </c>
     </row>
     <row r="5458">
       <c r="A5458" t="inlineStr">
         <is>
-          <t>2017-12-01</t>
+          <t>2012-05-21</t>
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>15786676.067</v>
+        <v>1258763.689</v>
       </c>
     </row>
     <row r="5459">
       <c r="A5459" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2017-12-01</t>
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>15009732.42</v>
+        <v>15786676.067</v>
       </c>
     </row>
     <row r="5460">
       <c r="A5460" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>8127301.046</v>
+        <v>15009732.42</v>
       </c>
     </row>
     <row r="5461">
       <c r="A5461" t="inlineStr">
         <is>
-          <t>2015-01-11</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>3848375.44</v>
+        <v>8127301.046</v>
       </c>
     </row>
     <row r="5462">
       <c r="A5462" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-01-11</t>
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>2511092.261</v>
+        <v>3848375.44</v>
       </c>
     </row>
     <row r="5463">
       <c r="A5463" t="inlineStr">
         <is>
-          <t>2012-06-06</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>1365675.341</v>
+        <v>2511092.261</v>
       </c>
     </row>
     <row r="5464">
       <c r="A5464" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2012-06-06</t>
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>18209088.114</v>
+        <v>1365675.341</v>
       </c>
     </row>
     <row r="5465">
       <c r="A5465" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>14446234.788</v>
+        <v>18209088.114</v>
       </c>
     </row>
     <row r="5466">
       <c r="A5466" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>17645156.999</v>
+        <v>14446234.788</v>
       </c>
     </row>
     <row r="5467">
       <c r="A5467" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="B5467" t="n">
-        <v>13264526.584</v>
+        <v>17645156.999</v>
       </c>
     </row>
     <row r="5468">
       <c r="A5468" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B5468" t="n">
-        <v>8486747.433</v>
+        <v>13264526.584</v>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B5469" t="n">
-        <v>4046018.483</v>
+        <v>8486747.433</v>
       </c>
     </row>
     <row r="5470">
       <c r="A5470" t="inlineStr">
         <is>
-          <t>2015-07-09</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>2718554.466</v>
+        <v>4046018.483</v>
       </c>
     </row>
     <row r="5471">
       <c r="A5471" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2015-07-09</t>
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>1367243.39</v>
+        <v>2718554.466</v>
       </c>
     </row>
     <row r="5472">
       <c r="A5472" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2012-06-18</t>
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>9114476.312000001</v>
+        <v>1367243.39</v>
       </c>
     </row>
     <row r="5473">
       <c r="A5473" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>15346852.871</v>
+        <v>9114476.312000001</v>
       </c>
     </row>
     <row r="5474">
       <c r="A5474" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>14010038.153</v>
+        <v>15346852.871</v>
       </c>
     </row>
     <row r="5475">
       <c r="A5475" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>12870879.477</v>
+        <v>14010038.153</v>
       </c>
     </row>
     <row r="5476">
       <c r="A5476" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>17780525.245</v>
+        <v>12870879.477</v>
       </c>
     </row>
     <row r="5477">
       <c r="A5477" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>13194431.726</v>
+        <v>17780525.245</v>
       </c>
     </row>
     <row r="5478">
       <c r="A5478" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>8346328.634</v>
+        <v>13194431.726</v>
       </c>
     </row>
     <row r="5479">
       <c r="A5479" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>16236706.926</v>
+        <v>8346328.634</v>
       </c>
     </row>
     <row r="5480">
       <c r="A5480" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>16585261.576</v>
+        <v>16236706.926</v>
       </c>
     </row>
     <row r="5481">
       <c r="A5481" t="inlineStr">
         <is>
-          <t>2015-02-10</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>4071380.974</v>
+        <v>16585261.576</v>
       </c>
     </row>
     <row r="5482">
       <c r="A5482" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>2793932.294</v>
+        <v>4071380.974</v>
       </c>
     </row>
     <row r="5483">
       <c r="A5483" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B5483" t="n">
-        <v>1363857.943</v>
+        <v>2793932.294</v>
       </c>
     </row>
     <row r="5484">
       <c r="A5484" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2012-06-28</t>
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>18882222.042</v>
+        <v>1363857.943</v>
       </c>
     </row>
     <row r="5485">
       <c r="A5485" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>17968690.541</v>
+        <v>18882222.042</v>
       </c>
     </row>
     <row r="5486">
       <c r="A5486" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>9386582.370999999</v>
+        <v>17968690.541</v>
       </c>
     </row>
     <row r="5487">
       <c r="A5487" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>17890389.899</v>
+        <v>9386582.370999999</v>
       </c>
     </row>
     <row r="5488">
       <c r="A5488" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>12015164.279</v>
+        <v>17890389.899</v>
       </c>
     </row>
     <row r="5489">
       <c r="A5489" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>7902657.124</v>
+        <v>12015164.279</v>
       </c>
     </row>
     <row r="5490">
       <c r="A5490" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>10503343.65</v>
+        <v>7902657.124</v>
       </c>
     </row>
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2015-02-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>3819509.271</v>
+        <v>10503343.65</v>
       </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2015-07-24</t>
+          <t>2015-02-26</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>2826416.003</v>
+        <v>3819509.271</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2012-07-21</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>1630324.679</v>
+        <v>2826416.003</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2012-07-21</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>10658742.561</v>
+        <v>1630324.679</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>14252744.065</v>
+        <v>10658742.561</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>18727823.649</v>
+        <v>14252744.065</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>17224052.503</v>
+        <v>18727823.649</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>10673931.348</v>
+        <v>17224052.503</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2015-03-25</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>3979751.142</v>
+        <v>10673931.348</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-03-25</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>3642872.298</v>
+        <v>3979751.142</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>1613219.441</v>
+        <v>3642872.298</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2012-08-07</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>18746833.543</v>
+        <v>1613219.441</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>14696488.122</v>
+        <v>18746833.543</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>18803774.412</v>
+        <v>14696488.122</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>13074131.781</v>
+        <v>18803774.412</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2018-02-07</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>18108889.119</v>
+        <v>13074131.781</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2018-02-07</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>10600975.162</v>
+        <v>18108889.119</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>3489354.733</v>
+        <v>10600975.162</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2015-10-20</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>3660667.082</v>
+        <v>3489354.733</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2010-11-29</t>
+          <t>2015-10-20</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>316907.127</v>
+        <v>3660667.082</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2012-08-23</t>
+          <t>2010-11-29</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>1760535.998</v>
+        <v>316907.127</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2012-08-23</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>19760413.223</v>
+        <v>1760535.998</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2018-02-17</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>15296257.118</v>
+        <v>19760413.223</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2018-02-17</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>10677343.165</v>
+        <v>15296257.118</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>12841467.318</v>
+        <v>10677343.165</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2015-05-16</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>3205484.527</v>
+        <v>12841467.318</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2015-11-19</t>
+          <t>2015-05-16</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>4648212.458</v>
+        <v>3205484.527</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2012-09-08</t>
+          <t>2015-11-19</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>1873037.142</v>
+        <v>4648212.458</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2012-09-08</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>19272529.034</v>
+        <v>1873037.142</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2018-03-09</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>13193422.783</v>
+        <v>19272529.034</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2018-03-09</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>8610177.493000001</v>
+        <v>13193422.783</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>12225489.867</v>
+        <v>8610177.493000001</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5523" t="n">
-        <v>2985205.142</v>
+        <v>12225489.867</v>
       </c>
     </row>
     <row r="5524">
       <c r="A5524" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="B5524" t="n">
-        <v>4603582.061</v>
+        <v>2985205.142</v>
       </c>
     </row>
     <row r="5525">
       <c r="A5525" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="B5525" t="n">
-        <v>2093652.744</v>
+        <v>4603582.061</v>
       </c>
     </row>
     <row r="5526">
       <c r="A5526" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2012-09-24</t>
         </is>
       </c>
       <c r="B5526" t="n">
-        <v>11477197.525</v>
+        <v>2093652.744</v>
       </c>
     </row>
     <row r="5527">
       <c r="A5527" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B5527" t="n">
-        <v>19496972.836</v>
+        <v>11477197.525</v>
       </c>
     </row>
     <row r="5528">
       <c r="A5528" t="inlineStr">
         <is>
-          <t>2018-03-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B5528" t="n">
-        <v>10566019.663</v>
+        <v>19496972.836</v>
       </c>
     </row>
     <row r="5529">
       <c r="A5529" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2018-03-28</t>
         </is>
       </c>
       <c r="B5529" t="n">
-        <v>8609734.759</v>
+        <v>10566019.663</v>
       </c>
     </row>
     <row r="5530">
       <c r="A5530" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="B5530" t="n">
-        <v>18616838.388</v>
+        <v>8609734.759</v>
       </c>
     </row>
     <row r="5531">
       <c r="A5531" t="inlineStr">
         <is>
-          <t>2015-06-12</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5531" t="n">
-        <v>2392944.256</v>
+        <v>18616838.388</v>
       </c>
     </row>
     <row r="5532">
       <c r="A5532" t="inlineStr">
         <is>
-          <t>2015-12-18</t>
+          <t>2015-06-12</t>
         </is>
       </c>
       <c r="B5532" t="n">
-        <v>4964683.773</v>
+        <v>2392944.256</v>
       </c>
     </row>
     <row r="5533">
       <c r="A5533" t="inlineStr">
         <is>
-          <t>2012-10-10</t>
+          <t>2015-12-18</t>
         </is>
       </c>
       <c r="B5533" t="n">
-        <v>2162784.464</v>
+        <v>4964683.773</v>
       </c>
     </row>
     <row r="5534">
       <c r="A5534" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2012-10-10</t>
         </is>
       </c>
       <c r="B5534" t="n">
-        <v>8046257.588</v>
+        <v>2162784.464</v>
       </c>
     </row>
     <row r="5535">
       <c r="A5535" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2018-04-18</t>
         </is>
       </c>
       <c r="B5535" t="n">
-        <v>8443126.151000001</v>
+        <v>8046257.588</v>
       </c>
     </row>
     <row r="5536">
       <c r="A5536" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="B5536" t="n">
-        <v>8386250.008</v>
+        <v>8443126.151000001</v>
       </c>
     </row>
     <row r="5537">
       <c r="A5537" t="inlineStr">
         <is>
-          <t>2015-07-04</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B5537" t="n">
-        <v>2565551.236</v>
+        <v>8386250.008</v>
       </c>
     </row>
     <row r="5538">
       <c r="A5538" t="inlineStr">
         <is>
-          <t>2016-04-20</t>
+          <t>2015-07-04</t>
         </is>
       </c>
       <c r="B5538" t="n">
-        <v>6127123.106</v>
+        <v>2565551.236</v>
       </c>
     </row>
     <row r="5539">
       <c r="A5539" t="inlineStr">
         <is>
-          <t>2012-10-27</t>
+          <t>2016-04-20</t>
         </is>
       </c>
       <c r="B5539" t="n">
-        <v>2157212.824</v>
+        <v>6127123.106</v>
       </c>
     </row>
     <row r="5540">
       <c r="A5540" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2012-10-27</t>
         </is>
       </c>
       <c r="B5540" t="n">
-        <v>11978202.448</v>
+        <v>2157212.824</v>
       </c>
     </row>
     <row r="5541">
       <c r="A5541" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B5541" t="n">
-        <v>15303734.889</v>
+        <v>11978202.448</v>
       </c>
     </row>
     <row r="5542">
       <c r="A5542" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B5542" t="n">
-        <v>8103908.652</v>
+        <v>15303734.889</v>
       </c>
     </row>
     <row r="5543">
       <c r="A5543" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="B5543" t="n">
-        <v>9382181.960999999</v>
+        <v>8103908.652</v>
       </c>
     </row>
     <row r="5544">
       <c r="A5544" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B5544" t="n">
-        <v>16784620.262</v>
+        <v>9382181.960999999</v>
       </c>
     </row>
     <row r="5545">
       <c r="A5545" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B5545" t="n">
-        <v>16833063.951</v>
+        <v>16784620.262</v>
       </c>
     </row>
     <row r="5546">
       <c r="A5546" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="B5546" t="n">
-        <v>17049245.734</v>
+        <v>16833063.951</v>
       </c>
     </row>
     <row r="5547">
       <c r="A5547" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="B5547" t="n">
-        <v>17115867.282</v>
+        <v>17049245.734</v>
       </c>
     </row>
     <row r="5548">
       <c r="A5548" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B5548" t="n">
-        <v>17153769.299</v>
+        <v>17115867.282</v>
       </c>
     </row>
     <row r="5549">
       <c r="A5549" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B5549" t="n">
-        <v>17225229.436</v>
+        <v>17153769.299</v>
       </c>
     </row>
     <row r="5550">
       <c r="A5550" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B5550" t="n">
-        <v>17249482.25</v>
+        <v>17225229.436</v>
       </c>
     </row>
     <row r="5551">
       <c r="A5551" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B5551" t="n">
-        <v>17569350.656</v>
+        <v>17249482.25</v>
       </c>
     </row>
     <row r="5552">
       <c r="A5552" t="inlineStr">
         <is>
-          <t>2015-08-03</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B5552" t="n">
-        <v>2859270.317</v>
+        <v>17569350.656</v>
       </c>
     </row>
     <row r="5553">
       <c r="A5553" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-08-03</t>
         </is>
       </c>
       <c r="B5553" t="n">
-        <v>5532498.781</v>
+        <v>2859270.317</v>
       </c>
     </row>
     <row r="5554">
       <c r="A5554" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="B5554" t="n">
-        <v>2138609.994</v>
+        <v>5532498.781</v>
       </c>
     </row>
     <row r="5555">
       <c r="A5555" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2012-11-12</t>
         </is>
       </c>
       <c r="B5555" t="n">
-        <v>12895454.923</v>
+        <v>2138609.994</v>
       </c>
     </row>
     <row r="5556">
       <c r="A5556" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5556" t="n">
+        <v>12895454.923</v>
+      </c>
+    </row>
+    <row r="5557">
+      <c r="A5557" t="inlineStr">
+        <is>
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B5556" t="n">
+      <c r="B5557" t="n">
         <v>11691372.317</v>
       </c>
     </row>

--- a/data_cripto/btc_cdd.xlsx
+++ b/data_cripto/btc_cdd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5560"/>
+  <dimension ref="A1:B5562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44736,131 +44736,131 @@
     <row r="4431">
       <c r="A4431" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="B4431" t="n">
-        <v>17861906.92</v>
+        <v>14853165.941</v>
       </c>
     </row>
     <row r="4432">
       <c r="A4432" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="B4432" t="n">
-        <v>18333062.811</v>
+        <v>17861906.92</v>
       </c>
     </row>
     <row r="4433">
       <c r="A4433" t="inlineStr">
         <is>
-          <t>2025-08-21</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="B4433" t="n">
-        <v>17981936.48</v>
+        <v>18333062.811</v>
       </c>
     </row>
     <row r="4434">
       <c r="A4434" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B4434" t="n">
-        <v>16737378.127</v>
+        <v>17981936.48</v>
       </c>
     </row>
     <row r="4435">
       <c r="A4435" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="B4435" t="n">
-        <v>18461118.404</v>
+        <v>16737378.127</v>
       </c>
     </row>
     <row r="4436">
       <c r="A4436" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B4436" t="n">
-        <v>10222545.477</v>
+        <v>18461118.404</v>
       </c>
     </row>
     <row r="4437">
       <c r="A4437" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="B4437" t="n">
-        <v>9880189.821</v>
+        <v>10222545.477</v>
       </c>
     </row>
     <row r="4438">
       <c r="A4438" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="B4438" t="n">
-        <v>17897593.567</v>
+        <v>9880189.821</v>
       </c>
     </row>
     <row r="4439">
       <c r="A4439" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="B4439" t="n">
-        <v>16797536.115</v>
+        <v>17897593.567</v>
       </c>
     </row>
     <row r="4440">
       <c r="A4440" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B4440" t="n">
-        <v>18432432.638</v>
+        <v>16797536.115</v>
       </c>
     </row>
     <row r="4441">
       <c r="A4441" t="inlineStr">
         <is>
-          <t>2025-08-23</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B4441" t="n">
-        <v>18108112.096</v>
+        <v>18432432.638</v>
       </c>
     </row>
     <row r="4442">
       <c r="A4442" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-08-23</t>
         </is>
       </c>
       <c r="B4442" t="n">
-        <v>14036807.952</v>
+        <v>18108112.096</v>
       </c>
     </row>
     <row r="4443">
       <c r="A4443" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B4443" t="n">
-        <v>14853165.941</v>
+        <v>14036807.952</v>
       </c>
     </row>
     <row r="4444">
@@ -48036,141 +48036,141 @@
     <row r="4761">
       <c r="A4761" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="B4761" t="n">
-        <v>12722932.507</v>
+        <v>14785600.127</v>
       </c>
     </row>
     <row r="4762">
       <c r="A4762" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B4762" t="n">
-        <v>11938735.729</v>
+        <v>12722932.507</v>
       </c>
     </row>
     <row r="4763">
       <c r="A4763" t="inlineStr">
         <is>
-          <t>2020-03-19</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B4763" t="n">
-        <v>8271659.275</v>
+        <v>11938735.729</v>
       </c>
     </row>
     <row r="4764">
       <c r="A4764" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2020-03-19</t>
         </is>
       </c>
       <c r="B4764" t="n">
-        <v>9507766.615</v>
+        <v>8271659.275</v>
       </c>
     </row>
     <row r="4765">
       <c r="A4765" t="inlineStr">
         <is>
-          <t>2022-07-21</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="B4765" t="n">
-        <v>9809232.718</v>
+        <v>9507766.615</v>
       </c>
     </row>
     <row r="4766">
       <c r="A4766" t="inlineStr">
         <is>
-          <t>2023-03-11</t>
+          <t>2022-07-21</t>
         </is>
       </c>
       <c r="B4766" t="n">
-        <v>7126453.134</v>
+        <v>9809232.718</v>
       </c>
     </row>
     <row r="4767">
       <c r="A4767" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-11</t>
         </is>
       </c>
       <c r="B4767" t="n">
-        <v>7108260.131</v>
+        <v>7126453.134</v>
       </c>
     </row>
     <row r="4768">
       <c r="A4768" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="B4768" t="n">
-        <v>7299061.636</v>
+        <v>7108260.131</v>
       </c>
     </row>
     <row r="4769">
       <c r="A4769" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="B4769" t="n">
-        <v>6587399.075</v>
+        <v>7299061.636</v>
       </c>
     </row>
     <row r="4770">
       <c r="A4770" t="inlineStr">
         <is>
-          <t>2017-03-10</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="B4770" t="n">
-        <v>7995034.514</v>
+        <v>6587399.075</v>
       </c>
     </row>
     <row r="4771">
       <c r="A4771" t="inlineStr">
         <is>
-          <t>2014-09-29</t>
+          <t>2017-03-10</t>
         </is>
       </c>
       <c r="B4771" t="n">
-        <v>2634285.285</v>
+        <v>7995034.514</v>
       </c>
     </row>
     <row r="4772">
       <c r="A4772" t="inlineStr">
         <is>
-          <t>2012-05-05</t>
+          <t>2014-09-29</t>
         </is>
       </c>
       <c r="B4772" t="n">
-        <v>1212234.197</v>
+        <v>2634285.285</v>
       </c>
     </row>
     <row r="4773">
       <c r="A4773" t="inlineStr">
         <is>
-          <t>2012-10-25</t>
+          <t>2012-05-05</t>
         </is>
       </c>
       <c r="B4773" t="n">
-        <v>2136608.068</v>
+        <v>1212234.197</v>
       </c>
     </row>
     <row r="4774">
       <c r="A4774" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2012-10-25</t>
         </is>
       </c>
       <c r="B4774" t="n">
-        <v>13825417.492</v>
+        <v>2136608.068</v>
       </c>
     </row>
     <row r="4775">
@@ -48186,7850 +48186,7870 @@
     <row r="4776">
       <c r="A4776" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B4776" t="n">
-        <v>12729614.685</v>
+        <v>13825417.492</v>
       </c>
     </row>
     <row r="4777">
       <c r="A4777" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B4777" t="n">
-        <v>8288606.704</v>
+        <v>12729614.685</v>
       </c>
     </row>
     <row r="4778">
       <c r="A4778" t="inlineStr">
         <is>
-          <t>2023-03-09</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="B4778" t="n">
-        <v>7095491.394</v>
+        <v>8288606.704</v>
       </c>
     </row>
     <row r="4779">
       <c r="A4779" t="inlineStr">
         <is>
-          <t>2023-10-17</t>
+          <t>2023-03-09</t>
         </is>
       </c>
       <c r="B4779" t="n">
-        <v>6592549.217</v>
+        <v>7095491.394</v>
       </c>
     </row>
     <row r="4780">
       <c r="A4780" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2023-10-17</t>
         </is>
       </c>
       <c r="B4780" t="n">
-        <v>16727091.234</v>
+        <v>6592549.217</v>
       </c>
     </row>
     <row r="4781">
       <c r="A4781" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="B4781" t="n">
-        <v>10793064.387</v>
+        <v>16727091.234</v>
       </c>
     </row>
     <row r="4782">
       <c r="A4782" t="inlineStr">
         <is>
-          <t>2014-10-17</t>
+          <t>2024-09-11</t>
         </is>
       </c>
       <c r="B4782" t="n">
-        <v>3095461.912</v>
+        <v>10793064.387</v>
       </c>
     </row>
     <row r="4783">
       <c r="A4783" t="inlineStr">
         <is>
-          <t>2017-04-10</t>
+          <t>2014-10-17</t>
         </is>
       </c>
       <c r="B4783" t="n">
-        <v>8815333.573999999</v>
+        <v>3095461.912</v>
       </c>
     </row>
     <row r="4784">
       <c r="A4784" t="inlineStr">
         <is>
-          <t>2012-05-11</t>
+          <t>2017-04-10</t>
         </is>
       </c>
       <c r="B4784" t="n">
-        <v>1207434.772</v>
+        <v>8815333.573999999</v>
       </c>
     </row>
     <row r="4785">
       <c r="A4785" t="inlineStr">
         <is>
-          <t>2012-11-01</t>
+          <t>2012-05-11</t>
         </is>
       </c>
       <c r="B4785" t="n">
-        <v>2153510.57</v>
+        <v>1207434.772</v>
       </c>
     </row>
     <row r="4786">
       <c r="A4786" t="inlineStr">
         <is>
-          <t>2013-04-30</t>
+          <t>2012-11-01</t>
         </is>
       </c>
       <c r="B4786" t="n">
-        <v>5497657.863</v>
+        <v>2153510.57</v>
       </c>
     </row>
     <row r="4787">
       <c r="A4787" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2013-04-30</t>
         </is>
       </c>
       <c r="B4787" t="n">
-        <v>12673319.268</v>
+        <v>5497657.863</v>
       </c>
     </row>
     <row r="4788">
       <c r="A4788" t="inlineStr">
         <is>
-          <t>2020-04-16</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B4788" t="n">
-        <v>8018210.181</v>
+        <v>12673319.268</v>
       </c>
     </row>
     <row r="4789">
       <c r="A4789" t="inlineStr">
         <is>
-          <t>2023-05-03</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="B4789" t="n">
-        <v>7455548.867</v>
+        <v>8018210.181</v>
       </c>
     </row>
     <row r="4790">
       <c r="A4790" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2023-05-03</t>
         </is>
       </c>
       <c r="B4790" t="n">
-        <v>6872584.918</v>
+        <v>7455548.867</v>
       </c>
     </row>
     <row r="4791">
       <c r="A4791" t="inlineStr">
         <is>
-          <t>2014-01-30</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B4791" t="n">
-        <v>6114931.72</v>
+        <v>6872584.918</v>
       </c>
     </row>
     <row r="4792">
       <c r="A4792" t="inlineStr">
         <is>
-          <t>2017-05-04</t>
+          <t>2014-01-30</t>
         </is>
       </c>
       <c r="B4792" t="n">
-        <v>9298668.844000001</v>
+        <v>6114931.72</v>
       </c>
     </row>
     <row r="4793">
       <c r="A4793" t="inlineStr">
         <is>
-          <t>2014-11-06</t>
+          <t>2017-05-04</t>
         </is>
       </c>
       <c r="B4793" t="n">
-        <v>2879254.309</v>
+        <v>9298668.844000001</v>
       </c>
     </row>
     <row r="4794">
       <c r="A4794" t="inlineStr">
         <is>
-          <t>2012-05-12</t>
+          <t>2014-11-06</t>
         </is>
       </c>
       <c r="B4794" t="n">
-        <v>1276345.475</v>
+        <v>2879254.309</v>
       </c>
     </row>
     <row r="4795">
       <c r="A4795" t="inlineStr">
         <is>
-          <t>2012-11-07</t>
+          <t>2012-05-12</t>
         </is>
       </c>
       <c r="B4795" t="n">
-        <v>2128822.138</v>
+        <v>1276345.475</v>
       </c>
     </row>
     <row r="4796">
       <c r="A4796" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2012-11-07</t>
         </is>
       </c>
       <c r="B4796" t="n">
-        <v>18459379.883</v>
+        <v>2128822.138</v>
       </c>
     </row>
     <row r="4797">
       <c r="A4797" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B4797" t="n">
-        <v>18932006.014</v>
+        <v>18459379.883</v>
       </c>
     </row>
     <row r="4798">
       <c r="A4798" t="inlineStr">
         <is>
-          <t>2025-08-24</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B4798" t="n">
-        <v>17791123.577</v>
+        <v>18932006.014</v>
       </c>
     </row>
     <row r="4799">
       <c r="A4799" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="B4799" t="n">
-        <v>13312479.096</v>
+        <v>17791123.577</v>
       </c>
     </row>
     <row r="4800">
       <c r="A4800" t="inlineStr">
         <is>
-          <t>2017-05-22</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B4800" t="n">
-        <v>10578866.565</v>
+        <v>13312479.096</v>
       </c>
     </row>
     <row r="4801">
       <c r="A4801" t="inlineStr">
         <is>
-          <t>2020-04-26</t>
+          <t>2017-05-22</t>
         </is>
       </c>
       <c r="B4801" t="n">
-        <v>7916783.797</v>
+        <v>10578866.565</v>
       </c>
     </row>
     <row r="4802">
       <c r="A4802" t="inlineStr">
         <is>
-          <t>2022-07-23</t>
+          <t>2020-04-26</t>
         </is>
       </c>
       <c r="B4802" t="n">
-        <v>9903067.517999999</v>
+        <v>7916783.797</v>
       </c>
     </row>
     <row r="4803">
       <c r="A4803" t="inlineStr">
         <is>
-          <t>2023-06-17</t>
+          <t>2022-07-23</t>
         </is>
       </c>
       <c r="B4803" t="n">
-        <v>8373661.789</v>
+        <v>9903067.517999999</v>
       </c>
     </row>
     <row r="4804">
       <c r="A4804" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-06-17</t>
         </is>
       </c>
       <c r="B4804" t="n">
-        <v>7083228.662</v>
+        <v>8373661.789</v>
       </c>
     </row>
     <row r="4805">
       <c r="A4805" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="B4805" t="n">
-        <v>11310855.322</v>
+        <v>7083228.662</v>
       </c>
     </row>
     <row r="4806">
       <c r="A4806" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B4806" t="n">
-        <v>17541534.802</v>
+        <v>11310855.322</v>
       </c>
     </row>
     <row r="4807">
       <c r="A4807" t="inlineStr">
         <is>
-          <t>2014-11-11</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="B4807" t="n">
-        <v>3006774.921</v>
+        <v>17541534.802</v>
       </c>
     </row>
     <row r="4808">
       <c r="A4808" t="inlineStr">
         <is>
-          <t>2012-06-03</t>
+          <t>2014-11-11</t>
         </is>
       </c>
       <c r="B4808" t="n">
-        <v>1334918.742</v>
+        <v>3006774.921</v>
       </c>
     </row>
     <row r="4809">
       <c r="A4809" t="inlineStr">
         <is>
-          <t>2012-11-14</t>
+          <t>2012-06-03</t>
         </is>
       </c>
       <c r="B4809" t="n">
-        <v>2135938.421</v>
+        <v>1334918.742</v>
       </c>
     </row>
     <row r="4810">
       <c r="A4810" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2012-11-14</t>
         </is>
       </c>
       <c r="B4810" t="n">
-        <v>16732457.517</v>
+        <v>2135938.421</v>
       </c>
     </row>
     <row r="4811">
       <c r="A4811" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="B4811" t="n">
-        <v>10071130.987</v>
+        <v>16732457.517</v>
       </c>
     </row>
     <row r="4812">
       <c r="A4812" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="B4812" t="n">
-        <v>18126267.628</v>
+        <v>10071130.987</v>
       </c>
     </row>
     <row r="4813">
       <c r="A4813" t="inlineStr">
         <is>
-          <t>2017-06-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B4813" t="n">
-        <v>11573584.248</v>
+        <v>18126267.628</v>
       </c>
     </row>
     <row r="4814">
       <c r="A4814" t="inlineStr">
         <is>
-          <t>2020-05-08</t>
+          <t>2017-06-05</t>
         </is>
       </c>
       <c r="B4814" t="n">
-        <v>7257356.98</v>
+        <v>11573584.248</v>
       </c>
     </row>
     <row r="4815">
       <c r="A4815" t="inlineStr">
         <is>
-          <t>2023-07-05</t>
+          <t>2020-05-08</t>
         </is>
       </c>
       <c r="B4815" t="n">
-        <v>8042090.576</v>
+        <v>7257356.98</v>
       </c>
     </row>
     <row r="4816">
       <c r="A4816" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-07-05</t>
         </is>
       </c>
       <c r="B4816" t="n">
-        <v>7977963.589</v>
+        <v>8042090.576</v>
       </c>
     </row>
     <row r="4817">
       <c r="A4817" t="inlineStr">
         <is>
-          <t>2023-12-14</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="B4817" t="n">
-        <v>8445638.851</v>
+        <v>7977963.589</v>
       </c>
     </row>
     <row r="4818">
       <c r="A4818" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2023-12-14</t>
         </is>
       </c>
       <c r="B4818" t="n">
-        <v>15737013.492</v>
+        <v>8445638.851</v>
       </c>
     </row>
     <row r="4819">
       <c r="A4819" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="B4819" t="n">
-        <v>10155336.497</v>
+        <v>15737013.492</v>
       </c>
     </row>
     <row r="4820">
       <c r="A4820" t="inlineStr">
         <is>
-          <t>2014-12-06</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="B4820" t="n">
-        <v>3366909.88</v>
+        <v>10155336.497</v>
       </c>
     </row>
     <row r="4821">
       <c r="A4821" t="inlineStr">
         <is>
-          <t>2012-06-21</t>
+          <t>2014-12-06</t>
         </is>
       </c>
       <c r="B4821" t="n">
-        <v>1380434.39</v>
+        <v>3366909.88</v>
       </c>
     </row>
     <row r="4822">
       <c r="A4822" t="inlineStr">
         <is>
-          <t>2012-11-20</t>
+          <t>2012-06-21</t>
         </is>
       </c>
       <c r="B4822" t="n">
-        <v>1949847.285</v>
+        <v>1380434.39</v>
       </c>
     </row>
     <row r="4823">
       <c r="A4823" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2012-11-20</t>
         </is>
       </c>
       <c r="B4823" t="n">
-        <v>19176092.195</v>
+        <v>1949847.285</v>
       </c>
     </row>
     <row r="4824">
       <c r="A4824" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B4824" t="n">
-        <v>18902714.615</v>
+        <v>19176092.195</v>
       </c>
     </row>
     <row r="4825">
       <c r="A4825" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B4825" t="n">
-        <v>16504964.214</v>
+        <v>18902714.615</v>
       </c>
     </row>
     <row r="4826">
       <c r="A4826" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B4826" t="n">
-        <v>12057555.671</v>
+        <v>16504964.214</v>
       </c>
     </row>
     <row r="4827">
       <c r="A4827" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B4827" t="n">
-        <v>18601572.678</v>
+        <v>12057555.671</v>
       </c>
     </row>
     <row r="4828">
       <c r="A4828" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B4828" t="n">
-        <v>11393282.759</v>
+        <v>18601572.678</v>
       </c>
     </row>
     <row r="4829">
       <c r="A4829" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B4829" t="n">
-        <v>18263481.818</v>
+        <v>11393282.759</v>
       </c>
     </row>
     <row r="4830">
       <c r="A4830" t="inlineStr">
         <is>
-          <t>2017-06-22</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B4830" t="n">
-        <v>12272100.738</v>
+        <v>18263481.818</v>
       </c>
     </row>
     <row r="4831">
       <c r="A4831" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2017-06-22</t>
         </is>
       </c>
       <c r="B4831" t="n">
-        <v>6940094.184</v>
+        <v>12272100.738</v>
       </c>
     </row>
     <row r="4832">
       <c r="A4832" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="B4832" t="n">
-        <v>7978148.013</v>
+        <v>6940094.184</v>
       </c>
     </row>
     <row r="4833">
       <c r="A4833" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2023-07-13</t>
         </is>
       </c>
       <c r="B4833" t="n">
-        <v>10334944.759</v>
+        <v>7978148.013</v>
       </c>
     </row>
     <row r="4834">
       <c r="A4834" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="B4834" t="n">
-        <v>11743400.645</v>
+        <v>10334944.759</v>
       </c>
     </row>
     <row r="4835">
       <c r="A4835" t="inlineStr">
         <is>
-          <t>2014-12-21</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B4835" t="n">
-        <v>3568148.31</v>
+        <v>11743400.645</v>
       </c>
     </row>
     <row r="4836">
       <c r="A4836" t="inlineStr">
         <is>
-          <t>2012-07-12</t>
+          <t>2014-12-21</t>
         </is>
       </c>
       <c r="B4836" t="n">
-        <v>1445168.381</v>
+        <v>3568148.31</v>
       </c>
     </row>
     <row r="4837">
       <c r="A4837" t="inlineStr">
         <is>
-          <t>2012-11-28</t>
+          <t>2012-07-12</t>
         </is>
       </c>
       <c r="B4837" t="n">
-        <v>1915604.786</v>
+        <v>1445168.381</v>
       </c>
     </row>
     <row r="4838">
       <c r="A4838" t="inlineStr">
         <is>
-          <t>2013-05-17</t>
+          <t>2012-11-28</t>
         </is>
       </c>
       <c r="B4838" t="n">
-        <v>5084157.35</v>
+        <v>1915604.786</v>
       </c>
     </row>
     <row r="4839">
       <c r="A4839" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2013-05-17</t>
         </is>
       </c>
       <c r="B4839" t="n">
-        <v>12602780.311</v>
+        <v>5084157.35</v>
       </c>
     </row>
     <row r="4840">
       <c r="A4840" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="B4840" t="n">
-        <v>18009208.082</v>
+        <v>12602780.311</v>
       </c>
     </row>
     <row r="4841">
       <c r="A4841" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B4841" t="n">
-        <v>13706271.631</v>
+        <v>18009208.082</v>
       </c>
     </row>
     <row r="4842">
       <c r="A4842" t="inlineStr">
         <is>
-          <t>2017-07-10</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B4842" t="n">
-        <v>12163382.696</v>
+        <v>13706271.631</v>
       </c>
     </row>
     <row r="4843">
       <c r="A4843" t="inlineStr">
         <is>
-          <t>2020-06-05</t>
+          <t>2017-07-10</t>
         </is>
       </c>
       <c r="B4843" t="n">
-        <v>6717066.848</v>
+        <v>12163382.696</v>
       </c>
     </row>
     <row r="4844">
       <c r="A4844" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2020-06-05</t>
         </is>
       </c>
       <c r="B4844" t="n">
-        <v>8025625.18</v>
+        <v>6717066.848</v>
       </c>
     </row>
     <row r="4845">
       <c r="A4845" t="inlineStr">
         <is>
-          <t>2024-01-07</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="B4845" t="n">
-        <v>10260081.547</v>
+        <v>8025625.18</v>
       </c>
     </row>
     <row r="4846">
       <c r="A4846" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-01-07</t>
         </is>
       </c>
       <c r="B4846" t="n">
-        <v>15054523.106</v>
+        <v>10260081.547</v>
       </c>
     </row>
     <row r="4847">
       <c r="A4847" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="B4847" t="n">
-        <v>19778813.536</v>
+        <v>15054523.106</v>
       </c>
     </row>
     <row r="4848">
       <c r="A4848" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="B4848" t="n">
-        <v>15807832.072</v>
+        <v>19778813.536</v>
       </c>
     </row>
     <row r="4849">
       <c r="A4849" t="inlineStr">
         <is>
-          <t>2015-01-07</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="B4849" t="n">
-        <v>3769144.092</v>
+        <v>15807832.072</v>
       </c>
     </row>
     <row r="4850">
       <c r="A4850" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2015-01-07</t>
         </is>
       </c>
       <c r="B4850" t="n">
-        <v>14153820.75</v>
+        <v>3769144.092</v>
       </c>
     </row>
     <row r="4851">
       <c r="A4851" t="inlineStr">
         <is>
-          <t>2012-08-01</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B4851" t="n">
-        <v>1583802.107</v>
+        <v>14153820.75</v>
       </c>
     </row>
     <row r="4852">
       <c r="A4852" t="inlineStr">
         <is>
-          <t>2012-12-04</t>
+          <t>2012-08-01</t>
         </is>
       </c>
       <c r="B4852" t="n">
-        <v>1957072.203</v>
+        <v>1583802.107</v>
       </c>
     </row>
     <row r="4853">
       <c r="A4853" t="inlineStr">
         <is>
-          <t>2013-05-03</t>
+          <t>2012-12-04</t>
         </is>
       </c>
       <c r="B4853" t="n">
-        <v>5379393.252</v>
+        <v>1957072.203</v>
       </c>
     </row>
     <row r="4854">
       <c r="A4854" t="inlineStr">
         <is>
-          <t>2013-05-19</t>
+          <t>2013-05-03</t>
         </is>
       </c>
       <c r="B4854" t="n">
-        <v>5064998.563</v>
+        <v>5379393.252</v>
       </c>
     </row>
     <row r="4855">
       <c r="A4855" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2013-05-19</t>
         </is>
       </c>
       <c r="B4855" t="n">
-        <v>13373154.572</v>
+        <v>5064998.563</v>
       </c>
     </row>
     <row r="4856">
       <c r="A4856" t="inlineStr">
         <is>
-          <t>2017-08-17</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="B4856" t="n">
-        <v>19610114.074</v>
+        <v>13373154.572</v>
       </c>
     </row>
     <row r="4857">
       <c r="A4857" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2017-08-17</t>
         </is>
       </c>
       <c r="B4857" t="n">
-        <v>5653018.264</v>
+        <v>19610114.074</v>
       </c>
     </row>
     <row r="4858">
       <c r="A4858" t="inlineStr">
         <is>
-          <t>2022-01-12</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="B4858" t="n">
-        <v>9429782.348999999</v>
+        <v>5653018.264</v>
       </c>
     </row>
     <row r="4859">
       <c r="A4859" t="inlineStr">
         <is>
-          <t>2023-07-31</t>
+          <t>2022-01-12</t>
         </is>
       </c>
       <c r="B4859" t="n">
-        <v>8847168.232000001</v>
+        <v>9429782.348999999</v>
       </c>
     </row>
     <row r="4860">
       <c r="A4860" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="B4860" t="n">
-        <v>12254468.78</v>
+        <v>8847168.232000001</v>
       </c>
     </row>
     <row r="4861">
       <c r="A4861" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="B4861" t="n">
-        <v>11222124.303</v>
+        <v>12254468.78</v>
       </c>
     </row>
     <row r="4862">
       <c r="A4862" t="inlineStr">
         <is>
-          <t>2015-01-10</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="B4862" t="n">
-        <v>3837422.392</v>
+        <v>11222124.303</v>
       </c>
     </row>
     <row r="4863">
       <c r="A4863" t="inlineStr">
         <is>
-          <t>2012-08-20</t>
+          <t>2015-01-10</t>
         </is>
       </c>
       <c r="B4863" t="n">
-        <v>1727157.694</v>
+        <v>3837422.392</v>
       </c>
     </row>
     <row r="4864">
       <c r="A4864" t="inlineStr">
         <is>
-          <t>2012-12-11</t>
+          <t>2012-08-20</t>
         </is>
       </c>
       <c r="B4864" t="n">
-        <v>1939190.261</v>
+        <v>1727157.694</v>
       </c>
     </row>
     <row r="4865">
       <c r="A4865" t="inlineStr">
         <is>
-          <t>2017-08-27</t>
+          <t>2012-12-11</t>
         </is>
       </c>
       <c r="B4865" t="n">
-        <v>19440418.088</v>
+        <v>1939190.261</v>
       </c>
     </row>
     <row r="4866">
       <c r="A4866" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2017-08-27</t>
         </is>
       </c>
       <c r="B4866" t="n">
-        <v>5853548.802</v>
+        <v>19440418.088</v>
       </c>
     </row>
     <row r="4867">
       <c r="A4867" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="B4867" t="n">
-        <v>8404561.468</v>
+        <v>5853548.802</v>
       </c>
     </row>
     <row r="4868">
       <c r="A4868" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="B4868" t="n">
-        <v>13043079.95</v>
+        <v>8404561.468</v>
       </c>
     </row>
     <row r="4869">
       <c r="A4869" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="B4869" t="n">
-        <v>15732205.442</v>
+        <v>13043079.95</v>
       </c>
     </row>
     <row r="4870">
       <c r="A4870" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="B4870" t="n">
-        <v>10079264.693</v>
+        <v>15732205.442</v>
       </c>
     </row>
     <row r="4871">
       <c r="A4871" t="inlineStr">
         <is>
-          <t>2013-11-30</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B4871" t="n">
-        <v>5487103.992</v>
+        <v>10079264.693</v>
       </c>
     </row>
     <row r="4872">
       <c r="A4872" t="inlineStr">
         <is>
-          <t>2015-02-03</t>
+          <t>2013-11-30</t>
         </is>
       </c>
       <c r="B4872" t="n">
-        <v>4216822.155</v>
+        <v>5487103.992</v>
       </c>
     </row>
     <row r="4873">
       <c r="A4873" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2015-02-03</t>
         </is>
       </c>
       <c r="B4873" t="n">
-        <v>20059418.345</v>
+        <v>4216822.155</v>
       </c>
     </row>
     <row r="4874">
       <c r="A4874" t="inlineStr">
         <is>
-          <t>2012-09-05</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B4874" t="n">
-        <v>1858681.499</v>
+        <v>20059418.345</v>
       </c>
     </row>
     <row r="4875">
       <c r="A4875" t="inlineStr">
         <is>
-          <t>2012-12-17</t>
+          <t>2012-09-05</t>
         </is>
       </c>
       <c r="B4875" t="n">
-        <v>1937667.056</v>
+        <v>1858681.499</v>
       </c>
     </row>
     <row r="4876">
       <c r="A4876" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2012-12-17</t>
         </is>
       </c>
       <c r="B4876" t="n">
-        <v>19888945.755</v>
+        <v>1937667.056</v>
       </c>
     </row>
     <row r="4877">
       <c r="A4877" t="inlineStr">
         <is>
-          <t>2017-09-12</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="B4877" t="n">
-        <v>18286897.272</v>
+        <v>19888945.755</v>
       </c>
     </row>
     <row r="4878">
       <c r="A4878" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>2017-09-12</t>
         </is>
       </c>
       <c r="B4878" t="n">
-        <v>6098695.482</v>
+        <v>18286897.272</v>
       </c>
     </row>
     <row r="4879">
       <c r="A4879" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="B4879" t="n">
-        <v>7982545.503</v>
+        <v>6098695.482</v>
       </c>
     </row>
     <row r="4880">
       <c r="A4880" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="B4880" t="n">
-        <v>16254770.186</v>
+        <v>7982545.503</v>
       </c>
     </row>
     <row r="4881">
       <c r="A4881" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="B4881" t="n">
-        <v>15736124.913</v>
+        <v>16254770.186</v>
       </c>
     </row>
     <row r="4882">
       <c r="A4882" t="inlineStr">
         <is>
-          <t>2015-02-13</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="B4882" t="n">
-        <v>4046633.271</v>
+        <v>15736124.913</v>
       </c>
     </row>
     <row r="4883">
       <c r="A4883" t="inlineStr">
         <is>
-          <t>2016-04-18</t>
+          <t>2015-02-13</t>
         </is>
       </c>
       <c r="B4883" t="n">
-        <v>6144643.58</v>
+        <v>4046633.271</v>
       </c>
     </row>
     <row r="4884">
       <c r="A4884" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2016-04-18</t>
         </is>
       </c>
       <c r="B4884" t="n">
-        <v>12991619.239</v>
+        <v>6144643.58</v>
       </c>
     </row>
     <row r="4885">
       <c r="A4885" t="inlineStr">
         <is>
-          <t>2011-05-02</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B4885" t="n">
-        <v>547275.5110000001</v>
+        <v>12991619.239</v>
       </c>
     </row>
     <row r="4886">
       <c r="A4886" t="inlineStr">
         <is>
-          <t>2012-09-10</t>
+          <t>2011-05-02</t>
         </is>
       </c>
       <c r="B4886" t="n">
-        <v>1976750.746</v>
+        <v>547275.5110000001</v>
       </c>
     </row>
     <row r="4887">
       <c r="A4887" t="inlineStr">
         <is>
-          <t>2012-12-24</t>
+          <t>2012-09-10</t>
         </is>
       </c>
       <c r="B4887" t="n">
-        <v>1884935.165</v>
+        <v>1976750.746</v>
       </c>
     </row>
     <row r="4888">
       <c r="A4888" t="inlineStr">
         <is>
-          <t>2017-09-29</t>
+          <t>2012-12-24</t>
         </is>
       </c>
       <c r="B4888" t="n">
-        <v>18839685.673</v>
+        <v>1884935.165</v>
       </c>
     </row>
     <row r="4889">
       <c r="A4889" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2017-09-29</t>
         </is>
       </c>
       <c r="B4889" t="n">
-        <v>6512862.956</v>
+        <v>18839685.673</v>
       </c>
     </row>
     <row r="4890">
       <c r="A4890" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="B4890" t="n">
-        <v>10040744.36</v>
+        <v>6512862.956</v>
       </c>
     </row>
     <row r="4891">
       <c r="A4891" t="inlineStr">
         <is>
-          <t>2023-03-16</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="B4891" t="n">
-        <v>7199162.719</v>
+        <v>10040744.36</v>
       </c>
     </row>
     <row r="4892">
       <c r="A4892" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-03-16</t>
         </is>
       </c>
       <c r="B4892" t="n">
-        <v>7795415.295</v>
+        <v>7199162.719</v>
       </c>
     </row>
     <row r="4893">
       <c r="A4893" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="B4893" t="n">
-        <v>16404541.597</v>
+        <v>7795415.295</v>
       </c>
     </row>
     <row r="4894">
       <c r="A4894" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="B4894" t="n">
-        <v>13180955.134</v>
+        <v>16404541.597</v>
       </c>
     </row>
     <row r="4895">
       <c r="A4895" t="inlineStr">
         <is>
-          <t>2015-02-27</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B4895" t="n">
-        <v>3825679.24</v>
+        <v>13180955.134</v>
       </c>
     </row>
     <row r="4896">
       <c r="A4896" t="inlineStr">
         <is>
-          <t>2012-09-29</t>
+          <t>2015-02-27</t>
         </is>
       </c>
       <c r="B4896" t="n">
-        <v>2184625.519</v>
+        <v>3825679.24</v>
       </c>
     </row>
     <row r="4897">
       <c r="A4897" t="inlineStr">
         <is>
-          <t>2012-12-30</t>
+          <t>2012-09-29</t>
         </is>
       </c>
       <c r="B4897" t="n">
-        <v>1815709.108</v>
+        <v>2184625.519</v>
       </c>
     </row>
     <row r="4898">
       <c r="A4898" t="inlineStr">
         <is>
-          <t>2017-09-30</t>
+          <t>2012-12-30</t>
         </is>
       </c>
       <c r="B4898" t="n">
-        <v>18888154.264</v>
+        <v>1815709.108</v>
       </c>
     </row>
     <row r="4899">
       <c r="A4899" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2017-09-30</t>
         </is>
       </c>
       <c r="B4899" t="n">
-        <v>6624368.808</v>
+        <v>18888154.264</v>
       </c>
     </row>
     <row r="4900">
       <c r="A4900" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="B4900" t="n">
-        <v>7370614.503</v>
+        <v>6624368.808</v>
       </c>
     </row>
     <row r="4901">
       <c r="A4901" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="B4901" t="n">
-        <v>19840596.87</v>
+        <v>7370614.503</v>
       </c>
     </row>
     <row r="4902">
       <c r="A4902" t="inlineStr">
         <is>
-          <t>2013-06-04</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="B4902" t="n">
-        <v>4578468.342</v>
+        <v>19840596.87</v>
       </c>
     </row>
     <row r="4903">
       <c r="A4903" t="inlineStr">
         <is>
-          <t>2015-03-16</t>
+          <t>2013-06-04</t>
         </is>
       </c>
       <c r="B4903" t="n">
-        <v>4139429.838</v>
+        <v>4578468.342</v>
       </c>
     </row>
     <row r="4904">
       <c r="A4904" t="inlineStr">
         <is>
-          <t>2012-10-17</t>
+          <t>2015-03-16</t>
         </is>
       </c>
       <c r="B4904" t="n">
-        <v>2082000.236</v>
+        <v>4139429.838</v>
       </c>
     </row>
     <row r="4905">
       <c r="A4905" t="inlineStr">
         <is>
-          <t>2013-02-11</t>
+          <t>2012-10-17</t>
         </is>
       </c>
       <c r="B4905" t="n">
-        <v>2516299.136</v>
+        <v>2082000.236</v>
       </c>
     </row>
     <row r="4906">
       <c r="A4906" t="inlineStr">
         <is>
-          <t>2017-11-09</t>
+          <t>2013-02-11</t>
         </is>
       </c>
       <c r="B4906" t="n">
-        <v>13803591.086</v>
+        <v>2516299.136</v>
       </c>
     </row>
     <row r="4907">
       <c r="A4907" t="inlineStr">
         <is>
-          <t>2020-08-19</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="B4907" t="n">
-        <v>6747877.276</v>
+        <v>13803591.086</v>
       </c>
     </row>
     <row r="4908">
       <c r="A4908" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2020-08-19</t>
         </is>
       </c>
       <c r="B4908" t="n">
-        <v>6847142.251</v>
+        <v>6747877.276</v>
       </c>
     </row>
     <row r="4909">
       <c r="A4909" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="B4909" t="n">
-        <v>19817395.793</v>
+        <v>6847142.251</v>
       </c>
     </row>
     <row r="4910">
       <c r="A4910" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="B4910" t="n">
-        <v>18020855.515</v>
+        <v>19817395.793</v>
       </c>
     </row>
     <row r="4911">
       <c r="A4911" t="inlineStr">
         <is>
-          <t>2015-03-23</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B4911" t="n">
-        <v>4132329.348</v>
+        <v>18020855.515</v>
       </c>
     </row>
     <row r="4912">
       <c r="A4912" t="inlineStr">
         <is>
-          <t>2016-04-10</t>
+          <t>2015-03-23</t>
         </is>
       </c>
       <c r="B4912" t="n">
-        <v>6289683.85</v>
+        <v>4132329.348</v>
       </c>
     </row>
     <row r="4913">
       <c r="A4913" t="inlineStr">
         <is>
-          <t>2012-11-08</t>
+          <t>2016-04-10</t>
         </is>
       </c>
       <c r="B4913" t="n">
-        <v>2123397.986</v>
+        <v>6289683.85</v>
       </c>
     </row>
     <row r="4914">
       <c r="A4914" t="inlineStr">
         <is>
-          <t>2013-03-01</t>
+          <t>2012-11-08</t>
         </is>
       </c>
       <c r="B4914" t="n">
-        <v>3147145.888</v>
+        <v>2123397.986</v>
       </c>
     </row>
     <row r="4915">
       <c r="A4915" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2013-03-01</t>
         </is>
       </c>
       <c r="B4915" t="n">
-        <v>20400661.749</v>
+        <v>3147145.888</v>
       </c>
     </row>
     <row r="4916">
       <c r="A4916" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="B4916" t="n">
-        <v>9875068.106000001</v>
+        <v>20400661.749</v>
       </c>
     </row>
     <row r="4917">
       <c r="A4917" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="B4917" t="n">
-        <v>9193966.23</v>
+        <v>9875068.106000001</v>
       </c>
     </row>
     <row r="4918">
       <c r="A4918" t="inlineStr">
         <is>
-          <t>2017-11-26</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="B4918" t="n">
-        <v>15781629.68</v>
+        <v>9193966.23</v>
       </c>
     </row>
     <row r="4919">
       <c r="A4919" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
+          <t>2017-11-26</t>
         </is>
       </c>
       <c r="B4919" t="n">
-        <v>6876141.449</v>
+        <v>15781629.68</v>
       </c>
     </row>
     <row r="4920">
       <c r="A4920" t="inlineStr">
         <is>
-          <t>2021-11-21</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="B4920" t="n">
-        <v>9263341.755000001</v>
+        <v>6876141.449</v>
       </c>
     </row>
     <row r="4921">
       <c r="A4921" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2021-11-21</t>
         </is>
       </c>
       <c r="B4921" t="n">
-        <v>6352507.324</v>
+        <v>9263341.755000001</v>
       </c>
     </row>
     <row r="4922">
       <c r="A4922" t="inlineStr">
         <is>
-          <t>2024-04-21</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="B4922" t="n">
-        <v>18534074.954</v>
+        <v>6352507.324</v>
       </c>
     </row>
     <row r="4923">
       <c r="A4923" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-04-21</t>
         </is>
       </c>
       <c r="B4923" t="n">
-        <v>15459847.995</v>
+        <v>18534074.954</v>
       </c>
     </row>
     <row r="4924">
       <c r="A4924" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="B4924" t="n">
-        <v>11123186.066</v>
+        <v>15459847.995</v>
       </c>
     </row>
     <row r="4925">
       <c r="A4925" t="inlineStr">
         <is>
-          <t>2015-04-10</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B4925" t="n">
-        <v>3645607.576</v>
+        <v>11123186.066</v>
       </c>
     </row>
     <row r="4926">
       <c r="A4926" t="inlineStr">
         <is>
-          <t>2012-12-05</t>
+          <t>2015-04-10</t>
         </is>
       </c>
       <c r="B4926" t="n">
-        <v>1962454.249</v>
+        <v>3645607.576</v>
       </c>
     </row>
     <row r="4927">
       <c r="A4927" t="inlineStr">
         <is>
-          <t>2013-03-13</t>
+          <t>2012-12-05</t>
         </is>
       </c>
       <c r="B4927" t="n">
-        <v>3305281.64</v>
+        <v>1962454.249</v>
       </c>
     </row>
     <row r="4928">
       <c r="A4928" t="inlineStr">
         <is>
-          <t>2017-12-15</t>
+          <t>2013-03-13</t>
         </is>
       </c>
       <c r="B4928" t="n">
-        <v>17248776.207</v>
+        <v>3305281.64</v>
       </c>
     </row>
     <row r="4929">
       <c r="A4929" t="inlineStr">
         <is>
-          <t>2020-09-02</t>
+          <t>2017-12-15</t>
         </is>
       </c>
       <c r="B4929" t="n">
-        <v>6889646.764</v>
+        <v>17248776.207</v>
       </c>
     </row>
     <row r="4930">
       <c r="A4930" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="B4930" t="n">
-        <v>8157662.803</v>
+        <v>6889646.764</v>
       </c>
     </row>
     <row r="4931">
       <c r="A4931" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="B4931" t="n">
-        <v>9027679.793</v>
+        <v>8157662.803</v>
       </c>
     </row>
     <row r="4932">
       <c r="A4932" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="B4932" t="n">
-        <v>6008052.168</v>
+        <v>9027679.793</v>
       </c>
     </row>
     <row r="4933">
       <c r="A4933" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-09-28</t>
         </is>
       </c>
       <c r="B4933" t="n">
-        <v>10466814.972</v>
+        <v>6008052.168</v>
       </c>
     </row>
     <row r="4934">
       <c r="A4934" t="inlineStr">
         <is>
-          <t>2023-02-11</t>
+          <t>2022-12-09</t>
         </is>
       </c>
       <c r="B4934" t="n">
-        <v>9512207.699999999</v>
+        <v>10466814.972</v>
       </c>
     </row>
     <row r="4935">
       <c r="A4935" t="inlineStr">
         <is>
-          <t>2023-03-12</t>
+          <t>2023-02-11</t>
         </is>
       </c>
       <c r="B4935" t="n">
-        <v>7103905.636</v>
+        <v>9512207.699999999</v>
       </c>
     </row>
     <row r="4936">
       <c r="A4936" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-03-12</t>
         </is>
       </c>
       <c r="B4936" t="n">
-        <v>8134887.795</v>
+        <v>7103905.636</v>
       </c>
     </row>
     <row r="4937">
       <c r="A4937" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="B4937" t="n">
-        <v>6605806.716</v>
+        <v>8134887.795</v>
       </c>
     </row>
     <row r="4938">
       <c r="A4938" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B4938" t="n">
-        <v>17208008.89</v>
+        <v>6605806.716</v>
       </c>
     </row>
     <row r="4939">
       <c r="A4939" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="B4939" t="n">
-        <v>14504226.874</v>
+        <v>17208008.89</v>
       </c>
     </row>
     <row r="4940">
       <c r="A4940" t="inlineStr">
         <is>
-          <t>2015-04-27</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B4940" t="n">
-        <v>3258623.998</v>
+        <v>14504226.874</v>
       </c>
     </row>
     <row r="4941">
       <c r="A4941" t="inlineStr">
         <is>
-          <t>2012-12-23</t>
+          <t>2015-04-27</t>
         </is>
       </c>
       <c r="B4941" t="n">
-        <v>1899621.694</v>
+        <v>3258623.998</v>
       </c>
     </row>
     <row r="4942">
       <c r="A4942" t="inlineStr">
         <is>
-          <t>2013-04-26</t>
+          <t>2012-12-23</t>
         </is>
       </c>
       <c r="B4942" t="n">
-        <v>5662798.756</v>
+        <v>1899621.694</v>
       </c>
     </row>
     <row r="4943">
       <c r="A4943" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2013-04-26</t>
         </is>
       </c>
       <c r="B4943" t="n">
-        <v>18389579.978</v>
+        <v>5662798.756</v>
       </c>
     </row>
     <row r="4944">
       <c r="A4944" t="inlineStr">
         <is>
-          <t>2017-12-28</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B4944" t="n">
-        <v>17615180.51</v>
+        <v>18389579.978</v>
       </c>
     </row>
     <row r="4945">
       <c r="A4945" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>2017-12-28</t>
         </is>
       </c>
       <c r="B4945" t="n">
-        <v>7140009.28</v>
+        <v>17615180.51</v>
       </c>
     </row>
     <row r="4946">
       <c r="A4946" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="B4946" t="n">
-        <v>6311486.07</v>
+        <v>7140009.28</v>
       </c>
     </row>
     <row r="4947">
       <c r="A4947" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2023-10-26</t>
         </is>
       </c>
       <c r="B4947" t="n">
-        <v>21647135.032</v>
+        <v>6311486.07</v>
       </c>
     </row>
     <row r="4948">
       <c r="A4948" t="inlineStr">
         <is>
-          <t>2013-07-21</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="B4948" t="n">
-        <v>2401238.474</v>
+        <v>21647135.032</v>
       </c>
     </row>
     <row r="4949">
       <c r="A4949" t="inlineStr">
         <is>
-          <t>2015-05-01</t>
+          <t>2013-07-21</t>
         </is>
       </c>
       <c r="B4949" t="n">
-        <v>3248006.045</v>
+        <v>2401238.474</v>
       </c>
     </row>
     <row r="4950">
       <c r="A4950" t="inlineStr">
         <is>
-          <t>2013-01-02</t>
+          <t>2015-05-01</t>
         </is>
       </c>
       <c r="B4950" t="n">
-        <v>1827277.216</v>
+        <v>3248006.045</v>
       </c>
     </row>
     <row r="4951">
       <c r="A4951" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2013-01-02</t>
         </is>
       </c>
       <c r="B4951" t="n">
-        <v>9270561.718</v>
+        <v>1827277.216</v>
       </c>
     </row>
     <row r="4952">
       <c r="A4952" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="B4952" t="n">
-        <v>14713290.066</v>
+        <v>9270561.718</v>
       </c>
     </row>
     <row r="4953">
       <c r="A4953" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B4953" t="n">
-        <v>12633844.31</v>
+        <v>14713290.066</v>
       </c>
     </row>
     <row r="4954">
       <c r="A4954" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="B4954" t="n">
-        <v>14392379.583</v>
+        <v>12633844.31</v>
       </c>
     </row>
     <row r="4955">
       <c r="A4955" t="inlineStr">
         <is>
-          <t>2018-01-02</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B4955" t="n">
-        <v>17982694.401</v>
+        <v>14392379.583</v>
       </c>
     </row>
     <row r="4956">
       <c r="A4956" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2018-01-02</t>
         </is>
       </c>
       <c r="B4956" t="n">
-        <v>7514888.09</v>
+        <v>17982694.401</v>
       </c>
     </row>
     <row r="4957">
       <c r="A4957" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="B4957" t="n">
-        <v>6817299.489</v>
+        <v>7514888.09</v>
       </c>
     </row>
     <row r="4958">
       <c r="A4958" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="B4958" t="n">
-        <v>17664296.466</v>
+        <v>6817299.489</v>
       </c>
     </row>
     <row r="4959">
       <c r="A4959" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="B4959" t="n">
-        <v>16241686.46</v>
+        <v>17664296.466</v>
       </c>
     </row>
     <row r="4960">
       <c r="A4960" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="B4960" t="n">
-        <v>16703777.294</v>
+        <v>16241686.46</v>
       </c>
     </row>
     <row r="4961">
       <c r="A4961" t="inlineStr">
         <is>
-          <t>2013-07-27</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="B4961" t="n">
-        <v>2230083.986</v>
+        <v>16703777.294</v>
       </c>
     </row>
     <row r="4962">
       <c r="A4962" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2013-07-27</t>
         </is>
       </c>
       <c r="B4962" t="n">
-        <v>10134422.693</v>
+        <v>2230083.986</v>
       </c>
     </row>
     <row r="4963">
       <c r="A4963" t="inlineStr">
         <is>
-          <t>2015-05-17</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B4963" t="n">
-        <v>3198372.64</v>
+        <v>10134422.693</v>
       </c>
     </row>
     <row r="4964">
       <c r="A4964" t="inlineStr">
         <is>
-          <t>2013-01-11</t>
+          <t>2015-05-17</t>
         </is>
       </c>
       <c r="B4964" t="n">
-        <v>1846369.453</v>
+        <v>3198372.64</v>
       </c>
     </row>
     <row r="4965">
       <c r="A4965" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2013-01-11</t>
         </is>
       </c>
       <c r="B4965" t="n">
-        <v>19066275.837</v>
+        <v>1846369.453</v>
       </c>
     </row>
     <row r="4966">
       <c r="A4966" t="inlineStr">
         <is>
-          <t>2025-08-17</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="B4966" t="n">
-        <v>18263584.952</v>
+        <v>19066275.837</v>
       </c>
     </row>
     <row r="4967">
       <c r="A4967" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B4967" t="n">
-        <v>13991670.579</v>
+        <v>18263584.952</v>
       </c>
     </row>
     <row r="4968">
       <c r="A4968" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B4968" t="n">
-        <v>9314345.433</v>
+        <v>13991670.579</v>
       </c>
     </row>
     <row r="4969">
       <c r="A4969" t="inlineStr">
         <is>
-          <t>2018-02-08</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="B4969" t="n">
-        <v>18158241.72</v>
+        <v>9314345.433</v>
       </c>
     </row>
     <row r="4970">
       <c r="A4970" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>2018-02-08</t>
         </is>
       </c>
       <c r="B4970" t="n">
-        <v>11360312.667</v>
+        <v>18158241.72</v>
       </c>
     </row>
     <row r="4971">
       <c r="A4971" t="inlineStr">
         <is>
-          <t>2023-11-14</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="B4971" t="n">
-        <v>7028591.115</v>
+        <v>11360312.667</v>
       </c>
     </row>
     <row r="4972">
       <c r="A4972" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="B4972" t="n">
-        <v>17197990.83</v>
+        <v>7028591.115</v>
       </c>
     </row>
     <row r="4973">
       <c r="A4973" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="B4973" t="n">
-        <v>17268706.198</v>
+        <v>17197990.83</v>
       </c>
     </row>
     <row r="4974">
       <c r="A4974" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="B4974" t="n">
-        <v>11414106.357</v>
+        <v>17268706.198</v>
       </c>
     </row>
     <row r="4975">
       <c r="A4975" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B4975" t="n">
-        <v>18706071.644</v>
+        <v>11414106.357</v>
       </c>
     </row>
     <row r="4976">
       <c r="A4976" t="inlineStr">
         <is>
-          <t>2013-08-03</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="B4976" t="n">
-        <v>2313884.342</v>
+        <v>18706071.644</v>
       </c>
     </row>
     <row r="4977">
       <c r="A4977" t="inlineStr">
         <is>
-          <t>2015-06-10</t>
+          <t>2013-08-03</t>
         </is>
       </c>
       <c r="B4977" t="n">
-        <v>2370221.996</v>
+        <v>2313884.342</v>
       </c>
     </row>
     <row r="4978">
       <c r="A4978" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2015-06-10</t>
         </is>
       </c>
       <c r="B4978" t="n">
-        <v>10942825.102</v>
+        <v>2370221.996</v>
       </c>
     </row>
     <row r="4979">
       <c r="A4979" t="inlineStr">
         <is>
-          <t>2013-01-26</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B4979" t="n">
-        <v>1899111.02</v>
+        <v>10942825.102</v>
       </c>
     </row>
     <row r="4980">
       <c r="A4980" t="inlineStr">
         <is>
-          <t>2018-04-02</t>
+          <t>2013-01-26</t>
         </is>
       </c>
       <c r="B4980" t="n">
-        <v>9893037.857000001</v>
+        <v>1899111.02</v>
       </c>
     </row>
     <row r="4981">
       <c r="A4981" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2018-04-02</t>
         </is>
       </c>
       <c r="B4981" t="n">
-        <v>12964564.24</v>
+        <v>9893037.857000001</v>
       </c>
     </row>
     <row r="4982">
       <c r="A4982" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2020-11-29</t>
         </is>
       </c>
       <c r="B4982" t="n">
-        <v>7255143.779</v>
+        <v>12964564.24</v>
       </c>
     </row>
     <row r="4983">
       <c r="A4983" t="inlineStr">
         <is>
-          <t>2013-08-09</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="B4983" t="n">
-        <v>2282151.25</v>
+        <v>7255143.779</v>
       </c>
     </row>
     <row r="4984">
       <c r="A4984" t="inlineStr">
         <is>
-          <t>2015-06-28</t>
+          <t>2013-08-09</t>
         </is>
       </c>
       <c r="B4984" t="n">
-        <v>2594483.55</v>
+        <v>2282151.25</v>
       </c>
     </row>
     <row r="4985">
       <c r="A4985" t="inlineStr">
         <is>
-          <t>2010-11-16</t>
+          <t>2015-06-28</t>
         </is>
       </c>
       <c r="B4985" t="n">
-        <v>304020.338</v>
+        <v>2594483.55</v>
       </c>
     </row>
     <row r="4986">
       <c r="A4986" t="inlineStr">
         <is>
-          <t>2013-02-12</t>
+          <t>2010-11-16</t>
         </is>
       </c>
       <c r="B4986" t="n">
-        <v>2529625.788</v>
+        <v>304020.338</v>
       </c>
     </row>
     <row r="4987">
       <c r="A4987" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2013-02-12</t>
         </is>
       </c>
       <c r="B4987" t="n">
-        <v>14737879.389</v>
+        <v>2529625.788</v>
       </c>
     </row>
     <row r="4988">
       <c r="A4988" t="inlineStr">
         <is>
-          <t>2024-11-23</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B4988" t="n">
-        <v>12933809.709</v>
+        <v>14737879.389</v>
       </c>
     </row>
     <row r="4989">
       <c r="A4989" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2024-11-23</t>
         </is>
       </c>
       <c r="B4989" t="n">
-        <v>14616694.16</v>
+        <v>12933809.709</v>
       </c>
     </row>
     <row r="4990">
       <c r="A4990" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B4990" t="n">
-        <v>14208722.448</v>
+        <v>14616694.16</v>
       </c>
     </row>
     <row r="4991">
       <c r="A4991" t="inlineStr">
         <is>
-          <t>2018-04-07</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B4991" t="n">
-        <v>8715110.261</v>
+        <v>14208722.448</v>
       </c>
     </row>
     <row r="4992">
       <c r="A4992" t="inlineStr">
         <is>
-          <t>2020-12-14</t>
+          <t>2018-04-07</t>
         </is>
       </c>
       <c r="B4992" t="n">
-        <v>14568396.772</v>
+        <v>8715110.261</v>
       </c>
     </row>
     <row r="4993">
       <c r="A4993" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2020-12-14</t>
         </is>
       </c>
       <c r="B4993" t="n">
-        <v>7308221.44</v>
+        <v>14568396.772</v>
       </c>
     </row>
     <row r="4994">
       <c r="A4994" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="B4994" t="n">
-        <v>19746507.73</v>
+        <v>7308221.44</v>
       </c>
     </row>
     <row r="4995">
       <c r="A4995" t="inlineStr">
         <is>
-          <t>2013-08-18</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="B4995" t="n">
-        <v>2450459.11</v>
+        <v>19746507.73</v>
       </c>
     </row>
     <row r="4996">
       <c r="A4996" t="inlineStr">
         <is>
-          <t>2015-07-18</t>
+          <t>2013-08-18</t>
         </is>
       </c>
       <c r="B4996" t="n">
-        <v>2800364.069</v>
+        <v>2450459.11</v>
       </c>
     </row>
     <row r="4997">
       <c r="A4997" t="inlineStr">
         <is>
-          <t>2011-05-08</t>
+          <t>2015-07-18</t>
         </is>
       </c>
       <c r="B4997" t="n">
-        <v>590659.897</v>
+        <v>2800364.069</v>
       </c>
     </row>
     <row r="4998">
       <c r="A4998" t="inlineStr">
         <is>
-          <t>2013-02-15</t>
+          <t>2011-05-08</t>
         </is>
       </c>
       <c r="B4998" t="n">
-        <v>2669285.077</v>
+        <v>590659.897</v>
       </c>
     </row>
     <row r="4999">
       <c r="A4999" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2013-02-15</t>
         </is>
       </c>
       <c r="B4999" t="n">
-        <v>14547539.62</v>
+        <v>2669285.077</v>
       </c>
     </row>
     <row r="5000">
       <c r="A5000" t="inlineStr">
         <is>
-          <t>2018-04-23</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B5000" t="n">
-        <v>8409681.130999999</v>
+        <v>14547539.62</v>
       </c>
     </row>
     <row r="5001">
       <c r="A5001" t="inlineStr">
         <is>
-          <t>2020-12-29</t>
+          <t>2018-04-23</t>
         </is>
       </c>
       <c r="B5001" t="n">
-        <v>17106922.198</v>
+        <v>8409681.130999999</v>
       </c>
     </row>
     <row r="5002">
       <c r="A5002" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2020-12-29</t>
         </is>
       </c>
       <c r="B5002" t="n">
-        <v>7876220.229</v>
+        <v>17106922.198</v>
       </c>
     </row>
     <row r="5003">
       <c r="A5003" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="B5003" t="n">
-        <v>11885242.465</v>
+        <v>7876220.229</v>
       </c>
     </row>
     <row r="5004">
       <c r="A5004" t="inlineStr">
         <is>
-          <t>2013-10-23</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="B5004" t="n">
-        <v>2986856.758</v>
+        <v>11885242.465</v>
       </c>
     </row>
     <row r="5005">
       <c r="A5005" t="inlineStr">
         <is>
-          <t>2015-08-01</t>
+          <t>2013-10-23</t>
         </is>
       </c>
       <c r="B5005" t="n">
-        <v>2872671.671</v>
+        <v>2986856.758</v>
       </c>
     </row>
     <row r="5006">
       <c r="A5006" t="inlineStr">
         <is>
-          <t>2011-05-23</t>
+          <t>2015-08-01</t>
         </is>
       </c>
       <c r="B5006" t="n">
-        <v>766330.206</v>
+        <v>2872671.671</v>
       </c>
     </row>
     <row r="5007">
       <c r="A5007" t="inlineStr">
         <is>
-          <t>2013-03-07</t>
+          <t>2011-05-23</t>
         </is>
       </c>
       <c r="B5007" t="n">
-        <v>3241428.994</v>
+        <v>766330.206</v>
       </c>
     </row>
     <row r="5008">
       <c r="A5008" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2013-03-07</t>
         </is>
       </c>
       <c r="B5008" t="n">
-        <v>12988051.483</v>
+        <v>3241428.994</v>
       </c>
     </row>
     <row r="5009">
       <c r="A5009" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="B5009" t="n">
-        <v>18760597.04</v>
+        <v>12988051.483</v>
       </c>
     </row>
     <row r="5010">
       <c r="A5010" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="B5010" t="n">
-        <v>14270964.112</v>
+        <v>18760597.04</v>
       </c>
     </row>
     <row r="5011">
       <c r="A5011" t="inlineStr">
         <is>
-          <t>2018-05-10</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B5011" t="n">
-        <v>6510882.164</v>
+        <v>14270964.112</v>
       </c>
     </row>
     <row r="5012">
       <c r="A5012" t="inlineStr">
         <is>
-          <t>2021-01-12</t>
+          <t>2018-05-10</t>
         </is>
       </c>
       <c r="B5012" t="n">
-        <v>20145733.863</v>
+        <v>6510882.164</v>
       </c>
     </row>
     <row r="5013">
       <c r="A5013" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2021-01-12</t>
         </is>
       </c>
       <c r="B5013" t="n">
-        <v>8473097.453</v>
+        <v>20145733.863</v>
       </c>
     </row>
     <row r="5014">
       <c r="A5014" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="B5014" t="n">
-        <v>11371015.617</v>
+        <v>8473097.453</v>
       </c>
     </row>
     <row r="5015">
       <c r="A5015" t="inlineStr">
         <is>
-          <t>2014-01-16</t>
+          <t>2024-11-17</t>
         </is>
       </c>
       <c r="B5015" t="n">
-        <v>6970368.657</v>
+        <v>11371015.617</v>
       </c>
     </row>
     <row r="5016">
       <c r="A5016" t="inlineStr">
         <is>
-          <t>2015-08-11</t>
+          <t>2014-01-16</t>
         </is>
       </c>
       <c r="B5016" t="n">
-        <v>3218034.455</v>
+        <v>6970368.657</v>
       </c>
     </row>
     <row r="5017">
       <c r="A5017" t="inlineStr">
         <is>
-          <t>2011-07-06</t>
+          <t>2015-08-11</t>
         </is>
       </c>
       <c r="B5017" t="n">
-        <v>1754964.907</v>
+        <v>3218034.455</v>
       </c>
     </row>
     <row r="5018">
       <c r="A5018" t="inlineStr">
         <is>
-          <t>2013-03-23</t>
+          <t>2011-07-06</t>
         </is>
       </c>
       <c r="B5018" t="n">
-        <v>3589501.35</v>
+        <v>1754964.907</v>
       </c>
     </row>
     <row r="5019">
       <c r="A5019" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2013-03-23</t>
         </is>
       </c>
       <c r="B5019" t="n">
-        <v>18567759.562</v>
+        <v>3589501.35</v>
       </c>
     </row>
     <row r="5020">
       <c r="A5020" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B5020" t="n">
-        <v>11513696.526</v>
+        <v>18567759.562</v>
       </c>
     </row>
     <row r="5021">
       <c r="A5021" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B5021" t="n">
-        <v>19476737.258</v>
+        <v>11513696.526</v>
       </c>
     </row>
     <row r="5022">
       <c r="A5022" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="B5022" t="n">
-        <v>11785461.662</v>
+        <v>14806048.067</v>
       </c>
     </row>
     <row r="5023">
       <c r="A5023" t="inlineStr">
         <is>
-          <t>2018-05-30</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="B5023" t="n">
-        <v>6201090.208</v>
+        <v>19476737.258</v>
       </c>
     </row>
     <row r="5024">
       <c r="A5024" t="inlineStr">
         <is>
-          <t>2021-01-27</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="B5024" t="n">
-        <v>19974036.715</v>
+        <v>11785461.662</v>
       </c>
     </row>
     <row r="5025">
       <c r="A5025" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2018-05-30</t>
         </is>
       </c>
       <c r="B5025" t="n">
-        <v>8551266.077</v>
+        <v>6201090.208</v>
       </c>
     </row>
     <row r="5026">
       <c r="A5026" t="inlineStr">
         <is>
-          <t>2014-01-28</t>
+          <t>2021-01-27</t>
         </is>
       </c>
       <c r="B5026" t="n">
-        <v>6138215.498</v>
+        <v>19974036.715</v>
       </c>
     </row>
     <row r="5027">
       <c r="A5027" t="inlineStr">
         <is>
-          <t>2015-08-21</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="B5027" t="n">
-        <v>3408662.316</v>
+        <v>8551266.077</v>
       </c>
     </row>
     <row r="5028">
       <c r="A5028" t="inlineStr">
         <is>
-          <t>2011-07-11</t>
+          <t>2014-01-28</t>
         </is>
       </c>
       <c r="B5028" t="n">
-        <v>1780474.358</v>
+        <v>6138215.498</v>
       </c>
     </row>
     <row r="5029">
       <c r="A5029" t="inlineStr">
         <is>
-          <t>2013-03-24</t>
+          <t>2015-08-21</t>
         </is>
       </c>
       <c r="B5029" t="n">
-        <v>3633372.759</v>
+        <v>3408662.316</v>
       </c>
     </row>
     <row r="5030">
       <c r="A5030" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2011-07-11</t>
         </is>
       </c>
       <c r="B5030" t="n">
-        <v>18785986.856</v>
+        <v>1780474.358</v>
       </c>
     </row>
     <row r="5031">
       <c r="A5031" t="inlineStr">
         <is>
-          <t>2018-06-09</t>
+          <t>2013-03-24</t>
         </is>
       </c>
       <c r="B5031" t="n">
-        <v>6011921.198</v>
+        <v>3633372.759</v>
       </c>
     </row>
     <row r="5032">
       <c r="A5032" t="inlineStr">
         <is>
-          <t>2021-02-14</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B5032" t="n">
-        <v>18025144.31</v>
+        <v>18785986.856</v>
       </c>
     </row>
     <row r="5033">
       <c r="A5033" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2018-06-09</t>
         </is>
       </c>
       <c r="B5033" t="n">
-        <v>9524420.506999999</v>
+        <v>6011921.198</v>
       </c>
     </row>
     <row r="5034">
       <c r="A5034" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2021-02-14</t>
         </is>
       </c>
       <c r="B5034" t="n">
-        <v>11482296.535</v>
+        <v>18025144.31</v>
       </c>
     </row>
     <row r="5035">
       <c r="A5035" t="inlineStr">
         <is>
-          <t>2014-02-04</t>
+          <t>2023-12-28</t>
         </is>
       </c>
       <c r="B5035" t="n">
-        <v>5933884.516</v>
+        <v>9524420.506999999</v>
       </c>
     </row>
     <row r="5036">
       <c r="A5036" t="inlineStr">
         <is>
-          <t>2015-09-04</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="B5036" t="n">
-        <v>3873267.812</v>
+        <v>11482296.535</v>
       </c>
     </row>
     <row r="5037">
       <c r="A5037" t="inlineStr">
         <is>
-          <t>2012-11-25</t>
+          <t>2014-02-04</t>
         </is>
       </c>
       <c r="B5037" t="n">
-        <v>1902645.522</v>
+        <v>5933884.516</v>
       </c>
     </row>
     <row r="5038">
       <c r="A5038" t="inlineStr">
         <is>
-          <t>2013-04-06</t>
+          <t>2015-09-04</t>
         </is>
       </c>
       <c r="B5038" t="n">
-        <v>4569312.896</v>
+        <v>3873267.812</v>
       </c>
     </row>
     <row r="5039">
       <c r="A5039" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
       <c r="B5039" t="n">
-        <v>11377694.684</v>
+        <v>1902645.522</v>
       </c>
     </row>
     <row r="5040">
       <c r="A5040" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2013-04-06</t>
         </is>
       </c>
       <c r="B5040" t="n">
-        <v>16169923.625</v>
+        <v>4569312.896</v>
       </c>
     </row>
     <row r="5041">
       <c r="A5041" t="inlineStr">
         <is>
-          <t>2018-06-19</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B5041" t="n">
-        <v>5888257.764</v>
+        <v>11377694.684</v>
       </c>
     </row>
     <row r="5042">
       <c r="A5042" t="inlineStr">
         <is>
-          <t>2021-02-24</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B5042" t="n">
-        <v>17928661.951</v>
+        <v>16169923.625</v>
       </c>
     </row>
     <row r="5043">
       <c r="A5043" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2018-06-19</t>
         </is>
       </c>
       <c r="B5043" t="n">
-        <v>10359819.603</v>
+        <v>5888257.764</v>
       </c>
     </row>
     <row r="5044">
       <c r="A5044" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2021-02-24</t>
         </is>
       </c>
       <c r="B5044" t="n">
-        <v>17551353.824</v>
+        <v>17928661.951</v>
       </c>
     </row>
     <row r="5045">
       <c r="A5045" t="inlineStr">
         <is>
-          <t>2014-04-11</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="B5045" t="n">
-        <v>5486391.567</v>
+        <v>10359819.603</v>
       </c>
     </row>
     <row r="5046">
       <c r="A5046" t="inlineStr">
         <is>
-          <t>2015-09-19</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="B5046" t="n">
-        <v>3664786.161</v>
+        <v>17551353.824</v>
       </c>
     </row>
     <row r="5047">
       <c r="A5047" t="inlineStr">
         <is>
-          <t>2013-02-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
       <c r="B5047" t="n">
-        <v>2562212.317</v>
+        <v>5486391.567</v>
       </c>
     </row>
     <row r="5048">
       <c r="A5048" t="inlineStr">
         <is>
-          <t>2013-04-11</t>
+          <t>2015-09-19</t>
         </is>
       </c>
       <c r="B5048" t="n">
-        <v>5258477.274</v>
+        <v>3664786.161</v>
       </c>
     </row>
     <row r="5049">
       <c r="A5049" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2013-02-14</t>
         </is>
       </c>
       <c r="B5049" t="n">
-        <v>18496989.062</v>
+        <v>2562212.317</v>
       </c>
     </row>
     <row r="5050">
       <c r="A5050" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2013-04-11</t>
         </is>
       </c>
       <c r="B5050" t="n">
-        <v>12884767.419</v>
+        <v>5258477.274</v>
       </c>
     </row>
     <row r="5051">
       <c r="A5051" t="inlineStr">
         <is>
-          <t>2018-07-06</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B5051" t="n">
-        <v>6085617.267</v>
+        <v>18496989.062</v>
       </c>
     </row>
     <row r="5052">
       <c r="A5052" t="inlineStr">
         <is>
-          <t>2021-03-11</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B5052" t="n">
-        <v>17506401.366</v>
+        <v>12884767.419</v>
       </c>
     </row>
     <row r="5053">
       <c r="A5053" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2018-07-06</t>
         </is>
       </c>
       <c r="B5053" t="n">
-        <v>6598014.235</v>
+        <v>6085617.267</v>
       </c>
     </row>
     <row r="5054">
       <c r="A5054" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2021-03-11</t>
         </is>
       </c>
       <c r="B5054" t="n">
-        <v>10277655.606</v>
+        <v>17506401.366</v>
       </c>
     </row>
     <row r="5055">
       <c r="A5055" t="inlineStr">
         <is>
-          <t>2014-04-19</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="B5055" t="n">
-        <v>5485487.586</v>
+        <v>6598014.235</v>
       </c>
     </row>
     <row r="5056">
       <c r="A5056" t="inlineStr">
         <is>
-          <t>2015-05-13</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="B5056" t="n">
-        <v>3230141.766</v>
+        <v>10277655.606</v>
       </c>
     </row>
     <row r="5057">
       <c r="A5057" t="inlineStr">
         <is>
-          <t>2015-10-17</t>
+          <t>2014-04-19</t>
         </is>
       </c>
       <c r="B5057" t="n">
-        <v>3654408.41</v>
+        <v>5485487.586</v>
       </c>
     </row>
     <row r="5058">
       <c r="A5058" t="inlineStr">
         <is>
-          <t>2013-04-18</t>
+          <t>2015-05-13</t>
         </is>
       </c>
       <c r="B5058" t="n">
-        <v>5574917.223</v>
+        <v>3230141.766</v>
       </c>
     </row>
     <row r="5059">
       <c r="A5059" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2015-10-17</t>
         </is>
       </c>
       <c r="B5059" t="n">
-        <v>13906083.942</v>
+        <v>3654408.41</v>
       </c>
     </row>
     <row r="5060">
       <c r="A5060" t="inlineStr">
         <is>
-          <t>2018-07-22</t>
+          <t>2013-04-18</t>
         </is>
       </c>
       <c r="B5060" t="n">
-        <v>5228255.855</v>
+        <v>5574917.223</v>
       </c>
     </row>
     <row r="5061">
       <c r="A5061" t="inlineStr">
         <is>
-          <t>2021-03-26</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B5061" t="n">
-        <v>16111714.082</v>
+        <v>13906083.942</v>
       </c>
     </row>
     <row r="5062">
       <c r="A5062" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2018-07-22</t>
         </is>
       </c>
       <c r="B5062" t="n">
-        <v>11670457.865</v>
+        <v>5228255.855</v>
       </c>
     </row>
     <row r="5063">
       <c r="A5063" t="inlineStr">
         <is>
-          <t>2014-04-25</t>
+          <t>2021-03-26</t>
         </is>
       </c>
       <c r="B5063" t="n">
-        <v>5461830.872</v>
+        <v>16111714.082</v>
       </c>
     </row>
     <row r="5064">
       <c r="A5064" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="B5064" t="n">
-        <v>2729765.372</v>
+        <v>11670457.865</v>
       </c>
     </row>
     <row r="5065">
       <c r="A5065" t="inlineStr">
         <is>
-          <t>2015-11-23</t>
+          <t>2014-04-25</t>
         </is>
       </c>
       <c r="B5065" t="n">
-        <v>4274264.644</v>
+        <v>5461830.872</v>
       </c>
     </row>
     <row r="5066">
       <c r="A5066" t="inlineStr">
         <is>
-          <t>2013-05-12</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="B5066" t="n">
-        <v>5251259.328</v>
+        <v>2729765.372</v>
       </c>
     </row>
     <row r="5067">
       <c r="A5067" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2015-11-23</t>
         </is>
       </c>
       <c r="B5067" t="n">
-        <v>18983749.017</v>
+        <v>4274264.644</v>
       </c>
     </row>
     <row r="5068">
       <c r="A5068" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2013-05-12</t>
         </is>
       </c>
       <c r="B5068" t="n">
-        <v>10054424.048</v>
+        <v>5251259.328</v>
       </c>
     </row>
     <row r="5069">
       <c r="A5069" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B5069" t="n">
-        <v>18523673.383</v>
+        <v>18983749.017</v>
       </c>
     </row>
     <row r="5070">
       <c r="A5070" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="B5070" t="n">
-        <v>6190194.949</v>
+        <v>10054424.048</v>
       </c>
     </row>
     <row r="5071">
       <c r="A5071" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B5071" t="n">
-        <v>6153661.361</v>
+        <v>18523673.383</v>
       </c>
     </row>
     <row r="5072">
       <c r="A5072" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="B5072" t="n">
-        <v>10362802.579</v>
+        <v>6190194.949</v>
       </c>
     </row>
     <row r="5073">
       <c r="A5073" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="B5073" t="n">
-        <v>8173999.195</v>
+        <v>6153661.361</v>
       </c>
     </row>
     <row r="5074">
       <c r="A5074" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2022-11-26</t>
         </is>
       </c>
       <c r="B5074" t="n">
-        <v>8017070.673</v>
+        <v>10362802.579</v>
       </c>
     </row>
     <row r="5075">
       <c r="A5075" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="B5075" t="n">
-        <v>12216862.024</v>
+        <v>8173999.195</v>
       </c>
     </row>
     <row r="5076">
       <c r="A5076" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="B5076" t="n">
-        <v>16777254.692</v>
+        <v>8017070.673</v>
       </c>
     </row>
     <row r="5077">
       <c r="A5077" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B5077" t="n">
-        <v>10786270.903</v>
+        <v>12216862.024</v>
       </c>
     </row>
     <row r="5078">
       <c r="A5078" t="inlineStr">
         <is>
-          <t>2014-04-30</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="B5078" t="n">
-        <v>5420067.424</v>
+        <v>16777254.692</v>
       </c>
     </row>
     <row r="5079">
       <c r="A5079" t="inlineStr">
         <is>
-          <t>2015-12-15</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B5079" t="n">
-        <v>4926141.739</v>
+        <v>10786270.903</v>
       </c>
     </row>
     <row r="5080">
       <c r="A5080" t="inlineStr">
         <is>
-          <t>2013-05-20</t>
+          <t>2014-04-30</t>
         </is>
       </c>
       <c r="B5080" t="n">
-        <v>5042140.665</v>
+        <v>5420067.424</v>
       </c>
     </row>
     <row r="5081">
       <c r="A5081" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2015-12-15</t>
         </is>
       </c>
       <c r="B5081" t="n">
-        <v>12620748.822</v>
+        <v>4926141.739</v>
       </c>
     </row>
     <row r="5082">
       <c r="A5082" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2013-05-20</t>
         </is>
       </c>
       <c r="B5082" t="n">
-        <v>14044333.608</v>
+        <v>5042140.665</v>
       </c>
     </row>
     <row r="5083">
       <c r="A5083" t="inlineStr">
         <is>
-          <t>2017-05-15</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B5083" t="n">
-        <v>10092377.113</v>
+        <v>12620748.822</v>
       </c>
     </row>
     <row r="5084">
       <c r="A5084" t="inlineStr">
         <is>
-          <t>2018-09-13</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B5084" t="n">
-        <v>5716052.208</v>
+        <v>14044333.608</v>
       </c>
     </row>
     <row r="5085">
       <c r="A5085" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2017-05-15</t>
         </is>
       </c>
       <c r="B5085" t="n">
-        <v>12978042.967</v>
+        <v>10092377.113</v>
       </c>
     </row>
     <row r="5086">
       <c r="A5086" t="inlineStr">
         <is>
-          <t>2021-11-14</t>
+          <t>2018-09-13</t>
         </is>
       </c>
       <c r="B5086" t="n">
-        <v>8999892.903000001</v>
+        <v>5716052.208</v>
       </c>
     </row>
     <row r="5087">
       <c r="A5087" t="inlineStr">
         <is>
-          <t>2021-11-15</t>
+          <t>2021-04-13</t>
         </is>
       </c>
       <c r="B5087" t="n">
-        <v>9046092.041999999</v>
+        <v>12978042.967</v>
       </c>
     </row>
     <row r="5088">
       <c r="A5088" t="inlineStr">
         <is>
-          <t>2021-12-05</t>
+          <t>2021-11-14</t>
         </is>
       </c>
       <c r="B5088" t="n">
-        <v>9731141.630999999</v>
+        <v>8999892.903000001</v>
       </c>
     </row>
     <row r="5089">
       <c r="A5089" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2021-11-15</t>
         </is>
       </c>
       <c r="B5089" t="n">
-        <v>9907110.057</v>
+        <v>9046092.041999999</v>
       </c>
     </row>
     <row r="5090">
       <c r="A5090" t="inlineStr">
         <is>
-          <t>2022-01-04</t>
+          <t>2021-12-05</t>
         </is>
       </c>
       <c r="B5090" t="n">
-        <v>9609614.795</v>
+        <v>9731141.630999999</v>
       </c>
     </row>
     <row r="5091">
       <c r="A5091" t="inlineStr">
         <is>
-          <t>2022-01-06</t>
+          <t>2021-12-07</t>
         </is>
       </c>
       <c r="B5091" t="n">
-        <v>9657259.026000001</v>
+        <v>9907110.057</v>
       </c>
     </row>
     <row r="5092">
       <c r="A5092" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-01-04</t>
         </is>
       </c>
       <c r="B5092" t="n">
-        <v>9240975.41</v>
+        <v>9609614.795</v>
       </c>
     </row>
     <row r="5093">
       <c r="A5093" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-01-06</t>
         </is>
       </c>
       <c r="B5093" t="n">
-        <v>9269022.852</v>
+        <v>9657259.026000001</v>
       </c>
     </row>
     <row r="5094">
       <c r="A5094" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="B5094" t="n">
-        <v>10034636.877</v>
+        <v>9240975.41</v>
       </c>
     </row>
     <row r="5095">
       <c r="A5095" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="B5095" t="n">
-        <v>8218318.752</v>
+        <v>9269022.852</v>
       </c>
     </row>
     <row r="5096">
       <c r="A5096" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="B5096" t="n">
-        <v>9030081.539999999</v>
+        <v>10034636.877</v>
       </c>
     </row>
     <row r="5097">
       <c r="A5097" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="B5097" t="n">
-        <v>9212749.865</v>
+        <v>8218318.752</v>
       </c>
     </row>
     <row r="5098">
       <c r="A5098" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="B5098" t="n">
-        <v>9880601.411</v>
+        <v>9030081.539999999</v>
       </c>
     </row>
     <row r="5099">
       <c r="A5099" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="B5099" t="n">
-        <v>9874969.986</v>
+        <v>9212749.865</v>
       </c>
     </row>
     <row r="5100">
       <c r="A5100" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="B5100" t="n">
-        <v>10273334.73</v>
+        <v>9880601.411</v>
       </c>
     </row>
     <row r="5101">
       <c r="A5101" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="B5101" t="n">
-        <v>10435634.731</v>
+        <v>9874969.986</v>
       </c>
     </row>
     <row r="5102">
       <c r="A5102" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B5102" t="n">
-        <v>10366318.076</v>
+        <v>10273334.73</v>
       </c>
     </row>
     <row r="5103">
       <c r="A5103" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B5103" t="n">
-        <v>10213288.827</v>
+        <v>10435634.731</v>
       </c>
     </row>
     <row r="5104">
       <c r="A5104" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="B5104" t="n">
-        <v>9524273.433</v>
+        <v>10366318.076</v>
       </c>
     </row>
     <row r="5105">
       <c r="A5105" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="B5105" t="n">
-        <v>8112862.961</v>
+        <v>10213288.827</v>
       </c>
     </row>
     <row r="5106">
       <c r="A5106" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="B5106" t="n">
-        <v>7953269.825</v>
+        <v>9524273.433</v>
       </c>
     </row>
     <row r="5107">
       <c r="A5107" t="inlineStr">
         <is>
-          <t>2023-03-29</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B5107" t="n">
-        <v>7280535.923</v>
+        <v>8112862.961</v>
       </c>
     </row>
     <row r="5108">
       <c r="A5108" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="B5108" t="n">
-        <v>7702956.401</v>
+        <v>7953269.825</v>
       </c>
     </row>
     <row r="5109">
       <c r="A5109" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2023-03-29</t>
         </is>
       </c>
       <c r="B5109" t="n">
-        <v>7760533.554</v>
+        <v>7280535.923</v>
       </c>
     </row>
     <row r="5110">
       <c r="A5110" t="inlineStr">
         <is>
-          <t>2023-06-11</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="B5110" t="n">
-        <v>8261999.766</v>
+        <v>7702956.401</v>
       </c>
     </row>
     <row r="5111">
       <c r="A5111" t="inlineStr">
         <is>
-          <t>2023-06-12</t>
+          <t>2023-04-19</t>
         </is>
       </c>
       <c r="B5111" t="n">
-        <v>8200427.591</v>
+        <v>7760533.554</v>
       </c>
     </row>
     <row r="5112">
       <c r="A5112" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-06-11</t>
         </is>
       </c>
       <c r="B5112" t="n">
-        <v>8214760.012</v>
+        <v>8261999.766</v>
       </c>
     </row>
     <row r="5113">
       <c r="A5113" t="inlineStr">
         <is>
-          <t>2018-10-06</t>
+          <t>2023-06-12</t>
         </is>
       </c>
       <c r="B5113" t="n">
-        <v>5589914.377</v>
+        <v>8200427.591</v>
       </c>
     </row>
     <row r="5114">
       <c r="A5114" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2023-07-08</t>
         </is>
       </c>
       <c r="B5114" t="n">
-        <v>13532358.233</v>
+        <v>8214760.012</v>
       </c>
     </row>
     <row r="5115">
       <c r="A5115" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2018-10-06</t>
         </is>
       </c>
       <c r="B5115" t="n">
-        <v>12614002.689</v>
+        <v>5589914.377</v>
       </c>
     </row>
     <row r="5116">
       <c r="A5116" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2021-04-29</t>
         </is>
       </c>
       <c r="B5116" t="n">
-        <v>16908871.181</v>
+        <v>13532358.233</v>
       </c>
     </row>
     <row r="5117">
       <c r="A5117" t="inlineStr">
         <is>
-          <t>2013-06-06</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="B5117" t="n">
-        <v>4599987.198</v>
+        <v>12614002.689</v>
       </c>
     </row>
     <row r="5118">
       <c r="A5118" t="inlineStr">
         <is>
-          <t>2014-07-06</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B5118" t="n">
-        <v>2651817.344</v>
+        <v>16908871.181</v>
       </c>
     </row>
     <row r="5119">
       <c r="A5119" t="inlineStr">
         <is>
-          <t>2016-01-06</t>
+          <t>2013-06-06</t>
         </is>
       </c>
       <c r="B5119" t="n">
-        <v>4922546.397</v>
+        <v>4599987.198</v>
       </c>
     </row>
     <row r="5120">
       <c r="A5120" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2014-07-06</t>
         </is>
       </c>
       <c r="B5120" t="n">
-        <v>18944691.526</v>
+        <v>2651817.344</v>
       </c>
     </row>
     <row r="5121">
       <c r="A5121" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2016-01-06</t>
         </is>
       </c>
       <c r="B5121" t="n">
-        <v>17508953.532</v>
+        <v>4922546.397</v>
       </c>
     </row>
     <row r="5122">
       <c r="A5122" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B5122" t="n">
-        <v>13539397.76</v>
+        <v>18944691.526</v>
       </c>
     </row>
     <row r="5123">
       <c r="A5123" t="inlineStr">
         <is>
-          <t>2018-10-22</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B5123" t="n">
-        <v>5898415.348</v>
+        <v>17508953.532</v>
       </c>
     </row>
     <row r="5124">
       <c r="A5124" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="B5124" t="n">
-        <v>13125869.478</v>
+        <v>13539397.76</v>
       </c>
     </row>
     <row r="5125">
       <c r="A5125" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2018-10-22</t>
         </is>
       </c>
       <c r="B5125" t="n">
-        <v>12536685.09</v>
+        <v>5898415.348</v>
       </c>
     </row>
     <row r="5126">
       <c r="A5126" t="inlineStr">
         <is>
-          <t>2013-06-10</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="B5126" t="n">
-        <v>4546996.485</v>
+        <v>13125869.478</v>
       </c>
     </row>
     <row r="5127">
       <c r="A5127" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="B5127" t="n">
-        <v>11463487.194</v>
+        <v>12536685.09</v>
       </c>
     </row>
     <row r="5128">
       <c r="A5128" t="inlineStr">
         <is>
-          <t>2014-07-12</t>
+          <t>2013-06-10</t>
         </is>
       </c>
       <c r="B5128" t="n">
-        <v>2584261.892</v>
+        <v>4546996.485</v>
       </c>
     </row>
     <row r="5129">
       <c r="A5129" t="inlineStr">
         <is>
-          <t>2016-02-04</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B5129" t="n">
-        <v>5485945.959</v>
+        <v>11463487.194</v>
       </c>
     </row>
     <row r="5130">
       <c r="A5130" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2014-07-12</t>
         </is>
       </c>
       <c r="B5130" t="n">
-        <v>17420607.699</v>
+        <v>2584261.892</v>
       </c>
     </row>
     <row r="5131">
       <c r="A5131" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2016-02-04</t>
         </is>
       </c>
       <c r="B5131" t="n">
-        <v>16742051.234</v>
+        <v>5485945.959</v>
       </c>
     </row>
     <row r="5132">
       <c r="A5132" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="B5132" t="n">
-        <v>10154290.861</v>
+        <v>17420607.699</v>
       </c>
     </row>
     <row r="5133">
       <c r="A5133" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B5133" t="n">
-        <v>5966396.144</v>
+        <v>16742051.234</v>
       </c>
     </row>
     <row r="5134">
       <c r="A5134" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="B5134" t="n">
-        <v>13060043.261</v>
+        <v>10154290.861</v>
       </c>
     </row>
     <row r="5135">
       <c r="A5135" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="B5135" t="n">
-        <v>13198740.126</v>
+        <v>5966396.144</v>
       </c>
     </row>
     <row r="5136">
       <c r="A5136" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="B5136" t="n">
-        <v>15762243.002</v>
+        <v>13060043.261</v>
       </c>
     </row>
     <row r="5137">
       <c r="A5137" t="inlineStr">
         <is>
-          <t>2013-06-27</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="B5137" t="n">
-        <v>4002308.164</v>
+        <v>13198740.126</v>
       </c>
     </row>
     <row r="5138">
       <c r="A5138" t="inlineStr">
         <is>
-          <t>2014-07-19</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="B5138" t="n">
-        <v>2463584.735</v>
+        <v>15762243.002</v>
       </c>
     </row>
     <row r="5139">
       <c r="A5139" t="inlineStr">
         <is>
-          <t>2016-02-19</t>
+          <t>2013-06-27</t>
         </is>
       </c>
       <c r="B5139" t="n">
-        <v>5426730.361</v>
+        <v>4002308.164</v>
       </c>
     </row>
     <row r="5140">
       <c r="A5140" t="inlineStr">
         <is>
-          <t>2024-10-12</t>
+          <t>2014-07-19</t>
         </is>
       </c>
       <c r="B5140" t="n">
-        <v>10165678.695</v>
+        <v>2463584.735</v>
       </c>
     </row>
     <row r="5141">
       <c r="A5141" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2016-02-19</t>
         </is>
       </c>
       <c r="B5141" t="n">
-        <v>19324380.182</v>
+        <v>5426730.361</v>
       </c>
     </row>
     <row r="5142">
       <c r="A5142" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-10-12</t>
         </is>
       </c>
       <c r="B5142" t="n">
-        <v>16662741.532</v>
+        <v>10165678.695</v>
       </c>
     </row>
     <row r="5143">
       <c r="A5143" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B5143" t="n">
-        <v>11982419.652</v>
+        <v>19324380.182</v>
       </c>
     </row>
     <row r="5144">
       <c r="A5144" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B5144" t="n">
-        <v>18518628.999</v>
+        <v>16662741.532</v>
       </c>
     </row>
     <row r="5145">
       <c r="A5145" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B5145" t="n">
-        <v>11533542.22</v>
+        <v>11982419.652</v>
       </c>
     </row>
     <row r="5146">
       <c r="A5146" t="inlineStr">
         <is>
-          <t>2018-11-29</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B5146" t="n">
-        <v>5868364.27</v>
+        <v>18518628.999</v>
       </c>
     </row>
     <row r="5147">
       <c r="A5147" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B5147" t="n">
-        <v>12659047.396</v>
+        <v>11533542.22</v>
       </c>
     </row>
     <row r="5148">
       <c r="A5148" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="B5148" t="n">
-        <v>13742960</v>
+        <v>5868364.27</v>
       </c>
     </row>
     <row r="5149">
       <c r="A5149" t="inlineStr">
         <is>
-          <t>2013-06-28</t>
+          <t>2021-05-26</t>
         </is>
       </c>
       <c r="B5149" t="n">
-        <v>3944583.64</v>
+        <v>12659047.396</v>
       </c>
     </row>
     <row r="5150">
       <c r="A5150" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B5150" t="n">
-        <v>11890718.505</v>
+        <v>13742960</v>
       </c>
     </row>
     <row r="5151">
       <c r="A5151" t="inlineStr">
         <is>
-          <t>2014-07-26</t>
+          <t>2013-06-28</t>
         </is>
       </c>
       <c r="B5151" t="n">
-        <v>2518919.825</v>
+        <v>3944583.64</v>
       </c>
     </row>
     <row r="5152">
       <c r="A5152" t="inlineStr">
         <is>
-          <t>2016-03-04</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B5152" t="n">
-        <v>5778833.318</v>
+        <v>11890718.505</v>
       </c>
     </row>
     <row r="5153">
       <c r="A5153" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2014-07-26</t>
         </is>
       </c>
       <c r="B5153" t="n">
-        <v>17921349.452</v>
+        <v>2518919.825</v>
       </c>
     </row>
     <row r="5154">
       <c r="A5154" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2016-03-04</t>
         </is>
       </c>
       <c r="B5154" t="n">
-        <v>12190152.036</v>
+        <v>5778833.318</v>
       </c>
     </row>
     <row r="5155">
       <c r="A5155" t="inlineStr">
         <is>
-          <t>2019-01-13</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B5155" t="n">
-        <v>14122551.88</v>
+        <v>17921349.452</v>
       </c>
     </row>
     <row r="5156">
       <c r="A5156" t="inlineStr">
         <is>
-          <t>2021-06-14</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B5156" t="n">
-        <v>11639185.801</v>
+        <v>12190152.036</v>
       </c>
     </row>
     <row r="5157">
       <c r="A5157" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2019-01-13</t>
         </is>
       </c>
       <c r="B5157" t="n">
-        <v>15843658.658</v>
+        <v>14122551.88</v>
       </c>
     </row>
     <row r="5158">
       <c r="A5158" t="inlineStr">
         <is>
-          <t>2013-07-20</t>
+          <t>2021-06-14</t>
         </is>
       </c>
       <c r="B5158" t="n">
-        <v>2418821.13</v>
+        <v>11639185.801</v>
       </c>
     </row>
     <row r="5159">
       <c r="A5159" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="B5159" t="n">
-        <v>19799814.996</v>
+        <v>15843658.658</v>
       </c>
     </row>
     <row r="5160">
       <c r="A5160" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2013-07-20</t>
         </is>
       </c>
       <c r="B5160" t="n">
-        <v>16092268.729</v>
+        <v>2418821.13</v>
       </c>
     </row>
     <row r="5161">
       <c r="A5161" t="inlineStr">
         <is>
-          <t>2014-08-02</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B5161" t="n">
-        <v>2629106.898</v>
+        <v>19799814.996</v>
       </c>
     </row>
     <row r="5162">
       <c r="A5162" t="inlineStr">
         <is>
-          <t>2016-03-18</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="B5162" t="n">
-        <v>6029787.816</v>
+        <v>16092268.729</v>
       </c>
     </row>
     <row r="5163">
       <c r="A5163" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2014-08-02</t>
         </is>
       </c>
       <c r="B5163" t="n">
-        <v>13888250.184</v>
+        <v>2629106.898</v>
       </c>
     </row>
     <row r="5164">
       <c r="A5164" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2016-03-18</t>
         </is>
       </c>
       <c r="B5164" t="n">
-        <v>13422882.236</v>
+        <v>6029787.816</v>
       </c>
     </row>
     <row r="5165">
       <c r="A5165" t="inlineStr">
         <is>
-          <t>2019-01-29</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B5165" t="n">
-        <v>15644638.336</v>
+        <v>13888250.184</v>
       </c>
     </row>
     <row r="5166">
       <c r="A5166" t="inlineStr">
         <is>
-          <t>2021-06-29</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B5166" t="n">
-        <v>10913626.968</v>
+        <v>13422882.236</v>
       </c>
     </row>
     <row r="5167">
       <c r="A5167" t="inlineStr">
         <is>
-          <t>2024-03-23</t>
+          <t>2019-01-29</t>
         </is>
       </c>
       <c r="B5167" t="n">
-        <v>19077349.963</v>
+        <v>15644638.336</v>
       </c>
     </row>
     <row r="5168">
       <c r="A5168" t="inlineStr">
         <is>
-          <t>2013-08-08</t>
+          <t>2021-06-29</t>
         </is>
       </c>
       <c r="B5168" t="n">
-        <v>2304856.993</v>
+        <v>10913626.968</v>
       </c>
     </row>
     <row r="5169">
       <c r="A5169" t="inlineStr">
         <is>
-          <t>2014-08-08</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="B5169" t="n">
-        <v>2848618.131</v>
+        <v>19077349.963</v>
       </c>
     </row>
     <row r="5170">
       <c r="A5170" t="inlineStr">
         <is>
-          <t>2016-04-16</t>
+          <t>2013-08-08</t>
         </is>
       </c>
       <c r="B5170" t="n">
-        <v>6185360.008</v>
+        <v>2304856.993</v>
       </c>
     </row>
     <row r="5171">
       <c r="A5171" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2014-08-08</t>
         </is>
       </c>
       <c r="B5171" t="n">
-        <v>13449347.64</v>
+        <v>2848618.131</v>
       </c>
     </row>
     <row r="5172">
       <c r="A5172" t="inlineStr">
         <is>
-          <t>2019-02-14</t>
+          <t>2016-04-16</t>
         </is>
       </c>
       <c r="B5172" t="n">
-        <v>15372460.768</v>
+        <v>6185360.008</v>
       </c>
     </row>
     <row r="5173">
       <c r="A5173" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B5173" t="n">
-        <v>9416090.248</v>
+        <v>13449347.64</v>
       </c>
     </row>
     <row r="5174">
       <c r="A5174" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2019-02-14</t>
         </is>
       </c>
       <c r="B5174" t="n">
-        <v>19554838.811</v>
+        <v>15372460.768</v>
       </c>
     </row>
     <row r="5175">
       <c r="A5175" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="B5175" t="n">
-        <v>15736728.197</v>
+        <v>9416090.248</v>
       </c>
     </row>
     <row r="5176">
       <c r="A5176" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2024-03-30</t>
         </is>
       </c>
       <c r="B5176" t="n">
-        <v>18061928.338</v>
+        <v>19554838.811</v>
       </c>
     </row>
     <row r="5177">
       <c r="A5177" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="B5177" t="n">
-        <v>18195056.999</v>
+        <v>15736728.197</v>
       </c>
     </row>
     <row r="5178">
       <c r="A5178" t="inlineStr">
         <is>
-          <t>2013-08-22</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B5178" t="n">
-        <v>2483113.932</v>
+        <v>18061928.338</v>
       </c>
     </row>
     <row r="5179">
       <c r="A5179" t="inlineStr">
         <is>
-          <t>2014-08-24</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B5179" t="n">
-        <v>2907894.968</v>
+        <v>18195056.999</v>
       </c>
     </row>
     <row r="5180">
       <c r="A5180" t="inlineStr">
         <is>
-          <t>2016-04-30</t>
+          <t>2013-08-22</t>
         </is>
       </c>
       <c r="B5180" t="n">
-        <v>5584076.258</v>
+        <v>2483113.932</v>
       </c>
     </row>
     <row r="5181">
       <c r="A5181" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2014-08-24</t>
         </is>
       </c>
       <c r="B5181" t="n">
-        <v>10139727.84</v>
+        <v>2907894.968</v>
       </c>
     </row>
     <row r="5182">
       <c r="A5182" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2016-04-30</t>
         </is>
       </c>
       <c r="B5182" t="n">
-        <v>20311437.78</v>
+        <v>5584076.258</v>
       </c>
     </row>
     <row r="5183">
       <c r="A5183" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="B5183" t="n">
-        <v>19921671.37</v>
+        <v>10139727.84</v>
       </c>
     </row>
     <row r="5184">
       <c r="A5184" t="inlineStr">
         <is>
-          <t>2019-03-08</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="B5184" t="n">
-        <v>7888479.131</v>
+        <v>20311437.78</v>
       </c>
     </row>
     <row r="5185">
       <c r="A5185" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="B5185" t="n">
-        <v>10017123.009</v>
+        <v>19921671.37</v>
       </c>
     </row>
     <row r="5186">
       <c r="A5186" t="inlineStr">
         <is>
-          <t>2024-04-06</t>
+          <t>2019-03-08</t>
         </is>
       </c>
       <c r="B5186" t="n">
-        <v>19912305.448</v>
+        <v>7888479.131</v>
       </c>
     </row>
     <row r="5187">
       <c r="A5187" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2021-08-08</t>
         </is>
       </c>
       <c r="B5187" t="n">
-        <v>15408192.117</v>
+        <v>10017123.009</v>
       </c>
     </row>
     <row r="5188">
       <c r="A5188" t="inlineStr">
         <is>
-          <t>2013-09-08</t>
+          <t>2024-04-06</t>
         </is>
       </c>
       <c r="B5188" t="n">
-        <v>2309043.439</v>
+        <v>19912305.448</v>
       </c>
     </row>
     <row r="5189">
       <c r="A5189" t="inlineStr">
         <is>
-          <t>2014-08-30</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="B5189" t="n">
-        <v>2814593.841</v>
+        <v>15408192.117</v>
       </c>
     </row>
     <row r="5190">
       <c r="A5190" t="inlineStr">
         <is>
-          <t>2016-05-11</t>
+          <t>2013-09-08</t>
         </is>
       </c>
       <c r="B5190" t="n">
-        <v>5531832.262</v>
+        <v>2309043.439</v>
       </c>
     </row>
     <row r="5191">
       <c r="A5191" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2014-08-30</t>
         </is>
       </c>
       <c r="B5191" t="n">
-        <v>13010963.419</v>
+        <v>2814593.841</v>
       </c>
     </row>
     <row r="5192">
       <c r="A5192" t="inlineStr">
         <is>
-          <t>2019-03-14</t>
+          <t>2016-05-11</t>
         </is>
       </c>
       <c r="B5192" t="n">
-        <v>7713021.774</v>
+        <v>5531832.262</v>
       </c>
     </row>
     <row r="5193">
       <c r="A5193" t="inlineStr">
         <is>
-          <t>2021-08-13</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="B5193" t="n">
-        <v>9574167.65</v>
+        <v>13010963.419</v>
       </c>
     </row>
     <row r="5194">
       <c r="A5194" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2019-03-14</t>
         </is>
       </c>
       <c r="B5194" t="n">
-        <v>17931313.804</v>
+        <v>7713021.774</v>
       </c>
     </row>
     <row r="5195">
       <c r="A5195" t="inlineStr">
         <is>
-          <t>2013-09-10</t>
+          <t>2021-08-13</t>
         </is>
       </c>
       <c r="B5195" t="n">
-        <v>2350507.87</v>
+        <v>9574167.65</v>
       </c>
     </row>
     <row r="5196">
       <c r="A5196" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="B5196" t="n">
-        <v>13202621.428</v>
+        <v>17931313.804</v>
       </c>
     </row>
     <row r="5197">
       <c r="A5197" t="inlineStr">
         <is>
-          <t>2014-09-24</t>
+          <t>2013-09-10</t>
         </is>
       </c>
       <c r="B5197" t="n">
-        <v>2654246.128</v>
+        <v>2350507.87</v>
       </c>
     </row>
     <row r="5198">
       <c r="A5198" t="inlineStr">
         <is>
-          <t>2016-05-26</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B5198" t="n">
-        <v>5654997.006</v>
+        <v>13202621.428</v>
       </c>
     </row>
     <row r="5199">
       <c r="A5199" t="inlineStr">
         <is>
-          <t>2019-03-30</t>
+          <t>2014-09-24</t>
         </is>
       </c>
       <c r="B5199" t="n">
-        <v>7636682.731</v>
+        <v>2654246.128</v>
       </c>
     </row>
     <row r="5200">
       <c r="A5200" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2016-05-26</t>
         </is>
       </c>
       <c r="B5200" t="n">
-        <v>9115635.342</v>
+        <v>5654997.006</v>
       </c>
     </row>
     <row r="5201">
       <c r="A5201" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2019-03-30</t>
         </is>
       </c>
       <c r="B5201" t="n">
-        <v>17680988.152</v>
+        <v>7636682.731</v>
       </c>
     </row>
     <row r="5202">
       <c r="A5202" t="inlineStr">
         <is>
-          <t>2013-10-04</t>
+          <t>2021-08-18</t>
         </is>
       </c>
       <c r="B5202" t="n">
-        <v>2315949.206</v>
+        <v>9115635.342</v>
       </c>
     </row>
     <row r="5203">
       <c r="A5203" t="inlineStr">
         <is>
-          <t>2016-07-20</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="B5203" t="n">
-        <v>5964902.839</v>
+        <v>17680988.152</v>
       </c>
     </row>
     <row r="5204">
       <c r="A5204" t="inlineStr">
         <is>
-          <t>2014-09-30</t>
+          <t>2013-10-04</t>
         </is>
       </c>
       <c r="B5204" t="n">
-        <v>2625686.029</v>
+        <v>2315949.206</v>
       </c>
     </row>
     <row r="5205">
       <c r="A5205" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2016-07-20</t>
         </is>
       </c>
       <c r="B5205" t="n">
-        <v>14555529.314</v>
+        <v>5964902.839</v>
       </c>
     </row>
     <row r="5206">
       <c r="A5206" t="inlineStr">
         <is>
-          <t>2019-04-15</t>
+          <t>2014-09-30</t>
         </is>
       </c>
       <c r="B5206" t="n">
-        <v>6167355.699</v>
+        <v>2625686.029</v>
       </c>
     </row>
     <row r="5207">
       <c r="A5207" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B5207" t="n">
-        <v>8491040.936000001</v>
+        <v>14555529.314</v>
       </c>
     </row>
     <row r="5208">
       <c r="A5208" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2019-04-15</t>
         </is>
       </c>
       <c r="B5208" t="n">
-        <v>17316630.871</v>
+        <v>6167355.699</v>
       </c>
     </row>
     <row r="5209">
       <c r="A5209" t="inlineStr">
         <is>
-          <t>2013-10-22</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="B5209" t="n">
-        <v>2877443.953</v>
+        <v>8491040.936000001</v>
       </c>
     </row>
     <row r="5210">
       <c r="A5210" t="inlineStr">
         <is>
-          <t>2016-08-03</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="B5210" t="n">
-        <v>5948319.051</v>
+        <v>17316630.871</v>
       </c>
     </row>
     <row r="5211">
       <c r="A5211" t="inlineStr">
         <is>
-          <t>2014-10-07</t>
+          <t>2013-10-22</t>
         </is>
       </c>
       <c r="B5211" t="n">
-        <v>2920545.529</v>
+        <v>2877443.953</v>
       </c>
     </row>
     <row r="5212">
       <c r="A5212" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2016-08-03</t>
         </is>
       </c>
       <c r="B5212" t="n">
-        <v>9876625.647</v>
+        <v>5948319.051</v>
       </c>
     </row>
     <row r="5213">
       <c r="A5213" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2014-10-07</t>
         </is>
       </c>
       <c r="B5213" t="n">
-        <v>9348543.609999999</v>
+        <v>2920545.529</v>
       </c>
     </row>
     <row r="5214">
       <c r="A5214" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B5214" t="n">
-        <v>14080491.729</v>
+        <v>9876625.647</v>
       </c>
     </row>
     <row r="5215">
       <c r="A5215" t="inlineStr">
         <is>
-          <t>2019-04-30</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B5215" t="n">
-        <v>6286634.574</v>
+        <v>9348543.609999999</v>
       </c>
     </row>
     <row r="5216">
       <c r="A5216" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B5216" t="n">
-        <v>8893796.503</v>
+        <v>14080491.729</v>
       </c>
     </row>
     <row r="5217">
       <c r="A5217" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2019-04-30</t>
         </is>
       </c>
       <c r="B5217" t="n">
-        <v>16658702.812</v>
+        <v>6286634.574</v>
       </c>
     </row>
     <row r="5218">
       <c r="A5218" t="inlineStr">
         <is>
-          <t>2024-07-06</t>
+          <t>2021-09-26</t>
         </is>
       </c>
       <c r="B5218" t="n">
-        <v>15649596.102</v>
+        <v>8893796.503</v>
       </c>
     </row>
     <row r="5219">
       <c r="A5219" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="B5219" t="n">
-        <v>11176294.018</v>
+        <v>16658702.812</v>
       </c>
     </row>
     <row r="5220">
       <c r="A5220" t="inlineStr">
         <is>
-          <t>2013-10-25</t>
+          <t>2024-07-06</t>
         </is>
       </c>
       <c r="B5220" t="n">
-        <v>3355406.547</v>
+        <v>15649596.102</v>
       </c>
     </row>
     <row r="5221">
       <c r="A5221" t="inlineStr">
         <is>
-          <t>2014-10-14</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B5221" t="n">
-        <v>3051641.316</v>
+        <v>11176294.018</v>
       </c>
     </row>
     <row r="5222">
       <c r="A5222" t="inlineStr">
         <is>
-          <t>2016-08-18</t>
+          <t>2013-10-25</t>
         </is>
       </c>
       <c r="B5222" t="n">
-        <v>5520205.846</v>
+        <v>3355406.547</v>
       </c>
     </row>
     <row r="5223">
       <c r="A5223" t="inlineStr">
         <is>
-          <t>2019-05-09</t>
+          <t>2014-10-14</t>
         </is>
       </c>
       <c r="B5223" t="n">
-        <v>6645336.202</v>
+        <v>3051641.316</v>
       </c>
     </row>
     <row r="5224">
       <c r="A5224" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2016-08-18</t>
         </is>
       </c>
       <c r="B5224" t="n">
-        <v>8760085.365</v>
+        <v>5520205.846</v>
       </c>
     </row>
     <row r="5225">
       <c r="A5225" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2019-05-09</t>
         </is>
       </c>
       <c r="B5225" t="n">
-        <v>20506438.825</v>
+        <v>6645336.202</v>
       </c>
     </row>
     <row r="5226">
       <c r="A5226" t="inlineStr">
         <is>
-          <t>2013-11-17</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="B5226" t="n">
-        <v>4107747.394</v>
+        <v>8760085.365</v>
       </c>
     </row>
     <row r="5227">
       <c r="A5227" t="inlineStr">
         <is>
-          <t>2016-09-03</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B5227" t="n">
-        <v>5203377.911</v>
+        <v>20506438.825</v>
       </c>
     </row>
     <row r="5228">
       <c r="A5228" t="inlineStr">
         <is>
-          <t>2014-10-22</t>
+          <t>2013-11-17</t>
         </is>
       </c>
       <c r="B5228" t="n">
-        <v>3035976.286</v>
+        <v>4107747.394</v>
       </c>
     </row>
     <row r="5229">
       <c r="A5229" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2016-09-03</t>
         </is>
       </c>
       <c r="B5229" t="n">
-        <v>18413104.776</v>
+        <v>5203377.911</v>
       </c>
     </row>
     <row r="5230">
       <c r="A5230" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2014-10-22</t>
         </is>
       </c>
       <c r="B5230" t="n">
-        <v>14548570.861</v>
+        <v>3035976.286</v>
       </c>
     </row>
     <row r="5231">
       <c r="A5231" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B5231" t="n">
-        <v>7905786.007</v>
+        <v>18413104.776</v>
       </c>
     </row>
     <row r="5232">
       <c r="A5232" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B5232" t="n">
-        <v>9073650.025</v>
+        <v>14548570.861</v>
       </c>
     </row>
     <row r="5233">
       <c r="A5233" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="B5233" t="n">
-        <v>19218055.445</v>
+        <v>7905786.007</v>
       </c>
     </row>
     <row r="5234">
       <c r="A5234" t="inlineStr">
         <is>
-          <t>2013-12-16</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="B5234" t="n">
-        <v>5816249.876</v>
+        <v>9073650.025</v>
       </c>
     </row>
     <row r="5235">
       <c r="A5235" t="inlineStr">
         <is>
-          <t>2016-10-09</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B5235" t="n">
-        <v>4052991.609</v>
+        <v>19218055.445</v>
       </c>
     </row>
     <row r="5236">
       <c r="A5236" t="inlineStr">
         <is>
-          <t>2014-11-04</t>
+          <t>2013-12-16</t>
         </is>
       </c>
       <c r="B5236" t="n">
-        <v>2855446.32</v>
+        <v>5816249.876</v>
       </c>
     </row>
     <row r="5237">
       <c r="A5237" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2016-10-09</t>
         </is>
       </c>
       <c r="B5237" t="n">
-        <v>9252340.935000001</v>
+        <v>4052991.609</v>
       </c>
     </row>
     <row r="5238">
       <c r="A5238" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2014-11-04</t>
         </is>
       </c>
       <c r="B5238" t="n">
-        <v>14880148.605</v>
+        <v>2855446.32</v>
       </c>
     </row>
     <row r="5239">
       <c r="A5239" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2024-10-06</t>
         </is>
       </c>
       <c r="B5239" t="n">
-        <v>14601308.011</v>
+        <v>9252340.935000001</v>
       </c>
     </row>
     <row r="5240">
       <c r="A5240" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B5240" t="n">
-        <v>12724123.607</v>
+        <v>14880148.605</v>
       </c>
     </row>
     <row r="5241">
       <c r="A5241" t="inlineStr">
         <is>
-          <t>2019-08-21</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B5241" t="n">
-        <v>12393381.677</v>
+        <v>14601308.011</v>
       </c>
     </row>
     <row r="5242">
       <c r="A5242" t="inlineStr">
         <is>
-          <t>2021-12-01</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B5242" t="n">
-        <v>9613862.286</v>
+        <v>12724123.607</v>
       </c>
     </row>
     <row r="5243">
       <c r="A5243" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2019-08-21</t>
         </is>
       </c>
       <c r="B5243" t="n">
-        <v>18218036.776</v>
+        <v>12393381.677</v>
       </c>
     </row>
     <row r="5244">
       <c r="A5244" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="B5244" t="n">
-        <v>16265749.775</v>
+        <v>9613862.286</v>
       </c>
     </row>
     <row r="5245">
       <c r="A5245" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B5245" t="n">
-        <v>16670126.739</v>
+        <v>18218036.776</v>
       </c>
     </row>
     <row r="5246">
       <c r="A5246" t="inlineStr">
         <is>
-          <t>2013-12-26</t>
+          <t>2024-07-27</t>
         </is>
       </c>
       <c r="B5246" t="n">
-        <v>6915819.538</v>
+        <v>16265749.775</v>
       </c>
     </row>
     <row r="5247">
       <c r="A5247" t="inlineStr">
         <is>
-          <t>2014-11-12</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="B5247" t="n">
-        <v>3023467.834</v>
+        <v>16670126.739</v>
       </c>
     </row>
     <row r="5248">
       <c r="A5248" t="inlineStr">
         <is>
-          <t>2010-09-24</t>
+          <t>2013-12-26</t>
         </is>
       </c>
       <c r="B5248" t="n">
-        <v>112259.447</v>
+        <v>6915819.538</v>
       </c>
     </row>
     <row r="5249">
       <c r="A5249" t="inlineStr">
         <is>
-          <t>2016-10-23</t>
+          <t>2014-11-12</t>
         </is>
       </c>
       <c r="B5249" t="n">
-        <v>4402004.723</v>
+        <v>3023467.834</v>
       </c>
     </row>
     <row r="5250">
       <c r="A5250" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2010-09-24</t>
         </is>
       </c>
       <c r="B5250" t="n">
-        <v>19014663.42</v>
+        <v>112259.447</v>
       </c>
     </row>
     <row r="5251">
       <c r="A5251" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2016-10-23</t>
         </is>
       </c>
       <c r="B5251" t="n">
-        <v>18095870.058</v>
+        <v>4402004.723</v>
       </c>
     </row>
     <row r="5252">
       <c r="A5252" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="B5252" t="n">
-        <v>9408798.934</v>
+        <v>19014663.42</v>
       </c>
     </row>
     <row r="5253">
       <c r="A5253" t="inlineStr">
         <is>
-          <t>2019-09-19</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B5253" t="n">
-        <v>11427939.892</v>
+        <v>18095870.058</v>
       </c>
     </row>
     <row r="5254">
       <c r="A5254" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B5254" t="n">
-        <v>9957806.918</v>
+        <v>9408798.934</v>
       </c>
     </row>
     <row r="5255">
       <c r="A5255" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2019-09-19</t>
         </is>
       </c>
       <c r="B5255" t="n">
-        <v>17239012.79</v>
+        <v>11427939.892</v>
       </c>
     </row>
     <row r="5256">
       <c r="A5256" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="B5256" t="n">
-        <v>11167233.165</v>
+        <v>9957806.918</v>
       </c>
     </row>
     <row r="5257">
       <c r="A5257" t="inlineStr">
         <is>
-          <t>2016-12-09</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B5257" t="n">
-        <v>5405479.025</v>
+        <v>17239012.79</v>
       </c>
     </row>
     <row r="5258">
       <c r="A5258" t="inlineStr">
         <is>
-          <t>2014-01-10</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B5258" t="n">
-        <v>6911767.667</v>
+        <v>11167233.165</v>
       </c>
     </row>
     <row r="5259">
       <c r="A5259" t="inlineStr">
         <is>
-          <t>2014-11-18</t>
+          <t>2016-12-09</t>
         </is>
       </c>
       <c r="B5259" t="n">
-        <v>3039813.332</v>
+        <v>5405479.025</v>
       </c>
     </row>
     <row r="5260">
       <c r="A5260" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2014-01-10</t>
         </is>
       </c>
       <c r="B5260" t="n">
-        <v>10958641.073</v>
+        <v>6911767.667</v>
       </c>
     </row>
     <row r="5261">
       <c r="A5261" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2014-11-18</t>
         </is>
       </c>
       <c r="B5261" t="n">
-        <v>10512254.974</v>
+        <v>3039813.332</v>
       </c>
     </row>
     <row r="5262">
       <c r="A5262" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B5262" t="n">
-        <v>18752011.913</v>
+        <v>10958641.073</v>
       </c>
     </row>
     <row r="5263">
       <c r="A5263" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B5263" t="n">
-        <v>18684510.463</v>
+        <v>10512254.974</v>
       </c>
     </row>
     <row r="5264">
       <c r="A5264" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B5264" t="n">
-        <v>9947791.287</v>
+        <v>18752011.913</v>
       </c>
     </row>
     <row r="5265">
       <c r="A5265" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B5265" t="n">
-        <v>8830961.847999999</v>
+        <v>18684510.463</v>
       </c>
     </row>
     <row r="5266">
       <c r="A5266" t="inlineStr">
         <is>
-          <t>2014-01-19</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="B5266" t="n">
-        <v>6709581.37</v>
+        <v>9947791.287</v>
       </c>
     </row>
     <row r="5267">
       <c r="A5267" t="inlineStr">
         <is>
-          <t>2016-12-14</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="B5267" t="n">
-        <v>5441150.314</v>
+        <v>8830961.847999999</v>
       </c>
     </row>
     <row r="5268">
       <c r="A5268" t="inlineStr">
         <is>
-          <t>2014-12-15</t>
+          <t>2014-01-19</t>
         </is>
       </c>
       <c r="B5268" t="n">
-        <v>3652983.074</v>
+        <v>6709581.37</v>
       </c>
     </row>
     <row r="5269">
       <c r="A5269" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2016-12-14</t>
         </is>
       </c>
       <c r="B5269" t="n">
-        <v>14765108.135</v>
+        <v>5441150.314</v>
       </c>
     </row>
     <row r="5270">
       <c r="A5270" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2014-12-15</t>
         </is>
       </c>
       <c r="B5270" t="n">
-        <v>10407093</v>
+        <v>3652983.074</v>
       </c>
     </row>
     <row r="5271">
       <c r="A5271" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B5271" t="n">
-        <v>12989124.134</v>
+        <v>14765108.135</v>
       </c>
     </row>
     <row r="5272">
       <c r="A5272" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B5272" t="n">
-        <v>14396933.475</v>
+        <v>10407093</v>
       </c>
     </row>
     <row r="5273">
       <c r="A5273" t="inlineStr">
         <is>
-          <t>2019-10-25</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="B5273" t="n">
-        <v>10081112.066</v>
+        <v>12989124.134</v>
       </c>
     </row>
     <row r="5274">
       <c r="A5274" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B5274" t="n">
-        <v>9996728.27</v>
+        <v>14396933.475</v>
       </c>
     </row>
     <row r="5275">
       <c r="A5275" t="inlineStr">
         <is>
-          <t>2014-01-20</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="B5275" t="n">
-        <v>6614252.892</v>
+        <v>10081112.066</v>
       </c>
     </row>
     <row r="5276">
       <c r="A5276" t="inlineStr">
         <is>
-          <t>2016-12-30</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="B5276" t="n">
-        <v>6503628.164</v>
+        <v>9996728.27</v>
       </c>
     </row>
     <row r="5277">
       <c r="A5277" t="inlineStr">
         <is>
-          <t>2014-12-22</t>
+          <t>2014-01-20</t>
         </is>
       </c>
       <c r="B5277" t="n">
-        <v>3563708.16</v>
+        <v>6614252.892</v>
       </c>
     </row>
     <row r="5278">
       <c r="A5278" t="inlineStr">
         <is>
-          <t>2010-09-21</t>
+          <t>2016-12-30</t>
         </is>
       </c>
       <c r="B5278" t="n">
-        <v>111207.989</v>
+        <v>6503628.164</v>
       </c>
     </row>
     <row r="5279">
       <c r="A5279" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2014-12-22</t>
         </is>
       </c>
       <c r="B5279" t="n">
-        <v>19753403.705</v>
+        <v>3563708.16</v>
       </c>
     </row>
     <row r="5280">
       <c r="A5280" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2010-09-21</t>
         </is>
       </c>
       <c r="B5280" t="n">
-        <v>8145349.405</v>
+        <v>111207.989</v>
       </c>
     </row>
     <row r="5281">
       <c r="A5281" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B5281" t="n">
-        <v>8685248.65</v>
+        <v>19753403.705</v>
       </c>
     </row>
     <row r="5282">
       <c r="A5282" t="inlineStr">
         <is>
-          <t>2014-01-23</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B5282" t="n">
-        <v>6168423.578</v>
+        <v>8145349.405</v>
       </c>
     </row>
     <row r="5283">
       <c r="A5283" t="inlineStr">
         <is>
-          <t>2017-01-29</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="B5283" t="n">
-        <v>7399149.518</v>
+        <v>8685248.65</v>
       </c>
     </row>
     <row r="5284">
       <c r="A5284" t="inlineStr">
         <is>
-          <t>2014-12-28</t>
+          <t>2014-01-23</t>
         </is>
       </c>
       <c r="B5284" t="n">
-        <v>3660548.296</v>
+        <v>6168423.578</v>
       </c>
     </row>
     <row r="5285">
       <c r="A5285" t="inlineStr">
         <is>
-          <t>2011-07-03</t>
+          <t>2017-01-29</t>
         </is>
       </c>
       <c r="B5285" t="n">
-        <v>1736677.834</v>
+        <v>7399149.518</v>
       </c>
     </row>
     <row r="5286">
       <c r="A5286" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2014-12-28</t>
         </is>
       </c>
       <c r="B5286" t="n">
-        <v>18949481.536</v>
+        <v>3660548.296</v>
       </c>
     </row>
     <row r="5287">
       <c r="A5287" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2011-07-03</t>
         </is>
       </c>
       <c r="B5287" t="n">
-        <v>12847069.898</v>
+        <v>1736677.834</v>
       </c>
     </row>
     <row r="5288">
       <c r="A5288" t="inlineStr">
         <is>
-          <t>2019-12-29</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="B5288" t="n">
-        <v>8042178.284</v>
+        <v>18949481.536</v>
       </c>
     </row>
     <row r="5289">
       <c r="A5289" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B5289" t="n">
-        <v>9941198.092</v>
+        <v>12847069.898</v>
       </c>
     </row>
     <row r="5290">
       <c r="A5290" t="inlineStr">
         <is>
-          <t>2014-02-10</t>
+          <t>2019-12-29</t>
         </is>
       </c>
       <c r="B5290" t="n">
-        <v>6482705.217</v>
+        <v>8042178.284</v>
       </c>
     </row>
     <row r="5291">
       <c r="A5291" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="B5291" t="n">
-        <v>3639884.552</v>
+        <v>9941198.092</v>
       </c>
     </row>
     <row r="5292">
       <c r="A5292" t="inlineStr">
         <is>
-          <t>2011-09-13</t>
+          <t>2014-02-10</t>
         </is>
       </c>
       <c r="B5292" t="n">
-        <v>992731.454</v>
+        <v>6482705.217</v>
       </c>
     </row>
     <row r="5293">
       <c r="A5293" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="B5293" t="n">
-        <v>12025387.77</v>
+        <v>3639884.552</v>
       </c>
     </row>
     <row r="5294">
       <c r="A5294" t="inlineStr">
         <is>
-          <t>2017-02-14</t>
+          <t>2011-09-13</t>
         </is>
       </c>
       <c r="B5294" t="n">
-        <v>7583332.734</v>
+        <v>992731.454</v>
       </c>
     </row>
     <row r="5295">
       <c r="A5295" t="inlineStr">
         <is>
-          <t>2017-04-03</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B5295" t="n">
-        <v>9243648.802999999</v>
+        <v>12025387.77</v>
       </c>
     </row>
     <row r="5296">
       <c r="A5296" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2017-02-14</t>
         </is>
       </c>
       <c r="B5296" t="n">
-        <v>11517746.211</v>
+        <v>7583332.734</v>
       </c>
     </row>
     <row r="5297">
       <c r="A5297" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2017-04-03</t>
         </is>
       </c>
       <c r="B5297" t="n">
-        <v>19403702.941</v>
+        <v>9243648.802999999</v>
       </c>
     </row>
     <row r="5298">
       <c r="A5298" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B5298" t="n">
-        <v>7135383.216</v>
+        <v>11517746.211</v>
       </c>
     </row>
     <row r="5299">
       <c r="A5299" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B5299" t="n">
-        <v>10037167.8</v>
+        <v>19403702.941</v>
       </c>
     </row>
     <row r="5300">
       <c r="A5300" t="inlineStr">
         <is>
-          <t>2014-02-14</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="B5300" t="n">
-        <v>6165888.39</v>
+        <v>7135383.216</v>
       </c>
     </row>
     <row r="5301">
       <c r="A5301" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="B5301" t="n">
-        <v>18605805.647</v>
+        <v>10037167.8</v>
       </c>
     </row>
     <row r="5302">
       <c r="A5302" t="inlineStr">
         <is>
-          <t>2017-02-15</t>
+          <t>2014-02-14</t>
         </is>
       </c>
       <c r="B5302" t="n">
-        <v>7448825.404</v>
+        <v>6165888.39</v>
       </c>
     </row>
     <row r="5303">
       <c r="A5303" t="inlineStr">
         <is>
-          <t>2015-01-18</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B5303" t="n">
-        <v>4062626.204</v>
+        <v>18605805.647</v>
       </c>
     </row>
     <row r="5304">
       <c r="A5304" t="inlineStr">
         <is>
-          <t>2011-09-27</t>
+          <t>2017-02-15</t>
         </is>
       </c>
       <c r="B5304" t="n">
-        <v>744327.885</v>
+        <v>7448825.404</v>
       </c>
     </row>
     <row r="5305">
       <c r="A5305" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2015-01-18</t>
         </is>
       </c>
       <c r="B5305" t="n">
-        <v>18754649.599</v>
+        <v>4062626.204</v>
       </c>
     </row>
     <row r="5306">
       <c r="A5306" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2011-09-27</t>
         </is>
       </c>
       <c r="B5306" t="n">
-        <v>18648006.799</v>
+        <v>744327.885</v>
       </c>
     </row>
     <row r="5307">
       <c r="A5307" t="inlineStr">
         <is>
-          <t>2017-08-24</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B5307" t="n">
-        <v>19382954.778</v>
+        <v>18754649.599</v>
       </c>
     </row>
     <row r="5308">
       <c r="A5308" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B5308" t="n">
-        <v>8319527.642</v>
+        <v>18648006.799</v>
       </c>
     </row>
     <row r="5309">
       <c r="A5309" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2017-08-24</t>
         </is>
       </c>
       <c r="B5309" t="n">
-        <v>10152904.599</v>
+        <v>19382954.778</v>
       </c>
     </row>
     <row r="5310">
       <c r="A5310" t="inlineStr">
         <is>
-          <t>2014-02-26</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B5310" t="n">
-        <v>4892785.663</v>
+        <v>8319527.642</v>
       </c>
     </row>
     <row r="5311">
       <c r="A5311" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="B5311" t="n">
-        <v>15630701.474</v>
+        <v>10152904.599</v>
       </c>
     </row>
     <row r="5312">
       <c r="A5312" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2014-02-26</t>
         </is>
       </c>
       <c r="B5312" t="n">
-        <v>11711443.8</v>
+        <v>4892785.663</v>
       </c>
     </row>
     <row r="5313">
       <c r="A5313" t="inlineStr">
         <is>
-          <t>2017-03-06</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B5313" t="n">
-        <v>7818647.054</v>
+        <v>15630701.474</v>
       </c>
     </row>
     <row r="5314">
       <c r="A5314" t="inlineStr">
         <is>
-          <t>2015-01-26</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B5314" t="n">
-        <v>4227141.883</v>
+        <v>11711443.8</v>
       </c>
     </row>
     <row r="5315">
       <c r="A5315" t="inlineStr">
         <is>
-          <t>2011-10-11</t>
+          <t>2017-03-06</t>
         </is>
       </c>
       <c r="B5315" t="n">
-        <v>733876.334</v>
+        <v>7818647.054</v>
       </c>
     </row>
     <row r="5316">
       <c r="A5316" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2015-01-26</t>
         </is>
       </c>
       <c r="B5316" t="n">
-        <v>11437944.275</v>
+        <v>4227141.883</v>
       </c>
     </row>
     <row r="5317">
       <c r="A5317" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2011-10-11</t>
         </is>
       </c>
       <c r="B5317" t="n">
-        <v>8278468.575</v>
+        <v>733876.334</v>
       </c>
     </row>
     <row r="5318">
       <c r="A5318" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B5318" t="n">
-        <v>8620307.16</v>
+        <v>11437944.275</v>
       </c>
     </row>
     <row r="5319">
       <c r="A5319" t="inlineStr">
         <is>
-          <t>2014-03-15</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B5319" t="n">
-        <v>6519122.467</v>
+        <v>8278468.575</v>
       </c>
     </row>
     <row r="5320">
       <c r="A5320" t="inlineStr">
         <is>
-          <t>2017-03-12</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="B5320" t="n">
-        <v>8015167.541</v>
+        <v>8620307.16</v>
       </c>
     </row>
     <row r="5321">
       <c r="A5321" t="inlineStr">
         <is>
-          <t>2015-02-02</t>
+          <t>2014-03-15</t>
         </is>
       </c>
       <c r="B5321" t="n">
-        <v>4214903.008</v>
+        <v>6519122.467</v>
       </c>
     </row>
     <row r="5322">
       <c r="A5322" t="inlineStr">
         <is>
-          <t>2011-10-28</t>
+          <t>2017-03-12</t>
         </is>
       </c>
       <c r="B5322" t="n">
-        <v>735721.417</v>
+        <v>8015167.541</v>
       </c>
     </row>
     <row r="5323">
       <c r="A5323" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2015-02-02</t>
         </is>
       </c>
       <c r="B5323" t="n">
-        <v>18201448.889</v>
+        <v>4214903.008</v>
       </c>
     </row>
     <row r="5324">
       <c r="A5324" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="B5324" t="n">
-        <v>12856671.682</v>
+        <v>735721.417</v>
       </c>
     </row>
     <row r="5325">
       <c r="A5325" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B5325" t="n">
-        <v>7919062.632</v>
+        <v>18201448.889</v>
       </c>
     </row>
     <row r="5326">
       <c r="A5326" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B5326" t="n">
-        <v>9519524.592</v>
+        <v>12856671.682</v>
       </c>
     </row>
     <row r="5327">
       <c r="A5327" t="inlineStr">
         <is>
-          <t>2014-03-18</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B5327" t="n">
-        <v>6370558.748</v>
+        <v>7919062.632</v>
       </c>
     </row>
     <row r="5328">
       <c r="A5328" t="inlineStr">
         <is>
-          <t>2017-03-21</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="B5328" t="n">
-        <v>8412562.749</v>
+        <v>9519524.592</v>
       </c>
     </row>
     <row r="5329">
       <c r="A5329" t="inlineStr">
         <is>
-          <t>2015-02-09</t>
+          <t>2014-03-18</t>
         </is>
       </c>
       <c r="B5329" t="n">
-        <v>4096290.662</v>
+        <v>6370558.748</v>
       </c>
     </row>
     <row r="5330">
       <c r="A5330" t="inlineStr">
         <is>
-          <t>2011-10-31</t>
+          <t>2017-03-21</t>
         </is>
       </c>
       <c r="B5330" t="n">
-        <v>732160.326</v>
+        <v>8412562.749</v>
       </c>
     </row>
     <row r="5331">
       <c r="A5331" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2015-02-09</t>
         </is>
       </c>
       <c r="B5331" t="n">
-        <v>7287456.154</v>
+        <v>4096290.662</v>
       </c>
     </row>
     <row r="5332">
       <c r="A5332" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2011-10-31</t>
         </is>
       </c>
       <c r="B5332" t="n">
-        <v>9308642.501</v>
+        <v>732160.326</v>
       </c>
     </row>
     <row r="5333">
       <c r="A5333" t="inlineStr">
         <is>
-          <t>2014-04-06</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B5333" t="n">
-        <v>5505621.837</v>
+        <v>7287456.154</v>
       </c>
     </row>
     <row r="5334">
       <c r="A5334" t="inlineStr">
         <is>
-          <t>2017-04-09</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="B5334" t="n">
-        <v>8810606.551000001</v>
+        <v>9308642.501</v>
       </c>
     </row>
     <row r="5335">
       <c r="A5335" t="inlineStr">
         <is>
-          <t>2015-03-02</t>
+          <t>2014-04-06</t>
         </is>
       </c>
       <c r="B5335" t="n">
-        <v>3933274.224</v>
+        <v>5505621.837</v>
       </c>
     </row>
     <row r="5336">
       <c r="A5336" t="inlineStr">
         <is>
-          <t>2011-11-14</t>
+          <t>2017-04-09</t>
         </is>
       </c>
       <c r="B5336" t="n">
-        <v>826121.591</v>
+        <v>8810606.551000001</v>
       </c>
     </row>
     <row r="5337">
       <c r="A5337" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2015-03-02</t>
         </is>
       </c>
       <c r="B5337" t="n">
-        <v>10333719.079</v>
+        <v>3933274.224</v>
       </c>
     </row>
     <row r="5338">
       <c r="A5338" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2011-11-14</t>
         </is>
       </c>
       <c r="B5338" t="n">
-        <v>6907432.252</v>
+        <v>826121.591</v>
       </c>
     </row>
     <row r="5339">
       <c r="A5339" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B5339" t="n">
-        <v>9481051.257999999</v>
+        <v>10333719.079</v>
       </c>
     </row>
     <row r="5340">
       <c r="A5340" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B5340" t="n">
-        <v>16829264.336</v>
+        <v>6907432.252</v>
       </c>
     </row>
     <row r="5341">
       <c r="A5341" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="B5341" t="n">
-        <v>10843259.392</v>
+        <v>9481051.257999999</v>
       </c>
     </row>
     <row r="5342">
       <c r="A5342" t="inlineStr">
         <is>
-          <t>2014-04-27</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B5342" t="n">
-        <v>5438426.506</v>
+        <v>16829264.336</v>
       </c>
     </row>
     <row r="5343">
       <c r="A5343" t="inlineStr">
         <is>
-          <t>2015-03-09</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B5343" t="n">
-        <v>3900348.066</v>
+        <v>10843259.392</v>
       </c>
     </row>
     <row r="5344">
       <c r="A5344" t="inlineStr">
         <is>
-          <t>2011-11-16</t>
+          <t>2014-04-27</t>
         </is>
       </c>
       <c r="B5344" t="n">
-        <v>1048736.803</v>
+        <v>5438426.506</v>
       </c>
     </row>
     <row r="5345">
       <c r="A5345" t="inlineStr">
         <is>
-          <t>2017-04-20</t>
+          <t>2015-03-09</t>
         </is>
       </c>
       <c r="B5345" t="n">
-        <v>8967425.550000001</v>
+        <v>3900348.066</v>
       </c>
     </row>
     <row r="5346">
       <c r="A5346" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2011-11-16</t>
         </is>
       </c>
       <c r="B5346" t="n">
-        <v>12827728.942</v>
+        <v>1048736.803</v>
       </c>
     </row>
     <row r="5347">
       <c r="A5347" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2017-04-20</t>
         </is>
       </c>
       <c r="B5347" t="n">
-        <v>6721984.554</v>
+        <v>8967425.550000001</v>
       </c>
     </row>
     <row r="5348">
       <c r="A5348" t="inlineStr">
         <is>
-          <t>2022-08-06</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B5348" t="n">
-        <v>9532015.716</v>
+        <v>12827728.942</v>
       </c>
     </row>
     <row r="5349">
       <c r="A5349" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="B5349" t="n">
-        <v>16884075.838</v>
+        <v>6721984.554</v>
       </c>
     </row>
     <row r="5350">
       <c r="A5350" t="inlineStr">
         <is>
-          <t>2014-06-01</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="B5350" t="n">
-        <v>4343530.167</v>
+        <v>9532015.716</v>
       </c>
     </row>
     <row r="5351">
       <c r="A5351" t="inlineStr">
         <is>
-          <t>2015-03-22</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B5351" t="n">
-        <v>4135797.457</v>
+        <v>16884075.838</v>
       </c>
     </row>
     <row r="5352">
       <c r="A5352" t="inlineStr">
         <is>
-          <t>2017-04-30</t>
+          <t>2014-06-01</t>
         </is>
       </c>
       <c r="B5352" t="n">
-        <v>8922467.217</v>
+        <v>4343530.167</v>
       </c>
     </row>
     <row r="5353">
       <c r="A5353" t="inlineStr">
         <is>
-          <t>2011-11-19</t>
+          <t>2015-03-22</t>
         </is>
       </c>
       <c r="B5353" t="n">
-        <v>1086764.653</v>
+        <v>4135797.457</v>
       </c>
     </row>
     <row r="5354">
       <c r="A5354" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2017-04-30</t>
         </is>
       </c>
       <c r="B5354" t="n">
-        <v>13592327.934</v>
+        <v>8922467.217</v>
       </c>
     </row>
     <row r="5355">
       <c r="A5355" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2011-11-19</t>
         </is>
       </c>
       <c r="B5355" t="n">
-        <v>18930025.11</v>
+        <v>1086764.653</v>
       </c>
     </row>
     <row r="5356">
       <c r="A5356" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B5356" t="n">
-        <v>17480511.655</v>
+        <v>13592327.934</v>
       </c>
     </row>
     <row r="5357">
       <c r="A5357" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="B5357" t="n">
-        <v>15295963.935</v>
+        <v>18930025.11</v>
       </c>
     </row>
     <row r="5358">
       <c r="A5358" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B5358" t="n">
-        <v>5802826.225</v>
+        <v>17480511.655</v>
       </c>
     </row>
     <row r="5359">
       <c r="A5359" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="B5359" t="n">
-        <v>8363509.02</v>
+        <v>15295963.935</v>
       </c>
     </row>
     <row r="5360">
       <c r="A5360" t="inlineStr">
         <is>
-          <t>2014-06-28</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="B5360" t="n">
-        <v>2686947.84</v>
+        <v>5802826.225</v>
       </c>
     </row>
     <row r="5361">
       <c r="A5361" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="B5361" t="n">
-        <v>11641354.93</v>
+        <v>8363509.02</v>
       </c>
     </row>
     <row r="5362">
       <c r="A5362" t="inlineStr">
         <is>
-          <t>2017-05-17</t>
+          <t>2014-06-28</t>
         </is>
       </c>
       <c r="B5362" t="n">
-        <v>10300409.588</v>
+        <v>2686947.84</v>
       </c>
     </row>
     <row r="5363">
       <c r="A5363" t="inlineStr">
         <is>
-          <t>2015-03-29</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B5363" t="n">
-        <v>3988633.591</v>
+        <v>11641354.93</v>
       </c>
     </row>
     <row r="5364">
       <c r="A5364" t="inlineStr">
         <is>
-          <t>2011-12-03</t>
+          <t>2017-05-17</t>
         </is>
       </c>
       <c r="B5364" t="n">
-        <v>1095387.925</v>
+        <v>10300409.588</v>
       </c>
     </row>
     <row r="5365">
       <c r="A5365" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2015-03-29</t>
         </is>
       </c>
       <c r="B5365" t="n">
-        <v>17359924.278</v>
+        <v>3988633.591</v>
       </c>
     </row>
     <row r="5366">
       <c r="A5366" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2011-12-03</t>
         </is>
       </c>
       <c r="B5366" t="n">
-        <v>16833334.95</v>
+        <v>1095387.925</v>
       </c>
     </row>
     <row r="5367">
       <c r="A5367" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="B5367" t="n">
-        <v>10236215.389</v>
+        <v>17359924.278</v>
       </c>
     </row>
     <row r="5368">
       <c r="A5368" t="inlineStr">
         <is>
-          <t>2017-06-01</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B5368" t="n">
-        <v>11531744.112</v>
+        <v>16833334.95</v>
       </c>
     </row>
     <row r="5369">
       <c r="A5369" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B5369" t="n">
-        <v>6065155.983</v>
+        <v>10236215.389</v>
       </c>
     </row>
     <row r="5370">
       <c r="A5370" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2017-06-01</t>
         </is>
       </c>
       <c r="B5370" t="n">
-        <v>8049967.714</v>
+        <v>11531744.112</v>
       </c>
     </row>
     <row r="5371">
       <c r="A5371" t="inlineStr">
         <is>
-          <t>2024-07-13</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="B5371" t="n">
-        <v>15731904.375</v>
+        <v>6065155.983</v>
       </c>
     </row>
     <row r="5372">
       <c r="A5372" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="B5372" t="n">
-        <v>2436383.016</v>
+        <v>8049967.714</v>
       </c>
     </row>
     <row r="5373">
       <c r="A5373" t="inlineStr">
         <is>
-          <t>2015-04-06</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="B5373" t="n">
-        <v>3694404.674</v>
+        <v>15731904.375</v>
       </c>
     </row>
     <row r="5374">
       <c r="A5374" t="inlineStr">
         <is>
-          <t>2011-12-17</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="B5374" t="n">
-        <v>1066127.172</v>
+        <v>2436383.016</v>
       </c>
     </row>
     <row r="5375">
       <c r="A5375" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2015-04-06</t>
         </is>
       </c>
       <c r="B5375" t="n">
-        <v>19357870.444</v>
+        <v>3694404.674</v>
       </c>
     </row>
     <row r="5376">
       <c r="A5376" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2011-12-17</t>
         </is>
       </c>
       <c r="B5376" t="n">
-        <v>9506750.107999999</v>
+        <v>1066127.172</v>
       </c>
     </row>
     <row r="5377">
       <c r="A5377" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B5377" t="n">
-        <v>18249350.163</v>
+        <v>19357870.444</v>
       </c>
     </row>
     <row r="5378">
       <c r="A5378" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="B5378" t="n">
-        <v>10121188.898</v>
+        <v>9506750.107999999</v>
       </c>
     </row>
     <row r="5379">
       <c r="A5379" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B5379" t="n">
-        <v>18172193.247</v>
+        <v>18249350.163</v>
       </c>
     </row>
     <row r="5380">
       <c r="A5380" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B5380" t="n">
-        <v>11873870.808</v>
+        <v>10121188.898</v>
       </c>
     </row>
     <row r="5381">
       <c r="A5381" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B5381" t="n">
-        <v>16905626.816</v>
+        <v>18172193.247</v>
       </c>
     </row>
     <row r="5382">
       <c r="A5382" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B5382" t="n">
-        <v>11511228.874</v>
+        <v>11873870.808</v>
       </c>
     </row>
     <row r="5383">
       <c r="A5383" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B5383" t="n">
-        <v>18829096.598</v>
+        <v>16905626.816</v>
       </c>
     </row>
     <row r="5384">
       <c r="A5384" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2025-05-03</t>
         </is>
       </c>
       <c r="B5384" t="n">
-        <v>11905850.214</v>
+        <v>11511228.874</v>
       </c>
     </row>
     <row r="5385">
       <c r="A5385" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B5385" t="n">
-        <v>6820551.817</v>
+        <v>18829096.598</v>
       </c>
     </row>
     <row r="5386">
       <c r="A5386" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="B5386" t="n">
-        <v>6358468.879</v>
+        <v>11905850.214</v>
       </c>
     </row>
     <row r="5387">
       <c r="A5387" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="B5387" t="n">
-        <v>14873483.781</v>
+        <v>6820551.817</v>
       </c>
     </row>
     <row r="5388">
       <c r="A5388" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="B5388" t="n">
-        <v>11867652.532</v>
+        <v>6358468.879</v>
       </c>
     </row>
     <row r="5389">
       <c r="A5389" t="inlineStr">
         <is>
-          <t>2014-08-06</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B5389" t="n">
-        <v>2826869.713</v>
+        <v>14873483.781</v>
       </c>
     </row>
     <row r="5390">
       <c r="A5390" t="inlineStr">
         <is>
-          <t>2015-04-12</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B5390" t="n">
-        <v>3600337.897</v>
+        <v>11867652.532</v>
       </c>
     </row>
     <row r="5391">
       <c r="A5391" t="inlineStr">
         <is>
-          <t>2012-01-03</t>
+          <t>2014-08-06</t>
         </is>
       </c>
       <c r="B5391" t="n">
-        <v>1178238.791</v>
+        <v>2826869.713</v>
       </c>
     </row>
     <row r="5392">
       <c r="A5392" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2015-04-12</t>
       